--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="80">
   <si>
     <t>Id</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>#先锋124光明之旅</t>
+  </si>
+  <si>
+    <t>#先锋125断桥残雪</t>
   </si>
   <si>
     <t>Center</t>
@@ -1272,10 +1275,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O785"/>
+  <dimension ref="A3:O811"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A745" workbookViewId="0">
-      <selection activeCell="A765" sqref="A765"/>
+    <sheetView tabSelected="1" topLeftCell="A780" workbookViewId="0">
+      <selection activeCell="H787" sqref="H787:H790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14650,6 +14653,448 @@
         <v>42</v>
       </c>
       <c r="G785" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8">
+      <c r="A787" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C787" s="6">
+        <v>12501</v>
+      </c>
+      <c r="D787" s="3">
+        <v>125</v>
+      </c>
+      <c r="E787" s="5">
+        <v>1</v>
+      </c>
+      <c r="F787" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G787" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H787" s="3">
+        <v>20605</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8">
+      <c r="A788" s="1"/>
+      <c r="B788" s="1"/>
+      <c r="C788" s="6">
+        <v>12502</v>
+      </c>
+      <c r="D788" s="3">
+        <v>125</v>
+      </c>
+      <c r="E788" s="5">
+        <v>1</v>
+      </c>
+      <c r="F788" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G788" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H788" s="3">
+        <v>20606</v>
+      </c>
+    </row>
+    <row r="789" spans="3:8">
+      <c r="C789" s="6">
+        <v>12503</v>
+      </c>
+      <c r="D789" s="3">
+        <v>125</v>
+      </c>
+      <c r="E789" s="5">
+        <v>1</v>
+      </c>
+      <c r="F789" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G789" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H789" s="3">
+        <v>20607</v>
+      </c>
+    </row>
+    <row r="790" spans="3:8">
+      <c r="C790" s="6">
+        <v>12504</v>
+      </c>
+      <c r="D790" s="3">
+        <v>125</v>
+      </c>
+      <c r="E790" s="3">
+        <v>1</v>
+      </c>
+      <c r="F790" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G790" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H790" s="3">
+        <v>20608</v>
+      </c>
+    </row>
+    <row r="791" spans="3:7">
+      <c r="C791" s="6">
+        <v>12505</v>
+      </c>
+      <c r="D791" s="3">
+        <v>125</v>
+      </c>
+      <c r="E791" s="5">
+        <v>3</v>
+      </c>
+      <c r="F791" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G791" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="792" spans="3:7">
+      <c r="C792" s="6">
+        <v>12506</v>
+      </c>
+      <c r="D792" s="3">
+        <v>125</v>
+      </c>
+      <c r="E792" s="5">
+        <v>10</v>
+      </c>
+      <c r="F792" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G792" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="793" spans="3:7">
+      <c r="C793" s="6">
+        <v>12507</v>
+      </c>
+      <c r="D793" s="3">
+        <v>125</v>
+      </c>
+      <c r="E793" s="5">
+        <v>10</v>
+      </c>
+      <c r="F793" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G793" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="794" spans="3:7">
+      <c r="C794" s="6">
+        <v>12508</v>
+      </c>
+      <c r="D794" s="3">
+        <v>125</v>
+      </c>
+      <c r="E794" s="5">
+        <v>10</v>
+      </c>
+      <c r="F794" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G794" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="795" spans="3:7">
+      <c r="C795" s="6">
+        <v>12509</v>
+      </c>
+      <c r="D795" s="3">
+        <v>125</v>
+      </c>
+      <c r="E795" s="5">
+        <v>10</v>
+      </c>
+      <c r="F795" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G795" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="796" spans="3:7">
+      <c r="C796" s="6">
+        <v>12510</v>
+      </c>
+      <c r="D796" s="3">
+        <v>125</v>
+      </c>
+      <c r="E796" s="5">
+        <v>10</v>
+      </c>
+      <c r="F796" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G796" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="797" spans="3:7">
+      <c r="C797" s="6">
+        <v>12511</v>
+      </c>
+      <c r="D797" s="3">
+        <v>125</v>
+      </c>
+      <c r="E797" s="5">
+        <v>9</v>
+      </c>
+      <c r="F797" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G797" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="798" spans="3:7">
+      <c r="C798" s="6">
+        <v>12512</v>
+      </c>
+      <c r="D798" s="3">
+        <v>125</v>
+      </c>
+      <c r="E798" s="5">
+        <v>10</v>
+      </c>
+      <c r="F798" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G798" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="799" spans="3:7">
+      <c r="C799" s="6">
+        <v>12513</v>
+      </c>
+      <c r="D799" s="3">
+        <v>125</v>
+      </c>
+      <c r="E799" s="5">
+        <v>9</v>
+      </c>
+      <c r="F799" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G799" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="800" spans="3:7">
+      <c r="C800" s="6">
+        <v>12514</v>
+      </c>
+      <c r="D800" s="3">
+        <v>125</v>
+      </c>
+      <c r="E800" s="5">
+        <v>9</v>
+      </c>
+      <c r="F800" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G800" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="801" spans="3:7">
+      <c r="C801" s="6">
+        <v>12515</v>
+      </c>
+      <c r="D801" s="3">
+        <v>125</v>
+      </c>
+      <c r="E801" s="5">
+        <v>9</v>
+      </c>
+      <c r="F801" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G801" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="802" spans="3:7">
+      <c r="C802" s="6">
+        <v>12516</v>
+      </c>
+      <c r="D802" s="3">
+        <v>125</v>
+      </c>
+      <c r="E802" s="5">
+        <v>2</v>
+      </c>
+      <c r="F802" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G802" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="803" spans="3:7">
+      <c r="C803" s="6">
+        <v>12517</v>
+      </c>
+      <c r="D803" s="3">
+        <v>125</v>
+      </c>
+      <c r="E803" s="3">
+        <v>9</v>
+      </c>
+      <c r="F803" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G803" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="804" spans="3:7">
+      <c r="C804" s="6">
+        <v>12518</v>
+      </c>
+      <c r="D804" s="3">
+        <v>125</v>
+      </c>
+      <c r="E804" s="5">
+        <v>9</v>
+      </c>
+      <c r="F804" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G804" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="805" spans="3:7">
+      <c r="C805" s="6">
+        <v>12519</v>
+      </c>
+      <c r="D805" s="3">
+        <v>125</v>
+      </c>
+      <c r="E805" s="5">
+        <v>10</v>
+      </c>
+      <c r="F805" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G805" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="806" spans="3:7">
+      <c r="C806" s="6">
+        <v>12520</v>
+      </c>
+      <c r="D806" s="3">
+        <v>125</v>
+      </c>
+      <c r="E806" s="5">
+        <v>9</v>
+      </c>
+      <c r="F806" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G806" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="807" spans="3:7">
+      <c r="C807" s="6">
+        <v>12521</v>
+      </c>
+      <c r="D807" s="3">
+        <v>125</v>
+      </c>
+      <c r="E807" s="5">
+        <v>5</v>
+      </c>
+      <c r="F807" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G807" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="808" spans="3:7">
+      <c r="C808" s="6">
+        <v>12522</v>
+      </c>
+      <c r="D808" s="3">
+        <v>125</v>
+      </c>
+      <c r="E808" s="5">
+        <v>6</v>
+      </c>
+      <c r="F808" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G808" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="809" spans="3:7">
+      <c r="C809" s="6">
+        <v>12523</v>
+      </c>
+      <c r="D809" s="3">
+        <v>125</v>
+      </c>
+      <c r="E809" s="5">
+        <v>7</v>
+      </c>
+      <c r="F809" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G809" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="810" spans="3:7">
+      <c r="C810" s="6">
+        <v>12524</v>
+      </c>
+      <c r="D810" s="3">
+        <v>125</v>
+      </c>
+      <c r="E810" s="5">
+        <v>8</v>
+      </c>
+      <c r="F810" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G810" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="811" spans="3:7">
+      <c r="C811" s="6">
+        <v>12525</v>
+      </c>
+      <c r="D811" s="3">
+        <v>125</v>
+      </c>
+      <c r="E811" s="5">
+        <v>9</v>
+      </c>
+      <c r="F811" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G811" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -14775,10 +15220,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -14793,10 +15238,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -14811,10 +15256,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -14829,10 +15274,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H9" s="5">
         <v>20304</v>
@@ -14849,10 +15294,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -14952,10 +15397,10 @@
         <v>203</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="81">
   <si>
     <t>Id</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>#先锋125断桥残雪</t>
+  </si>
+  <si>
+    <t>#先锋126</t>
   </si>
   <si>
     <t>Center</t>
@@ -1275,10 +1278,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O811"/>
+  <dimension ref="A3:O837"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A780" workbookViewId="0">
-      <selection activeCell="H787" sqref="H787:H790"/>
+    <sheetView tabSelected="1" topLeftCell="A806" workbookViewId="0">
+      <selection activeCell="H819" sqref="H819"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15095,6 +15098,448 @@
         <v>42</v>
       </c>
       <c r="G811" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8">
+      <c r="A813" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C813" s="6">
+        <v>12601</v>
+      </c>
+      <c r="D813" s="3">
+        <v>126</v>
+      </c>
+      <c r="E813" s="5">
+        <v>1</v>
+      </c>
+      <c r="F813" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G813" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H813" s="3">
+        <v>20615</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8">
+      <c r="A814" s="1"/>
+      <c r="B814" s="1"/>
+      <c r="C814" s="6">
+        <v>12602</v>
+      </c>
+      <c r="D814" s="3">
+        <v>126</v>
+      </c>
+      <c r="E814" s="5">
+        <v>1</v>
+      </c>
+      <c r="F814" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G814" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H814" s="3">
+        <v>20616</v>
+      </c>
+    </row>
+    <row r="815" spans="3:8">
+      <c r="C815" s="6">
+        <v>12603</v>
+      </c>
+      <c r="D815" s="3">
+        <v>126</v>
+      </c>
+      <c r="E815" s="5">
+        <v>1</v>
+      </c>
+      <c r="F815" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G815" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H815" s="3">
+        <v>20617</v>
+      </c>
+    </row>
+    <row r="816" spans="3:8">
+      <c r="C816" s="6">
+        <v>12604</v>
+      </c>
+      <c r="D816" s="3">
+        <v>126</v>
+      </c>
+      <c r="E816" s="3">
+        <v>1</v>
+      </c>
+      <c r="F816" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G816" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H816" s="3">
+        <v>20618</v>
+      </c>
+    </row>
+    <row r="817" spans="3:7">
+      <c r="C817" s="6">
+        <v>12605</v>
+      </c>
+      <c r="D817" s="3">
+        <v>126</v>
+      </c>
+      <c r="E817" s="5">
+        <v>3</v>
+      </c>
+      <c r="F817" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G817" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="818" spans="3:7">
+      <c r="C818" s="6">
+        <v>12606</v>
+      </c>
+      <c r="D818" s="3">
+        <v>126</v>
+      </c>
+      <c r="E818" s="5">
+        <v>10</v>
+      </c>
+      <c r="F818" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G818" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="819" spans="3:7">
+      <c r="C819" s="6">
+        <v>12607</v>
+      </c>
+      <c r="D819" s="3">
+        <v>126</v>
+      </c>
+      <c r="E819" s="5">
+        <v>10</v>
+      </c>
+      <c r="F819" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G819" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="820" spans="3:7">
+      <c r="C820" s="6">
+        <v>12608</v>
+      </c>
+      <c r="D820" s="3">
+        <v>126</v>
+      </c>
+      <c r="E820" s="5">
+        <v>10</v>
+      </c>
+      <c r="F820" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G820" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="821" spans="3:7">
+      <c r="C821" s="6">
+        <v>12609</v>
+      </c>
+      <c r="D821" s="3">
+        <v>126</v>
+      </c>
+      <c r="E821" s="5">
+        <v>10</v>
+      </c>
+      <c r="F821" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G821" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="822" spans="3:7">
+      <c r="C822" s="6">
+        <v>12610</v>
+      </c>
+      <c r="D822" s="3">
+        <v>126</v>
+      </c>
+      <c r="E822" s="5">
+        <v>10</v>
+      </c>
+      <c r="F822" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G822" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="823" spans="3:7">
+      <c r="C823" s="6">
+        <v>12611</v>
+      </c>
+      <c r="D823" s="3">
+        <v>126</v>
+      </c>
+      <c r="E823" s="5">
+        <v>9</v>
+      </c>
+      <c r="F823" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G823" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="824" spans="3:7">
+      <c r="C824" s="6">
+        <v>12612</v>
+      </c>
+      <c r="D824" s="3">
+        <v>126</v>
+      </c>
+      <c r="E824" s="5">
+        <v>10</v>
+      </c>
+      <c r="F824" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G824" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="825" spans="3:7">
+      <c r="C825" s="6">
+        <v>12613</v>
+      </c>
+      <c r="D825" s="3">
+        <v>126</v>
+      </c>
+      <c r="E825" s="5">
+        <v>9</v>
+      </c>
+      <c r="F825" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G825" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="826" spans="3:7">
+      <c r="C826" s="6">
+        <v>12614</v>
+      </c>
+      <c r="D826" s="3">
+        <v>126</v>
+      </c>
+      <c r="E826" s="5">
+        <v>9</v>
+      </c>
+      <c r="F826" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G826" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="827" spans="3:7">
+      <c r="C827" s="6">
+        <v>12615</v>
+      </c>
+      <c r="D827" s="3">
+        <v>126</v>
+      </c>
+      <c r="E827" s="5">
+        <v>9</v>
+      </c>
+      <c r="F827" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G827" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="828" spans="3:7">
+      <c r="C828" s="6">
+        <v>12616</v>
+      </c>
+      <c r="D828" s="3">
+        <v>126</v>
+      </c>
+      <c r="E828" s="5">
+        <v>2</v>
+      </c>
+      <c r="F828" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G828" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="829" spans="3:7">
+      <c r="C829" s="6">
+        <v>12617</v>
+      </c>
+      <c r="D829" s="3">
+        <v>126</v>
+      </c>
+      <c r="E829" s="3">
+        <v>9</v>
+      </c>
+      <c r="F829" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G829" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="830" spans="3:7">
+      <c r="C830" s="6">
+        <v>12618</v>
+      </c>
+      <c r="D830" s="3">
+        <v>126</v>
+      </c>
+      <c r="E830" s="5">
+        <v>9</v>
+      </c>
+      <c r="F830" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G830" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="831" spans="3:7">
+      <c r="C831" s="6">
+        <v>12619</v>
+      </c>
+      <c r="D831" s="3">
+        <v>126</v>
+      </c>
+      <c r="E831" s="5">
+        <v>10</v>
+      </c>
+      <c r="F831" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G831" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="832" spans="3:7">
+      <c r="C832" s="6">
+        <v>12620</v>
+      </c>
+      <c r="D832" s="3">
+        <v>126</v>
+      </c>
+      <c r="E832" s="5">
+        <v>9</v>
+      </c>
+      <c r="F832" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G832" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="833" spans="3:7">
+      <c r="C833" s="6">
+        <v>12621</v>
+      </c>
+      <c r="D833" s="3">
+        <v>126</v>
+      </c>
+      <c r="E833" s="5">
+        <v>5</v>
+      </c>
+      <c r="F833" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G833" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="834" spans="3:7">
+      <c r="C834" s="6">
+        <v>12622</v>
+      </c>
+      <c r="D834" s="3">
+        <v>126</v>
+      </c>
+      <c r="E834" s="5">
+        <v>6</v>
+      </c>
+      <c r="F834" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G834" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="835" spans="3:7">
+      <c r="C835" s="6">
+        <v>12623</v>
+      </c>
+      <c r="D835" s="3">
+        <v>126</v>
+      </c>
+      <c r="E835" s="5">
+        <v>7</v>
+      </c>
+      <c r="F835" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G835" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="836" spans="3:7">
+      <c r="C836" s="6">
+        <v>12624</v>
+      </c>
+      <c r="D836" s="3">
+        <v>126</v>
+      </c>
+      <c r="E836" s="5">
+        <v>8</v>
+      </c>
+      <c r="F836" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G836" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="837" spans="3:7">
+      <c r="C837" s="6">
+        <v>12625</v>
+      </c>
+      <c r="D837" s="3">
+        <v>126</v>
+      </c>
+      <c r="E837" s="5">
+        <v>9</v>
+      </c>
+      <c r="F837" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G837" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -15220,10 +15665,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -15238,10 +15683,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -15256,10 +15701,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -15274,10 +15719,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" s="5">
         <v>20304</v>
@@ -15294,10 +15739,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -15397,10 +15842,10 @@
         <v>203</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -202,19 +202,10 @@
     <t>#先锋105区锦绣山河</t>
   </si>
   <si>
-    <t>#先锋107区海纳百川</t>
-  </si>
-  <si>
     <t>#先锋109区星辰大海</t>
   </si>
   <si>
-    <t>#先锋111区流年不负</t>
-  </si>
-  <si>
     <t>#先锋113区纵横驰骋</t>
-  </si>
-  <si>
-    <t>#先锋114区晴空万里</t>
   </si>
   <si>
     <t>#先锋115区九州四海</t>
@@ -250,7 +241,7 @@
     <t>#先锋125断桥残雪</t>
   </si>
   <si>
-    <t>#先锋126</t>
+    <t>#先锋126南屏晚钟</t>
   </si>
   <si>
     <t>Center</t>
@@ -1278,10 +1269,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O837"/>
+  <dimension ref="A3:O759"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A806" workbookViewId="0">
-      <selection activeCell="H819" sqref="H819"/>
+    <sheetView tabSelected="1" topLeftCell="A730" workbookViewId="0">
+      <selection activeCell="A744" sqref="A744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8034,10 +8025,10 @@
         <v>57</v>
       </c>
       <c r="C397" s="6">
-        <v>10701</v>
+        <v>10901</v>
       </c>
       <c r="D397" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E397" s="5">
         <v>1</v>
@@ -8049,17 +8040,17 @@
         <v>15</v>
       </c>
       <c r="H397" s="3">
-        <v>20455</v>
+        <v>20475</v>
       </c>
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="6">
-        <v>10702</v>
+        <v>10902</v>
       </c>
       <c r="D398" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E398" s="5">
         <v>1</v>
@@ -8071,15 +8062,15 @@
         <v>16</v>
       </c>
       <c r="H398" s="3">
-        <v>20456</v>
+        <v>20476</v>
       </c>
     </row>
     <row r="399" spans="3:8">
       <c r="C399" s="6">
-        <v>10703</v>
+        <v>10903</v>
       </c>
       <c r="D399" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E399" s="5">
         <v>1</v>
@@ -8091,15 +8082,15 @@
         <v>18</v>
       </c>
       <c r="H399" s="3">
-        <v>20457</v>
+        <v>20477</v>
       </c>
     </row>
     <row r="400" spans="3:8">
       <c r="C400" s="6">
-        <v>10704</v>
+        <v>10904</v>
       </c>
       <c r="D400" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E400" s="3">
         <v>1</v>
@@ -8111,15 +8102,15 @@
         <v>19</v>
       </c>
       <c r="H400" s="3">
-        <v>20458</v>
+        <v>20478</v>
       </c>
     </row>
     <row r="401" spans="3:7">
       <c r="C401" s="6">
-        <v>10705</v>
+        <v>10905</v>
       </c>
       <c r="D401" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E401" s="5">
         <v>3</v>
@@ -8133,10 +8124,10 @@
     </row>
     <row r="402" spans="3:7">
       <c r="C402" s="6">
-        <v>10706</v>
+        <v>10906</v>
       </c>
       <c r="D402" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E402" s="5">
         <v>10</v>
@@ -8150,10 +8141,10 @@
     </row>
     <row r="403" spans="3:7">
       <c r="C403" s="6">
-        <v>10707</v>
+        <v>10907</v>
       </c>
       <c r="D403" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E403" s="5">
         <v>10</v>
@@ -8167,10 +8158,10 @@
     </row>
     <row r="404" spans="3:7">
       <c r="C404" s="6">
-        <v>10708</v>
+        <v>10908</v>
       </c>
       <c r="D404" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E404" s="5">
         <v>10</v>
@@ -8184,10 +8175,10 @@
     </row>
     <row r="405" spans="3:7">
       <c r="C405" s="6">
-        <v>10709</v>
+        <v>10909</v>
       </c>
       <c r="D405" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E405" s="5">
         <v>10</v>
@@ -8201,10 +8192,10 @@
     </row>
     <row r="406" spans="3:7">
       <c r="C406" s="6">
-        <v>10710</v>
+        <v>10910</v>
       </c>
       <c r="D406" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E406" s="5">
         <v>10</v>
@@ -8218,10 +8209,10 @@
     </row>
     <row r="407" spans="3:7">
       <c r="C407" s="6">
-        <v>10711</v>
+        <v>10911</v>
       </c>
       <c r="D407" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E407" s="5">
         <v>9</v>
@@ -8235,10 +8226,10 @@
     </row>
     <row r="408" spans="3:7">
       <c r="C408" s="6">
-        <v>10712</v>
+        <v>10912</v>
       </c>
       <c r="D408" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E408" s="5">
         <v>10</v>
@@ -8252,10 +8243,10 @@
     </row>
     <row r="409" spans="3:7">
       <c r="C409" s="6">
-        <v>10713</v>
+        <v>10913</v>
       </c>
       <c r="D409" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E409" s="5">
         <v>9</v>
@@ -8269,10 +8260,10 @@
     </row>
     <row r="410" spans="3:7">
       <c r="C410" s="6">
-        <v>10714</v>
+        <v>10914</v>
       </c>
       <c r="D410" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E410" s="5">
         <v>9</v>
@@ -8286,10 +8277,10 @@
     </row>
     <row r="411" spans="3:7">
       <c r="C411" s="6">
-        <v>10715</v>
+        <v>10915</v>
       </c>
       <c r="D411" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E411" s="5">
         <v>9</v>
@@ -8303,10 +8294,10 @@
     </row>
     <row r="412" spans="3:7">
       <c r="C412" s="6">
-        <v>10716</v>
+        <v>10916</v>
       </c>
       <c r="D412" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E412" s="5">
         <v>2</v>
@@ -8320,10 +8311,10 @@
     </row>
     <row r="413" spans="3:7">
       <c r="C413" s="6">
-        <v>10717</v>
+        <v>10917</v>
       </c>
       <c r="D413" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E413" s="3">
         <v>9</v>
@@ -8337,10 +8328,10 @@
     </row>
     <row r="414" spans="3:7">
       <c r="C414" s="6">
-        <v>10718</v>
+        <v>10918</v>
       </c>
       <c r="D414" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E414" s="5">
         <v>9</v>
@@ -8354,10 +8345,10 @@
     </row>
     <row r="415" spans="3:7">
       <c r="C415" s="6">
-        <v>10719</v>
+        <v>10919</v>
       </c>
       <c r="D415" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E415" s="5">
         <v>10</v>
@@ -8371,10 +8362,10 @@
     </row>
     <row r="416" spans="3:7">
       <c r="C416" s="6">
-        <v>10720</v>
+        <v>10920</v>
       </c>
       <c r="D416" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E416" s="5">
         <v>9</v>
@@ -8388,10 +8379,10 @@
     </row>
     <row r="417" spans="3:7">
       <c r="C417" s="6">
-        <v>10721</v>
+        <v>10921</v>
       </c>
       <c r="D417" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E417" s="5">
         <v>5</v>
@@ -8405,10 +8396,10 @@
     </row>
     <row r="418" spans="3:7">
       <c r="C418" s="6">
-        <v>10722</v>
+        <v>10922</v>
       </c>
       <c r="D418" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E418" s="5">
         <v>6</v>
@@ -8422,10 +8413,10 @@
     </row>
     <row r="419" spans="3:7">
       <c r="C419" s="6">
-        <v>10723</v>
+        <v>10923</v>
       </c>
       <c r="D419" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E419" s="5">
         <v>7</v>
@@ -8439,10 +8430,10 @@
     </row>
     <row r="420" spans="3:7">
       <c r="C420" s="6">
-        <v>10724</v>
+        <v>10924</v>
       </c>
       <c r="D420" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E420" s="5">
         <v>8</v>
@@ -8456,10 +8447,10 @@
     </row>
     <row r="421" spans="3:7">
       <c r="C421" s="6">
-        <v>10725</v>
+        <v>10925</v>
       </c>
       <c r="D421" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E421" s="5">
         <v>9</v>
@@ -8476,10 +8467,10 @@
         <v>58</v>
       </c>
       <c r="C423" s="6">
-        <v>10901</v>
+        <v>11301</v>
       </c>
       <c r="D423" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E423" s="5">
         <v>1</v>
@@ -8491,17 +8482,17 @@
         <v>15</v>
       </c>
       <c r="H423" s="3">
-        <v>20475</v>
+        <v>20545</v>
       </c>
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="6">
-        <v>10902</v>
+        <v>11302</v>
       </c>
       <c r="D424" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E424" s="5">
         <v>1</v>
@@ -8513,15 +8504,15 @@
         <v>16</v>
       </c>
       <c r="H424" s="3">
-        <v>20476</v>
+        <v>20546</v>
       </c>
     </row>
     <row r="425" spans="3:8">
       <c r="C425" s="6">
-        <v>10903</v>
+        <v>11303</v>
       </c>
       <c r="D425" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E425" s="5">
         <v>1</v>
@@ -8533,15 +8524,15 @@
         <v>18</v>
       </c>
       <c r="H425" s="3">
-        <v>20477</v>
+        <v>20547</v>
       </c>
     </row>
     <row r="426" spans="3:8">
       <c r="C426" s="6">
-        <v>10904</v>
+        <v>11304</v>
       </c>
       <c r="D426" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E426" s="3">
         <v>1</v>
@@ -8553,15 +8544,15 @@
         <v>19</v>
       </c>
       <c r="H426" s="3">
-        <v>20478</v>
+        <v>20548</v>
       </c>
     </row>
     <row r="427" spans="3:7">
       <c r="C427" s="6">
-        <v>10905</v>
+        <v>11305</v>
       </c>
       <c r="D427" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E427" s="5">
         <v>3</v>
@@ -8575,10 +8566,10 @@
     </row>
     <row r="428" spans="3:7">
       <c r="C428" s="6">
-        <v>10906</v>
+        <v>11306</v>
       </c>
       <c r="D428" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E428" s="5">
         <v>10</v>
@@ -8592,10 +8583,10 @@
     </row>
     <row r="429" spans="3:7">
       <c r="C429" s="6">
-        <v>10907</v>
+        <v>11307</v>
       </c>
       <c r="D429" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E429" s="5">
         <v>10</v>
@@ -8609,10 +8600,10 @@
     </row>
     <row r="430" spans="3:7">
       <c r="C430" s="6">
-        <v>10908</v>
+        <v>11308</v>
       </c>
       <c r="D430" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E430" s="5">
         <v>10</v>
@@ -8626,10 +8617,10 @@
     </row>
     <row r="431" spans="3:7">
       <c r="C431" s="6">
-        <v>10909</v>
+        <v>11309</v>
       </c>
       <c r="D431" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E431" s="5">
         <v>10</v>
@@ -8643,10 +8634,10 @@
     </row>
     <row r="432" spans="3:7">
       <c r="C432" s="6">
-        <v>10910</v>
+        <v>11310</v>
       </c>
       <c r="D432" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E432" s="5">
         <v>10</v>
@@ -8660,10 +8651,10 @@
     </row>
     <row r="433" spans="3:7">
       <c r="C433" s="6">
-        <v>10911</v>
+        <v>11311</v>
       </c>
       <c r="D433" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E433" s="5">
         <v>9</v>
@@ -8677,10 +8668,10 @@
     </row>
     <row r="434" spans="3:7">
       <c r="C434" s="6">
-        <v>10912</v>
+        <v>11312</v>
       </c>
       <c r="D434" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E434" s="5">
         <v>10</v>
@@ -8694,10 +8685,10 @@
     </row>
     <row r="435" spans="3:7">
       <c r="C435" s="6">
-        <v>10913</v>
+        <v>11313</v>
       </c>
       <c r="D435" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E435" s="5">
         <v>9</v>
@@ -8711,10 +8702,10 @@
     </row>
     <row r="436" spans="3:7">
       <c r="C436" s="6">
-        <v>10914</v>
+        <v>11314</v>
       </c>
       <c r="D436" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E436" s="5">
         <v>9</v>
@@ -8728,10 +8719,10 @@
     </row>
     <row r="437" spans="3:7">
       <c r="C437" s="6">
-        <v>10915</v>
+        <v>11315</v>
       </c>
       <c r="D437" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E437" s="5">
         <v>9</v>
@@ -8745,10 +8736,10 @@
     </row>
     <row r="438" spans="3:7">
       <c r="C438" s="6">
-        <v>10916</v>
+        <v>11316</v>
       </c>
       <c r="D438" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E438" s="5">
         <v>2</v>
@@ -8762,10 +8753,10 @@
     </row>
     <row r="439" spans="3:7">
       <c r="C439" s="6">
-        <v>10917</v>
+        <v>11317</v>
       </c>
       <c r="D439" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E439" s="3">
         <v>9</v>
@@ -8779,10 +8770,10 @@
     </row>
     <row r="440" spans="3:7">
       <c r="C440" s="6">
-        <v>10918</v>
+        <v>11318</v>
       </c>
       <c r="D440" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E440" s="5">
         <v>9</v>
@@ -8796,10 +8787,10 @@
     </row>
     <row r="441" spans="3:7">
       <c r="C441" s="6">
-        <v>10919</v>
+        <v>11319</v>
       </c>
       <c r="D441" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E441" s="5">
         <v>10</v>
@@ -8813,10 +8804,10 @@
     </row>
     <row r="442" spans="3:7">
       <c r="C442" s="6">
-        <v>10920</v>
+        <v>11320</v>
       </c>
       <c r="D442" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E442" s="5">
         <v>9</v>
@@ -8830,10 +8821,10 @@
     </row>
     <row r="443" spans="3:7">
       <c r="C443" s="6">
-        <v>10921</v>
+        <v>11321</v>
       </c>
       <c r="D443" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E443" s="5">
         <v>5</v>
@@ -8847,10 +8838,10 @@
     </row>
     <row r="444" spans="3:7">
       <c r="C444" s="6">
-        <v>10922</v>
+        <v>11322</v>
       </c>
       <c r="D444" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E444" s="5">
         <v>6</v>
@@ -8864,10 +8855,10 @@
     </row>
     <row r="445" spans="3:7">
       <c r="C445" s="6">
-        <v>10923</v>
+        <v>11323</v>
       </c>
       <c r="D445" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E445" s="5">
         <v>7</v>
@@ -8881,10 +8872,10 @@
     </row>
     <row r="446" spans="3:7">
       <c r="C446" s="6">
-        <v>10924</v>
+        <v>11324</v>
       </c>
       <c r="D446" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E446" s="5">
         <v>8</v>
@@ -8898,10 +8889,10 @@
     </row>
     <row r="447" spans="3:7">
       <c r="C447" s="6">
-        <v>10925</v>
+        <v>11325</v>
       </c>
       <c r="D447" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E447" s="5">
         <v>9</v>
@@ -8918,10 +8909,10 @@
         <v>59</v>
       </c>
       <c r="C449" s="6">
-        <v>11101</v>
+        <v>11501</v>
       </c>
       <c r="D449" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E449" s="5">
         <v>1</v>
@@ -8933,17 +8924,17 @@
         <v>15</v>
       </c>
       <c r="H449" s="3">
-        <v>20515</v>
+        <v>20495</v>
       </c>
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="6">
-        <v>11102</v>
+        <v>11502</v>
       </c>
       <c r="D450" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E450" s="5">
         <v>1</v>
@@ -8955,15 +8946,15 @@
         <v>16</v>
       </c>
       <c r="H450" s="3">
-        <v>20516</v>
+        <v>20496</v>
       </c>
     </row>
     <row r="451" spans="3:8">
       <c r="C451" s="6">
-        <v>11103</v>
+        <v>11503</v>
       </c>
       <c r="D451" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E451" s="5">
         <v>1</v>
@@ -8975,15 +8966,15 @@
         <v>18</v>
       </c>
       <c r="H451" s="3">
-        <v>20517</v>
+        <v>20497</v>
       </c>
     </row>
     <row r="452" spans="3:8">
       <c r="C452" s="6">
-        <v>11104</v>
+        <v>11504</v>
       </c>
       <c r="D452" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E452" s="3">
         <v>1</v>
@@ -8995,15 +8986,15 @@
         <v>19</v>
       </c>
       <c r="H452" s="3">
-        <v>20518</v>
+        <v>20498</v>
       </c>
     </row>
     <row r="453" spans="3:7">
       <c r="C453" s="6">
-        <v>11105</v>
+        <v>11505</v>
       </c>
       <c r="D453" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E453" s="5">
         <v>3</v>
@@ -9017,10 +9008,10 @@
     </row>
     <row r="454" spans="3:7">
       <c r="C454" s="6">
-        <v>11106</v>
+        <v>11506</v>
       </c>
       <c r="D454" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E454" s="5">
         <v>10</v>
@@ -9034,10 +9025,10 @@
     </row>
     <row r="455" spans="3:7">
       <c r="C455" s="6">
-        <v>11107</v>
+        <v>11507</v>
       </c>
       <c r="D455" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E455" s="5">
         <v>10</v>
@@ -9051,10 +9042,10 @@
     </row>
     <row r="456" spans="3:7">
       <c r="C456" s="6">
-        <v>11108</v>
+        <v>11508</v>
       </c>
       <c r="D456" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E456" s="5">
         <v>10</v>
@@ -9068,10 +9059,10 @@
     </row>
     <row r="457" spans="3:7">
       <c r="C457" s="6">
-        <v>11109</v>
+        <v>11509</v>
       </c>
       <c r="D457" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E457" s="5">
         <v>10</v>
@@ -9085,10 +9076,10 @@
     </row>
     <row r="458" spans="3:7">
       <c r="C458" s="6">
-        <v>11110</v>
+        <v>11510</v>
       </c>
       <c r="D458" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E458" s="5">
         <v>10</v>
@@ -9102,10 +9093,10 @@
     </row>
     <row r="459" spans="3:7">
       <c r="C459" s="6">
-        <v>11111</v>
+        <v>11511</v>
       </c>
       <c r="D459" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E459" s="5">
         <v>9</v>
@@ -9119,10 +9110,10 @@
     </row>
     <row r="460" spans="3:7">
       <c r="C460" s="6">
-        <v>11112</v>
+        <v>11512</v>
       </c>
       <c r="D460" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E460" s="5">
         <v>10</v>
@@ -9136,10 +9127,10 @@
     </row>
     <row r="461" spans="3:7">
       <c r="C461" s="6">
-        <v>11113</v>
+        <v>11513</v>
       </c>
       <c r="D461" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E461" s="5">
         <v>9</v>
@@ -9153,10 +9144,10 @@
     </row>
     <row r="462" spans="3:7">
       <c r="C462" s="6">
-        <v>11114</v>
+        <v>11514</v>
       </c>
       <c r="D462" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E462" s="5">
         <v>9</v>
@@ -9170,10 +9161,10 @@
     </row>
     <row r="463" spans="3:7">
       <c r="C463" s="6">
-        <v>11115</v>
+        <v>11515</v>
       </c>
       <c r="D463" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E463" s="5">
         <v>9</v>
@@ -9187,10 +9178,10 @@
     </row>
     <row r="464" spans="3:7">
       <c r="C464" s="6">
-        <v>11116</v>
+        <v>11516</v>
       </c>
       <c r="D464" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E464" s="5">
         <v>2</v>
@@ -9204,10 +9195,10 @@
     </row>
     <row r="465" spans="3:7">
       <c r="C465" s="6">
-        <v>11117</v>
+        <v>11517</v>
       </c>
       <c r="D465" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E465" s="3">
         <v>9</v>
@@ -9221,10 +9212,10 @@
     </row>
     <row r="466" spans="3:7">
       <c r="C466" s="6">
-        <v>11118</v>
+        <v>11518</v>
       </c>
       <c r="D466" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E466" s="5">
         <v>9</v>
@@ -9238,10 +9229,10 @@
     </row>
     <row r="467" spans="3:7">
       <c r="C467" s="6">
-        <v>11119</v>
+        <v>11519</v>
       </c>
       <c r="D467" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E467" s="5">
         <v>10</v>
@@ -9255,10 +9246,10 @@
     </row>
     <row r="468" spans="3:7">
       <c r="C468" s="6">
-        <v>11120</v>
+        <v>11520</v>
       </c>
       <c r="D468" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E468" s="5">
         <v>9</v>
@@ -9272,10 +9263,10 @@
     </row>
     <row r="469" spans="3:7">
       <c r="C469" s="6">
-        <v>11121</v>
+        <v>11521</v>
       </c>
       <c r="D469" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E469" s="5">
         <v>5</v>
@@ -9289,10 +9280,10 @@
     </row>
     <row r="470" spans="3:7">
       <c r="C470" s="6">
-        <v>11122</v>
+        <v>11522</v>
       </c>
       <c r="D470" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E470" s="5">
         <v>6</v>
@@ -9306,10 +9297,10 @@
     </row>
     <row r="471" spans="3:7">
       <c r="C471" s="6">
-        <v>11123</v>
+        <v>11523</v>
       </c>
       <c r="D471" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E471" s="5">
         <v>7</v>
@@ -9323,10 +9314,10 @@
     </row>
     <row r="472" spans="3:7">
       <c r="C472" s="6">
-        <v>11124</v>
+        <v>11524</v>
       </c>
       <c r="D472" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E472" s="5">
         <v>8</v>
@@ -9340,10 +9331,10 @@
     </row>
     <row r="473" spans="3:7">
       <c r="C473" s="6">
-        <v>11125</v>
+        <v>11525</v>
       </c>
       <c r="D473" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E473" s="5">
         <v>9</v>
@@ -9360,10 +9351,10 @@
         <v>60</v>
       </c>
       <c r="C475" s="6">
-        <v>11301</v>
+        <v>11601</v>
       </c>
       <c r="D475" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E475" s="5">
         <v>1</v>
@@ -9375,17 +9366,17 @@
         <v>15</v>
       </c>
       <c r="H475" s="3">
-        <v>20545</v>
+        <v>20565</v>
       </c>
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="6">
-        <v>11302</v>
+        <v>11602</v>
       </c>
       <c r="D476" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E476" s="5">
         <v>1</v>
@@ -9397,15 +9388,15 @@
         <v>16</v>
       </c>
       <c r="H476" s="3">
-        <v>20546</v>
+        <v>20566</v>
       </c>
     </row>
     <row r="477" spans="3:8">
       <c r="C477" s="6">
-        <v>11303</v>
+        <v>11603</v>
       </c>
       <c r="D477" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E477" s="5">
         <v>1</v>
@@ -9417,15 +9408,15 @@
         <v>18</v>
       </c>
       <c r="H477" s="3">
-        <v>20547</v>
+        <v>20567</v>
       </c>
     </row>
     <row r="478" spans="3:8">
       <c r="C478" s="6">
-        <v>11304</v>
+        <v>11604</v>
       </c>
       <c r="D478" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E478" s="3">
         <v>1</v>
@@ -9437,15 +9428,15 @@
         <v>19</v>
       </c>
       <c r="H478" s="3">
-        <v>20548</v>
+        <v>20568</v>
       </c>
     </row>
     <row r="479" spans="3:7">
       <c r="C479" s="6">
-        <v>11305</v>
+        <v>11605</v>
       </c>
       <c r="D479" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E479" s="5">
         <v>3</v>
@@ -9459,10 +9450,10 @@
     </row>
     <row r="480" spans="3:7">
       <c r="C480" s="6">
-        <v>11306</v>
+        <v>11606</v>
       </c>
       <c r="D480" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E480" s="5">
         <v>10</v>
@@ -9476,10 +9467,10 @@
     </row>
     <row r="481" spans="3:7">
       <c r="C481" s="6">
-        <v>11307</v>
+        <v>11607</v>
       </c>
       <c r="D481" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E481" s="5">
         <v>10</v>
@@ -9493,10 +9484,10 @@
     </row>
     <row r="482" spans="3:7">
       <c r="C482" s="6">
-        <v>11308</v>
+        <v>11608</v>
       </c>
       <c r="D482" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E482" s="5">
         <v>10</v>
@@ -9510,10 +9501,10 @@
     </row>
     <row r="483" spans="3:7">
       <c r="C483" s="6">
-        <v>11309</v>
+        <v>11609</v>
       </c>
       <c r="D483" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E483" s="5">
         <v>10</v>
@@ -9527,10 +9518,10 @@
     </row>
     <row r="484" spans="3:7">
       <c r="C484" s="6">
-        <v>11310</v>
+        <v>11610</v>
       </c>
       <c r="D484" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E484" s="5">
         <v>10</v>
@@ -9544,10 +9535,10 @@
     </row>
     <row r="485" spans="3:7">
       <c r="C485" s="6">
-        <v>11311</v>
+        <v>11611</v>
       </c>
       <c r="D485" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E485" s="5">
         <v>9</v>
@@ -9561,10 +9552,10 @@
     </row>
     <row r="486" spans="3:7">
       <c r="C486" s="6">
-        <v>11312</v>
+        <v>11612</v>
       </c>
       <c r="D486" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E486" s="5">
         <v>10</v>
@@ -9578,10 +9569,10 @@
     </row>
     <row r="487" spans="3:7">
       <c r="C487" s="6">
-        <v>11313</v>
+        <v>11613</v>
       </c>
       <c r="D487" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E487" s="5">
         <v>9</v>
@@ -9595,10 +9586,10 @@
     </row>
     <row r="488" spans="3:7">
       <c r="C488" s="6">
-        <v>11314</v>
+        <v>11614</v>
       </c>
       <c r="D488" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E488" s="5">
         <v>9</v>
@@ -9612,10 +9603,10 @@
     </row>
     <row r="489" spans="3:7">
       <c r="C489" s="6">
-        <v>11315</v>
+        <v>11615</v>
       </c>
       <c r="D489" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E489" s="5">
         <v>9</v>
@@ -9629,10 +9620,10 @@
     </row>
     <row r="490" spans="3:7">
       <c r="C490" s="6">
-        <v>11316</v>
+        <v>11616</v>
       </c>
       <c r="D490" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E490" s="5">
         <v>2</v>
@@ -9646,10 +9637,10 @@
     </row>
     <row r="491" spans="3:7">
       <c r="C491" s="6">
-        <v>11317</v>
+        <v>11617</v>
       </c>
       <c r="D491" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E491" s="3">
         <v>9</v>
@@ -9663,10 +9654,10 @@
     </row>
     <row r="492" spans="3:7">
       <c r="C492" s="6">
-        <v>11318</v>
+        <v>11618</v>
       </c>
       <c r="D492" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E492" s="5">
         <v>9</v>
@@ -9680,10 +9671,10 @@
     </row>
     <row r="493" spans="3:7">
       <c r="C493" s="6">
-        <v>11319</v>
+        <v>11619</v>
       </c>
       <c r="D493" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E493" s="5">
         <v>10</v>
@@ -9697,10 +9688,10 @@
     </row>
     <row r="494" spans="3:7">
       <c r="C494" s="6">
-        <v>11320</v>
+        <v>11620</v>
       </c>
       <c r="D494" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E494" s="5">
         <v>9</v>
@@ -9714,10 +9705,10 @@
     </row>
     <row r="495" spans="3:7">
       <c r="C495" s="6">
-        <v>11321</v>
+        <v>11621</v>
       </c>
       <c r="D495" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E495" s="5">
         <v>5</v>
@@ -9731,10 +9722,10 @@
     </row>
     <row r="496" spans="3:7">
       <c r="C496" s="6">
-        <v>11322</v>
+        <v>11622</v>
       </c>
       <c r="D496" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E496" s="5">
         <v>6</v>
@@ -9748,10 +9739,10 @@
     </row>
     <row r="497" spans="3:7">
       <c r="C497" s="6">
-        <v>11323</v>
+        <v>11623</v>
       </c>
       <c r="D497" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E497" s="5">
         <v>7</v>
@@ -9765,10 +9756,10 @@
     </row>
     <row r="498" spans="3:7">
       <c r="C498" s="6">
-        <v>11324</v>
+        <v>11624</v>
       </c>
       <c r="D498" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E498" s="5">
         <v>8</v>
@@ -9782,10 +9773,10 @@
     </row>
     <row r="499" spans="3:7">
       <c r="C499" s="6">
-        <v>11325</v>
+        <v>11625</v>
       </c>
       <c r="D499" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E499" s="5">
         <v>9</v>
@@ -9802,10 +9793,10 @@
         <v>61</v>
       </c>
       <c r="C501" s="6">
-        <v>11401</v>
+        <v>11701</v>
       </c>
       <c r="D501" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E501" s="5">
         <v>1</v>
@@ -9817,17 +9808,17 @@
         <v>15</v>
       </c>
       <c r="H501" s="3">
-        <v>20375</v>
+        <v>20575</v>
       </c>
     </row>
     <row r="502" spans="1:8">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="6">
-        <v>11402</v>
+        <v>11702</v>
       </c>
       <c r="D502" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E502" s="5">
         <v>1</v>
@@ -9839,15 +9830,15 @@
         <v>16</v>
       </c>
       <c r="H502" s="3">
-        <v>20376</v>
+        <v>20576</v>
       </c>
     </row>
     <row r="503" spans="3:8">
       <c r="C503" s="6">
-        <v>11403</v>
+        <v>11703</v>
       </c>
       <c r="D503" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E503" s="5">
         <v>1</v>
@@ -9859,15 +9850,15 @@
         <v>18</v>
       </c>
       <c r="H503" s="3">
-        <v>20377</v>
+        <v>20577</v>
       </c>
     </row>
     <row r="504" spans="3:8">
       <c r="C504" s="6">
-        <v>11404</v>
+        <v>11704</v>
       </c>
       <c r="D504" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E504" s="3">
         <v>1</v>
@@ -9879,15 +9870,15 @@
         <v>19</v>
       </c>
       <c r="H504" s="3">
-        <v>20378</v>
+        <v>20578</v>
       </c>
     </row>
     <row r="505" spans="3:7">
       <c r="C505" s="6">
-        <v>11405</v>
+        <v>11705</v>
       </c>
       <c r="D505" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E505" s="5">
         <v>3</v>
@@ -9901,10 +9892,10 @@
     </row>
     <row r="506" spans="3:7">
       <c r="C506" s="6">
-        <v>11406</v>
+        <v>11706</v>
       </c>
       <c r="D506" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E506" s="5">
         <v>10</v>
@@ -9918,10 +9909,10 @@
     </row>
     <row r="507" spans="3:7">
       <c r="C507" s="6">
-        <v>11407</v>
+        <v>11707</v>
       </c>
       <c r="D507" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E507" s="5">
         <v>10</v>
@@ -9935,10 +9926,10 @@
     </row>
     <row r="508" spans="3:7">
       <c r="C508" s="6">
-        <v>11408</v>
+        <v>11708</v>
       </c>
       <c r="D508" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E508" s="5">
         <v>10</v>
@@ -9952,10 +9943,10 @@
     </row>
     <row r="509" spans="3:7">
       <c r="C509" s="6">
-        <v>11409</v>
+        <v>11709</v>
       </c>
       <c r="D509" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E509" s="5">
         <v>10</v>
@@ -9969,10 +9960,10 @@
     </row>
     <row r="510" spans="3:7">
       <c r="C510" s="6">
-        <v>11410</v>
+        <v>11710</v>
       </c>
       <c r="D510" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E510" s="5">
         <v>10</v>
@@ -9986,10 +9977,10 @@
     </row>
     <row r="511" spans="3:7">
       <c r="C511" s="6">
-        <v>11411</v>
+        <v>11711</v>
       </c>
       <c r="D511" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E511" s="5">
         <v>9</v>
@@ -10003,10 +9994,10 @@
     </row>
     <row r="512" spans="3:7">
       <c r="C512" s="6">
-        <v>11412</v>
+        <v>11712</v>
       </c>
       <c r="D512" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E512" s="5">
         <v>10</v>
@@ -10020,10 +10011,10 @@
     </row>
     <row r="513" spans="3:7">
       <c r="C513" s="6">
-        <v>11413</v>
+        <v>11713</v>
       </c>
       <c r="D513" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E513" s="5">
         <v>9</v>
@@ -10037,10 +10028,10 @@
     </row>
     <row r="514" spans="3:7">
       <c r="C514" s="6">
-        <v>11414</v>
+        <v>11714</v>
       </c>
       <c r="D514" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E514" s="5">
         <v>9</v>
@@ -10054,10 +10045,10 @@
     </row>
     <row r="515" spans="3:7">
       <c r="C515" s="6">
-        <v>11415</v>
+        <v>11715</v>
       </c>
       <c r="D515" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E515" s="5">
         <v>9</v>
@@ -10071,10 +10062,10 @@
     </row>
     <row r="516" spans="3:7">
       <c r="C516" s="6">
-        <v>11416</v>
+        <v>11716</v>
       </c>
       <c r="D516" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E516" s="5">
         <v>2</v>
@@ -10088,10 +10079,10 @@
     </row>
     <row r="517" spans="3:7">
       <c r="C517" s="6">
-        <v>11417</v>
+        <v>11717</v>
       </c>
       <c r="D517" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E517" s="3">
         <v>9</v>
@@ -10105,10 +10096,10 @@
     </row>
     <row r="518" spans="3:7">
       <c r="C518" s="6">
-        <v>11418</v>
+        <v>11718</v>
       </c>
       <c r="D518" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E518" s="5">
         <v>9</v>
@@ -10122,10 +10113,10 @@
     </row>
     <row r="519" spans="3:7">
       <c r="C519" s="6">
-        <v>11419</v>
+        <v>11719</v>
       </c>
       <c r="D519" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E519" s="5">
         <v>10</v>
@@ -10139,10 +10130,10 @@
     </row>
     <row r="520" spans="3:7">
       <c r="C520" s="6">
-        <v>11420</v>
+        <v>11720</v>
       </c>
       <c r="D520" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E520" s="5">
         <v>9</v>
@@ -10156,10 +10147,10 @@
     </row>
     <row r="521" spans="3:7">
       <c r="C521" s="6">
-        <v>11421</v>
+        <v>11721</v>
       </c>
       <c r="D521" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E521" s="5">
         <v>5</v>
@@ -10173,10 +10164,10 @@
     </row>
     <row r="522" spans="3:7">
       <c r="C522" s="6">
-        <v>11422</v>
+        <v>11722</v>
       </c>
       <c r="D522" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E522" s="5">
         <v>6</v>
@@ -10190,10 +10181,10 @@
     </row>
     <row r="523" spans="3:7">
       <c r="C523" s="6">
-        <v>11423</v>
+        <v>11723</v>
       </c>
       <c r="D523" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E523" s="5">
         <v>7</v>
@@ -10207,10 +10198,10 @@
     </row>
     <row r="524" spans="3:7">
       <c r="C524" s="6">
-        <v>11424</v>
+        <v>11724</v>
       </c>
       <c r="D524" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E524" s="5">
         <v>8</v>
@@ -10224,10 +10215,10 @@
     </row>
     <row r="525" spans="3:7">
       <c r="C525" s="6">
-        <v>11425</v>
+        <v>11725</v>
       </c>
       <c r="D525" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E525" s="5">
         <v>9</v>
@@ -10244,10 +10235,10 @@
         <v>62</v>
       </c>
       <c r="C527" s="6">
-        <v>11501</v>
+        <v>11801</v>
       </c>
       <c r="D527" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E527" s="5">
         <v>1</v>
@@ -10259,17 +10250,17 @@
         <v>15</v>
       </c>
       <c r="H527" s="3">
-        <v>20495</v>
+        <v>20585</v>
       </c>
     </row>
     <row r="528" spans="1:8">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="6">
-        <v>11502</v>
+        <v>11802</v>
       </c>
       <c r="D528" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E528" s="5">
         <v>1</v>
@@ -10281,15 +10272,15 @@
         <v>16</v>
       </c>
       <c r="H528" s="3">
-        <v>20496</v>
+        <v>20586</v>
       </c>
     </row>
     <row r="529" spans="3:8">
       <c r="C529" s="6">
-        <v>11503</v>
+        <v>11803</v>
       </c>
       <c r="D529" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E529" s="5">
         <v>1</v>
@@ -10301,15 +10292,15 @@
         <v>18</v>
       </c>
       <c r="H529" s="3">
-        <v>20497</v>
+        <v>20587</v>
       </c>
     </row>
     <row r="530" spans="3:8">
       <c r="C530" s="6">
-        <v>11504</v>
+        <v>11804</v>
       </c>
       <c r="D530" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E530" s="3">
         <v>1</v>
@@ -10321,15 +10312,15 @@
         <v>19</v>
       </c>
       <c r="H530" s="3">
-        <v>20498</v>
+        <v>20588</v>
       </c>
     </row>
     <row r="531" spans="3:7">
       <c r="C531" s="6">
-        <v>11505</v>
+        <v>11805</v>
       </c>
       <c r="D531" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E531" s="5">
         <v>3</v>
@@ -10343,10 +10334,10 @@
     </row>
     <row r="532" spans="3:7">
       <c r="C532" s="6">
-        <v>11506</v>
+        <v>11806</v>
       </c>
       <c r="D532" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E532" s="5">
         <v>10</v>
@@ -10360,10 +10351,10 @@
     </row>
     <row r="533" spans="3:7">
       <c r="C533" s="6">
-        <v>11507</v>
+        <v>11807</v>
       </c>
       <c r="D533" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E533" s="5">
         <v>10</v>
@@ -10377,10 +10368,10 @@
     </row>
     <row r="534" spans="3:7">
       <c r="C534" s="6">
-        <v>11508</v>
+        <v>11808</v>
       </c>
       <c r="D534" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E534" s="5">
         <v>10</v>
@@ -10394,10 +10385,10 @@
     </row>
     <row r="535" spans="3:7">
       <c r="C535" s="6">
-        <v>11509</v>
+        <v>11809</v>
       </c>
       <c r="D535" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E535" s="5">
         <v>10</v>
@@ -10411,10 +10402,10 @@
     </row>
     <row r="536" spans="3:7">
       <c r="C536" s="6">
-        <v>11510</v>
+        <v>11810</v>
       </c>
       <c r="D536" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E536" s="5">
         <v>10</v>
@@ -10428,10 +10419,10 @@
     </row>
     <row r="537" spans="3:7">
       <c r="C537" s="6">
-        <v>11511</v>
+        <v>11811</v>
       </c>
       <c r="D537" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E537" s="5">
         <v>9</v>
@@ -10445,10 +10436,10 @@
     </row>
     <row r="538" spans="3:7">
       <c r="C538" s="6">
-        <v>11512</v>
+        <v>11812</v>
       </c>
       <c r="D538" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E538" s="5">
         <v>10</v>
@@ -10462,10 +10453,10 @@
     </row>
     <row r="539" spans="3:7">
       <c r="C539" s="6">
-        <v>11513</v>
+        <v>11813</v>
       </c>
       <c r="D539" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E539" s="5">
         <v>9</v>
@@ -10479,10 +10470,10 @@
     </row>
     <row r="540" spans="3:7">
       <c r="C540" s="6">
-        <v>11514</v>
+        <v>11814</v>
       </c>
       <c r="D540" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E540" s="5">
         <v>9</v>
@@ -10496,10 +10487,10 @@
     </row>
     <row r="541" spans="3:7">
       <c r="C541" s="6">
-        <v>11515</v>
+        <v>11815</v>
       </c>
       <c r="D541" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E541" s="5">
         <v>9</v>
@@ -10513,10 +10504,10 @@
     </row>
     <row r="542" spans="3:7">
       <c r="C542" s="6">
-        <v>11516</v>
+        <v>11816</v>
       </c>
       <c r="D542" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E542" s="5">
         <v>2</v>
@@ -10530,10 +10521,10 @@
     </row>
     <row r="543" spans="3:7">
       <c r="C543" s="6">
-        <v>11517</v>
+        <v>11817</v>
       </c>
       <c r="D543" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E543" s="3">
         <v>9</v>
@@ -10547,10 +10538,10 @@
     </row>
     <row r="544" spans="3:7">
       <c r="C544" s="6">
-        <v>11518</v>
+        <v>11818</v>
       </c>
       <c r="D544" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E544" s="5">
         <v>9</v>
@@ -10564,10 +10555,10 @@
     </row>
     <row r="545" spans="3:7">
       <c r="C545" s="6">
-        <v>11519</v>
+        <v>11819</v>
       </c>
       <c r="D545" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E545" s="5">
         <v>10</v>
@@ -10581,10 +10572,10 @@
     </row>
     <row r="546" spans="3:7">
       <c r="C546" s="6">
-        <v>11520</v>
+        <v>11820</v>
       </c>
       <c r="D546" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E546" s="5">
         <v>9</v>
@@ -10598,10 +10589,10 @@
     </row>
     <row r="547" spans="3:7">
       <c r="C547" s="6">
-        <v>11521</v>
+        <v>11821</v>
       </c>
       <c r="D547" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E547" s="5">
         <v>5</v>
@@ -10615,10 +10606,10 @@
     </row>
     <row r="548" spans="3:7">
       <c r="C548" s="6">
-        <v>11522</v>
+        <v>11822</v>
       </c>
       <c r="D548" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E548" s="5">
         <v>6</v>
@@ -10632,10 +10623,10 @@
     </row>
     <row r="549" spans="3:7">
       <c r="C549" s="6">
-        <v>11523</v>
+        <v>11823</v>
       </c>
       <c r="D549" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E549" s="5">
         <v>7</v>
@@ -10649,10 +10640,10 @@
     </row>
     <row r="550" spans="3:7">
       <c r="C550" s="6">
-        <v>11524</v>
+        <v>11824</v>
       </c>
       <c r="D550" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E550" s="5">
         <v>8</v>
@@ -10666,10 +10657,10 @@
     </row>
     <row r="551" spans="3:7">
       <c r="C551" s="6">
-        <v>11525</v>
+        <v>11825</v>
       </c>
       <c r="D551" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E551" s="5">
         <v>9</v>
@@ -10686,10 +10677,10 @@
         <v>63</v>
       </c>
       <c r="C553" s="6">
-        <v>11601</v>
+        <v>11901</v>
       </c>
       <c r="D553" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E553" s="5">
         <v>1</v>
@@ -10701,17 +10692,17 @@
         <v>15</v>
       </c>
       <c r="H553" s="3">
-        <v>20565</v>
+        <v>20415</v>
       </c>
     </row>
     <row r="554" spans="1:8">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="6">
-        <v>11602</v>
+        <v>11902</v>
       </c>
       <c r="D554" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E554" s="5">
         <v>1</v>
@@ -10723,15 +10714,15 @@
         <v>16</v>
       </c>
       <c r="H554" s="3">
-        <v>20566</v>
+        <v>20416</v>
       </c>
     </row>
     <row r="555" spans="3:8">
       <c r="C555" s="6">
-        <v>11603</v>
+        <v>11903</v>
       </c>
       <c r="D555" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E555" s="5">
         <v>1</v>
@@ -10743,15 +10734,15 @@
         <v>18</v>
       </c>
       <c r="H555" s="3">
-        <v>20567</v>
+        <v>20417</v>
       </c>
     </row>
     <row r="556" spans="3:8">
       <c r="C556" s="6">
-        <v>11604</v>
+        <v>11904</v>
       </c>
       <c r="D556" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E556" s="3">
         <v>1</v>
@@ -10763,15 +10754,15 @@
         <v>19</v>
       </c>
       <c r="H556" s="3">
-        <v>20568</v>
+        <v>20418</v>
       </c>
     </row>
     <row r="557" spans="3:7">
       <c r="C557" s="6">
-        <v>11605</v>
+        <v>11905</v>
       </c>
       <c r="D557" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E557" s="5">
         <v>3</v>
@@ -10785,10 +10776,10 @@
     </row>
     <row r="558" spans="3:7">
       <c r="C558" s="6">
-        <v>11606</v>
+        <v>11906</v>
       </c>
       <c r="D558" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E558" s="5">
         <v>10</v>
@@ -10802,10 +10793,10 @@
     </row>
     <row r="559" spans="3:7">
       <c r="C559" s="6">
-        <v>11607</v>
+        <v>11907</v>
       </c>
       <c r="D559" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E559" s="5">
         <v>10</v>
@@ -10819,10 +10810,10 @@
     </row>
     <row r="560" spans="3:7">
       <c r="C560" s="6">
-        <v>11608</v>
+        <v>11908</v>
       </c>
       <c r="D560" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E560" s="5">
         <v>10</v>
@@ -10836,10 +10827,10 @@
     </row>
     <row r="561" spans="3:7">
       <c r="C561" s="6">
-        <v>11609</v>
+        <v>11909</v>
       </c>
       <c r="D561" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E561" s="5">
         <v>10</v>
@@ -10853,10 +10844,10 @@
     </row>
     <row r="562" spans="3:7">
       <c r="C562" s="6">
-        <v>11610</v>
+        <v>11910</v>
       </c>
       <c r="D562" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E562" s="5">
         <v>10</v>
@@ -10870,10 +10861,10 @@
     </row>
     <row r="563" spans="3:7">
       <c r="C563" s="6">
-        <v>11611</v>
+        <v>11911</v>
       </c>
       <c r="D563" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E563" s="5">
         <v>9</v>
@@ -10887,10 +10878,10 @@
     </row>
     <row r="564" spans="3:7">
       <c r="C564" s="6">
-        <v>11612</v>
+        <v>11912</v>
       </c>
       <c r="D564" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E564" s="5">
         <v>10</v>
@@ -10904,10 +10895,10 @@
     </row>
     <row r="565" spans="3:7">
       <c r="C565" s="6">
-        <v>11613</v>
+        <v>11913</v>
       </c>
       <c r="D565" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E565" s="5">
         <v>9</v>
@@ -10921,10 +10912,10 @@
     </row>
     <row r="566" spans="3:7">
       <c r="C566" s="6">
-        <v>11614</v>
+        <v>11914</v>
       </c>
       <c r="D566" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E566" s="5">
         <v>9</v>
@@ -10938,10 +10929,10 @@
     </row>
     <row r="567" spans="3:7">
       <c r="C567" s="6">
-        <v>11615</v>
+        <v>11915</v>
       </c>
       <c r="D567" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E567" s="5">
         <v>9</v>
@@ -10955,10 +10946,10 @@
     </row>
     <row r="568" spans="3:7">
       <c r="C568" s="6">
-        <v>11616</v>
+        <v>11916</v>
       </c>
       <c r="D568" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E568" s="5">
         <v>2</v>
@@ -10972,10 +10963,10 @@
     </row>
     <row r="569" spans="3:7">
       <c r="C569" s="6">
-        <v>11617</v>
+        <v>11917</v>
       </c>
       <c r="D569" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E569" s="3">
         <v>9</v>
@@ -10989,10 +10980,10 @@
     </row>
     <row r="570" spans="3:7">
       <c r="C570" s="6">
-        <v>11618</v>
+        <v>11918</v>
       </c>
       <c r="D570" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E570" s="5">
         <v>9</v>
@@ -11006,10 +10997,10 @@
     </row>
     <row r="571" spans="3:7">
       <c r="C571" s="6">
-        <v>11619</v>
+        <v>11919</v>
       </c>
       <c r="D571" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E571" s="5">
         <v>10</v>
@@ -11023,10 +11014,10 @@
     </row>
     <row r="572" spans="3:7">
       <c r="C572" s="6">
-        <v>11620</v>
+        <v>11920</v>
       </c>
       <c r="D572" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E572" s="5">
         <v>9</v>
@@ -11040,10 +11031,10 @@
     </row>
     <row r="573" spans="3:7">
       <c r="C573" s="6">
-        <v>11621</v>
+        <v>11921</v>
       </c>
       <c r="D573" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E573" s="5">
         <v>5</v>
@@ -11057,10 +11048,10 @@
     </row>
     <row r="574" spans="3:7">
       <c r="C574" s="6">
-        <v>11622</v>
+        <v>11922</v>
       </c>
       <c r="D574" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E574" s="5">
         <v>6</v>
@@ -11074,10 +11065,10 @@
     </row>
     <row r="575" spans="3:7">
       <c r="C575" s="6">
-        <v>11623</v>
+        <v>11923</v>
       </c>
       <c r="D575" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E575" s="5">
         <v>7</v>
@@ -11091,10 +11082,10 @@
     </row>
     <row r="576" spans="3:7">
       <c r="C576" s="6">
-        <v>11624</v>
+        <v>11924</v>
       </c>
       <c r="D576" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E576" s="5">
         <v>8</v>
@@ -11108,10 +11099,10 @@
     </row>
     <row r="577" spans="3:7">
       <c r="C577" s="6">
-        <v>11625</v>
+        <v>11925</v>
       </c>
       <c r="D577" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E577" s="5">
         <v>9</v>
@@ -11128,10 +11119,10 @@
         <v>64</v>
       </c>
       <c r="C579" s="6">
-        <v>11701</v>
+        <v>12001</v>
       </c>
       <c r="D579" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E579" s="5">
         <v>1</v>
@@ -11143,17 +11134,17 @@
         <v>15</v>
       </c>
       <c r="H579" s="3">
-        <v>20575</v>
+        <v>20425</v>
       </c>
     </row>
     <row r="580" spans="1:8">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="6">
-        <v>11702</v>
+        <v>12002</v>
       </c>
       <c r="D580" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E580" s="5">
         <v>1</v>
@@ -11165,15 +11156,15 @@
         <v>16</v>
       </c>
       <c r="H580" s="3">
-        <v>20576</v>
+        <v>20426</v>
       </c>
     </row>
     <row r="581" spans="3:8">
       <c r="C581" s="6">
-        <v>11703</v>
+        <v>12003</v>
       </c>
       <c r="D581" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E581" s="5">
         <v>1</v>
@@ -11185,15 +11176,15 @@
         <v>18</v>
       </c>
       <c r="H581" s="3">
-        <v>20577</v>
+        <v>20427</v>
       </c>
     </row>
     <row r="582" spans="3:8">
       <c r="C582" s="6">
-        <v>11704</v>
+        <v>12004</v>
       </c>
       <c r="D582" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E582" s="3">
         <v>1</v>
@@ -11205,15 +11196,15 @@
         <v>19</v>
       </c>
       <c r="H582" s="3">
-        <v>20578</v>
+        <v>20428</v>
       </c>
     </row>
     <row r="583" spans="3:7">
       <c r="C583" s="6">
-        <v>11705</v>
+        <v>12005</v>
       </c>
       <c r="D583" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E583" s="5">
         <v>3</v>
@@ -11227,10 +11218,10 @@
     </row>
     <row r="584" spans="3:7">
       <c r="C584" s="6">
-        <v>11706</v>
+        <v>12006</v>
       </c>
       <c r="D584" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E584" s="5">
         <v>10</v>
@@ -11244,10 +11235,10 @@
     </row>
     <row r="585" spans="3:7">
       <c r="C585" s="6">
-        <v>11707</v>
+        <v>12007</v>
       </c>
       <c r="D585" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E585" s="5">
         <v>10</v>
@@ -11261,10 +11252,10 @@
     </row>
     <row r="586" spans="3:7">
       <c r="C586" s="6">
-        <v>11708</v>
+        <v>12008</v>
       </c>
       <c r="D586" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E586" s="5">
         <v>10</v>
@@ -11278,10 +11269,10 @@
     </row>
     <row r="587" spans="3:7">
       <c r="C587" s="6">
-        <v>11709</v>
+        <v>12009</v>
       </c>
       <c r="D587" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E587" s="5">
         <v>10</v>
@@ -11295,10 +11286,10 @@
     </row>
     <row r="588" spans="3:7">
       <c r="C588" s="6">
-        <v>11710</v>
+        <v>12010</v>
       </c>
       <c r="D588" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E588" s="5">
         <v>10</v>
@@ -11312,10 +11303,10 @@
     </row>
     <row r="589" spans="3:7">
       <c r="C589" s="6">
-        <v>11711</v>
+        <v>12011</v>
       </c>
       <c r="D589" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E589" s="5">
         <v>9</v>
@@ -11329,10 +11320,10 @@
     </row>
     <row r="590" spans="3:7">
       <c r="C590" s="6">
-        <v>11712</v>
+        <v>12012</v>
       </c>
       <c r="D590" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E590" s="5">
         <v>10</v>
@@ -11346,10 +11337,10 @@
     </row>
     <row r="591" spans="3:7">
       <c r="C591" s="6">
-        <v>11713</v>
+        <v>12013</v>
       </c>
       <c r="D591" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E591" s="5">
         <v>9</v>
@@ -11363,10 +11354,10 @@
     </row>
     <row r="592" spans="3:7">
       <c r="C592" s="6">
-        <v>11714</v>
+        <v>12014</v>
       </c>
       <c r="D592" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E592" s="5">
         <v>9</v>
@@ -11380,10 +11371,10 @@
     </row>
     <row r="593" spans="3:7">
       <c r="C593" s="6">
-        <v>11715</v>
+        <v>12015</v>
       </c>
       <c r="D593" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E593" s="5">
         <v>9</v>
@@ -11397,10 +11388,10 @@
     </row>
     <row r="594" spans="3:7">
       <c r="C594" s="6">
-        <v>11716</v>
+        <v>12016</v>
       </c>
       <c r="D594" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E594" s="5">
         <v>2</v>
@@ -11414,10 +11405,10 @@
     </row>
     <row r="595" spans="3:7">
       <c r="C595" s="6">
-        <v>11717</v>
+        <v>12017</v>
       </c>
       <c r="D595" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E595" s="3">
         <v>9</v>
@@ -11431,10 +11422,10 @@
     </row>
     <row r="596" spans="3:7">
       <c r="C596" s="6">
-        <v>11718</v>
+        <v>12018</v>
       </c>
       <c r="D596" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E596" s="5">
         <v>9</v>
@@ -11448,10 +11439,10 @@
     </row>
     <row r="597" spans="3:7">
       <c r="C597" s="6">
-        <v>11719</v>
+        <v>12019</v>
       </c>
       <c r="D597" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E597" s="5">
         <v>10</v>
@@ -11465,10 +11456,10 @@
     </row>
     <row r="598" spans="3:7">
       <c r="C598" s="6">
-        <v>11720</v>
+        <v>12020</v>
       </c>
       <c r="D598" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E598" s="5">
         <v>9</v>
@@ -11482,10 +11473,10 @@
     </row>
     <row r="599" spans="3:7">
       <c r="C599" s="6">
-        <v>11721</v>
+        <v>12021</v>
       </c>
       <c r="D599" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E599" s="5">
         <v>5</v>
@@ -11499,10 +11490,10 @@
     </row>
     <row r="600" spans="3:7">
       <c r="C600" s="6">
-        <v>11722</v>
+        <v>12022</v>
       </c>
       <c r="D600" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E600" s="5">
         <v>6</v>
@@ -11516,10 +11507,10 @@
     </row>
     <row r="601" spans="3:7">
       <c r="C601" s="6">
-        <v>11723</v>
+        <v>12023</v>
       </c>
       <c r="D601" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E601" s="5">
         <v>7</v>
@@ -11533,10 +11524,10 @@
     </row>
     <row r="602" spans="3:7">
       <c r="C602" s="6">
-        <v>11724</v>
+        <v>12024</v>
       </c>
       <c r="D602" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E602" s="5">
         <v>8</v>
@@ -11550,10 +11541,10 @@
     </row>
     <row r="603" spans="3:7">
       <c r="C603" s="6">
-        <v>11725</v>
+        <v>12025</v>
       </c>
       <c r="D603" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E603" s="5">
         <v>9</v>
@@ -11570,10 +11561,10 @@
         <v>65</v>
       </c>
       <c r="C605" s="6">
-        <v>11801</v>
+        <v>12101</v>
       </c>
       <c r="D605" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E605" s="5">
         <v>1</v>
@@ -11585,17 +11576,17 @@
         <v>15</v>
       </c>
       <c r="H605" s="3">
-        <v>20585</v>
+        <v>20465</v>
       </c>
     </row>
     <row r="606" spans="1:8">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="6">
-        <v>11802</v>
+        <v>12102</v>
       </c>
       <c r="D606" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E606" s="5">
         <v>1</v>
@@ -11607,15 +11598,15 @@
         <v>16</v>
       </c>
       <c r="H606" s="3">
-        <v>20586</v>
+        <v>20466</v>
       </c>
     </row>
     <row r="607" spans="3:8">
       <c r="C607" s="6">
-        <v>11803</v>
+        <v>12103</v>
       </c>
       <c r="D607" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E607" s="5">
         <v>1</v>
@@ -11627,15 +11618,15 @@
         <v>18</v>
       </c>
       <c r="H607" s="3">
-        <v>20587</v>
+        <v>20467</v>
       </c>
     </row>
     <row r="608" spans="3:8">
       <c r="C608" s="6">
-        <v>11804</v>
+        <v>12104</v>
       </c>
       <c r="D608" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E608" s="3">
         <v>1</v>
@@ -11647,15 +11638,15 @@
         <v>19</v>
       </c>
       <c r="H608" s="3">
-        <v>20588</v>
+        <v>20468</v>
       </c>
     </row>
     <row r="609" spans="3:7">
       <c r="C609" s="6">
-        <v>11805</v>
+        <v>12105</v>
       </c>
       <c r="D609" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E609" s="5">
         <v>3</v>
@@ -11669,10 +11660,10 @@
     </row>
     <row r="610" spans="3:7">
       <c r="C610" s="6">
-        <v>11806</v>
+        <v>12106</v>
       </c>
       <c r="D610" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E610" s="5">
         <v>10</v>
@@ -11686,10 +11677,10 @@
     </row>
     <row r="611" spans="3:7">
       <c r="C611" s="6">
-        <v>11807</v>
+        <v>12107</v>
       </c>
       <c r="D611" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E611" s="5">
         <v>10</v>
@@ -11703,10 +11694,10 @@
     </row>
     <row r="612" spans="3:7">
       <c r="C612" s="6">
-        <v>11808</v>
+        <v>12108</v>
       </c>
       <c r="D612" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E612" s="5">
         <v>10</v>
@@ -11720,10 +11711,10 @@
     </row>
     <row r="613" spans="3:7">
       <c r="C613" s="6">
-        <v>11809</v>
+        <v>12109</v>
       </c>
       <c r="D613" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E613" s="5">
         <v>10</v>
@@ -11737,10 +11728,10 @@
     </row>
     <row r="614" spans="3:7">
       <c r="C614" s="6">
-        <v>11810</v>
+        <v>12110</v>
       </c>
       <c r="D614" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E614" s="5">
         <v>10</v>
@@ -11754,10 +11745,10 @@
     </row>
     <row r="615" spans="3:7">
       <c r="C615" s="6">
-        <v>11811</v>
+        <v>12111</v>
       </c>
       <c r="D615" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E615" s="5">
         <v>9</v>
@@ -11771,10 +11762,10 @@
     </row>
     <row r="616" spans="3:7">
       <c r="C616" s="6">
-        <v>11812</v>
+        <v>12112</v>
       </c>
       <c r="D616" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E616" s="5">
         <v>10</v>
@@ -11788,10 +11779,10 @@
     </row>
     <row r="617" spans="3:7">
       <c r="C617" s="6">
-        <v>11813</v>
+        <v>12113</v>
       </c>
       <c r="D617" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E617" s="5">
         <v>9</v>
@@ -11805,10 +11796,10 @@
     </row>
     <row r="618" spans="3:7">
       <c r="C618" s="6">
-        <v>11814</v>
+        <v>12114</v>
       </c>
       <c r="D618" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E618" s="5">
         <v>9</v>
@@ -11822,10 +11813,10 @@
     </row>
     <row r="619" spans="3:7">
       <c r="C619" s="6">
-        <v>11815</v>
+        <v>12115</v>
       </c>
       <c r="D619" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E619" s="5">
         <v>9</v>
@@ -11839,10 +11830,10 @@
     </row>
     <row r="620" spans="3:7">
       <c r="C620" s="6">
-        <v>11816</v>
+        <v>12116</v>
       </c>
       <c r="D620" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E620" s="5">
         <v>2</v>
@@ -11856,10 +11847,10 @@
     </row>
     <row r="621" spans="3:7">
       <c r="C621" s="6">
-        <v>11817</v>
+        <v>12117</v>
       </c>
       <c r="D621" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E621" s="3">
         <v>9</v>
@@ -11873,10 +11864,10 @@
     </row>
     <row r="622" spans="3:7">
       <c r="C622" s="6">
-        <v>11818</v>
+        <v>12118</v>
       </c>
       <c r="D622" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E622" s="5">
         <v>9</v>
@@ -11890,10 +11881,10 @@
     </row>
     <row r="623" spans="3:7">
       <c r="C623" s="6">
-        <v>11819</v>
+        <v>12119</v>
       </c>
       <c r="D623" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E623" s="5">
         <v>10</v>
@@ -11907,10 +11898,10 @@
     </row>
     <row r="624" spans="3:7">
       <c r="C624" s="6">
-        <v>11820</v>
+        <v>12120</v>
       </c>
       <c r="D624" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E624" s="5">
         <v>9</v>
@@ -11924,10 +11915,10 @@
     </row>
     <row r="625" spans="3:7">
       <c r="C625" s="6">
-        <v>11821</v>
+        <v>12121</v>
       </c>
       <c r="D625" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E625" s="5">
         <v>5</v>
@@ -11941,10 +11932,10 @@
     </row>
     <row r="626" spans="3:7">
       <c r="C626" s="6">
-        <v>11822</v>
+        <v>12122</v>
       </c>
       <c r="D626" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E626" s="5">
         <v>6</v>
@@ -11958,10 +11949,10 @@
     </row>
     <row r="627" spans="3:7">
       <c r="C627" s="6">
-        <v>11823</v>
+        <v>12123</v>
       </c>
       <c r="D627" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E627" s="5">
         <v>7</v>
@@ -11975,10 +11966,10 @@
     </row>
     <row r="628" spans="3:7">
       <c r="C628" s="6">
-        <v>11824</v>
+        <v>12124</v>
       </c>
       <c r="D628" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E628" s="5">
         <v>8</v>
@@ -11992,10 +11983,10 @@
     </row>
     <row r="629" spans="3:7">
       <c r="C629" s="6">
-        <v>11825</v>
+        <v>12125</v>
       </c>
       <c r="D629" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E629" s="5">
         <v>9</v>
@@ -12012,10 +12003,10 @@
         <v>66</v>
       </c>
       <c r="C631" s="6">
-        <v>11901</v>
+        <v>12201</v>
       </c>
       <c r="D631" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E631" s="5">
         <v>1</v>
@@ -12027,17 +12018,17 @@
         <v>15</v>
       </c>
       <c r="H631" s="3">
-        <v>20415</v>
+        <v>20505</v>
       </c>
     </row>
     <row r="632" spans="1:8">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="6">
-        <v>11902</v>
+        <v>12202</v>
       </c>
       <c r="D632" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E632" s="5">
         <v>1</v>
@@ -12049,15 +12040,15 @@
         <v>16</v>
       </c>
       <c r="H632" s="3">
-        <v>20416</v>
+        <v>20506</v>
       </c>
     </row>
     <row r="633" spans="3:8">
       <c r="C633" s="6">
-        <v>11903</v>
+        <v>12203</v>
       </c>
       <c r="D633" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E633" s="5">
         <v>1</v>
@@ -12069,15 +12060,15 @@
         <v>18</v>
       </c>
       <c r="H633" s="3">
-        <v>20417</v>
+        <v>20507</v>
       </c>
     </row>
     <row r="634" spans="3:8">
       <c r="C634" s="6">
-        <v>11904</v>
+        <v>12204</v>
       </c>
       <c r="D634" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E634" s="3">
         <v>1</v>
@@ -12089,15 +12080,15 @@
         <v>19</v>
       </c>
       <c r="H634" s="3">
-        <v>20418</v>
+        <v>20508</v>
       </c>
     </row>
     <row r="635" spans="3:7">
       <c r="C635" s="6">
-        <v>11905</v>
+        <v>12205</v>
       </c>
       <c r="D635" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E635" s="5">
         <v>3</v>
@@ -12111,10 +12102,10 @@
     </row>
     <row r="636" spans="3:7">
       <c r="C636" s="6">
-        <v>11906</v>
+        <v>12206</v>
       </c>
       <c r="D636" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E636" s="5">
         <v>10</v>
@@ -12128,10 +12119,10 @@
     </row>
     <row r="637" spans="3:7">
       <c r="C637" s="6">
-        <v>11907</v>
+        <v>12207</v>
       </c>
       <c r="D637" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E637" s="5">
         <v>10</v>
@@ -12145,10 +12136,10 @@
     </row>
     <row r="638" spans="3:7">
       <c r="C638" s="6">
-        <v>11908</v>
+        <v>12208</v>
       </c>
       <c r="D638" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E638" s="5">
         <v>10</v>
@@ -12162,10 +12153,10 @@
     </row>
     <row r="639" spans="3:7">
       <c r="C639" s="6">
-        <v>11909</v>
+        <v>12209</v>
       </c>
       <c r="D639" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E639" s="5">
         <v>10</v>
@@ -12179,10 +12170,10 @@
     </row>
     <row r="640" spans="3:7">
       <c r="C640" s="6">
-        <v>11910</v>
+        <v>12210</v>
       </c>
       <c r="D640" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E640" s="5">
         <v>10</v>
@@ -12196,10 +12187,10 @@
     </row>
     <row r="641" spans="3:7">
       <c r="C641" s="6">
-        <v>11911</v>
+        <v>12211</v>
       </c>
       <c r="D641" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E641" s="5">
         <v>9</v>
@@ -12213,10 +12204,10 @@
     </row>
     <row r="642" spans="3:7">
       <c r="C642" s="6">
-        <v>11912</v>
+        <v>12212</v>
       </c>
       <c r="D642" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E642" s="5">
         <v>10</v>
@@ -12230,10 +12221,10 @@
     </row>
     <row r="643" spans="3:7">
       <c r="C643" s="6">
-        <v>11913</v>
+        <v>12213</v>
       </c>
       <c r="D643" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E643" s="5">
         <v>9</v>
@@ -12247,10 +12238,10 @@
     </row>
     <row r="644" spans="3:7">
       <c r="C644" s="6">
-        <v>11914</v>
+        <v>12214</v>
       </c>
       <c r="D644" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E644" s="5">
         <v>9</v>
@@ -12264,10 +12255,10 @@
     </row>
     <row r="645" spans="3:7">
       <c r="C645" s="6">
-        <v>11915</v>
+        <v>12215</v>
       </c>
       <c r="D645" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E645" s="5">
         <v>9</v>
@@ -12281,10 +12272,10 @@
     </row>
     <row r="646" spans="3:7">
       <c r="C646" s="6">
-        <v>11916</v>
+        <v>12216</v>
       </c>
       <c r="D646" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E646" s="5">
         <v>2</v>
@@ -12298,10 +12289,10 @@
     </row>
     <row r="647" spans="3:7">
       <c r="C647" s="6">
-        <v>11917</v>
+        <v>12217</v>
       </c>
       <c r="D647" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E647" s="3">
         <v>9</v>
@@ -12315,10 +12306,10 @@
     </row>
     <row r="648" spans="3:7">
       <c r="C648" s="6">
-        <v>11918</v>
+        <v>12218</v>
       </c>
       <c r="D648" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E648" s="5">
         <v>9</v>
@@ -12332,10 +12323,10 @@
     </row>
     <row r="649" spans="3:7">
       <c r="C649" s="6">
-        <v>11919</v>
+        <v>12219</v>
       </c>
       <c r="D649" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E649" s="5">
         <v>10</v>
@@ -12349,10 +12340,10 @@
     </row>
     <row r="650" spans="3:7">
       <c r="C650" s="6">
-        <v>11920</v>
+        <v>12220</v>
       </c>
       <c r="D650" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E650" s="5">
         <v>9</v>
@@ -12366,10 +12357,10 @@
     </row>
     <row r="651" spans="3:7">
       <c r="C651" s="6">
-        <v>11921</v>
+        <v>12221</v>
       </c>
       <c r="D651" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E651" s="5">
         <v>5</v>
@@ -12383,10 +12374,10 @@
     </row>
     <row r="652" spans="3:7">
       <c r="C652" s="6">
-        <v>11922</v>
+        <v>12222</v>
       </c>
       <c r="D652" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E652" s="5">
         <v>6</v>
@@ -12400,10 +12391,10 @@
     </row>
     <row r="653" spans="3:7">
       <c r="C653" s="6">
-        <v>11923</v>
+        <v>12223</v>
       </c>
       <c r="D653" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E653" s="5">
         <v>7</v>
@@ -12417,10 +12408,10 @@
     </row>
     <row r="654" spans="3:7">
       <c r="C654" s="6">
-        <v>11924</v>
+        <v>12224</v>
       </c>
       <c r="D654" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E654" s="5">
         <v>8</v>
@@ -12434,10 +12425,10 @@
     </row>
     <row r="655" spans="3:7">
       <c r="C655" s="6">
-        <v>11925</v>
+        <v>12225</v>
       </c>
       <c r="D655" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E655" s="5">
         <v>9</v>
@@ -12454,10 +12445,10 @@
         <v>67</v>
       </c>
       <c r="C657" s="6">
-        <v>12001</v>
+        <v>12301</v>
       </c>
       <c r="D657" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E657" s="5">
         <v>1</v>
@@ -12469,17 +12460,17 @@
         <v>15</v>
       </c>
       <c r="H657" s="3">
-        <v>20425</v>
+        <v>20525</v>
       </c>
     </row>
     <row r="658" spans="1:8">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="6">
-        <v>12002</v>
+        <v>12302</v>
       </c>
       <c r="D658" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E658" s="5">
         <v>1</v>
@@ -12491,15 +12482,15 @@
         <v>16</v>
       </c>
       <c r="H658" s="3">
-        <v>20426</v>
+        <v>20526</v>
       </c>
     </row>
     <row r="659" spans="3:8">
       <c r="C659" s="6">
-        <v>12003</v>
+        <v>12303</v>
       </c>
       <c r="D659" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E659" s="5">
         <v>1</v>
@@ -12511,15 +12502,15 @@
         <v>18</v>
       </c>
       <c r="H659" s="3">
-        <v>20427</v>
+        <v>20527</v>
       </c>
     </row>
     <row r="660" spans="3:8">
       <c r="C660" s="6">
-        <v>12004</v>
+        <v>12304</v>
       </c>
       <c r="D660" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E660" s="3">
         <v>1</v>
@@ -12531,15 +12522,15 @@
         <v>19</v>
       </c>
       <c r="H660" s="3">
-        <v>20428</v>
+        <v>20528</v>
       </c>
     </row>
     <row r="661" spans="3:7">
       <c r="C661" s="6">
-        <v>12005</v>
+        <v>12305</v>
       </c>
       <c r="D661" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E661" s="5">
         <v>3</v>
@@ -12553,10 +12544,10 @@
     </row>
     <row r="662" spans="3:7">
       <c r="C662" s="6">
-        <v>12006</v>
+        <v>12306</v>
       </c>
       <c r="D662" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E662" s="5">
         <v>10</v>
@@ -12570,10 +12561,10 @@
     </row>
     <row r="663" spans="3:7">
       <c r="C663" s="6">
-        <v>12007</v>
+        <v>12307</v>
       </c>
       <c r="D663" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E663" s="5">
         <v>10</v>
@@ -12587,10 +12578,10 @@
     </row>
     <row r="664" spans="3:7">
       <c r="C664" s="6">
-        <v>12008</v>
+        <v>12308</v>
       </c>
       <c r="D664" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E664" s="5">
         <v>10</v>
@@ -12604,10 +12595,10 @@
     </row>
     <row r="665" spans="3:7">
       <c r="C665" s="6">
-        <v>12009</v>
+        <v>12309</v>
       </c>
       <c r="D665" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E665" s="5">
         <v>10</v>
@@ -12621,10 +12612,10 @@
     </row>
     <row r="666" spans="3:7">
       <c r="C666" s="6">
-        <v>12010</v>
+        <v>12310</v>
       </c>
       <c r="D666" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E666" s="5">
         <v>10</v>
@@ -12638,10 +12629,10 @@
     </row>
     <row r="667" spans="3:7">
       <c r="C667" s="6">
-        <v>12011</v>
+        <v>12311</v>
       </c>
       <c r="D667" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E667" s="5">
         <v>9</v>
@@ -12655,10 +12646,10 @@
     </row>
     <row r="668" spans="3:7">
       <c r="C668" s="6">
-        <v>12012</v>
+        <v>12312</v>
       </c>
       <c r="D668" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E668" s="5">
         <v>10</v>
@@ -12672,10 +12663,10 @@
     </row>
     <row r="669" spans="3:7">
       <c r="C669" s="6">
-        <v>12013</v>
+        <v>12313</v>
       </c>
       <c r="D669" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E669" s="5">
         <v>9</v>
@@ -12689,10 +12680,10 @@
     </row>
     <row r="670" spans="3:7">
       <c r="C670" s="6">
-        <v>12014</v>
+        <v>12314</v>
       </c>
       <c r="D670" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E670" s="5">
         <v>9</v>
@@ -12706,10 +12697,10 @@
     </row>
     <row r="671" spans="3:7">
       <c r="C671" s="6">
-        <v>12015</v>
+        <v>12315</v>
       </c>
       <c r="D671" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E671" s="5">
         <v>9</v>
@@ -12723,10 +12714,10 @@
     </row>
     <row r="672" spans="3:7">
       <c r="C672" s="6">
-        <v>12016</v>
+        <v>12316</v>
       </c>
       <c r="D672" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E672" s="5">
         <v>2</v>
@@ -12740,10 +12731,10 @@
     </row>
     <row r="673" spans="3:7">
       <c r="C673" s="6">
-        <v>12017</v>
+        <v>12317</v>
       </c>
       <c r="D673" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E673" s="3">
         <v>9</v>
@@ -12757,10 +12748,10 @@
     </row>
     <row r="674" spans="3:7">
       <c r="C674" s="6">
-        <v>12018</v>
+        <v>12318</v>
       </c>
       <c r="D674" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E674" s="5">
         <v>9</v>
@@ -12774,10 +12765,10 @@
     </row>
     <row r="675" spans="3:7">
       <c r="C675" s="6">
-        <v>12019</v>
+        <v>12319</v>
       </c>
       <c r="D675" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E675" s="5">
         <v>10</v>
@@ -12791,10 +12782,10 @@
     </row>
     <row r="676" spans="3:7">
       <c r="C676" s="6">
-        <v>12020</v>
+        <v>12320</v>
       </c>
       <c r="D676" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E676" s="5">
         <v>9</v>
@@ -12808,10 +12799,10 @@
     </row>
     <row r="677" spans="3:7">
       <c r="C677" s="6">
-        <v>12021</v>
+        <v>12321</v>
       </c>
       <c r="D677" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E677" s="5">
         <v>5</v>
@@ -12825,10 +12816,10 @@
     </row>
     <row r="678" spans="3:7">
       <c r="C678" s="6">
-        <v>12022</v>
+        <v>12322</v>
       </c>
       <c r="D678" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E678" s="5">
         <v>6</v>
@@ -12842,10 +12833,10 @@
     </row>
     <row r="679" spans="3:7">
       <c r="C679" s="6">
-        <v>12023</v>
+        <v>12323</v>
       </c>
       <c r="D679" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E679" s="5">
         <v>7</v>
@@ -12859,10 +12850,10 @@
     </row>
     <row r="680" spans="3:7">
       <c r="C680" s="6">
-        <v>12024</v>
+        <v>12324</v>
       </c>
       <c r="D680" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E680" s="5">
         <v>8</v>
@@ -12876,10 +12867,10 @@
     </row>
     <row r="681" spans="3:7">
       <c r="C681" s="6">
-        <v>12025</v>
+        <v>12325</v>
       </c>
       <c r="D681" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E681" s="5">
         <v>9</v>
@@ -12896,10 +12887,10 @@
         <v>68</v>
       </c>
       <c r="C683" s="6">
-        <v>12101</v>
+        <v>12401</v>
       </c>
       <c r="D683" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E683" s="5">
         <v>1</v>
@@ -12911,17 +12902,17 @@
         <v>15</v>
       </c>
       <c r="H683" s="3">
-        <v>20465</v>
+        <v>20595</v>
       </c>
     </row>
     <row r="684" spans="1:8">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="6">
-        <v>12102</v>
+        <v>12402</v>
       </c>
       <c r="D684" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E684" s="5">
         <v>1</v>
@@ -12933,15 +12924,15 @@
         <v>16</v>
       </c>
       <c r="H684" s="3">
-        <v>20466</v>
+        <v>20596</v>
       </c>
     </row>
     <row r="685" spans="3:8">
       <c r="C685" s="6">
-        <v>12103</v>
+        <v>12403</v>
       </c>
       <c r="D685" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E685" s="5">
         <v>1</v>
@@ -12953,15 +12944,15 @@
         <v>18</v>
       </c>
       <c r="H685" s="3">
-        <v>20467</v>
+        <v>20597</v>
       </c>
     </row>
     <row r="686" spans="3:8">
       <c r="C686" s="6">
-        <v>12104</v>
+        <v>12404</v>
       </c>
       <c r="D686" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E686" s="3">
         <v>1</v>
@@ -12973,15 +12964,15 @@
         <v>19</v>
       </c>
       <c r="H686" s="3">
-        <v>20468</v>
+        <v>20598</v>
       </c>
     </row>
     <row r="687" spans="3:7">
       <c r="C687" s="6">
-        <v>12105</v>
+        <v>12405</v>
       </c>
       <c r="D687" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E687" s="5">
         <v>3</v>
@@ -12995,10 +12986,10 @@
     </row>
     <row r="688" spans="3:7">
       <c r="C688" s="6">
-        <v>12106</v>
+        <v>12406</v>
       </c>
       <c r="D688" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E688" s="5">
         <v>10</v>
@@ -13012,10 +13003,10 @@
     </row>
     <row r="689" spans="3:7">
       <c r="C689" s="6">
-        <v>12107</v>
+        <v>12407</v>
       </c>
       <c r="D689" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E689" s="5">
         <v>10</v>
@@ -13029,10 +13020,10 @@
     </row>
     <row r="690" spans="3:7">
       <c r="C690" s="6">
-        <v>12108</v>
+        <v>12408</v>
       </c>
       <c r="D690" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E690" s="5">
         <v>10</v>
@@ -13046,10 +13037,10 @@
     </row>
     <row r="691" spans="3:7">
       <c r="C691" s="6">
-        <v>12109</v>
+        <v>12409</v>
       </c>
       <c r="D691" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E691" s="5">
         <v>10</v>
@@ -13063,10 +13054,10 @@
     </row>
     <row r="692" spans="3:7">
       <c r="C692" s="6">
-        <v>12110</v>
+        <v>12410</v>
       </c>
       <c r="D692" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E692" s="5">
         <v>10</v>
@@ -13080,10 +13071,10 @@
     </row>
     <row r="693" spans="3:7">
       <c r="C693" s="6">
-        <v>12111</v>
+        <v>12411</v>
       </c>
       <c r="D693" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E693" s="5">
         <v>9</v>
@@ -13097,10 +13088,10 @@
     </row>
     <row r="694" spans="3:7">
       <c r="C694" s="6">
-        <v>12112</v>
+        <v>12412</v>
       </c>
       <c r="D694" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E694" s="5">
         <v>10</v>
@@ -13114,10 +13105,10 @@
     </row>
     <row r="695" spans="3:7">
       <c r="C695" s="6">
-        <v>12113</v>
+        <v>12413</v>
       </c>
       <c r="D695" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E695" s="5">
         <v>9</v>
@@ -13131,10 +13122,10 @@
     </row>
     <row r="696" spans="3:7">
       <c r="C696" s="6">
-        <v>12114</v>
+        <v>12414</v>
       </c>
       <c r="D696" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E696" s="5">
         <v>9</v>
@@ -13148,10 +13139,10 @@
     </row>
     <row r="697" spans="3:7">
       <c r="C697" s="6">
-        <v>12115</v>
+        <v>12415</v>
       </c>
       <c r="D697" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E697" s="5">
         <v>9</v>
@@ -13165,10 +13156,10 @@
     </row>
     <row r="698" spans="3:7">
       <c r="C698" s="6">
-        <v>12116</v>
+        <v>12416</v>
       </c>
       <c r="D698" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E698" s="5">
         <v>2</v>
@@ -13182,10 +13173,10 @@
     </row>
     <row r="699" spans="3:7">
       <c r="C699" s="6">
-        <v>12117</v>
+        <v>12417</v>
       </c>
       <c r="D699" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E699" s="3">
         <v>9</v>
@@ -13199,10 +13190,10 @@
     </row>
     <row r="700" spans="3:7">
       <c r="C700" s="6">
-        <v>12118</v>
+        <v>12418</v>
       </c>
       <c r="D700" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E700" s="5">
         <v>9</v>
@@ -13216,10 +13207,10 @@
     </row>
     <row r="701" spans="3:7">
       <c r="C701" s="6">
-        <v>12119</v>
+        <v>12419</v>
       </c>
       <c r="D701" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E701" s="5">
         <v>10</v>
@@ -13233,10 +13224,10 @@
     </row>
     <row r="702" spans="3:7">
       <c r="C702" s="6">
-        <v>12120</v>
+        <v>12420</v>
       </c>
       <c r="D702" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E702" s="5">
         <v>9</v>
@@ -13250,10 +13241,10 @@
     </row>
     <row r="703" spans="3:7">
       <c r="C703" s="6">
-        <v>12121</v>
+        <v>12421</v>
       </c>
       <c r="D703" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E703" s="5">
         <v>5</v>
@@ -13267,10 +13258,10 @@
     </row>
     <row r="704" spans="3:7">
       <c r="C704" s="6">
-        <v>12122</v>
+        <v>12422</v>
       </c>
       <c r="D704" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E704" s="5">
         <v>6</v>
@@ -13284,10 +13275,10 @@
     </row>
     <row r="705" spans="3:7">
       <c r="C705" s="6">
-        <v>12123</v>
+        <v>12423</v>
       </c>
       <c r="D705" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E705" s="5">
         <v>7</v>
@@ -13301,10 +13292,10 @@
     </row>
     <row r="706" spans="3:7">
       <c r="C706" s="6">
-        <v>12124</v>
+        <v>12424</v>
       </c>
       <c r="D706" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E706" s="5">
         <v>8</v>
@@ -13318,10 +13309,10 @@
     </row>
     <row r="707" spans="3:7">
       <c r="C707" s="6">
-        <v>12125</v>
+        <v>12425</v>
       </c>
       <c r="D707" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E707" s="5">
         <v>9</v>
@@ -13338,10 +13329,10 @@
         <v>69</v>
       </c>
       <c r="C709" s="6">
-        <v>12201</v>
+        <v>12501</v>
       </c>
       <c r="D709" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E709" s="5">
         <v>1</v>
@@ -13353,17 +13344,17 @@
         <v>15</v>
       </c>
       <c r="H709" s="3">
-        <v>20505</v>
+        <v>20605</v>
       </c>
     </row>
     <row r="710" spans="1:8">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="6">
-        <v>12202</v>
+        <v>12502</v>
       </c>
       <c r="D710" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E710" s="5">
         <v>1</v>
@@ -13375,15 +13366,15 @@
         <v>16</v>
       </c>
       <c r="H710" s="3">
-        <v>20506</v>
+        <v>20606</v>
       </c>
     </row>
     <row r="711" spans="3:8">
       <c r="C711" s="6">
-        <v>12203</v>
+        <v>12503</v>
       </c>
       <c r="D711" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E711" s="5">
         <v>1</v>
@@ -13395,15 +13386,15 @@
         <v>18</v>
       </c>
       <c r="H711" s="3">
-        <v>20507</v>
+        <v>20607</v>
       </c>
     </row>
     <row r="712" spans="3:8">
       <c r="C712" s="6">
-        <v>12204</v>
+        <v>12504</v>
       </c>
       <c r="D712" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E712" s="3">
         <v>1</v>
@@ -13415,15 +13406,15 @@
         <v>19</v>
       </c>
       <c r="H712" s="3">
-        <v>20508</v>
+        <v>20608</v>
       </c>
     </row>
     <row r="713" spans="3:7">
       <c r="C713" s="6">
-        <v>12205</v>
+        <v>12505</v>
       </c>
       <c r="D713" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E713" s="5">
         <v>3</v>
@@ -13437,10 +13428,10 @@
     </row>
     <row r="714" spans="3:7">
       <c r="C714" s="6">
-        <v>12206</v>
+        <v>12506</v>
       </c>
       <c r="D714" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E714" s="5">
         <v>10</v>
@@ -13454,10 +13445,10 @@
     </row>
     <row r="715" spans="3:7">
       <c r="C715" s="6">
-        <v>12207</v>
+        <v>12507</v>
       </c>
       <c r="D715" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E715" s="5">
         <v>10</v>
@@ -13471,10 +13462,10 @@
     </row>
     <row r="716" spans="3:7">
       <c r="C716" s="6">
-        <v>12208</v>
+        <v>12508</v>
       </c>
       <c r="D716" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E716" s="5">
         <v>10</v>
@@ -13488,10 +13479,10 @@
     </row>
     <row r="717" spans="3:7">
       <c r="C717" s="6">
-        <v>12209</v>
+        <v>12509</v>
       </c>
       <c r="D717" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E717" s="5">
         <v>10</v>
@@ -13505,10 +13496,10 @@
     </row>
     <row r="718" spans="3:7">
       <c r="C718" s="6">
-        <v>12210</v>
+        <v>12510</v>
       </c>
       <c r="D718" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E718" s="5">
         <v>10</v>
@@ -13522,10 +13513,10 @@
     </row>
     <row r="719" spans="3:7">
       <c r="C719" s="6">
-        <v>12211</v>
+        <v>12511</v>
       </c>
       <c r="D719" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E719" s="5">
         <v>9</v>
@@ -13539,10 +13530,10 @@
     </row>
     <row r="720" spans="3:7">
       <c r="C720" s="6">
-        <v>12212</v>
+        <v>12512</v>
       </c>
       <c r="D720" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E720" s="5">
         <v>10</v>
@@ -13556,10 +13547,10 @@
     </row>
     <row r="721" spans="3:7">
       <c r="C721" s="6">
-        <v>12213</v>
+        <v>12513</v>
       </c>
       <c r="D721" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E721" s="5">
         <v>9</v>
@@ -13573,10 +13564,10 @@
     </row>
     <row r="722" spans="3:7">
       <c r="C722" s="6">
-        <v>12214</v>
+        <v>12514</v>
       </c>
       <c r="D722" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E722" s="5">
         <v>9</v>
@@ -13590,10 +13581,10 @@
     </row>
     <row r="723" spans="3:7">
       <c r="C723" s="6">
-        <v>12215</v>
+        <v>12515</v>
       </c>
       <c r="D723" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E723" s="5">
         <v>9</v>
@@ -13607,10 +13598,10 @@
     </row>
     <row r="724" spans="3:7">
       <c r="C724" s="6">
-        <v>12216</v>
+        <v>12516</v>
       </c>
       <c r="D724" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E724" s="5">
         <v>2</v>
@@ -13624,10 +13615,10 @@
     </row>
     <row r="725" spans="3:7">
       <c r="C725" s="6">
-        <v>12217</v>
+        <v>12517</v>
       </c>
       <c r="D725" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E725" s="3">
         <v>9</v>
@@ -13641,10 +13632,10 @@
     </row>
     <row r="726" spans="3:7">
       <c r="C726" s="6">
-        <v>12218</v>
+        <v>12518</v>
       </c>
       <c r="D726" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E726" s="5">
         <v>9</v>
@@ -13658,10 +13649,10 @@
     </row>
     <row r="727" spans="3:7">
       <c r="C727" s="6">
-        <v>12219</v>
+        <v>12519</v>
       </c>
       <c r="D727" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E727" s="5">
         <v>10</v>
@@ -13675,10 +13666,10 @@
     </row>
     <row r="728" spans="3:7">
       <c r="C728" s="6">
-        <v>12220</v>
+        <v>12520</v>
       </c>
       <c r="D728" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E728" s="5">
         <v>9</v>
@@ -13692,10 +13683,10 @@
     </row>
     <row r="729" spans="3:7">
       <c r="C729" s="6">
-        <v>12221</v>
+        <v>12521</v>
       </c>
       <c r="D729" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E729" s="5">
         <v>5</v>
@@ -13709,10 +13700,10 @@
     </row>
     <row r="730" spans="3:7">
       <c r="C730" s="6">
-        <v>12222</v>
+        <v>12522</v>
       </c>
       <c r="D730" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E730" s="5">
         <v>6</v>
@@ -13726,10 +13717,10 @@
     </row>
     <row r="731" spans="3:7">
       <c r="C731" s="6">
-        <v>12223</v>
+        <v>12523</v>
       </c>
       <c r="D731" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E731" s="5">
         <v>7</v>
@@ -13743,10 +13734,10 @@
     </row>
     <row r="732" spans="3:7">
       <c r="C732" s="6">
-        <v>12224</v>
+        <v>12524</v>
       </c>
       <c r="D732" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E732" s="5">
         <v>8</v>
@@ -13760,10 +13751,10 @@
     </row>
     <row r="733" spans="3:7">
       <c r="C733" s="6">
-        <v>12225</v>
+        <v>12525</v>
       </c>
       <c r="D733" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E733" s="5">
         <v>9</v>
@@ -13780,10 +13771,10 @@
         <v>70</v>
       </c>
       <c r="C735" s="6">
-        <v>12301</v>
+        <v>12601</v>
       </c>
       <c r="D735" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E735" s="5">
         <v>1</v>
@@ -13795,17 +13786,17 @@
         <v>15</v>
       </c>
       <c r="H735" s="3">
-        <v>20525</v>
+        <v>20615</v>
       </c>
     </row>
     <row r="736" spans="1:8">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="6">
-        <v>12302</v>
+        <v>12602</v>
       </c>
       <c r="D736" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E736" s="5">
         <v>1</v>
@@ -13817,15 +13808,15 @@
         <v>16</v>
       </c>
       <c r="H736" s="3">
-        <v>20526</v>
+        <v>20616</v>
       </c>
     </row>
     <row r="737" spans="3:8">
       <c r="C737" s="6">
-        <v>12303</v>
+        <v>12603</v>
       </c>
       <c r="D737" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E737" s="5">
         <v>1</v>
@@ -13837,15 +13828,15 @@
         <v>18</v>
       </c>
       <c r="H737" s="3">
-        <v>20527</v>
+        <v>20617</v>
       </c>
     </row>
     <row r="738" spans="3:8">
       <c r="C738" s="6">
-        <v>12304</v>
+        <v>12604</v>
       </c>
       <c r="D738" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E738" s="3">
         <v>1</v>
@@ -13857,15 +13848,15 @@
         <v>19</v>
       </c>
       <c r="H738" s="3">
-        <v>20528</v>
+        <v>20618</v>
       </c>
     </row>
     <row r="739" spans="3:7">
       <c r="C739" s="6">
-        <v>12305</v>
+        <v>12605</v>
       </c>
       <c r="D739" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E739" s="5">
         <v>3</v>
@@ -13879,10 +13870,10 @@
     </row>
     <row r="740" spans="3:7">
       <c r="C740" s="6">
-        <v>12306</v>
+        <v>12606</v>
       </c>
       <c r="D740" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E740" s="5">
         <v>10</v>
@@ -13896,10 +13887,10 @@
     </row>
     <row r="741" spans="3:7">
       <c r="C741" s="6">
-        <v>12307</v>
+        <v>12607</v>
       </c>
       <c r="D741" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E741" s="5">
         <v>10</v>
@@ -13913,10 +13904,10 @@
     </row>
     <row r="742" spans="3:7">
       <c r="C742" s="6">
-        <v>12308</v>
+        <v>12608</v>
       </c>
       <c r="D742" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E742" s="5">
         <v>10</v>
@@ -13930,10 +13921,10 @@
     </row>
     <row r="743" spans="3:7">
       <c r="C743" s="6">
-        <v>12309</v>
+        <v>12609</v>
       </c>
       <c r="D743" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E743" s="5">
         <v>10</v>
@@ -13947,10 +13938,10 @@
     </row>
     <row r="744" spans="3:7">
       <c r="C744" s="6">
-        <v>12310</v>
+        <v>12610</v>
       </c>
       <c r="D744" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E744" s="5">
         <v>10</v>
@@ -13964,10 +13955,10 @@
     </row>
     <row r="745" spans="3:7">
       <c r="C745" s="6">
-        <v>12311</v>
+        <v>12611</v>
       </c>
       <c r="D745" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E745" s="5">
         <v>9</v>
@@ -13981,10 +13972,10 @@
     </row>
     <row r="746" spans="3:7">
       <c r="C746" s="6">
-        <v>12312</v>
+        <v>12612</v>
       </c>
       <c r="D746" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E746" s="5">
         <v>10</v>
@@ -13998,10 +13989,10 @@
     </row>
     <row r="747" spans="3:7">
       <c r="C747" s="6">
-        <v>12313</v>
+        <v>12613</v>
       </c>
       <c r="D747" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E747" s="5">
         <v>9</v>
@@ -14015,10 +14006,10 @@
     </row>
     <row r="748" spans="3:7">
       <c r="C748" s="6">
-        <v>12314</v>
+        <v>12614</v>
       </c>
       <c r="D748" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E748" s="5">
         <v>9</v>
@@ -14032,10 +14023,10 @@
     </row>
     <row r="749" spans="3:7">
       <c r="C749" s="6">
-        <v>12315</v>
+        <v>12615</v>
       </c>
       <c r="D749" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E749" s="5">
         <v>9</v>
@@ -14049,10 +14040,10 @@
     </row>
     <row r="750" spans="3:7">
       <c r="C750" s="6">
-        <v>12316</v>
+        <v>12616</v>
       </c>
       <c r="D750" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E750" s="5">
         <v>2</v>
@@ -14066,10 +14057,10 @@
     </row>
     <row r="751" spans="3:7">
       <c r="C751" s="6">
-        <v>12317</v>
+        <v>12617</v>
       </c>
       <c r="D751" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E751" s="3">
         <v>9</v>
@@ -14083,10 +14074,10 @@
     </row>
     <row r="752" spans="3:7">
       <c r="C752" s="6">
-        <v>12318</v>
+        <v>12618</v>
       </c>
       <c r="D752" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E752" s="5">
         <v>9</v>
@@ -14100,10 +14091,10 @@
     </row>
     <row r="753" spans="3:7">
       <c r="C753" s="6">
-        <v>12319</v>
+        <v>12619</v>
       </c>
       <c r="D753" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E753" s="5">
         <v>10</v>
@@ -14117,10 +14108,10 @@
     </row>
     <row r="754" spans="3:7">
       <c r="C754" s="6">
-        <v>12320</v>
+        <v>12620</v>
       </c>
       <c r="D754" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E754" s="5">
         <v>9</v>
@@ -14134,10 +14125,10 @@
     </row>
     <row r="755" spans="3:7">
       <c r="C755" s="6">
-        <v>12321</v>
+        <v>12621</v>
       </c>
       <c r="D755" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E755" s="5">
         <v>5</v>
@@ -14151,10 +14142,10 @@
     </row>
     <row r="756" spans="3:7">
       <c r="C756" s="6">
-        <v>12322</v>
+        <v>12622</v>
       </c>
       <c r="D756" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E756" s="5">
         <v>6</v>
@@ -14168,10 +14159,10 @@
     </row>
     <row r="757" spans="3:7">
       <c r="C757" s="6">
-        <v>12323</v>
+        <v>12623</v>
       </c>
       <c r="D757" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E757" s="5">
         <v>7</v>
@@ -14185,10 +14176,10 @@
     </row>
     <row r="758" spans="3:7">
       <c r="C758" s="6">
-        <v>12324</v>
+        <v>12624</v>
       </c>
       <c r="D758" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E758" s="5">
         <v>8</v>
@@ -14202,10 +14193,10 @@
     </row>
     <row r="759" spans="3:7">
       <c r="C759" s="6">
-        <v>12325</v>
+        <v>12625</v>
       </c>
       <c r="D759" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E759" s="5">
         <v>9</v>
@@ -14214,1332 +14205,6 @@
         <v>42</v>
       </c>
       <c r="G759" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="761" spans="1:8">
-      <c r="A761" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C761" s="6">
-        <v>12401</v>
-      </c>
-      <c r="D761" s="3">
-        <v>124</v>
-      </c>
-      <c r="E761" s="5">
-        <v>1</v>
-      </c>
-      <c r="F761" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G761" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H761" s="3">
-        <v>20595</v>
-      </c>
-    </row>
-    <row r="762" spans="1:8">
-      <c r="A762" s="1"/>
-      <c r="B762" s="1"/>
-      <c r="C762" s="6">
-        <v>12402</v>
-      </c>
-      <c r="D762" s="3">
-        <v>124</v>
-      </c>
-      <c r="E762" s="5">
-        <v>1</v>
-      </c>
-      <c r="F762" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G762" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H762" s="3">
-        <v>20596</v>
-      </c>
-    </row>
-    <row r="763" spans="3:8">
-      <c r="C763" s="6">
-        <v>12403</v>
-      </c>
-      <c r="D763" s="3">
-        <v>124</v>
-      </c>
-      <c r="E763" s="5">
-        <v>1</v>
-      </c>
-      <c r="F763" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G763" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H763" s="3">
-        <v>20597</v>
-      </c>
-    </row>
-    <row r="764" spans="3:8">
-      <c r="C764" s="6">
-        <v>12404</v>
-      </c>
-      <c r="D764" s="3">
-        <v>124</v>
-      </c>
-      <c r="E764" s="3">
-        <v>1</v>
-      </c>
-      <c r="F764" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G764" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H764" s="3">
-        <v>20598</v>
-      </c>
-    </row>
-    <row r="765" spans="3:7">
-      <c r="C765" s="6">
-        <v>12405</v>
-      </c>
-      <c r="D765" s="3">
-        <v>124</v>
-      </c>
-      <c r="E765" s="5">
-        <v>3</v>
-      </c>
-      <c r="F765" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G765" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="766" spans="3:7">
-      <c r="C766" s="6">
-        <v>12406</v>
-      </c>
-      <c r="D766" s="3">
-        <v>124</v>
-      </c>
-      <c r="E766" s="5">
-        <v>10</v>
-      </c>
-      <c r="F766" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G766" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="767" spans="3:7">
-      <c r="C767" s="6">
-        <v>12407</v>
-      </c>
-      <c r="D767" s="3">
-        <v>124</v>
-      </c>
-      <c r="E767" s="5">
-        <v>10</v>
-      </c>
-      <c r="F767" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G767" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="768" spans="3:7">
-      <c r="C768" s="6">
-        <v>12408</v>
-      </c>
-      <c r="D768" s="3">
-        <v>124</v>
-      </c>
-      <c r="E768" s="5">
-        <v>10</v>
-      </c>
-      <c r="F768" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G768" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="769" spans="3:7">
-      <c r="C769" s="6">
-        <v>12409</v>
-      </c>
-      <c r="D769" s="3">
-        <v>124</v>
-      </c>
-      <c r="E769" s="5">
-        <v>10</v>
-      </c>
-      <c r="F769" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G769" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="770" spans="3:7">
-      <c r="C770" s="6">
-        <v>12410</v>
-      </c>
-      <c r="D770" s="3">
-        <v>124</v>
-      </c>
-      <c r="E770" s="5">
-        <v>10</v>
-      </c>
-      <c r="F770" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G770" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="771" spans="3:7">
-      <c r="C771" s="6">
-        <v>12411</v>
-      </c>
-      <c r="D771" s="3">
-        <v>124</v>
-      </c>
-      <c r="E771" s="5">
-        <v>9</v>
-      </c>
-      <c r="F771" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G771" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="772" spans="3:7">
-      <c r="C772" s="6">
-        <v>12412</v>
-      </c>
-      <c r="D772" s="3">
-        <v>124</v>
-      </c>
-      <c r="E772" s="5">
-        <v>10</v>
-      </c>
-      <c r="F772" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G772" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="773" spans="3:7">
-      <c r="C773" s="6">
-        <v>12413</v>
-      </c>
-      <c r="D773" s="3">
-        <v>124</v>
-      </c>
-      <c r="E773" s="5">
-        <v>9</v>
-      </c>
-      <c r="F773" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G773" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="774" spans="3:7">
-      <c r="C774" s="6">
-        <v>12414</v>
-      </c>
-      <c r="D774" s="3">
-        <v>124</v>
-      </c>
-      <c r="E774" s="5">
-        <v>9</v>
-      </c>
-      <c r="F774" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G774" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="775" spans="3:7">
-      <c r="C775" s="6">
-        <v>12415</v>
-      </c>
-      <c r="D775" s="3">
-        <v>124</v>
-      </c>
-      <c r="E775" s="5">
-        <v>9</v>
-      </c>
-      <c r="F775" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G775" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="776" spans="3:7">
-      <c r="C776" s="6">
-        <v>12416</v>
-      </c>
-      <c r="D776" s="3">
-        <v>124</v>
-      </c>
-      <c r="E776" s="5">
-        <v>2</v>
-      </c>
-      <c r="F776" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G776" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="777" spans="3:7">
-      <c r="C777" s="6">
-        <v>12417</v>
-      </c>
-      <c r="D777" s="3">
-        <v>124</v>
-      </c>
-      <c r="E777" s="3">
-        <v>9</v>
-      </c>
-      <c r="F777" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G777" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="778" spans="3:7">
-      <c r="C778" s="6">
-        <v>12418</v>
-      </c>
-      <c r="D778" s="3">
-        <v>124</v>
-      </c>
-      <c r="E778" s="5">
-        <v>9</v>
-      </c>
-      <c r="F778" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G778" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="779" spans="3:7">
-      <c r="C779" s="6">
-        <v>12419</v>
-      </c>
-      <c r="D779" s="3">
-        <v>124</v>
-      </c>
-      <c r="E779" s="5">
-        <v>10</v>
-      </c>
-      <c r="F779" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G779" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="780" spans="3:7">
-      <c r="C780" s="6">
-        <v>12420</v>
-      </c>
-      <c r="D780" s="3">
-        <v>124</v>
-      </c>
-      <c r="E780" s="5">
-        <v>9</v>
-      </c>
-      <c r="F780" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G780" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="781" spans="3:7">
-      <c r="C781" s="6">
-        <v>12421</v>
-      </c>
-      <c r="D781" s="3">
-        <v>124</v>
-      </c>
-      <c r="E781" s="5">
-        <v>5</v>
-      </c>
-      <c r="F781" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G781" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="782" spans="3:7">
-      <c r="C782" s="6">
-        <v>12422</v>
-      </c>
-      <c r="D782" s="3">
-        <v>124</v>
-      </c>
-      <c r="E782" s="5">
-        <v>6</v>
-      </c>
-      <c r="F782" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G782" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="783" spans="3:7">
-      <c r="C783" s="6">
-        <v>12423</v>
-      </c>
-      <c r="D783" s="3">
-        <v>124</v>
-      </c>
-      <c r="E783" s="5">
-        <v>7</v>
-      </c>
-      <c r="F783" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G783" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="784" spans="3:7">
-      <c r="C784" s="6">
-        <v>12424</v>
-      </c>
-      <c r="D784" s="3">
-        <v>124</v>
-      </c>
-      <c r="E784" s="5">
-        <v>8</v>
-      </c>
-      <c r="F784" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G784" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="785" spans="3:7">
-      <c r="C785" s="6">
-        <v>12425</v>
-      </c>
-      <c r="D785" s="3">
-        <v>124</v>
-      </c>
-      <c r="E785" s="5">
-        <v>9</v>
-      </c>
-      <c r="F785" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G785" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="787" spans="1:8">
-      <c r="A787" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C787" s="6">
-        <v>12501</v>
-      </c>
-      <c r="D787" s="3">
-        <v>125</v>
-      </c>
-      <c r="E787" s="5">
-        <v>1</v>
-      </c>
-      <c r="F787" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G787" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H787" s="3">
-        <v>20605</v>
-      </c>
-    </row>
-    <row r="788" spans="1:8">
-      <c r="A788" s="1"/>
-      <c r="B788" s="1"/>
-      <c r="C788" s="6">
-        <v>12502</v>
-      </c>
-      <c r="D788" s="3">
-        <v>125</v>
-      </c>
-      <c r="E788" s="5">
-        <v>1</v>
-      </c>
-      <c r="F788" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G788" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H788" s="3">
-        <v>20606</v>
-      </c>
-    </row>
-    <row r="789" spans="3:8">
-      <c r="C789" s="6">
-        <v>12503</v>
-      </c>
-      <c r="D789" s="3">
-        <v>125</v>
-      </c>
-      <c r="E789" s="5">
-        <v>1</v>
-      </c>
-      <c r="F789" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G789" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H789" s="3">
-        <v>20607</v>
-      </c>
-    </row>
-    <row r="790" spans="3:8">
-      <c r="C790" s="6">
-        <v>12504</v>
-      </c>
-      <c r="D790" s="3">
-        <v>125</v>
-      </c>
-      <c r="E790" s="3">
-        <v>1</v>
-      </c>
-      <c r="F790" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G790" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H790" s="3">
-        <v>20608</v>
-      </c>
-    </row>
-    <row r="791" spans="3:7">
-      <c r="C791" s="6">
-        <v>12505</v>
-      </c>
-      <c r="D791" s="3">
-        <v>125</v>
-      </c>
-      <c r="E791" s="5">
-        <v>3</v>
-      </c>
-      <c r="F791" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G791" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="792" spans="3:7">
-      <c r="C792" s="6">
-        <v>12506</v>
-      </c>
-      <c r="D792" s="3">
-        <v>125</v>
-      </c>
-      <c r="E792" s="5">
-        <v>10</v>
-      </c>
-      <c r="F792" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G792" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="793" spans="3:7">
-      <c r="C793" s="6">
-        <v>12507</v>
-      </c>
-      <c r="D793" s="3">
-        <v>125</v>
-      </c>
-      <c r="E793" s="5">
-        <v>10</v>
-      </c>
-      <c r="F793" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G793" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="794" spans="3:7">
-      <c r="C794" s="6">
-        <v>12508</v>
-      </c>
-      <c r="D794" s="3">
-        <v>125</v>
-      </c>
-      <c r="E794" s="5">
-        <v>10</v>
-      </c>
-      <c r="F794" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G794" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="795" spans="3:7">
-      <c r="C795" s="6">
-        <v>12509</v>
-      </c>
-      <c r="D795" s="3">
-        <v>125</v>
-      </c>
-      <c r="E795" s="5">
-        <v>10</v>
-      </c>
-      <c r="F795" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G795" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="796" spans="3:7">
-      <c r="C796" s="6">
-        <v>12510</v>
-      </c>
-      <c r="D796" s="3">
-        <v>125</v>
-      </c>
-      <c r="E796" s="5">
-        <v>10</v>
-      </c>
-      <c r="F796" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G796" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="797" spans="3:7">
-      <c r="C797" s="6">
-        <v>12511</v>
-      </c>
-      <c r="D797" s="3">
-        <v>125</v>
-      </c>
-      <c r="E797" s="5">
-        <v>9</v>
-      </c>
-      <c r="F797" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G797" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="798" spans="3:7">
-      <c r="C798" s="6">
-        <v>12512</v>
-      </c>
-      <c r="D798" s="3">
-        <v>125</v>
-      </c>
-      <c r="E798" s="5">
-        <v>10</v>
-      </c>
-      <c r="F798" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G798" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="799" spans="3:7">
-      <c r="C799" s="6">
-        <v>12513</v>
-      </c>
-      <c r="D799" s="3">
-        <v>125</v>
-      </c>
-      <c r="E799" s="5">
-        <v>9</v>
-      </c>
-      <c r="F799" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G799" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="800" spans="3:7">
-      <c r="C800" s="6">
-        <v>12514</v>
-      </c>
-      <c r="D800" s="3">
-        <v>125</v>
-      </c>
-      <c r="E800" s="5">
-        <v>9</v>
-      </c>
-      <c r="F800" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G800" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="801" spans="3:7">
-      <c r="C801" s="6">
-        <v>12515</v>
-      </c>
-      <c r="D801" s="3">
-        <v>125</v>
-      </c>
-      <c r="E801" s="5">
-        <v>9</v>
-      </c>
-      <c r="F801" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G801" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="802" spans="3:7">
-      <c r="C802" s="6">
-        <v>12516</v>
-      </c>
-      <c r="D802" s="3">
-        <v>125</v>
-      </c>
-      <c r="E802" s="5">
-        <v>2</v>
-      </c>
-      <c r="F802" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G802" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="803" spans="3:7">
-      <c r="C803" s="6">
-        <v>12517</v>
-      </c>
-      <c r="D803" s="3">
-        <v>125</v>
-      </c>
-      <c r="E803" s="3">
-        <v>9</v>
-      </c>
-      <c r="F803" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G803" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="804" spans="3:7">
-      <c r="C804" s="6">
-        <v>12518</v>
-      </c>
-      <c r="D804" s="3">
-        <v>125</v>
-      </c>
-      <c r="E804" s="5">
-        <v>9</v>
-      </c>
-      <c r="F804" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G804" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="805" spans="3:7">
-      <c r="C805" s="6">
-        <v>12519</v>
-      </c>
-      <c r="D805" s="3">
-        <v>125</v>
-      </c>
-      <c r="E805" s="5">
-        <v>10</v>
-      </c>
-      <c r="F805" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G805" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="806" spans="3:7">
-      <c r="C806" s="6">
-        <v>12520</v>
-      </c>
-      <c r="D806" s="3">
-        <v>125</v>
-      </c>
-      <c r="E806" s="5">
-        <v>9</v>
-      </c>
-      <c r="F806" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G806" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="807" spans="3:7">
-      <c r="C807" s="6">
-        <v>12521</v>
-      </c>
-      <c r="D807" s="3">
-        <v>125</v>
-      </c>
-      <c r="E807" s="5">
-        <v>5</v>
-      </c>
-      <c r="F807" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G807" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="808" spans="3:7">
-      <c r="C808" s="6">
-        <v>12522</v>
-      </c>
-      <c r="D808" s="3">
-        <v>125</v>
-      </c>
-      <c r="E808" s="5">
-        <v>6</v>
-      </c>
-      <c r="F808" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G808" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="809" spans="3:7">
-      <c r="C809" s="6">
-        <v>12523</v>
-      </c>
-      <c r="D809" s="3">
-        <v>125</v>
-      </c>
-      <c r="E809" s="5">
-        <v>7</v>
-      </c>
-      <c r="F809" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G809" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="810" spans="3:7">
-      <c r="C810" s="6">
-        <v>12524</v>
-      </c>
-      <c r="D810" s="3">
-        <v>125</v>
-      </c>
-      <c r="E810" s="5">
-        <v>8</v>
-      </c>
-      <c r="F810" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G810" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="811" spans="3:7">
-      <c r="C811" s="6">
-        <v>12525</v>
-      </c>
-      <c r="D811" s="3">
-        <v>125</v>
-      </c>
-      <c r="E811" s="5">
-        <v>9</v>
-      </c>
-      <c r="F811" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G811" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="813" spans="1:8">
-      <c r="A813" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C813" s="6">
-        <v>12601</v>
-      </c>
-      <c r="D813" s="3">
-        <v>126</v>
-      </c>
-      <c r="E813" s="5">
-        <v>1</v>
-      </c>
-      <c r="F813" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G813" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H813" s="3">
-        <v>20615</v>
-      </c>
-    </row>
-    <row r="814" spans="1:8">
-      <c r="A814" s="1"/>
-      <c r="B814" s="1"/>
-      <c r="C814" s="6">
-        <v>12602</v>
-      </c>
-      <c r="D814" s="3">
-        <v>126</v>
-      </c>
-      <c r="E814" s="5">
-        <v>1</v>
-      </c>
-      <c r="F814" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G814" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H814" s="3">
-        <v>20616</v>
-      </c>
-    </row>
-    <row r="815" spans="3:8">
-      <c r="C815" s="6">
-        <v>12603</v>
-      </c>
-      <c r="D815" s="3">
-        <v>126</v>
-      </c>
-      <c r="E815" s="5">
-        <v>1</v>
-      </c>
-      <c r="F815" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G815" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H815" s="3">
-        <v>20617</v>
-      </c>
-    </row>
-    <row r="816" spans="3:8">
-      <c r="C816" s="6">
-        <v>12604</v>
-      </c>
-      <c r="D816" s="3">
-        <v>126</v>
-      </c>
-      <c r="E816" s="3">
-        <v>1</v>
-      </c>
-      <c r="F816" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G816" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H816" s="3">
-        <v>20618</v>
-      </c>
-    </row>
-    <row r="817" spans="3:7">
-      <c r="C817" s="6">
-        <v>12605</v>
-      </c>
-      <c r="D817" s="3">
-        <v>126</v>
-      </c>
-      <c r="E817" s="5">
-        <v>3</v>
-      </c>
-      <c r="F817" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G817" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="818" spans="3:7">
-      <c r="C818" s="6">
-        <v>12606</v>
-      </c>
-      <c r="D818" s="3">
-        <v>126</v>
-      </c>
-      <c r="E818" s="5">
-        <v>10</v>
-      </c>
-      <c r="F818" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G818" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="819" spans="3:7">
-      <c r="C819" s="6">
-        <v>12607</v>
-      </c>
-      <c r="D819" s="3">
-        <v>126</v>
-      </c>
-      <c r="E819" s="5">
-        <v>10</v>
-      </c>
-      <c r="F819" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G819" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="820" spans="3:7">
-      <c r="C820" s="6">
-        <v>12608</v>
-      </c>
-      <c r="D820" s="3">
-        <v>126</v>
-      </c>
-      <c r="E820" s="5">
-        <v>10</v>
-      </c>
-      <c r="F820" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G820" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="821" spans="3:7">
-      <c r="C821" s="6">
-        <v>12609</v>
-      </c>
-      <c r="D821" s="3">
-        <v>126</v>
-      </c>
-      <c r="E821" s="5">
-        <v>10</v>
-      </c>
-      <c r="F821" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G821" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="822" spans="3:7">
-      <c r="C822" s="6">
-        <v>12610</v>
-      </c>
-      <c r="D822" s="3">
-        <v>126</v>
-      </c>
-      <c r="E822" s="5">
-        <v>10</v>
-      </c>
-      <c r="F822" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G822" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="823" spans="3:7">
-      <c r="C823" s="6">
-        <v>12611</v>
-      </c>
-      <c r="D823" s="3">
-        <v>126</v>
-      </c>
-      <c r="E823" s="5">
-        <v>9</v>
-      </c>
-      <c r="F823" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G823" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="824" spans="3:7">
-      <c r="C824" s="6">
-        <v>12612</v>
-      </c>
-      <c r="D824" s="3">
-        <v>126</v>
-      </c>
-      <c r="E824" s="5">
-        <v>10</v>
-      </c>
-      <c r="F824" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G824" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="825" spans="3:7">
-      <c r="C825" s="6">
-        <v>12613</v>
-      </c>
-      <c r="D825" s="3">
-        <v>126</v>
-      </c>
-      <c r="E825" s="5">
-        <v>9</v>
-      </c>
-      <c r="F825" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G825" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="826" spans="3:7">
-      <c r="C826" s="6">
-        <v>12614</v>
-      </c>
-      <c r="D826" s="3">
-        <v>126</v>
-      </c>
-      <c r="E826" s="5">
-        <v>9</v>
-      </c>
-      <c r="F826" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G826" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="827" spans="3:7">
-      <c r="C827" s="6">
-        <v>12615</v>
-      </c>
-      <c r="D827" s="3">
-        <v>126</v>
-      </c>
-      <c r="E827" s="5">
-        <v>9</v>
-      </c>
-      <c r="F827" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G827" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="828" spans="3:7">
-      <c r="C828" s="6">
-        <v>12616</v>
-      </c>
-      <c r="D828" s="3">
-        <v>126</v>
-      </c>
-      <c r="E828" s="5">
-        <v>2</v>
-      </c>
-      <c r="F828" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G828" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="829" spans="3:7">
-      <c r="C829" s="6">
-        <v>12617</v>
-      </c>
-      <c r="D829" s="3">
-        <v>126</v>
-      </c>
-      <c r="E829" s="3">
-        <v>9</v>
-      </c>
-      <c r="F829" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G829" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="830" spans="3:7">
-      <c r="C830" s="6">
-        <v>12618</v>
-      </c>
-      <c r="D830" s="3">
-        <v>126</v>
-      </c>
-      <c r="E830" s="5">
-        <v>9</v>
-      </c>
-      <c r="F830" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G830" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="831" spans="3:7">
-      <c r="C831" s="6">
-        <v>12619</v>
-      </c>
-      <c r="D831" s="3">
-        <v>126</v>
-      </c>
-      <c r="E831" s="5">
-        <v>10</v>
-      </c>
-      <c r="F831" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G831" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="832" spans="3:7">
-      <c r="C832" s="6">
-        <v>12620</v>
-      </c>
-      <c r="D832" s="3">
-        <v>126</v>
-      </c>
-      <c r="E832" s="5">
-        <v>9</v>
-      </c>
-      <c r="F832" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G832" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="833" spans="3:7">
-      <c r="C833" s="6">
-        <v>12621</v>
-      </c>
-      <c r="D833" s="3">
-        <v>126</v>
-      </c>
-      <c r="E833" s="5">
-        <v>5</v>
-      </c>
-      <c r="F833" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G833" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="834" spans="3:7">
-      <c r="C834" s="6">
-        <v>12622</v>
-      </c>
-      <c r="D834" s="3">
-        <v>126</v>
-      </c>
-      <c r="E834" s="5">
-        <v>6</v>
-      </c>
-      <c r="F834" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G834" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="835" spans="3:7">
-      <c r="C835" s="6">
-        <v>12623</v>
-      </c>
-      <c r="D835" s="3">
-        <v>126</v>
-      </c>
-      <c r="E835" s="5">
-        <v>7</v>
-      </c>
-      <c r="F835" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G835" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="836" spans="3:7">
-      <c r="C836" s="6">
-        <v>12624</v>
-      </c>
-      <c r="D836" s="3">
-        <v>126</v>
-      </c>
-      <c r="E836" s="5">
-        <v>8</v>
-      </c>
-      <c r="F836" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G836" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="837" spans="3:7">
-      <c r="C837" s="6">
-        <v>12625</v>
-      </c>
-      <c r="D837" s="3">
-        <v>126</v>
-      </c>
-      <c r="E837" s="5">
-        <v>9</v>
-      </c>
-      <c r="F837" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G837" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -15665,10 +14330,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -15683,10 +14348,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -15701,10 +14366,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -15719,10 +14384,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H9" s="5">
         <v>20304</v>
@@ -15739,10 +14404,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -15842,10 +14507,10 @@
         <v>203</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="76">
   <si>
     <t>Id</t>
   </si>
@@ -211,19 +211,10 @@
     <t>#先锋115区九州四海</t>
   </si>
   <si>
-    <t>#先锋116区熔火之心</t>
-  </si>
-  <si>
     <t>#先锋117区朝花夕拾</t>
   </si>
   <si>
-    <t>#先锋118区决胜千里</t>
-  </si>
-  <si>
     <t>#先锋119区龙焰平原</t>
-  </si>
-  <si>
-    <t>#先锋120区埋骨之地</t>
   </si>
   <si>
     <t>#先锋121区太平盛世</t>
@@ -242,6 +233,9 @@
   </si>
   <si>
     <t>#先锋126南屏晚钟</t>
+  </si>
+  <si>
+    <t>#先锋127璀璨梦境</t>
   </si>
   <si>
     <t>Center</t>
@@ -1269,10 +1263,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O759"/>
+  <dimension ref="A3:O707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A730" workbookViewId="0">
-      <selection activeCell="A744" sqref="A744"/>
+    <sheetView tabSelected="1" topLeftCell="A671" workbookViewId="0">
+      <selection activeCell="A695" sqref="A695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9351,10 +9345,10 @@
         <v>60</v>
       </c>
       <c r="C475" s="6">
-        <v>11601</v>
+        <v>11701</v>
       </c>
       <c r="D475" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E475" s="5">
         <v>1</v>
@@ -9366,17 +9360,17 @@
         <v>15</v>
       </c>
       <c r="H475" s="3">
-        <v>20565</v>
+        <v>20575</v>
       </c>
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="6">
-        <v>11602</v>
+        <v>11702</v>
       </c>
       <c r="D476" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E476" s="5">
         <v>1</v>
@@ -9388,15 +9382,15 @@
         <v>16</v>
       </c>
       <c r="H476" s="3">
-        <v>20566</v>
+        <v>20576</v>
       </c>
     </row>
     <row r="477" spans="3:8">
       <c r="C477" s="6">
-        <v>11603</v>
+        <v>11703</v>
       </c>
       <c r="D477" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E477" s="5">
         <v>1</v>
@@ -9408,15 +9402,15 @@
         <v>18</v>
       </c>
       <c r="H477" s="3">
-        <v>20567</v>
+        <v>20577</v>
       </c>
     </row>
     <row r="478" spans="3:8">
       <c r="C478" s="6">
-        <v>11604</v>
+        <v>11704</v>
       </c>
       <c r="D478" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E478" s="3">
         <v>1</v>
@@ -9428,15 +9422,15 @@
         <v>19</v>
       </c>
       <c r="H478" s="3">
-        <v>20568</v>
+        <v>20578</v>
       </c>
     </row>
     <row r="479" spans="3:7">
       <c r="C479" s="6">
-        <v>11605</v>
+        <v>11705</v>
       </c>
       <c r="D479" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E479" s="5">
         <v>3</v>
@@ -9450,10 +9444,10 @@
     </row>
     <row r="480" spans="3:7">
       <c r="C480" s="6">
-        <v>11606</v>
+        <v>11706</v>
       </c>
       <c r="D480" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E480" s="5">
         <v>10</v>
@@ -9467,10 +9461,10 @@
     </row>
     <row r="481" spans="3:7">
       <c r="C481" s="6">
-        <v>11607</v>
+        <v>11707</v>
       </c>
       <c r="D481" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E481" s="5">
         <v>10</v>
@@ -9484,10 +9478,10 @@
     </row>
     <row r="482" spans="3:7">
       <c r="C482" s="6">
-        <v>11608</v>
+        <v>11708</v>
       </c>
       <c r="D482" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E482" s="5">
         <v>10</v>
@@ -9501,10 +9495,10 @@
     </row>
     <row r="483" spans="3:7">
       <c r="C483" s="6">
-        <v>11609</v>
+        <v>11709</v>
       </c>
       <c r="D483" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E483" s="5">
         <v>10</v>
@@ -9518,10 +9512,10 @@
     </row>
     <row r="484" spans="3:7">
       <c r="C484" s="6">
-        <v>11610</v>
+        <v>11710</v>
       </c>
       <c r="D484" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E484" s="5">
         <v>10</v>
@@ -9535,10 +9529,10 @@
     </row>
     <row r="485" spans="3:7">
       <c r="C485" s="6">
-        <v>11611</v>
+        <v>11711</v>
       </c>
       <c r="D485" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E485" s="5">
         <v>9</v>
@@ -9552,10 +9546,10 @@
     </row>
     <row r="486" spans="3:7">
       <c r="C486" s="6">
-        <v>11612</v>
+        <v>11712</v>
       </c>
       <c r="D486" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E486" s="5">
         <v>10</v>
@@ -9569,10 +9563,10 @@
     </row>
     <row r="487" spans="3:7">
       <c r="C487" s="6">
-        <v>11613</v>
+        <v>11713</v>
       </c>
       <c r="D487" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E487" s="5">
         <v>9</v>
@@ -9586,10 +9580,10 @@
     </row>
     <row r="488" spans="3:7">
       <c r="C488" s="6">
-        <v>11614</v>
+        <v>11714</v>
       </c>
       <c r="D488" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E488" s="5">
         <v>9</v>
@@ -9603,10 +9597,10 @@
     </row>
     <row r="489" spans="3:7">
       <c r="C489" s="6">
-        <v>11615</v>
+        <v>11715</v>
       </c>
       <c r="D489" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E489" s="5">
         <v>9</v>
@@ -9620,10 +9614,10 @@
     </row>
     <row r="490" spans="3:7">
       <c r="C490" s="6">
-        <v>11616</v>
+        <v>11716</v>
       </c>
       <c r="D490" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E490" s="5">
         <v>2</v>
@@ -9637,10 +9631,10 @@
     </row>
     <row r="491" spans="3:7">
       <c r="C491" s="6">
-        <v>11617</v>
+        <v>11717</v>
       </c>
       <c r="D491" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E491" s="3">
         <v>9</v>
@@ -9654,10 +9648,10 @@
     </row>
     <row r="492" spans="3:7">
       <c r="C492" s="6">
-        <v>11618</v>
+        <v>11718</v>
       </c>
       <c r="D492" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E492" s="5">
         <v>9</v>
@@ -9671,10 +9665,10 @@
     </row>
     <row r="493" spans="3:7">
       <c r="C493" s="6">
-        <v>11619</v>
+        <v>11719</v>
       </c>
       <c r="D493" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E493" s="5">
         <v>10</v>
@@ -9688,10 +9682,10 @@
     </row>
     <row r="494" spans="3:7">
       <c r="C494" s="6">
-        <v>11620</v>
+        <v>11720</v>
       </c>
       <c r="D494" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E494" s="5">
         <v>9</v>
@@ -9705,10 +9699,10 @@
     </row>
     <row r="495" spans="3:7">
       <c r="C495" s="6">
-        <v>11621</v>
+        <v>11721</v>
       </c>
       <c r="D495" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E495" s="5">
         <v>5</v>
@@ -9722,10 +9716,10 @@
     </row>
     <row r="496" spans="3:7">
       <c r="C496" s="6">
-        <v>11622</v>
+        <v>11722</v>
       </c>
       <c r="D496" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E496" s="5">
         <v>6</v>
@@ -9739,10 +9733,10 @@
     </row>
     <row r="497" spans="3:7">
       <c r="C497" s="6">
-        <v>11623</v>
+        <v>11723</v>
       </c>
       <c r="D497" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E497" s="5">
         <v>7</v>
@@ -9756,10 +9750,10 @@
     </row>
     <row r="498" spans="3:7">
       <c r="C498" s="6">
-        <v>11624</v>
+        <v>11724</v>
       </c>
       <c r="D498" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E498" s="5">
         <v>8</v>
@@ -9773,10 +9767,10 @@
     </row>
     <row r="499" spans="3:7">
       <c r="C499" s="6">
-        <v>11625</v>
+        <v>11725</v>
       </c>
       <c r="D499" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E499" s="5">
         <v>9</v>
@@ -9793,10 +9787,10 @@
         <v>61</v>
       </c>
       <c r="C501" s="6">
-        <v>11701</v>
+        <v>11901</v>
       </c>
       <c r="D501" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E501" s="5">
         <v>1</v>
@@ -9808,17 +9802,17 @@
         <v>15</v>
       </c>
       <c r="H501" s="3">
-        <v>20575</v>
+        <v>20415</v>
       </c>
     </row>
     <row r="502" spans="1:8">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="6">
-        <v>11702</v>
+        <v>11902</v>
       </c>
       <c r="D502" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E502" s="5">
         <v>1</v>
@@ -9830,15 +9824,15 @@
         <v>16</v>
       </c>
       <c r="H502" s="3">
-        <v>20576</v>
+        <v>20416</v>
       </c>
     </row>
     <row r="503" spans="3:8">
       <c r="C503" s="6">
-        <v>11703</v>
+        <v>11903</v>
       </c>
       <c r="D503" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E503" s="5">
         <v>1</v>
@@ -9850,15 +9844,15 @@
         <v>18</v>
       </c>
       <c r="H503" s="3">
-        <v>20577</v>
+        <v>20417</v>
       </c>
     </row>
     <row r="504" spans="3:8">
       <c r="C504" s="6">
-        <v>11704</v>
+        <v>11904</v>
       </c>
       <c r="D504" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E504" s="3">
         <v>1</v>
@@ -9870,15 +9864,15 @@
         <v>19</v>
       </c>
       <c r="H504" s="3">
-        <v>20578</v>
+        <v>20418</v>
       </c>
     </row>
     <row r="505" spans="3:7">
       <c r="C505" s="6">
-        <v>11705</v>
+        <v>11905</v>
       </c>
       <c r="D505" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E505" s="5">
         <v>3</v>
@@ -9892,10 +9886,10 @@
     </row>
     <row r="506" spans="3:7">
       <c r="C506" s="6">
-        <v>11706</v>
+        <v>11906</v>
       </c>
       <c r="D506" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E506" s="5">
         <v>10</v>
@@ -9909,10 +9903,10 @@
     </row>
     <row r="507" spans="3:7">
       <c r="C507" s="6">
-        <v>11707</v>
+        <v>11907</v>
       </c>
       <c r="D507" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E507" s="5">
         <v>10</v>
@@ -9926,10 +9920,10 @@
     </row>
     <row r="508" spans="3:7">
       <c r="C508" s="6">
-        <v>11708</v>
+        <v>11908</v>
       </c>
       <c r="D508" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E508" s="5">
         <v>10</v>
@@ -9943,10 +9937,10 @@
     </row>
     <row r="509" spans="3:7">
       <c r="C509" s="6">
-        <v>11709</v>
+        <v>11909</v>
       </c>
       <c r="D509" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E509" s="5">
         <v>10</v>
@@ -9960,10 +9954,10 @@
     </row>
     <row r="510" spans="3:7">
       <c r="C510" s="6">
-        <v>11710</v>
+        <v>11910</v>
       </c>
       <c r="D510" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E510" s="5">
         <v>10</v>
@@ -9977,10 +9971,10 @@
     </row>
     <row r="511" spans="3:7">
       <c r="C511" s="6">
-        <v>11711</v>
+        <v>11911</v>
       </c>
       <c r="D511" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E511" s="5">
         <v>9</v>
@@ -9994,10 +9988,10 @@
     </row>
     <row r="512" spans="3:7">
       <c r="C512" s="6">
-        <v>11712</v>
+        <v>11912</v>
       </c>
       <c r="D512" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E512" s="5">
         <v>10</v>
@@ -10011,10 +10005,10 @@
     </row>
     <row r="513" spans="3:7">
       <c r="C513" s="6">
-        <v>11713</v>
+        <v>11913</v>
       </c>
       <c r="D513" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E513" s="5">
         <v>9</v>
@@ -10028,10 +10022,10 @@
     </row>
     <row r="514" spans="3:7">
       <c r="C514" s="6">
-        <v>11714</v>
+        <v>11914</v>
       </c>
       <c r="D514" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E514" s="5">
         <v>9</v>
@@ -10045,10 +10039,10 @@
     </row>
     <row r="515" spans="3:7">
       <c r="C515" s="6">
-        <v>11715</v>
+        <v>11915</v>
       </c>
       <c r="D515" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E515" s="5">
         <v>9</v>
@@ -10062,10 +10056,10 @@
     </row>
     <row r="516" spans="3:7">
       <c r="C516" s="6">
-        <v>11716</v>
+        <v>11916</v>
       </c>
       <c r="D516" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E516" s="5">
         <v>2</v>
@@ -10079,10 +10073,10 @@
     </row>
     <row r="517" spans="3:7">
       <c r="C517" s="6">
-        <v>11717</v>
+        <v>11917</v>
       </c>
       <c r="D517" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E517" s="3">
         <v>9</v>
@@ -10096,10 +10090,10 @@
     </row>
     <row r="518" spans="3:7">
       <c r="C518" s="6">
-        <v>11718</v>
+        <v>11918</v>
       </c>
       <c r="D518" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E518" s="5">
         <v>9</v>
@@ -10113,10 +10107,10 @@
     </row>
     <row r="519" spans="3:7">
       <c r="C519" s="6">
-        <v>11719</v>
+        <v>11919</v>
       </c>
       <c r="D519" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E519" s="5">
         <v>10</v>
@@ -10130,10 +10124,10 @@
     </row>
     <row r="520" spans="3:7">
       <c r="C520" s="6">
-        <v>11720</v>
+        <v>11920</v>
       </c>
       <c r="D520" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E520" s="5">
         <v>9</v>
@@ -10147,10 +10141,10 @@
     </row>
     <row r="521" spans="3:7">
       <c r="C521" s="6">
-        <v>11721</v>
+        <v>11921</v>
       </c>
       <c r="D521" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E521" s="5">
         <v>5</v>
@@ -10164,10 +10158,10 @@
     </row>
     <row r="522" spans="3:7">
       <c r="C522" s="6">
-        <v>11722</v>
+        <v>11922</v>
       </c>
       <c r="D522" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E522" s="5">
         <v>6</v>
@@ -10181,10 +10175,10 @@
     </row>
     <row r="523" spans="3:7">
       <c r="C523" s="6">
-        <v>11723</v>
+        <v>11923</v>
       </c>
       <c r="D523" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E523" s="5">
         <v>7</v>
@@ -10198,10 +10192,10 @@
     </row>
     <row r="524" spans="3:7">
       <c r="C524" s="6">
-        <v>11724</v>
+        <v>11924</v>
       </c>
       <c r="D524" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E524" s="5">
         <v>8</v>
@@ -10215,10 +10209,10 @@
     </row>
     <row r="525" spans="3:7">
       <c r="C525" s="6">
-        <v>11725</v>
+        <v>11925</v>
       </c>
       <c r="D525" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E525" s="5">
         <v>9</v>
@@ -10235,10 +10229,10 @@
         <v>62</v>
       </c>
       <c r="C527" s="6">
-        <v>11801</v>
+        <v>12101</v>
       </c>
       <c r="D527" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E527" s="5">
         <v>1</v>
@@ -10250,17 +10244,17 @@
         <v>15</v>
       </c>
       <c r="H527" s="3">
-        <v>20585</v>
+        <v>20465</v>
       </c>
     </row>
     <row r="528" spans="1:8">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="6">
-        <v>11802</v>
+        <v>12102</v>
       </c>
       <c r="D528" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E528" s="5">
         <v>1</v>
@@ -10272,15 +10266,15 @@
         <v>16</v>
       </c>
       <c r="H528" s="3">
-        <v>20586</v>
+        <v>20466</v>
       </c>
     </row>
     <row r="529" spans="3:8">
       <c r="C529" s="6">
-        <v>11803</v>
+        <v>12103</v>
       </c>
       <c r="D529" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E529" s="5">
         <v>1</v>
@@ -10292,15 +10286,15 @@
         <v>18</v>
       </c>
       <c r="H529" s="3">
-        <v>20587</v>
+        <v>20467</v>
       </c>
     </row>
     <row r="530" spans="3:8">
       <c r="C530" s="6">
-        <v>11804</v>
+        <v>12104</v>
       </c>
       <c r="D530" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E530" s="3">
         <v>1</v>
@@ -10312,15 +10306,15 @@
         <v>19</v>
       </c>
       <c r="H530" s="3">
-        <v>20588</v>
+        <v>20468</v>
       </c>
     </row>
     <row r="531" spans="3:7">
       <c r="C531" s="6">
-        <v>11805</v>
+        <v>12105</v>
       </c>
       <c r="D531" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E531" s="5">
         <v>3</v>
@@ -10334,10 +10328,10 @@
     </row>
     <row r="532" spans="3:7">
       <c r="C532" s="6">
-        <v>11806</v>
+        <v>12106</v>
       </c>
       <c r="D532" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E532" s="5">
         <v>10</v>
@@ -10351,10 +10345,10 @@
     </row>
     <row r="533" spans="3:7">
       <c r="C533" s="6">
-        <v>11807</v>
+        <v>12107</v>
       </c>
       <c r="D533" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E533" s="5">
         <v>10</v>
@@ -10368,10 +10362,10 @@
     </row>
     <row r="534" spans="3:7">
       <c r="C534" s="6">
-        <v>11808</v>
+        <v>12108</v>
       </c>
       <c r="D534" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E534" s="5">
         <v>10</v>
@@ -10385,10 +10379,10 @@
     </row>
     <row r="535" spans="3:7">
       <c r="C535" s="6">
-        <v>11809</v>
+        <v>12109</v>
       </c>
       <c r="D535" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E535" s="5">
         <v>10</v>
@@ -10402,10 +10396,10 @@
     </row>
     <row r="536" spans="3:7">
       <c r="C536" s="6">
-        <v>11810</v>
+        <v>12110</v>
       </c>
       <c r="D536" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E536" s="5">
         <v>10</v>
@@ -10419,10 +10413,10 @@
     </row>
     <row r="537" spans="3:7">
       <c r="C537" s="6">
-        <v>11811</v>
+        <v>12111</v>
       </c>
       <c r="D537" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E537" s="5">
         <v>9</v>
@@ -10436,10 +10430,10 @@
     </row>
     <row r="538" spans="3:7">
       <c r="C538" s="6">
-        <v>11812</v>
+        <v>12112</v>
       </c>
       <c r="D538" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E538" s="5">
         <v>10</v>
@@ -10453,10 +10447,10 @@
     </row>
     <row r="539" spans="3:7">
       <c r="C539" s="6">
-        <v>11813</v>
+        <v>12113</v>
       </c>
       <c r="D539" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E539" s="5">
         <v>9</v>
@@ -10470,10 +10464,10 @@
     </row>
     <row r="540" spans="3:7">
       <c r="C540" s="6">
-        <v>11814</v>
+        <v>12114</v>
       </c>
       <c r="D540" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E540" s="5">
         <v>9</v>
@@ -10487,10 +10481,10 @@
     </row>
     <row r="541" spans="3:7">
       <c r="C541" s="6">
-        <v>11815</v>
+        <v>12115</v>
       </c>
       <c r="D541" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E541" s="5">
         <v>9</v>
@@ -10504,10 +10498,10 @@
     </row>
     <row r="542" spans="3:7">
       <c r="C542" s="6">
-        <v>11816</v>
+        <v>12116</v>
       </c>
       <c r="D542" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E542" s="5">
         <v>2</v>
@@ -10521,10 +10515,10 @@
     </row>
     <row r="543" spans="3:7">
       <c r="C543" s="6">
-        <v>11817</v>
+        <v>12117</v>
       </c>
       <c r="D543" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E543" s="3">
         <v>9</v>
@@ -10538,10 +10532,10 @@
     </row>
     <row r="544" spans="3:7">
       <c r="C544" s="6">
-        <v>11818</v>
+        <v>12118</v>
       </c>
       <c r="D544" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E544" s="5">
         <v>9</v>
@@ -10555,10 +10549,10 @@
     </row>
     <row r="545" spans="3:7">
       <c r="C545" s="6">
-        <v>11819</v>
+        <v>12119</v>
       </c>
       <c r="D545" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E545" s="5">
         <v>10</v>
@@ -10572,10 +10566,10 @@
     </row>
     <row r="546" spans="3:7">
       <c r="C546" s="6">
-        <v>11820</v>
+        <v>12120</v>
       </c>
       <c r="D546" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E546" s="5">
         <v>9</v>
@@ -10589,10 +10583,10 @@
     </row>
     <row r="547" spans="3:7">
       <c r="C547" s="6">
-        <v>11821</v>
+        <v>12121</v>
       </c>
       <c r="D547" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E547" s="5">
         <v>5</v>
@@ -10606,10 +10600,10 @@
     </row>
     <row r="548" spans="3:7">
       <c r="C548" s="6">
-        <v>11822</v>
+        <v>12122</v>
       </c>
       <c r="D548" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E548" s="5">
         <v>6</v>
@@ -10623,10 +10617,10 @@
     </row>
     <row r="549" spans="3:7">
       <c r="C549" s="6">
-        <v>11823</v>
+        <v>12123</v>
       </c>
       <c r="D549" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E549" s="5">
         <v>7</v>
@@ -10640,10 +10634,10 @@
     </row>
     <row r="550" spans="3:7">
       <c r="C550" s="6">
-        <v>11824</v>
+        <v>12124</v>
       </c>
       <c r="D550" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E550" s="5">
         <v>8</v>
@@ -10657,10 +10651,10 @@
     </row>
     <row r="551" spans="3:7">
       <c r="C551" s="6">
-        <v>11825</v>
+        <v>12125</v>
       </c>
       <c r="D551" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E551" s="5">
         <v>9</v>
@@ -10677,10 +10671,10 @@
         <v>63</v>
       </c>
       <c r="C553" s="6">
-        <v>11901</v>
+        <v>12201</v>
       </c>
       <c r="D553" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E553" s="5">
         <v>1</v>
@@ -10692,17 +10686,17 @@
         <v>15</v>
       </c>
       <c r="H553" s="3">
-        <v>20415</v>
+        <v>20505</v>
       </c>
     </row>
     <row r="554" spans="1:8">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="6">
-        <v>11902</v>
+        <v>12202</v>
       </c>
       <c r="D554" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E554" s="5">
         <v>1</v>
@@ -10714,15 +10708,15 @@
         <v>16</v>
       </c>
       <c r="H554" s="3">
-        <v>20416</v>
+        <v>20506</v>
       </c>
     </row>
     <row r="555" spans="3:8">
       <c r="C555" s="6">
-        <v>11903</v>
+        <v>12203</v>
       </c>
       <c r="D555" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E555" s="5">
         <v>1</v>
@@ -10734,15 +10728,15 @@
         <v>18</v>
       </c>
       <c r="H555" s="3">
-        <v>20417</v>
+        <v>20507</v>
       </c>
     </row>
     <row r="556" spans="3:8">
       <c r="C556" s="6">
-        <v>11904</v>
+        <v>12204</v>
       </c>
       <c r="D556" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E556" s="3">
         <v>1</v>
@@ -10754,15 +10748,15 @@
         <v>19</v>
       </c>
       <c r="H556" s="3">
-        <v>20418</v>
+        <v>20508</v>
       </c>
     </row>
     <row r="557" spans="3:7">
       <c r="C557" s="6">
-        <v>11905</v>
+        <v>12205</v>
       </c>
       <c r="D557" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E557" s="5">
         <v>3</v>
@@ -10776,10 +10770,10 @@
     </row>
     <row r="558" spans="3:7">
       <c r="C558" s="6">
-        <v>11906</v>
+        <v>12206</v>
       </c>
       <c r="D558" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E558" s="5">
         <v>10</v>
@@ -10793,10 +10787,10 @@
     </row>
     <row r="559" spans="3:7">
       <c r="C559" s="6">
-        <v>11907</v>
+        <v>12207</v>
       </c>
       <c r="D559" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E559" s="5">
         <v>10</v>
@@ -10810,10 +10804,10 @@
     </row>
     <row r="560" spans="3:7">
       <c r="C560" s="6">
-        <v>11908</v>
+        <v>12208</v>
       </c>
       <c r="D560" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E560" s="5">
         <v>10</v>
@@ -10827,10 +10821,10 @@
     </row>
     <row r="561" spans="3:7">
       <c r="C561" s="6">
-        <v>11909</v>
+        <v>12209</v>
       </c>
       <c r="D561" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E561" s="5">
         <v>10</v>
@@ -10844,10 +10838,10 @@
     </row>
     <row r="562" spans="3:7">
       <c r="C562" s="6">
-        <v>11910</v>
+        <v>12210</v>
       </c>
       <c r="D562" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E562" s="5">
         <v>10</v>
@@ -10861,10 +10855,10 @@
     </row>
     <row r="563" spans="3:7">
       <c r="C563" s="6">
-        <v>11911</v>
+        <v>12211</v>
       </c>
       <c r="D563" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E563" s="5">
         <v>9</v>
@@ -10878,10 +10872,10 @@
     </row>
     <row r="564" spans="3:7">
       <c r="C564" s="6">
-        <v>11912</v>
+        <v>12212</v>
       </c>
       <c r="D564" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E564" s="5">
         <v>10</v>
@@ -10895,10 +10889,10 @@
     </row>
     <row r="565" spans="3:7">
       <c r="C565" s="6">
-        <v>11913</v>
+        <v>12213</v>
       </c>
       <c r="D565" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E565" s="5">
         <v>9</v>
@@ -10912,10 +10906,10 @@
     </row>
     <row r="566" spans="3:7">
       <c r="C566" s="6">
-        <v>11914</v>
+        <v>12214</v>
       </c>
       <c r="D566" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E566" s="5">
         <v>9</v>
@@ -10929,10 +10923,10 @@
     </row>
     <row r="567" spans="3:7">
       <c r="C567" s="6">
-        <v>11915</v>
+        <v>12215</v>
       </c>
       <c r="D567" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E567" s="5">
         <v>9</v>
@@ -10946,10 +10940,10 @@
     </row>
     <row r="568" spans="3:7">
       <c r="C568" s="6">
-        <v>11916</v>
+        <v>12216</v>
       </c>
       <c r="D568" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E568" s="5">
         <v>2</v>
@@ -10963,10 +10957,10 @@
     </row>
     <row r="569" spans="3:7">
       <c r="C569" s="6">
-        <v>11917</v>
+        <v>12217</v>
       </c>
       <c r="D569" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E569" s="3">
         <v>9</v>
@@ -10980,10 +10974,10 @@
     </row>
     <row r="570" spans="3:7">
       <c r="C570" s="6">
-        <v>11918</v>
+        <v>12218</v>
       </c>
       <c r="D570" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E570" s="5">
         <v>9</v>
@@ -10997,10 +10991,10 @@
     </row>
     <row r="571" spans="3:7">
       <c r="C571" s="6">
-        <v>11919</v>
+        <v>12219</v>
       </c>
       <c r="D571" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E571" s="5">
         <v>10</v>
@@ -11014,10 +11008,10 @@
     </row>
     <row r="572" spans="3:7">
       <c r="C572" s="6">
-        <v>11920</v>
+        <v>12220</v>
       </c>
       <c r="D572" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E572" s="5">
         <v>9</v>
@@ -11031,10 +11025,10 @@
     </row>
     <row r="573" spans="3:7">
       <c r="C573" s="6">
-        <v>11921</v>
+        <v>12221</v>
       </c>
       <c r="D573" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E573" s="5">
         <v>5</v>
@@ -11048,10 +11042,10 @@
     </row>
     <row r="574" spans="3:7">
       <c r="C574" s="6">
-        <v>11922</v>
+        <v>12222</v>
       </c>
       <c r="D574" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E574" s="5">
         <v>6</v>
@@ -11065,10 +11059,10 @@
     </row>
     <row r="575" spans="3:7">
       <c r="C575" s="6">
-        <v>11923</v>
+        <v>12223</v>
       </c>
       <c r="D575" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E575" s="5">
         <v>7</v>
@@ -11082,10 +11076,10 @@
     </row>
     <row r="576" spans="3:7">
       <c r="C576" s="6">
-        <v>11924</v>
+        <v>12224</v>
       </c>
       <c r="D576" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E576" s="5">
         <v>8</v>
@@ -11099,10 +11093,10 @@
     </row>
     <row r="577" spans="3:7">
       <c r="C577" s="6">
-        <v>11925</v>
+        <v>12225</v>
       </c>
       <c r="D577" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E577" s="5">
         <v>9</v>
@@ -11119,10 +11113,10 @@
         <v>64</v>
       </c>
       <c r="C579" s="6">
-        <v>12001</v>
+        <v>12301</v>
       </c>
       <c r="D579" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E579" s="5">
         <v>1</v>
@@ -11134,17 +11128,17 @@
         <v>15</v>
       </c>
       <c r="H579" s="3">
-        <v>20425</v>
+        <v>20525</v>
       </c>
     </row>
     <row r="580" spans="1:8">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="6">
-        <v>12002</v>
+        <v>12302</v>
       </c>
       <c r="D580" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E580" s="5">
         <v>1</v>
@@ -11156,15 +11150,15 @@
         <v>16</v>
       </c>
       <c r="H580" s="3">
-        <v>20426</v>
+        <v>20526</v>
       </c>
     </row>
     <row r="581" spans="3:8">
       <c r="C581" s="6">
-        <v>12003</v>
+        <v>12303</v>
       </c>
       <c r="D581" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E581" s="5">
         <v>1</v>
@@ -11176,15 +11170,15 @@
         <v>18</v>
       </c>
       <c r="H581" s="3">
-        <v>20427</v>
+        <v>20527</v>
       </c>
     </row>
     <row r="582" spans="3:8">
       <c r="C582" s="6">
-        <v>12004</v>
+        <v>12304</v>
       </c>
       <c r="D582" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E582" s="3">
         <v>1</v>
@@ -11196,15 +11190,15 @@
         <v>19</v>
       </c>
       <c r="H582" s="3">
-        <v>20428</v>
+        <v>20528</v>
       </c>
     </row>
     <row r="583" spans="3:7">
       <c r="C583" s="6">
-        <v>12005</v>
+        <v>12305</v>
       </c>
       <c r="D583" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E583" s="5">
         <v>3</v>
@@ -11218,10 +11212,10 @@
     </row>
     <row r="584" spans="3:7">
       <c r="C584" s="6">
-        <v>12006</v>
+        <v>12306</v>
       </c>
       <c r="D584" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E584" s="5">
         <v>10</v>
@@ -11235,10 +11229,10 @@
     </row>
     <row r="585" spans="3:7">
       <c r="C585" s="6">
-        <v>12007</v>
+        <v>12307</v>
       </c>
       <c r="D585" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E585" s="5">
         <v>10</v>
@@ -11252,10 +11246,10 @@
     </row>
     <row r="586" spans="3:7">
       <c r="C586" s="6">
-        <v>12008</v>
+        <v>12308</v>
       </c>
       <c r="D586" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E586" s="5">
         <v>10</v>
@@ -11269,10 +11263,10 @@
     </row>
     <row r="587" spans="3:7">
       <c r="C587" s="6">
-        <v>12009</v>
+        <v>12309</v>
       </c>
       <c r="D587" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E587" s="5">
         <v>10</v>
@@ -11286,10 +11280,10 @@
     </row>
     <row r="588" spans="3:7">
       <c r="C588" s="6">
-        <v>12010</v>
+        <v>12310</v>
       </c>
       <c r="D588" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E588" s="5">
         <v>10</v>
@@ -11303,10 +11297,10 @@
     </row>
     <row r="589" spans="3:7">
       <c r="C589" s="6">
-        <v>12011</v>
+        <v>12311</v>
       </c>
       <c r="D589" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E589" s="5">
         <v>9</v>
@@ -11320,10 +11314,10 @@
     </row>
     <row r="590" spans="3:7">
       <c r="C590" s="6">
-        <v>12012</v>
+        <v>12312</v>
       </c>
       <c r="D590" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E590" s="5">
         <v>10</v>
@@ -11337,10 +11331,10 @@
     </row>
     <row r="591" spans="3:7">
       <c r="C591" s="6">
-        <v>12013</v>
+        <v>12313</v>
       </c>
       <c r="D591" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E591" s="5">
         <v>9</v>
@@ -11354,10 +11348,10 @@
     </row>
     <row r="592" spans="3:7">
       <c r="C592" s="6">
-        <v>12014</v>
+        <v>12314</v>
       </c>
       <c r="D592" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E592" s="5">
         <v>9</v>
@@ -11371,10 +11365,10 @@
     </row>
     <row r="593" spans="3:7">
       <c r="C593" s="6">
-        <v>12015</v>
+        <v>12315</v>
       </c>
       <c r="D593" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E593" s="5">
         <v>9</v>
@@ -11388,10 +11382,10 @@
     </row>
     <row r="594" spans="3:7">
       <c r="C594" s="6">
-        <v>12016</v>
+        <v>12316</v>
       </c>
       <c r="D594" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E594" s="5">
         <v>2</v>
@@ -11405,10 +11399,10 @@
     </row>
     <row r="595" spans="3:7">
       <c r="C595" s="6">
-        <v>12017</v>
+        <v>12317</v>
       </c>
       <c r="D595" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E595" s="3">
         <v>9</v>
@@ -11422,10 +11416,10 @@
     </row>
     <row r="596" spans="3:7">
       <c r="C596" s="6">
-        <v>12018</v>
+        <v>12318</v>
       </c>
       <c r="D596" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E596" s="5">
         <v>9</v>
@@ -11439,10 +11433,10 @@
     </row>
     <row r="597" spans="3:7">
       <c r="C597" s="6">
-        <v>12019</v>
+        <v>12319</v>
       </c>
       <c r="D597" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E597" s="5">
         <v>10</v>
@@ -11456,10 +11450,10 @@
     </row>
     <row r="598" spans="3:7">
       <c r="C598" s="6">
-        <v>12020</v>
+        <v>12320</v>
       </c>
       <c r="D598" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E598" s="5">
         <v>9</v>
@@ -11473,10 +11467,10 @@
     </row>
     <row r="599" spans="3:7">
       <c r="C599" s="6">
-        <v>12021</v>
+        <v>12321</v>
       </c>
       <c r="D599" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E599" s="5">
         <v>5</v>
@@ -11490,10 +11484,10 @@
     </row>
     <row r="600" spans="3:7">
       <c r="C600" s="6">
-        <v>12022</v>
+        <v>12322</v>
       </c>
       <c r="D600" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E600" s="5">
         <v>6</v>
@@ -11507,10 +11501,10 @@
     </row>
     <row r="601" spans="3:7">
       <c r="C601" s="6">
-        <v>12023</v>
+        <v>12323</v>
       </c>
       <c r="D601" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E601" s="5">
         <v>7</v>
@@ -11524,10 +11518,10 @@
     </row>
     <row r="602" spans="3:7">
       <c r="C602" s="6">
-        <v>12024</v>
+        <v>12324</v>
       </c>
       <c r="D602" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E602" s="5">
         <v>8</v>
@@ -11541,10 +11535,10 @@
     </row>
     <row r="603" spans="3:7">
       <c r="C603" s="6">
-        <v>12025</v>
+        <v>12325</v>
       </c>
       <c r="D603" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E603" s="5">
         <v>9</v>
@@ -11561,10 +11555,10 @@
         <v>65</v>
       </c>
       <c r="C605" s="6">
-        <v>12101</v>
+        <v>12401</v>
       </c>
       <c r="D605" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E605" s="5">
         <v>1</v>
@@ -11576,17 +11570,17 @@
         <v>15</v>
       </c>
       <c r="H605" s="3">
-        <v>20465</v>
+        <v>20595</v>
       </c>
     </row>
     <row r="606" spans="1:8">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="6">
-        <v>12102</v>
+        <v>12402</v>
       </c>
       <c r="D606" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E606" s="5">
         <v>1</v>
@@ -11598,15 +11592,15 @@
         <v>16</v>
       </c>
       <c r="H606" s="3">
-        <v>20466</v>
+        <v>20596</v>
       </c>
     </row>
     <row r="607" spans="3:8">
       <c r="C607" s="6">
-        <v>12103</v>
+        <v>12403</v>
       </c>
       <c r="D607" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E607" s="5">
         <v>1</v>
@@ -11618,15 +11612,15 @@
         <v>18</v>
       </c>
       <c r="H607" s="3">
-        <v>20467</v>
+        <v>20597</v>
       </c>
     </row>
     <row r="608" spans="3:8">
       <c r="C608" s="6">
-        <v>12104</v>
+        <v>12404</v>
       </c>
       <c r="D608" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E608" s="3">
         <v>1</v>
@@ -11638,15 +11632,15 @@
         <v>19</v>
       </c>
       <c r="H608" s="3">
-        <v>20468</v>
+        <v>20598</v>
       </c>
     </row>
     <row r="609" spans="3:7">
       <c r="C609" s="6">
-        <v>12105</v>
+        <v>12405</v>
       </c>
       <c r="D609" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E609" s="5">
         <v>3</v>
@@ -11660,10 +11654,10 @@
     </row>
     <row r="610" spans="3:7">
       <c r="C610" s="6">
-        <v>12106</v>
+        <v>12406</v>
       </c>
       <c r="D610" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E610" s="5">
         <v>10</v>
@@ -11677,10 +11671,10 @@
     </row>
     <row r="611" spans="3:7">
       <c r="C611" s="6">
-        <v>12107</v>
+        <v>12407</v>
       </c>
       <c r="D611" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E611" s="5">
         <v>10</v>
@@ -11694,10 +11688,10 @@
     </row>
     <row r="612" spans="3:7">
       <c r="C612" s="6">
-        <v>12108</v>
+        <v>12408</v>
       </c>
       <c r="D612" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E612" s="5">
         <v>10</v>
@@ -11711,10 +11705,10 @@
     </row>
     <row r="613" spans="3:7">
       <c r="C613" s="6">
-        <v>12109</v>
+        <v>12409</v>
       </c>
       <c r="D613" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E613" s="5">
         <v>10</v>
@@ -11728,10 +11722,10 @@
     </row>
     <row r="614" spans="3:7">
       <c r="C614" s="6">
-        <v>12110</v>
+        <v>12410</v>
       </c>
       <c r="D614" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E614" s="5">
         <v>10</v>
@@ -11745,10 +11739,10 @@
     </row>
     <row r="615" spans="3:7">
       <c r="C615" s="6">
-        <v>12111</v>
+        <v>12411</v>
       </c>
       <c r="D615" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E615" s="5">
         <v>9</v>
@@ -11762,10 +11756,10 @@
     </row>
     <row r="616" spans="3:7">
       <c r="C616" s="6">
-        <v>12112</v>
+        <v>12412</v>
       </c>
       <c r="D616" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E616" s="5">
         <v>10</v>
@@ -11779,10 +11773,10 @@
     </row>
     <row r="617" spans="3:7">
       <c r="C617" s="6">
-        <v>12113</v>
+        <v>12413</v>
       </c>
       <c r="D617" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E617" s="5">
         <v>9</v>
@@ -11796,10 +11790,10 @@
     </row>
     <row r="618" spans="3:7">
       <c r="C618" s="6">
-        <v>12114</v>
+        <v>12414</v>
       </c>
       <c r="D618" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E618" s="5">
         <v>9</v>
@@ -11813,10 +11807,10 @@
     </row>
     <row r="619" spans="3:7">
       <c r="C619" s="6">
-        <v>12115</v>
+        <v>12415</v>
       </c>
       <c r="D619" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E619" s="5">
         <v>9</v>
@@ -11830,10 +11824,10 @@
     </row>
     <row r="620" spans="3:7">
       <c r="C620" s="6">
-        <v>12116</v>
+        <v>12416</v>
       </c>
       <c r="D620" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E620" s="5">
         <v>2</v>
@@ -11847,10 +11841,10 @@
     </row>
     <row r="621" spans="3:7">
       <c r="C621" s="6">
-        <v>12117</v>
+        <v>12417</v>
       </c>
       <c r="D621" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E621" s="3">
         <v>9</v>
@@ -11864,10 +11858,10 @@
     </row>
     <row r="622" spans="3:7">
       <c r="C622" s="6">
-        <v>12118</v>
+        <v>12418</v>
       </c>
       <c r="D622" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E622" s="5">
         <v>9</v>
@@ -11881,10 +11875,10 @@
     </row>
     <row r="623" spans="3:7">
       <c r="C623" s="6">
-        <v>12119</v>
+        <v>12419</v>
       </c>
       <c r="D623" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E623" s="5">
         <v>10</v>
@@ -11898,10 +11892,10 @@
     </row>
     <row r="624" spans="3:7">
       <c r="C624" s="6">
-        <v>12120</v>
+        <v>12420</v>
       </c>
       <c r="D624" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E624" s="5">
         <v>9</v>
@@ -11915,10 +11909,10 @@
     </row>
     <row r="625" spans="3:7">
       <c r="C625" s="6">
-        <v>12121</v>
+        <v>12421</v>
       </c>
       <c r="D625" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E625" s="5">
         <v>5</v>
@@ -11932,10 +11926,10 @@
     </row>
     <row r="626" spans="3:7">
       <c r="C626" s="6">
-        <v>12122</v>
+        <v>12422</v>
       </c>
       <c r="D626" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E626" s="5">
         <v>6</v>
@@ -11949,10 +11943,10 @@
     </row>
     <row r="627" spans="3:7">
       <c r="C627" s="6">
-        <v>12123</v>
+        <v>12423</v>
       </c>
       <c r="D627" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E627" s="5">
         <v>7</v>
@@ -11966,10 +11960,10 @@
     </row>
     <row r="628" spans="3:7">
       <c r="C628" s="6">
-        <v>12124</v>
+        <v>12424</v>
       </c>
       <c r="D628" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E628" s="5">
         <v>8</v>
@@ -11983,10 +11977,10 @@
     </row>
     <row r="629" spans="3:7">
       <c r="C629" s="6">
-        <v>12125</v>
+        <v>12425</v>
       </c>
       <c r="D629" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E629" s="5">
         <v>9</v>
@@ -12003,10 +11997,10 @@
         <v>66</v>
       </c>
       <c r="C631" s="6">
-        <v>12201</v>
+        <v>12501</v>
       </c>
       <c r="D631" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E631" s="5">
         <v>1</v>
@@ -12018,17 +12012,17 @@
         <v>15</v>
       </c>
       <c r="H631" s="3">
-        <v>20505</v>
+        <v>20605</v>
       </c>
     </row>
     <row r="632" spans="1:8">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="6">
-        <v>12202</v>
+        <v>12502</v>
       </c>
       <c r="D632" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E632" s="5">
         <v>1</v>
@@ -12040,15 +12034,15 @@
         <v>16</v>
       </c>
       <c r="H632" s="3">
-        <v>20506</v>
+        <v>20606</v>
       </c>
     </row>
     <row r="633" spans="3:8">
       <c r="C633" s="6">
-        <v>12203</v>
+        <v>12503</v>
       </c>
       <c r="D633" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E633" s="5">
         <v>1</v>
@@ -12060,15 +12054,15 @@
         <v>18</v>
       </c>
       <c r="H633" s="3">
-        <v>20507</v>
+        <v>20607</v>
       </c>
     </row>
     <row r="634" spans="3:8">
       <c r="C634" s="6">
-        <v>12204</v>
+        <v>12504</v>
       </c>
       <c r="D634" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E634" s="3">
         <v>1</v>
@@ -12080,15 +12074,15 @@
         <v>19</v>
       </c>
       <c r="H634" s="3">
-        <v>20508</v>
+        <v>20608</v>
       </c>
     </row>
     <row r="635" spans="3:7">
       <c r="C635" s="6">
-        <v>12205</v>
+        <v>12505</v>
       </c>
       <c r="D635" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E635" s="5">
         <v>3</v>
@@ -12102,10 +12096,10 @@
     </row>
     <row r="636" spans="3:7">
       <c r="C636" s="6">
-        <v>12206</v>
+        <v>12506</v>
       </c>
       <c r="D636" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E636" s="5">
         <v>10</v>
@@ -12119,10 +12113,10 @@
     </row>
     <row r="637" spans="3:7">
       <c r="C637" s="6">
-        <v>12207</v>
+        <v>12507</v>
       </c>
       <c r="D637" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E637" s="5">
         <v>10</v>
@@ -12136,10 +12130,10 @@
     </row>
     <row r="638" spans="3:7">
       <c r="C638" s="6">
-        <v>12208</v>
+        <v>12508</v>
       </c>
       <c r="D638" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E638" s="5">
         <v>10</v>
@@ -12153,10 +12147,10 @@
     </row>
     <row r="639" spans="3:7">
       <c r="C639" s="6">
-        <v>12209</v>
+        <v>12509</v>
       </c>
       <c r="D639" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E639" s="5">
         <v>10</v>
@@ -12170,10 +12164,10 @@
     </row>
     <row r="640" spans="3:7">
       <c r="C640" s="6">
-        <v>12210</v>
+        <v>12510</v>
       </c>
       <c r="D640" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E640" s="5">
         <v>10</v>
@@ -12187,10 +12181,10 @@
     </row>
     <row r="641" spans="3:7">
       <c r="C641" s="6">
-        <v>12211</v>
+        <v>12511</v>
       </c>
       <c r="D641" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E641" s="5">
         <v>9</v>
@@ -12204,10 +12198,10 @@
     </row>
     <row r="642" spans="3:7">
       <c r="C642" s="6">
-        <v>12212</v>
+        <v>12512</v>
       </c>
       <c r="D642" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E642" s="5">
         <v>10</v>
@@ -12221,10 +12215,10 @@
     </row>
     <row r="643" spans="3:7">
       <c r="C643" s="6">
-        <v>12213</v>
+        <v>12513</v>
       </c>
       <c r="D643" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E643" s="5">
         <v>9</v>
@@ -12238,10 +12232,10 @@
     </row>
     <row r="644" spans="3:7">
       <c r="C644" s="6">
-        <v>12214</v>
+        <v>12514</v>
       </c>
       <c r="D644" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E644" s="5">
         <v>9</v>
@@ -12255,10 +12249,10 @@
     </row>
     <row r="645" spans="3:7">
       <c r="C645" s="6">
-        <v>12215</v>
+        <v>12515</v>
       </c>
       <c r="D645" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E645" s="5">
         <v>9</v>
@@ -12272,10 +12266,10 @@
     </row>
     <row r="646" spans="3:7">
       <c r="C646" s="6">
-        <v>12216</v>
+        <v>12516</v>
       </c>
       <c r="D646" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E646" s="5">
         <v>2</v>
@@ -12289,10 +12283,10 @@
     </row>
     <row r="647" spans="3:7">
       <c r="C647" s="6">
-        <v>12217</v>
+        <v>12517</v>
       </c>
       <c r="D647" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E647" s="3">
         <v>9</v>
@@ -12306,10 +12300,10 @@
     </row>
     <row r="648" spans="3:7">
       <c r="C648" s="6">
-        <v>12218</v>
+        <v>12518</v>
       </c>
       <c r="D648" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E648" s="5">
         <v>9</v>
@@ -12323,10 +12317,10 @@
     </row>
     <row r="649" spans="3:7">
       <c r="C649" s="6">
-        <v>12219</v>
+        <v>12519</v>
       </c>
       <c r="D649" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E649" s="5">
         <v>10</v>
@@ -12340,10 +12334,10 @@
     </row>
     <row r="650" spans="3:7">
       <c r="C650" s="6">
-        <v>12220</v>
+        <v>12520</v>
       </c>
       <c r="D650" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E650" s="5">
         <v>9</v>
@@ -12357,10 +12351,10 @@
     </row>
     <row r="651" spans="3:7">
       <c r="C651" s="6">
-        <v>12221</v>
+        <v>12521</v>
       </c>
       <c r="D651" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E651" s="5">
         <v>5</v>
@@ -12374,10 +12368,10 @@
     </row>
     <row r="652" spans="3:7">
       <c r="C652" s="6">
-        <v>12222</v>
+        <v>12522</v>
       </c>
       <c r="D652" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E652" s="5">
         <v>6</v>
@@ -12391,10 +12385,10 @@
     </row>
     <row r="653" spans="3:7">
       <c r="C653" s="6">
-        <v>12223</v>
+        <v>12523</v>
       </c>
       <c r="D653" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E653" s="5">
         <v>7</v>
@@ -12408,10 +12402,10 @@
     </row>
     <row r="654" spans="3:7">
       <c r="C654" s="6">
-        <v>12224</v>
+        <v>12524</v>
       </c>
       <c r="D654" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E654" s="5">
         <v>8</v>
@@ -12425,10 +12419,10 @@
     </row>
     <row r="655" spans="3:7">
       <c r="C655" s="6">
-        <v>12225</v>
+        <v>12525</v>
       </c>
       <c r="D655" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E655" s="5">
         <v>9</v>
@@ -12445,10 +12439,10 @@
         <v>67</v>
       </c>
       <c r="C657" s="6">
-        <v>12301</v>
+        <v>12601</v>
       </c>
       <c r="D657" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E657" s="5">
         <v>1</v>
@@ -12460,17 +12454,17 @@
         <v>15</v>
       </c>
       <c r="H657" s="3">
-        <v>20525</v>
+        <v>20615</v>
       </c>
     </row>
     <row r="658" spans="1:8">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="6">
-        <v>12302</v>
+        <v>12602</v>
       </c>
       <c r="D658" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E658" s="5">
         <v>1</v>
@@ -12482,15 +12476,15 @@
         <v>16</v>
       </c>
       <c r="H658" s="3">
-        <v>20526</v>
+        <v>20616</v>
       </c>
     </row>
     <row r="659" spans="3:8">
       <c r="C659" s="6">
-        <v>12303</v>
+        <v>12603</v>
       </c>
       <c r="D659" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E659" s="5">
         <v>1</v>
@@ -12502,15 +12496,15 @@
         <v>18</v>
       </c>
       <c r="H659" s="3">
-        <v>20527</v>
+        <v>20617</v>
       </c>
     </row>
     <row r="660" spans="3:8">
       <c r="C660" s="6">
-        <v>12304</v>
+        <v>12604</v>
       </c>
       <c r="D660" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E660" s="3">
         <v>1</v>
@@ -12522,15 +12516,15 @@
         <v>19</v>
       </c>
       <c r="H660" s="3">
-        <v>20528</v>
+        <v>20618</v>
       </c>
     </row>
     <row r="661" spans="3:7">
       <c r="C661" s="6">
-        <v>12305</v>
+        <v>12605</v>
       </c>
       <c r="D661" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E661" s="5">
         <v>3</v>
@@ -12544,10 +12538,10 @@
     </row>
     <row r="662" spans="3:7">
       <c r="C662" s="6">
-        <v>12306</v>
+        <v>12606</v>
       </c>
       <c r="D662" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E662" s="5">
         <v>10</v>
@@ -12561,10 +12555,10 @@
     </row>
     <row r="663" spans="3:7">
       <c r="C663" s="6">
-        <v>12307</v>
+        <v>12607</v>
       </c>
       <c r="D663" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E663" s="5">
         <v>10</v>
@@ -12578,10 +12572,10 @@
     </row>
     <row r="664" spans="3:7">
       <c r="C664" s="6">
-        <v>12308</v>
+        <v>12608</v>
       </c>
       <c r="D664" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E664" s="5">
         <v>10</v>
@@ -12595,10 +12589,10 @@
     </row>
     <row r="665" spans="3:7">
       <c r="C665" s="6">
-        <v>12309</v>
+        <v>12609</v>
       </c>
       <c r="D665" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E665" s="5">
         <v>10</v>
@@ -12612,10 +12606,10 @@
     </row>
     <row r="666" spans="3:7">
       <c r="C666" s="6">
-        <v>12310</v>
+        <v>12610</v>
       </c>
       <c r="D666" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E666" s="5">
         <v>10</v>
@@ -12629,10 +12623,10 @@
     </row>
     <row r="667" spans="3:7">
       <c r="C667" s="6">
-        <v>12311</v>
+        <v>12611</v>
       </c>
       <c r="D667" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E667" s="5">
         <v>9</v>
@@ -12646,10 +12640,10 @@
     </row>
     <row r="668" spans="3:7">
       <c r="C668" s="6">
-        <v>12312</v>
+        <v>12612</v>
       </c>
       <c r="D668" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E668" s="5">
         <v>10</v>
@@ -12663,10 +12657,10 @@
     </row>
     <row r="669" spans="3:7">
       <c r="C669" s="6">
-        <v>12313</v>
+        <v>12613</v>
       </c>
       <c r="D669" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E669" s="5">
         <v>9</v>
@@ -12680,10 +12674,10 @@
     </row>
     <row r="670" spans="3:7">
       <c r="C670" s="6">
-        <v>12314</v>
+        <v>12614</v>
       </c>
       <c r="D670" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E670" s="5">
         <v>9</v>
@@ -12697,10 +12691,10 @@
     </row>
     <row r="671" spans="3:7">
       <c r="C671" s="6">
-        <v>12315</v>
+        <v>12615</v>
       </c>
       <c r="D671" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E671" s="5">
         <v>9</v>
@@ -12714,10 +12708,10 @@
     </row>
     <row r="672" spans="3:7">
       <c r="C672" s="6">
-        <v>12316</v>
+        <v>12616</v>
       </c>
       <c r="D672" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E672" s="5">
         <v>2</v>
@@ -12731,10 +12725,10 @@
     </row>
     <row r="673" spans="3:7">
       <c r="C673" s="6">
-        <v>12317</v>
+        <v>12617</v>
       </c>
       <c r="D673" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E673" s="3">
         <v>9</v>
@@ -12748,10 +12742,10 @@
     </row>
     <row r="674" spans="3:7">
       <c r="C674" s="6">
-        <v>12318</v>
+        <v>12618</v>
       </c>
       <c r="D674" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E674" s="5">
         <v>9</v>
@@ -12765,10 +12759,10 @@
     </row>
     <row r="675" spans="3:7">
       <c r="C675" s="6">
-        <v>12319</v>
+        <v>12619</v>
       </c>
       <c r="D675" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E675" s="5">
         <v>10</v>
@@ -12782,10 +12776,10 @@
     </row>
     <row r="676" spans="3:7">
       <c r="C676" s="6">
-        <v>12320</v>
+        <v>12620</v>
       </c>
       <c r="D676" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E676" s="5">
         <v>9</v>
@@ -12799,10 +12793,10 @@
     </row>
     <row r="677" spans="3:7">
       <c r="C677" s="6">
-        <v>12321</v>
+        <v>12621</v>
       </c>
       <c r="D677" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E677" s="5">
         <v>5</v>
@@ -12816,10 +12810,10 @@
     </row>
     <row r="678" spans="3:7">
       <c r="C678" s="6">
-        <v>12322</v>
+        <v>12622</v>
       </c>
       <c r="D678" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E678" s="5">
         <v>6</v>
@@ -12833,10 +12827,10 @@
     </row>
     <row r="679" spans="3:7">
       <c r="C679" s="6">
-        <v>12323</v>
+        <v>12623</v>
       </c>
       <c r="D679" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E679" s="5">
         <v>7</v>
@@ -12850,10 +12844,10 @@
     </row>
     <row r="680" spans="3:7">
       <c r="C680" s="6">
-        <v>12324</v>
+        <v>12624</v>
       </c>
       <c r="D680" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E680" s="5">
         <v>8</v>
@@ -12867,10 +12861,10 @@
     </row>
     <row r="681" spans="3:7">
       <c r="C681" s="6">
-        <v>12325</v>
+        <v>12625</v>
       </c>
       <c r="D681" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E681" s="5">
         <v>9</v>
@@ -12887,10 +12881,10 @@
         <v>68</v>
       </c>
       <c r="C683" s="6">
-        <v>12401</v>
+        <v>12701</v>
       </c>
       <c r="D683" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E683" s="5">
         <v>1</v>
@@ -12902,17 +12896,17 @@
         <v>15</v>
       </c>
       <c r="H683" s="3">
-        <v>20595</v>
+        <v>20375</v>
       </c>
     </row>
     <row r="684" spans="1:8">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="6">
-        <v>12402</v>
+        <v>12702</v>
       </c>
       <c r="D684" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E684" s="5">
         <v>1</v>
@@ -12924,15 +12918,15 @@
         <v>16</v>
       </c>
       <c r="H684" s="3">
-        <v>20596</v>
+        <v>20376</v>
       </c>
     </row>
     <row r="685" spans="3:8">
       <c r="C685" s="6">
-        <v>12403</v>
+        <v>12703</v>
       </c>
       <c r="D685" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E685" s="5">
         <v>1</v>
@@ -12944,15 +12938,15 @@
         <v>18</v>
       </c>
       <c r="H685" s="3">
-        <v>20597</v>
+        <v>20377</v>
       </c>
     </row>
     <row r="686" spans="3:8">
       <c r="C686" s="6">
-        <v>12404</v>
+        <v>12704</v>
       </c>
       <c r="D686" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E686" s="3">
         <v>1</v>
@@ -12964,15 +12958,15 @@
         <v>19</v>
       </c>
       <c r="H686" s="3">
-        <v>20598</v>
+        <v>20378</v>
       </c>
     </row>
     <row r="687" spans="3:7">
       <c r="C687" s="6">
-        <v>12405</v>
+        <v>12705</v>
       </c>
       <c r="D687" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E687" s="5">
         <v>3</v>
@@ -12986,10 +12980,10 @@
     </row>
     <row r="688" spans="3:7">
       <c r="C688" s="6">
-        <v>12406</v>
+        <v>12706</v>
       </c>
       <c r="D688" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E688" s="5">
         <v>10</v>
@@ -13003,10 +12997,10 @@
     </row>
     <row r="689" spans="3:7">
       <c r="C689" s="6">
-        <v>12407</v>
+        <v>12707</v>
       </c>
       <c r="D689" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E689" s="5">
         <v>10</v>
@@ -13020,10 +13014,10 @@
     </row>
     <row r="690" spans="3:7">
       <c r="C690" s="6">
-        <v>12408</v>
+        <v>12708</v>
       </c>
       <c r="D690" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E690" s="5">
         <v>10</v>
@@ -13037,10 +13031,10 @@
     </row>
     <row r="691" spans="3:7">
       <c r="C691" s="6">
-        <v>12409</v>
+        <v>12709</v>
       </c>
       <c r="D691" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E691" s="5">
         <v>10</v>
@@ -13054,10 +13048,10 @@
     </row>
     <row r="692" spans="3:7">
       <c r="C692" s="6">
-        <v>12410</v>
+        <v>12710</v>
       </c>
       <c r="D692" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E692" s="5">
         <v>10</v>
@@ -13071,10 +13065,10 @@
     </row>
     <row r="693" spans="3:7">
       <c r="C693" s="6">
-        <v>12411</v>
+        <v>12711</v>
       </c>
       <c r="D693" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E693" s="5">
         <v>9</v>
@@ -13088,10 +13082,10 @@
     </row>
     <row r="694" spans="3:7">
       <c r="C694" s="6">
-        <v>12412</v>
+        <v>12712</v>
       </c>
       <c r="D694" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E694" s="5">
         <v>10</v>
@@ -13105,10 +13099,10 @@
     </row>
     <row r="695" spans="3:7">
       <c r="C695" s="6">
-        <v>12413</v>
+        <v>12713</v>
       </c>
       <c r="D695" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E695" s="5">
         <v>9</v>
@@ -13122,10 +13116,10 @@
     </row>
     <row r="696" spans="3:7">
       <c r="C696" s="6">
-        <v>12414</v>
+        <v>12714</v>
       </c>
       <c r="D696" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E696" s="5">
         <v>9</v>
@@ -13139,10 +13133,10 @@
     </row>
     <row r="697" spans="3:7">
       <c r="C697" s="6">
-        <v>12415</v>
+        <v>12715</v>
       </c>
       <c r="D697" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E697" s="5">
         <v>9</v>
@@ -13156,10 +13150,10 @@
     </row>
     <row r="698" spans="3:7">
       <c r="C698" s="6">
-        <v>12416</v>
+        <v>12716</v>
       </c>
       <c r="D698" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E698" s="5">
         <v>2</v>
@@ -13173,10 +13167,10 @@
     </row>
     <row r="699" spans="3:7">
       <c r="C699" s="6">
-        <v>12417</v>
+        <v>12717</v>
       </c>
       <c r="D699" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E699" s="3">
         <v>9</v>
@@ -13190,10 +13184,10 @@
     </row>
     <row r="700" spans="3:7">
       <c r="C700" s="6">
-        <v>12418</v>
+        <v>12718</v>
       </c>
       <c r="D700" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E700" s="5">
         <v>9</v>
@@ -13207,10 +13201,10 @@
     </row>
     <row r="701" spans="3:7">
       <c r="C701" s="6">
-        <v>12419</v>
+        <v>12719</v>
       </c>
       <c r="D701" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E701" s="5">
         <v>10</v>
@@ -13224,10 +13218,10 @@
     </row>
     <row r="702" spans="3:7">
       <c r="C702" s="6">
-        <v>12420</v>
+        <v>12720</v>
       </c>
       <c r="D702" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E702" s="5">
         <v>9</v>
@@ -13241,10 +13235,10 @@
     </row>
     <row r="703" spans="3:7">
       <c r="C703" s="6">
-        <v>12421</v>
+        <v>12721</v>
       </c>
       <c r="D703" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E703" s="5">
         <v>5</v>
@@ -13258,10 +13252,10 @@
     </row>
     <row r="704" spans="3:7">
       <c r="C704" s="6">
-        <v>12422</v>
+        <v>12722</v>
       </c>
       <c r="D704" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E704" s="5">
         <v>6</v>
@@ -13275,10 +13269,10 @@
     </row>
     <row r="705" spans="3:7">
       <c r="C705" s="6">
-        <v>12423</v>
+        <v>12723</v>
       </c>
       <c r="D705" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E705" s="5">
         <v>7</v>
@@ -13292,10 +13286,10 @@
     </row>
     <row r="706" spans="3:7">
       <c r="C706" s="6">
-        <v>12424</v>
+        <v>12724</v>
       </c>
       <c r="D706" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E706" s="5">
         <v>8</v>
@@ -13309,10 +13303,10 @@
     </row>
     <row r="707" spans="3:7">
       <c r="C707" s="6">
-        <v>12425</v>
+        <v>12725</v>
       </c>
       <c r="D707" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E707" s="5">
         <v>9</v>
@@ -13321,890 +13315,6 @@
         <v>42</v>
       </c>
       <c r="G707" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="709" spans="1:8">
-      <c r="A709" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C709" s="6">
-        <v>12501</v>
-      </c>
-      <c r="D709" s="3">
-        <v>125</v>
-      </c>
-      <c r="E709" s="5">
-        <v>1</v>
-      </c>
-      <c r="F709" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G709" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H709" s="3">
-        <v>20605</v>
-      </c>
-    </row>
-    <row r="710" spans="1:8">
-      <c r="A710" s="1"/>
-      <c r="B710" s="1"/>
-      <c r="C710" s="6">
-        <v>12502</v>
-      </c>
-      <c r="D710" s="3">
-        <v>125</v>
-      </c>
-      <c r="E710" s="5">
-        <v>1</v>
-      </c>
-      <c r="F710" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G710" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H710" s="3">
-        <v>20606</v>
-      </c>
-    </row>
-    <row r="711" spans="3:8">
-      <c r="C711" s="6">
-        <v>12503</v>
-      </c>
-      <c r="D711" s="3">
-        <v>125</v>
-      </c>
-      <c r="E711" s="5">
-        <v>1</v>
-      </c>
-      <c r="F711" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G711" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H711" s="3">
-        <v>20607</v>
-      </c>
-    </row>
-    <row r="712" spans="3:8">
-      <c r="C712" s="6">
-        <v>12504</v>
-      </c>
-      <c r="D712" s="3">
-        <v>125</v>
-      </c>
-      <c r="E712" s="3">
-        <v>1</v>
-      </c>
-      <c r="F712" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G712" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H712" s="3">
-        <v>20608</v>
-      </c>
-    </row>
-    <row r="713" spans="3:7">
-      <c r="C713" s="6">
-        <v>12505</v>
-      </c>
-      <c r="D713" s="3">
-        <v>125</v>
-      </c>
-      <c r="E713" s="5">
-        <v>3</v>
-      </c>
-      <c r="F713" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G713" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="714" spans="3:7">
-      <c r="C714" s="6">
-        <v>12506</v>
-      </c>
-      <c r="D714" s="3">
-        <v>125</v>
-      </c>
-      <c r="E714" s="5">
-        <v>10</v>
-      </c>
-      <c r="F714" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G714" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="715" spans="3:7">
-      <c r="C715" s="6">
-        <v>12507</v>
-      </c>
-      <c r="D715" s="3">
-        <v>125</v>
-      </c>
-      <c r="E715" s="5">
-        <v>10</v>
-      </c>
-      <c r="F715" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G715" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="716" spans="3:7">
-      <c r="C716" s="6">
-        <v>12508</v>
-      </c>
-      <c r="D716" s="3">
-        <v>125</v>
-      </c>
-      <c r="E716" s="5">
-        <v>10</v>
-      </c>
-      <c r="F716" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G716" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="717" spans="3:7">
-      <c r="C717" s="6">
-        <v>12509</v>
-      </c>
-      <c r="D717" s="3">
-        <v>125</v>
-      </c>
-      <c r="E717" s="5">
-        <v>10</v>
-      </c>
-      <c r="F717" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G717" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="718" spans="3:7">
-      <c r="C718" s="6">
-        <v>12510</v>
-      </c>
-      <c r="D718" s="3">
-        <v>125</v>
-      </c>
-      <c r="E718" s="5">
-        <v>10</v>
-      </c>
-      <c r="F718" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G718" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="719" spans="3:7">
-      <c r="C719" s="6">
-        <v>12511</v>
-      </c>
-      <c r="D719" s="3">
-        <v>125</v>
-      </c>
-      <c r="E719" s="5">
-        <v>9</v>
-      </c>
-      <c r="F719" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G719" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="720" spans="3:7">
-      <c r="C720" s="6">
-        <v>12512</v>
-      </c>
-      <c r="D720" s="3">
-        <v>125</v>
-      </c>
-      <c r="E720" s="5">
-        <v>10</v>
-      </c>
-      <c r="F720" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G720" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="721" spans="3:7">
-      <c r="C721" s="6">
-        <v>12513</v>
-      </c>
-      <c r="D721" s="3">
-        <v>125</v>
-      </c>
-      <c r="E721" s="5">
-        <v>9</v>
-      </c>
-      <c r="F721" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G721" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="722" spans="3:7">
-      <c r="C722" s="6">
-        <v>12514</v>
-      </c>
-      <c r="D722" s="3">
-        <v>125</v>
-      </c>
-      <c r="E722" s="5">
-        <v>9</v>
-      </c>
-      <c r="F722" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G722" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="723" spans="3:7">
-      <c r="C723" s="6">
-        <v>12515</v>
-      </c>
-      <c r="D723" s="3">
-        <v>125</v>
-      </c>
-      <c r="E723" s="5">
-        <v>9</v>
-      </c>
-      <c r="F723" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G723" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="724" spans="3:7">
-      <c r="C724" s="6">
-        <v>12516</v>
-      </c>
-      <c r="D724" s="3">
-        <v>125</v>
-      </c>
-      <c r="E724" s="5">
-        <v>2</v>
-      </c>
-      <c r="F724" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G724" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="725" spans="3:7">
-      <c r="C725" s="6">
-        <v>12517</v>
-      </c>
-      <c r="D725" s="3">
-        <v>125</v>
-      </c>
-      <c r="E725" s="3">
-        <v>9</v>
-      </c>
-      <c r="F725" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G725" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="726" spans="3:7">
-      <c r="C726" s="6">
-        <v>12518</v>
-      </c>
-      <c r="D726" s="3">
-        <v>125</v>
-      </c>
-      <c r="E726" s="5">
-        <v>9</v>
-      </c>
-      <c r="F726" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G726" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="727" spans="3:7">
-      <c r="C727" s="6">
-        <v>12519</v>
-      </c>
-      <c r="D727" s="3">
-        <v>125</v>
-      </c>
-      <c r="E727" s="5">
-        <v>10</v>
-      </c>
-      <c r="F727" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G727" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="728" spans="3:7">
-      <c r="C728" s="6">
-        <v>12520</v>
-      </c>
-      <c r="D728" s="3">
-        <v>125</v>
-      </c>
-      <c r="E728" s="5">
-        <v>9</v>
-      </c>
-      <c r="F728" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G728" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="729" spans="3:7">
-      <c r="C729" s="6">
-        <v>12521</v>
-      </c>
-      <c r="D729" s="3">
-        <v>125</v>
-      </c>
-      <c r="E729" s="5">
-        <v>5</v>
-      </c>
-      <c r="F729" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G729" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="730" spans="3:7">
-      <c r="C730" s="6">
-        <v>12522</v>
-      </c>
-      <c r="D730" s="3">
-        <v>125</v>
-      </c>
-      <c r="E730" s="5">
-        <v>6</v>
-      </c>
-      <c r="F730" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G730" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="731" spans="3:7">
-      <c r="C731" s="6">
-        <v>12523</v>
-      </c>
-      <c r="D731" s="3">
-        <v>125</v>
-      </c>
-      <c r="E731" s="5">
-        <v>7</v>
-      </c>
-      <c r="F731" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G731" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="732" spans="3:7">
-      <c r="C732" s="6">
-        <v>12524</v>
-      </c>
-      <c r="D732" s="3">
-        <v>125</v>
-      </c>
-      <c r="E732" s="5">
-        <v>8</v>
-      </c>
-      <c r="F732" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G732" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="733" spans="3:7">
-      <c r="C733" s="6">
-        <v>12525</v>
-      </c>
-      <c r="D733" s="3">
-        <v>125</v>
-      </c>
-      <c r="E733" s="5">
-        <v>9</v>
-      </c>
-      <c r="F733" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G733" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="735" spans="1:8">
-      <c r="A735" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C735" s="6">
-        <v>12601</v>
-      </c>
-      <c r="D735" s="3">
-        <v>126</v>
-      </c>
-      <c r="E735" s="5">
-        <v>1</v>
-      </c>
-      <c r="F735" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G735" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H735" s="3">
-        <v>20615</v>
-      </c>
-    </row>
-    <row r="736" spans="1:8">
-      <c r="A736" s="1"/>
-      <c r="B736" s="1"/>
-      <c r="C736" s="6">
-        <v>12602</v>
-      </c>
-      <c r="D736" s="3">
-        <v>126</v>
-      </c>
-      <c r="E736" s="5">
-        <v>1</v>
-      </c>
-      <c r="F736" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G736" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H736" s="3">
-        <v>20616</v>
-      </c>
-    </row>
-    <row r="737" spans="3:8">
-      <c r="C737" s="6">
-        <v>12603</v>
-      </c>
-      <c r="D737" s="3">
-        <v>126</v>
-      </c>
-      <c r="E737" s="5">
-        <v>1</v>
-      </c>
-      <c r="F737" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G737" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H737" s="3">
-        <v>20617</v>
-      </c>
-    </row>
-    <row r="738" spans="3:8">
-      <c r="C738" s="6">
-        <v>12604</v>
-      </c>
-      <c r="D738" s="3">
-        <v>126</v>
-      </c>
-      <c r="E738" s="3">
-        <v>1</v>
-      </c>
-      <c r="F738" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G738" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H738" s="3">
-        <v>20618</v>
-      </c>
-    </row>
-    <row r="739" spans="3:7">
-      <c r="C739" s="6">
-        <v>12605</v>
-      </c>
-      <c r="D739" s="3">
-        <v>126</v>
-      </c>
-      <c r="E739" s="5">
-        <v>3</v>
-      </c>
-      <c r="F739" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G739" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="740" spans="3:7">
-      <c r="C740" s="6">
-        <v>12606</v>
-      </c>
-      <c r="D740" s="3">
-        <v>126</v>
-      </c>
-      <c r="E740" s="5">
-        <v>10</v>
-      </c>
-      <c r="F740" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G740" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="741" spans="3:7">
-      <c r="C741" s="6">
-        <v>12607</v>
-      </c>
-      <c r="D741" s="3">
-        <v>126</v>
-      </c>
-      <c r="E741" s="5">
-        <v>10</v>
-      </c>
-      <c r="F741" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G741" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="742" spans="3:7">
-      <c r="C742" s="6">
-        <v>12608</v>
-      </c>
-      <c r="D742" s="3">
-        <v>126</v>
-      </c>
-      <c r="E742" s="5">
-        <v>10</v>
-      </c>
-      <c r="F742" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G742" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="743" spans="3:7">
-      <c r="C743" s="6">
-        <v>12609</v>
-      </c>
-      <c r="D743" s="3">
-        <v>126</v>
-      </c>
-      <c r="E743" s="5">
-        <v>10</v>
-      </c>
-      <c r="F743" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G743" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="744" spans="3:7">
-      <c r="C744" s="6">
-        <v>12610</v>
-      </c>
-      <c r="D744" s="3">
-        <v>126</v>
-      </c>
-      <c r="E744" s="5">
-        <v>10</v>
-      </c>
-      <c r="F744" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G744" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="745" spans="3:7">
-      <c r="C745" s="6">
-        <v>12611</v>
-      </c>
-      <c r="D745" s="3">
-        <v>126</v>
-      </c>
-      <c r="E745" s="5">
-        <v>9</v>
-      </c>
-      <c r="F745" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G745" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="746" spans="3:7">
-      <c r="C746" s="6">
-        <v>12612</v>
-      </c>
-      <c r="D746" s="3">
-        <v>126</v>
-      </c>
-      <c r="E746" s="5">
-        <v>10</v>
-      </c>
-      <c r="F746" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G746" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="747" spans="3:7">
-      <c r="C747" s="6">
-        <v>12613</v>
-      </c>
-      <c r="D747" s="3">
-        <v>126</v>
-      </c>
-      <c r="E747" s="5">
-        <v>9</v>
-      </c>
-      <c r="F747" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G747" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="748" spans="3:7">
-      <c r="C748" s="6">
-        <v>12614</v>
-      </c>
-      <c r="D748" s="3">
-        <v>126</v>
-      </c>
-      <c r="E748" s="5">
-        <v>9</v>
-      </c>
-      <c r="F748" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G748" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="749" spans="3:7">
-      <c r="C749" s="6">
-        <v>12615</v>
-      </c>
-      <c r="D749" s="3">
-        <v>126</v>
-      </c>
-      <c r="E749" s="5">
-        <v>9</v>
-      </c>
-      <c r="F749" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G749" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="750" spans="3:7">
-      <c r="C750" s="6">
-        <v>12616</v>
-      </c>
-      <c r="D750" s="3">
-        <v>126</v>
-      </c>
-      <c r="E750" s="5">
-        <v>2</v>
-      </c>
-      <c r="F750" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G750" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="751" spans="3:7">
-      <c r="C751" s="6">
-        <v>12617</v>
-      </c>
-      <c r="D751" s="3">
-        <v>126</v>
-      </c>
-      <c r="E751" s="3">
-        <v>9</v>
-      </c>
-      <c r="F751" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G751" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="752" spans="3:7">
-      <c r="C752" s="6">
-        <v>12618</v>
-      </c>
-      <c r="D752" s="3">
-        <v>126</v>
-      </c>
-      <c r="E752" s="5">
-        <v>9</v>
-      </c>
-      <c r="F752" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G752" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="753" spans="3:7">
-      <c r="C753" s="6">
-        <v>12619</v>
-      </c>
-      <c r="D753" s="3">
-        <v>126</v>
-      </c>
-      <c r="E753" s="5">
-        <v>10</v>
-      </c>
-      <c r="F753" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G753" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="754" spans="3:7">
-      <c r="C754" s="6">
-        <v>12620</v>
-      </c>
-      <c r="D754" s="3">
-        <v>126</v>
-      </c>
-      <c r="E754" s="5">
-        <v>9</v>
-      </c>
-      <c r="F754" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G754" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="755" spans="3:7">
-      <c r="C755" s="6">
-        <v>12621</v>
-      </c>
-      <c r="D755" s="3">
-        <v>126</v>
-      </c>
-      <c r="E755" s="5">
-        <v>5</v>
-      </c>
-      <c r="F755" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G755" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="756" spans="3:7">
-      <c r="C756" s="6">
-        <v>12622</v>
-      </c>
-      <c r="D756" s="3">
-        <v>126</v>
-      </c>
-      <c r="E756" s="5">
-        <v>6</v>
-      </c>
-      <c r="F756" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G756" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="757" spans="3:7">
-      <c r="C757" s="6">
-        <v>12623</v>
-      </c>
-      <c r="D757" s="3">
-        <v>126</v>
-      </c>
-      <c r="E757" s="5">
-        <v>7</v>
-      </c>
-      <c r="F757" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G757" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="758" spans="3:7">
-      <c r="C758" s="6">
-        <v>12624</v>
-      </c>
-      <c r="D758" s="3">
-        <v>126</v>
-      </c>
-      <c r="E758" s="5">
-        <v>8</v>
-      </c>
-      <c r="F758" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G758" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="759" spans="3:7">
-      <c r="C759" s="6">
-        <v>12625</v>
-      </c>
-      <c r="D759" s="3">
-        <v>126</v>
-      </c>
-      <c r="E759" s="5">
-        <v>9</v>
-      </c>
-      <c r="F759" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G759" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -14330,10 +13440,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -14348,10 +13458,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -14366,10 +13476,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -14384,10 +13494,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H9" s="5">
         <v>20304</v>
@@ -14404,10 +13514,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -14507,10 +13617,10 @@
         <v>203</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="77">
   <si>
     <t>Id</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>#先锋127璀璨梦境</t>
+  </si>
+  <si>
+    <t>#先锋128主播专服</t>
   </si>
   <si>
     <t>Center</t>
@@ -1263,10 +1266,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O707"/>
+  <dimension ref="A3:O733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A671" workbookViewId="0">
-      <selection activeCell="A695" sqref="A695"/>
+    <sheetView tabSelected="1" topLeftCell="A700" workbookViewId="0">
+      <selection activeCell="A716" sqref="A716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13315,6 +13318,448 @@
         <v>42</v>
       </c>
       <c r="G707" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8">
+      <c r="A709" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C709" s="6">
+        <v>12801</v>
+      </c>
+      <c r="D709" s="3">
+        <v>128</v>
+      </c>
+      <c r="E709" s="5">
+        <v>1</v>
+      </c>
+      <c r="F709" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G709" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H709" s="3">
+        <v>20425</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8">
+      <c r="A710" s="1"/>
+      <c r="B710" s="1"/>
+      <c r="C710" s="6">
+        <v>12802</v>
+      </c>
+      <c r="D710" s="3">
+        <v>128</v>
+      </c>
+      <c r="E710" s="5">
+        <v>1</v>
+      </c>
+      <c r="F710" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G710" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H710" s="3">
+        <v>20426</v>
+      </c>
+    </row>
+    <row r="711" spans="3:8">
+      <c r="C711" s="6">
+        <v>12803</v>
+      </c>
+      <c r="D711" s="3">
+        <v>128</v>
+      </c>
+      <c r="E711" s="5">
+        <v>1</v>
+      </c>
+      <c r="F711" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G711" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H711" s="3">
+        <v>20427</v>
+      </c>
+    </row>
+    <row r="712" spans="3:8">
+      <c r="C712" s="6">
+        <v>12804</v>
+      </c>
+      <c r="D712" s="3">
+        <v>128</v>
+      </c>
+      <c r="E712" s="3">
+        <v>1</v>
+      </c>
+      <c r="F712" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G712" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H712" s="3">
+        <v>20428</v>
+      </c>
+    </row>
+    <row r="713" spans="3:7">
+      <c r="C713" s="6">
+        <v>12805</v>
+      </c>
+      <c r="D713" s="3">
+        <v>128</v>
+      </c>
+      <c r="E713" s="5">
+        <v>3</v>
+      </c>
+      <c r="F713" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G713" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="714" spans="3:7">
+      <c r="C714" s="6">
+        <v>12806</v>
+      </c>
+      <c r="D714" s="3">
+        <v>128</v>
+      </c>
+      <c r="E714" s="5">
+        <v>10</v>
+      </c>
+      <c r="F714" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G714" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="715" spans="3:7">
+      <c r="C715" s="6">
+        <v>12807</v>
+      </c>
+      <c r="D715" s="3">
+        <v>128</v>
+      </c>
+      <c r="E715" s="5">
+        <v>10</v>
+      </c>
+      <c r="F715" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G715" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="716" spans="3:7">
+      <c r="C716" s="6">
+        <v>12808</v>
+      </c>
+      <c r="D716" s="3">
+        <v>128</v>
+      </c>
+      <c r="E716" s="5">
+        <v>10</v>
+      </c>
+      <c r="F716" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G716" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="717" spans="3:7">
+      <c r="C717" s="6">
+        <v>12809</v>
+      </c>
+      <c r="D717" s="3">
+        <v>128</v>
+      </c>
+      <c r="E717" s="5">
+        <v>10</v>
+      </c>
+      <c r="F717" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G717" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="718" spans="3:7">
+      <c r="C718" s="6">
+        <v>12810</v>
+      </c>
+      <c r="D718" s="3">
+        <v>128</v>
+      </c>
+      <c r="E718" s="5">
+        <v>10</v>
+      </c>
+      <c r="F718" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G718" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="719" spans="3:7">
+      <c r="C719" s="6">
+        <v>12811</v>
+      </c>
+      <c r="D719" s="3">
+        <v>128</v>
+      </c>
+      <c r="E719" s="5">
+        <v>9</v>
+      </c>
+      <c r="F719" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G719" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="720" spans="3:7">
+      <c r="C720" s="6">
+        <v>12812</v>
+      </c>
+      <c r="D720" s="3">
+        <v>128</v>
+      </c>
+      <c r="E720" s="5">
+        <v>10</v>
+      </c>
+      <c r="F720" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G720" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="721" spans="3:7">
+      <c r="C721" s="6">
+        <v>12813</v>
+      </c>
+      <c r="D721" s="3">
+        <v>128</v>
+      </c>
+      <c r="E721" s="5">
+        <v>9</v>
+      </c>
+      <c r="F721" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G721" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="722" spans="3:7">
+      <c r="C722" s="6">
+        <v>12814</v>
+      </c>
+      <c r="D722" s="3">
+        <v>128</v>
+      </c>
+      <c r="E722" s="5">
+        <v>9</v>
+      </c>
+      <c r="F722" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G722" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="723" spans="3:7">
+      <c r="C723" s="6">
+        <v>12815</v>
+      </c>
+      <c r="D723" s="3">
+        <v>128</v>
+      </c>
+      <c r="E723" s="5">
+        <v>9</v>
+      </c>
+      <c r="F723" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G723" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="724" spans="3:7">
+      <c r="C724" s="6">
+        <v>12816</v>
+      </c>
+      <c r="D724" s="3">
+        <v>128</v>
+      </c>
+      <c r="E724" s="5">
+        <v>2</v>
+      </c>
+      <c r="F724" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G724" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="725" spans="3:7">
+      <c r="C725" s="6">
+        <v>12817</v>
+      </c>
+      <c r="D725" s="3">
+        <v>128</v>
+      </c>
+      <c r="E725" s="3">
+        <v>9</v>
+      </c>
+      <c r="F725" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G725" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="726" spans="3:7">
+      <c r="C726" s="6">
+        <v>12818</v>
+      </c>
+      <c r="D726" s="3">
+        <v>128</v>
+      </c>
+      <c r="E726" s="5">
+        <v>9</v>
+      </c>
+      <c r="F726" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G726" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="727" spans="3:7">
+      <c r="C727" s="6">
+        <v>12819</v>
+      </c>
+      <c r="D727" s="3">
+        <v>128</v>
+      </c>
+      <c r="E727" s="5">
+        <v>10</v>
+      </c>
+      <c r="F727" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G727" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="728" spans="3:7">
+      <c r="C728" s="6">
+        <v>12820</v>
+      </c>
+      <c r="D728" s="3">
+        <v>128</v>
+      </c>
+      <c r="E728" s="5">
+        <v>9</v>
+      </c>
+      <c r="F728" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G728" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="729" spans="3:7">
+      <c r="C729" s="6">
+        <v>12821</v>
+      </c>
+      <c r="D729" s="3">
+        <v>128</v>
+      </c>
+      <c r="E729" s="5">
+        <v>5</v>
+      </c>
+      <c r="F729" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G729" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="730" spans="3:7">
+      <c r="C730" s="6">
+        <v>12822</v>
+      </c>
+      <c r="D730" s="3">
+        <v>128</v>
+      </c>
+      <c r="E730" s="5">
+        <v>6</v>
+      </c>
+      <c r="F730" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G730" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="731" spans="3:7">
+      <c r="C731" s="6">
+        <v>12823</v>
+      </c>
+      <c r="D731" s="3">
+        <v>128</v>
+      </c>
+      <c r="E731" s="5">
+        <v>7</v>
+      </c>
+      <c r="F731" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G731" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="732" spans="3:7">
+      <c r="C732" s="6">
+        <v>12824</v>
+      </c>
+      <c r="D732" s="3">
+        <v>128</v>
+      </c>
+      <c r="E732" s="5">
+        <v>8</v>
+      </c>
+      <c r="F732" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G732" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="733" spans="3:7">
+      <c r="C733" s="6">
+        <v>12825</v>
+      </c>
+      <c r="D733" s="3">
+        <v>128</v>
+      </c>
+      <c r="E733" s="5">
+        <v>9</v>
+      </c>
+      <c r="F733" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G733" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13440,10 +13885,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -13458,10 +13903,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -13476,10 +13921,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -13494,10 +13939,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" s="5">
         <v>20304</v>
@@ -13514,10 +13959,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -13617,10 +14062,10 @@
         <v>203</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -220,9 +220,6 @@
     <t>#先锋121区太平盛世</t>
   </si>
   <si>
-    <t>#先锋122区欢度国庆</t>
-  </si>
-  <si>
     <t>#先锋123区春花秋月</t>
   </si>
   <si>
@@ -239,6 +236,9 @@
   </si>
   <si>
     <t>#先锋128主播专服</t>
+  </si>
+  <si>
+    <t>#先锋129永恒结界</t>
   </si>
   <si>
     <t>Center</t>
@@ -1268,8 +1268,8 @@
   <sheetPr/>
   <dimension ref="A3:O733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A700" workbookViewId="0">
-      <selection activeCell="A716" sqref="A716"/>
+    <sheetView tabSelected="1" topLeftCell="A703" workbookViewId="0">
+      <selection activeCell="L709" sqref="L709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10674,10 +10674,10 @@
         <v>63</v>
       </c>
       <c r="C553" s="6">
-        <v>12201</v>
+        <v>12301</v>
       </c>
       <c r="D553" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E553" s="5">
         <v>1</v>
@@ -10689,17 +10689,17 @@
         <v>15</v>
       </c>
       <c r="H553" s="3">
-        <v>20505</v>
+        <v>20525</v>
       </c>
     </row>
     <row r="554" spans="1:8">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="6">
-        <v>12202</v>
+        <v>12302</v>
       </c>
       <c r="D554" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E554" s="5">
         <v>1</v>
@@ -10711,15 +10711,15 @@
         <v>16</v>
       </c>
       <c r="H554" s="3">
-        <v>20506</v>
+        <v>20526</v>
       </c>
     </row>
     <row r="555" spans="3:8">
       <c r="C555" s="6">
-        <v>12203</v>
+        <v>12303</v>
       </c>
       <c r="D555" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E555" s="5">
         <v>1</v>
@@ -10731,15 +10731,15 @@
         <v>18</v>
       </c>
       <c r="H555" s="3">
-        <v>20507</v>
+        <v>20527</v>
       </c>
     </row>
     <row r="556" spans="3:8">
       <c r="C556" s="6">
-        <v>12204</v>
+        <v>12304</v>
       </c>
       <c r="D556" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E556" s="3">
         <v>1</v>
@@ -10751,15 +10751,15 @@
         <v>19</v>
       </c>
       <c r="H556" s="3">
-        <v>20508</v>
+        <v>20528</v>
       </c>
     </row>
     <row r="557" spans="3:7">
       <c r="C557" s="6">
-        <v>12205</v>
+        <v>12305</v>
       </c>
       <c r="D557" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E557" s="5">
         <v>3</v>
@@ -10773,10 +10773,10 @@
     </row>
     <row r="558" spans="3:7">
       <c r="C558" s="6">
-        <v>12206</v>
+        <v>12306</v>
       </c>
       <c r="D558" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E558" s="5">
         <v>10</v>
@@ -10790,10 +10790,10 @@
     </row>
     <row r="559" spans="3:7">
       <c r="C559" s="6">
-        <v>12207</v>
+        <v>12307</v>
       </c>
       <c r="D559" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E559" s="5">
         <v>10</v>
@@ -10807,10 +10807,10 @@
     </row>
     <row r="560" spans="3:7">
       <c r="C560" s="6">
-        <v>12208</v>
+        <v>12308</v>
       </c>
       <c r="D560" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E560" s="5">
         <v>10</v>
@@ -10824,10 +10824,10 @@
     </row>
     <row r="561" spans="3:7">
       <c r="C561" s="6">
-        <v>12209</v>
+        <v>12309</v>
       </c>
       <c r="D561" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E561" s="5">
         <v>10</v>
@@ -10841,10 +10841,10 @@
     </row>
     <row r="562" spans="3:7">
       <c r="C562" s="6">
-        <v>12210</v>
+        <v>12310</v>
       </c>
       <c r="D562" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E562" s="5">
         <v>10</v>
@@ -10858,10 +10858,10 @@
     </row>
     <row r="563" spans="3:7">
       <c r="C563" s="6">
-        <v>12211</v>
+        <v>12311</v>
       </c>
       <c r="D563" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E563" s="5">
         <v>9</v>
@@ -10875,10 +10875,10 @@
     </row>
     <row r="564" spans="3:7">
       <c r="C564" s="6">
-        <v>12212</v>
+        <v>12312</v>
       </c>
       <c r="D564" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E564" s="5">
         <v>10</v>
@@ -10892,10 +10892,10 @@
     </row>
     <row r="565" spans="3:7">
       <c r="C565" s="6">
-        <v>12213</v>
+        <v>12313</v>
       </c>
       <c r="D565" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E565" s="5">
         <v>9</v>
@@ -10909,10 +10909,10 @@
     </row>
     <row r="566" spans="3:7">
       <c r="C566" s="6">
-        <v>12214</v>
+        <v>12314</v>
       </c>
       <c r="D566" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E566" s="5">
         <v>9</v>
@@ -10926,10 +10926,10 @@
     </row>
     <row r="567" spans="3:7">
       <c r="C567" s="6">
-        <v>12215</v>
+        <v>12315</v>
       </c>
       <c r="D567" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E567" s="5">
         <v>9</v>
@@ -10943,10 +10943,10 @@
     </row>
     <row r="568" spans="3:7">
       <c r="C568" s="6">
-        <v>12216</v>
+        <v>12316</v>
       </c>
       <c r="D568" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E568" s="5">
         <v>2</v>
@@ -10960,10 +10960,10 @@
     </row>
     <row r="569" spans="3:7">
       <c r="C569" s="6">
-        <v>12217</v>
+        <v>12317</v>
       </c>
       <c r="D569" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E569" s="3">
         <v>9</v>
@@ -10977,10 +10977,10 @@
     </row>
     <row r="570" spans="3:7">
       <c r="C570" s="6">
-        <v>12218</v>
+        <v>12318</v>
       </c>
       <c r="D570" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E570" s="5">
         <v>9</v>
@@ -10994,10 +10994,10 @@
     </row>
     <row r="571" spans="3:7">
       <c r="C571" s="6">
-        <v>12219</v>
+        <v>12319</v>
       </c>
       <c r="D571" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E571" s="5">
         <v>10</v>
@@ -11011,10 +11011,10 @@
     </row>
     <row r="572" spans="3:7">
       <c r="C572" s="6">
-        <v>12220</v>
+        <v>12320</v>
       </c>
       <c r="D572" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E572" s="5">
         <v>9</v>
@@ -11028,10 +11028,10 @@
     </row>
     <row r="573" spans="3:7">
       <c r="C573" s="6">
-        <v>12221</v>
+        <v>12321</v>
       </c>
       <c r="D573" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E573" s="5">
         <v>5</v>
@@ -11045,10 +11045,10 @@
     </row>
     <row r="574" spans="3:7">
       <c r="C574" s="6">
-        <v>12222</v>
+        <v>12322</v>
       </c>
       <c r="D574" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E574" s="5">
         <v>6</v>
@@ -11062,10 +11062,10 @@
     </row>
     <row r="575" spans="3:7">
       <c r="C575" s="6">
-        <v>12223</v>
+        <v>12323</v>
       </c>
       <c r="D575" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E575" s="5">
         <v>7</v>
@@ -11079,10 +11079,10 @@
     </row>
     <row r="576" spans="3:7">
       <c r="C576" s="6">
-        <v>12224</v>
+        <v>12324</v>
       </c>
       <c r="D576" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E576" s="5">
         <v>8</v>
@@ -11096,10 +11096,10 @@
     </row>
     <row r="577" spans="3:7">
       <c r="C577" s="6">
-        <v>12225</v>
+        <v>12325</v>
       </c>
       <c r="D577" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E577" s="5">
         <v>9</v>
@@ -11116,10 +11116,10 @@
         <v>64</v>
       </c>
       <c r="C579" s="6">
-        <v>12301</v>
+        <v>12401</v>
       </c>
       <c r="D579" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E579" s="5">
         <v>1</v>
@@ -11131,17 +11131,17 @@
         <v>15</v>
       </c>
       <c r="H579" s="3">
-        <v>20525</v>
+        <v>20595</v>
       </c>
     </row>
     <row r="580" spans="1:8">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="6">
-        <v>12302</v>
+        <v>12402</v>
       </c>
       <c r="D580" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E580" s="5">
         <v>1</v>
@@ -11153,15 +11153,15 @@
         <v>16</v>
       </c>
       <c r="H580" s="3">
-        <v>20526</v>
+        <v>20596</v>
       </c>
     </row>
     <row r="581" spans="3:8">
       <c r="C581" s="6">
-        <v>12303</v>
+        <v>12403</v>
       </c>
       <c r="D581" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E581" s="5">
         <v>1</v>
@@ -11173,15 +11173,15 @@
         <v>18</v>
       </c>
       <c r="H581" s="3">
-        <v>20527</v>
+        <v>20597</v>
       </c>
     </row>
     <row r="582" spans="3:8">
       <c r="C582" s="6">
-        <v>12304</v>
+        <v>12404</v>
       </c>
       <c r="D582" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E582" s="3">
         <v>1</v>
@@ -11193,15 +11193,15 @@
         <v>19</v>
       </c>
       <c r="H582" s="3">
-        <v>20528</v>
+        <v>20598</v>
       </c>
     </row>
     <row r="583" spans="3:7">
       <c r="C583" s="6">
-        <v>12305</v>
+        <v>12405</v>
       </c>
       <c r="D583" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E583" s="5">
         <v>3</v>
@@ -11215,10 +11215,10 @@
     </row>
     <row r="584" spans="3:7">
       <c r="C584" s="6">
-        <v>12306</v>
+        <v>12406</v>
       </c>
       <c r="D584" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E584" s="5">
         <v>10</v>
@@ -11232,10 +11232,10 @@
     </row>
     <row r="585" spans="3:7">
       <c r="C585" s="6">
-        <v>12307</v>
+        <v>12407</v>
       </c>
       <c r="D585" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E585" s="5">
         <v>10</v>
@@ -11249,10 +11249,10 @@
     </row>
     <row r="586" spans="3:7">
       <c r="C586" s="6">
-        <v>12308</v>
+        <v>12408</v>
       </c>
       <c r="D586" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E586" s="5">
         <v>10</v>
@@ -11266,10 +11266,10 @@
     </row>
     <row r="587" spans="3:7">
       <c r="C587" s="6">
-        <v>12309</v>
+        <v>12409</v>
       </c>
       <c r="D587" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E587" s="5">
         <v>10</v>
@@ -11283,10 +11283,10 @@
     </row>
     <row r="588" spans="3:7">
       <c r="C588" s="6">
-        <v>12310</v>
+        <v>12410</v>
       </c>
       <c r="D588" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E588" s="5">
         <v>10</v>
@@ -11300,10 +11300,10 @@
     </row>
     <row r="589" spans="3:7">
       <c r="C589" s="6">
-        <v>12311</v>
+        <v>12411</v>
       </c>
       <c r="D589" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E589" s="5">
         <v>9</v>
@@ -11317,10 +11317,10 @@
     </row>
     <row r="590" spans="3:7">
       <c r="C590" s="6">
-        <v>12312</v>
+        <v>12412</v>
       </c>
       <c r="D590" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E590" s="5">
         <v>10</v>
@@ -11334,10 +11334,10 @@
     </row>
     <row r="591" spans="3:7">
       <c r="C591" s="6">
-        <v>12313</v>
+        <v>12413</v>
       </c>
       <c r="D591" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E591" s="5">
         <v>9</v>
@@ -11351,10 +11351,10 @@
     </row>
     <row r="592" spans="3:7">
       <c r="C592" s="6">
-        <v>12314</v>
+        <v>12414</v>
       </c>
       <c r="D592" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E592" s="5">
         <v>9</v>
@@ -11368,10 +11368,10 @@
     </row>
     <row r="593" spans="3:7">
       <c r="C593" s="6">
-        <v>12315</v>
+        <v>12415</v>
       </c>
       <c r="D593" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E593" s="5">
         <v>9</v>
@@ -11385,10 +11385,10 @@
     </row>
     <row r="594" spans="3:7">
       <c r="C594" s="6">
-        <v>12316</v>
+        <v>12416</v>
       </c>
       <c r="D594" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E594" s="5">
         <v>2</v>
@@ -11402,10 +11402,10 @@
     </row>
     <row r="595" spans="3:7">
       <c r="C595" s="6">
-        <v>12317</v>
+        <v>12417</v>
       </c>
       <c r="D595" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E595" s="3">
         <v>9</v>
@@ -11419,10 +11419,10 @@
     </row>
     <row r="596" spans="3:7">
       <c r="C596" s="6">
-        <v>12318</v>
+        <v>12418</v>
       </c>
       <c r="D596" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E596" s="5">
         <v>9</v>
@@ -11436,10 +11436,10 @@
     </row>
     <row r="597" spans="3:7">
       <c r="C597" s="6">
-        <v>12319</v>
+        <v>12419</v>
       </c>
       <c r="D597" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E597" s="5">
         <v>10</v>
@@ -11453,10 +11453,10 @@
     </row>
     <row r="598" spans="3:7">
       <c r="C598" s="6">
-        <v>12320</v>
+        <v>12420</v>
       </c>
       <c r="D598" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E598" s="5">
         <v>9</v>
@@ -11470,10 +11470,10 @@
     </row>
     <row r="599" spans="3:7">
       <c r="C599" s="6">
-        <v>12321</v>
+        <v>12421</v>
       </c>
       <c r="D599" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E599" s="5">
         <v>5</v>
@@ -11487,10 +11487,10 @@
     </row>
     <row r="600" spans="3:7">
       <c r="C600" s="6">
-        <v>12322</v>
+        <v>12422</v>
       </c>
       <c r="D600" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E600" s="5">
         <v>6</v>
@@ -11504,10 +11504,10 @@
     </row>
     <row r="601" spans="3:7">
       <c r="C601" s="6">
-        <v>12323</v>
+        <v>12423</v>
       </c>
       <c r="D601" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E601" s="5">
         <v>7</v>
@@ -11521,10 +11521,10 @@
     </row>
     <row r="602" spans="3:7">
       <c r="C602" s="6">
-        <v>12324</v>
+        <v>12424</v>
       </c>
       <c r="D602" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E602" s="5">
         <v>8</v>
@@ -11538,10 +11538,10 @@
     </row>
     <row r="603" spans="3:7">
       <c r="C603" s="6">
-        <v>12325</v>
+        <v>12425</v>
       </c>
       <c r="D603" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E603" s="5">
         <v>9</v>
@@ -11558,10 +11558,10 @@
         <v>65</v>
       </c>
       <c r="C605" s="6">
-        <v>12401</v>
+        <v>12501</v>
       </c>
       <c r="D605" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E605" s="5">
         <v>1</v>
@@ -11573,17 +11573,17 @@
         <v>15</v>
       </c>
       <c r="H605" s="3">
-        <v>20595</v>
+        <v>20605</v>
       </c>
     </row>
     <row r="606" spans="1:8">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="6">
-        <v>12402</v>
+        <v>12502</v>
       </c>
       <c r="D606" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E606" s="5">
         <v>1</v>
@@ -11595,15 +11595,15 @@
         <v>16</v>
       </c>
       <c r="H606" s="3">
-        <v>20596</v>
+        <v>20606</v>
       </c>
     </row>
     <row r="607" spans="3:8">
       <c r="C607" s="6">
-        <v>12403</v>
+        <v>12503</v>
       </c>
       <c r="D607" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E607" s="5">
         <v>1</v>
@@ -11615,15 +11615,15 @@
         <v>18</v>
       </c>
       <c r="H607" s="3">
-        <v>20597</v>
+        <v>20607</v>
       </c>
     </row>
     <row r="608" spans="3:8">
       <c r="C608" s="6">
-        <v>12404</v>
+        <v>12504</v>
       </c>
       <c r="D608" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E608" s="3">
         <v>1</v>
@@ -11635,15 +11635,15 @@
         <v>19</v>
       </c>
       <c r="H608" s="3">
-        <v>20598</v>
+        <v>20608</v>
       </c>
     </row>
     <row r="609" spans="3:7">
       <c r="C609" s="6">
-        <v>12405</v>
+        <v>12505</v>
       </c>
       <c r="D609" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E609" s="5">
         <v>3</v>
@@ -11657,10 +11657,10 @@
     </row>
     <row r="610" spans="3:7">
       <c r="C610" s="6">
-        <v>12406</v>
+        <v>12506</v>
       </c>
       <c r="D610" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E610" s="5">
         <v>10</v>
@@ -11674,10 +11674,10 @@
     </row>
     <row r="611" spans="3:7">
       <c r="C611" s="6">
-        <v>12407</v>
+        <v>12507</v>
       </c>
       <c r="D611" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E611" s="5">
         <v>10</v>
@@ -11691,10 +11691,10 @@
     </row>
     <row r="612" spans="3:7">
       <c r="C612" s="6">
-        <v>12408</v>
+        <v>12508</v>
       </c>
       <c r="D612" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E612" s="5">
         <v>10</v>
@@ -11708,10 +11708,10 @@
     </row>
     <row r="613" spans="3:7">
       <c r="C613" s="6">
-        <v>12409</v>
+        <v>12509</v>
       </c>
       <c r="D613" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E613" s="5">
         <v>10</v>
@@ -11725,10 +11725,10 @@
     </row>
     <row r="614" spans="3:7">
       <c r="C614" s="6">
-        <v>12410</v>
+        <v>12510</v>
       </c>
       <c r="D614" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E614" s="5">
         <v>10</v>
@@ -11742,10 +11742,10 @@
     </row>
     <row r="615" spans="3:7">
       <c r="C615" s="6">
-        <v>12411</v>
+        <v>12511</v>
       </c>
       <c r="D615" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E615" s="5">
         <v>9</v>
@@ -11759,10 +11759,10 @@
     </row>
     <row r="616" spans="3:7">
       <c r="C616" s="6">
-        <v>12412</v>
+        <v>12512</v>
       </c>
       <c r="D616" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E616" s="5">
         <v>10</v>
@@ -11776,10 +11776,10 @@
     </row>
     <row r="617" spans="3:7">
       <c r="C617" s="6">
-        <v>12413</v>
+        <v>12513</v>
       </c>
       <c r="D617" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E617" s="5">
         <v>9</v>
@@ -11793,10 +11793,10 @@
     </row>
     <row r="618" spans="3:7">
       <c r="C618" s="6">
-        <v>12414</v>
+        <v>12514</v>
       </c>
       <c r="D618" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E618" s="5">
         <v>9</v>
@@ -11810,10 +11810,10 @@
     </row>
     <row r="619" spans="3:7">
       <c r="C619" s="6">
-        <v>12415</v>
+        <v>12515</v>
       </c>
       <c r="D619" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E619" s="5">
         <v>9</v>
@@ -11827,10 +11827,10 @@
     </row>
     <row r="620" spans="3:7">
       <c r="C620" s="6">
-        <v>12416</v>
+        <v>12516</v>
       </c>
       <c r="D620" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E620" s="5">
         <v>2</v>
@@ -11844,10 +11844,10 @@
     </row>
     <row r="621" spans="3:7">
       <c r="C621" s="6">
-        <v>12417</v>
+        <v>12517</v>
       </c>
       <c r="D621" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E621" s="3">
         <v>9</v>
@@ -11861,10 +11861,10 @@
     </row>
     <row r="622" spans="3:7">
       <c r="C622" s="6">
-        <v>12418</v>
+        <v>12518</v>
       </c>
       <c r="D622" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E622" s="5">
         <v>9</v>
@@ -11878,10 +11878,10 @@
     </row>
     <row r="623" spans="3:7">
       <c r="C623" s="6">
-        <v>12419</v>
+        <v>12519</v>
       </c>
       <c r="D623" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E623" s="5">
         <v>10</v>
@@ -11895,10 +11895,10 @@
     </row>
     <row r="624" spans="3:7">
       <c r="C624" s="6">
-        <v>12420</v>
+        <v>12520</v>
       </c>
       <c r="D624" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E624" s="5">
         <v>9</v>
@@ -11912,10 +11912,10 @@
     </row>
     <row r="625" spans="3:7">
       <c r="C625" s="6">
-        <v>12421</v>
+        <v>12521</v>
       </c>
       <c r="D625" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E625" s="5">
         <v>5</v>
@@ -11929,10 +11929,10 @@
     </row>
     <row r="626" spans="3:7">
       <c r="C626" s="6">
-        <v>12422</v>
+        <v>12522</v>
       </c>
       <c r="D626" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E626" s="5">
         <v>6</v>
@@ -11946,10 +11946,10 @@
     </row>
     <row r="627" spans="3:7">
       <c r="C627" s="6">
-        <v>12423</v>
+        <v>12523</v>
       </c>
       <c r="D627" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E627" s="5">
         <v>7</v>
@@ -11963,10 +11963,10 @@
     </row>
     <row r="628" spans="3:7">
       <c r="C628" s="6">
-        <v>12424</v>
+        <v>12524</v>
       </c>
       <c r="D628" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E628" s="5">
         <v>8</v>
@@ -11980,10 +11980,10 @@
     </row>
     <row r="629" spans="3:7">
       <c r="C629" s="6">
-        <v>12425</v>
+        <v>12525</v>
       </c>
       <c r="D629" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E629" s="5">
         <v>9</v>
@@ -12000,10 +12000,10 @@
         <v>66</v>
       </c>
       <c r="C631" s="6">
-        <v>12501</v>
+        <v>12601</v>
       </c>
       <c r="D631" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E631" s="5">
         <v>1</v>
@@ -12015,17 +12015,17 @@
         <v>15</v>
       </c>
       <c r="H631" s="3">
-        <v>20605</v>
+        <v>20615</v>
       </c>
     </row>
     <row r="632" spans="1:8">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="6">
-        <v>12502</v>
+        <v>12602</v>
       </c>
       <c r="D632" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E632" s="5">
         <v>1</v>
@@ -12037,15 +12037,15 @@
         <v>16</v>
       </c>
       <c r="H632" s="3">
-        <v>20606</v>
+        <v>20616</v>
       </c>
     </row>
     <row r="633" spans="3:8">
       <c r="C633" s="6">
-        <v>12503</v>
+        <v>12603</v>
       </c>
       <c r="D633" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E633" s="5">
         <v>1</v>
@@ -12057,15 +12057,15 @@
         <v>18</v>
       </c>
       <c r="H633" s="3">
-        <v>20607</v>
+        <v>20617</v>
       </c>
     </row>
     <row r="634" spans="3:8">
       <c r="C634" s="6">
-        <v>12504</v>
+        <v>12604</v>
       </c>
       <c r="D634" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E634" s="3">
         <v>1</v>
@@ -12077,15 +12077,15 @@
         <v>19</v>
       </c>
       <c r="H634" s="3">
-        <v>20608</v>
+        <v>20618</v>
       </c>
     </row>
     <row r="635" spans="3:7">
       <c r="C635" s="6">
-        <v>12505</v>
+        <v>12605</v>
       </c>
       <c r="D635" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E635" s="5">
         <v>3</v>
@@ -12099,10 +12099,10 @@
     </row>
     <row r="636" spans="3:7">
       <c r="C636" s="6">
-        <v>12506</v>
+        <v>12606</v>
       </c>
       <c r="D636" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E636" s="5">
         <v>10</v>
@@ -12116,10 +12116,10 @@
     </row>
     <row r="637" spans="3:7">
       <c r="C637" s="6">
-        <v>12507</v>
+        <v>12607</v>
       </c>
       <c r="D637" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E637" s="5">
         <v>10</v>
@@ -12133,10 +12133,10 @@
     </row>
     <row r="638" spans="3:7">
       <c r="C638" s="6">
-        <v>12508</v>
+        <v>12608</v>
       </c>
       <c r="D638" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E638" s="5">
         <v>10</v>
@@ -12150,10 +12150,10 @@
     </row>
     <row r="639" spans="3:7">
       <c r="C639" s="6">
-        <v>12509</v>
+        <v>12609</v>
       </c>
       <c r="D639" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E639" s="5">
         <v>10</v>
@@ -12167,10 +12167,10 @@
     </row>
     <row r="640" spans="3:7">
       <c r="C640" s="6">
-        <v>12510</v>
+        <v>12610</v>
       </c>
       <c r="D640" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E640" s="5">
         <v>10</v>
@@ -12184,10 +12184,10 @@
     </row>
     <row r="641" spans="3:7">
       <c r="C641" s="6">
-        <v>12511</v>
+        <v>12611</v>
       </c>
       <c r="D641" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E641" s="5">
         <v>9</v>
@@ -12201,10 +12201,10 @@
     </row>
     <row r="642" spans="3:7">
       <c r="C642" s="6">
-        <v>12512</v>
+        <v>12612</v>
       </c>
       <c r="D642" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E642" s="5">
         <v>10</v>
@@ -12218,10 +12218,10 @@
     </row>
     <row r="643" spans="3:7">
       <c r="C643" s="6">
-        <v>12513</v>
+        <v>12613</v>
       </c>
       <c r="D643" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E643" s="5">
         <v>9</v>
@@ -12235,10 +12235,10 @@
     </row>
     <row r="644" spans="3:7">
       <c r="C644" s="6">
-        <v>12514</v>
+        <v>12614</v>
       </c>
       <c r="D644" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E644" s="5">
         <v>9</v>
@@ -12252,10 +12252,10 @@
     </row>
     <row r="645" spans="3:7">
       <c r="C645" s="6">
-        <v>12515</v>
+        <v>12615</v>
       </c>
       <c r="D645" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E645" s="5">
         <v>9</v>
@@ -12269,10 +12269,10 @@
     </row>
     <row r="646" spans="3:7">
       <c r="C646" s="6">
-        <v>12516</v>
+        <v>12616</v>
       </c>
       <c r="D646" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E646" s="5">
         <v>2</v>
@@ -12286,10 +12286,10 @@
     </row>
     <row r="647" spans="3:7">
       <c r="C647" s="6">
-        <v>12517</v>
+        <v>12617</v>
       </c>
       <c r="D647" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E647" s="3">
         <v>9</v>
@@ -12303,10 +12303,10 @@
     </row>
     <row r="648" spans="3:7">
       <c r="C648" s="6">
-        <v>12518</v>
+        <v>12618</v>
       </c>
       <c r="D648" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E648" s="5">
         <v>9</v>
@@ -12320,10 +12320,10 @@
     </row>
     <row r="649" spans="3:7">
       <c r="C649" s="6">
-        <v>12519</v>
+        <v>12619</v>
       </c>
       <c r="D649" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E649" s="5">
         <v>10</v>
@@ -12337,10 +12337,10 @@
     </row>
     <row r="650" spans="3:7">
       <c r="C650" s="6">
-        <v>12520</v>
+        <v>12620</v>
       </c>
       <c r="D650" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E650" s="5">
         <v>9</v>
@@ -12354,10 +12354,10 @@
     </row>
     <row r="651" spans="3:7">
       <c r="C651" s="6">
-        <v>12521</v>
+        <v>12621</v>
       </c>
       <c r="D651" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E651" s="5">
         <v>5</v>
@@ -12371,10 +12371,10 @@
     </row>
     <row r="652" spans="3:7">
       <c r="C652" s="6">
-        <v>12522</v>
+        <v>12622</v>
       </c>
       <c r="D652" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E652" s="5">
         <v>6</v>
@@ -12388,10 +12388,10 @@
     </row>
     <row r="653" spans="3:7">
       <c r="C653" s="6">
-        <v>12523</v>
+        <v>12623</v>
       </c>
       <c r="D653" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E653" s="5">
         <v>7</v>
@@ -12405,10 +12405,10 @@
     </row>
     <row r="654" spans="3:7">
       <c r="C654" s="6">
-        <v>12524</v>
+        <v>12624</v>
       </c>
       <c r="D654" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E654" s="5">
         <v>8</v>
@@ -12422,10 +12422,10 @@
     </row>
     <row r="655" spans="3:7">
       <c r="C655" s="6">
-        <v>12525</v>
+        <v>12625</v>
       </c>
       <c r="D655" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E655" s="5">
         <v>9</v>
@@ -12442,10 +12442,10 @@
         <v>67</v>
       </c>
       <c r="C657" s="6">
-        <v>12601</v>
+        <v>12701</v>
       </c>
       <c r="D657" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E657" s="5">
         <v>1</v>
@@ -12457,17 +12457,17 @@
         <v>15</v>
       </c>
       <c r="H657" s="3">
-        <v>20615</v>
+        <v>20375</v>
       </c>
     </row>
     <row r="658" spans="1:8">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="6">
-        <v>12602</v>
+        <v>12702</v>
       </c>
       <c r="D658" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E658" s="5">
         <v>1</v>
@@ -12479,15 +12479,15 @@
         <v>16</v>
       </c>
       <c r="H658" s="3">
-        <v>20616</v>
+        <v>20376</v>
       </c>
     </row>
     <row r="659" spans="3:8">
       <c r="C659" s="6">
-        <v>12603</v>
+        <v>12703</v>
       </c>
       <c r="D659" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E659" s="5">
         <v>1</v>
@@ -12499,15 +12499,15 @@
         <v>18</v>
       </c>
       <c r="H659" s="3">
-        <v>20617</v>
+        <v>20377</v>
       </c>
     </row>
     <row r="660" spans="3:8">
       <c r="C660" s="6">
-        <v>12604</v>
+        <v>12704</v>
       </c>
       <c r="D660" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E660" s="3">
         <v>1</v>
@@ -12519,15 +12519,15 @@
         <v>19</v>
       </c>
       <c r="H660" s="3">
-        <v>20618</v>
+        <v>20378</v>
       </c>
     </row>
     <row r="661" spans="3:7">
       <c r="C661" s="6">
-        <v>12605</v>
+        <v>12705</v>
       </c>
       <c r="D661" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E661" s="5">
         <v>3</v>
@@ -12541,10 +12541,10 @@
     </row>
     <row r="662" spans="3:7">
       <c r="C662" s="6">
-        <v>12606</v>
+        <v>12706</v>
       </c>
       <c r="D662" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E662" s="5">
         <v>10</v>
@@ -12558,10 +12558,10 @@
     </row>
     <row r="663" spans="3:7">
       <c r="C663" s="6">
-        <v>12607</v>
+        <v>12707</v>
       </c>
       <c r="D663" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E663" s="5">
         <v>10</v>
@@ -12575,10 +12575,10 @@
     </row>
     <row r="664" spans="3:7">
       <c r="C664" s="6">
-        <v>12608</v>
+        <v>12708</v>
       </c>
       <c r="D664" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E664" s="5">
         <v>10</v>
@@ -12592,10 +12592,10 @@
     </row>
     <row r="665" spans="3:7">
       <c r="C665" s="6">
-        <v>12609</v>
+        <v>12709</v>
       </c>
       <c r="D665" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E665" s="5">
         <v>10</v>
@@ -12609,10 +12609,10 @@
     </row>
     <row r="666" spans="3:7">
       <c r="C666" s="6">
-        <v>12610</v>
+        <v>12710</v>
       </c>
       <c r="D666" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E666" s="5">
         <v>10</v>
@@ -12626,10 +12626,10 @@
     </row>
     <row r="667" spans="3:7">
       <c r="C667" s="6">
-        <v>12611</v>
+        <v>12711</v>
       </c>
       <c r="D667" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E667" s="5">
         <v>9</v>
@@ -12643,10 +12643,10 @@
     </row>
     <row r="668" spans="3:7">
       <c r="C668" s="6">
-        <v>12612</v>
+        <v>12712</v>
       </c>
       <c r="D668" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E668" s="5">
         <v>10</v>
@@ -12660,10 +12660,10 @@
     </row>
     <row r="669" spans="3:7">
       <c r="C669" s="6">
-        <v>12613</v>
+        <v>12713</v>
       </c>
       <c r="D669" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E669" s="5">
         <v>9</v>
@@ -12677,10 +12677,10 @@
     </row>
     <row r="670" spans="3:7">
       <c r="C670" s="6">
-        <v>12614</v>
+        <v>12714</v>
       </c>
       <c r="D670" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E670" s="5">
         <v>9</v>
@@ -12694,10 +12694,10 @@
     </row>
     <row r="671" spans="3:7">
       <c r="C671" s="6">
-        <v>12615</v>
+        <v>12715</v>
       </c>
       <c r="D671" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E671" s="5">
         <v>9</v>
@@ -12711,10 +12711,10 @@
     </row>
     <row r="672" spans="3:7">
       <c r="C672" s="6">
-        <v>12616</v>
+        <v>12716</v>
       </c>
       <c r="D672" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E672" s="5">
         <v>2</v>
@@ -12728,10 +12728,10 @@
     </row>
     <row r="673" spans="3:7">
       <c r="C673" s="6">
-        <v>12617</v>
+        <v>12717</v>
       </c>
       <c r="D673" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E673" s="3">
         <v>9</v>
@@ -12745,10 +12745,10 @@
     </row>
     <row r="674" spans="3:7">
       <c r="C674" s="6">
-        <v>12618</v>
+        <v>12718</v>
       </c>
       <c r="D674" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E674" s="5">
         <v>9</v>
@@ -12762,10 +12762,10 @@
     </row>
     <row r="675" spans="3:7">
       <c r="C675" s="6">
-        <v>12619</v>
+        <v>12719</v>
       </c>
       <c r="D675" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E675" s="5">
         <v>10</v>
@@ -12779,10 +12779,10 @@
     </row>
     <row r="676" spans="3:7">
       <c r="C676" s="6">
-        <v>12620</v>
+        <v>12720</v>
       </c>
       <c r="D676" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E676" s="5">
         <v>9</v>
@@ -12796,10 +12796,10 @@
     </row>
     <row r="677" spans="3:7">
       <c r="C677" s="6">
-        <v>12621</v>
+        <v>12721</v>
       </c>
       <c r="D677" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E677" s="5">
         <v>5</v>
@@ -12813,10 +12813,10 @@
     </row>
     <row r="678" spans="3:7">
       <c r="C678" s="6">
-        <v>12622</v>
+        <v>12722</v>
       </c>
       <c r="D678" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E678" s="5">
         <v>6</v>
@@ -12830,10 +12830,10 @@
     </row>
     <row r="679" spans="3:7">
       <c r="C679" s="6">
-        <v>12623</v>
+        <v>12723</v>
       </c>
       <c r="D679" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E679" s="5">
         <v>7</v>
@@ -12847,10 +12847,10 @@
     </row>
     <row r="680" spans="3:7">
       <c r="C680" s="6">
-        <v>12624</v>
+        <v>12724</v>
       </c>
       <c r="D680" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E680" s="5">
         <v>8</v>
@@ -12864,10 +12864,10 @@
     </row>
     <row r="681" spans="3:7">
       <c r="C681" s="6">
-        <v>12625</v>
+        <v>12725</v>
       </c>
       <c r="D681" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E681" s="5">
         <v>9</v>
@@ -12884,10 +12884,10 @@
         <v>68</v>
       </c>
       <c r="C683" s="6">
-        <v>12701</v>
+        <v>12801</v>
       </c>
       <c r="D683" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E683" s="5">
         <v>1</v>
@@ -12899,17 +12899,17 @@
         <v>15</v>
       </c>
       <c r="H683" s="3">
-        <v>20375</v>
+        <v>20425</v>
       </c>
     </row>
     <row r="684" spans="1:8">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="6">
-        <v>12702</v>
+        <v>12802</v>
       </c>
       <c r="D684" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E684" s="5">
         <v>1</v>
@@ -12921,15 +12921,15 @@
         <v>16</v>
       </c>
       <c r="H684" s="3">
-        <v>20376</v>
+        <v>20426</v>
       </c>
     </row>
     <row r="685" spans="3:8">
       <c r="C685" s="6">
-        <v>12703</v>
+        <v>12803</v>
       </c>
       <c r="D685" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E685" s="5">
         <v>1</v>
@@ -12941,15 +12941,15 @@
         <v>18</v>
       </c>
       <c r="H685" s="3">
-        <v>20377</v>
+        <v>20427</v>
       </c>
     </row>
     <row r="686" spans="3:8">
       <c r="C686" s="6">
-        <v>12704</v>
+        <v>12804</v>
       </c>
       <c r="D686" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E686" s="3">
         <v>1</v>
@@ -12961,15 +12961,15 @@
         <v>19</v>
       </c>
       <c r="H686" s="3">
-        <v>20378</v>
+        <v>20428</v>
       </c>
     </row>
     <row r="687" spans="3:7">
       <c r="C687" s="6">
-        <v>12705</v>
+        <v>12805</v>
       </c>
       <c r="D687" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E687" s="5">
         <v>3</v>
@@ -12983,10 +12983,10 @@
     </row>
     <row r="688" spans="3:7">
       <c r="C688" s="6">
-        <v>12706</v>
+        <v>12806</v>
       </c>
       <c r="D688" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E688" s="5">
         <v>10</v>
@@ -13000,10 +13000,10 @@
     </row>
     <row r="689" spans="3:7">
       <c r="C689" s="6">
-        <v>12707</v>
+        <v>12807</v>
       </c>
       <c r="D689" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E689" s="5">
         <v>10</v>
@@ -13017,10 +13017,10 @@
     </row>
     <row r="690" spans="3:7">
       <c r="C690" s="6">
-        <v>12708</v>
+        <v>12808</v>
       </c>
       <c r="D690" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E690" s="5">
         <v>10</v>
@@ -13034,10 +13034,10 @@
     </row>
     <row r="691" spans="3:7">
       <c r="C691" s="6">
-        <v>12709</v>
+        <v>12809</v>
       </c>
       <c r="D691" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E691" s="5">
         <v>10</v>
@@ -13051,10 +13051,10 @@
     </row>
     <row r="692" spans="3:7">
       <c r="C692" s="6">
-        <v>12710</v>
+        <v>12810</v>
       </c>
       <c r="D692" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E692" s="5">
         <v>10</v>
@@ -13068,10 +13068,10 @@
     </row>
     <row r="693" spans="3:7">
       <c r="C693" s="6">
-        <v>12711</v>
+        <v>12811</v>
       </c>
       <c r="D693" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E693" s="5">
         <v>9</v>
@@ -13085,10 +13085,10 @@
     </row>
     <row r="694" spans="3:7">
       <c r="C694" s="6">
-        <v>12712</v>
+        <v>12812</v>
       </c>
       <c r="D694" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E694" s="5">
         <v>10</v>
@@ -13102,10 +13102,10 @@
     </row>
     <row r="695" spans="3:7">
       <c r="C695" s="6">
-        <v>12713</v>
+        <v>12813</v>
       </c>
       <c r="D695" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E695" s="5">
         <v>9</v>
@@ -13119,10 +13119,10 @@
     </row>
     <row r="696" spans="3:7">
       <c r="C696" s="6">
-        <v>12714</v>
+        <v>12814</v>
       </c>
       <c r="D696" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E696" s="5">
         <v>9</v>
@@ -13136,10 +13136,10 @@
     </row>
     <row r="697" spans="3:7">
       <c r="C697" s="6">
-        <v>12715</v>
+        <v>12815</v>
       </c>
       <c r="D697" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E697" s="5">
         <v>9</v>
@@ -13153,10 +13153,10 @@
     </row>
     <row r="698" spans="3:7">
       <c r="C698" s="6">
-        <v>12716</v>
+        <v>12816</v>
       </c>
       <c r="D698" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E698" s="5">
         <v>2</v>
@@ -13170,10 +13170,10 @@
     </row>
     <row r="699" spans="3:7">
       <c r="C699" s="6">
-        <v>12717</v>
+        <v>12817</v>
       </c>
       <c r="D699" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E699" s="3">
         <v>9</v>
@@ -13187,10 +13187,10 @@
     </row>
     <row r="700" spans="3:7">
       <c r="C700" s="6">
-        <v>12718</v>
+        <v>12818</v>
       </c>
       <c r="D700" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E700" s="5">
         <v>9</v>
@@ -13204,10 +13204,10 @@
     </row>
     <row r="701" spans="3:7">
       <c r="C701" s="6">
-        <v>12719</v>
+        <v>12819</v>
       </c>
       <c r="D701" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E701" s="5">
         <v>10</v>
@@ -13221,10 +13221,10 @@
     </row>
     <row r="702" spans="3:7">
       <c r="C702" s="6">
-        <v>12720</v>
+        <v>12820</v>
       </c>
       <c r="D702" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E702" s="5">
         <v>9</v>
@@ -13238,10 +13238,10 @@
     </row>
     <row r="703" spans="3:7">
       <c r="C703" s="6">
-        <v>12721</v>
+        <v>12821</v>
       </c>
       <c r="D703" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E703" s="5">
         <v>5</v>
@@ -13255,10 +13255,10 @@
     </row>
     <row r="704" spans="3:7">
       <c r="C704" s="6">
-        <v>12722</v>
+        <v>12822</v>
       </c>
       <c r="D704" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E704" s="5">
         <v>6</v>
@@ -13272,10 +13272,10 @@
     </row>
     <row r="705" spans="3:7">
       <c r="C705" s="6">
-        <v>12723</v>
+        <v>12823</v>
       </c>
       <c r="D705" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E705" s="5">
         <v>7</v>
@@ -13289,10 +13289,10 @@
     </row>
     <row r="706" spans="3:7">
       <c r="C706" s="6">
-        <v>12724</v>
+        <v>12824</v>
       </c>
       <c r="D706" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E706" s="5">
         <v>8</v>
@@ -13306,10 +13306,10 @@
     </row>
     <row r="707" spans="3:7">
       <c r="C707" s="6">
-        <v>12725</v>
+        <v>12825</v>
       </c>
       <c r="D707" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E707" s="5">
         <v>9</v>
@@ -13326,10 +13326,10 @@
         <v>69</v>
       </c>
       <c r="C709" s="6">
-        <v>12801</v>
+        <v>12901</v>
       </c>
       <c r="D709" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E709" s="5">
         <v>1</v>
@@ -13341,17 +13341,17 @@
         <v>15</v>
       </c>
       <c r="H709" s="3">
-        <v>20425</v>
+        <v>20455</v>
       </c>
     </row>
     <row r="710" spans="1:8">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="6">
-        <v>12802</v>
+        <v>12902</v>
       </c>
       <c r="D710" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E710" s="5">
         <v>1</v>
@@ -13363,15 +13363,15 @@
         <v>16</v>
       </c>
       <c r="H710" s="3">
-        <v>20426</v>
+        <v>20456</v>
       </c>
     </row>
     <row r="711" spans="3:8">
       <c r="C711" s="6">
-        <v>12803</v>
+        <v>12903</v>
       </c>
       <c r="D711" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E711" s="5">
         <v>1</v>
@@ -13383,15 +13383,15 @@
         <v>18</v>
       </c>
       <c r="H711" s="3">
-        <v>20427</v>
+        <v>20457</v>
       </c>
     </row>
     <row r="712" spans="3:8">
       <c r="C712" s="6">
-        <v>12804</v>
+        <v>12904</v>
       </c>
       <c r="D712" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E712" s="3">
         <v>1</v>
@@ -13403,15 +13403,15 @@
         <v>19</v>
       </c>
       <c r="H712" s="3">
-        <v>20428</v>
+        <v>20458</v>
       </c>
     </row>
     <row r="713" spans="3:7">
       <c r="C713" s="6">
-        <v>12805</v>
+        <v>12905</v>
       </c>
       <c r="D713" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E713" s="5">
         <v>3</v>
@@ -13425,10 +13425,10 @@
     </row>
     <row r="714" spans="3:7">
       <c r="C714" s="6">
-        <v>12806</v>
+        <v>12906</v>
       </c>
       <c r="D714" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E714" s="5">
         <v>10</v>
@@ -13442,10 +13442,10 @@
     </row>
     <row r="715" spans="3:7">
       <c r="C715" s="6">
-        <v>12807</v>
+        <v>12907</v>
       </c>
       <c r="D715" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E715" s="5">
         <v>10</v>
@@ -13459,10 +13459,10 @@
     </row>
     <row r="716" spans="3:7">
       <c r="C716" s="6">
-        <v>12808</v>
+        <v>12908</v>
       </c>
       <c r="D716" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E716" s="5">
         <v>10</v>
@@ -13476,10 +13476,10 @@
     </row>
     <row r="717" spans="3:7">
       <c r="C717" s="6">
-        <v>12809</v>
+        <v>12909</v>
       </c>
       <c r="D717" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E717" s="5">
         <v>10</v>
@@ -13493,10 +13493,10 @@
     </row>
     <row r="718" spans="3:7">
       <c r="C718" s="6">
-        <v>12810</v>
+        <v>12910</v>
       </c>
       <c r="D718" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E718" s="5">
         <v>10</v>
@@ -13510,10 +13510,10 @@
     </row>
     <row r="719" spans="3:7">
       <c r="C719" s="6">
-        <v>12811</v>
+        <v>12911</v>
       </c>
       <c r="D719" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E719" s="5">
         <v>9</v>
@@ -13527,10 +13527,10 @@
     </row>
     <row r="720" spans="3:7">
       <c r="C720" s="6">
-        <v>12812</v>
+        <v>12912</v>
       </c>
       <c r="D720" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E720" s="5">
         <v>10</v>
@@ -13544,10 +13544,10 @@
     </row>
     <row r="721" spans="3:7">
       <c r="C721" s="6">
-        <v>12813</v>
+        <v>12913</v>
       </c>
       <c r="D721" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E721" s="5">
         <v>9</v>
@@ -13561,10 +13561,10 @@
     </row>
     <row r="722" spans="3:7">
       <c r="C722" s="6">
-        <v>12814</v>
+        <v>12914</v>
       </c>
       <c r="D722" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E722" s="5">
         <v>9</v>
@@ -13578,10 +13578,10 @@
     </row>
     <row r="723" spans="3:7">
       <c r="C723" s="6">
-        <v>12815</v>
+        <v>12915</v>
       </c>
       <c r="D723" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E723" s="5">
         <v>9</v>
@@ -13595,10 +13595,10 @@
     </row>
     <row r="724" spans="3:7">
       <c r="C724" s="6">
-        <v>12816</v>
+        <v>12916</v>
       </c>
       <c r="D724" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E724" s="5">
         <v>2</v>
@@ -13612,10 +13612,10 @@
     </row>
     <row r="725" spans="3:7">
       <c r="C725" s="6">
-        <v>12817</v>
+        <v>12917</v>
       </c>
       <c r="D725" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E725" s="3">
         <v>9</v>
@@ -13629,10 +13629,10 @@
     </row>
     <row r="726" spans="3:7">
       <c r="C726" s="6">
-        <v>12818</v>
+        <v>12918</v>
       </c>
       <c r="D726" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E726" s="5">
         <v>9</v>
@@ -13646,10 +13646,10 @@
     </row>
     <row r="727" spans="3:7">
       <c r="C727" s="6">
-        <v>12819</v>
+        <v>12919</v>
       </c>
       <c r="D727" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E727" s="5">
         <v>10</v>
@@ -13663,10 +13663,10 @@
     </row>
     <row r="728" spans="3:7">
       <c r="C728" s="6">
-        <v>12820</v>
+        <v>12920</v>
       </c>
       <c r="D728" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E728" s="5">
         <v>9</v>
@@ -13680,10 +13680,10 @@
     </row>
     <row r="729" spans="3:7">
       <c r="C729" s="6">
-        <v>12821</v>
+        <v>12921</v>
       </c>
       <c r="D729" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E729" s="5">
         <v>5</v>
@@ -13697,10 +13697,10 @@
     </row>
     <row r="730" spans="3:7">
       <c r="C730" s="6">
-        <v>12822</v>
+        <v>12922</v>
       </c>
       <c r="D730" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E730" s="5">
         <v>6</v>
@@ -13714,10 +13714,10 @@
     </row>
     <row r="731" spans="3:7">
       <c r="C731" s="6">
-        <v>12823</v>
+        <v>12923</v>
       </c>
       <c r="D731" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E731" s="5">
         <v>7</v>
@@ -13731,10 +13731,10 @@
     </row>
     <row r="732" spans="3:7">
       <c r="C732" s="6">
-        <v>12824</v>
+        <v>12924</v>
       </c>
       <c r="D732" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E732" s="5">
         <v>8</v>
@@ -13748,10 +13748,10 @@
     </row>
     <row r="733" spans="3:7">
       <c r="C733" s="6">
-        <v>12825</v>
+        <v>12925</v>
       </c>
       <c r="D733" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E733" s="5">
         <v>9</v>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>#先锋129永恒结界</t>
+  </si>
+  <si>
+    <t>#先锋130巅峰对决</t>
   </si>
   <si>
     <t>Center</t>
@@ -1266,10 +1269,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O733"/>
+  <dimension ref="A3:O759"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A703" workbookViewId="0">
-      <selection activeCell="L709" sqref="L709"/>
+    <sheetView tabSelected="1" topLeftCell="A725" workbookViewId="0">
+      <selection activeCell="H745" sqref="H745"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13760,6 +13763,448 @@
         <v>42</v>
       </c>
       <c r="G733" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8">
+      <c r="A735" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C735" s="6">
+        <v>13001</v>
+      </c>
+      <c r="D735" s="3">
+        <v>130</v>
+      </c>
+      <c r="E735" s="5">
+        <v>1</v>
+      </c>
+      <c r="F735" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G735" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H735" s="3">
+        <v>20505</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8">
+      <c r="A736" s="1"/>
+      <c r="B736" s="1"/>
+      <c r="C736" s="6">
+        <v>13002</v>
+      </c>
+      <c r="D736" s="3">
+        <v>130</v>
+      </c>
+      <c r="E736" s="5">
+        <v>1</v>
+      </c>
+      <c r="F736" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G736" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H736" s="3">
+        <v>20506</v>
+      </c>
+    </row>
+    <row r="737" spans="3:8">
+      <c r="C737" s="6">
+        <v>13003</v>
+      </c>
+      <c r="D737" s="3">
+        <v>130</v>
+      </c>
+      <c r="E737" s="5">
+        <v>1</v>
+      </c>
+      <c r="F737" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G737" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H737" s="3">
+        <v>20507</v>
+      </c>
+    </row>
+    <row r="738" spans="3:8">
+      <c r="C738" s="6">
+        <v>13004</v>
+      </c>
+      <c r="D738" s="3">
+        <v>130</v>
+      </c>
+      <c r="E738" s="3">
+        <v>1</v>
+      </c>
+      <c r="F738" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G738" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H738" s="3">
+        <v>20508</v>
+      </c>
+    </row>
+    <row r="739" spans="3:7">
+      <c r="C739" s="6">
+        <v>13005</v>
+      </c>
+      <c r="D739" s="3">
+        <v>130</v>
+      </c>
+      <c r="E739" s="5">
+        <v>3</v>
+      </c>
+      <c r="F739" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G739" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="740" spans="3:7">
+      <c r="C740" s="6">
+        <v>13006</v>
+      </c>
+      <c r="D740" s="3">
+        <v>130</v>
+      </c>
+      <c r="E740" s="5">
+        <v>10</v>
+      </c>
+      <c r="F740" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G740" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="741" spans="3:7">
+      <c r="C741" s="6">
+        <v>13007</v>
+      </c>
+      <c r="D741" s="3">
+        <v>130</v>
+      </c>
+      <c r="E741" s="5">
+        <v>10</v>
+      </c>
+      <c r="F741" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G741" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="742" spans="3:7">
+      <c r="C742" s="6">
+        <v>13008</v>
+      </c>
+      <c r="D742" s="3">
+        <v>130</v>
+      </c>
+      <c r="E742" s="5">
+        <v>10</v>
+      </c>
+      <c r="F742" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G742" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="743" spans="3:7">
+      <c r="C743" s="6">
+        <v>13009</v>
+      </c>
+      <c r="D743" s="3">
+        <v>130</v>
+      </c>
+      <c r="E743" s="5">
+        <v>10</v>
+      </c>
+      <c r="F743" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G743" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="744" spans="3:7">
+      <c r="C744" s="6">
+        <v>13010</v>
+      </c>
+      <c r="D744" s="3">
+        <v>130</v>
+      </c>
+      <c r="E744" s="5">
+        <v>10</v>
+      </c>
+      <c r="F744" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G744" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="745" spans="3:7">
+      <c r="C745" s="6">
+        <v>13011</v>
+      </c>
+      <c r="D745" s="3">
+        <v>130</v>
+      </c>
+      <c r="E745" s="5">
+        <v>9</v>
+      </c>
+      <c r="F745" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G745" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="746" spans="3:7">
+      <c r="C746" s="6">
+        <v>13012</v>
+      </c>
+      <c r="D746" s="3">
+        <v>130</v>
+      </c>
+      <c r="E746" s="5">
+        <v>10</v>
+      </c>
+      <c r="F746" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G746" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="747" spans="3:7">
+      <c r="C747" s="6">
+        <v>13013</v>
+      </c>
+      <c r="D747" s="3">
+        <v>130</v>
+      </c>
+      <c r="E747" s="5">
+        <v>9</v>
+      </c>
+      <c r="F747" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G747" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="748" spans="3:7">
+      <c r="C748" s="6">
+        <v>13014</v>
+      </c>
+      <c r="D748" s="3">
+        <v>130</v>
+      </c>
+      <c r="E748" s="5">
+        <v>9</v>
+      </c>
+      <c r="F748" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G748" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="749" spans="3:7">
+      <c r="C749" s="6">
+        <v>13015</v>
+      </c>
+      <c r="D749" s="3">
+        <v>130</v>
+      </c>
+      <c r="E749" s="5">
+        <v>9</v>
+      </c>
+      <c r="F749" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G749" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="750" spans="3:7">
+      <c r="C750" s="6">
+        <v>13016</v>
+      </c>
+      <c r="D750" s="3">
+        <v>130</v>
+      </c>
+      <c r="E750" s="5">
+        <v>2</v>
+      </c>
+      <c r="F750" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G750" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="751" spans="3:7">
+      <c r="C751" s="6">
+        <v>13017</v>
+      </c>
+      <c r="D751" s="3">
+        <v>130</v>
+      </c>
+      <c r="E751" s="3">
+        <v>9</v>
+      </c>
+      <c r="F751" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G751" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="752" spans="3:7">
+      <c r="C752" s="6">
+        <v>13018</v>
+      </c>
+      <c r="D752" s="3">
+        <v>130</v>
+      </c>
+      <c r="E752" s="5">
+        <v>9</v>
+      </c>
+      <c r="F752" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G752" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="753" spans="3:7">
+      <c r="C753" s="6">
+        <v>13019</v>
+      </c>
+      <c r="D753" s="3">
+        <v>130</v>
+      </c>
+      <c r="E753" s="5">
+        <v>10</v>
+      </c>
+      <c r="F753" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G753" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="754" spans="3:7">
+      <c r="C754" s="6">
+        <v>13020</v>
+      </c>
+      <c r="D754" s="3">
+        <v>130</v>
+      </c>
+      <c r="E754" s="5">
+        <v>9</v>
+      </c>
+      <c r="F754" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G754" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="755" spans="3:7">
+      <c r="C755" s="6">
+        <v>13021</v>
+      </c>
+      <c r="D755" s="3">
+        <v>130</v>
+      </c>
+      <c r="E755" s="5">
+        <v>5</v>
+      </c>
+      <c r="F755" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G755" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="756" spans="3:7">
+      <c r="C756" s="6">
+        <v>13022</v>
+      </c>
+      <c r="D756" s="3">
+        <v>130</v>
+      </c>
+      <c r="E756" s="5">
+        <v>6</v>
+      </c>
+      <c r="F756" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G756" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="757" spans="3:7">
+      <c r="C757" s="6">
+        <v>13023</v>
+      </c>
+      <c r="D757" s="3">
+        <v>130</v>
+      </c>
+      <c r="E757" s="5">
+        <v>7</v>
+      </c>
+      <c r="F757" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G757" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="758" spans="3:7">
+      <c r="C758" s="6">
+        <v>13024</v>
+      </c>
+      <c r="D758" s="3">
+        <v>130</v>
+      </c>
+      <c r="E758" s="5">
+        <v>8</v>
+      </c>
+      <c r="F758" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G758" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="759" spans="3:7">
+      <c r="C759" s="6">
+        <v>13025</v>
+      </c>
+      <c r="D759" s="3">
+        <v>130</v>
+      </c>
+      <c r="E759" s="5">
+        <v>9</v>
+      </c>
+      <c r="F759" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G759" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13885,10 +14330,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -13903,10 +14348,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -13921,10 +14366,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -13939,10 +14384,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" s="5">
         <v>20304</v>
@@ -13959,10 +14404,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -14062,10 +14507,10 @@
         <v>203</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="76">
   <si>
     <t>Id</t>
   </si>
@@ -190,9 +190,6 @@
     <t>#先锋89区诗情画意</t>
   </si>
   <si>
-    <t>#先锋93区梦想之旅</t>
-  </si>
-  <si>
     <t>#先锋97区萤火森林</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>#先锋113区纵横驰骋</t>
   </si>
   <si>
-    <t>#先锋115区九州四海</t>
-  </si>
-  <si>
     <t>#先锋117区朝花夕拾</t>
   </si>
   <si>
@@ -221,9 +215,6 @@
   </si>
   <si>
     <t>#先锋123区春花秋月</t>
-  </si>
-  <si>
-    <t>#先锋124光明之旅</t>
   </si>
   <si>
     <t>#先锋125断桥残雪</t>
@@ -242,6 +233,9 @@
   </si>
   <si>
     <t>#先锋130巅峰对决</t>
+  </si>
+  <si>
+    <t>#先锋131花满楼</t>
   </si>
   <si>
     <t>Center</t>
@@ -1269,10 +1263,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O759"/>
+  <dimension ref="A3:O707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A725" workbookViewId="0">
-      <selection activeCell="H745" sqref="H745"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="K302" sqref="K302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6257,10 +6251,10 @@
         <v>53</v>
       </c>
       <c r="C293" s="6">
-        <v>9301</v>
+        <v>9701</v>
       </c>
       <c r="D293" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E293" s="5">
         <v>1</v>
@@ -6272,17 +6266,17 @@
         <v>15</v>
       </c>
       <c r="H293" s="3">
-        <v>20445</v>
+        <v>20555</v>
       </c>
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="6">
-        <v>9302</v>
+        <v>9702</v>
       </c>
       <c r="D294" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E294" s="5">
         <v>1</v>
@@ -6294,15 +6288,15 @@
         <v>16</v>
       </c>
       <c r="H294" s="3">
-        <v>20446</v>
+        <v>20556</v>
       </c>
     </row>
     <row r="295" spans="3:8">
       <c r="C295" s="6">
-        <v>9303</v>
+        <v>9703</v>
       </c>
       <c r="D295" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E295" s="5">
         <v>1</v>
@@ -6314,15 +6308,15 @@
         <v>18</v>
       </c>
       <c r="H295" s="3">
-        <v>20447</v>
+        <v>20557</v>
       </c>
     </row>
     <row r="296" spans="3:8">
       <c r="C296" s="6">
-        <v>9304</v>
+        <v>9704</v>
       </c>
       <c r="D296" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E296" s="3">
         <v>1</v>
@@ -6334,15 +6328,15 @@
         <v>19</v>
       </c>
       <c r="H296" s="3">
-        <v>20448</v>
+        <v>20558</v>
       </c>
     </row>
     <row r="297" spans="3:7">
       <c r="C297" s="6">
-        <v>9305</v>
+        <v>9705</v>
       </c>
       <c r="D297" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E297" s="5">
         <v>3</v>
@@ -6356,10 +6350,10 @@
     </row>
     <row r="298" spans="3:7">
       <c r="C298" s="6">
-        <v>9306</v>
+        <v>9706</v>
       </c>
       <c r="D298" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E298" s="5">
         <v>10</v>
@@ -6373,10 +6367,10 @@
     </row>
     <row r="299" spans="3:7">
       <c r="C299" s="6">
-        <v>9307</v>
+        <v>9707</v>
       </c>
       <c r="D299" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E299" s="5">
         <v>10</v>
@@ -6390,10 +6384,10 @@
     </row>
     <row r="300" spans="3:7">
       <c r="C300" s="6">
-        <v>9308</v>
+        <v>9708</v>
       </c>
       <c r="D300" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E300" s="5">
         <v>10</v>
@@ -6407,10 +6401,10 @@
     </row>
     <row r="301" spans="3:7">
       <c r="C301" s="6">
-        <v>9309</v>
+        <v>9709</v>
       </c>
       <c r="D301" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E301" s="5">
         <v>10</v>
@@ -6424,10 +6418,10 @@
     </row>
     <row r="302" spans="3:7">
       <c r="C302" s="6">
-        <v>9310</v>
+        <v>9710</v>
       </c>
       <c r="D302" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E302" s="5">
         <v>10</v>
@@ -6441,10 +6435,10 @@
     </row>
     <row r="303" spans="3:7">
       <c r="C303" s="6">
-        <v>9311</v>
+        <v>9711</v>
       </c>
       <c r="D303" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E303" s="5">
         <v>9</v>
@@ -6458,10 +6452,10 @@
     </row>
     <row r="304" spans="3:7">
       <c r="C304" s="6">
-        <v>9312</v>
+        <v>9712</v>
       </c>
       <c r="D304" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E304" s="5">
         <v>10</v>
@@ -6475,10 +6469,10 @@
     </row>
     <row r="305" spans="3:7">
       <c r="C305" s="6">
-        <v>9313</v>
+        <v>9713</v>
       </c>
       <c r="D305" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E305" s="5">
         <v>9</v>
@@ -6492,10 +6486,10 @@
     </row>
     <row r="306" spans="3:7">
       <c r="C306" s="6">
-        <v>9314</v>
+        <v>9714</v>
       </c>
       <c r="D306" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E306" s="5">
         <v>9</v>
@@ -6509,10 +6503,10 @@
     </row>
     <row r="307" spans="3:7">
       <c r="C307" s="6">
-        <v>9315</v>
+        <v>9715</v>
       </c>
       <c r="D307" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E307" s="5">
         <v>9</v>
@@ -6526,10 +6520,10 @@
     </row>
     <row r="308" spans="3:7">
       <c r="C308" s="6">
-        <v>9316</v>
+        <v>9716</v>
       </c>
       <c r="D308" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E308" s="5">
         <v>2</v>
@@ -6543,10 +6537,10 @@
     </row>
     <row r="309" spans="3:7">
       <c r="C309" s="6">
-        <v>9317</v>
+        <v>9717</v>
       </c>
       <c r="D309" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E309" s="3">
         <v>9</v>
@@ -6560,10 +6554,10 @@
     </row>
     <row r="310" spans="3:7">
       <c r="C310" s="6">
-        <v>9318</v>
+        <v>9718</v>
       </c>
       <c r="D310" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E310" s="5">
         <v>9</v>
@@ -6577,10 +6571,10 @@
     </row>
     <row r="311" spans="3:7">
       <c r="C311" s="6">
-        <v>9319</v>
+        <v>9719</v>
       </c>
       <c r="D311" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E311" s="5">
         <v>10</v>
@@ -6594,10 +6588,10 @@
     </row>
     <row r="312" spans="3:7">
       <c r="C312" s="6">
-        <v>9320</v>
+        <v>9720</v>
       </c>
       <c r="D312" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E312" s="5">
         <v>9</v>
@@ -6611,10 +6605,10 @@
     </row>
     <row r="313" spans="3:7">
       <c r="C313" s="6">
-        <v>9321</v>
+        <v>9721</v>
       </c>
       <c r="D313" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E313" s="5">
         <v>5</v>
@@ -6628,10 +6622,10 @@
     </row>
     <row r="314" spans="3:7">
       <c r="C314" s="6">
-        <v>9322</v>
+        <v>9722</v>
       </c>
       <c r="D314" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E314" s="5">
         <v>6</v>
@@ -6645,10 +6639,10 @@
     </row>
     <row r="315" spans="3:7">
       <c r="C315" s="6">
-        <v>9323</v>
+        <v>9723</v>
       </c>
       <c r="D315" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E315" s="5">
         <v>7</v>
@@ -6662,10 +6656,10 @@
     </row>
     <row r="316" spans="3:7">
       <c r="C316" s="6">
-        <v>9324</v>
+        <v>9724</v>
       </c>
       <c r="D316" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E316" s="5">
         <v>8</v>
@@ -6679,10 +6673,10 @@
     </row>
     <row r="317" spans="3:7">
       <c r="C317" s="6">
-        <v>9325</v>
+        <v>9725</v>
       </c>
       <c r="D317" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E317" s="5">
         <v>9</v>
@@ -6699,10 +6693,10 @@
         <v>54</v>
       </c>
       <c r="C319" s="6">
-        <v>9701</v>
+        <v>10101</v>
       </c>
       <c r="D319" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E319" s="5">
         <v>1</v>
@@ -6714,17 +6708,17 @@
         <v>15</v>
       </c>
       <c r="H319" s="3">
-        <v>20555</v>
+        <v>20405</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="6">
-        <v>9702</v>
+        <v>10102</v>
       </c>
       <c r="D320" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E320" s="5">
         <v>1</v>
@@ -6736,15 +6730,15 @@
         <v>16</v>
       </c>
       <c r="H320" s="3">
-        <v>20556</v>
+        <v>20406</v>
       </c>
     </row>
     <row r="321" spans="3:8">
       <c r="C321" s="6">
-        <v>9703</v>
+        <v>10103</v>
       </c>
       <c r="D321" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E321" s="5">
         <v>1</v>
@@ -6756,15 +6750,15 @@
         <v>18</v>
       </c>
       <c r="H321" s="3">
-        <v>20557</v>
+        <v>20407</v>
       </c>
     </row>
     <row r="322" spans="3:8">
       <c r="C322" s="6">
-        <v>9704</v>
+        <v>10104</v>
       </c>
       <c r="D322" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E322" s="3">
         <v>1</v>
@@ -6776,15 +6770,15 @@
         <v>19</v>
       </c>
       <c r="H322" s="3">
-        <v>20558</v>
+        <v>20408</v>
       </c>
     </row>
     <row r="323" spans="3:7">
       <c r="C323" s="6">
-        <v>9705</v>
+        <v>10105</v>
       </c>
       <c r="D323" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E323" s="5">
         <v>3</v>
@@ -6798,10 +6792,10 @@
     </row>
     <row r="324" spans="3:7">
       <c r="C324" s="6">
-        <v>9706</v>
+        <v>10106</v>
       </c>
       <c r="D324" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E324" s="5">
         <v>10</v>
@@ -6815,10 +6809,10 @@
     </row>
     <row r="325" spans="3:7">
       <c r="C325" s="6">
-        <v>9707</v>
+        <v>10107</v>
       </c>
       <c r="D325" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E325" s="5">
         <v>10</v>
@@ -6832,10 +6826,10 @@
     </row>
     <row r="326" spans="3:7">
       <c r="C326" s="6">
-        <v>9708</v>
+        <v>10108</v>
       </c>
       <c r="D326" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E326" s="5">
         <v>10</v>
@@ -6849,10 +6843,10 @@
     </row>
     <row r="327" spans="3:7">
       <c r="C327" s="6">
-        <v>9709</v>
+        <v>10109</v>
       </c>
       <c r="D327" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E327" s="5">
         <v>10</v>
@@ -6866,10 +6860,10 @@
     </row>
     <row r="328" spans="3:7">
       <c r="C328" s="6">
-        <v>9710</v>
+        <v>10110</v>
       </c>
       <c r="D328" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E328" s="5">
         <v>10</v>
@@ -6883,10 +6877,10 @@
     </row>
     <row r="329" spans="3:7">
       <c r="C329" s="6">
-        <v>9711</v>
+        <v>10111</v>
       </c>
       <c r="D329" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E329" s="5">
         <v>9</v>
@@ -6900,10 +6894,10 @@
     </row>
     <row r="330" spans="3:7">
       <c r="C330" s="6">
-        <v>9712</v>
+        <v>10112</v>
       </c>
       <c r="D330" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E330" s="5">
         <v>10</v>
@@ -6917,10 +6911,10 @@
     </row>
     <row r="331" spans="3:7">
       <c r="C331" s="6">
-        <v>9713</v>
+        <v>10113</v>
       </c>
       <c r="D331" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E331" s="5">
         <v>9</v>
@@ -6934,10 +6928,10 @@
     </row>
     <row r="332" spans="3:7">
       <c r="C332" s="6">
-        <v>9714</v>
+        <v>10114</v>
       </c>
       <c r="D332" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E332" s="5">
         <v>9</v>
@@ -6951,10 +6945,10 @@
     </row>
     <row r="333" spans="3:7">
       <c r="C333" s="6">
-        <v>9715</v>
+        <v>10115</v>
       </c>
       <c r="D333" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E333" s="5">
         <v>9</v>
@@ -6968,10 +6962,10 @@
     </row>
     <row r="334" spans="3:7">
       <c r="C334" s="6">
-        <v>9716</v>
+        <v>10116</v>
       </c>
       <c r="D334" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E334" s="5">
         <v>2</v>
@@ -6985,10 +6979,10 @@
     </row>
     <row r="335" spans="3:7">
       <c r="C335" s="6">
-        <v>9717</v>
+        <v>10117</v>
       </c>
       <c r="D335" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E335" s="3">
         <v>9</v>
@@ -7002,10 +6996,10 @@
     </row>
     <row r="336" spans="3:7">
       <c r="C336" s="6">
-        <v>9718</v>
+        <v>10118</v>
       </c>
       <c r="D336" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E336" s="5">
         <v>9</v>
@@ -7019,10 +7013,10 @@
     </row>
     <row r="337" spans="3:7">
       <c r="C337" s="6">
-        <v>9719</v>
+        <v>10119</v>
       </c>
       <c r="D337" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E337" s="5">
         <v>10</v>
@@ -7036,10 +7030,10 @@
     </row>
     <row r="338" spans="3:7">
       <c r="C338" s="6">
-        <v>9720</v>
+        <v>10120</v>
       </c>
       <c r="D338" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E338" s="5">
         <v>9</v>
@@ -7053,10 +7047,10 @@
     </row>
     <row r="339" spans="3:7">
       <c r="C339" s="6">
-        <v>9721</v>
+        <v>10121</v>
       </c>
       <c r="D339" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E339" s="5">
         <v>5</v>
@@ -7070,10 +7064,10 @@
     </row>
     <row r="340" spans="3:7">
       <c r="C340" s="6">
-        <v>9722</v>
+        <v>10122</v>
       </c>
       <c r="D340" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E340" s="5">
         <v>6</v>
@@ -7087,10 +7081,10 @@
     </row>
     <row r="341" spans="3:7">
       <c r="C341" s="6">
-        <v>9723</v>
+        <v>10123</v>
       </c>
       <c r="D341" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E341" s="5">
         <v>7</v>
@@ -7104,10 +7098,10 @@
     </row>
     <row r="342" spans="3:7">
       <c r="C342" s="6">
-        <v>9724</v>
+        <v>10124</v>
       </c>
       <c r="D342" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E342" s="5">
         <v>8</v>
@@ -7121,10 +7115,10 @@
     </row>
     <row r="343" spans="3:7">
       <c r="C343" s="6">
-        <v>9725</v>
+        <v>10125</v>
       </c>
       <c r="D343" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E343" s="5">
         <v>9</v>
@@ -7141,10 +7135,10 @@
         <v>55</v>
       </c>
       <c r="C345" s="6">
-        <v>10101</v>
+        <v>10501</v>
       </c>
       <c r="D345" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E345" s="5">
         <v>1</v>
@@ -7156,17 +7150,17 @@
         <v>15</v>
       </c>
       <c r="H345" s="3">
-        <v>20405</v>
+        <v>20395</v>
       </c>
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="6">
-        <v>10102</v>
+        <v>10502</v>
       </c>
       <c r="D346" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E346" s="5">
         <v>1</v>
@@ -7178,15 +7172,15 @@
         <v>16</v>
       </c>
       <c r="H346" s="3">
-        <v>20406</v>
+        <v>20396</v>
       </c>
     </row>
     <row r="347" spans="3:8">
       <c r="C347" s="6">
-        <v>10103</v>
+        <v>10503</v>
       </c>
       <c r="D347" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E347" s="5">
         <v>1</v>
@@ -7198,15 +7192,15 @@
         <v>18</v>
       </c>
       <c r="H347" s="3">
-        <v>20407</v>
+        <v>20397</v>
       </c>
     </row>
     <row r="348" spans="3:8">
       <c r="C348" s="6">
-        <v>10104</v>
+        <v>10504</v>
       </c>
       <c r="D348" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E348" s="3">
         <v>1</v>
@@ -7218,15 +7212,15 @@
         <v>19</v>
       </c>
       <c r="H348" s="3">
-        <v>20408</v>
+        <v>20398</v>
       </c>
     </row>
     <row r="349" spans="3:7">
       <c r="C349" s="6">
-        <v>10105</v>
+        <v>10505</v>
       </c>
       <c r="D349" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E349" s="5">
         <v>3</v>
@@ -7240,10 +7234,10 @@
     </row>
     <row r="350" spans="3:7">
       <c r="C350" s="6">
-        <v>10106</v>
+        <v>10506</v>
       </c>
       <c r="D350" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E350" s="5">
         <v>10</v>
@@ -7257,10 +7251,10 @@
     </row>
     <row r="351" spans="3:7">
       <c r="C351" s="6">
-        <v>10107</v>
+        <v>10507</v>
       </c>
       <c r="D351" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E351" s="5">
         <v>10</v>
@@ -7274,10 +7268,10 @@
     </row>
     <row r="352" spans="3:7">
       <c r="C352" s="6">
-        <v>10108</v>
+        <v>10508</v>
       </c>
       <c r="D352" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E352" s="5">
         <v>10</v>
@@ -7291,10 +7285,10 @@
     </row>
     <row r="353" spans="3:7">
       <c r="C353" s="6">
-        <v>10109</v>
+        <v>10509</v>
       </c>
       <c r="D353" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E353" s="5">
         <v>10</v>
@@ -7308,10 +7302,10 @@
     </row>
     <row r="354" spans="3:7">
       <c r="C354" s="6">
-        <v>10110</v>
+        <v>10510</v>
       </c>
       <c r="D354" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E354" s="5">
         <v>10</v>
@@ -7325,10 +7319,10 @@
     </row>
     <row r="355" spans="3:7">
       <c r="C355" s="6">
-        <v>10111</v>
+        <v>10511</v>
       </c>
       <c r="D355" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E355" s="5">
         <v>9</v>
@@ -7342,10 +7336,10 @@
     </row>
     <row r="356" spans="3:7">
       <c r="C356" s="6">
-        <v>10112</v>
+        <v>10512</v>
       </c>
       <c r="D356" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E356" s="5">
         <v>10</v>
@@ -7359,10 +7353,10 @@
     </row>
     <row r="357" spans="3:7">
       <c r="C357" s="6">
-        <v>10113</v>
+        <v>10513</v>
       </c>
       <c r="D357" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E357" s="5">
         <v>9</v>
@@ -7376,10 +7370,10 @@
     </row>
     <row r="358" spans="3:7">
       <c r="C358" s="6">
-        <v>10114</v>
+        <v>10514</v>
       </c>
       <c r="D358" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E358" s="5">
         <v>9</v>
@@ -7393,10 +7387,10 @@
     </row>
     <row r="359" spans="3:7">
       <c r="C359" s="6">
-        <v>10115</v>
+        <v>10515</v>
       </c>
       <c r="D359" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E359" s="5">
         <v>9</v>
@@ -7410,10 +7404,10 @@
     </row>
     <row r="360" spans="3:7">
       <c r="C360" s="6">
-        <v>10116</v>
+        <v>10516</v>
       </c>
       <c r="D360" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E360" s="5">
         <v>2</v>
@@ -7427,10 +7421,10 @@
     </row>
     <row r="361" spans="3:7">
       <c r="C361" s="6">
-        <v>10117</v>
+        <v>10517</v>
       </c>
       <c r="D361" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E361" s="3">
         <v>9</v>
@@ -7444,10 +7438,10 @@
     </row>
     <row r="362" spans="3:7">
       <c r="C362" s="6">
-        <v>10118</v>
+        <v>10518</v>
       </c>
       <c r="D362" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E362" s="5">
         <v>9</v>
@@ -7461,10 +7455,10 @@
     </row>
     <row r="363" spans="3:7">
       <c r="C363" s="6">
-        <v>10119</v>
+        <v>10519</v>
       </c>
       <c r="D363" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E363" s="5">
         <v>10</v>
@@ -7478,10 +7472,10 @@
     </row>
     <row r="364" spans="3:7">
       <c r="C364" s="6">
-        <v>10120</v>
+        <v>10520</v>
       </c>
       <c r="D364" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E364" s="5">
         <v>9</v>
@@ -7495,10 +7489,10 @@
     </row>
     <row r="365" spans="3:7">
       <c r="C365" s="6">
-        <v>10121</v>
+        <v>10521</v>
       </c>
       <c r="D365" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E365" s="5">
         <v>5</v>
@@ -7512,10 +7506,10 @@
     </row>
     <row r="366" spans="3:7">
       <c r="C366" s="6">
-        <v>10122</v>
+        <v>10522</v>
       </c>
       <c r="D366" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E366" s="5">
         <v>6</v>
@@ -7529,10 +7523,10 @@
     </row>
     <row r="367" spans="3:7">
       <c r="C367" s="6">
-        <v>10123</v>
+        <v>10523</v>
       </c>
       <c r="D367" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E367" s="5">
         <v>7</v>
@@ -7546,10 +7540,10 @@
     </row>
     <row r="368" spans="3:7">
       <c r="C368" s="6">
-        <v>10124</v>
+        <v>10524</v>
       </c>
       <c r="D368" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E368" s="5">
         <v>8</v>
@@ -7563,10 +7557,10 @@
     </row>
     <row r="369" spans="3:7">
       <c r="C369" s="6">
-        <v>10125</v>
+        <v>10525</v>
       </c>
       <c r="D369" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E369" s="5">
         <v>9</v>
@@ -7583,10 +7577,10 @@
         <v>56</v>
       </c>
       <c r="C371" s="6">
-        <v>10501</v>
+        <v>10901</v>
       </c>
       <c r="D371" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E371" s="5">
         <v>1</v>
@@ -7598,17 +7592,17 @@
         <v>15</v>
       </c>
       <c r="H371" s="3">
-        <v>20395</v>
+        <v>20475</v>
       </c>
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="6">
-        <v>10502</v>
+        <v>10902</v>
       </c>
       <c r="D372" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E372" s="5">
         <v>1</v>
@@ -7620,15 +7614,15 @@
         <v>16</v>
       </c>
       <c r="H372" s="3">
-        <v>20396</v>
+        <v>20476</v>
       </c>
     </row>
     <row r="373" spans="3:8">
       <c r="C373" s="6">
-        <v>10503</v>
+        <v>10903</v>
       </c>
       <c r="D373" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E373" s="5">
         <v>1</v>
@@ -7640,15 +7634,15 @@
         <v>18</v>
       </c>
       <c r="H373" s="3">
-        <v>20397</v>
+        <v>20477</v>
       </c>
     </row>
     <row r="374" spans="3:8">
       <c r="C374" s="6">
-        <v>10504</v>
+        <v>10904</v>
       </c>
       <c r="D374" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E374" s="3">
         <v>1</v>
@@ -7660,15 +7654,15 @@
         <v>19</v>
       </c>
       <c r="H374" s="3">
-        <v>20398</v>
+        <v>20478</v>
       </c>
     </row>
     <row r="375" spans="3:7">
       <c r="C375" s="6">
-        <v>10505</v>
+        <v>10905</v>
       </c>
       <c r="D375" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E375" s="5">
         <v>3</v>
@@ -7682,10 +7676,10 @@
     </row>
     <row r="376" spans="3:7">
       <c r="C376" s="6">
-        <v>10506</v>
+        <v>10906</v>
       </c>
       <c r="D376" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E376" s="5">
         <v>10</v>
@@ -7699,10 +7693,10 @@
     </row>
     <row r="377" spans="3:7">
       <c r="C377" s="6">
-        <v>10507</v>
+        <v>10907</v>
       </c>
       <c r="D377" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E377" s="5">
         <v>10</v>
@@ -7716,10 +7710,10 @@
     </row>
     <row r="378" spans="3:7">
       <c r="C378" s="6">
-        <v>10508</v>
+        <v>10908</v>
       </c>
       <c r="D378" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E378" s="5">
         <v>10</v>
@@ -7733,10 +7727,10 @@
     </row>
     <row r="379" spans="3:7">
       <c r="C379" s="6">
-        <v>10509</v>
+        <v>10909</v>
       </c>
       <c r="D379" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E379" s="5">
         <v>10</v>
@@ -7750,10 +7744,10 @@
     </row>
     <row r="380" spans="3:7">
       <c r="C380" s="6">
-        <v>10510</v>
+        <v>10910</v>
       </c>
       <c r="D380" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E380" s="5">
         <v>10</v>
@@ -7767,10 +7761,10 @@
     </row>
     <row r="381" spans="3:7">
       <c r="C381" s="6">
-        <v>10511</v>
+        <v>10911</v>
       </c>
       <c r="D381" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E381" s="5">
         <v>9</v>
@@ -7784,10 +7778,10 @@
     </row>
     <row r="382" spans="3:7">
       <c r="C382" s="6">
-        <v>10512</v>
+        <v>10912</v>
       </c>
       <c r="D382" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E382" s="5">
         <v>10</v>
@@ -7801,10 +7795,10 @@
     </row>
     <row r="383" spans="3:7">
       <c r="C383" s="6">
-        <v>10513</v>
+        <v>10913</v>
       </c>
       <c r="D383" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E383" s="5">
         <v>9</v>
@@ -7818,10 +7812,10 @@
     </row>
     <row r="384" spans="3:7">
       <c r="C384" s="6">
-        <v>10514</v>
+        <v>10914</v>
       </c>
       <c r="D384" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E384" s="5">
         <v>9</v>
@@ -7835,10 +7829,10 @@
     </row>
     <row r="385" spans="3:7">
       <c r="C385" s="6">
-        <v>10515</v>
+        <v>10915</v>
       </c>
       <c r="D385" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E385" s="5">
         <v>9</v>
@@ -7852,10 +7846,10 @@
     </row>
     <row r="386" spans="3:7">
       <c r="C386" s="6">
-        <v>10516</v>
+        <v>10916</v>
       </c>
       <c r="D386" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E386" s="5">
         <v>2</v>
@@ -7869,10 +7863,10 @@
     </row>
     <row r="387" spans="3:7">
       <c r="C387" s="6">
-        <v>10517</v>
+        <v>10917</v>
       </c>
       <c r="D387" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E387" s="3">
         <v>9</v>
@@ -7886,10 +7880,10 @@
     </row>
     <row r="388" spans="3:7">
       <c r="C388" s="6">
-        <v>10518</v>
+        <v>10918</v>
       </c>
       <c r="D388" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E388" s="5">
         <v>9</v>
@@ -7903,10 +7897,10 @@
     </row>
     <row r="389" spans="3:7">
       <c r="C389" s="6">
-        <v>10519</v>
+        <v>10919</v>
       </c>
       <c r="D389" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E389" s="5">
         <v>10</v>
@@ -7920,10 +7914,10 @@
     </row>
     <row r="390" spans="3:7">
       <c r="C390" s="6">
-        <v>10520</v>
+        <v>10920</v>
       </c>
       <c r="D390" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E390" s="5">
         <v>9</v>
@@ -7937,10 +7931,10 @@
     </row>
     <row r="391" spans="3:7">
       <c r="C391" s="6">
-        <v>10521</v>
+        <v>10921</v>
       </c>
       <c r="D391" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E391" s="5">
         <v>5</v>
@@ -7954,10 +7948,10 @@
     </row>
     <row r="392" spans="3:7">
       <c r="C392" s="6">
-        <v>10522</v>
+        <v>10922</v>
       </c>
       <c r="D392" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E392" s="5">
         <v>6</v>
@@ -7971,10 +7965,10 @@
     </row>
     <row r="393" spans="3:7">
       <c r="C393" s="6">
-        <v>10523</v>
+        <v>10923</v>
       </c>
       <c r="D393" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E393" s="5">
         <v>7</v>
@@ -7988,10 +7982,10 @@
     </row>
     <row r="394" spans="3:7">
       <c r="C394" s="6">
-        <v>10524</v>
+        <v>10924</v>
       </c>
       <c r="D394" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E394" s="5">
         <v>8</v>
@@ -8005,10 +7999,10 @@
     </row>
     <row r="395" spans="3:7">
       <c r="C395" s="6">
-        <v>10525</v>
+        <v>10925</v>
       </c>
       <c r="D395" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E395" s="5">
         <v>9</v>
@@ -8025,10 +8019,10 @@
         <v>57</v>
       </c>
       <c r="C397" s="6">
-        <v>10901</v>
+        <v>11301</v>
       </c>
       <c r="D397" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E397" s="5">
         <v>1</v>
@@ -8040,17 +8034,17 @@
         <v>15</v>
       </c>
       <c r="H397" s="3">
-        <v>20475</v>
+        <v>20545</v>
       </c>
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="6">
-        <v>10902</v>
+        <v>11302</v>
       </c>
       <c r="D398" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E398" s="5">
         <v>1</v>
@@ -8062,15 +8056,15 @@
         <v>16</v>
       </c>
       <c r="H398" s="3">
-        <v>20476</v>
+        <v>20546</v>
       </c>
     </row>
     <row r="399" spans="3:8">
       <c r="C399" s="6">
-        <v>10903</v>
+        <v>11303</v>
       </c>
       <c r="D399" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E399" s="5">
         <v>1</v>
@@ -8082,15 +8076,15 @@
         <v>18</v>
       </c>
       <c r="H399" s="3">
-        <v>20477</v>
+        <v>20547</v>
       </c>
     </row>
     <row r="400" spans="3:8">
       <c r="C400" s="6">
-        <v>10904</v>
+        <v>11304</v>
       </c>
       <c r="D400" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E400" s="3">
         <v>1</v>
@@ -8102,15 +8096,15 @@
         <v>19</v>
       </c>
       <c r="H400" s="3">
-        <v>20478</v>
+        <v>20548</v>
       </c>
     </row>
     <row r="401" spans="3:7">
       <c r="C401" s="6">
-        <v>10905</v>
+        <v>11305</v>
       </c>
       <c r="D401" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E401" s="5">
         <v>3</v>
@@ -8124,10 +8118,10 @@
     </row>
     <row r="402" spans="3:7">
       <c r="C402" s="6">
-        <v>10906</v>
+        <v>11306</v>
       </c>
       <c r="D402" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E402" s="5">
         <v>10</v>
@@ -8141,10 +8135,10 @@
     </row>
     <row r="403" spans="3:7">
       <c r="C403" s="6">
-        <v>10907</v>
+        <v>11307</v>
       </c>
       <c r="D403" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E403" s="5">
         <v>10</v>
@@ -8158,10 +8152,10 @@
     </row>
     <row r="404" spans="3:7">
       <c r="C404" s="6">
-        <v>10908</v>
+        <v>11308</v>
       </c>
       <c r="D404" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E404" s="5">
         <v>10</v>
@@ -8175,10 +8169,10 @@
     </row>
     <row r="405" spans="3:7">
       <c r="C405" s="6">
-        <v>10909</v>
+        <v>11309</v>
       </c>
       <c r="D405" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E405" s="5">
         <v>10</v>
@@ -8192,10 +8186,10 @@
     </row>
     <row r="406" spans="3:7">
       <c r="C406" s="6">
-        <v>10910</v>
+        <v>11310</v>
       </c>
       <c r="D406" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E406" s="5">
         <v>10</v>
@@ -8209,10 +8203,10 @@
     </row>
     <row r="407" spans="3:7">
       <c r="C407" s="6">
-        <v>10911</v>
+        <v>11311</v>
       </c>
       <c r="D407" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E407" s="5">
         <v>9</v>
@@ -8226,10 +8220,10 @@
     </row>
     <row r="408" spans="3:7">
       <c r="C408" s="6">
-        <v>10912</v>
+        <v>11312</v>
       </c>
       <c r="D408" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E408" s="5">
         <v>10</v>
@@ -8243,10 +8237,10 @@
     </row>
     <row r="409" spans="3:7">
       <c r="C409" s="6">
-        <v>10913</v>
+        <v>11313</v>
       </c>
       <c r="D409" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E409" s="5">
         <v>9</v>
@@ -8260,10 +8254,10 @@
     </row>
     <row r="410" spans="3:7">
       <c r="C410" s="6">
-        <v>10914</v>
+        <v>11314</v>
       </c>
       <c r="D410" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E410" s="5">
         <v>9</v>
@@ -8277,10 +8271,10 @@
     </row>
     <row r="411" spans="3:7">
       <c r="C411" s="6">
-        <v>10915</v>
+        <v>11315</v>
       </c>
       <c r="D411" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E411" s="5">
         <v>9</v>
@@ -8294,10 +8288,10 @@
     </row>
     <row r="412" spans="3:7">
       <c r="C412" s="6">
-        <v>10916</v>
+        <v>11316</v>
       </c>
       <c r="D412" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E412" s="5">
         <v>2</v>
@@ -8311,10 +8305,10 @@
     </row>
     <row r="413" spans="3:7">
       <c r="C413" s="6">
-        <v>10917</v>
+        <v>11317</v>
       </c>
       <c r="D413" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E413" s="3">
         <v>9</v>
@@ -8328,10 +8322,10 @@
     </row>
     <row r="414" spans="3:7">
       <c r="C414" s="6">
-        <v>10918</v>
+        <v>11318</v>
       </c>
       <c r="D414" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E414" s="5">
         <v>9</v>
@@ -8345,10 +8339,10 @@
     </row>
     <row r="415" spans="3:7">
       <c r="C415" s="6">
-        <v>10919</v>
+        <v>11319</v>
       </c>
       <c r="D415" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E415" s="5">
         <v>10</v>
@@ -8362,10 +8356,10 @@
     </row>
     <row r="416" spans="3:7">
       <c r="C416" s="6">
-        <v>10920</v>
+        <v>11320</v>
       </c>
       <c r="D416" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E416" s="5">
         <v>9</v>
@@ -8379,10 +8373,10 @@
     </row>
     <row r="417" spans="3:7">
       <c r="C417" s="6">
-        <v>10921</v>
+        <v>11321</v>
       </c>
       <c r="D417" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E417" s="5">
         <v>5</v>
@@ -8396,10 +8390,10 @@
     </row>
     <row r="418" spans="3:7">
       <c r="C418" s="6">
-        <v>10922</v>
+        <v>11322</v>
       </c>
       <c r="D418" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E418" s="5">
         <v>6</v>
@@ -8413,10 +8407,10 @@
     </row>
     <row r="419" spans="3:7">
       <c r="C419" s="6">
-        <v>10923</v>
+        <v>11323</v>
       </c>
       <c r="D419" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E419" s="5">
         <v>7</v>
@@ -8430,10 +8424,10 @@
     </row>
     <row r="420" spans="3:7">
       <c r="C420" s="6">
-        <v>10924</v>
+        <v>11324</v>
       </c>
       <c r="D420" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E420" s="5">
         <v>8</v>
@@ -8447,10 +8441,10 @@
     </row>
     <row r="421" spans="3:7">
       <c r="C421" s="6">
-        <v>10925</v>
+        <v>11325</v>
       </c>
       <c r="D421" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E421" s="5">
         <v>9</v>
@@ -8467,10 +8461,10 @@
         <v>58</v>
       </c>
       <c r="C423" s="6">
-        <v>11301</v>
+        <v>11701</v>
       </c>
       <c r="D423" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E423" s="5">
         <v>1</v>
@@ -8482,17 +8476,17 @@
         <v>15</v>
       </c>
       <c r="H423" s="3">
-        <v>20545</v>
+        <v>20575</v>
       </c>
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="6">
-        <v>11302</v>
+        <v>11702</v>
       </c>
       <c r="D424" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E424" s="5">
         <v>1</v>
@@ -8504,15 +8498,15 @@
         <v>16</v>
       </c>
       <c r="H424" s="3">
-        <v>20546</v>
+        <v>20576</v>
       </c>
     </row>
     <row r="425" spans="3:8">
       <c r="C425" s="6">
-        <v>11303</v>
+        <v>11703</v>
       </c>
       <c r="D425" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E425" s="5">
         <v>1</v>
@@ -8524,15 +8518,15 @@
         <v>18</v>
       </c>
       <c r="H425" s="3">
-        <v>20547</v>
+        <v>20577</v>
       </c>
     </row>
     <row r="426" spans="3:8">
       <c r="C426" s="6">
-        <v>11304</v>
+        <v>11704</v>
       </c>
       <c r="D426" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E426" s="3">
         <v>1</v>
@@ -8544,15 +8538,15 @@
         <v>19</v>
       </c>
       <c r="H426" s="3">
-        <v>20548</v>
+        <v>20578</v>
       </c>
     </row>
     <row r="427" spans="3:7">
       <c r="C427" s="6">
-        <v>11305</v>
+        <v>11705</v>
       </c>
       <c r="D427" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E427" s="5">
         <v>3</v>
@@ -8566,10 +8560,10 @@
     </row>
     <row r="428" spans="3:7">
       <c r="C428" s="6">
-        <v>11306</v>
+        <v>11706</v>
       </c>
       <c r="D428" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E428" s="5">
         <v>10</v>
@@ -8583,10 +8577,10 @@
     </row>
     <row r="429" spans="3:7">
       <c r="C429" s="6">
-        <v>11307</v>
+        <v>11707</v>
       </c>
       <c r="D429" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E429" s="5">
         <v>10</v>
@@ -8600,10 +8594,10 @@
     </row>
     <row r="430" spans="3:7">
       <c r="C430" s="6">
-        <v>11308</v>
+        <v>11708</v>
       </c>
       <c r="D430" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E430" s="5">
         <v>10</v>
@@ -8617,10 +8611,10 @@
     </row>
     <row r="431" spans="3:7">
       <c r="C431" s="6">
-        <v>11309</v>
+        <v>11709</v>
       </c>
       <c r="D431" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E431" s="5">
         <v>10</v>
@@ -8634,10 +8628,10 @@
     </row>
     <row r="432" spans="3:7">
       <c r="C432" s="6">
-        <v>11310</v>
+        <v>11710</v>
       </c>
       <c r="D432" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E432" s="5">
         <v>10</v>
@@ -8651,10 +8645,10 @@
     </row>
     <row r="433" spans="3:7">
       <c r="C433" s="6">
-        <v>11311</v>
+        <v>11711</v>
       </c>
       <c r="D433" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E433" s="5">
         <v>9</v>
@@ -8668,10 +8662,10 @@
     </row>
     <row r="434" spans="3:7">
       <c r="C434" s="6">
-        <v>11312</v>
+        <v>11712</v>
       </c>
       <c r="D434" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E434" s="5">
         <v>10</v>
@@ -8685,10 +8679,10 @@
     </row>
     <row r="435" spans="3:7">
       <c r="C435" s="6">
-        <v>11313</v>
+        <v>11713</v>
       </c>
       <c r="D435" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E435" s="5">
         <v>9</v>
@@ -8702,10 +8696,10 @@
     </row>
     <row r="436" spans="3:7">
       <c r="C436" s="6">
-        <v>11314</v>
+        <v>11714</v>
       </c>
       <c r="D436" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E436" s="5">
         <v>9</v>
@@ -8719,10 +8713,10 @@
     </row>
     <row r="437" spans="3:7">
       <c r="C437" s="6">
-        <v>11315</v>
+        <v>11715</v>
       </c>
       <c r="D437" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E437" s="5">
         <v>9</v>
@@ -8736,10 +8730,10 @@
     </row>
     <row r="438" spans="3:7">
       <c r="C438" s="6">
-        <v>11316</v>
+        <v>11716</v>
       </c>
       <c r="D438" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E438" s="5">
         <v>2</v>
@@ -8753,10 +8747,10 @@
     </row>
     <row r="439" spans="3:7">
       <c r="C439" s="6">
-        <v>11317</v>
+        <v>11717</v>
       </c>
       <c r="D439" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E439" s="3">
         <v>9</v>
@@ -8770,10 +8764,10 @@
     </row>
     <row r="440" spans="3:7">
       <c r="C440" s="6">
-        <v>11318</v>
+        <v>11718</v>
       </c>
       <c r="D440" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E440" s="5">
         <v>9</v>
@@ -8787,10 +8781,10 @@
     </row>
     <row r="441" spans="3:7">
       <c r="C441" s="6">
-        <v>11319</v>
+        <v>11719</v>
       </c>
       <c r="D441" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E441" s="5">
         <v>10</v>
@@ -8804,10 +8798,10 @@
     </row>
     <row r="442" spans="3:7">
       <c r="C442" s="6">
-        <v>11320</v>
+        <v>11720</v>
       </c>
       <c r="D442" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E442" s="5">
         <v>9</v>
@@ -8821,10 +8815,10 @@
     </row>
     <row r="443" spans="3:7">
       <c r="C443" s="6">
-        <v>11321</v>
+        <v>11721</v>
       </c>
       <c r="D443" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E443" s="5">
         <v>5</v>
@@ -8838,10 +8832,10 @@
     </row>
     <row r="444" spans="3:7">
       <c r="C444" s="6">
-        <v>11322</v>
+        <v>11722</v>
       </c>
       <c r="D444" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E444" s="5">
         <v>6</v>
@@ -8855,10 +8849,10 @@
     </row>
     <row r="445" spans="3:7">
       <c r="C445" s="6">
-        <v>11323</v>
+        <v>11723</v>
       </c>
       <c r="D445" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E445" s="5">
         <v>7</v>
@@ -8872,10 +8866,10 @@
     </row>
     <row r="446" spans="3:7">
       <c r="C446" s="6">
-        <v>11324</v>
+        <v>11724</v>
       </c>
       <c r="D446" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E446" s="5">
         <v>8</v>
@@ -8889,10 +8883,10 @@
     </row>
     <row r="447" spans="3:7">
       <c r="C447" s="6">
-        <v>11325</v>
+        <v>11725</v>
       </c>
       <c r="D447" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E447" s="5">
         <v>9</v>
@@ -8909,10 +8903,10 @@
         <v>59</v>
       </c>
       <c r="C449" s="6">
-        <v>11501</v>
+        <v>11901</v>
       </c>
       <c r="D449" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E449" s="5">
         <v>1</v>
@@ -8924,17 +8918,17 @@
         <v>15</v>
       </c>
       <c r="H449" s="3">
-        <v>20495</v>
+        <v>20415</v>
       </c>
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="6">
-        <v>11502</v>
+        <v>11902</v>
       </c>
       <c r="D450" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E450" s="5">
         <v>1</v>
@@ -8946,15 +8940,15 @@
         <v>16</v>
       </c>
       <c r="H450" s="3">
-        <v>20496</v>
+        <v>20416</v>
       </c>
     </row>
     <row r="451" spans="3:8">
       <c r="C451" s="6">
-        <v>11503</v>
+        <v>11903</v>
       </c>
       <c r="D451" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E451" s="5">
         <v>1</v>
@@ -8966,15 +8960,15 @@
         <v>18</v>
       </c>
       <c r="H451" s="3">
-        <v>20497</v>
+        <v>20417</v>
       </c>
     </row>
     <row r="452" spans="3:8">
       <c r="C452" s="6">
-        <v>11504</v>
+        <v>11904</v>
       </c>
       <c r="D452" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E452" s="3">
         <v>1</v>
@@ -8986,15 +8980,15 @@
         <v>19</v>
       </c>
       <c r="H452" s="3">
-        <v>20498</v>
+        <v>20418</v>
       </c>
     </row>
     <row r="453" spans="3:7">
       <c r="C453" s="6">
-        <v>11505</v>
+        <v>11905</v>
       </c>
       <c r="D453" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E453" s="5">
         <v>3</v>
@@ -9008,10 +9002,10 @@
     </row>
     <row r="454" spans="3:7">
       <c r="C454" s="6">
-        <v>11506</v>
+        <v>11906</v>
       </c>
       <c r="D454" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E454" s="5">
         <v>10</v>
@@ -9025,10 +9019,10 @@
     </row>
     <row r="455" spans="3:7">
       <c r="C455" s="6">
-        <v>11507</v>
+        <v>11907</v>
       </c>
       <c r="D455" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E455" s="5">
         <v>10</v>
@@ -9042,10 +9036,10 @@
     </row>
     <row r="456" spans="3:7">
       <c r="C456" s="6">
-        <v>11508</v>
+        <v>11908</v>
       </c>
       <c r="D456" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E456" s="5">
         <v>10</v>
@@ -9059,10 +9053,10 @@
     </row>
     <row r="457" spans="3:7">
       <c r="C457" s="6">
-        <v>11509</v>
+        <v>11909</v>
       </c>
       <c r="D457" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E457" s="5">
         <v>10</v>
@@ -9076,10 +9070,10 @@
     </row>
     <row r="458" spans="3:7">
       <c r="C458" s="6">
-        <v>11510</v>
+        <v>11910</v>
       </c>
       <c r="D458" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E458" s="5">
         <v>10</v>
@@ -9093,10 +9087,10 @@
     </row>
     <row r="459" spans="3:7">
       <c r="C459" s="6">
-        <v>11511</v>
+        <v>11911</v>
       </c>
       <c r="D459" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E459" s="5">
         <v>9</v>
@@ -9110,10 +9104,10 @@
     </row>
     <row r="460" spans="3:7">
       <c r="C460" s="6">
-        <v>11512</v>
+        <v>11912</v>
       </c>
       <c r="D460" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E460" s="5">
         <v>10</v>
@@ -9127,10 +9121,10 @@
     </row>
     <row r="461" spans="3:7">
       <c r="C461" s="6">
-        <v>11513</v>
+        <v>11913</v>
       </c>
       <c r="D461" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E461" s="5">
         <v>9</v>
@@ -9144,10 +9138,10 @@
     </row>
     <row r="462" spans="3:7">
       <c r="C462" s="6">
-        <v>11514</v>
+        <v>11914</v>
       </c>
       <c r="D462" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E462" s="5">
         <v>9</v>
@@ -9161,10 +9155,10 @@
     </row>
     <row r="463" spans="3:7">
       <c r="C463" s="6">
-        <v>11515</v>
+        <v>11915</v>
       </c>
       <c r="D463" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E463" s="5">
         <v>9</v>
@@ -9178,10 +9172,10 @@
     </row>
     <row r="464" spans="3:7">
       <c r="C464" s="6">
-        <v>11516</v>
+        <v>11916</v>
       </c>
       <c r="D464" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E464" s="5">
         <v>2</v>
@@ -9195,10 +9189,10 @@
     </row>
     <row r="465" spans="3:7">
       <c r="C465" s="6">
-        <v>11517</v>
+        <v>11917</v>
       </c>
       <c r="D465" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E465" s="3">
         <v>9</v>
@@ -9212,10 +9206,10 @@
     </row>
     <row r="466" spans="3:7">
       <c r="C466" s="6">
-        <v>11518</v>
+        <v>11918</v>
       </c>
       <c r="D466" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E466" s="5">
         <v>9</v>
@@ -9229,10 +9223,10 @@
     </row>
     <row r="467" spans="3:7">
       <c r="C467" s="6">
-        <v>11519</v>
+        <v>11919</v>
       </c>
       <c r="D467" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E467" s="5">
         <v>10</v>
@@ -9246,10 +9240,10 @@
     </row>
     <row r="468" spans="3:7">
       <c r="C468" s="6">
-        <v>11520</v>
+        <v>11920</v>
       </c>
       <c r="D468" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E468" s="5">
         <v>9</v>
@@ -9263,10 +9257,10 @@
     </row>
     <row r="469" spans="3:7">
       <c r="C469" s="6">
-        <v>11521</v>
+        <v>11921</v>
       </c>
       <c r="D469" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E469" s="5">
         <v>5</v>
@@ -9280,10 +9274,10 @@
     </row>
     <row r="470" spans="3:7">
       <c r="C470" s="6">
-        <v>11522</v>
+        <v>11922</v>
       </c>
       <c r="D470" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E470" s="5">
         <v>6</v>
@@ -9297,10 +9291,10 @@
     </row>
     <row r="471" spans="3:7">
       <c r="C471" s="6">
-        <v>11523</v>
+        <v>11923</v>
       </c>
       <c r="D471" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E471" s="5">
         <v>7</v>
@@ -9314,10 +9308,10 @@
     </row>
     <row r="472" spans="3:7">
       <c r="C472" s="6">
-        <v>11524</v>
+        <v>11924</v>
       </c>
       <c r="D472" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E472" s="5">
         <v>8</v>
@@ -9331,10 +9325,10 @@
     </row>
     <row r="473" spans="3:7">
       <c r="C473" s="6">
-        <v>11525</v>
+        <v>11925</v>
       </c>
       <c r="D473" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E473" s="5">
         <v>9</v>
@@ -9351,10 +9345,10 @@
         <v>60</v>
       </c>
       <c r="C475" s="6">
-        <v>11701</v>
+        <v>12101</v>
       </c>
       <c r="D475" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E475" s="5">
         <v>1</v>
@@ -9366,17 +9360,17 @@
         <v>15</v>
       </c>
       <c r="H475" s="3">
-        <v>20575</v>
+        <v>20465</v>
       </c>
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="6">
-        <v>11702</v>
+        <v>12102</v>
       </c>
       <c r="D476" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E476" s="5">
         <v>1</v>
@@ -9388,15 +9382,15 @@
         <v>16</v>
       </c>
       <c r="H476" s="3">
-        <v>20576</v>
+        <v>20466</v>
       </c>
     </row>
     <row r="477" spans="3:8">
       <c r="C477" s="6">
-        <v>11703</v>
+        <v>12103</v>
       </c>
       <c r="D477" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E477" s="5">
         <v>1</v>
@@ -9408,15 +9402,15 @@
         <v>18</v>
       </c>
       <c r="H477" s="3">
-        <v>20577</v>
+        <v>20467</v>
       </c>
     </row>
     <row r="478" spans="3:8">
       <c r="C478" s="6">
-        <v>11704</v>
+        <v>12104</v>
       </c>
       <c r="D478" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E478" s="3">
         <v>1</v>
@@ -9428,15 +9422,15 @@
         <v>19</v>
       </c>
       <c r="H478" s="3">
-        <v>20578</v>
+        <v>20468</v>
       </c>
     </row>
     <row r="479" spans="3:7">
       <c r="C479" s="6">
-        <v>11705</v>
+        <v>12105</v>
       </c>
       <c r="D479" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E479" s="5">
         <v>3</v>
@@ -9450,10 +9444,10 @@
     </row>
     <row r="480" spans="3:7">
       <c r="C480" s="6">
-        <v>11706</v>
+        <v>12106</v>
       </c>
       <c r="D480" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E480" s="5">
         <v>10</v>
@@ -9467,10 +9461,10 @@
     </row>
     <row r="481" spans="3:7">
       <c r="C481" s="6">
-        <v>11707</v>
+        <v>12107</v>
       </c>
       <c r="D481" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E481" s="5">
         <v>10</v>
@@ -9484,10 +9478,10 @@
     </row>
     <row r="482" spans="3:7">
       <c r="C482" s="6">
-        <v>11708</v>
+        <v>12108</v>
       </c>
       <c r="D482" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E482" s="5">
         <v>10</v>
@@ -9501,10 +9495,10 @@
     </row>
     <row r="483" spans="3:7">
       <c r="C483" s="6">
-        <v>11709</v>
+        <v>12109</v>
       </c>
       <c r="D483" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E483" s="5">
         <v>10</v>
@@ -9518,10 +9512,10 @@
     </row>
     <row r="484" spans="3:7">
       <c r="C484" s="6">
-        <v>11710</v>
+        <v>12110</v>
       </c>
       <c r="D484" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E484" s="5">
         <v>10</v>
@@ -9535,10 +9529,10 @@
     </row>
     <row r="485" spans="3:7">
       <c r="C485" s="6">
-        <v>11711</v>
+        <v>12111</v>
       </c>
       <c r="D485" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E485" s="5">
         <v>9</v>
@@ -9552,10 +9546,10 @@
     </row>
     <row r="486" spans="3:7">
       <c r="C486" s="6">
-        <v>11712</v>
+        <v>12112</v>
       </c>
       <c r="D486" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E486" s="5">
         <v>10</v>
@@ -9569,10 +9563,10 @@
     </row>
     <row r="487" spans="3:7">
       <c r="C487" s="6">
-        <v>11713</v>
+        <v>12113</v>
       </c>
       <c r="D487" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E487" s="5">
         <v>9</v>
@@ -9586,10 +9580,10 @@
     </row>
     <row r="488" spans="3:7">
       <c r="C488" s="6">
-        <v>11714</v>
+        <v>12114</v>
       </c>
       <c r="D488" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E488" s="5">
         <v>9</v>
@@ -9603,10 +9597,10 @@
     </row>
     <row r="489" spans="3:7">
       <c r="C489" s="6">
-        <v>11715</v>
+        <v>12115</v>
       </c>
       <c r="D489" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E489" s="5">
         <v>9</v>
@@ -9620,10 +9614,10 @@
     </row>
     <row r="490" spans="3:7">
       <c r="C490" s="6">
-        <v>11716</v>
+        <v>12116</v>
       </c>
       <c r="D490" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E490" s="5">
         <v>2</v>
@@ -9637,10 +9631,10 @@
     </row>
     <row r="491" spans="3:7">
       <c r="C491" s="6">
-        <v>11717</v>
+        <v>12117</v>
       </c>
       <c r="D491" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E491" s="3">
         <v>9</v>
@@ -9654,10 +9648,10 @@
     </row>
     <row r="492" spans="3:7">
       <c r="C492" s="6">
-        <v>11718</v>
+        <v>12118</v>
       </c>
       <c r="D492" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E492" s="5">
         <v>9</v>
@@ -9671,10 +9665,10 @@
     </row>
     <row r="493" spans="3:7">
       <c r="C493" s="6">
-        <v>11719</v>
+        <v>12119</v>
       </c>
       <c r="D493" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E493" s="5">
         <v>10</v>
@@ -9688,10 +9682,10 @@
     </row>
     <row r="494" spans="3:7">
       <c r="C494" s="6">
-        <v>11720</v>
+        <v>12120</v>
       </c>
       <c r="D494" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E494" s="5">
         <v>9</v>
@@ -9705,10 +9699,10 @@
     </row>
     <row r="495" spans="3:7">
       <c r="C495" s="6">
-        <v>11721</v>
+        <v>12121</v>
       </c>
       <c r="D495" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E495" s="5">
         <v>5</v>
@@ -9722,10 +9716,10 @@
     </row>
     <row r="496" spans="3:7">
       <c r="C496" s="6">
-        <v>11722</v>
+        <v>12122</v>
       </c>
       <c r="D496" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E496" s="5">
         <v>6</v>
@@ -9739,10 +9733,10 @@
     </row>
     <row r="497" spans="3:7">
       <c r="C497" s="6">
-        <v>11723</v>
+        <v>12123</v>
       </c>
       <c r="D497" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E497" s="5">
         <v>7</v>
@@ -9756,10 +9750,10 @@
     </row>
     <row r="498" spans="3:7">
       <c r="C498" s="6">
-        <v>11724</v>
+        <v>12124</v>
       </c>
       <c r="D498" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E498" s="5">
         <v>8</v>
@@ -9773,10 +9767,10 @@
     </row>
     <row r="499" spans="3:7">
       <c r="C499" s="6">
-        <v>11725</v>
+        <v>12125</v>
       </c>
       <c r="D499" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E499" s="5">
         <v>9</v>
@@ -9793,10 +9787,10 @@
         <v>61</v>
       </c>
       <c r="C501" s="6">
-        <v>11901</v>
+        <v>12301</v>
       </c>
       <c r="D501" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E501" s="5">
         <v>1</v>
@@ -9808,17 +9802,17 @@
         <v>15</v>
       </c>
       <c r="H501" s="3">
-        <v>20415</v>
+        <v>20525</v>
       </c>
     </row>
     <row r="502" spans="1:8">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="6">
-        <v>11902</v>
+        <v>12302</v>
       </c>
       <c r="D502" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E502" s="5">
         <v>1</v>
@@ -9830,15 +9824,15 @@
         <v>16</v>
       </c>
       <c r="H502" s="3">
-        <v>20416</v>
+        <v>20526</v>
       </c>
     </row>
     <row r="503" spans="3:8">
       <c r="C503" s="6">
-        <v>11903</v>
+        <v>12303</v>
       </c>
       <c r="D503" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E503" s="5">
         <v>1</v>
@@ -9850,15 +9844,15 @@
         <v>18</v>
       </c>
       <c r="H503" s="3">
-        <v>20417</v>
+        <v>20527</v>
       </c>
     </row>
     <row r="504" spans="3:8">
       <c r="C504" s="6">
-        <v>11904</v>
+        <v>12304</v>
       </c>
       <c r="D504" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E504" s="3">
         <v>1</v>
@@ -9870,15 +9864,15 @@
         <v>19</v>
       </c>
       <c r="H504" s="3">
-        <v>20418</v>
+        <v>20528</v>
       </c>
     </row>
     <row r="505" spans="3:7">
       <c r="C505" s="6">
-        <v>11905</v>
+        <v>12305</v>
       </c>
       <c r="D505" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E505" s="5">
         <v>3</v>
@@ -9892,10 +9886,10 @@
     </row>
     <row r="506" spans="3:7">
       <c r="C506" s="6">
-        <v>11906</v>
+        <v>12306</v>
       </c>
       <c r="D506" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E506" s="5">
         <v>10</v>
@@ -9909,10 +9903,10 @@
     </row>
     <row r="507" spans="3:7">
       <c r="C507" s="6">
-        <v>11907</v>
+        <v>12307</v>
       </c>
       <c r="D507" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E507" s="5">
         <v>10</v>
@@ -9926,10 +9920,10 @@
     </row>
     <row r="508" spans="3:7">
       <c r="C508" s="6">
-        <v>11908</v>
+        <v>12308</v>
       </c>
       <c r="D508" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E508" s="5">
         <v>10</v>
@@ -9943,10 +9937,10 @@
     </row>
     <row r="509" spans="3:7">
       <c r="C509" s="6">
-        <v>11909</v>
+        <v>12309</v>
       </c>
       <c r="D509" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E509" s="5">
         <v>10</v>
@@ -9960,10 +9954,10 @@
     </row>
     <row r="510" spans="3:7">
       <c r="C510" s="6">
-        <v>11910</v>
+        <v>12310</v>
       </c>
       <c r="D510" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E510" s="5">
         <v>10</v>
@@ -9977,10 +9971,10 @@
     </row>
     <row r="511" spans="3:7">
       <c r="C511" s="6">
-        <v>11911</v>
+        <v>12311</v>
       </c>
       <c r="D511" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E511" s="5">
         <v>9</v>
@@ -9994,10 +9988,10 @@
     </row>
     <row r="512" spans="3:7">
       <c r="C512" s="6">
-        <v>11912</v>
+        <v>12312</v>
       </c>
       <c r="D512" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E512" s="5">
         <v>10</v>
@@ -10011,10 +10005,10 @@
     </row>
     <row r="513" spans="3:7">
       <c r="C513" s="6">
-        <v>11913</v>
+        <v>12313</v>
       </c>
       <c r="D513" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E513" s="5">
         <v>9</v>
@@ -10028,10 +10022,10 @@
     </row>
     <row r="514" spans="3:7">
       <c r="C514" s="6">
-        <v>11914</v>
+        <v>12314</v>
       </c>
       <c r="D514" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E514" s="5">
         <v>9</v>
@@ -10045,10 +10039,10 @@
     </row>
     <row r="515" spans="3:7">
       <c r="C515" s="6">
-        <v>11915</v>
+        <v>12315</v>
       </c>
       <c r="D515" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E515" s="5">
         <v>9</v>
@@ -10062,10 +10056,10 @@
     </row>
     <row r="516" spans="3:7">
       <c r="C516" s="6">
-        <v>11916</v>
+        <v>12316</v>
       </c>
       <c r="D516" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E516" s="5">
         <v>2</v>
@@ -10079,10 +10073,10 @@
     </row>
     <row r="517" spans="3:7">
       <c r="C517" s="6">
-        <v>11917</v>
+        <v>12317</v>
       </c>
       <c r="D517" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E517" s="3">
         <v>9</v>
@@ -10096,10 +10090,10 @@
     </row>
     <row r="518" spans="3:7">
       <c r="C518" s="6">
-        <v>11918</v>
+        <v>12318</v>
       </c>
       <c r="D518" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E518" s="5">
         <v>9</v>
@@ -10113,10 +10107,10 @@
     </row>
     <row r="519" spans="3:7">
       <c r="C519" s="6">
-        <v>11919</v>
+        <v>12319</v>
       </c>
       <c r="D519" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E519" s="5">
         <v>10</v>
@@ -10130,10 +10124,10 @@
     </row>
     <row r="520" spans="3:7">
       <c r="C520" s="6">
-        <v>11920</v>
+        <v>12320</v>
       </c>
       <c r="D520" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E520" s="5">
         <v>9</v>
@@ -10147,10 +10141,10 @@
     </row>
     <row r="521" spans="3:7">
       <c r="C521" s="6">
-        <v>11921</v>
+        <v>12321</v>
       </c>
       <c r="D521" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E521" s="5">
         <v>5</v>
@@ -10164,10 +10158,10 @@
     </row>
     <row r="522" spans="3:7">
       <c r="C522" s="6">
-        <v>11922</v>
+        <v>12322</v>
       </c>
       <c r="D522" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E522" s="5">
         <v>6</v>
@@ -10181,10 +10175,10 @@
     </row>
     <row r="523" spans="3:7">
       <c r="C523" s="6">
-        <v>11923</v>
+        <v>12323</v>
       </c>
       <c r="D523" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E523" s="5">
         <v>7</v>
@@ -10198,10 +10192,10 @@
     </row>
     <row r="524" spans="3:7">
       <c r="C524" s="6">
-        <v>11924</v>
+        <v>12324</v>
       </c>
       <c r="D524" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E524" s="5">
         <v>8</v>
@@ -10215,10 +10209,10 @@
     </row>
     <row r="525" spans="3:7">
       <c r="C525" s="6">
-        <v>11925</v>
+        <v>12325</v>
       </c>
       <c r="D525" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E525" s="5">
         <v>9</v>
@@ -10235,10 +10229,10 @@
         <v>62</v>
       </c>
       <c r="C527" s="6">
-        <v>12101</v>
+        <v>12501</v>
       </c>
       <c r="D527" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E527" s="5">
         <v>1</v>
@@ -10250,17 +10244,17 @@
         <v>15</v>
       </c>
       <c r="H527" s="3">
-        <v>20465</v>
+        <v>20605</v>
       </c>
     </row>
     <row r="528" spans="1:8">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="6">
-        <v>12102</v>
+        <v>12502</v>
       </c>
       <c r="D528" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E528" s="5">
         <v>1</v>
@@ -10272,15 +10266,15 @@
         <v>16</v>
       </c>
       <c r="H528" s="3">
-        <v>20466</v>
+        <v>20606</v>
       </c>
     </row>
     <row r="529" spans="3:8">
       <c r="C529" s="6">
-        <v>12103</v>
+        <v>12503</v>
       </c>
       <c r="D529" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E529" s="5">
         <v>1</v>
@@ -10292,15 +10286,15 @@
         <v>18</v>
       </c>
       <c r="H529" s="3">
-        <v>20467</v>
+        <v>20607</v>
       </c>
     </row>
     <row r="530" spans="3:8">
       <c r="C530" s="6">
-        <v>12104</v>
+        <v>12504</v>
       </c>
       <c r="D530" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E530" s="3">
         <v>1</v>
@@ -10312,15 +10306,15 @@
         <v>19</v>
       </c>
       <c r="H530" s="3">
-        <v>20468</v>
+        <v>20608</v>
       </c>
     </row>
     <row r="531" spans="3:7">
       <c r="C531" s="6">
-        <v>12105</v>
+        <v>12505</v>
       </c>
       <c r="D531" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E531" s="5">
         <v>3</v>
@@ -10334,10 +10328,10 @@
     </row>
     <row r="532" spans="3:7">
       <c r="C532" s="6">
-        <v>12106</v>
+        <v>12506</v>
       </c>
       <c r="D532" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E532" s="5">
         <v>10</v>
@@ -10351,10 +10345,10 @@
     </row>
     <row r="533" spans="3:7">
       <c r="C533" s="6">
-        <v>12107</v>
+        <v>12507</v>
       </c>
       <c r="D533" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E533" s="5">
         <v>10</v>
@@ -10368,10 +10362,10 @@
     </row>
     <row r="534" spans="3:7">
       <c r="C534" s="6">
-        <v>12108</v>
+        <v>12508</v>
       </c>
       <c r="D534" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E534" s="5">
         <v>10</v>
@@ -10385,10 +10379,10 @@
     </row>
     <row r="535" spans="3:7">
       <c r="C535" s="6">
-        <v>12109</v>
+        <v>12509</v>
       </c>
       <c r="D535" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E535" s="5">
         <v>10</v>
@@ -10402,10 +10396,10 @@
     </row>
     <row r="536" spans="3:7">
       <c r="C536" s="6">
-        <v>12110</v>
+        <v>12510</v>
       </c>
       <c r="D536" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E536" s="5">
         <v>10</v>
@@ -10419,10 +10413,10 @@
     </row>
     <row r="537" spans="3:7">
       <c r="C537" s="6">
-        <v>12111</v>
+        <v>12511</v>
       </c>
       <c r="D537" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E537" s="5">
         <v>9</v>
@@ -10436,10 +10430,10 @@
     </row>
     <row r="538" spans="3:7">
       <c r="C538" s="6">
-        <v>12112</v>
+        <v>12512</v>
       </c>
       <c r="D538" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E538" s="5">
         <v>10</v>
@@ -10453,10 +10447,10 @@
     </row>
     <row r="539" spans="3:7">
       <c r="C539" s="6">
-        <v>12113</v>
+        <v>12513</v>
       </c>
       <c r="D539" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E539" s="5">
         <v>9</v>
@@ -10470,10 +10464,10 @@
     </row>
     <row r="540" spans="3:7">
       <c r="C540" s="6">
-        <v>12114</v>
+        <v>12514</v>
       </c>
       <c r="D540" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E540" s="5">
         <v>9</v>
@@ -10487,10 +10481,10 @@
     </row>
     <row r="541" spans="3:7">
       <c r="C541" s="6">
-        <v>12115</v>
+        <v>12515</v>
       </c>
       <c r="D541" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E541" s="5">
         <v>9</v>
@@ -10504,10 +10498,10 @@
     </row>
     <row r="542" spans="3:7">
       <c r="C542" s="6">
-        <v>12116</v>
+        <v>12516</v>
       </c>
       <c r="D542" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E542" s="5">
         <v>2</v>
@@ -10521,10 +10515,10 @@
     </row>
     <row r="543" spans="3:7">
       <c r="C543" s="6">
-        <v>12117</v>
+        <v>12517</v>
       </c>
       <c r="D543" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E543" s="3">
         <v>9</v>
@@ -10538,10 +10532,10 @@
     </row>
     <row r="544" spans="3:7">
       <c r="C544" s="6">
-        <v>12118</v>
+        <v>12518</v>
       </c>
       <c r="D544" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E544" s="5">
         <v>9</v>
@@ -10555,10 +10549,10 @@
     </row>
     <row r="545" spans="3:7">
       <c r="C545" s="6">
-        <v>12119</v>
+        <v>12519</v>
       </c>
       <c r="D545" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E545" s="5">
         <v>10</v>
@@ -10572,10 +10566,10 @@
     </row>
     <row r="546" spans="3:7">
       <c r="C546" s="6">
-        <v>12120</v>
+        <v>12520</v>
       </c>
       <c r="D546" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E546" s="5">
         <v>9</v>
@@ -10589,10 +10583,10 @@
     </row>
     <row r="547" spans="3:7">
       <c r="C547" s="6">
-        <v>12121</v>
+        <v>12521</v>
       </c>
       <c r="D547" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E547" s="5">
         <v>5</v>
@@ -10606,10 +10600,10 @@
     </row>
     <row r="548" spans="3:7">
       <c r="C548" s="6">
-        <v>12122</v>
+        <v>12522</v>
       </c>
       <c r="D548" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E548" s="5">
         <v>6</v>
@@ -10623,10 +10617,10 @@
     </row>
     <row r="549" spans="3:7">
       <c r="C549" s="6">
-        <v>12123</v>
+        <v>12523</v>
       </c>
       <c r="D549" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E549" s="5">
         <v>7</v>
@@ -10640,10 +10634,10 @@
     </row>
     <row r="550" spans="3:7">
       <c r="C550" s="6">
-        <v>12124</v>
+        <v>12524</v>
       </c>
       <c r="D550" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E550" s="5">
         <v>8</v>
@@ -10657,10 +10651,10 @@
     </row>
     <row r="551" spans="3:7">
       <c r="C551" s="6">
-        <v>12125</v>
+        <v>12525</v>
       </c>
       <c r="D551" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E551" s="5">
         <v>9</v>
@@ -10677,10 +10671,10 @@
         <v>63</v>
       </c>
       <c r="C553" s="6">
-        <v>12301</v>
+        <v>12601</v>
       </c>
       <c r="D553" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E553" s="5">
         <v>1</v>
@@ -10692,17 +10686,17 @@
         <v>15</v>
       </c>
       <c r="H553" s="3">
-        <v>20525</v>
+        <v>20615</v>
       </c>
     </row>
     <row r="554" spans="1:8">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="6">
-        <v>12302</v>
+        <v>12602</v>
       </c>
       <c r="D554" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E554" s="5">
         <v>1</v>
@@ -10714,15 +10708,15 @@
         <v>16</v>
       </c>
       <c r="H554" s="3">
-        <v>20526</v>
+        <v>20616</v>
       </c>
     </row>
     <row r="555" spans="3:8">
       <c r="C555" s="6">
-        <v>12303</v>
+        <v>12603</v>
       </c>
       <c r="D555" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E555" s="5">
         <v>1</v>
@@ -10734,15 +10728,15 @@
         <v>18</v>
       </c>
       <c r="H555" s="3">
-        <v>20527</v>
+        <v>20617</v>
       </c>
     </row>
     <row r="556" spans="3:8">
       <c r="C556" s="6">
-        <v>12304</v>
+        <v>12604</v>
       </c>
       <c r="D556" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E556" s="3">
         <v>1</v>
@@ -10754,15 +10748,15 @@
         <v>19</v>
       </c>
       <c r="H556" s="3">
-        <v>20528</v>
+        <v>20618</v>
       </c>
     </row>
     <row r="557" spans="3:7">
       <c r="C557" s="6">
-        <v>12305</v>
+        <v>12605</v>
       </c>
       <c r="D557" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E557" s="5">
         <v>3</v>
@@ -10776,10 +10770,10 @@
     </row>
     <row r="558" spans="3:7">
       <c r="C558" s="6">
-        <v>12306</v>
+        <v>12606</v>
       </c>
       <c r="D558" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E558" s="5">
         <v>10</v>
@@ -10793,10 +10787,10 @@
     </row>
     <row r="559" spans="3:7">
       <c r="C559" s="6">
-        <v>12307</v>
+        <v>12607</v>
       </c>
       <c r="D559" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E559" s="5">
         <v>10</v>
@@ -10810,10 +10804,10 @@
     </row>
     <row r="560" spans="3:7">
       <c r="C560" s="6">
-        <v>12308</v>
+        <v>12608</v>
       </c>
       <c r="D560" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E560" s="5">
         <v>10</v>
@@ -10827,10 +10821,10 @@
     </row>
     <row r="561" spans="3:7">
       <c r="C561" s="6">
-        <v>12309</v>
+        <v>12609</v>
       </c>
       <c r="D561" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E561" s="5">
         <v>10</v>
@@ -10844,10 +10838,10 @@
     </row>
     <row r="562" spans="3:7">
       <c r="C562" s="6">
-        <v>12310</v>
+        <v>12610</v>
       </c>
       <c r="D562" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E562" s="5">
         <v>10</v>
@@ -10861,10 +10855,10 @@
     </row>
     <row r="563" spans="3:7">
       <c r="C563" s="6">
-        <v>12311</v>
+        <v>12611</v>
       </c>
       <c r="D563" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E563" s="5">
         <v>9</v>
@@ -10878,10 +10872,10 @@
     </row>
     <row r="564" spans="3:7">
       <c r="C564" s="6">
-        <v>12312</v>
+        <v>12612</v>
       </c>
       <c r="D564" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E564" s="5">
         <v>10</v>
@@ -10895,10 +10889,10 @@
     </row>
     <row r="565" spans="3:7">
       <c r="C565" s="6">
-        <v>12313</v>
+        <v>12613</v>
       </c>
       <c r="D565" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E565" s="5">
         <v>9</v>
@@ -10912,10 +10906,10 @@
     </row>
     <row r="566" spans="3:7">
       <c r="C566" s="6">
-        <v>12314</v>
+        <v>12614</v>
       </c>
       <c r="D566" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E566" s="5">
         <v>9</v>
@@ -10929,10 +10923,10 @@
     </row>
     <row r="567" spans="3:7">
       <c r="C567" s="6">
-        <v>12315</v>
+        <v>12615</v>
       </c>
       <c r="D567" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E567" s="5">
         <v>9</v>
@@ -10946,10 +10940,10 @@
     </row>
     <row r="568" spans="3:7">
       <c r="C568" s="6">
-        <v>12316</v>
+        <v>12616</v>
       </c>
       <c r="D568" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E568" s="5">
         <v>2</v>
@@ -10963,10 +10957,10 @@
     </row>
     <row r="569" spans="3:7">
       <c r="C569" s="6">
-        <v>12317</v>
+        <v>12617</v>
       </c>
       <c r="D569" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E569" s="3">
         <v>9</v>
@@ -10980,10 +10974,10 @@
     </row>
     <row r="570" spans="3:7">
       <c r="C570" s="6">
-        <v>12318</v>
+        <v>12618</v>
       </c>
       <c r="D570" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E570" s="5">
         <v>9</v>
@@ -10997,10 +10991,10 @@
     </row>
     <row r="571" spans="3:7">
       <c r="C571" s="6">
-        <v>12319</v>
+        <v>12619</v>
       </c>
       <c r="D571" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E571" s="5">
         <v>10</v>
@@ -11014,10 +11008,10 @@
     </row>
     <row r="572" spans="3:7">
       <c r="C572" s="6">
-        <v>12320</v>
+        <v>12620</v>
       </c>
       <c r="D572" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E572" s="5">
         <v>9</v>
@@ -11031,10 +11025,10 @@
     </row>
     <row r="573" spans="3:7">
       <c r="C573" s="6">
-        <v>12321</v>
+        <v>12621</v>
       </c>
       <c r="D573" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E573" s="5">
         <v>5</v>
@@ -11048,10 +11042,10 @@
     </row>
     <row r="574" spans="3:7">
       <c r="C574" s="6">
-        <v>12322</v>
+        <v>12622</v>
       </c>
       <c r="D574" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E574" s="5">
         <v>6</v>
@@ -11065,10 +11059,10 @@
     </row>
     <row r="575" spans="3:7">
       <c r="C575" s="6">
-        <v>12323</v>
+        <v>12623</v>
       </c>
       <c r="D575" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E575" s="5">
         <v>7</v>
@@ -11082,10 +11076,10 @@
     </row>
     <row r="576" spans="3:7">
       <c r="C576" s="6">
-        <v>12324</v>
+        <v>12624</v>
       </c>
       <c r="D576" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E576" s="5">
         <v>8</v>
@@ -11099,10 +11093,10 @@
     </row>
     <row r="577" spans="3:7">
       <c r="C577" s="6">
-        <v>12325</v>
+        <v>12625</v>
       </c>
       <c r="D577" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E577" s="5">
         <v>9</v>
@@ -11119,10 +11113,10 @@
         <v>64</v>
       </c>
       <c r="C579" s="6">
-        <v>12401</v>
+        <v>12701</v>
       </c>
       <c r="D579" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E579" s="5">
         <v>1</v>
@@ -11134,17 +11128,17 @@
         <v>15</v>
       </c>
       <c r="H579" s="3">
-        <v>20595</v>
+        <v>20375</v>
       </c>
     </row>
     <row r="580" spans="1:8">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="6">
-        <v>12402</v>
+        <v>12702</v>
       </c>
       <c r="D580" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E580" s="5">
         <v>1</v>
@@ -11156,15 +11150,15 @@
         <v>16</v>
       </c>
       <c r="H580" s="3">
-        <v>20596</v>
+        <v>20376</v>
       </c>
     </row>
     <row r="581" spans="3:8">
       <c r="C581" s="6">
-        <v>12403</v>
+        <v>12703</v>
       </c>
       <c r="D581" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E581" s="5">
         <v>1</v>
@@ -11176,15 +11170,15 @@
         <v>18</v>
       </c>
       <c r="H581" s="3">
-        <v>20597</v>
+        <v>20377</v>
       </c>
     </row>
     <row r="582" spans="3:8">
       <c r="C582" s="6">
-        <v>12404</v>
+        <v>12704</v>
       </c>
       <c r="D582" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E582" s="3">
         <v>1</v>
@@ -11196,15 +11190,15 @@
         <v>19</v>
       </c>
       <c r="H582" s="3">
-        <v>20598</v>
+        <v>20378</v>
       </c>
     </row>
     <row r="583" spans="3:7">
       <c r="C583" s="6">
-        <v>12405</v>
+        <v>12705</v>
       </c>
       <c r="D583" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E583" s="5">
         <v>3</v>
@@ -11218,10 +11212,10 @@
     </row>
     <row r="584" spans="3:7">
       <c r="C584" s="6">
-        <v>12406</v>
+        <v>12706</v>
       </c>
       <c r="D584" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E584" s="5">
         <v>10</v>
@@ -11235,10 +11229,10 @@
     </row>
     <row r="585" spans="3:7">
       <c r="C585" s="6">
-        <v>12407</v>
+        <v>12707</v>
       </c>
       <c r="D585" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E585" s="5">
         <v>10</v>
@@ -11252,10 +11246,10 @@
     </row>
     <row r="586" spans="3:7">
       <c r="C586" s="6">
-        <v>12408</v>
+        <v>12708</v>
       </c>
       <c r="D586" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E586" s="5">
         <v>10</v>
@@ -11269,10 +11263,10 @@
     </row>
     <row r="587" spans="3:7">
       <c r="C587" s="6">
-        <v>12409</v>
+        <v>12709</v>
       </c>
       <c r="D587" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E587" s="5">
         <v>10</v>
@@ -11286,10 +11280,10 @@
     </row>
     <row r="588" spans="3:7">
       <c r="C588" s="6">
-        <v>12410</v>
+        <v>12710</v>
       </c>
       <c r="D588" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E588" s="5">
         <v>10</v>
@@ -11303,10 +11297,10 @@
     </row>
     <row r="589" spans="3:7">
       <c r="C589" s="6">
-        <v>12411</v>
+        <v>12711</v>
       </c>
       <c r="D589" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E589" s="5">
         <v>9</v>
@@ -11320,10 +11314,10 @@
     </row>
     <row r="590" spans="3:7">
       <c r="C590" s="6">
-        <v>12412</v>
+        <v>12712</v>
       </c>
       <c r="D590" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E590" s="5">
         <v>10</v>
@@ -11337,10 +11331,10 @@
     </row>
     <row r="591" spans="3:7">
       <c r="C591" s="6">
-        <v>12413</v>
+        <v>12713</v>
       </c>
       <c r="D591" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E591" s="5">
         <v>9</v>
@@ -11354,10 +11348,10 @@
     </row>
     <row r="592" spans="3:7">
       <c r="C592" s="6">
-        <v>12414</v>
+        <v>12714</v>
       </c>
       <c r="D592" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E592" s="5">
         <v>9</v>
@@ -11371,10 +11365,10 @@
     </row>
     <row r="593" spans="3:7">
       <c r="C593" s="6">
-        <v>12415</v>
+        <v>12715</v>
       </c>
       <c r="D593" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E593" s="5">
         <v>9</v>
@@ -11388,10 +11382,10 @@
     </row>
     <row r="594" spans="3:7">
       <c r="C594" s="6">
-        <v>12416</v>
+        <v>12716</v>
       </c>
       <c r="D594" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E594" s="5">
         <v>2</v>
@@ -11405,10 +11399,10 @@
     </row>
     <row r="595" spans="3:7">
       <c r="C595" s="6">
-        <v>12417</v>
+        <v>12717</v>
       </c>
       <c r="D595" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E595" s="3">
         <v>9</v>
@@ -11422,10 +11416,10 @@
     </row>
     <row r="596" spans="3:7">
       <c r="C596" s="6">
-        <v>12418</v>
+        <v>12718</v>
       </c>
       <c r="D596" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E596" s="5">
         <v>9</v>
@@ -11439,10 +11433,10 @@
     </row>
     <row r="597" spans="3:7">
       <c r="C597" s="6">
-        <v>12419</v>
+        <v>12719</v>
       </c>
       <c r="D597" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E597" s="5">
         <v>10</v>
@@ -11456,10 +11450,10 @@
     </row>
     <row r="598" spans="3:7">
       <c r="C598" s="6">
-        <v>12420</v>
+        <v>12720</v>
       </c>
       <c r="D598" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E598" s="5">
         <v>9</v>
@@ -11473,10 +11467,10 @@
     </row>
     <row r="599" spans="3:7">
       <c r="C599" s="6">
-        <v>12421</v>
+        <v>12721</v>
       </c>
       <c r="D599" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E599" s="5">
         <v>5</v>
@@ -11490,10 +11484,10 @@
     </row>
     <row r="600" spans="3:7">
       <c r="C600" s="6">
-        <v>12422</v>
+        <v>12722</v>
       </c>
       <c r="D600" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E600" s="5">
         <v>6</v>
@@ -11507,10 +11501,10 @@
     </row>
     <row r="601" spans="3:7">
       <c r="C601" s="6">
-        <v>12423</v>
+        <v>12723</v>
       </c>
       <c r="D601" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E601" s="5">
         <v>7</v>
@@ -11524,10 +11518,10 @@
     </row>
     <row r="602" spans="3:7">
       <c r="C602" s="6">
-        <v>12424</v>
+        <v>12724</v>
       </c>
       <c r="D602" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E602" s="5">
         <v>8</v>
@@ -11541,10 +11535,10 @@
     </row>
     <row r="603" spans="3:7">
       <c r="C603" s="6">
-        <v>12425</v>
+        <v>12725</v>
       </c>
       <c r="D603" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E603" s="5">
         <v>9</v>
@@ -11561,10 +11555,10 @@
         <v>65</v>
       </c>
       <c r="C605" s="6">
-        <v>12501</v>
+        <v>12801</v>
       </c>
       <c r="D605" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E605" s="5">
         <v>1</v>
@@ -11576,17 +11570,17 @@
         <v>15</v>
       </c>
       <c r="H605" s="3">
-        <v>20605</v>
+        <v>20425</v>
       </c>
     </row>
     <row r="606" spans="1:8">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="6">
-        <v>12502</v>
+        <v>12802</v>
       </c>
       <c r="D606" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E606" s="5">
         <v>1</v>
@@ -11598,15 +11592,15 @@
         <v>16</v>
       </c>
       <c r="H606" s="3">
-        <v>20606</v>
+        <v>20426</v>
       </c>
     </row>
     <row r="607" spans="3:8">
       <c r="C607" s="6">
-        <v>12503</v>
+        <v>12803</v>
       </c>
       <c r="D607" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E607" s="5">
         <v>1</v>
@@ -11618,15 +11612,15 @@
         <v>18</v>
       </c>
       <c r="H607" s="3">
-        <v>20607</v>
+        <v>20427</v>
       </c>
     </row>
     <row r="608" spans="3:8">
       <c r="C608" s="6">
-        <v>12504</v>
+        <v>12804</v>
       </c>
       <c r="D608" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E608" s="3">
         <v>1</v>
@@ -11638,15 +11632,15 @@
         <v>19</v>
       </c>
       <c r="H608" s="3">
-        <v>20608</v>
+        <v>20428</v>
       </c>
     </row>
     <row r="609" spans="3:7">
       <c r="C609" s="6">
-        <v>12505</v>
+        <v>12805</v>
       </c>
       <c r="D609" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E609" s="5">
         <v>3</v>
@@ -11660,10 +11654,10 @@
     </row>
     <row r="610" spans="3:7">
       <c r="C610" s="6">
-        <v>12506</v>
+        <v>12806</v>
       </c>
       <c r="D610" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E610" s="5">
         <v>10</v>
@@ -11677,10 +11671,10 @@
     </row>
     <row r="611" spans="3:7">
       <c r="C611" s="6">
-        <v>12507</v>
+        <v>12807</v>
       </c>
       <c r="D611" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E611" s="5">
         <v>10</v>
@@ -11694,10 +11688,10 @@
     </row>
     <row r="612" spans="3:7">
       <c r="C612" s="6">
-        <v>12508</v>
+        <v>12808</v>
       </c>
       <c r="D612" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E612" s="5">
         <v>10</v>
@@ -11711,10 +11705,10 @@
     </row>
     <row r="613" spans="3:7">
       <c r="C613" s="6">
-        <v>12509</v>
+        <v>12809</v>
       </c>
       <c r="D613" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E613" s="5">
         <v>10</v>
@@ -11728,10 +11722,10 @@
     </row>
     <row r="614" spans="3:7">
       <c r="C614" s="6">
-        <v>12510</v>
+        <v>12810</v>
       </c>
       <c r="D614" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E614" s="5">
         <v>10</v>
@@ -11745,10 +11739,10 @@
     </row>
     <row r="615" spans="3:7">
       <c r="C615" s="6">
-        <v>12511</v>
+        <v>12811</v>
       </c>
       <c r="D615" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E615" s="5">
         <v>9</v>
@@ -11762,10 +11756,10 @@
     </row>
     <row r="616" spans="3:7">
       <c r="C616" s="6">
-        <v>12512</v>
+        <v>12812</v>
       </c>
       <c r="D616" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E616" s="5">
         <v>10</v>
@@ -11779,10 +11773,10 @@
     </row>
     <row r="617" spans="3:7">
       <c r="C617" s="6">
-        <v>12513</v>
+        <v>12813</v>
       </c>
       <c r="D617" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E617" s="5">
         <v>9</v>
@@ -11796,10 +11790,10 @@
     </row>
     <row r="618" spans="3:7">
       <c r="C618" s="6">
-        <v>12514</v>
+        <v>12814</v>
       </c>
       <c r="D618" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E618" s="5">
         <v>9</v>
@@ -11813,10 +11807,10 @@
     </row>
     <row r="619" spans="3:7">
       <c r="C619" s="6">
-        <v>12515</v>
+        <v>12815</v>
       </c>
       <c r="D619" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E619" s="5">
         <v>9</v>
@@ -11830,10 +11824,10 @@
     </row>
     <row r="620" spans="3:7">
       <c r="C620" s="6">
-        <v>12516</v>
+        <v>12816</v>
       </c>
       <c r="D620" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E620" s="5">
         <v>2</v>
@@ -11847,10 +11841,10 @@
     </row>
     <row r="621" spans="3:7">
       <c r="C621" s="6">
-        <v>12517</v>
+        <v>12817</v>
       </c>
       <c r="D621" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E621" s="3">
         <v>9</v>
@@ -11864,10 +11858,10 @@
     </row>
     <row r="622" spans="3:7">
       <c r="C622" s="6">
-        <v>12518</v>
+        <v>12818</v>
       </c>
       <c r="D622" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E622" s="5">
         <v>9</v>
@@ -11881,10 +11875,10 @@
     </row>
     <row r="623" spans="3:7">
       <c r="C623" s="6">
-        <v>12519</v>
+        <v>12819</v>
       </c>
       <c r="D623" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E623" s="5">
         <v>10</v>
@@ -11898,10 +11892,10 @@
     </row>
     <row r="624" spans="3:7">
       <c r="C624" s="6">
-        <v>12520</v>
+        <v>12820</v>
       </c>
       <c r="D624" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E624" s="5">
         <v>9</v>
@@ -11915,10 +11909,10 @@
     </row>
     <row r="625" spans="3:7">
       <c r="C625" s="6">
-        <v>12521</v>
+        <v>12821</v>
       </c>
       <c r="D625" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E625" s="5">
         <v>5</v>
@@ -11932,10 +11926,10 @@
     </row>
     <row r="626" spans="3:7">
       <c r="C626" s="6">
-        <v>12522</v>
+        <v>12822</v>
       </c>
       <c r="D626" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E626" s="5">
         <v>6</v>
@@ -11949,10 +11943,10 @@
     </row>
     <row r="627" spans="3:7">
       <c r="C627" s="6">
-        <v>12523</v>
+        <v>12823</v>
       </c>
       <c r="D627" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E627" s="5">
         <v>7</v>
@@ -11966,10 +11960,10 @@
     </row>
     <row r="628" spans="3:7">
       <c r="C628" s="6">
-        <v>12524</v>
+        <v>12824</v>
       </c>
       <c r="D628" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E628" s="5">
         <v>8</v>
@@ -11983,10 +11977,10 @@
     </row>
     <row r="629" spans="3:7">
       <c r="C629" s="6">
-        <v>12525</v>
+        <v>12825</v>
       </c>
       <c r="D629" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E629" s="5">
         <v>9</v>
@@ -12003,10 +11997,10 @@
         <v>66</v>
       </c>
       <c r="C631" s="6">
-        <v>12601</v>
+        <v>12901</v>
       </c>
       <c r="D631" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E631" s="5">
         <v>1</v>
@@ -12018,17 +12012,17 @@
         <v>15</v>
       </c>
       <c r="H631" s="3">
-        <v>20615</v>
+        <v>20455</v>
       </c>
     </row>
     <row r="632" spans="1:8">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="6">
-        <v>12602</v>
+        <v>12902</v>
       </c>
       <c r="D632" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E632" s="5">
         <v>1</v>
@@ -12040,15 +12034,15 @@
         <v>16</v>
       </c>
       <c r="H632" s="3">
-        <v>20616</v>
+        <v>20456</v>
       </c>
     </row>
     <row r="633" spans="3:8">
       <c r="C633" s="6">
-        <v>12603</v>
+        <v>12903</v>
       </c>
       <c r="D633" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E633" s="5">
         <v>1</v>
@@ -12060,15 +12054,15 @@
         <v>18</v>
       </c>
       <c r="H633" s="3">
-        <v>20617</v>
+        <v>20457</v>
       </c>
     </row>
     <row r="634" spans="3:8">
       <c r="C634" s="6">
-        <v>12604</v>
+        <v>12904</v>
       </c>
       <c r="D634" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E634" s="3">
         <v>1</v>
@@ -12080,15 +12074,15 @@
         <v>19</v>
       </c>
       <c r="H634" s="3">
-        <v>20618</v>
+        <v>20458</v>
       </c>
     </row>
     <row r="635" spans="3:7">
       <c r="C635" s="6">
-        <v>12605</v>
+        <v>12905</v>
       </c>
       <c r="D635" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E635" s="5">
         <v>3</v>
@@ -12102,10 +12096,10 @@
     </row>
     <row r="636" spans="3:7">
       <c r="C636" s="6">
-        <v>12606</v>
+        <v>12906</v>
       </c>
       <c r="D636" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E636" s="5">
         <v>10</v>
@@ -12119,10 +12113,10 @@
     </row>
     <row r="637" spans="3:7">
       <c r="C637" s="6">
-        <v>12607</v>
+        <v>12907</v>
       </c>
       <c r="D637" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E637" s="5">
         <v>10</v>
@@ -12136,10 +12130,10 @@
     </row>
     <row r="638" spans="3:7">
       <c r="C638" s="6">
-        <v>12608</v>
+        <v>12908</v>
       </c>
       <c r="D638" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E638" s="5">
         <v>10</v>
@@ -12153,10 +12147,10 @@
     </row>
     <row r="639" spans="3:7">
       <c r="C639" s="6">
-        <v>12609</v>
+        <v>12909</v>
       </c>
       <c r="D639" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E639" s="5">
         <v>10</v>
@@ -12170,10 +12164,10 @@
     </row>
     <row r="640" spans="3:7">
       <c r="C640" s="6">
-        <v>12610</v>
+        <v>12910</v>
       </c>
       <c r="D640" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E640" s="5">
         <v>10</v>
@@ -12187,10 +12181,10 @@
     </row>
     <row r="641" spans="3:7">
       <c r="C641" s="6">
-        <v>12611</v>
+        <v>12911</v>
       </c>
       <c r="D641" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E641" s="5">
         <v>9</v>
@@ -12204,10 +12198,10 @@
     </row>
     <row r="642" spans="3:7">
       <c r="C642" s="6">
-        <v>12612</v>
+        <v>12912</v>
       </c>
       <c r="D642" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E642" s="5">
         <v>10</v>
@@ -12221,10 +12215,10 @@
     </row>
     <row r="643" spans="3:7">
       <c r="C643" s="6">
-        <v>12613</v>
+        <v>12913</v>
       </c>
       <c r="D643" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E643" s="5">
         <v>9</v>
@@ -12238,10 +12232,10 @@
     </row>
     <row r="644" spans="3:7">
       <c r="C644" s="6">
-        <v>12614</v>
+        <v>12914</v>
       </c>
       <c r="D644" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E644" s="5">
         <v>9</v>
@@ -12255,10 +12249,10 @@
     </row>
     <row r="645" spans="3:7">
       <c r="C645" s="6">
-        <v>12615</v>
+        <v>12915</v>
       </c>
       <c r="D645" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E645" s="5">
         <v>9</v>
@@ -12272,10 +12266,10 @@
     </row>
     <row r="646" spans="3:7">
       <c r="C646" s="6">
-        <v>12616</v>
+        <v>12916</v>
       </c>
       <c r="D646" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E646" s="5">
         <v>2</v>
@@ -12289,10 +12283,10 @@
     </row>
     <row r="647" spans="3:7">
       <c r="C647" s="6">
-        <v>12617</v>
+        <v>12917</v>
       </c>
       <c r="D647" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E647" s="3">
         <v>9</v>
@@ -12306,10 +12300,10 @@
     </row>
     <row r="648" spans="3:7">
       <c r="C648" s="6">
-        <v>12618</v>
+        <v>12918</v>
       </c>
       <c r="D648" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E648" s="5">
         <v>9</v>
@@ -12323,10 +12317,10 @@
     </row>
     <row r="649" spans="3:7">
       <c r="C649" s="6">
-        <v>12619</v>
+        <v>12919</v>
       </c>
       <c r="D649" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E649" s="5">
         <v>10</v>
@@ -12340,10 +12334,10 @@
     </row>
     <row r="650" spans="3:7">
       <c r="C650" s="6">
-        <v>12620</v>
+        <v>12920</v>
       </c>
       <c r="D650" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E650" s="5">
         <v>9</v>
@@ -12357,10 +12351,10 @@
     </row>
     <row r="651" spans="3:7">
       <c r="C651" s="6">
-        <v>12621</v>
+        <v>12921</v>
       </c>
       <c r="D651" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E651" s="5">
         <v>5</v>
@@ -12374,10 +12368,10 @@
     </row>
     <row r="652" spans="3:7">
       <c r="C652" s="6">
-        <v>12622</v>
+        <v>12922</v>
       </c>
       <c r="D652" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E652" s="5">
         <v>6</v>
@@ -12391,10 +12385,10 @@
     </row>
     <row r="653" spans="3:7">
       <c r="C653" s="6">
-        <v>12623</v>
+        <v>12923</v>
       </c>
       <c r="D653" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E653" s="5">
         <v>7</v>
@@ -12408,10 +12402,10 @@
     </row>
     <row r="654" spans="3:7">
       <c r="C654" s="6">
-        <v>12624</v>
+        <v>12924</v>
       </c>
       <c r="D654" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E654" s="5">
         <v>8</v>
@@ -12425,10 +12419,10 @@
     </row>
     <row r="655" spans="3:7">
       <c r="C655" s="6">
-        <v>12625</v>
+        <v>12925</v>
       </c>
       <c r="D655" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E655" s="5">
         <v>9</v>
@@ -12445,10 +12439,10 @@
         <v>67</v>
       </c>
       <c r="C657" s="6">
-        <v>12701</v>
+        <v>13001</v>
       </c>
       <c r="D657" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E657" s="5">
         <v>1</v>
@@ -12460,17 +12454,17 @@
         <v>15</v>
       </c>
       <c r="H657" s="3">
-        <v>20375</v>
+        <v>20505</v>
       </c>
     </row>
     <row r="658" spans="1:8">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="6">
-        <v>12702</v>
+        <v>13002</v>
       </c>
       <c r="D658" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E658" s="5">
         <v>1</v>
@@ -12482,15 +12476,15 @@
         <v>16</v>
       </c>
       <c r="H658" s="3">
-        <v>20376</v>
+        <v>20506</v>
       </c>
     </row>
     <row r="659" spans="3:8">
       <c r="C659" s="6">
-        <v>12703</v>
+        <v>13003</v>
       </c>
       <c r="D659" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E659" s="5">
         <v>1</v>
@@ -12502,15 +12496,15 @@
         <v>18</v>
       </c>
       <c r="H659" s="3">
-        <v>20377</v>
+        <v>20507</v>
       </c>
     </row>
     <row r="660" spans="3:8">
       <c r="C660" s="6">
-        <v>12704</v>
+        <v>13004</v>
       </c>
       <c r="D660" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E660" s="3">
         <v>1</v>
@@ -12522,15 +12516,15 @@
         <v>19</v>
       </c>
       <c r="H660" s="3">
-        <v>20378</v>
+        <v>20508</v>
       </c>
     </row>
     <row r="661" spans="3:7">
       <c r="C661" s="6">
-        <v>12705</v>
+        <v>13005</v>
       </c>
       <c r="D661" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E661" s="5">
         <v>3</v>
@@ -12544,10 +12538,10 @@
     </row>
     <row r="662" spans="3:7">
       <c r="C662" s="6">
-        <v>12706</v>
+        <v>13006</v>
       </c>
       <c r="D662" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E662" s="5">
         <v>10</v>
@@ -12561,10 +12555,10 @@
     </row>
     <row r="663" spans="3:7">
       <c r="C663" s="6">
-        <v>12707</v>
+        <v>13007</v>
       </c>
       <c r="D663" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E663" s="5">
         <v>10</v>
@@ -12578,10 +12572,10 @@
     </row>
     <row r="664" spans="3:7">
       <c r="C664" s="6">
-        <v>12708</v>
+        <v>13008</v>
       </c>
       <c r="D664" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E664" s="5">
         <v>10</v>
@@ -12595,10 +12589,10 @@
     </row>
     <row r="665" spans="3:7">
       <c r="C665" s="6">
-        <v>12709</v>
+        <v>13009</v>
       </c>
       <c r="D665" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E665" s="5">
         <v>10</v>
@@ -12612,10 +12606,10 @@
     </row>
     <row r="666" spans="3:7">
       <c r="C666" s="6">
-        <v>12710</v>
+        <v>13010</v>
       </c>
       <c r="D666" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E666" s="5">
         <v>10</v>
@@ -12629,10 +12623,10 @@
     </row>
     <row r="667" spans="3:7">
       <c r="C667" s="6">
-        <v>12711</v>
+        <v>13011</v>
       </c>
       <c r="D667" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E667" s="5">
         <v>9</v>
@@ -12646,10 +12640,10 @@
     </row>
     <row r="668" spans="3:7">
       <c r="C668" s="6">
-        <v>12712</v>
+        <v>13012</v>
       </c>
       <c r="D668" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E668" s="5">
         <v>10</v>
@@ -12663,10 +12657,10 @@
     </row>
     <row r="669" spans="3:7">
       <c r="C669" s="6">
-        <v>12713</v>
+        <v>13013</v>
       </c>
       <c r="D669" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E669" s="5">
         <v>9</v>
@@ -12680,10 +12674,10 @@
     </row>
     <row r="670" spans="3:7">
       <c r="C670" s="6">
-        <v>12714</v>
+        <v>13014</v>
       </c>
       <c r="D670" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E670" s="5">
         <v>9</v>
@@ -12697,10 +12691,10 @@
     </row>
     <row r="671" spans="3:7">
       <c r="C671" s="6">
-        <v>12715</v>
+        <v>13015</v>
       </c>
       <c r="D671" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E671" s="5">
         <v>9</v>
@@ -12714,10 +12708,10 @@
     </row>
     <row r="672" spans="3:7">
       <c r="C672" s="6">
-        <v>12716</v>
+        <v>13016</v>
       </c>
       <c r="D672" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E672" s="5">
         <v>2</v>
@@ -12731,10 +12725,10 @@
     </row>
     <row r="673" spans="3:7">
       <c r="C673" s="6">
-        <v>12717</v>
+        <v>13017</v>
       </c>
       <c r="D673" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E673" s="3">
         <v>9</v>
@@ -12748,10 +12742,10 @@
     </row>
     <row r="674" spans="3:7">
       <c r="C674" s="6">
-        <v>12718</v>
+        <v>13018</v>
       </c>
       <c r="D674" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E674" s="5">
         <v>9</v>
@@ -12765,10 +12759,10 @@
     </row>
     <row r="675" spans="3:7">
       <c r="C675" s="6">
-        <v>12719</v>
+        <v>13019</v>
       </c>
       <c r="D675" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E675" s="5">
         <v>10</v>
@@ -12782,10 +12776,10 @@
     </row>
     <row r="676" spans="3:7">
       <c r="C676" s="6">
-        <v>12720</v>
+        <v>13020</v>
       </c>
       <c r="D676" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E676" s="5">
         <v>9</v>
@@ -12799,10 +12793,10 @@
     </row>
     <row r="677" spans="3:7">
       <c r="C677" s="6">
-        <v>12721</v>
+        <v>13021</v>
       </c>
       <c r="D677" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E677" s="5">
         <v>5</v>
@@ -12816,10 +12810,10 @@
     </row>
     <row r="678" spans="3:7">
       <c r="C678" s="6">
-        <v>12722</v>
+        <v>13022</v>
       </c>
       <c r="D678" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E678" s="5">
         <v>6</v>
@@ -12833,10 +12827,10 @@
     </row>
     <row r="679" spans="3:7">
       <c r="C679" s="6">
-        <v>12723</v>
+        <v>13023</v>
       </c>
       <c r="D679" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E679" s="5">
         <v>7</v>
@@ -12850,10 +12844,10 @@
     </row>
     <row r="680" spans="3:7">
       <c r="C680" s="6">
-        <v>12724</v>
+        <v>13024</v>
       </c>
       <c r="D680" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E680" s="5">
         <v>8</v>
@@ -12867,10 +12861,10 @@
     </row>
     <row r="681" spans="3:7">
       <c r="C681" s="6">
-        <v>12725</v>
+        <v>13025</v>
       </c>
       <c r="D681" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E681" s="5">
         <v>9</v>
@@ -12887,10 +12881,10 @@
         <v>68</v>
       </c>
       <c r="C683" s="6">
-        <v>12801</v>
+        <v>13101</v>
       </c>
       <c r="D683" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E683" s="5">
         <v>1</v>
@@ -12902,17 +12896,17 @@
         <v>15</v>
       </c>
       <c r="H683" s="3">
-        <v>20425</v>
+        <v>20515</v>
       </c>
     </row>
     <row r="684" spans="1:8">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="6">
-        <v>12802</v>
+        <v>13102</v>
       </c>
       <c r="D684" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E684" s="5">
         <v>1</v>
@@ -12924,15 +12918,15 @@
         <v>16</v>
       </c>
       <c r="H684" s="3">
-        <v>20426</v>
+        <v>20516</v>
       </c>
     </row>
     <row r="685" spans="3:8">
       <c r="C685" s="6">
-        <v>12803</v>
+        <v>13103</v>
       </c>
       <c r="D685" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E685" s="5">
         <v>1</v>
@@ -12944,15 +12938,15 @@
         <v>18</v>
       </c>
       <c r="H685" s="3">
-        <v>20427</v>
+        <v>20517</v>
       </c>
     </row>
     <row r="686" spans="3:8">
       <c r="C686" s="6">
-        <v>12804</v>
+        <v>13104</v>
       </c>
       <c r="D686" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E686" s="3">
         <v>1</v>
@@ -12964,15 +12958,15 @@
         <v>19</v>
       </c>
       <c r="H686" s="3">
-        <v>20428</v>
+        <v>20518</v>
       </c>
     </row>
     <row r="687" spans="3:7">
       <c r="C687" s="6">
-        <v>12805</v>
+        <v>13105</v>
       </c>
       <c r="D687" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E687" s="5">
         <v>3</v>
@@ -12986,10 +12980,10 @@
     </row>
     <row r="688" spans="3:7">
       <c r="C688" s="6">
-        <v>12806</v>
+        <v>13106</v>
       </c>
       <c r="D688" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E688" s="5">
         <v>10</v>
@@ -13003,10 +12997,10 @@
     </row>
     <row r="689" spans="3:7">
       <c r="C689" s="6">
-        <v>12807</v>
+        <v>13107</v>
       </c>
       <c r="D689" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E689" s="5">
         <v>10</v>
@@ -13020,10 +13014,10 @@
     </row>
     <row r="690" spans="3:7">
       <c r="C690" s="6">
-        <v>12808</v>
+        <v>13108</v>
       </c>
       <c r="D690" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E690" s="5">
         <v>10</v>
@@ -13037,10 +13031,10 @@
     </row>
     <row r="691" spans="3:7">
       <c r="C691" s="6">
-        <v>12809</v>
+        <v>13109</v>
       </c>
       <c r="D691" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E691" s="5">
         <v>10</v>
@@ -13054,10 +13048,10 @@
     </row>
     <row r="692" spans="3:7">
       <c r="C692" s="6">
-        <v>12810</v>
+        <v>13110</v>
       </c>
       <c r="D692" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E692" s="5">
         <v>10</v>
@@ -13071,10 +13065,10 @@
     </row>
     <row r="693" spans="3:7">
       <c r="C693" s="6">
-        <v>12811</v>
+        <v>13111</v>
       </c>
       <c r="D693" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E693" s="5">
         <v>9</v>
@@ -13088,10 +13082,10 @@
     </row>
     <row r="694" spans="3:7">
       <c r="C694" s="6">
-        <v>12812</v>
+        <v>13112</v>
       </c>
       <c r="D694" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E694" s="5">
         <v>10</v>
@@ -13105,10 +13099,10 @@
     </row>
     <row r="695" spans="3:7">
       <c r="C695" s="6">
-        <v>12813</v>
+        <v>13113</v>
       </c>
       <c r="D695" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E695" s="5">
         <v>9</v>
@@ -13122,10 +13116,10 @@
     </row>
     <row r="696" spans="3:7">
       <c r="C696" s="6">
-        <v>12814</v>
+        <v>13114</v>
       </c>
       <c r="D696" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E696" s="5">
         <v>9</v>
@@ -13139,10 +13133,10 @@
     </row>
     <row r="697" spans="3:7">
       <c r="C697" s="6">
-        <v>12815</v>
+        <v>13115</v>
       </c>
       <c r="D697" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E697" s="5">
         <v>9</v>
@@ -13156,10 +13150,10 @@
     </row>
     <row r="698" spans="3:7">
       <c r="C698" s="6">
-        <v>12816</v>
+        <v>13116</v>
       </c>
       <c r="D698" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E698" s="5">
         <v>2</v>
@@ -13173,10 +13167,10 @@
     </row>
     <row r="699" spans="3:7">
       <c r="C699" s="6">
-        <v>12817</v>
+        <v>13117</v>
       </c>
       <c r="D699" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E699" s="3">
         <v>9</v>
@@ -13190,10 +13184,10 @@
     </row>
     <row r="700" spans="3:7">
       <c r="C700" s="6">
-        <v>12818</v>
+        <v>13118</v>
       </c>
       <c r="D700" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E700" s="5">
         <v>9</v>
@@ -13207,10 +13201,10 @@
     </row>
     <row r="701" spans="3:7">
       <c r="C701" s="6">
-        <v>12819</v>
+        <v>13119</v>
       </c>
       <c r="D701" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E701" s="5">
         <v>10</v>
@@ -13224,10 +13218,10 @@
     </row>
     <row r="702" spans="3:7">
       <c r="C702" s="6">
-        <v>12820</v>
+        <v>13120</v>
       </c>
       <c r="D702" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E702" s="5">
         <v>9</v>
@@ -13241,10 +13235,10 @@
     </row>
     <row r="703" spans="3:7">
       <c r="C703" s="6">
-        <v>12821</v>
+        <v>13121</v>
       </c>
       <c r="D703" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E703" s="5">
         <v>5</v>
@@ -13258,10 +13252,10 @@
     </row>
     <row r="704" spans="3:7">
       <c r="C704" s="6">
-        <v>12822</v>
+        <v>13122</v>
       </c>
       <c r="D704" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E704" s="5">
         <v>6</v>
@@ -13275,10 +13269,10 @@
     </row>
     <row r="705" spans="3:7">
       <c r="C705" s="6">
-        <v>12823</v>
+        <v>13123</v>
       </c>
       <c r="D705" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E705" s="5">
         <v>7</v>
@@ -13292,10 +13286,10 @@
     </row>
     <row r="706" spans="3:7">
       <c r="C706" s="6">
-        <v>12824</v>
+        <v>13124</v>
       </c>
       <c r="D706" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E706" s="5">
         <v>8</v>
@@ -13309,10 +13303,10 @@
     </row>
     <row r="707" spans="3:7">
       <c r="C707" s="6">
-        <v>12825</v>
+        <v>13125</v>
       </c>
       <c r="D707" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E707" s="5">
         <v>9</v>
@@ -13321,890 +13315,6 @@
         <v>42</v>
       </c>
       <c r="G707" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="709" spans="1:8">
-      <c r="A709" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C709" s="6">
-        <v>12901</v>
-      </c>
-      <c r="D709" s="3">
-        <v>129</v>
-      </c>
-      <c r="E709" s="5">
-        <v>1</v>
-      </c>
-      <c r="F709" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G709" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H709" s="3">
-        <v>20455</v>
-      </c>
-    </row>
-    <row r="710" spans="1:8">
-      <c r="A710" s="1"/>
-      <c r="B710" s="1"/>
-      <c r="C710" s="6">
-        <v>12902</v>
-      </c>
-      <c r="D710" s="3">
-        <v>129</v>
-      </c>
-      <c r="E710" s="5">
-        <v>1</v>
-      </c>
-      <c r="F710" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G710" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H710" s="3">
-        <v>20456</v>
-      </c>
-    </row>
-    <row r="711" spans="3:8">
-      <c r="C711" s="6">
-        <v>12903</v>
-      </c>
-      <c r="D711" s="3">
-        <v>129</v>
-      </c>
-      <c r="E711" s="5">
-        <v>1</v>
-      </c>
-      <c r="F711" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G711" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H711" s="3">
-        <v>20457</v>
-      </c>
-    </row>
-    <row r="712" spans="3:8">
-      <c r="C712" s="6">
-        <v>12904</v>
-      </c>
-      <c r="D712" s="3">
-        <v>129</v>
-      </c>
-      <c r="E712" s="3">
-        <v>1</v>
-      </c>
-      <c r="F712" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G712" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H712" s="3">
-        <v>20458</v>
-      </c>
-    </row>
-    <row r="713" spans="3:7">
-      <c r="C713" s="6">
-        <v>12905</v>
-      </c>
-      <c r="D713" s="3">
-        <v>129</v>
-      </c>
-      <c r="E713" s="5">
-        <v>3</v>
-      </c>
-      <c r="F713" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G713" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="714" spans="3:7">
-      <c r="C714" s="6">
-        <v>12906</v>
-      </c>
-      <c r="D714" s="3">
-        <v>129</v>
-      </c>
-      <c r="E714" s="5">
-        <v>10</v>
-      </c>
-      <c r="F714" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G714" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="715" spans="3:7">
-      <c r="C715" s="6">
-        <v>12907</v>
-      </c>
-      <c r="D715" s="3">
-        <v>129</v>
-      </c>
-      <c r="E715" s="5">
-        <v>10</v>
-      </c>
-      <c r="F715" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G715" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="716" spans="3:7">
-      <c r="C716" s="6">
-        <v>12908</v>
-      </c>
-      <c r="D716" s="3">
-        <v>129</v>
-      </c>
-      <c r="E716" s="5">
-        <v>10</v>
-      </c>
-      <c r="F716" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G716" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="717" spans="3:7">
-      <c r="C717" s="6">
-        <v>12909</v>
-      </c>
-      <c r="D717" s="3">
-        <v>129</v>
-      </c>
-      <c r="E717" s="5">
-        <v>10</v>
-      </c>
-      <c r="F717" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G717" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="718" spans="3:7">
-      <c r="C718" s="6">
-        <v>12910</v>
-      </c>
-      <c r="D718" s="3">
-        <v>129</v>
-      </c>
-      <c r="E718" s="5">
-        <v>10</v>
-      </c>
-      <c r="F718" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G718" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="719" spans="3:7">
-      <c r="C719" s="6">
-        <v>12911</v>
-      </c>
-      <c r="D719" s="3">
-        <v>129</v>
-      </c>
-      <c r="E719" s="5">
-        <v>9</v>
-      </c>
-      <c r="F719" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G719" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="720" spans="3:7">
-      <c r="C720" s="6">
-        <v>12912</v>
-      </c>
-      <c r="D720" s="3">
-        <v>129</v>
-      </c>
-      <c r="E720" s="5">
-        <v>10</v>
-      </c>
-      <c r="F720" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G720" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="721" spans="3:7">
-      <c r="C721" s="6">
-        <v>12913</v>
-      </c>
-      <c r="D721" s="3">
-        <v>129</v>
-      </c>
-      <c r="E721" s="5">
-        <v>9</v>
-      </c>
-      <c r="F721" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G721" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="722" spans="3:7">
-      <c r="C722" s="6">
-        <v>12914</v>
-      </c>
-      <c r="D722" s="3">
-        <v>129</v>
-      </c>
-      <c r="E722" s="5">
-        <v>9</v>
-      </c>
-      <c r="F722" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G722" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="723" spans="3:7">
-      <c r="C723" s="6">
-        <v>12915</v>
-      </c>
-      <c r="D723" s="3">
-        <v>129</v>
-      </c>
-      <c r="E723" s="5">
-        <v>9</v>
-      </c>
-      <c r="F723" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G723" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="724" spans="3:7">
-      <c r="C724" s="6">
-        <v>12916</v>
-      </c>
-      <c r="D724" s="3">
-        <v>129</v>
-      </c>
-      <c r="E724" s="5">
-        <v>2</v>
-      </c>
-      <c r="F724" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G724" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="725" spans="3:7">
-      <c r="C725" s="6">
-        <v>12917</v>
-      </c>
-      <c r="D725" s="3">
-        <v>129</v>
-      </c>
-      <c r="E725" s="3">
-        <v>9</v>
-      </c>
-      <c r="F725" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G725" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="726" spans="3:7">
-      <c r="C726" s="6">
-        <v>12918</v>
-      </c>
-      <c r="D726" s="3">
-        <v>129</v>
-      </c>
-      <c r="E726" s="5">
-        <v>9</v>
-      </c>
-      <c r="F726" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G726" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="727" spans="3:7">
-      <c r="C727" s="6">
-        <v>12919</v>
-      </c>
-      <c r="D727" s="3">
-        <v>129</v>
-      </c>
-      <c r="E727" s="5">
-        <v>10</v>
-      </c>
-      <c r="F727" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G727" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="728" spans="3:7">
-      <c r="C728" s="6">
-        <v>12920</v>
-      </c>
-      <c r="D728" s="3">
-        <v>129</v>
-      </c>
-      <c r="E728" s="5">
-        <v>9</v>
-      </c>
-      <c r="F728" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G728" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="729" spans="3:7">
-      <c r="C729" s="6">
-        <v>12921</v>
-      </c>
-      <c r="D729" s="3">
-        <v>129</v>
-      </c>
-      <c r="E729" s="5">
-        <v>5</v>
-      </c>
-      <c r="F729" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G729" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="730" spans="3:7">
-      <c r="C730" s="6">
-        <v>12922</v>
-      </c>
-      <c r="D730" s="3">
-        <v>129</v>
-      </c>
-      <c r="E730" s="5">
-        <v>6</v>
-      </c>
-      <c r="F730" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G730" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="731" spans="3:7">
-      <c r="C731" s="6">
-        <v>12923</v>
-      </c>
-      <c r="D731" s="3">
-        <v>129</v>
-      </c>
-      <c r="E731" s="5">
-        <v>7</v>
-      </c>
-      <c r="F731" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G731" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="732" spans="3:7">
-      <c r="C732" s="6">
-        <v>12924</v>
-      </c>
-      <c r="D732" s="3">
-        <v>129</v>
-      </c>
-      <c r="E732" s="5">
-        <v>8</v>
-      </c>
-      <c r="F732" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G732" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="733" spans="3:7">
-      <c r="C733" s="6">
-        <v>12925</v>
-      </c>
-      <c r="D733" s="3">
-        <v>129</v>
-      </c>
-      <c r="E733" s="5">
-        <v>9</v>
-      </c>
-      <c r="F733" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G733" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="735" spans="1:8">
-      <c r="A735" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C735" s="6">
-        <v>13001</v>
-      </c>
-      <c r="D735" s="3">
-        <v>130</v>
-      </c>
-      <c r="E735" s="5">
-        <v>1</v>
-      </c>
-      <c r="F735" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G735" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H735" s="3">
-        <v>20505</v>
-      </c>
-    </row>
-    <row r="736" spans="1:8">
-      <c r="A736" s="1"/>
-      <c r="B736" s="1"/>
-      <c r="C736" s="6">
-        <v>13002</v>
-      </c>
-      <c r="D736" s="3">
-        <v>130</v>
-      </c>
-      <c r="E736" s="5">
-        <v>1</v>
-      </c>
-      <c r="F736" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G736" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H736" s="3">
-        <v>20506</v>
-      </c>
-    </row>
-    <row r="737" spans="3:8">
-      <c r="C737" s="6">
-        <v>13003</v>
-      </c>
-      <c r="D737" s="3">
-        <v>130</v>
-      </c>
-      <c r="E737" s="5">
-        <v>1</v>
-      </c>
-      <c r="F737" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G737" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H737" s="3">
-        <v>20507</v>
-      </c>
-    </row>
-    <row r="738" spans="3:8">
-      <c r="C738" s="6">
-        <v>13004</v>
-      </c>
-      <c r="D738" s="3">
-        <v>130</v>
-      </c>
-      <c r="E738" s="3">
-        <v>1</v>
-      </c>
-      <c r="F738" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G738" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H738" s="3">
-        <v>20508</v>
-      </c>
-    </row>
-    <row r="739" spans="3:7">
-      <c r="C739" s="6">
-        <v>13005</v>
-      </c>
-      <c r="D739" s="3">
-        <v>130</v>
-      </c>
-      <c r="E739" s="5">
-        <v>3</v>
-      </c>
-      <c r="F739" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G739" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="740" spans="3:7">
-      <c r="C740" s="6">
-        <v>13006</v>
-      </c>
-      <c r="D740" s="3">
-        <v>130</v>
-      </c>
-      <c r="E740" s="5">
-        <v>10</v>
-      </c>
-      <c r="F740" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G740" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="741" spans="3:7">
-      <c r="C741" s="6">
-        <v>13007</v>
-      </c>
-      <c r="D741" s="3">
-        <v>130</v>
-      </c>
-      <c r="E741" s="5">
-        <v>10</v>
-      </c>
-      <c r="F741" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G741" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="742" spans="3:7">
-      <c r="C742" s="6">
-        <v>13008</v>
-      </c>
-      <c r="D742" s="3">
-        <v>130</v>
-      </c>
-      <c r="E742" s="5">
-        <v>10</v>
-      </c>
-      <c r="F742" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G742" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="743" spans="3:7">
-      <c r="C743" s="6">
-        <v>13009</v>
-      </c>
-      <c r="D743" s="3">
-        <v>130</v>
-      </c>
-      <c r="E743" s="5">
-        <v>10</v>
-      </c>
-      <c r="F743" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G743" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="744" spans="3:7">
-      <c r="C744" s="6">
-        <v>13010</v>
-      </c>
-      <c r="D744" s="3">
-        <v>130</v>
-      </c>
-      <c r="E744" s="5">
-        <v>10</v>
-      </c>
-      <c r="F744" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G744" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="745" spans="3:7">
-      <c r="C745" s="6">
-        <v>13011</v>
-      </c>
-      <c r="D745" s="3">
-        <v>130</v>
-      </c>
-      <c r="E745" s="5">
-        <v>9</v>
-      </c>
-      <c r="F745" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G745" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="746" spans="3:7">
-      <c r="C746" s="6">
-        <v>13012</v>
-      </c>
-      <c r="D746" s="3">
-        <v>130</v>
-      </c>
-      <c r="E746" s="5">
-        <v>10</v>
-      </c>
-      <c r="F746" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G746" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="747" spans="3:7">
-      <c r="C747" s="6">
-        <v>13013</v>
-      </c>
-      <c r="D747" s="3">
-        <v>130</v>
-      </c>
-      <c r="E747" s="5">
-        <v>9</v>
-      </c>
-      <c r="F747" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G747" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="748" spans="3:7">
-      <c r="C748" s="6">
-        <v>13014</v>
-      </c>
-      <c r="D748" s="3">
-        <v>130</v>
-      </c>
-      <c r="E748" s="5">
-        <v>9</v>
-      </c>
-      <c r="F748" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G748" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="749" spans="3:7">
-      <c r="C749" s="6">
-        <v>13015</v>
-      </c>
-      <c r="D749" s="3">
-        <v>130</v>
-      </c>
-      <c r="E749" s="5">
-        <v>9</v>
-      </c>
-      <c r="F749" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G749" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="750" spans="3:7">
-      <c r="C750" s="6">
-        <v>13016</v>
-      </c>
-      <c r="D750" s="3">
-        <v>130</v>
-      </c>
-      <c r="E750" s="5">
-        <v>2</v>
-      </c>
-      <c r="F750" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G750" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="751" spans="3:7">
-      <c r="C751" s="6">
-        <v>13017</v>
-      </c>
-      <c r="D751" s="3">
-        <v>130</v>
-      </c>
-      <c r="E751" s="3">
-        <v>9</v>
-      </c>
-      <c r="F751" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G751" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="752" spans="3:7">
-      <c r="C752" s="6">
-        <v>13018</v>
-      </c>
-      <c r="D752" s="3">
-        <v>130</v>
-      </c>
-      <c r="E752" s="5">
-        <v>9</v>
-      </c>
-      <c r="F752" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G752" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="753" spans="3:7">
-      <c r="C753" s="6">
-        <v>13019</v>
-      </c>
-      <c r="D753" s="3">
-        <v>130</v>
-      </c>
-      <c r="E753" s="5">
-        <v>10</v>
-      </c>
-      <c r="F753" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G753" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="754" spans="3:7">
-      <c r="C754" s="6">
-        <v>13020</v>
-      </c>
-      <c r="D754" s="3">
-        <v>130</v>
-      </c>
-      <c r="E754" s="5">
-        <v>9</v>
-      </c>
-      <c r="F754" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G754" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="755" spans="3:7">
-      <c r="C755" s="6">
-        <v>13021</v>
-      </c>
-      <c r="D755" s="3">
-        <v>130</v>
-      </c>
-      <c r="E755" s="5">
-        <v>5</v>
-      </c>
-      <c r="F755" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G755" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="756" spans="3:7">
-      <c r="C756" s="6">
-        <v>13022</v>
-      </c>
-      <c r="D756" s="3">
-        <v>130</v>
-      </c>
-      <c r="E756" s="5">
-        <v>6</v>
-      </c>
-      <c r="F756" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G756" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="757" spans="3:7">
-      <c r="C757" s="6">
-        <v>13023</v>
-      </c>
-      <c r="D757" s="3">
-        <v>130</v>
-      </c>
-      <c r="E757" s="5">
-        <v>7</v>
-      </c>
-      <c r="F757" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G757" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="758" spans="3:7">
-      <c r="C758" s="6">
-        <v>13024</v>
-      </c>
-      <c r="D758" s="3">
-        <v>130</v>
-      </c>
-      <c r="E758" s="5">
-        <v>8</v>
-      </c>
-      <c r="F758" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G758" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="759" spans="3:7">
-      <c r="C759" s="6">
-        <v>13025</v>
-      </c>
-      <c r="D759" s="3">
-        <v>130</v>
-      </c>
-      <c r="E759" s="5">
-        <v>9</v>
-      </c>
-      <c r="F759" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G759" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -14330,10 +13440,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -14348,10 +13458,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -14366,10 +13476,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -14384,10 +13494,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H9" s="5">
         <v>20304</v>
@@ -14404,10 +13514,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -14507,10 +13617,10 @@
         <v>203</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="77">
   <si>
     <t>Id</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>#先锋131花满楼</t>
+  </si>
+  <si>
+    <t>#先锋132</t>
   </si>
   <si>
     <t>Center</t>
@@ -1263,10 +1266,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O707"/>
+  <dimension ref="A3:O733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="K302" sqref="K302"/>
+    <sheetView tabSelected="1" topLeftCell="A697" workbookViewId="0">
+      <selection activeCell="C709" sqref="C709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13315,6 +13318,448 @@
         <v>42</v>
       </c>
       <c r="G707" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8">
+      <c r="A709" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C709" s="6">
+        <v>13201</v>
+      </c>
+      <c r="D709" s="3">
+        <v>132</v>
+      </c>
+      <c r="E709" s="5">
+        <v>1</v>
+      </c>
+      <c r="F709" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G709" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H709" s="3">
+        <v>20445</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8">
+      <c r="A710" s="1"/>
+      <c r="B710" s="1"/>
+      <c r="C710" s="6">
+        <v>13202</v>
+      </c>
+      <c r="D710" s="3">
+        <v>132</v>
+      </c>
+      <c r="E710" s="5">
+        <v>1</v>
+      </c>
+      <c r="F710" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G710" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H710" s="3">
+        <v>20446</v>
+      </c>
+    </row>
+    <row r="711" spans="3:8">
+      <c r="C711" s="6">
+        <v>13203</v>
+      </c>
+      <c r="D711" s="3">
+        <v>132</v>
+      </c>
+      <c r="E711" s="5">
+        <v>1</v>
+      </c>
+      <c r="F711" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G711" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H711" s="3">
+        <v>20447</v>
+      </c>
+    </row>
+    <row r="712" spans="3:8">
+      <c r="C712" s="6">
+        <v>13204</v>
+      </c>
+      <c r="D712" s="3">
+        <v>132</v>
+      </c>
+      <c r="E712" s="3">
+        <v>1</v>
+      </c>
+      <c r="F712" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G712" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H712" s="3">
+        <v>20448</v>
+      </c>
+    </row>
+    <row r="713" spans="3:7">
+      <c r="C713" s="6">
+        <v>13205</v>
+      </c>
+      <c r="D713" s="3">
+        <v>132</v>
+      </c>
+      <c r="E713" s="5">
+        <v>3</v>
+      </c>
+      <c r="F713" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G713" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="714" spans="3:7">
+      <c r="C714" s="6">
+        <v>13206</v>
+      </c>
+      <c r="D714" s="3">
+        <v>132</v>
+      </c>
+      <c r="E714" s="5">
+        <v>10</v>
+      </c>
+      <c r="F714" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G714" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="715" spans="3:7">
+      <c r="C715" s="6">
+        <v>13207</v>
+      </c>
+      <c r="D715" s="3">
+        <v>132</v>
+      </c>
+      <c r="E715" s="5">
+        <v>10</v>
+      </c>
+      <c r="F715" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G715" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="716" spans="3:7">
+      <c r="C716" s="6">
+        <v>13208</v>
+      </c>
+      <c r="D716" s="3">
+        <v>132</v>
+      </c>
+      <c r="E716" s="5">
+        <v>10</v>
+      </c>
+      <c r="F716" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G716" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="717" spans="3:7">
+      <c r="C717" s="6">
+        <v>13209</v>
+      </c>
+      <c r="D717" s="3">
+        <v>132</v>
+      </c>
+      <c r="E717" s="5">
+        <v>10</v>
+      </c>
+      <c r="F717" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G717" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="718" spans="3:7">
+      <c r="C718" s="6">
+        <v>13210</v>
+      </c>
+      <c r="D718" s="3">
+        <v>132</v>
+      </c>
+      <c r="E718" s="5">
+        <v>10</v>
+      </c>
+      <c r="F718" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G718" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="719" spans="3:7">
+      <c r="C719" s="6">
+        <v>13211</v>
+      </c>
+      <c r="D719" s="3">
+        <v>132</v>
+      </c>
+      <c r="E719" s="5">
+        <v>9</v>
+      </c>
+      <c r="F719" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G719" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="720" spans="3:7">
+      <c r="C720" s="6">
+        <v>13212</v>
+      </c>
+      <c r="D720" s="3">
+        <v>132</v>
+      </c>
+      <c r="E720" s="5">
+        <v>10</v>
+      </c>
+      <c r="F720" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G720" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="721" spans="3:7">
+      <c r="C721" s="6">
+        <v>13213</v>
+      </c>
+      <c r="D721" s="3">
+        <v>132</v>
+      </c>
+      <c r="E721" s="5">
+        <v>9</v>
+      </c>
+      <c r="F721" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G721" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="722" spans="3:7">
+      <c r="C722" s="6">
+        <v>13214</v>
+      </c>
+      <c r="D722" s="3">
+        <v>132</v>
+      </c>
+      <c r="E722" s="5">
+        <v>9</v>
+      </c>
+      <c r="F722" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G722" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="723" spans="3:7">
+      <c r="C723" s="6">
+        <v>13215</v>
+      </c>
+      <c r="D723" s="3">
+        <v>132</v>
+      </c>
+      <c r="E723" s="5">
+        <v>9</v>
+      </c>
+      <c r="F723" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G723" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="724" spans="3:7">
+      <c r="C724" s="6">
+        <v>13216</v>
+      </c>
+      <c r="D724" s="3">
+        <v>132</v>
+      </c>
+      <c r="E724" s="5">
+        <v>2</v>
+      </c>
+      <c r="F724" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G724" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="725" spans="3:7">
+      <c r="C725" s="6">
+        <v>13217</v>
+      </c>
+      <c r="D725" s="3">
+        <v>132</v>
+      </c>
+      <c r="E725" s="3">
+        <v>9</v>
+      </c>
+      <c r="F725" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G725" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="726" spans="3:7">
+      <c r="C726" s="6">
+        <v>13218</v>
+      </c>
+      <c r="D726" s="3">
+        <v>132</v>
+      </c>
+      <c r="E726" s="5">
+        <v>9</v>
+      </c>
+      <c r="F726" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G726" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="727" spans="3:7">
+      <c r="C727" s="6">
+        <v>13219</v>
+      </c>
+      <c r="D727" s="3">
+        <v>132</v>
+      </c>
+      <c r="E727" s="5">
+        <v>10</v>
+      </c>
+      <c r="F727" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G727" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="728" spans="3:7">
+      <c r="C728" s="6">
+        <v>13220</v>
+      </c>
+      <c r="D728" s="3">
+        <v>132</v>
+      </c>
+      <c r="E728" s="5">
+        <v>9</v>
+      </c>
+      <c r="F728" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G728" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="729" spans="3:7">
+      <c r="C729" s="6">
+        <v>13221</v>
+      </c>
+      <c r="D729" s="3">
+        <v>132</v>
+      </c>
+      <c r="E729" s="5">
+        <v>5</v>
+      </c>
+      <c r="F729" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G729" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="730" spans="3:7">
+      <c r="C730" s="6">
+        <v>13222</v>
+      </c>
+      <c r="D730" s="3">
+        <v>132</v>
+      </c>
+      <c r="E730" s="5">
+        <v>6</v>
+      </c>
+      <c r="F730" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G730" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="731" spans="3:7">
+      <c r="C731" s="6">
+        <v>13223</v>
+      </c>
+      <c r="D731" s="3">
+        <v>132</v>
+      </c>
+      <c r="E731" s="5">
+        <v>7</v>
+      </c>
+      <c r="F731" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G731" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="732" spans="3:7">
+      <c r="C732" s="6">
+        <v>13224</v>
+      </c>
+      <c r="D732" s="3">
+        <v>132</v>
+      </c>
+      <c r="E732" s="5">
+        <v>8</v>
+      </c>
+      <c r="F732" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G732" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="733" spans="3:7">
+      <c r="C733" s="6">
+        <v>13225</v>
+      </c>
+      <c r="D733" s="3">
+        <v>132</v>
+      </c>
+      <c r="E733" s="5">
+        <v>9</v>
+      </c>
+      <c r="F733" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G733" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13440,10 +13885,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -13458,10 +13903,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -13476,10 +13921,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -13494,10 +13939,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" s="5">
         <v>20304</v>
@@ -13514,10 +13959,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -13617,10 +14062,10 @@
         <v>203</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -238,7 +238,7 @@
     <t>#先锋131花满楼</t>
   </si>
   <si>
-    <t>#先锋132</t>
+    <t>#先锋132星辰之怒</t>
   </si>
   <si>
     <t>Center</t>
@@ -1268,8 +1268,8 @@
   <sheetPr/>
   <dimension ref="A3:O733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A697" workbookViewId="0">
-      <selection activeCell="C709" sqref="C709"/>
+    <sheetView tabSelected="1" topLeftCell="A682" workbookViewId="0">
+      <selection activeCell="A716" sqref="A716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>#先锋132星辰之怒</t>
+  </si>
+  <si>
+    <t>#先锋133</t>
   </si>
   <si>
     <t>Center</t>
@@ -1266,10 +1269,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O733"/>
+  <dimension ref="A3:O759"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A682" workbookViewId="0">
-      <selection activeCell="A716" sqref="A716"/>
+    <sheetView tabSelected="1" topLeftCell="A723" workbookViewId="0">
+      <selection activeCell="H743" sqref="H743"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13760,6 +13763,448 @@
         <v>42</v>
       </c>
       <c r="G733" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8">
+      <c r="A735" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C735" s="6">
+        <v>13301</v>
+      </c>
+      <c r="D735" s="3">
+        <v>133</v>
+      </c>
+      <c r="E735" s="5">
+        <v>1</v>
+      </c>
+      <c r="F735" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G735" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H735" s="3">
+        <v>20495</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8">
+      <c r="A736" s="1"/>
+      <c r="B736" s="1"/>
+      <c r="C736" s="6">
+        <v>13302</v>
+      </c>
+      <c r="D736" s="3">
+        <v>133</v>
+      </c>
+      <c r="E736" s="5">
+        <v>1</v>
+      </c>
+      <c r="F736" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G736" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H736" s="3">
+        <v>20496</v>
+      </c>
+    </row>
+    <row r="737" spans="3:8">
+      <c r="C737" s="6">
+        <v>13303</v>
+      </c>
+      <c r="D737" s="3">
+        <v>133</v>
+      </c>
+      <c r="E737" s="5">
+        <v>1</v>
+      </c>
+      <c r="F737" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G737" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H737" s="3">
+        <v>20497</v>
+      </c>
+    </row>
+    <row r="738" spans="3:8">
+      <c r="C738" s="6">
+        <v>13304</v>
+      </c>
+      <c r="D738" s="3">
+        <v>133</v>
+      </c>
+      <c r="E738" s="3">
+        <v>1</v>
+      </c>
+      <c r="F738" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G738" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H738" s="3">
+        <v>20498</v>
+      </c>
+    </row>
+    <row r="739" spans="3:7">
+      <c r="C739" s="6">
+        <v>13305</v>
+      </c>
+      <c r="D739" s="3">
+        <v>133</v>
+      </c>
+      <c r="E739" s="5">
+        <v>3</v>
+      </c>
+      <c r="F739" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G739" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="740" spans="3:7">
+      <c r="C740" s="6">
+        <v>13306</v>
+      </c>
+      <c r="D740" s="3">
+        <v>133</v>
+      </c>
+      <c r="E740" s="5">
+        <v>10</v>
+      </c>
+      <c r="F740" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G740" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="741" spans="3:7">
+      <c r="C741" s="6">
+        <v>13307</v>
+      </c>
+      <c r="D741" s="3">
+        <v>133</v>
+      </c>
+      <c r="E741" s="5">
+        <v>10</v>
+      </c>
+      <c r="F741" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G741" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="742" spans="3:7">
+      <c r="C742" s="6">
+        <v>13308</v>
+      </c>
+      <c r="D742" s="3">
+        <v>133</v>
+      </c>
+      <c r="E742" s="5">
+        <v>10</v>
+      </c>
+      <c r="F742" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G742" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="743" spans="3:7">
+      <c r="C743" s="6">
+        <v>13309</v>
+      </c>
+      <c r="D743" s="3">
+        <v>133</v>
+      </c>
+      <c r="E743" s="5">
+        <v>10</v>
+      </c>
+      <c r="F743" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G743" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="744" spans="3:7">
+      <c r="C744" s="6">
+        <v>13310</v>
+      </c>
+      <c r="D744" s="3">
+        <v>133</v>
+      </c>
+      <c r="E744" s="5">
+        <v>10</v>
+      </c>
+      <c r="F744" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G744" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="745" spans="3:7">
+      <c r="C745" s="6">
+        <v>13311</v>
+      </c>
+      <c r="D745" s="3">
+        <v>133</v>
+      </c>
+      <c r="E745" s="5">
+        <v>9</v>
+      </c>
+      <c r="F745" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G745" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="746" spans="3:7">
+      <c r="C746" s="6">
+        <v>13312</v>
+      </c>
+      <c r="D746" s="3">
+        <v>133</v>
+      </c>
+      <c r="E746" s="5">
+        <v>10</v>
+      </c>
+      <c r="F746" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G746" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="747" spans="3:7">
+      <c r="C747" s="6">
+        <v>13313</v>
+      </c>
+      <c r="D747" s="3">
+        <v>133</v>
+      </c>
+      <c r="E747" s="5">
+        <v>9</v>
+      </c>
+      <c r="F747" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G747" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="748" spans="3:7">
+      <c r="C748" s="6">
+        <v>13314</v>
+      </c>
+      <c r="D748" s="3">
+        <v>133</v>
+      </c>
+      <c r="E748" s="5">
+        <v>9</v>
+      </c>
+      <c r="F748" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G748" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="749" spans="3:7">
+      <c r="C749" s="6">
+        <v>13315</v>
+      </c>
+      <c r="D749" s="3">
+        <v>133</v>
+      </c>
+      <c r="E749" s="5">
+        <v>9</v>
+      </c>
+      <c r="F749" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G749" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="750" spans="3:7">
+      <c r="C750" s="6">
+        <v>13316</v>
+      </c>
+      <c r="D750" s="3">
+        <v>133</v>
+      </c>
+      <c r="E750" s="5">
+        <v>2</v>
+      </c>
+      <c r="F750" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G750" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="751" spans="3:7">
+      <c r="C751" s="6">
+        <v>13317</v>
+      </c>
+      <c r="D751" s="3">
+        <v>133</v>
+      </c>
+      <c r="E751" s="3">
+        <v>9</v>
+      </c>
+      <c r="F751" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G751" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="752" spans="3:7">
+      <c r="C752" s="6">
+        <v>13318</v>
+      </c>
+      <c r="D752" s="3">
+        <v>133</v>
+      </c>
+      <c r="E752" s="5">
+        <v>9</v>
+      </c>
+      <c r="F752" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G752" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="753" spans="3:7">
+      <c r="C753" s="6">
+        <v>13319</v>
+      </c>
+      <c r="D753" s="3">
+        <v>133</v>
+      </c>
+      <c r="E753" s="5">
+        <v>10</v>
+      </c>
+      <c r="F753" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G753" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="754" spans="3:7">
+      <c r="C754" s="6">
+        <v>13320</v>
+      </c>
+      <c r="D754" s="3">
+        <v>133</v>
+      </c>
+      <c r="E754" s="5">
+        <v>9</v>
+      </c>
+      <c r="F754" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G754" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="755" spans="3:7">
+      <c r="C755" s="6">
+        <v>13321</v>
+      </c>
+      <c r="D755" s="3">
+        <v>133</v>
+      </c>
+      <c r="E755" s="5">
+        <v>5</v>
+      </c>
+      <c r="F755" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G755" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="756" spans="3:7">
+      <c r="C756" s="6">
+        <v>13322</v>
+      </c>
+      <c r="D756" s="3">
+        <v>133</v>
+      </c>
+      <c r="E756" s="5">
+        <v>6</v>
+      </c>
+      <c r="F756" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G756" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="757" spans="3:7">
+      <c r="C757" s="6">
+        <v>13323</v>
+      </c>
+      <c r="D757" s="3">
+        <v>133</v>
+      </c>
+      <c r="E757" s="5">
+        <v>7</v>
+      </c>
+      <c r="F757" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G757" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="758" spans="3:7">
+      <c r="C758" s="6">
+        <v>13324</v>
+      </c>
+      <c r="D758" s="3">
+        <v>133</v>
+      </c>
+      <c r="E758" s="5">
+        <v>8</v>
+      </c>
+      <c r="F758" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G758" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="759" spans="3:7">
+      <c r="C759" s="6">
+        <v>13325</v>
+      </c>
+      <c r="D759" s="3">
+        <v>133</v>
+      </c>
+      <c r="E759" s="5">
+        <v>9</v>
+      </c>
+      <c r="F759" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G759" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13885,10 +14330,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -13903,10 +14348,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -13921,10 +14366,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -13939,10 +14384,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" s="5">
         <v>20304</v>
@@ -13959,10 +14404,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -14062,10 +14507,10 @@
         <v>203</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -241,7 +241,7 @@
     <t>#先锋132星辰之怒</t>
   </si>
   <si>
-    <t>#先锋133</t>
+    <t>#先锋133奇迹之光</t>
   </si>
   <si>
     <t>Center</t>
@@ -1272,7 +1272,7 @@
   <dimension ref="A3:O759"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A723" workbookViewId="0">
-      <selection activeCell="H743" sqref="H743"/>
+      <selection activeCell="A741" sqref="A741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="75">
   <si>
     <t>Id</t>
   </si>
@@ -193,9 +193,6 @@
     <t>#先锋97区萤火森林</t>
   </si>
   <si>
-    <t>#先锋101区长风破浪</t>
-  </si>
-  <si>
     <t>#先锋105区锦绣山河</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>#先锋117区朝花夕拾</t>
   </si>
   <si>
-    <t>#先锋119区龙焰平原</t>
-  </si>
-  <si>
     <t>#先锋121区太平盛世</t>
   </si>
   <si>
@@ -220,16 +214,10 @@
     <t>#先锋125断桥残雪</t>
   </si>
   <si>
-    <t>#先锋126南屏晚钟</t>
-  </si>
-  <si>
     <t>#先锋127璀璨梦境</t>
   </si>
   <si>
     <t>#先锋128主播专服</t>
-  </si>
-  <si>
-    <t>#先锋129永恒结界</t>
   </si>
   <si>
     <t>#先锋130巅峰对决</t>
@@ -242,6 +230,9 @@
   </si>
   <si>
     <t>#先锋133奇迹之光</t>
+  </si>
+  <si>
+    <t>#先锋134风暴之怒</t>
   </si>
   <si>
     <t>Center</t>
@@ -1269,10 +1260,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O759"/>
+  <dimension ref="A3:O681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A723" workbookViewId="0">
-      <selection activeCell="A741" sqref="A741"/>
+    <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
+      <selection activeCell="K562" sqref="K562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6699,10 +6690,10 @@
         <v>54</v>
       </c>
       <c r="C319" s="6">
-        <v>10101</v>
+        <v>10501</v>
       </c>
       <c r="D319" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E319" s="5">
         <v>1</v>
@@ -6714,17 +6705,17 @@
         <v>15</v>
       </c>
       <c r="H319" s="3">
-        <v>20405</v>
+        <v>20395</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="6">
-        <v>10102</v>
+        <v>10502</v>
       </c>
       <c r="D320" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E320" s="5">
         <v>1</v>
@@ -6736,15 +6727,15 @@
         <v>16</v>
       </c>
       <c r="H320" s="3">
-        <v>20406</v>
+        <v>20396</v>
       </c>
     </row>
     <row r="321" spans="3:8">
       <c r="C321" s="6">
-        <v>10103</v>
+        <v>10503</v>
       </c>
       <c r="D321" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E321" s="5">
         <v>1</v>
@@ -6756,15 +6747,15 @@
         <v>18</v>
       </c>
       <c r="H321" s="3">
-        <v>20407</v>
+        <v>20397</v>
       </c>
     </row>
     <row r="322" spans="3:8">
       <c r="C322" s="6">
-        <v>10104</v>
+        <v>10504</v>
       </c>
       <c r="D322" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E322" s="3">
         <v>1</v>
@@ -6776,15 +6767,15 @@
         <v>19</v>
       </c>
       <c r="H322" s="3">
-        <v>20408</v>
+        <v>20398</v>
       </c>
     </row>
     <row r="323" spans="3:7">
       <c r="C323" s="6">
-        <v>10105</v>
+        <v>10505</v>
       </c>
       <c r="D323" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E323" s="5">
         <v>3</v>
@@ -6798,10 +6789,10 @@
     </row>
     <row r="324" spans="3:7">
       <c r="C324" s="6">
-        <v>10106</v>
+        <v>10506</v>
       </c>
       <c r="D324" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E324" s="5">
         <v>10</v>
@@ -6815,10 +6806,10 @@
     </row>
     <row r="325" spans="3:7">
       <c r="C325" s="6">
-        <v>10107</v>
+        <v>10507</v>
       </c>
       <c r="D325" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E325" s="5">
         <v>10</v>
@@ -6832,10 +6823,10 @@
     </row>
     <row r="326" spans="3:7">
       <c r="C326" s="6">
-        <v>10108</v>
+        <v>10508</v>
       </c>
       <c r="D326" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E326" s="5">
         <v>10</v>
@@ -6849,10 +6840,10 @@
     </row>
     <row r="327" spans="3:7">
       <c r="C327" s="6">
-        <v>10109</v>
+        <v>10509</v>
       </c>
       <c r="D327" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E327" s="5">
         <v>10</v>
@@ -6866,10 +6857,10 @@
     </row>
     <row r="328" spans="3:7">
       <c r="C328" s="6">
-        <v>10110</v>
+        <v>10510</v>
       </c>
       <c r="D328" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E328" s="5">
         <v>10</v>
@@ -6883,10 +6874,10 @@
     </row>
     <row r="329" spans="3:7">
       <c r="C329" s="6">
-        <v>10111</v>
+        <v>10511</v>
       </c>
       <c r="D329" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E329" s="5">
         <v>9</v>
@@ -6900,10 +6891,10 @@
     </row>
     <row r="330" spans="3:7">
       <c r="C330" s="6">
-        <v>10112</v>
+        <v>10512</v>
       </c>
       <c r="D330" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E330" s="5">
         <v>10</v>
@@ -6917,10 +6908,10 @@
     </row>
     <row r="331" spans="3:7">
       <c r="C331" s="6">
-        <v>10113</v>
+        <v>10513</v>
       </c>
       <c r="D331" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E331" s="5">
         <v>9</v>
@@ -6934,10 +6925,10 @@
     </row>
     <row r="332" spans="3:7">
       <c r="C332" s="6">
-        <v>10114</v>
+        <v>10514</v>
       </c>
       <c r="D332" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E332" s="5">
         <v>9</v>
@@ -6951,10 +6942,10 @@
     </row>
     <row r="333" spans="3:7">
       <c r="C333" s="6">
-        <v>10115</v>
+        <v>10515</v>
       </c>
       <c r="D333" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E333" s="5">
         <v>9</v>
@@ -6968,10 +6959,10 @@
     </row>
     <row r="334" spans="3:7">
       <c r="C334" s="6">
-        <v>10116</v>
+        <v>10516</v>
       </c>
       <c r="D334" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E334" s="5">
         <v>2</v>
@@ -6985,10 +6976,10 @@
     </row>
     <row r="335" spans="3:7">
       <c r="C335" s="6">
-        <v>10117</v>
+        <v>10517</v>
       </c>
       <c r="D335" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E335" s="3">
         <v>9</v>
@@ -7002,10 +6993,10 @@
     </row>
     <row r="336" spans="3:7">
       <c r="C336" s="6">
-        <v>10118</v>
+        <v>10518</v>
       </c>
       <c r="D336" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E336" s="5">
         <v>9</v>
@@ -7019,10 +7010,10 @@
     </row>
     <row r="337" spans="3:7">
       <c r="C337" s="6">
-        <v>10119</v>
+        <v>10519</v>
       </c>
       <c r="D337" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E337" s="5">
         <v>10</v>
@@ -7036,10 +7027,10 @@
     </row>
     <row r="338" spans="3:7">
       <c r="C338" s="6">
-        <v>10120</v>
+        <v>10520</v>
       </c>
       <c r="D338" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E338" s="5">
         <v>9</v>
@@ -7053,10 +7044,10 @@
     </row>
     <row r="339" spans="3:7">
       <c r="C339" s="6">
-        <v>10121</v>
+        <v>10521</v>
       </c>
       <c r="D339" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E339" s="5">
         <v>5</v>
@@ -7070,10 +7061,10 @@
     </row>
     <row r="340" spans="3:7">
       <c r="C340" s="6">
-        <v>10122</v>
+        <v>10522</v>
       </c>
       <c r="D340" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E340" s="5">
         <v>6</v>
@@ -7087,10 +7078,10 @@
     </row>
     <row r="341" spans="3:7">
       <c r="C341" s="6">
-        <v>10123</v>
+        <v>10523</v>
       </c>
       <c r="D341" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E341" s="5">
         <v>7</v>
@@ -7104,10 +7095,10 @@
     </row>
     <row r="342" spans="3:7">
       <c r="C342" s="6">
-        <v>10124</v>
+        <v>10524</v>
       </c>
       <c r="D342" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E342" s="5">
         <v>8</v>
@@ -7121,10 +7112,10 @@
     </row>
     <row r="343" spans="3:7">
       <c r="C343" s="6">
-        <v>10125</v>
+        <v>10525</v>
       </c>
       <c r="D343" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E343" s="5">
         <v>9</v>
@@ -7141,10 +7132,10 @@
         <v>55</v>
       </c>
       <c r="C345" s="6">
-        <v>10501</v>
+        <v>10901</v>
       </c>
       <c r="D345" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E345" s="5">
         <v>1</v>
@@ -7156,17 +7147,17 @@
         <v>15</v>
       </c>
       <c r="H345" s="3">
-        <v>20395</v>
+        <v>20475</v>
       </c>
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="6">
-        <v>10502</v>
+        <v>10902</v>
       </c>
       <c r="D346" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E346" s="5">
         <v>1</v>
@@ -7178,15 +7169,15 @@
         <v>16</v>
       </c>
       <c r="H346" s="3">
-        <v>20396</v>
+        <v>20476</v>
       </c>
     </row>
     <row r="347" spans="3:8">
       <c r="C347" s="6">
-        <v>10503</v>
+        <v>10903</v>
       </c>
       <c r="D347" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E347" s="5">
         <v>1</v>
@@ -7198,15 +7189,15 @@
         <v>18</v>
       </c>
       <c r="H347" s="3">
-        <v>20397</v>
+        <v>20477</v>
       </c>
     </row>
     <row r="348" spans="3:8">
       <c r="C348" s="6">
-        <v>10504</v>
+        <v>10904</v>
       </c>
       <c r="D348" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E348" s="3">
         <v>1</v>
@@ -7218,15 +7209,15 @@
         <v>19</v>
       </c>
       <c r="H348" s="3">
-        <v>20398</v>
+        <v>20478</v>
       </c>
     </row>
     <row r="349" spans="3:7">
       <c r="C349" s="6">
-        <v>10505</v>
+        <v>10905</v>
       </c>
       <c r="D349" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E349" s="5">
         <v>3</v>
@@ -7240,10 +7231,10 @@
     </row>
     <row r="350" spans="3:7">
       <c r="C350" s="6">
-        <v>10506</v>
+        <v>10906</v>
       </c>
       <c r="D350" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E350" s="5">
         <v>10</v>
@@ -7257,10 +7248,10 @@
     </row>
     <row r="351" spans="3:7">
       <c r="C351" s="6">
-        <v>10507</v>
+        <v>10907</v>
       </c>
       <c r="D351" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E351" s="5">
         <v>10</v>
@@ -7274,10 +7265,10 @@
     </row>
     <row r="352" spans="3:7">
       <c r="C352" s="6">
-        <v>10508</v>
+        <v>10908</v>
       </c>
       <c r="D352" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E352" s="5">
         <v>10</v>
@@ -7291,10 +7282,10 @@
     </row>
     <row r="353" spans="3:7">
       <c r="C353" s="6">
-        <v>10509</v>
+        <v>10909</v>
       </c>
       <c r="D353" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E353" s="5">
         <v>10</v>
@@ -7308,10 +7299,10 @@
     </row>
     <row r="354" spans="3:7">
       <c r="C354" s="6">
-        <v>10510</v>
+        <v>10910</v>
       </c>
       <c r="D354" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E354" s="5">
         <v>10</v>
@@ -7325,10 +7316,10 @@
     </row>
     <row r="355" spans="3:7">
       <c r="C355" s="6">
-        <v>10511</v>
+        <v>10911</v>
       </c>
       <c r="D355" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E355" s="5">
         <v>9</v>
@@ -7342,10 +7333,10 @@
     </row>
     <row r="356" spans="3:7">
       <c r="C356" s="6">
-        <v>10512</v>
+        <v>10912</v>
       </c>
       <c r="D356" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E356" s="5">
         <v>10</v>
@@ -7359,10 +7350,10 @@
     </row>
     <row r="357" spans="3:7">
       <c r="C357" s="6">
-        <v>10513</v>
+        <v>10913</v>
       </c>
       <c r="D357" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E357" s="5">
         <v>9</v>
@@ -7376,10 +7367,10 @@
     </row>
     <row r="358" spans="3:7">
       <c r="C358" s="6">
-        <v>10514</v>
+        <v>10914</v>
       </c>
       <c r="D358" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E358" s="5">
         <v>9</v>
@@ -7393,10 +7384,10 @@
     </row>
     <row r="359" spans="3:7">
       <c r="C359" s="6">
-        <v>10515</v>
+        <v>10915</v>
       </c>
       <c r="D359" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E359" s="5">
         <v>9</v>
@@ -7410,10 +7401,10 @@
     </row>
     <row r="360" spans="3:7">
       <c r="C360" s="6">
-        <v>10516</v>
+        <v>10916</v>
       </c>
       <c r="D360" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E360" s="5">
         <v>2</v>
@@ -7427,10 +7418,10 @@
     </row>
     <row r="361" spans="3:7">
       <c r="C361" s="6">
-        <v>10517</v>
+        <v>10917</v>
       </c>
       <c r="D361" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E361" s="3">
         <v>9</v>
@@ -7444,10 +7435,10 @@
     </row>
     <row r="362" spans="3:7">
       <c r="C362" s="6">
-        <v>10518</v>
+        <v>10918</v>
       </c>
       <c r="D362" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E362" s="5">
         <v>9</v>
@@ -7461,10 +7452,10 @@
     </row>
     <row r="363" spans="3:7">
       <c r="C363" s="6">
-        <v>10519</v>
+        <v>10919</v>
       </c>
       <c r="D363" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E363" s="5">
         <v>10</v>
@@ -7478,10 +7469,10 @@
     </row>
     <row r="364" spans="3:7">
       <c r="C364" s="6">
-        <v>10520</v>
+        <v>10920</v>
       </c>
       <c r="D364" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E364" s="5">
         <v>9</v>
@@ -7495,10 +7486,10 @@
     </row>
     <row r="365" spans="3:7">
       <c r="C365" s="6">
-        <v>10521</v>
+        <v>10921</v>
       </c>
       <c r="D365" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E365" s="5">
         <v>5</v>
@@ -7512,10 +7503,10 @@
     </row>
     <row r="366" spans="3:7">
       <c r="C366" s="6">
-        <v>10522</v>
+        <v>10922</v>
       </c>
       <c r="D366" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E366" s="5">
         <v>6</v>
@@ -7529,10 +7520,10 @@
     </row>
     <row r="367" spans="3:7">
       <c r="C367" s="6">
-        <v>10523</v>
+        <v>10923</v>
       </c>
       <c r="D367" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E367" s="5">
         <v>7</v>
@@ -7546,10 +7537,10 @@
     </row>
     <row r="368" spans="3:7">
       <c r="C368" s="6">
-        <v>10524</v>
+        <v>10924</v>
       </c>
       <c r="D368" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E368" s="5">
         <v>8</v>
@@ -7563,10 +7554,10 @@
     </row>
     <row r="369" spans="3:7">
       <c r="C369" s="6">
-        <v>10525</v>
+        <v>10925</v>
       </c>
       <c r="D369" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E369" s="5">
         <v>9</v>
@@ -7583,10 +7574,10 @@
         <v>56</v>
       </c>
       <c r="C371" s="6">
-        <v>10901</v>
+        <v>11301</v>
       </c>
       <c r="D371" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E371" s="5">
         <v>1</v>
@@ -7598,17 +7589,17 @@
         <v>15</v>
       </c>
       <c r="H371" s="3">
-        <v>20475</v>
+        <v>20545</v>
       </c>
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="6">
-        <v>10902</v>
+        <v>11302</v>
       </c>
       <c r="D372" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E372" s="5">
         <v>1</v>
@@ -7620,15 +7611,15 @@
         <v>16</v>
       </c>
       <c r="H372" s="3">
-        <v>20476</v>
+        <v>20546</v>
       </c>
     </row>
     <row r="373" spans="3:8">
       <c r="C373" s="6">
-        <v>10903</v>
+        <v>11303</v>
       </c>
       <c r="D373" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E373" s="5">
         <v>1</v>
@@ -7640,15 +7631,15 @@
         <v>18</v>
       </c>
       <c r="H373" s="3">
-        <v>20477</v>
+        <v>20547</v>
       </c>
     </row>
     <row r="374" spans="3:8">
       <c r="C374" s="6">
-        <v>10904</v>
+        <v>11304</v>
       </c>
       <c r="D374" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E374" s="3">
         <v>1</v>
@@ -7660,15 +7651,15 @@
         <v>19</v>
       </c>
       <c r="H374" s="3">
-        <v>20478</v>
+        <v>20548</v>
       </c>
     </row>
     <row r="375" spans="3:7">
       <c r="C375" s="6">
-        <v>10905</v>
+        <v>11305</v>
       </c>
       <c r="D375" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E375" s="5">
         <v>3</v>
@@ -7682,10 +7673,10 @@
     </row>
     <row r="376" spans="3:7">
       <c r="C376" s="6">
-        <v>10906</v>
+        <v>11306</v>
       </c>
       <c r="D376" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E376" s="5">
         <v>10</v>
@@ -7699,10 +7690,10 @@
     </row>
     <row r="377" spans="3:7">
       <c r="C377" s="6">
-        <v>10907</v>
+        <v>11307</v>
       </c>
       <c r="D377" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E377" s="5">
         <v>10</v>
@@ -7716,10 +7707,10 @@
     </row>
     <row r="378" spans="3:7">
       <c r="C378" s="6">
-        <v>10908</v>
+        <v>11308</v>
       </c>
       <c r="D378" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E378" s="5">
         <v>10</v>
@@ -7733,10 +7724,10 @@
     </row>
     <row r="379" spans="3:7">
       <c r="C379" s="6">
-        <v>10909</v>
+        <v>11309</v>
       </c>
       <c r="D379" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E379" s="5">
         <v>10</v>
@@ -7750,10 +7741,10 @@
     </row>
     <row r="380" spans="3:7">
       <c r="C380" s="6">
-        <v>10910</v>
+        <v>11310</v>
       </c>
       <c r="D380" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E380" s="5">
         <v>10</v>
@@ -7767,10 +7758,10 @@
     </row>
     <row r="381" spans="3:7">
       <c r="C381" s="6">
-        <v>10911</v>
+        <v>11311</v>
       </c>
       <c r="D381" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E381" s="5">
         <v>9</v>
@@ -7784,10 +7775,10 @@
     </row>
     <row r="382" spans="3:7">
       <c r="C382" s="6">
-        <v>10912</v>
+        <v>11312</v>
       </c>
       <c r="D382" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E382" s="5">
         <v>10</v>
@@ -7801,10 +7792,10 @@
     </row>
     <row r="383" spans="3:7">
       <c r="C383" s="6">
-        <v>10913</v>
+        <v>11313</v>
       </c>
       <c r="D383" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E383" s="5">
         <v>9</v>
@@ -7818,10 +7809,10 @@
     </row>
     <row r="384" spans="3:7">
       <c r="C384" s="6">
-        <v>10914</v>
+        <v>11314</v>
       </c>
       <c r="D384" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E384" s="5">
         <v>9</v>
@@ -7835,10 +7826,10 @@
     </row>
     <row r="385" spans="3:7">
       <c r="C385" s="6">
-        <v>10915</v>
+        <v>11315</v>
       </c>
       <c r="D385" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E385" s="5">
         <v>9</v>
@@ -7852,10 +7843,10 @@
     </row>
     <row r="386" spans="3:7">
       <c r="C386" s="6">
-        <v>10916</v>
+        <v>11316</v>
       </c>
       <c r="D386" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E386" s="5">
         <v>2</v>
@@ -7869,10 +7860,10 @@
     </row>
     <row r="387" spans="3:7">
       <c r="C387" s="6">
-        <v>10917</v>
+        <v>11317</v>
       </c>
       <c r="D387" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E387" s="3">
         <v>9</v>
@@ -7886,10 +7877,10 @@
     </row>
     <row r="388" spans="3:7">
       <c r="C388" s="6">
-        <v>10918</v>
+        <v>11318</v>
       </c>
       <c r="D388" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E388" s="5">
         <v>9</v>
@@ -7903,10 +7894,10 @@
     </row>
     <row r="389" spans="3:7">
       <c r="C389" s="6">
-        <v>10919</v>
+        <v>11319</v>
       </c>
       <c r="D389" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E389" s="5">
         <v>10</v>
@@ -7920,10 +7911,10 @@
     </row>
     <row r="390" spans="3:7">
       <c r="C390" s="6">
-        <v>10920</v>
+        <v>11320</v>
       </c>
       <c r="D390" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E390" s="5">
         <v>9</v>
@@ -7937,10 +7928,10 @@
     </row>
     <row r="391" spans="3:7">
       <c r="C391" s="6">
-        <v>10921</v>
+        <v>11321</v>
       </c>
       <c r="D391" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E391" s="5">
         <v>5</v>
@@ -7954,10 +7945,10 @@
     </row>
     <row r="392" spans="3:7">
       <c r="C392" s="6">
-        <v>10922</v>
+        <v>11322</v>
       </c>
       <c r="D392" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E392" s="5">
         <v>6</v>
@@ -7971,10 +7962,10 @@
     </row>
     <row r="393" spans="3:7">
       <c r="C393" s="6">
-        <v>10923</v>
+        <v>11323</v>
       </c>
       <c r="D393" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E393" s="5">
         <v>7</v>
@@ -7988,10 +7979,10 @@
     </row>
     <row r="394" spans="3:7">
       <c r="C394" s="6">
-        <v>10924</v>
+        <v>11324</v>
       </c>
       <c r="D394" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E394" s="5">
         <v>8</v>
@@ -8005,10 +7996,10 @@
     </row>
     <row r="395" spans="3:7">
       <c r="C395" s="6">
-        <v>10925</v>
+        <v>11325</v>
       </c>
       <c r="D395" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E395" s="5">
         <v>9</v>
@@ -8025,10 +8016,10 @@
         <v>57</v>
       </c>
       <c r="C397" s="6">
-        <v>11301</v>
+        <v>11701</v>
       </c>
       <c r="D397" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E397" s="5">
         <v>1</v>
@@ -8040,17 +8031,17 @@
         <v>15</v>
       </c>
       <c r="H397" s="3">
-        <v>20545</v>
+        <v>20575</v>
       </c>
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="6">
-        <v>11302</v>
+        <v>11702</v>
       </c>
       <c r="D398" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E398" s="5">
         <v>1</v>
@@ -8062,15 +8053,15 @@
         <v>16</v>
       </c>
       <c r="H398" s="3">
-        <v>20546</v>
+        <v>20576</v>
       </c>
     </row>
     <row r="399" spans="3:8">
       <c r="C399" s="6">
-        <v>11303</v>
+        <v>11703</v>
       </c>
       <c r="D399" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E399" s="5">
         <v>1</v>
@@ -8082,15 +8073,15 @@
         <v>18</v>
       </c>
       <c r="H399" s="3">
-        <v>20547</v>
+        <v>20577</v>
       </c>
     </row>
     <row r="400" spans="3:8">
       <c r="C400" s="6">
-        <v>11304</v>
+        <v>11704</v>
       </c>
       <c r="D400" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E400" s="3">
         <v>1</v>
@@ -8102,15 +8093,15 @@
         <v>19</v>
       </c>
       <c r="H400" s="3">
-        <v>20548</v>
+        <v>20578</v>
       </c>
     </row>
     <row r="401" spans="3:7">
       <c r="C401" s="6">
-        <v>11305</v>
+        <v>11705</v>
       </c>
       <c r="D401" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E401" s="5">
         <v>3</v>
@@ -8124,10 +8115,10 @@
     </row>
     <row r="402" spans="3:7">
       <c r="C402" s="6">
-        <v>11306</v>
+        <v>11706</v>
       </c>
       <c r="D402" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E402" s="5">
         <v>10</v>
@@ -8141,10 +8132,10 @@
     </row>
     <row r="403" spans="3:7">
       <c r="C403" s="6">
-        <v>11307</v>
+        <v>11707</v>
       </c>
       <c r="D403" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E403" s="5">
         <v>10</v>
@@ -8158,10 +8149,10 @@
     </row>
     <row r="404" spans="3:7">
       <c r="C404" s="6">
-        <v>11308</v>
+        <v>11708</v>
       </c>
       <c r="D404" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E404" s="5">
         <v>10</v>
@@ -8175,10 +8166,10 @@
     </row>
     <row r="405" spans="3:7">
       <c r="C405" s="6">
-        <v>11309</v>
+        <v>11709</v>
       </c>
       <c r="D405" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E405" s="5">
         <v>10</v>
@@ -8192,10 +8183,10 @@
     </row>
     <row r="406" spans="3:7">
       <c r="C406" s="6">
-        <v>11310</v>
+        <v>11710</v>
       </c>
       <c r="D406" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E406" s="5">
         <v>10</v>
@@ -8209,10 +8200,10 @@
     </row>
     <row r="407" spans="3:7">
       <c r="C407" s="6">
-        <v>11311</v>
+        <v>11711</v>
       </c>
       <c r="D407" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E407" s="5">
         <v>9</v>
@@ -8226,10 +8217,10 @@
     </row>
     <row r="408" spans="3:7">
       <c r="C408" s="6">
-        <v>11312</v>
+        <v>11712</v>
       </c>
       <c r="D408" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E408" s="5">
         <v>10</v>
@@ -8243,10 +8234,10 @@
     </row>
     <row r="409" spans="3:7">
       <c r="C409" s="6">
-        <v>11313</v>
+        <v>11713</v>
       </c>
       <c r="D409" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E409" s="5">
         <v>9</v>
@@ -8260,10 +8251,10 @@
     </row>
     <row r="410" spans="3:7">
       <c r="C410" s="6">
-        <v>11314</v>
+        <v>11714</v>
       </c>
       <c r="D410" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E410" s="5">
         <v>9</v>
@@ -8277,10 +8268,10 @@
     </row>
     <row r="411" spans="3:7">
       <c r="C411" s="6">
-        <v>11315</v>
+        <v>11715</v>
       </c>
       <c r="D411" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E411" s="5">
         <v>9</v>
@@ -8294,10 +8285,10 @@
     </row>
     <row r="412" spans="3:7">
       <c r="C412" s="6">
-        <v>11316</v>
+        <v>11716</v>
       </c>
       <c r="D412" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E412" s="5">
         <v>2</v>
@@ -8311,10 +8302,10 @@
     </row>
     <row r="413" spans="3:7">
       <c r="C413" s="6">
-        <v>11317</v>
+        <v>11717</v>
       </c>
       <c r="D413" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E413" s="3">
         <v>9</v>
@@ -8328,10 +8319,10 @@
     </row>
     <row r="414" spans="3:7">
       <c r="C414" s="6">
-        <v>11318</v>
+        <v>11718</v>
       </c>
       <c r="D414" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E414" s="5">
         <v>9</v>
@@ -8345,10 +8336,10 @@
     </row>
     <row r="415" spans="3:7">
       <c r="C415" s="6">
-        <v>11319</v>
+        <v>11719</v>
       </c>
       <c r="D415" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E415" s="5">
         <v>10</v>
@@ -8362,10 +8353,10 @@
     </row>
     <row r="416" spans="3:7">
       <c r="C416" s="6">
-        <v>11320</v>
+        <v>11720</v>
       </c>
       <c r="D416" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E416" s="5">
         <v>9</v>
@@ -8379,10 +8370,10 @@
     </row>
     <row r="417" spans="3:7">
       <c r="C417" s="6">
-        <v>11321</v>
+        <v>11721</v>
       </c>
       <c r="D417" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E417" s="5">
         <v>5</v>
@@ -8396,10 +8387,10 @@
     </row>
     <row r="418" spans="3:7">
       <c r="C418" s="6">
-        <v>11322</v>
+        <v>11722</v>
       </c>
       <c r="D418" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E418" s="5">
         <v>6</v>
@@ -8413,10 +8404,10 @@
     </row>
     <row r="419" spans="3:7">
       <c r="C419" s="6">
-        <v>11323</v>
+        <v>11723</v>
       </c>
       <c r="D419" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E419" s="5">
         <v>7</v>
@@ -8430,10 +8421,10 @@
     </row>
     <row r="420" spans="3:7">
       <c r="C420" s="6">
-        <v>11324</v>
+        <v>11724</v>
       </c>
       <c r="D420" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E420" s="5">
         <v>8</v>
@@ -8447,10 +8438,10 @@
     </row>
     <row r="421" spans="3:7">
       <c r="C421" s="6">
-        <v>11325</v>
+        <v>11725</v>
       </c>
       <c r="D421" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E421" s="5">
         <v>9</v>
@@ -8467,10 +8458,10 @@
         <v>58</v>
       </c>
       <c r="C423" s="6">
-        <v>11701</v>
+        <v>12101</v>
       </c>
       <c r="D423" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E423" s="5">
         <v>1</v>
@@ -8482,17 +8473,17 @@
         <v>15</v>
       </c>
       <c r="H423" s="3">
-        <v>20575</v>
+        <v>20465</v>
       </c>
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="6">
-        <v>11702</v>
+        <v>12102</v>
       </c>
       <c r="D424" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E424" s="5">
         <v>1</v>
@@ -8504,15 +8495,15 @@
         <v>16</v>
       </c>
       <c r="H424" s="3">
-        <v>20576</v>
+        <v>20466</v>
       </c>
     </row>
     <row r="425" spans="3:8">
       <c r="C425" s="6">
-        <v>11703</v>
+        <v>12103</v>
       </c>
       <c r="D425" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E425" s="5">
         <v>1</v>
@@ -8524,15 +8515,15 @@
         <v>18</v>
       </c>
       <c r="H425" s="3">
-        <v>20577</v>
+        <v>20467</v>
       </c>
     </row>
     <row r="426" spans="3:8">
       <c r="C426" s="6">
-        <v>11704</v>
+        <v>12104</v>
       </c>
       <c r="D426" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E426" s="3">
         <v>1</v>
@@ -8544,15 +8535,15 @@
         <v>19</v>
       </c>
       <c r="H426" s="3">
-        <v>20578</v>
+        <v>20468</v>
       </c>
     </row>
     <row r="427" spans="3:7">
       <c r="C427" s="6">
-        <v>11705</v>
+        <v>12105</v>
       </c>
       <c r="D427" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E427" s="5">
         <v>3</v>
@@ -8566,10 +8557,10 @@
     </row>
     <row r="428" spans="3:7">
       <c r="C428" s="6">
-        <v>11706</v>
+        <v>12106</v>
       </c>
       <c r="D428" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E428" s="5">
         <v>10</v>
@@ -8583,10 +8574,10 @@
     </row>
     <row r="429" spans="3:7">
       <c r="C429" s="6">
-        <v>11707</v>
+        <v>12107</v>
       </c>
       <c r="D429" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E429" s="5">
         <v>10</v>
@@ -8600,10 +8591,10 @@
     </row>
     <row r="430" spans="3:7">
       <c r="C430" s="6">
-        <v>11708</v>
+        <v>12108</v>
       </c>
       <c r="D430" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E430" s="5">
         <v>10</v>
@@ -8617,10 +8608,10 @@
     </row>
     <row r="431" spans="3:7">
       <c r="C431" s="6">
-        <v>11709</v>
+        <v>12109</v>
       </c>
       <c r="D431" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E431" s="5">
         <v>10</v>
@@ -8634,10 +8625,10 @@
     </row>
     <row r="432" spans="3:7">
       <c r="C432" s="6">
-        <v>11710</v>
+        <v>12110</v>
       </c>
       <c r="D432" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E432" s="5">
         <v>10</v>
@@ -8651,10 +8642,10 @@
     </row>
     <row r="433" spans="3:7">
       <c r="C433" s="6">
-        <v>11711</v>
+        <v>12111</v>
       </c>
       <c r="D433" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E433" s="5">
         <v>9</v>
@@ -8668,10 +8659,10 @@
     </row>
     <row r="434" spans="3:7">
       <c r="C434" s="6">
-        <v>11712</v>
+        <v>12112</v>
       </c>
       <c r="D434" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E434" s="5">
         <v>10</v>
@@ -8685,10 +8676,10 @@
     </row>
     <row r="435" spans="3:7">
       <c r="C435" s="6">
-        <v>11713</v>
+        <v>12113</v>
       </c>
       <c r="D435" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E435" s="5">
         <v>9</v>
@@ -8702,10 +8693,10 @@
     </row>
     <row r="436" spans="3:7">
       <c r="C436" s="6">
-        <v>11714</v>
+        <v>12114</v>
       </c>
       <c r="D436" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E436" s="5">
         <v>9</v>
@@ -8719,10 +8710,10 @@
     </row>
     <row r="437" spans="3:7">
       <c r="C437" s="6">
-        <v>11715</v>
+        <v>12115</v>
       </c>
       <c r="D437" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E437" s="5">
         <v>9</v>
@@ -8736,10 +8727,10 @@
     </row>
     <row r="438" spans="3:7">
       <c r="C438" s="6">
-        <v>11716</v>
+        <v>12116</v>
       </c>
       <c r="D438" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E438" s="5">
         <v>2</v>
@@ -8753,10 +8744,10 @@
     </row>
     <row r="439" spans="3:7">
       <c r="C439" s="6">
-        <v>11717</v>
+        <v>12117</v>
       </c>
       <c r="D439" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E439" s="3">
         <v>9</v>
@@ -8770,10 +8761,10 @@
     </row>
     <row r="440" spans="3:7">
       <c r="C440" s="6">
-        <v>11718</v>
+        <v>12118</v>
       </c>
       <c r="D440" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E440" s="5">
         <v>9</v>
@@ -8787,10 +8778,10 @@
     </row>
     <row r="441" spans="3:7">
       <c r="C441" s="6">
-        <v>11719</v>
+        <v>12119</v>
       </c>
       <c r="D441" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E441" s="5">
         <v>10</v>
@@ -8804,10 +8795,10 @@
     </row>
     <row r="442" spans="3:7">
       <c r="C442" s="6">
-        <v>11720</v>
+        <v>12120</v>
       </c>
       <c r="D442" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E442" s="5">
         <v>9</v>
@@ -8821,10 +8812,10 @@
     </row>
     <row r="443" spans="3:7">
       <c r="C443" s="6">
-        <v>11721</v>
+        <v>12121</v>
       </c>
       <c r="D443" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E443" s="5">
         <v>5</v>
@@ -8838,10 +8829,10 @@
     </row>
     <row r="444" spans="3:7">
       <c r="C444" s="6">
-        <v>11722</v>
+        <v>12122</v>
       </c>
       <c r="D444" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E444" s="5">
         <v>6</v>
@@ -8855,10 +8846,10 @@
     </row>
     <row r="445" spans="3:7">
       <c r="C445" s="6">
-        <v>11723</v>
+        <v>12123</v>
       </c>
       <c r="D445" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E445" s="5">
         <v>7</v>
@@ -8872,10 +8863,10 @@
     </row>
     <row r="446" spans="3:7">
       <c r="C446" s="6">
-        <v>11724</v>
+        <v>12124</v>
       </c>
       <c r="D446" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E446" s="5">
         <v>8</v>
@@ -8889,10 +8880,10 @@
     </row>
     <row r="447" spans="3:7">
       <c r="C447" s="6">
-        <v>11725</v>
+        <v>12125</v>
       </c>
       <c r="D447" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E447" s="5">
         <v>9</v>
@@ -8909,10 +8900,10 @@
         <v>59</v>
       </c>
       <c r="C449" s="6">
-        <v>11901</v>
+        <v>12301</v>
       </c>
       <c r="D449" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E449" s="5">
         <v>1</v>
@@ -8924,17 +8915,17 @@
         <v>15</v>
       </c>
       <c r="H449" s="3">
-        <v>20415</v>
+        <v>20525</v>
       </c>
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="6">
-        <v>11902</v>
+        <v>12302</v>
       </c>
       <c r="D450" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E450" s="5">
         <v>1</v>
@@ -8946,15 +8937,15 @@
         <v>16</v>
       </c>
       <c r="H450" s="3">
-        <v>20416</v>
+        <v>20526</v>
       </c>
     </row>
     <row r="451" spans="3:8">
       <c r="C451" s="6">
-        <v>11903</v>
+        <v>12303</v>
       </c>
       <c r="D451" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E451" s="5">
         <v>1</v>
@@ -8966,15 +8957,15 @@
         <v>18</v>
       </c>
       <c r="H451" s="3">
-        <v>20417</v>
+        <v>20527</v>
       </c>
     </row>
     <row r="452" spans="3:8">
       <c r="C452" s="6">
-        <v>11904</v>
+        <v>12304</v>
       </c>
       <c r="D452" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E452" s="3">
         <v>1</v>
@@ -8986,15 +8977,15 @@
         <v>19</v>
       </c>
       <c r="H452" s="3">
-        <v>20418</v>
+        <v>20528</v>
       </c>
     </row>
     <row r="453" spans="3:7">
       <c r="C453" s="6">
-        <v>11905</v>
+        <v>12305</v>
       </c>
       <c r="D453" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E453" s="5">
         <v>3</v>
@@ -9008,10 +8999,10 @@
     </row>
     <row r="454" spans="3:7">
       <c r="C454" s="6">
-        <v>11906</v>
+        <v>12306</v>
       </c>
       <c r="D454" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E454" s="5">
         <v>10</v>
@@ -9025,10 +9016,10 @@
     </row>
     <row r="455" spans="3:7">
       <c r="C455" s="6">
-        <v>11907</v>
+        <v>12307</v>
       </c>
       <c r="D455" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E455" s="5">
         <v>10</v>
@@ -9042,10 +9033,10 @@
     </row>
     <row r="456" spans="3:7">
       <c r="C456" s="6">
-        <v>11908</v>
+        <v>12308</v>
       </c>
       <c r="D456" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E456" s="5">
         <v>10</v>
@@ -9059,10 +9050,10 @@
     </row>
     <row r="457" spans="3:7">
       <c r="C457" s="6">
-        <v>11909</v>
+        <v>12309</v>
       </c>
       <c r="D457" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E457" s="5">
         <v>10</v>
@@ -9076,10 +9067,10 @@
     </row>
     <row r="458" spans="3:7">
       <c r="C458" s="6">
-        <v>11910</v>
+        <v>12310</v>
       </c>
       <c r="D458" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E458" s="5">
         <v>10</v>
@@ -9093,10 +9084,10 @@
     </row>
     <row r="459" spans="3:7">
       <c r="C459" s="6">
-        <v>11911</v>
+        <v>12311</v>
       </c>
       <c r="D459" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E459" s="5">
         <v>9</v>
@@ -9110,10 +9101,10 @@
     </row>
     <row r="460" spans="3:7">
       <c r="C460" s="6">
-        <v>11912</v>
+        <v>12312</v>
       </c>
       <c r="D460" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E460" s="5">
         <v>10</v>
@@ -9127,10 +9118,10 @@
     </row>
     <row r="461" spans="3:7">
       <c r="C461" s="6">
-        <v>11913</v>
+        <v>12313</v>
       </c>
       <c r="D461" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E461" s="5">
         <v>9</v>
@@ -9144,10 +9135,10 @@
     </row>
     <row r="462" spans="3:7">
       <c r="C462" s="6">
-        <v>11914</v>
+        <v>12314</v>
       </c>
       <c r="D462" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E462" s="5">
         <v>9</v>
@@ -9161,10 +9152,10 @@
     </row>
     <row r="463" spans="3:7">
       <c r="C463" s="6">
-        <v>11915</v>
+        <v>12315</v>
       </c>
       <c r="D463" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E463" s="5">
         <v>9</v>
@@ -9178,10 +9169,10 @@
     </row>
     <row r="464" spans="3:7">
       <c r="C464" s="6">
-        <v>11916</v>
+        <v>12316</v>
       </c>
       <c r="D464" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E464" s="5">
         <v>2</v>
@@ -9195,10 +9186,10 @@
     </row>
     <row r="465" spans="3:7">
       <c r="C465" s="6">
-        <v>11917</v>
+        <v>12317</v>
       </c>
       <c r="D465" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E465" s="3">
         <v>9</v>
@@ -9212,10 +9203,10 @@
     </row>
     <row r="466" spans="3:7">
       <c r="C466" s="6">
-        <v>11918</v>
+        <v>12318</v>
       </c>
       <c r="D466" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E466" s="5">
         <v>9</v>
@@ -9229,10 +9220,10 @@
     </row>
     <row r="467" spans="3:7">
       <c r="C467" s="6">
-        <v>11919</v>
+        <v>12319</v>
       </c>
       <c r="D467" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E467" s="5">
         <v>10</v>
@@ -9246,10 +9237,10 @@
     </row>
     <row r="468" spans="3:7">
       <c r="C468" s="6">
-        <v>11920</v>
+        <v>12320</v>
       </c>
       <c r="D468" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E468" s="5">
         <v>9</v>
@@ -9263,10 +9254,10 @@
     </row>
     <row r="469" spans="3:7">
       <c r="C469" s="6">
-        <v>11921</v>
+        <v>12321</v>
       </c>
       <c r="D469" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E469" s="5">
         <v>5</v>
@@ -9280,10 +9271,10 @@
     </row>
     <row r="470" spans="3:7">
       <c r="C470" s="6">
-        <v>11922</v>
+        <v>12322</v>
       </c>
       <c r="D470" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E470" s="5">
         <v>6</v>
@@ -9297,10 +9288,10 @@
     </row>
     <row r="471" spans="3:7">
       <c r="C471" s="6">
-        <v>11923</v>
+        <v>12323</v>
       </c>
       <c r="D471" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E471" s="5">
         <v>7</v>
@@ -9314,10 +9305,10 @@
     </row>
     <row r="472" spans="3:7">
       <c r="C472" s="6">
-        <v>11924</v>
+        <v>12324</v>
       </c>
       <c r="D472" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E472" s="5">
         <v>8</v>
@@ -9331,10 +9322,10 @@
     </row>
     <row r="473" spans="3:7">
       <c r="C473" s="6">
-        <v>11925</v>
+        <v>12325</v>
       </c>
       <c r="D473" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E473" s="5">
         <v>9</v>
@@ -9351,10 +9342,10 @@
         <v>60</v>
       </c>
       <c r="C475" s="6">
-        <v>12101</v>
+        <v>12501</v>
       </c>
       <c r="D475" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E475" s="5">
         <v>1</v>
@@ -9366,17 +9357,17 @@
         <v>15</v>
       </c>
       <c r="H475" s="3">
-        <v>20465</v>
+        <v>20605</v>
       </c>
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="6">
-        <v>12102</v>
+        <v>12502</v>
       </c>
       <c r="D476" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E476" s="5">
         <v>1</v>
@@ -9388,15 +9379,15 @@
         <v>16</v>
       </c>
       <c r="H476" s="3">
-        <v>20466</v>
+        <v>20606</v>
       </c>
     </row>
     <row r="477" spans="3:8">
       <c r="C477" s="6">
-        <v>12103</v>
+        <v>12503</v>
       </c>
       <c r="D477" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E477" s="5">
         <v>1</v>
@@ -9408,15 +9399,15 @@
         <v>18</v>
       </c>
       <c r="H477" s="3">
-        <v>20467</v>
+        <v>20607</v>
       </c>
     </row>
     <row r="478" spans="3:8">
       <c r="C478" s="6">
-        <v>12104</v>
+        <v>12504</v>
       </c>
       <c r="D478" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E478" s="3">
         <v>1</v>
@@ -9428,15 +9419,15 @@
         <v>19</v>
       </c>
       <c r="H478" s="3">
-        <v>20468</v>
+        <v>20608</v>
       </c>
     </row>
     <row r="479" spans="3:7">
       <c r="C479" s="6">
-        <v>12105</v>
+        <v>12505</v>
       </c>
       <c r="D479" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E479" s="5">
         <v>3</v>
@@ -9450,10 +9441,10 @@
     </row>
     <row r="480" spans="3:7">
       <c r="C480" s="6">
-        <v>12106</v>
+        <v>12506</v>
       </c>
       <c r="D480" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E480" s="5">
         <v>10</v>
@@ -9467,10 +9458,10 @@
     </row>
     <row r="481" spans="3:7">
       <c r="C481" s="6">
-        <v>12107</v>
+        <v>12507</v>
       </c>
       <c r="D481" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E481" s="5">
         <v>10</v>
@@ -9484,10 +9475,10 @@
     </row>
     <row r="482" spans="3:7">
       <c r="C482" s="6">
-        <v>12108</v>
+        <v>12508</v>
       </c>
       <c r="D482" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E482" s="5">
         <v>10</v>
@@ -9501,10 +9492,10 @@
     </row>
     <row r="483" spans="3:7">
       <c r="C483" s="6">
-        <v>12109</v>
+        <v>12509</v>
       </c>
       <c r="D483" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E483" s="5">
         <v>10</v>
@@ -9518,10 +9509,10 @@
     </row>
     <row r="484" spans="3:7">
       <c r="C484" s="6">
-        <v>12110</v>
+        <v>12510</v>
       </c>
       <c r="D484" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E484" s="5">
         <v>10</v>
@@ -9535,10 +9526,10 @@
     </row>
     <row r="485" spans="3:7">
       <c r="C485" s="6">
-        <v>12111</v>
+        <v>12511</v>
       </c>
       <c r="D485" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E485" s="5">
         <v>9</v>
@@ -9552,10 +9543,10 @@
     </row>
     <row r="486" spans="3:7">
       <c r="C486" s="6">
-        <v>12112</v>
+        <v>12512</v>
       </c>
       <c r="D486" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E486" s="5">
         <v>10</v>
@@ -9569,10 +9560,10 @@
     </row>
     <row r="487" spans="3:7">
       <c r="C487" s="6">
-        <v>12113</v>
+        <v>12513</v>
       </c>
       <c r="D487" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E487" s="5">
         <v>9</v>
@@ -9586,10 +9577,10 @@
     </row>
     <row r="488" spans="3:7">
       <c r="C488" s="6">
-        <v>12114</v>
+        <v>12514</v>
       </c>
       <c r="D488" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E488" s="5">
         <v>9</v>
@@ -9603,10 +9594,10 @@
     </row>
     <row r="489" spans="3:7">
       <c r="C489" s="6">
-        <v>12115</v>
+        <v>12515</v>
       </c>
       <c r="D489" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E489" s="5">
         <v>9</v>
@@ -9620,10 +9611,10 @@
     </row>
     <row r="490" spans="3:7">
       <c r="C490" s="6">
-        <v>12116</v>
+        <v>12516</v>
       </c>
       <c r="D490" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E490" s="5">
         <v>2</v>
@@ -9637,10 +9628,10 @@
     </row>
     <row r="491" spans="3:7">
       <c r="C491" s="6">
-        <v>12117</v>
+        <v>12517</v>
       </c>
       <c r="D491" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E491" s="3">
         <v>9</v>
@@ -9654,10 +9645,10 @@
     </row>
     <row r="492" spans="3:7">
       <c r="C492" s="6">
-        <v>12118</v>
+        <v>12518</v>
       </c>
       <c r="D492" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E492" s="5">
         <v>9</v>
@@ -9671,10 +9662,10 @@
     </row>
     <row r="493" spans="3:7">
       <c r="C493" s="6">
-        <v>12119</v>
+        <v>12519</v>
       </c>
       <c r="D493" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E493" s="5">
         <v>10</v>
@@ -9688,10 +9679,10 @@
     </row>
     <row r="494" spans="3:7">
       <c r="C494" s="6">
-        <v>12120</v>
+        <v>12520</v>
       </c>
       <c r="D494" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E494" s="5">
         <v>9</v>
@@ -9705,10 +9696,10 @@
     </row>
     <row r="495" spans="3:7">
       <c r="C495" s="6">
-        <v>12121</v>
+        <v>12521</v>
       </c>
       <c r="D495" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E495" s="5">
         <v>5</v>
@@ -9722,10 +9713,10 @@
     </row>
     <row r="496" spans="3:7">
       <c r="C496" s="6">
-        <v>12122</v>
+        <v>12522</v>
       </c>
       <c r="D496" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E496" s="5">
         <v>6</v>
@@ -9739,10 +9730,10 @@
     </row>
     <row r="497" spans="3:7">
       <c r="C497" s="6">
-        <v>12123</v>
+        <v>12523</v>
       </c>
       <c r="D497" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E497" s="5">
         <v>7</v>
@@ -9756,10 +9747,10 @@
     </row>
     <row r="498" spans="3:7">
       <c r="C498" s="6">
-        <v>12124</v>
+        <v>12524</v>
       </c>
       <c r="D498" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E498" s="5">
         <v>8</v>
@@ -9773,10 +9764,10 @@
     </row>
     <row r="499" spans="3:7">
       <c r="C499" s="6">
-        <v>12125</v>
+        <v>12525</v>
       </c>
       <c r="D499" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E499" s="5">
         <v>9</v>
@@ -9793,10 +9784,10 @@
         <v>61</v>
       </c>
       <c r="C501" s="6">
-        <v>12301</v>
+        <v>12701</v>
       </c>
       <c r="D501" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E501" s="5">
         <v>1</v>
@@ -9808,17 +9799,17 @@
         <v>15</v>
       </c>
       <c r="H501" s="3">
-        <v>20525</v>
+        <v>20375</v>
       </c>
     </row>
     <row r="502" spans="1:8">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="6">
-        <v>12302</v>
+        <v>12702</v>
       </c>
       <c r="D502" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E502" s="5">
         <v>1</v>
@@ -9830,15 +9821,15 @@
         <v>16</v>
       </c>
       <c r="H502" s="3">
-        <v>20526</v>
+        <v>20376</v>
       </c>
     </row>
     <row r="503" spans="3:8">
       <c r="C503" s="6">
-        <v>12303</v>
+        <v>12703</v>
       </c>
       <c r="D503" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E503" s="5">
         <v>1</v>
@@ -9850,15 +9841,15 @@
         <v>18</v>
       </c>
       <c r="H503" s="3">
-        <v>20527</v>
+        <v>20377</v>
       </c>
     </row>
     <row r="504" spans="3:8">
       <c r="C504" s="6">
-        <v>12304</v>
+        <v>12704</v>
       </c>
       <c r="D504" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E504" s="3">
         <v>1</v>
@@ -9870,15 +9861,15 @@
         <v>19</v>
       </c>
       <c r="H504" s="3">
-        <v>20528</v>
+        <v>20378</v>
       </c>
     </row>
     <row r="505" spans="3:7">
       <c r="C505" s="6">
-        <v>12305</v>
+        <v>12705</v>
       </c>
       <c r="D505" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E505" s="5">
         <v>3</v>
@@ -9892,10 +9883,10 @@
     </row>
     <row r="506" spans="3:7">
       <c r="C506" s="6">
-        <v>12306</v>
+        <v>12706</v>
       </c>
       <c r="D506" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E506" s="5">
         <v>10</v>
@@ -9909,10 +9900,10 @@
     </row>
     <row r="507" spans="3:7">
       <c r="C507" s="6">
-        <v>12307</v>
+        <v>12707</v>
       </c>
       <c r="D507" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E507" s="5">
         <v>10</v>
@@ -9926,10 +9917,10 @@
     </row>
     <row r="508" spans="3:7">
       <c r="C508" s="6">
-        <v>12308</v>
+        <v>12708</v>
       </c>
       <c r="D508" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E508" s="5">
         <v>10</v>
@@ -9943,10 +9934,10 @@
     </row>
     <row r="509" spans="3:7">
       <c r="C509" s="6">
-        <v>12309</v>
+        <v>12709</v>
       </c>
       <c r="D509" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E509" s="5">
         <v>10</v>
@@ -9960,10 +9951,10 @@
     </row>
     <row r="510" spans="3:7">
       <c r="C510" s="6">
-        <v>12310</v>
+        <v>12710</v>
       </c>
       <c r="D510" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E510" s="5">
         <v>10</v>
@@ -9977,10 +9968,10 @@
     </row>
     <row r="511" spans="3:7">
       <c r="C511" s="6">
-        <v>12311</v>
+        <v>12711</v>
       </c>
       <c r="D511" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E511" s="5">
         <v>9</v>
@@ -9994,10 +9985,10 @@
     </row>
     <row r="512" spans="3:7">
       <c r="C512" s="6">
-        <v>12312</v>
+        <v>12712</v>
       </c>
       <c r="D512" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E512" s="5">
         <v>10</v>
@@ -10011,10 +10002,10 @@
     </row>
     <row r="513" spans="3:7">
       <c r="C513" s="6">
-        <v>12313</v>
+        <v>12713</v>
       </c>
       <c r="D513" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E513" s="5">
         <v>9</v>
@@ -10028,10 +10019,10 @@
     </row>
     <row r="514" spans="3:7">
       <c r="C514" s="6">
-        <v>12314</v>
+        <v>12714</v>
       </c>
       <c r="D514" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E514" s="5">
         <v>9</v>
@@ -10045,10 +10036,10 @@
     </row>
     <row r="515" spans="3:7">
       <c r="C515" s="6">
-        <v>12315</v>
+        <v>12715</v>
       </c>
       <c r="D515" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E515" s="5">
         <v>9</v>
@@ -10062,10 +10053,10 @@
     </row>
     <row r="516" spans="3:7">
       <c r="C516" s="6">
-        <v>12316</v>
+        <v>12716</v>
       </c>
       <c r="D516" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E516" s="5">
         <v>2</v>
@@ -10079,10 +10070,10 @@
     </row>
     <row r="517" spans="3:7">
       <c r="C517" s="6">
-        <v>12317</v>
+        <v>12717</v>
       </c>
       <c r="D517" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E517" s="3">
         <v>9</v>
@@ -10096,10 +10087,10 @@
     </row>
     <row r="518" spans="3:7">
       <c r="C518" s="6">
-        <v>12318</v>
+        <v>12718</v>
       </c>
       <c r="D518" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E518" s="5">
         <v>9</v>
@@ -10113,10 +10104,10 @@
     </row>
     <row r="519" spans="3:7">
       <c r="C519" s="6">
-        <v>12319</v>
+        <v>12719</v>
       </c>
       <c r="D519" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E519" s="5">
         <v>10</v>
@@ -10130,10 +10121,10 @@
     </row>
     <row r="520" spans="3:7">
       <c r="C520" s="6">
-        <v>12320</v>
+        <v>12720</v>
       </c>
       <c r="D520" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E520" s="5">
         <v>9</v>
@@ -10147,10 +10138,10 @@
     </row>
     <row r="521" spans="3:7">
       <c r="C521" s="6">
-        <v>12321</v>
+        <v>12721</v>
       </c>
       <c r="D521" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E521" s="5">
         <v>5</v>
@@ -10164,10 +10155,10 @@
     </row>
     <row r="522" spans="3:7">
       <c r="C522" s="6">
-        <v>12322</v>
+        <v>12722</v>
       </c>
       <c r="D522" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E522" s="5">
         <v>6</v>
@@ -10181,10 +10172,10 @@
     </row>
     <row r="523" spans="3:7">
       <c r="C523" s="6">
-        <v>12323</v>
+        <v>12723</v>
       </c>
       <c r="D523" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E523" s="5">
         <v>7</v>
@@ -10198,10 +10189,10 @@
     </row>
     <row r="524" spans="3:7">
       <c r="C524" s="6">
-        <v>12324</v>
+        <v>12724</v>
       </c>
       <c r="D524" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E524" s="5">
         <v>8</v>
@@ -10215,10 +10206,10 @@
     </row>
     <row r="525" spans="3:7">
       <c r="C525" s="6">
-        <v>12325</v>
+        <v>12725</v>
       </c>
       <c r="D525" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E525" s="5">
         <v>9</v>
@@ -10235,10 +10226,10 @@
         <v>62</v>
       </c>
       <c r="C527" s="6">
-        <v>12501</v>
+        <v>12801</v>
       </c>
       <c r="D527" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E527" s="5">
         <v>1</v>
@@ -10250,17 +10241,17 @@
         <v>15</v>
       </c>
       <c r="H527" s="3">
-        <v>20605</v>
+        <v>20425</v>
       </c>
     </row>
     <row r="528" spans="1:8">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="6">
-        <v>12502</v>
+        <v>12802</v>
       </c>
       <c r="D528" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E528" s="5">
         <v>1</v>
@@ -10272,15 +10263,15 @@
         <v>16</v>
       </c>
       <c r="H528" s="3">
-        <v>20606</v>
+        <v>20426</v>
       </c>
     </row>
     <row r="529" spans="3:8">
       <c r="C529" s="6">
-        <v>12503</v>
+        <v>12803</v>
       </c>
       <c r="D529" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E529" s="5">
         <v>1</v>
@@ -10292,15 +10283,15 @@
         <v>18</v>
       </c>
       <c r="H529" s="3">
-        <v>20607</v>
+        <v>20427</v>
       </c>
     </row>
     <row r="530" spans="3:8">
       <c r="C530" s="6">
-        <v>12504</v>
+        <v>12804</v>
       </c>
       <c r="D530" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E530" s="3">
         <v>1</v>
@@ -10312,15 +10303,15 @@
         <v>19</v>
       </c>
       <c r="H530" s="3">
-        <v>20608</v>
+        <v>20428</v>
       </c>
     </row>
     <row r="531" spans="3:7">
       <c r="C531" s="6">
-        <v>12505</v>
+        <v>12805</v>
       </c>
       <c r="D531" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E531" s="5">
         <v>3</v>
@@ -10334,10 +10325,10 @@
     </row>
     <row r="532" spans="3:7">
       <c r="C532" s="6">
-        <v>12506</v>
+        <v>12806</v>
       </c>
       <c r="D532" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E532" s="5">
         <v>10</v>
@@ -10351,10 +10342,10 @@
     </row>
     <row r="533" spans="3:7">
       <c r="C533" s="6">
-        <v>12507</v>
+        <v>12807</v>
       </c>
       <c r="D533" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E533" s="5">
         <v>10</v>
@@ -10368,10 +10359,10 @@
     </row>
     <row r="534" spans="3:7">
       <c r="C534" s="6">
-        <v>12508</v>
+        <v>12808</v>
       </c>
       <c r="D534" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E534" s="5">
         <v>10</v>
@@ -10385,10 +10376,10 @@
     </row>
     <row r="535" spans="3:7">
       <c r="C535" s="6">
-        <v>12509</v>
+        <v>12809</v>
       </c>
       <c r="D535" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E535" s="5">
         <v>10</v>
@@ -10402,10 +10393,10 @@
     </row>
     <row r="536" spans="3:7">
       <c r="C536" s="6">
-        <v>12510</v>
+        <v>12810</v>
       </c>
       <c r="D536" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E536" s="5">
         <v>10</v>
@@ -10419,10 +10410,10 @@
     </row>
     <row r="537" spans="3:7">
       <c r="C537" s="6">
-        <v>12511</v>
+        <v>12811</v>
       </c>
       <c r="D537" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E537" s="5">
         <v>9</v>
@@ -10436,10 +10427,10 @@
     </row>
     <row r="538" spans="3:7">
       <c r="C538" s="6">
-        <v>12512</v>
+        <v>12812</v>
       </c>
       <c r="D538" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E538" s="5">
         <v>10</v>
@@ -10453,10 +10444,10 @@
     </row>
     <row r="539" spans="3:7">
       <c r="C539" s="6">
-        <v>12513</v>
+        <v>12813</v>
       </c>
       <c r="D539" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E539" s="5">
         <v>9</v>
@@ -10470,10 +10461,10 @@
     </row>
     <row r="540" spans="3:7">
       <c r="C540" s="6">
-        <v>12514</v>
+        <v>12814</v>
       </c>
       <c r="D540" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E540" s="5">
         <v>9</v>
@@ -10487,10 +10478,10 @@
     </row>
     <row r="541" spans="3:7">
       <c r="C541" s="6">
-        <v>12515</v>
+        <v>12815</v>
       </c>
       <c r="D541" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E541" s="5">
         <v>9</v>
@@ -10504,10 +10495,10 @@
     </row>
     <row r="542" spans="3:7">
       <c r="C542" s="6">
-        <v>12516</v>
+        <v>12816</v>
       </c>
       <c r="D542" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E542" s="5">
         <v>2</v>
@@ -10521,10 +10512,10 @@
     </row>
     <row r="543" spans="3:7">
       <c r="C543" s="6">
-        <v>12517</v>
+        <v>12817</v>
       </c>
       <c r="D543" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E543" s="3">
         <v>9</v>
@@ -10538,10 +10529,10 @@
     </row>
     <row r="544" spans="3:7">
       <c r="C544" s="6">
-        <v>12518</v>
+        <v>12818</v>
       </c>
       <c r="D544" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E544" s="5">
         <v>9</v>
@@ -10555,10 +10546,10 @@
     </row>
     <row r="545" spans="3:7">
       <c r="C545" s="6">
-        <v>12519</v>
+        <v>12819</v>
       </c>
       <c r="D545" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E545" s="5">
         <v>10</v>
@@ -10572,10 +10563,10 @@
     </row>
     <row r="546" spans="3:7">
       <c r="C546" s="6">
-        <v>12520</v>
+        <v>12820</v>
       </c>
       <c r="D546" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E546" s="5">
         <v>9</v>
@@ -10589,10 +10580,10 @@
     </row>
     <row r="547" spans="3:7">
       <c r="C547" s="6">
-        <v>12521</v>
+        <v>12821</v>
       </c>
       <c r="D547" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E547" s="5">
         <v>5</v>
@@ -10606,10 +10597,10 @@
     </row>
     <row r="548" spans="3:7">
       <c r="C548" s="6">
-        <v>12522</v>
+        <v>12822</v>
       </c>
       <c r="D548" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E548" s="5">
         <v>6</v>
@@ -10623,10 +10614,10 @@
     </row>
     <row r="549" spans="3:7">
       <c r="C549" s="6">
-        <v>12523</v>
+        <v>12823</v>
       </c>
       <c r="D549" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E549" s="5">
         <v>7</v>
@@ -10640,10 +10631,10 @@
     </row>
     <row r="550" spans="3:7">
       <c r="C550" s="6">
-        <v>12524</v>
+        <v>12824</v>
       </c>
       <c r="D550" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E550" s="5">
         <v>8</v>
@@ -10657,10 +10648,10 @@
     </row>
     <row r="551" spans="3:7">
       <c r="C551" s="6">
-        <v>12525</v>
+        <v>12825</v>
       </c>
       <c r="D551" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E551" s="5">
         <v>9</v>
@@ -10677,10 +10668,10 @@
         <v>63</v>
       </c>
       <c r="C553" s="6">
-        <v>12601</v>
+        <v>13001</v>
       </c>
       <c r="D553" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E553" s="5">
         <v>1</v>
@@ -10692,17 +10683,17 @@
         <v>15</v>
       </c>
       <c r="H553" s="3">
-        <v>20615</v>
+        <v>20505</v>
       </c>
     </row>
     <row r="554" spans="1:8">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="6">
-        <v>12602</v>
+        <v>13002</v>
       </c>
       <c r="D554" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E554" s="5">
         <v>1</v>
@@ -10714,15 +10705,15 @@
         <v>16</v>
       </c>
       <c r="H554" s="3">
-        <v>20616</v>
+        <v>20506</v>
       </c>
     </row>
     <row r="555" spans="3:8">
       <c r="C555" s="6">
-        <v>12603</v>
+        <v>13003</v>
       </c>
       <c r="D555" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E555" s="5">
         <v>1</v>
@@ -10734,15 +10725,15 @@
         <v>18</v>
       </c>
       <c r="H555" s="3">
-        <v>20617</v>
+        <v>20507</v>
       </c>
     </row>
     <row r="556" spans="3:8">
       <c r="C556" s="6">
-        <v>12604</v>
+        <v>13004</v>
       </c>
       <c r="D556" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E556" s="3">
         <v>1</v>
@@ -10754,15 +10745,15 @@
         <v>19</v>
       </c>
       <c r="H556" s="3">
-        <v>20618</v>
+        <v>20508</v>
       </c>
     </row>
     <row r="557" spans="3:7">
       <c r="C557" s="6">
-        <v>12605</v>
+        <v>13005</v>
       </c>
       <c r="D557" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E557" s="5">
         <v>3</v>
@@ -10776,10 +10767,10 @@
     </row>
     <row r="558" spans="3:7">
       <c r="C558" s="6">
-        <v>12606</v>
+        <v>13006</v>
       </c>
       <c r="D558" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E558" s="5">
         <v>10</v>
@@ -10793,10 +10784,10 @@
     </row>
     <row r="559" spans="3:7">
       <c r="C559" s="6">
-        <v>12607</v>
+        <v>13007</v>
       </c>
       <c r="D559" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E559" s="5">
         <v>10</v>
@@ -10810,10 +10801,10 @@
     </row>
     <row r="560" spans="3:7">
       <c r="C560" s="6">
-        <v>12608</v>
+        <v>13008</v>
       </c>
       <c r="D560" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E560" s="5">
         <v>10</v>
@@ -10827,10 +10818,10 @@
     </row>
     <row r="561" spans="3:7">
       <c r="C561" s="6">
-        <v>12609</v>
+        <v>13009</v>
       </c>
       <c r="D561" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E561" s="5">
         <v>10</v>
@@ -10844,10 +10835,10 @@
     </row>
     <row r="562" spans="3:7">
       <c r="C562" s="6">
-        <v>12610</v>
+        <v>13010</v>
       </c>
       <c r="D562" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E562" s="5">
         <v>10</v>
@@ -10861,10 +10852,10 @@
     </row>
     <row r="563" spans="3:7">
       <c r="C563" s="6">
-        <v>12611</v>
+        <v>13011</v>
       </c>
       <c r="D563" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E563" s="5">
         <v>9</v>
@@ -10878,10 +10869,10 @@
     </row>
     <row r="564" spans="3:7">
       <c r="C564" s="6">
-        <v>12612</v>
+        <v>13012</v>
       </c>
       <c r="D564" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E564" s="5">
         <v>10</v>
@@ -10895,10 +10886,10 @@
     </row>
     <row r="565" spans="3:7">
       <c r="C565" s="6">
-        <v>12613</v>
+        <v>13013</v>
       </c>
       <c r="D565" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E565" s="5">
         <v>9</v>
@@ -10912,10 +10903,10 @@
     </row>
     <row r="566" spans="3:7">
       <c r="C566" s="6">
-        <v>12614</v>
+        <v>13014</v>
       </c>
       <c r="D566" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E566" s="5">
         <v>9</v>
@@ -10929,10 +10920,10 @@
     </row>
     <row r="567" spans="3:7">
       <c r="C567" s="6">
-        <v>12615</v>
+        <v>13015</v>
       </c>
       <c r="D567" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E567" s="5">
         <v>9</v>
@@ -10946,10 +10937,10 @@
     </row>
     <row r="568" spans="3:7">
       <c r="C568" s="6">
-        <v>12616</v>
+        <v>13016</v>
       </c>
       <c r="D568" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E568" s="5">
         <v>2</v>
@@ -10963,10 +10954,10 @@
     </row>
     <row r="569" spans="3:7">
       <c r="C569" s="6">
-        <v>12617</v>
+        <v>13017</v>
       </c>
       <c r="D569" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E569" s="3">
         <v>9</v>
@@ -10980,10 +10971,10 @@
     </row>
     <row r="570" spans="3:7">
       <c r="C570" s="6">
-        <v>12618</v>
+        <v>13018</v>
       </c>
       <c r="D570" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E570" s="5">
         <v>9</v>
@@ -10997,10 +10988,10 @@
     </row>
     <row r="571" spans="3:7">
       <c r="C571" s="6">
-        <v>12619</v>
+        <v>13019</v>
       </c>
       <c r="D571" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E571" s="5">
         <v>10</v>
@@ -11014,10 +11005,10 @@
     </row>
     <row r="572" spans="3:7">
       <c r="C572" s="6">
-        <v>12620</v>
+        <v>13020</v>
       </c>
       <c r="D572" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E572" s="5">
         <v>9</v>
@@ -11031,10 +11022,10 @@
     </row>
     <row r="573" spans="3:7">
       <c r="C573" s="6">
-        <v>12621</v>
+        <v>13021</v>
       </c>
       <c r="D573" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E573" s="5">
         <v>5</v>
@@ -11048,10 +11039,10 @@
     </row>
     <row r="574" spans="3:7">
       <c r="C574" s="6">
-        <v>12622</v>
+        <v>13022</v>
       </c>
       <c r="D574" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E574" s="5">
         <v>6</v>
@@ -11065,10 +11056,10 @@
     </row>
     <row r="575" spans="3:7">
       <c r="C575" s="6">
-        <v>12623</v>
+        <v>13023</v>
       </c>
       <c r="D575" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E575" s="5">
         <v>7</v>
@@ -11082,10 +11073,10 @@
     </row>
     <row r="576" spans="3:7">
       <c r="C576" s="6">
-        <v>12624</v>
+        <v>13024</v>
       </c>
       <c r="D576" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E576" s="5">
         <v>8</v>
@@ -11099,10 +11090,10 @@
     </row>
     <row r="577" spans="3:7">
       <c r="C577" s="6">
-        <v>12625</v>
+        <v>13025</v>
       </c>
       <c r="D577" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E577" s="5">
         <v>9</v>
@@ -11119,10 +11110,10 @@
         <v>64</v>
       </c>
       <c r="C579" s="6">
-        <v>12701</v>
+        <v>13101</v>
       </c>
       <c r="D579" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E579" s="5">
         <v>1</v>
@@ -11134,17 +11125,17 @@
         <v>15</v>
       </c>
       <c r="H579" s="3">
-        <v>20375</v>
+        <v>20515</v>
       </c>
     </row>
     <row r="580" spans="1:8">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="6">
-        <v>12702</v>
+        <v>13102</v>
       </c>
       <c r="D580" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E580" s="5">
         <v>1</v>
@@ -11156,15 +11147,15 @@
         <v>16</v>
       </c>
       <c r="H580" s="3">
-        <v>20376</v>
+        <v>20516</v>
       </c>
     </row>
     <row r="581" spans="3:8">
       <c r="C581" s="6">
-        <v>12703</v>
+        <v>13103</v>
       </c>
       <c r="D581" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E581" s="5">
         <v>1</v>
@@ -11176,15 +11167,15 @@
         <v>18</v>
       </c>
       <c r="H581" s="3">
-        <v>20377</v>
+        <v>20517</v>
       </c>
     </row>
     <row r="582" spans="3:8">
       <c r="C582" s="6">
-        <v>12704</v>
+        <v>13104</v>
       </c>
       <c r="D582" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E582" s="3">
         <v>1</v>
@@ -11196,15 +11187,15 @@
         <v>19</v>
       </c>
       <c r="H582" s="3">
-        <v>20378</v>
+        <v>20518</v>
       </c>
     </row>
     <row r="583" spans="3:7">
       <c r="C583" s="6">
-        <v>12705</v>
+        <v>13105</v>
       </c>
       <c r="D583" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E583" s="5">
         <v>3</v>
@@ -11218,10 +11209,10 @@
     </row>
     <row r="584" spans="3:7">
       <c r="C584" s="6">
-        <v>12706</v>
+        <v>13106</v>
       </c>
       <c r="D584" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E584" s="5">
         <v>10</v>
@@ -11235,10 +11226,10 @@
     </row>
     <row r="585" spans="3:7">
       <c r="C585" s="6">
-        <v>12707</v>
+        <v>13107</v>
       </c>
       <c r="D585" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E585" s="5">
         <v>10</v>
@@ -11252,10 +11243,10 @@
     </row>
     <row r="586" spans="3:7">
       <c r="C586" s="6">
-        <v>12708</v>
+        <v>13108</v>
       </c>
       <c r="D586" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E586" s="5">
         <v>10</v>
@@ -11269,10 +11260,10 @@
     </row>
     <row r="587" spans="3:7">
       <c r="C587" s="6">
-        <v>12709</v>
+        <v>13109</v>
       </c>
       <c r="D587" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E587" s="5">
         <v>10</v>
@@ -11286,10 +11277,10 @@
     </row>
     <row r="588" spans="3:7">
       <c r="C588" s="6">
-        <v>12710</v>
+        <v>13110</v>
       </c>
       <c r="D588" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E588" s="5">
         <v>10</v>
@@ -11303,10 +11294,10 @@
     </row>
     <row r="589" spans="3:7">
       <c r="C589" s="6">
-        <v>12711</v>
+        <v>13111</v>
       </c>
       <c r="D589" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E589" s="5">
         <v>9</v>
@@ -11320,10 +11311,10 @@
     </row>
     <row r="590" spans="3:7">
       <c r="C590" s="6">
-        <v>12712</v>
+        <v>13112</v>
       </c>
       <c r="D590" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E590" s="5">
         <v>10</v>
@@ -11337,10 +11328,10 @@
     </row>
     <row r="591" spans="3:7">
       <c r="C591" s="6">
-        <v>12713</v>
+        <v>13113</v>
       </c>
       <c r="D591" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E591" s="5">
         <v>9</v>
@@ -11354,10 +11345,10 @@
     </row>
     <row r="592" spans="3:7">
       <c r="C592" s="6">
-        <v>12714</v>
+        <v>13114</v>
       </c>
       <c r="D592" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E592" s="5">
         <v>9</v>
@@ -11371,10 +11362,10 @@
     </row>
     <row r="593" spans="3:7">
       <c r="C593" s="6">
-        <v>12715</v>
+        <v>13115</v>
       </c>
       <c r="D593" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E593" s="5">
         <v>9</v>
@@ -11388,10 +11379,10 @@
     </row>
     <row r="594" spans="3:7">
       <c r="C594" s="6">
-        <v>12716</v>
+        <v>13116</v>
       </c>
       <c r="D594" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E594" s="5">
         <v>2</v>
@@ -11405,10 +11396,10 @@
     </row>
     <row r="595" spans="3:7">
       <c r="C595" s="6">
-        <v>12717</v>
+        <v>13117</v>
       </c>
       <c r="D595" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E595" s="3">
         <v>9</v>
@@ -11422,10 +11413,10 @@
     </row>
     <row r="596" spans="3:7">
       <c r="C596" s="6">
-        <v>12718</v>
+        <v>13118</v>
       </c>
       <c r="D596" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E596" s="5">
         <v>9</v>
@@ -11439,10 +11430,10 @@
     </row>
     <row r="597" spans="3:7">
       <c r="C597" s="6">
-        <v>12719</v>
+        <v>13119</v>
       </c>
       <c r="D597" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E597" s="5">
         <v>10</v>
@@ -11456,10 +11447,10 @@
     </row>
     <row r="598" spans="3:7">
       <c r="C598" s="6">
-        <v>12720</v>
+        <v>13120</v>
       </c>
       <c r="D598" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E598" s="5">
         <v>9</v>
@@ -11473,10 +11464,10 @@
     </row>
     <row r="599" spans="3:7">
       <c r="C599" s="6">
-        <v>12721</v>
+        <v>13121</v>
       </c>
       <c r="D599" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E599" s="5">
         <v>5</v>
@@ -11490,10 +11481,10 @@
     </row>
     <row r="600" spans="3:7">
       <c r="C600" s="6">
-        <v>12722</v>
+        <v>13122</v>
       </c>
       <c r="D600" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E600" s="5">
         <v>6</v>
@@ -11507,10 +11498,10 @@
     </row>
     <row r="601" spans="3:7">
       <c r="C601" s="6">
-        <v>12723</v>
+        <v>13123</v>
       </c>
       <c r="D601" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E601" s="5">
         <v>7</v>
@@ -11524,10 +11515,10 @@
     </row>
     <row r="602" spans="3:7">
       <c r="C602" s="6">
-        <v>12724</v>
+        <v>13124</v>
       </c>
       <c r="D602" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E602" s="5">
         <v>8</v>
@@ -11541,10 +11532,10 @@
     </row>
     <row r="603" spans="3:7">
       <c r="C603" s="6">
-        <v>12725</v>
+        <v>13125</v>
       </c>
       <c r="D603" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E603" s="5">
         <v>9</v>
@@ -11561,10 +11552,10 @@
         <v>65</v>
       </c>
       <c r="C605" s="6">
-        <v>12801</v>
+        <v>13201</v>
       </c>
       <c r="D605" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E605" s="5">
         <v>1</v>
@@ -11576,17 +11567,17 @@
         <v>15</v>
       </c>
       <c r="H605" s="3">
-        <v>20425</v>
+        <v>20445</v>
       </c>
     </row>
     <row r="606" spans="1:8">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="6">
-        <v>12802</v>
+        <v>13202</v>
       </c>
       <c r="D606" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E606" s="5">
         <v>1</v>
@@ -11598,15 +11589,15 @@
         <v>16</v>
       </c>
       <c r="H606" s="3">
-        <v>20426</v>
+        <v>20446</v>
       </c>
     </row>
     <row r="607" spans="3:8">
       <c r="C607" s="6">
-        <v>12803</v>
+        <v>13203</v>
       </c>
       <c r="D607" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E607" s="5">
         <v>1</v>
@@ -11618,15 +11609,15 @@
         <v>18</v>
       </c>
       <c r="H607" s="3">
-        <v>20427</v>
+        <v>20447</v>
       </c>
     </row>
     <row r="608" spans="3:8">
       <c r="C608" s="6">
-        <v>12804</v>
+        <v>13204</v>
       </c>
       <c r="D608" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E608" s="3">
         <v>1</v>
@@ -11638,15 +11629,15 @@
         <v>19</v>
       </c>
       <c r="H608" s="3">
-        <v>20428</v>
+        <v>20448</v>
       </c>
     </row>
     <row r="609" spans="3:7">
       <c r="C609" s="6">
-        <v>12805</v>
+        <v>13205</v>
       </c>
       <c r="D609" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E609" s="5">
         <v>3</v>
@@ -11660,10 +11651,10 @@
     </row>
     <row r="610" spans="3:7">
       <c r="C610" s="6">
-        <v>12806</v>
+        <v>13206</v>
       </c>
       <c r="D610" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E610" s="5">
         <v>10</v>
@@ -11677,10 +11668,10 @@
     </row>
     <row r="611" spans="3:7">
       <c r="C611" s="6">
-        <v>12807</v>
+        <v>13207</v>
       </c>
       <c r="D611" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E611" s="5">
         <v>10</v>
@@ -11694,10 +11685,10 @@
     </row>
     <row r="612" spans="3:7">
       <c r="C612" s="6">
-        <v>12808</v>
+        <v>13208</v>
       </c>
       <c r="D612" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E612" s="5">
         <v>10</v>
@@ -11711,10 +11702,10 @@
     </row>
     <row r="613" spans="3:7">
       <c r="C613" s="6">
-        <v>12809</v>
+        <v>13209</v>
       </c>
       <c r="D613" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E613" s="5">
         <v>10</v>
@@ -11728,10 +11719,10 @@
     </row>
     <row r="614" spans="3:7">
       <c r="C614" s="6">
-        <v>12810</v>
+        <v>13210</v>
       </c>
       <c r="D614" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E614" s="5">
         <v>10</v>
@@ -11745,10 +11736,10 @@
     </row>
     <row r="615" spans="3:7">
       <c r="C615" s="6">
-        <v>12811</v>
+        <v>13211</v>
       </c>
       <c r="D615" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E615" s="5">
         <v>9</v>
@@ -11762,10 +11753,10 @@
     </row>
     <row r="616" spans="3:7">
       <c r="C616" s="6">
-        <v>12812</v>
+        <v>13212</v>
       </c>
       <c r="D616" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E616" s="5">
         <v>10</v>
@@ -11779,10 +11770,10 @@
     </row>
     <row r="617" spans="3:7">
       <c r="C617" s="6">
-        <v>12813</v>
+        <v>13213</v>
       </c>
       <c r="D617" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E617" s="5">
         <v>9</v>
@@ -11796,10 +11787,10 @@
     </row>
     <row r="618" spans="3:7">
       <c r="C618" s="6">
-        <v>12814</v>
+        <v>13214</v>
       </c>
       <c r="D618" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E618" s="5">
         <v>9</v>
@@ -11813,10 +11804,10 @@
     </row>
     <row r="619" spans="3:7">
       <c r="C619" s="6">
-        <v>12815</v>
+        <v>13215</v>
       </c>
       <c r="D619" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E619" s="5">
         <v>9</v>
@@ -11830,10 +11821,10 @@
     </row>
     <row r="620" spans="3:7">
       <c r="C620" s="6">
-        <v>12816</v>
+        <v>13216</v>
       </c>
       <c r="D620" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E620" s="5">
         <v>2</v>
@@ -11847,10 +11838,10 @@
     </row>
     <row r="621" spans="3:7">
       <c r="C621" s="6">
-        <v>12817</v>
+        <v>13217</v>
       </c>
       <c r="D621" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E621" s="3">
         <v>9</v>
@@ -11864,10 +11855,10 @@
     </row>
     <row r="622" spans="3:7">
       <c r="C622" s="6">
-        <v>12818</v>
+        <v>13218</v>
       </c>
       <c r="D622" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E622" s="5">
         <v>9</v>
@@ -11881,10 +11872,10 @@
     </row>
     <row r="623" spans="3:7">
       <c r="C623" s="6">
-        <v>12819</v>
+        <v>13219</v>
       </c>
       <c r="D623" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E623" s="5">
         <v>10</v>
@@ -11898,10 +11889,10 @@
     </row>
     <row r="624" spans="3:7">
       <c r="C624" s="6">
-        <v>12820</v>
+        <v>13220</v>
       </c>
       <c r="D624" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E624" s="5">
         <v>9</v>
@@ -11915,10 +11906,10 @@
     </row>
     <row r="625" spans="3:7">
       <c r="C625" s="6">
-        <v>12821</v>
+        <v>13221</v>
       </c>
       <c r="D625" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E625" s="5">
         <v>5</v>
@@ -11932,10 +11923,10 @@
     </row>
     <row r="626" spans="3:7">
       <c r="C626" s="6">
-        <v>12822</v>
+        <v>13222</v>
       </c>
       <c r="D626" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E626" s="5">
         <v>6</v>
@@ -11949,10 +11940,10 @@
     </row>
     <row r="627" spans="3:7">
       <c r="C627" s="6">
-        <v>12823</v>
+        <v>13223</v>
       </c>
       <c r="D627" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E627" s="5">
         <v>7</v>
@@ -11966,10 +11957,10 @@
     </row>
     <row r="628" spans="3:7">
       <c r="C628" s="6">
-        <v>12824</v>
+        <v>13224</v>
       </c>
       <c r="D628" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E628" s="5">
         <v>8</v>
@@ -11983,10 +11974,10 @@
     </row>
     <row r="629" spans="3:7">
       <c r="C629" s="6">
-        <v>12825</v>
+        <v>13225</v>
       </c>
       <c r="D629" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E629" s="5">
         <v>9</v>
@@ -12003,10 +11994,10 @@
         <v>66</v>
       </c>
       <c r="C631" s="6">
-        <v>12901</v>
+        <v>13301</v>
       </c>
       <c r="D631" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E631" s="5">
         <v>1</v>
@@ -12018,17 +12009,17 @@
         <v>15</v>
       </c>
       <c r="H631" s="3">
-        <v>20455</v>
+        <v>20495</v>
       </c>
     </row>
     <row r="632" spans="1:8">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="6">
-        <v>12902</v>
+        <v>13302</v>
       </c>
       <c r="D632" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E632" s="5">
         <v>1</v>
@@ -12040,15 +12031,15 @@
         <v>16</v>
       </c>
       <c r="H632" s="3">
-        <v>20456</v>
+        <v>20496</v>
       </c>
     </row>
     <row r="633" spans="3:8">
       <c r="C633" s="6">
-        <v>12903</v>
+        <v>13303</v>
       </c>
       <c r="D633" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E633" s="5">
         <v>1</v>
@@ -12060,15 +12051,15 @@
         <v>18</v>
       </c>
       <c r="H633" s="3">
-        <v>20457</v>
+        <v>20497</v>
       </c>
     </row>
     <row r="634" spans="3:8">
       <c r="C634" s="6">
-        <v>12904</v>
+        <v>13304</v>
       </c>
       <c r="D634" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E634" s="3">
         <v>1</v>
@@ -12080,15 +12071,15 @@
         <v>19</v>
       </c>
       <c r="H634" s="3">
-        <v>20458</v>
+        <v>20498</v>
       </c>
     </row>
     <row r="635" spans="3:7">
       <c r="C635" s="6">
-        <v>12905</v>
+        <v>13305</v>
       </c>
       <c r="D635" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E635" s="5">
         <v>3</v>
@@ -12102,10 +12093,10 @@
     </row>
     <row r="636" spans="3:7">
       <c r="C636" s="6">
-        <v>12906</v>
+        <v>13306</v>
       </c>
       <c r="D636" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E636" s="5">
         <v>10</v>
@@ -12119,10 +12110,10 @@
     </row>
     <row r="637" spans="3:7">
       <c r="C637" s="6">
-        <v>12907</v>
+        <v>13307</v>
       </c>
       <c r="D637" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E637" s="5">
         <v>10</v>
@@ -12136,10 +12127,10 @@
     </row>
     <row r="638" spans="3:7">
       <c r="C638" s="6">
-        <v>12908</v>
+        <v>13308</v>
       </c>
       <c r="D638" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E638" s="5">
         <v>10</v>
@@ -12153,10 +12144,10 @@
     </row>
     <row r="639" spans="3:7">
       <c r="C639" s="6">
-        <v>12909</v>
+        <v>13309</v>
       </c>
       <c r="D639" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E639" s="5">
         <v>10</v>
@@ -12170,10 +12161,10 @@
     </row>
     <row r="640" spans="3:7">
       <c r="C640" s="6">
-        <v>12910</v>
+        <v>13310</v>
       </c>
       <c r="D640" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E640" s="5">
         <v>10</v>
@@ -12187,10 +12178,10 @@
     </row>
     <row r="641" spans="3:7">
       <c r="C641" s="6">
-        <v>12911</v>
+        <v>13311</v>
       </c>
       <c r="D641" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E641" s="5">
         <v>9</v>
@@ -12204,10 +12195,10 @@
     </row>
     <row r="642" spans="3:7">
       <c r="C642" s="6">
-        <v>12912</v>
+        <v>13312</v>
       </c>
       <c r="D642" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E642" s="5">
         <v>10</v>
@@ -12221,10 +12212,10 @@
     </row>
     <row r="643" spans="3:7">
       <c r="C643" s="6">
-        <v>12913</v>
+        <v>13313</v>
       </c>
       <c r="D643" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E643" s="5">
         <v>9</v>
@@ -12238,10 +12229,10 @@
     </row>
     <row r="644" spans="3:7">
       <c r="C644" s="6">
-        <v>12914</v>
+        <v>13314</v>
       </c>
       <c r="D644" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E644" s="5">
         <v>9</v>
@@ -12255,10 +12246,10 @@
     </row>
     <row r="645" spans="3:7">
       <c r="C645" s="6">
-        <v>12915</v>
+        <v>13315</v>
       </c>
       <c r="D645" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E645" s="5">
         <v>9</v>
@@ -12272,10 +12263,10 @@
     </row>
     <row r="646" spans="3:7">
       <c r="C646" s="6">
-        <v>12916</v>
+        <v>13316</v>
       </c>
       <c r="D646" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E646" s="5">
         <v>2</v>
@@ -12289,10 +12280,10 @@
     </row>
     <row r="647" spans="3:7">
       <c r="C647" s="6">
-        <v>12917</v>
+        <v>13317</v>
       </c>
       <c r="D647" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E647" s="3">
         <v>9</v>
@@ -12306,10 +12297,10 @@
     </row>
     <row r="648" spans="3:7">
       <c r="C648" s="6">
-        <v>12918</v>
+        <v>13318</v>
       </c>
       <c r="D648" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E648" s="5">
         <v>9</v>
@@ -12323,10 +12314,10 @@
     </row>
     <row r="649" spans="3:7">
       <c r="C649" s="6">
-        <v>12919</v>
+        <v>13319</v>
       </c>
       <c r="D649" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E649" s="5">
         <v>10</v>
@@ -12340,10 +12331,10 @@
     </row>
     <row r="650" spans="3:7">
       <c r="C650" s="6">
-        <v>12920</v>
+        <v>13320</v>
       </c>
       <c r="D650" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E650" s="5">
         <v>9</v>
@@ -12357,10 +12348,10 @@
     </row>
     <row r="651" spans="3:7">
       <c r="C651" s="6">
-        <v>12921</v>
+        <v>13321</v>
       </c>
       <c r="D651" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E651" s="5">
         <v>5</v>
@@ -12374,10 +12365,10 @@
     </row>
     <row r="652" spans="3:7">
       <c r="C652" s="6">
-        <v>12922</v>
+        <v>13322</v>
       </c>
       <c r="D652" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E652" s="5">
         <v>6</v>
@@ -12391,10 +12382,10 @@
     </row>
     <row r="653" spans="3:7">
       <c r="C653" s="6">
-        <v>12923</v>
+        <v>13323</v>
       </c>
       <c r="D653" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E653" s="5">
         <v>7</v>
@@ -12408,10 +12399,10 @@
     </row>
     <row r="654" spans="3:7">
       <c r="C654" s="6">
-        <v>12924</v>
+        <v>13324</v>
       </c>
       <c r="D654" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E654" s="5">
         <v>8</v>
@@ -12425,10 +12416,10 @@
     </row>
     <row r="655" spans="3:7">
       <c r="C655" s="6">
-        <v>12925</v>
+        <v>13325</v>
       </c>
       <c r="D655" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E655" s="5">
         <v>9</v>
@@ -12445,10 +12436,10 @@
         <v>67</v>
       </c>
       <c r="C657" s="6">
-        <v>13001</v>
+        <v>13401</v>
       </c>
       <c r="D657" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E657" s="5">
         <v>1</v>
@@ -12460,17 +12451,17 @@
         <v>15</v>
       </c>
       <c r="H657" s="3">
-        <v>20505</v>
+        <v>20565</v>
       </c>
     </row>
     <row r="658" spans="1:8">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="6">
-        <v>13002</v>
+        <v>13402</v>
       </c>
       <c r="D658" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E658" s="5">
         <v>1</v>
@@ -12482,15 +12473,15 @@
         <v>16</v>
       </c>
       <c r="H658" s="3">
-        <v>20506</v>
+        <v>20566</v>
       </c>
     </row>
     <row r="659" spans="3:8">
       <c r="C659" s="6">
-        <v>13003</v>
+        <v>13403</v>
       </c>
       <c r="D659" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E659" s="5">
         <v>1</v>
@@ -12502,15 +12493,15 @@
         <v>18</v>
       </c>
       <c r="H659" s="3">
-        <v>20507</v>
+        <v>20567</v>
       </c>
     </row>
     <row r="660" spans="3:8">
       <c r="C660" s="6">
-        <v>13004</v>
+        <v>13404</v>
       </c>
       <c r="D660" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E660" s="3">
         <v>1</v>
@@ -12522,15 +12513,15 @@
         <v>19</v>
       </c>
       <c r="H660" s="3">
-        <v>20508</v>
+        <v>20568</v>
       </c>
     </row>
     <row r="661" spans="3:7">
       <c r="C661" s="6">
-        <v>13005</v>
+        <v>13405</v>
       </c>
       <c r="D661" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E661" s="5">
         <v>3</v>
@@ -12544,10 +12535,10 @@
     </row>
     <row r="662" spans="3:7">
       <c r="C662" s="6">
-        <v>13006</v>
+        <v>13406</v>
       </c>
       <c r="D662" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E662" s="5">
         <v>10</v>
@@ -12561,10 +12552,10 @@
     </row>
     <row r="663" spans="3:7">
       <c r="C663" s="6">
-        <v>13007</v>
+        <v>13407</v>
       </c>
       <c r="D663" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E663" s="5">
         <v>10</v>
@@ -12578,10 +12569,10 @@
     </row>
     <row r="664" spans="3:7">
       <c r="C664" s="6">
-        <v>13008</v>
+        <v>13408</v>
       </c>
       <c r="D664" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E664" s="5">
         <v>10</v>
@@ -12595,10 +12586,10 @@
     </row>
     <row r="665" spans="3:7">
       <c r="C665" s="6">
-        <v>13009</v>
+        <v>13409</v>
       </c>
       <c r="D665" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E665" s="5">
         <v>10</v>
@@ -12612,10 +12603,10 @@
     </row>
     <row r="666" spans="3:7">
       <c r="C666" s="6">
-        <v>13010</v>
+        <v>13410</v>
       </c>
       <c r="D666" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E666" s="5">
         <v>10</v>
@@ -12629,10 +12620,10 @@
     </row>
     <row r="667" spans="3:7">
       <c r="C667" s="6">
-        <v>13011</v>
+        <v>13411</v>
       </c>
       <c r="D667" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E667" s="5">
         <v>9</v>
@@ -12646,10 +12637,10 @@
     </row>
     <row r="668" spans="3:7">
       <c r="C668" s="6">
-        <v>13012</v>
+        <v>13412</v>
       </c>
       <c r="D668" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E668" s="5">
         <v>10</v>
@@ -12663,10 +12654,10 @@
     </row>
     <row r="669" spans="3:7">
       <c r="C669" s="6">
-        <v>13013</v>
+        <v>13413</v>
       </c>
       <c r="D669" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E669" s="5">
         <v>9</v>
@@ -12680,10 +12671,10 @@
     </row>
     <row r="670" spans="3:7">
       <c r="C670" s="6">
-        <v>13014</v>
+        <v>13414</v>
       </c>
       <c r="D670" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E670" s="5">
         <v>9</v>
@@ -12697,10 +12688,10 @@
     </row>
     <row r="671" spans="3:7">
       <c r="C671" s="6">
-        <v>13015</v>
+        <v>13415</v>
       </c>
       <c r="D671" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E671" s="5">
         <v>9</v>
@@ -12714,10 +12705,10 @@
     </row>
     <row r="672" spans="3:7">
       <c r="C672" s="6">
-        <v>13016</v>
+        <v>13416</v>
       </c>
       <c r="D672" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E672" s="5">
         <v>2</v>
@@ -12731,10 +12722,10 @@
     </row>
     <row r="673" spans="3:7">
       <c r="C673" s="6">
-        <v>13017</v>
+        <v>13417</v>
       </c>
       <c r="D673" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E673" s="3">
         <v>9</v>
@@ -12748,10 +12739,10 @@
     </row>
     <row r="674" spans="3:7">
       <c r="C674" s="6">
-        <v>13018</v>
+        <v>13418</v>
       </c>
       <c r="D674" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E674" s="5">
         <v>9</v>
@@ -12765,10 +12756,10 @@
     </row>
     <row r="675" spans="3:7">
       <c r="C675" s="6">
-        <v>13019</v>
+        <v>13419</v>
       </c>
       <c r="D675" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E675" s="5">
         <v>10</v>
@@ -12782,10 +12773,10 @@
     </row>
     <row r="676" spans="3:7">
       <c r="C676" s="6">
-        <v>13020</v>
+        <v>13420</v>
       </c>
       <c r="D676" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E676" s="5">
         <v>9</v>
@@ -12799,10 +12790,10 @@
     </row>
     <row r="677" spans="3:7">
       <c r="C677" s="6">
-        <v>13021</v>
+        <v>13421</v>
       </c>
       <c r="D677" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E677" s="5">
         <v>5</v>
@@ -12816,10 +12807,10 @@
     </row>
     <row r="678" spans="3:7">
       <c r="C678" s="6">
-        <v>13022</v>
+        <v>13422</v>
       </c>
       <c r="D678" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E678" s="5">
         <v>6</v>
@@ -12833,10 +12824,10 @@
     </row>
     <row r="679" spans="3:7">
       <c r="C679" s="6">
-        <v>13023</v>
+        <v>13423</v>
       </c>
       <c r="D679" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E679" s="5">
         <v>7</v>
@@ -12850,10 +12841,10 @@
     </row>
     <row r="680" spans="3:7">
       <c r="C680" s="6">
-        <v>13024</v>
+        <v>13424</v>
       </c>
       <c r="D680" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E680" s="5">
         <v>8</v>
@@ -12867,10 +12858,10 @@
     </row>
     <row r="681" spans="3:7">
       <c r="C681" s="6">
-        <v>13025</v>
+        <v>13425</v>
       </c>
       <c r="D681" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E681" s="5">
         <v>9</v>
@@ -12879,1332 +12870,6 @@
         <v>42</v>
       </c>
       <c r="G681" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="683" spans="1:8">
-      <c r="A683" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C683" s="6">
-        <v>13101</v>
-      </c>
-      <c r="D683" s="3">
-        <v>131</v>
-      </c>
-      <c r="E683" s="5">
-        <v>1</v>
-      </c>
-      <c r="F683" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G683" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H683" s="3">
-        <v>20515</v>
-      </c>
-    </row>
-    <row r="684" spans="1:8">
-      <c r="A684" s="1"/>
-      <c r="B684" s="1"/>
-      <c r="C684" s="6">
-        <v>13102</v>
-      </c>
-      <c r="D684" s="3">
-        <v>131</v>
-      </c>
-      <c r="E684" s="5">
-        <v>1</v>
-      </c>
-      <c r="F684" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G684" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H684" s="3">
-        <v>20516</v>
-      </c>
-    </row>
-    <row r="685" spans="3:8">
-      <c r="C685" s="6">
-        <v>13103</v>
-      </c>
-      <c r="D685" s="3">
-        <v>131</v>
-      </c>
-      <c r="E685" s="5">
-        <v>1</v>
-      </c>
-      <c r="F685" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G685" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H685" s="3">
-        <v>20517</v>
-      </c>
-    </row>
-    <row r="686" spans="3:8">
-      <c r="C686" s="6">
-        <v>13104</v>
-      </c>
-      <c r="D686" s="3">
-        <v>131</v>
-      </c>
-      <c r="E686" s="3">
-        <v>1</v>
-      </c>
-      <c r="F686" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G686" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H686" s="3">
-        <v>20518</v>
-      </c>
-    </row>
-    <row r="687" spans="3:7">
-      <c r="C687" s="6">
-        <v>13105</v>
-      </c>
-      <c r="D687" s="3">
-        <v>131</v>
-      </c>
-      <c r="E687" s="5">
-        <v>3</v>
-      </c>
-      <c r="F687" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G687" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="688" spans="3:7">
-      <c r="C688" s="6">
-        <v>13106</v>
-      </c>
-      <c r="D688" s="3">
-        <v>131</v>
-      </c>
-      <c r="E688" s="5">
-        <v>10</v>
-      </c>
-      <c r="F688" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G688" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="689" spans="3:7">
-      <c r="C689" s="6">
-        <v>13107</v>
-      </c>
-      <c r="D689" s="3">
-        <v>131</v>
-      </c>
-      <c r="E689" s="5">
-        <v>10</v>
-      </c>
-      <c r="F689" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G689" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="690" spans="3:7">
-      <c r="C690" s="6">
-        <v>13108</v>
-      </c>
-      <c r="D690" s="3">
-        <v>131</v>
-      </c>
-      <c r="E690" s="5">
-        <v>10</v>
-      </c>
-      <c r="F690" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G690" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="691" spans="3:7">
-      <c r="C691" s="6">
-        <v>13109</v>
-      </c>
-      <c r="D691" s="3">
-        <v>131</v>
-      </c>
-      <c r="E691" s="5">
-        <v>10</v>
-      </c>
-      <c r="F691" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G691" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="692" spans="3:7">
-      <c r="C692" s="6">
-        <v>13110</v>
-      </c>
-      <c r="D692" s="3">
-        <v>131</v>
-      </c>
-      <c r="E692" s="5">
-        <v>10</v>
-      </c>
-      <c r="F692" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G692" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="693" spans="3:7">
-      <c r="C693" s="6">
-        <v>13111</v>
-      </c>
-      <c r="D693" s="3">
-        <v>131</v>
-      </c>
-      <c r="E693" s="5">
-        <v>9</v>
-      </c>
-      <c r="F693" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G693" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="694" spans="3:7">
-      <c r="C694" s="6">
-        <v>13112</v>
-      </c>
-      <c r="D694" s="3">
-        <v>131</v>
-      </c>
-      <c r="E694" s="5">
-        <v>10</v>
-      </c>
-      <c r="F694" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G694" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="695" spans="3:7">
-      <c r="C695" s="6">
-        <v>13113</v>
-      </c>
-      <c r="D695" s="3">
-        <v>131</v>
-      </c>
-      <c r="E695" s="5">
-        <v>9</v>
-      </c>
-      <c r="F695" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G695" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="696" spans="3:7">
-      <c r="C696" s="6">
-        <v>13114</v>
-      </c>
-      <c r="D696" s="3">
-        <v>131</v>
-      </c>
-      <c r="E696" s="5">
-        <v>9</v>
-      </c>
-      <c r="F696" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G696" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="697" spans="3:7">
-      <c r="C697" s="6">
-        <v>13115</v>
-      </c>
-      <c r="D697" s="3">
-        <v>131</v>
-      </c>
-      <c r="E697" s="5">
-        <v>9</v>
-      </c>
-      <c r="F697" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G697" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="698" spans="3:7">
-      <c r="C698" s="6">
-        <v>13116</v>
-      </c>
-      <c r="D698" s="3">
-        <v>131</v>
-      </c>
-      <c r="E698" s="5">
-        <v>2</v>
-      </c>
-      <c r="F698" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G698" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="699" spans="3:7">
-      <c r="C699" s="6">
-        <v>13117</v>
-      </c>
-      <c r="D699" s="3">
-        <v>131</v>
-      </c>
-      <c r="E699" s="3">
-        <v>9</v>
-      </c>
-      <c r="F699" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G699" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="700" spans="3:7">
-      <c r="C700" s="6">
-        <v>13118</v>
-      </c>
-      <c r="D700" s="3">
-        <v>131</v>
-      </c>
-      <c r="E700" s="5">
-        <v>9</v>
-      </c>
-      <c r="F700" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G700" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="701" spans="3:7">
-      <c r="C701" s="6">
-        <v>13119</v>
-      </c>
-      <c r="D701" s="3">
-        <v>131</v>
-      </c>
-      <c r="E701" s="5">
-        <v>10</v>
-      </c>
-      <c r="F701" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G701" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="702" spans="3:7">
-      <c r="C702" s="6">
-        <v>13120</v>
-      </c>
-      <c r="D702" s="3">
-        <v>131</v>
-      </c>
-      <c r="E702" s="5">
-        <v>9</v>
-      </c>
-      <c r="F702" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G702" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="703" spans="3:7">
-      <c r="C703" s="6">
-        <v>13121</v>
-      </c>
-      <c r="D703" s="3">
-        <v>131</v>
-      </c>
-      <c r="E703" s="5">
-        <v>5</v>
-      </c>
-      <c r="F703" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G703" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="704" spans="3:7">
-      <c r="C704" s="6">
-        <v>13122</v>
-      </c>
-      <c r="D704" s="3">
-        <v>131</v>
-      </c>
-      <c r="E704" s="5">
-        <v>6</v>
-      </c>
-      <c r="F704" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G704" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="705" spans="3:7">
-      <c r="C705" s="6">
-        <v>13123</v>
-      </c>
-      <c r="D705" s="3">
-        <v>131</v>
-      </c>
-      <c r="E705" s="5">
-        <v>7</v>
-      </c>
-      <c r="F705" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G705" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="706" spans="3:7">
-      <c r="C706" s="6">
-        <v>13124</v>
-      </c>
-      <c r="D706" s="3">
-        <v>131</v>
-      </c>
-      <c r="E706" s="5">
-        <v>8</v>
-      </c>
-      <c r="F706" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G706" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="707" spans="3:7">
-      <c r="C707" s="6">
-        <v>13125</v>
-      </c>
-      <c r="D707" s="3">
-        <v>131</v>
-      </c>
-      <c r="E707" s="5">
-        <v>9</v>
-      </c>
-      <c r="F707" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G707" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="709" spans="1:8">
-      <c r="A709" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C709" s="6">
-        <v>13201</v>
-      </c>
-      <c r="D709" s="3">
-        <v>132</v>
-      </c>
-      <c r="E709" s="5">
-        <v>1</v>
-      </c>
-      <c r="F709" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G709" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H709" s="3">
-        <v>20445</v>
-      </c>
-    </row>
-    <row r="710" spans="1:8">
-      <c r="A710" s="1"/>
-      <c r="B710" s="1"/>
-      <c r="C710" s="6">
-        <v>13202</v>
-      </c>
-      <c r="D710" s="3">
-        <v>132</v>
-      </c>
-      <c r="E710" s="5">
-        <v>1</v>
-      </c>
-      <c r="F710" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G710" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H710" s="3">
-        <v>20446</v>
-      </c>
-    </row>
-    <row r="711" spans="3:8">
-      <c r="C711" s="6">
-        <v>13203</v>
-      </c>
-      <c r="D711" s="3">
-        <v>132</v>
-      </c>
-      <c r="E711" s="5">
-        <v>1</v>
-      </c>
-      <c r="F711" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G711" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H711" s="3">
-        <v>20447</v>
-      </c>
-    </row>
-    <row r="712" spans="3:8">
-      <c r="C712" s="6">
-        <v>13204</v>
-      </c>
-      <c r="D712" s="3">
-        <v>132</v>
-      </c>
-      <c r="E712" s="3">
-        <v>1</v>
-      </c>
-      <c r="F712" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G712" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H712" s="3">
-        <v>20448</v>
-      </c>
-    </row>
-    <row r="713" spans="3:7">
-      <c r="C713" s="6">
-        <v>13205</v>
-      </c>
-      <c r="D713" s="3">
-        <v>132</v>
-      </c>
-      <c r="E713" s="5">
-        <v>3</v>
-      </c>
-      <c r="F713" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G713" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="714" spans="3:7">
-      <c r="C714" s="6">
-        <v>13206</v>
-      </c>
-      <c r="D714" s="3">
-        <v>132</v>
-      </c>
-      <c r="E714" s="5">
-        <v>10</v>
-      </c>
-      <c r="F714" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G714" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="715" spans="3:7">
-      <c r="C715" s="6">
-        <v>13207</v>
-      </c>
-      <c r="D715" s="3">
-        <v>132</v>
-      </c>
-      <c r="E715" s="5">
-        <v>10</v>
-      </c>
-      <c r="F715" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G715" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="716" spans="3:7">
-      <c r="C716" s="6">
-        <v>13208</v>
-      </c>
-      <c r="D716" s="3">
-        <v>132</v>
-      </c>
-      <c r="E716" s="5">
-        <v>10</v>
-      </c>
-      <c r="F716" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G716" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="717" spans="3:7">
-      <c r="C717" s="6">
-        <v>13209</v>
-      </c>
-      <c r="D717" s="3">
-        <v>132</v>
-      </c>
-      <c r="E717" s="5">
-        <v>10</v>
-      </c>
-      <c r="F717" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G717" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="718" spans="3:7">
-      <c r="C718" s="6">
-        <v>13210</v>
-      </c>
-      <c r="D718" s="3">
-        <v>132</v>
-      </c>
-      <c r="E718" s="5">
-        <v>10</v>
-      </c>
-      <c r="F718" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G718" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="719" spans="3:7">
-      <c r="C719" s="6">
-        <v>13211</v>
-      </c>
-      <c r="D719" s="3">
-        <v>132</v>
-      </c>
-      <c r="E719" s="5">
-        <v>9</v>
-      </c>
-      <c r="F719" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G719" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="720" spans="3:7">
-      <c r="C720" s="6">
-        <v>13212</v>
-      </c>
-      <c r="D720" s="3">
-        <v>132</v>
-      </c>
-      <c r="E720" s="5">
-        <v>10</v>
-      </c>
-      <c r="F720" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G720" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="721" spans="3:7">
-      <c r="C721" s="6">
-        <v>13213</v>
-      </c>
-      <c r="D721" s="3">
-        <v>132</v>
-      </c>
-      <c r="E721" s="5">
-        <v>9</v>
-      </c>
-      <c r="F721" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G721" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="722" spans="3:7">
-      <c r="C722" s="6">
-        <v>13214</v>
-      </c>
-      <c r="D722" s="3">
-        <v>132</v>
-      </c>
-      <c r="E722" s="5">
-        <v>9</v>
-      </c>
-      <c r="F722" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G722" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="723" spans="3:7">
-      <c r="C723" s="6">
-        <v>13215</v>
-      </c>
-      <c r="D723" s="3">
-        <v>132</v>
-      </c>
-      <c r="E723" s="5">
-        <v>9</v>
-      </c>
-      <c r="F723" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G723" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="724" spans="3:7">
-      <c r="C724" s="6">
-        <v>13216</v>
-      </c>
-      <c r="D724" s="3">
-        <v>132</v>
-      </c>
-      <c r="E724" s="5">
-        <v>2</v>
-      </c>
-      <c r="F724" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G724" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="725" spans="3:7">
-      <c r="C725" s="6">
-        <v>13217</v>
-      </c>
-      <c r="D725" s="3">
-        <v>132</v>
-      </c>
-      <c r="E725" s="3">
-        <v>9</v>
-      </c>
-      <c r="F725" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G725" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="726" spans="3:7">
-      <c r="C726" s="6">
-        <v>13218</v>
-      </c>
-      <c r="D726" s="3">
-        <v>132</v>
-      </c>
-      <c r="E726" s="5">
-        <v>9</v>
-      </c>
-      <c r="F726" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G726" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="727" spans="3:7">
-      <c r="C727" s="6">
-        <v>13219</v>
-      </c>
-      <c r="D727" s="3">
-        <v>132</v>
-      </c>
-      <c r="E727" s="5">
-        <v>10</v>
-      </c>
-      <c r="F727" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G727" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="728" spans="3:7">
-      <c r="C728" s="6">
-        <v>13220</v>
-      </c>
-      <c r="D728" s="3">
-        <v>132</v>
-      </c>
-      <c r="E728" s="5">
-        <v>9</v>
-      </c>
-      <c r="F728" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G728" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="729" spans="3:7">
-      <c r="C729" s="6">
-        <v>13221</v>
-      </c>
-      <c r="D729" s="3">
-        <v>132</v>
-      </c>
-      <c r="E729" s="5">
-        <v>5</v>
-      </c>
-      <c r="F729" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G729" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="730" spans="3:7">
-      <c r="C730" s="6">
-        <v>13222</v>
-      </c>
-      <c r="D730" s="3">
-        <v>132</v>
-      </c>
-      <c r="E730" s="5">
-        <v>6</v>
-      </c>
-      <c r="F730" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G730" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="731" spans="3:7">
-      <c r="C731" s="6">
-        <v>13223</v>
-      </c>
-      <c r="D731" s="3">
-        <v>132</v>
-      </c>
-      <c r="E731" s="5">
-        <v>7</v>
-      </c>
-      <c r="F731" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G731" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="732" spans="3:7">
-      <c r="C732" s="6">
-        <v>13224</v>
-      </c>
-      <c r="D732" s="3">
-        <v>132</v>
-      </c>
-      <c r="E732" s="5">
-        <v>8</v>
-      </c>
-      <c r="F732" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G732" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="733" spans="3:7">
-      <c r="C733" s="6">
-        <v>13225</v>
-      </c>
-      <c r="D733" s="3">
-        <v>132</v>
-      </c>
-      <c r="E733" s="5">
-        <v>9</v>
-      </c>
-      <c r="F733" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G733" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="735" spans="1:8">
-      <c r="A735" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C735" s="6">
-        <v>13301</v>
-      </c>
-      <c r="D735" s="3">
-        <v>133</v>
-      </c>
-      <c r="E735" s="5">
-        <v>1</v>
-      </c>
-      <c r="F735" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G735" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H735" s="3">
-        <v>20495</v>
-      </c>
-    </row>
-    <row r="736" spans="1:8">
-      <c r="A736" s="1"/>
-      <c r="B736" s="1"/>
-      <c r="C736" s="6">
-        <v>13302</v>
-      </c>
-      <c r="D736" s="3">
-        <v>133</v>
-      </c>
-      <c r="E736" s="5">
-        <v>1</v>
-      </c>
-      <c r="F736" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G736" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H736" s="3">
-        <v>20496</v>
-      </c>
-    </row>
-    <row r="737" spans="3:8">
-      <c r="C737" s="6">
-        <v>13303</v>
-      </c>
-      <c r="D737" s="3">
-        <v>133</v>
-      </c>
-      <c r="E737" s="5">
-        <v>1</v>
-      </c>
-      <c r="F737" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G737" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H737" s="3">
-        <v>20497</v>
-      </c>
-    </row>
-    <row r="738" spans="3:8">
-      <c r="C738" s="6">
-        <v>13304</v>
-      </c>
-      <c r="D738" s="3">
-        <v>133</v>
-      </c>
-      <c r="E738" s="3">
-        <v>1</v>
-      </c>
-      <c r="F738" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G738" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H738" s="3">
-        <v>20498</v>
-      </c>
-    </row>
-    <row r="739" spans="3:7">
-      <c r="C739" s="6">
-        <v>13305</v>
-      </c>
-      <c r="D739" s="3">
-        <v>133</v>
-      </c>
-      <c r="E739" s="5">
-        <v>3</v>
-      </c>
-      <c r="F739" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G739" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="740" spans="3:7">
-      <c r="C740" s="6">
-        <v>13306</v>
-      </c>
-      <c r="D740" s="3">
-        <v>133</v>
-      </c>
-      <c r="E740" s="5">
-        <v>10</v>
-      </c>
-      <c r="F740" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G740" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="741" spans="3:7">
-      <c r="C741" s="6">
-        <v>13307</v>
-      </c>
-      <c r="D741" s="3">
-        <v>133</v>
-      </c>
-      <c r="E741" s="5">
-        <v>10</v>
-      </c>
-      <c r="F741" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G741" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="742" spans="3:7">
-      <c r="C742" s="6">
-        <v>13308</v>
-      </c>
-      <c r="D742" s="3">
-        <v>133</v>
-      </c>
-      <c r="E742" s="5">
-        <v>10</v>
-      </c>
-      <c r="F742" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G742" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="743" spans="3:7">
-      <c r="C743" s="6">
-        <v>13309</v>
-      </c>
-      <c r="D743" s="3">
-        <v>133</v>
-      </c>
-      <c r="E743" s="5">
-        <v>10</v>
-      </c>
-      <c r="F743" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G743" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="744" spans="3:7">
-      <c r="C744" s="6">
-        <v>13310</v>
-      </c>
-      <c r="D744" s="3">
-        <v>133</v>
-      </c>
-      <c r="E744" s="5">
-        <v>10</v>
-      </c>
-      <c r="F744" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G744" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="745" spans="3:7">
-      <c r="C745" s="6">
-        <v>13311</v>
-      </c>
-      <c r="D745" s="3">
-        <v>133</v>
-      </c>
-      <c r="E745" s="5">
-        <v>9</v>
-      </c>
-      <c r="F745" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G745" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="746" spans="3:7">
-      <c r="C746" s="6">
-        <v>13312</v>
-      </c>
-      <c r="D746" s="3">
-        <v>133</v>
-      </c>
-      <c r="E746" s="5">
-        <v>10</v>
-      </c>
-      <c r="F746" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G746" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="747" spans="3:7">
-      <c r="C747" s="6">
-        <v>13313</v>
-      </c>
-      <c r="D747" s="3">
-        <v>133</v>
-      </c>
-      <c r="E747" s="5">
-        <v>9</v>
-      </c>
-      <c r="F747" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G747" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="748" spans="3:7">
-      <c r="C748" s="6">
-        <v>13314</v>
-      </c>
-      <c r="D748" s="3">
-        <v>133</v>
-      </c>
-      <c r="E748" s="5">
-        <v>9</v>
-      </c>
-      <c r="F748" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G748" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="749" spans="3:7">
-      <c r="C749" s="6">
-        <v>13315</v>
-      </c>
-      <c r="D749" s="3">
-        <v>133</v>
-      </c>
-      <c r="E749" s="5">
-        <v>9</v>
-      </c>
-      <c r="F749" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G749" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="750" spans="3:7">
-      <c r="C750" s="6">
-        <v>13316</v>
-      </c>
-      <c r="D750" s="3">
-        <v>133</v>
-      </c>
-      <c r="E750" s="5">
-        <v>2</v>
-      </c>
-      <c r="F750" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G750" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="751" spans="3:7">
-      <c r="C751" s="6">
-        <v>13317</v>
-      </c>
-      <c r="D751" s="3">
-        <v>133</v>
-      </c>
-      <c r="E751" s="3">
-        <v>9</v>
-      </c>
-      <c r="F751" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G751" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="752" spans="3:7">
-      <c r="C752" s="6">
-        <v>13318</v>
-      </c>
-      <c r="D752" s="3">
-        <v>133</v>
-      </c>
-      <c r="E752" s="5">
-        <v>9</v>
-      </c>
-      <c r="F752" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G752" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="753" spans="3:7">
-      <c r="C753" s="6">
-        <v>13319</v>
-      </c>
-      <c r="D753" s="3">
-        <v>133</v>
-      </c>
-      <c r="E753" s="5">
-        <v>10</v>
-      </c>
-      <c r="F753" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G753" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="754" spans="3:7">
-      <c r="C754" s="6">
-        <v>13320</v>
-      </c>
-      <c r="D754" s="3">
-        <v>133</v>
-      </c>
-      <c r="E754" s="5">
-        <v>9</v>
-      </c>
-      <c r="F754" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G754" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="755" spans="3:7">
-      <c r="C755" s="6">
-        <v>13321</v>
-      </c>
-      <c r="D755" s="3">
-        <v>133</v>
-      </c>
-      <c r="E755" s="5">
-        <v>5</v>
-      </c>
-      <c r="F755" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G755" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="756" spans="3:7">
-      <c r="C756" s="6">
-        <v>13322</v>
-      </c>
-      <c r="D756" s="3">
-        <v>133</v>
-      </c>
-      <c r="E756" s="5">
-        <v>6</v>
-      </c>
-      <c r="F756" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G756" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="757" spans="3:7">
-      <c r="C757" s="6">
-        <v>13323</v>
-      </c>
-      <c r="D757" s="3">
-        <v>133</v>
-      </c>
-      <c r="E757" s="5">
-        <v>7</v>
-      </c>
-      <c r="F757" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G757" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="758" spans="3:7">
-      <c r="C758" s="6">
-        <v>13324</v>
-      </c>
-      <c r="D758" s="3">
-        <v>133</v>
-      </c>
-      <c r="E758" s="5">
-        <v>8</v>
-      </c>
-      <c r="F758" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G758" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="759" spans="3:7">
-      <c r="C759" s="6">
-        <v>13325</v>
-      </c>
-      <c r="D759" s="3">
-        <v>133</v>
-      </c>
-      <c r="E759" s="5">
-        <v>9</v>
-      </c>
-      <c r="F759" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G759" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -14330,10 +12995,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -14348,10 +13013,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -14366,10 +13031,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -14384,10 +13049,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H9" s="5">
         <v>20304</v>
@@ -14404,10 +13069,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -14507,10 +13172,10 @@
         <v>203</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="76">
   <si>
     <t>Id</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>#先锋134风暴之怒</t>
+  </si>
+  <si>
+    <t>#先锋135永恒之境</t>
   </si>
   <si>
     <t>Center</t>
@@ -1260,10 +1263,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O681"/>
+  <dimension ref="A3:O707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
-      <selection activeCell="K562" sqref="K562"/>
+    <sheetView tabSelected="1" topLeftCell="A671" workbookViewId="0">
+      <selection activeCell="H693" sqref="H693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12870,6 +12873,448 @@
         <v>42</v>
       </c>
       <c r="G681" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8">
+      <c r="A683" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C683" s="6">
+        <v>13501</v>
+      </c>
+      <c r="D683" s="3">
+        <v>135</v>
+      </c>
+      <c r="E683" s="5">
+        <v>1</v>
+      </c>
+      <c r="F683" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G683" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H683" s="3">
+        <v>20405</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8">
+      <c r="A684" s="1"/>
+      <c r="B684" s="1"/>
+      <c r="C684" s="6">
+        <v>13502</v>
+      </c>
+      <c r="D684" s="3">
+        <v>135</v>
+      </c>
+      <c r="E684" s="5">
+        <v>1</v>
+      </c>
+      <c r="F684" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G684" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H684" s="3">
+        <v>20406</v>
+      </c>
+    </row>
+    <row r="685" spans="3:8">
+      <c r="C685" s="6">
+        <v>13503</v>
+      </c>
+      <c r="D685" s="3">
+        <v>135</v>
+      </c>
+      <c r="E685" s="5">
+        <v>1</v>
+      </c>
+      <c r="F685" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G685" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H685" s="3">
+        <v>20407</v>
+      </c>
+    </row>
+    <row r="686" spans="3:8">
+      <c r="C686" s="6">
+        <v>13504</v>
+      </c>
+      <c r="D686" s="3">
+        <v>135</v>
+      </c>
+      <c r="E686" s="3">
+        <v>1</v>
+      </c>
+      <c r="F686" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G686" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H686" s="3">
+        <v>20408</v>
+      </c>
+    </row>
+    <row r="687" spans="3:7">
+      <c r="C687" s="6">
+        <v>13505</v>
+      </c>
+      <c r="D687" s="3">
+        <v>135</v>
+      </c>
+      <c r="E687" s="5">
+        <v>3</v>
+      </c>
+      <c r="F687" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G687" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="688" spans="3:7">
+      <c r="C688" s="6">
+        <v>13506</v>
+      </c>
+      <c r="D688" s="3">
+        <v>135</v>
+      </c>
+      <c r="E688" s="5">
+        <v>10</v>
+      </c>
+      <c r="F688" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G688" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="689" spans="3:7">
+      <c r="C689" s="6">
+        <v>13507</v>
+      </c>
+      <c r="D689" s="3">
+        <v>135</v>
+      </c>
+      <c r="E689" s="5">
+        <v>10</v>
+      </c>
+      <c r="F689" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G689" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="690" spans="3:7">
+      <c r="C690" s="6">
+        <v>13508</v>
+      </c>
+      <c r="D690" s="3">
+        <v>135</v>
+      </c>
+      <c r="E690" s="5">
+        <v>10</v>
+      </c>
+      <c r="F690" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G690" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="691" spans="3:7">
+      <c r="C691" s="6">
+        <v>13509</v>
+      </c>
+      <c r="D691" s="3">
+        <v>135</v>
+      </c>
+      <c r="E691" s="5">
+        <v>10</v>
+      </c>
+      <c r="F691" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G691" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="692" spans="3:7">
+      <c r="C692" s="6">
+        <v>13510</v>
+      </c>
+      <c r="D692" s="3">
+        <v>135</v>
+      </c>
+      <c r="E692" s="5">
+        <v>10</v>
+      </c>
+      <c r="F692" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G692" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="693" spans="3:7">
+      <c r="C693" s="6">
+        <v>13511</v>
+      </c>
+      <c r="D693" s="3">
+        <v>135</v>
+      </c>
+      <c r="E693" s="5">
+        <v>9</v>
+      </c>
+      <c r="F693" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G693" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="694" spans="3:7">
+      <c r="C694" s="6">
+        <v>13512</v>
+      </c>
+      <c r="D694" s="3">
+        <v>135</v>
+      </c>
+      <c r="E694" s="5">
+        <v>10</v>
+      </c>
+      <c r="F694" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G694" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="695" spans="3:7">
+      <c r="C695" s="6">
+        <v>13513</v>
+      </c>
+      <c r="D695" s="3">
+        <v>135</v>
+      </c>
+      <c r="E695" s="5">
+        <v>9</v>
+      </c>
+      <c r="F695" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G695" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="696" spans="3:7">
+      <c r="C696" s="6">
+        <v>13514</v>
+      </c>
+      <c r="D696" s="3">
+        <v>135</v>
+      </c>
+      <c r="E696" s="5">
+        <v>9</v>
+      </c>
+      <c r="F696" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G696" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="697" spans="3:7">
+      <c r="C697" s="6">
+        <v>13515</v>
+      </c>
+      <c r="D697" s="3">
+        <v>135</v>
+      </c>
+      <c r="E697" s="5">
+        <v>9</v>
+      </c>
+      <c r="F697" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G697" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="698" spans="3:7">
+      <c r="C698" s="6">
+        <v>13516</v>
+      </c>
+      <c r="D698" s="3">
+        <v>135</v>
+      </c>
+      <c r="E698" s="5">
+        <v>2</v>
+      </c>
+      <c r="F698" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G698" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="699" spans="3:7">
+      <c r="C699" s="6">
+        <v>13517</v>
+      </c>
+      <c r="D699" s="3">
+        <v>135</v>
+      </c>
+      <c r="E699" s="3">
+        <v>9</v>
+      </c>
+      <c r="F699" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G699" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="700" spans="3:7">
+      <c r="C700" s="6">
+        <v>13518</v>
+      </c>
+      <c r="D700" s="3">
+        <v>135</v>
+      </c>
+      <c r="E700" s="5">
+        <v>9</v>
+      </c>
+      <c r="F700" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G700" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="701" spans="3:7">
+      <c r="C701" s="6">
+        <v>13519</v>
+      </c>
+      <c r="D701" s="3">
+        <v>135</v>
+      </c>
+      <c r="E701" s="5">
+        <v>10</v>
+      </c>
+      <c r="F701" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G701" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="702" spans="3:7">
+      <c r="C702" s="6">
+        <v>13520</v>
+      </c>
+      <c r="D702" s="3">
+        <v>135</v>
+      </c>
+      <c r="E702" s="5">
+        <v>9</v>
+      </c>
+      <c r="F702" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G702" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="703" spans="3:7">
+      <c r="C703" s="6">
+        <v>13521</v>
+      </c>
+      <c r="D703" s="3">
+        <v>135</v>
+      </c>
+      <c r="E703" s="5">
+        <v>5</v>
+      </c>
+      <c r="F703" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G703" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="704" spans="3:7">
+      <c r="C704" s="6">
+        <v>13522</v>
+      </c>
+      <c r="D704" s="3">
+        <v>135</v>
+      </c>
+      <c r="E704" s="5">
+        <v>6</v>
+      </c>
+      <c r="F704" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G704" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="705" spans="3:7">
+      <c r="C705" s="6">
+        <v>13523</v>
+      </c>
+      <c r="D705" s="3">
+        <v>135</v>
+      </c>
+      <c r="E705" s="5">
+        <v>7</v>
+      </c>
+      <c r="F705" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G705" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="706" spans="3:7">
+      <c r="C706" s="6">
+        <v>13524</v>
+      </c>
+      <c r="D706" s="3">
+        <v>135</v>
+      </c>
+      <c r="E706" s="5">
+        <v>8</v>
+      </c>
+      <c r="F706" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G706" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="707" spans="3:7">
+      <c r="C707" s="6">
+        <v>13525</v>
+      </c>
+      <c r="D707" s="3">
+        <v>135</v>
+      </c>
+      <c r="E707" s="5">
+        <v>9</v>
+      </c>
+      <c r="F707" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G707" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -12995,10 +13440,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -13013,10 +13458,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -13031,10 +13476,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -13049,10 +13494,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H9" s="5">
         <v>20304</v>
@@ -13069,10 +13514,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -13172,10 +13617,10 @@
         <v>203</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="74">
   <si>
     <t>Id</t>
   </si>
@@ -196,9 +196,6 @@
     <t>#先锋105区锦绣山河</t>
   </si>
   <si>
-    <t>#先锋109区星辰大海</t>
-  </si>
-  <si>
     <t>#先锋113区纵横驰骋</t>
   </si>
   <si>
@@ -220,13 +217,7 @@
     <t>#先锋128主播专服</t>
   </si>
   <si>
-    <t>#先锋130巅峰对决</t>
-  </si>
-  <si>
     <t>#先锋131花满楼</t>
-  </si>
-  <si>
-    <t>#先锋132星辰之怒</t>
   </si>
   <si>
     <t>#先锋133奇迹之光</t>
@@ -236,6 +227,9 @@
   </si>
   <si>
     <t>#先锋135永恒之境</t>
+  </si>
+  <si>
+    <t>#先锋136烽火狼烟</t>
   </si>
   <si>
     <t>Center</t>
@@ -1263,10 +1257,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O707"/>
+  <dimension ref="A3:O655"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A671" workbookViewId="0">
-      <selection activeCell="H693" sqref="H693"/>
+    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
+      <selection activeCell="J558" sqref="J558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7135,10 +7129,10 @@
         <v>55</v>
       </c>
       <c r="C345" s="6">
-        <v>10901</v>
+        <v>11301</v>
       </c>
       <c r="D345" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E345" s="5">
         <v>1</v>
@@ -7150,17 +7144,17 @@
         <v>15</v>
       </c>
       <c r="H345" s="3">
-        <v>20475</v>
+        <v>20545</v>
       </c>
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="6">
-        <v>10902</v>
+        <v>11302</v>
       </c>
       <c r="D346" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E346" s="5">
         <v>1</v>
@@ -7172,15 +7166,15 @@
         <v>16</v>
       </c>
       <c r="H346" s="3">
-        <v>20476</v>
+        <v>20546</v>
       </c>
     </row>
     <row r="347" spans="3:8">
       <c r="C347" s="6">
-        <v>10903</v>
+        <v>11303</v>
       </c>
       <c r="D347" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E347" s="5">
         <v>1</v>
@@ -7192,15 +7186,15 @@
         <v>18</v>
       </c>
       <c r="H347" s="3">
-        <v>20477</v>
+        <v>20547</v>
       </c>
     </row>
     <row r="348" spans="3:8">
       <c r="C348" s="6">
-        <v>10904</v>
+        <v>11304</v>
       </c>
       <c r="D348" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E348" s="3">
         <v>1</v>
@@ -7212,15 +7206,15 @@
         <v>19</v>
       </c>
       <c r="H348" s="3">
-        <v>20478</v>
+        <v>20548</v>
       </c>
     </row>
     <row r="349" spans="3:7">
       <c r="C349" s="6">
-        <v>10905</v>
+        <v>11305</v>
       </c>
       <c r="D349" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E349" s="5">
         <v>3</v>
@@ -7234,10 +7228,10 @@
     </row>
     <row r="350" spans="3:7">
       <c r="C350" s="6">
-        <v>10906</v>
+        <v>11306</v>
       </c>
       <c r="D350" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E350" s="5">
         <v>10</v>
@@ -7251,10 +7245,10 @@
     </row>
     <row r="351" spans="3:7">
       <c r="C351" s="6">
-        <v>10907</v>
+        <v>11307</v>
       </c>
       <c r="D351" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E351" s="5">
         <v>10</v>
@@ -7268,10 +7262,10 @@
     </row>
     <row r="352" spans="3:7">
       <c r="C352" s="6">
-        <v>10908</v>
+        <v>11308</v>
       </c>
       <c r="D352" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E352" s="5">
         <v>10</v>
@@ -7285,10 +7279,10 @@
     </row>
     <row r="353" spans="3:7">
       <c r="C353" s="6">
-        <v>10909</v>
+        <v>11309</v>
       </c>
       <c r="D353" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E353" s="5">
         <v>10</v>
@@ -7302,10 +7296,10 @@
     </row>
     <row r="354" spans="3:7">
       <c r="C354" s="6">
-        <v>10910</v>
+        <v>11310</v>
       </c>
       <c r="D354" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E354" s="5">
         <v>10</v>
@@ -7319,10 +7313,10 @@
     </row>
     <row r="355" spans="3:7">
       <c r="C355" s="6">
-        <v>10911</v>
+        <v>11311</v>
       </c>
       <c r="D355" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E355" s="5">
         <v>9</v>
@@ -7336,10 +7330,10 @@
     </row>
     <row r="356" spans="3:7">
       <c r="C356" s="6">
-        <v>10912</v>
+        <v>11312</v>
       </c>
       <c r="D356" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E356" s="5">
         <v>10</v>
@@ -7353,10 +7347,10 @@
     </row>
     <row r="357" spans="3:7">
       <c r="C357" s="6">
-        <v>10913</v>
+        <v>11313</v>
       </c>
       <c r="D357" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E357" s="5">
         <v>9</v>
@@ -7370,10 +7364,10 @@
     </row>
     <row r="358" spans="3:7">
       <c r="C358" s="6">
-        <v>10914</v>
+        <v>11314</v>
       </c>
       <c r="D358" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E358" s="5">
         <v>9</v>
@@ -7387,10 +7381,10 @@
     </row>
     <row r="359" spans="3:7">
       <c r="C359" s="6">
-        <v>10915</v>
+        <v>11315</v>
       </c>
       <c r="D359" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E359" s="5">
         <v>9</v>
@@ -7404,10 +7398,10 @@
     </row>
     <row r="360" spans="3:7">
       <c r="C360" s="6">
-        <v>10916</v>
+        <v>11316</v>
       </c>
       <c r="D360" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E360" s="5">
         <v>2</v>
@@ -7421,10 +7415,10 @@
     </row>
     <row r="361" spans="3:7">
       <c r="C361" s="6">
-        <v>10917</v>
+        <v>11317</v>
       </c>
       <c r="D361" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E361" s="3">
         <v>9</v>
@@ -7438,10 +7432,10 @@
     </row>
     <row r="362" spans="3:7">
       <c r="C362" s="6">
-        <v>10918</v>
+        <v>11318</v>
       </c>
       <c r="D362" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E362" s="5">
         <v>9</v>
@@ -7455,10 +7449,10 @@
     </row>
     <row r="363" spans="3:7">
       <c r="C363" s="6">
-        <v>10919</v>
+        <v>11319</v>
       </c>
       <c r="D363" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E363" s="5">
         <v>10</v>
@@ -7472,10 +7466,10 @@
     </row>
     <row r="364" spans="3:7">
       <c r="C364" s="6">
-        <v>10920</v>
+        <v>11320</v>
       </c>
       <c r="D364" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E364" s="5">
         <v>9</v>
@@ -7489,10 +7483,10 @@
     </row>
     <row r="365" spans="3:7">
       <c r="C365" s="6">
-        <v>10921</v>
+        <v>11321</v>
       </c>
       <c r="D365" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E365" s="5">
         <v>5</v>
@@ -7506,10 +7500,10 @@
     </row>
     <row r="366" spans="3:7">
       <c r="C366" s="6">
-        <v>10922</v>
+        <v>11322</v>
       </c>
       <c r="D366" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E366" s="5">
         <v>6</v>
@@ -7523,10 +7517,10 @@
     </row>
     <row r="367" spans="3:7">
       <c r="C367" s="6">
-        <v>10923</v>
+        <v>11323</v>
       </c>
       <c r="D367" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E367" s="5">
         <v>7</v>
@@ -7540,10 +7534,10 @@
     </row>
     <row r="368" spans="3:7">
       <c r="C368" s="6">
-        <v>10924</v>
+        <v>11324</v>
       </c>
       <c r="D368" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E368" s="5">
         <v>8</v>
@@ -7557,10 +7551,10 @@
     </row>
     <row r="369" spans="3:7">
       <c r="C369" s="6">
-        <v>10925</v>
+        <v>11325</v>
       </c>
       <c r="D369" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E369" s="5">
         <v>9</v>
@@ -7577,10 +7571,10 @@
         <v>56</v>
       </c>
       <c r="C371" s="6">
-        <v>11301</v>
+        <v>11701</v>
       </c>
       <c r="D371" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E371" s="5">
         <v>1</v>
@@ -7592,17 +7586,17 @@
         <v>15</v>
       </c>
       <c r="H371" s="3">
-        <v>20545</v>
+        <v>20575</v>
       </c>
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="6">
-        <v>11302</v>
+        <v>11702</v>
       </c>
       <c r="D372" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E372" s="5">
         <v>1</v>
@@ -7614,15 +7608,15 @@
         <v>16</v>
       </c>
       <c r="H372" s="3">
-        <v>20546</v>
+        <v>20576</v>
       </c>
     </row>
     <row r="373" spans="3:8">
       <c r="C373" s="6">
-        <v>11303</v>
+        <v>11703</v>
       </c>
       <c r="D373" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E373" s="5">
         <v>1</v>
@@ -7634,15 +7628,15 @@
         <v>18</v>
       </c>
       <c r="H373" s="3">
-        <v>20547</v>
+        <v>20577</v>
       </c>
     </row>
     <row r="374" spans="3:8">
       <c r="C374" s="6">
-        <v>11304</v>
+        <v>11704</v>
       </c>
       <c r="D374" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E374" s="3">
         <v>1</v>
@@ -7654,15 +7648,15 @@
         <v>19</v>
       </c>
       <c r="H374" s="3">
-        <v>20548</v>
+        <v>20578</v>
       </c>
     </row>
     <row r="375" spans="3:7">
       <c r="C375" s="6">
-        <v>11305</v>
+        <v>11705</v>
       </c>
       <c r="D375" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E375" s="5">
         <v>3</v>
@@ -7676,10 +7670,10 @@
     </row>
     <row r="376" spans="3:7">
       <c r="C376" s="6">
-        <v>11306</v>
+        <v>11706</v>
       </c>
       <c r="D376" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E376" s="5">
         <v>10</v>
@@ -7693,10 +7687,10 @@
     </row>
     <row r="377" spans="3:7">
       <c r="C377" s="6">
-        <v>11307</v>
+        <v>11707</v>
       </c>
       <c r="D377" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E377" s="5">
         <v>10</v>
@@ -7710,10 +7704,10 @@
     </row>
     <row r="378" spans="3:7">
       <c r="C378" s="6">
-        <v>11308</v>
+        <v>11708</v>
       </c>
       <c r="D378" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E378" s="5">
         <v>10</v>
@@ -7727,10 +7721,10 @@
     </row>
     <row r="379" spans="3:7">
       <c r="C379" s="6">
-        <v>11309</v>
+        <v>11709</v>
       </c>
       <c r="D379" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E379" s="5">
         <v>10</v>
@@ -7744,10 +7738,10 @@
     </row>
     <row r="380" spans="3:7">
       <c r="C380" s="6">
-        <v>11310</v>
+        <v>11710</v>
       </c>
       <c r="D380" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E380" s="5">
         <v>10</v>
@@ -7761,10 +7755,10 @@
     </row>
     <row r="381" spans="3:7">
       <c r="C381" s="6">
-        <v>11311</v>
+        <v>11711</v>
       </c>
       <c r="D381" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E381" s="5">
         <v>9</v>
@@ -7778,10 +7772,10 @@
     </row>
     <row r="382" spans="3:7">
       <c r="C382" s="6">
-        <v>11312</v>
+        <v>11712</v>
       </c>
       <c r="D382" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E382" s="5">
         <v>10</v>
@@ -7795,10 +7789,10 @@
     </row>
     <row r="383" spans="3:7">
       <c r="C383" s="6">
-        <v>11313</v>
+        <v>11713</v>
       </c>
       <c r="D383" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E383" s="5">
         <v>9</v>
@@ -7812,10 +7806,10 @@
     </row>
     <row r="384" spans="3:7">
       <c r="C384" s="6">
-        <v>11314</v>
+        <v>11714</v>
       </c>
       <c r="D384" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E384" s="5">
         <v>9</v>
@@ -7829,10 +7823,10 @@
     </row>
     <row r="385" spans="3:7">
       <c r="C385" s="6">
-        <v>11315</v>
+        <v>11715</v>
       </c>
       <c r="D385" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E385" s="5">
         <v>9</v>
@@ -7846,10 +7840,10 @@
     </row>
     <row r="386" spans="3:7">
       <c r="C386" s="6">
-        <v>11316</v>
+        <v>11716</v>
       </c>
       <c r="D386" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E386" s="5">
         <v>2</v>
@@ -7863,10 +7857,10 @@
     </row>
     <row r="387" spans="3:7">
       <c r="C387" s="6">
-        <v>11317</v>
+        <v>11717</v>
       </c>
       <c r="D387" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E387" s="3">
         <v>9</v>
@@ -7880,10 +7874,10 @@
     </row>
     <row r="388" spans="3:7">
       <c r="C388" s="6">
-        <v>11318</v>
+        <v>11718</v>
       </c>
       <c r="D388" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E388" s="5">
         <v>9</v>
@@ -7897,10 +7891,10 @@
     </row>
     <row r="389" spans="3:7">
       <c r="C389" s="6">
-        <v>11319</v>
+        <v>11719</v>
       </c>
       <c r="D389" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E389" s="5">
         <v>10</v>
@@ -7914,10 +7908,10 @@
     </row>
     <row r="390" spans="3:7">
       <c r="C390" s="6">
-        <v>11320</v>
+        <v>11720</v>
       </c>
       <c r="D390" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E390" s="5">
         <v>9</v>
@@ -7931,10 +7925,10 @@
     </row>
     <row r="391" spans="3:7">
       <c r="C391" s="6">
-        <v>11321</v>
+        <v>11721</v>
       </c>
       <c r="D391" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E391" s="5">
         <v>5</v>
@@ -7948,10 +7942,10 @@
     </row>
     <row r="392" spans="3:7">
       <c r="C392" s="6">
-        <v>11322</v>
+        <v>11722</v>
       </c>
       <c r="D392" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E392" s="5">
         <v>6</v>
@@ -7965,10 +7959,10 @@
     </row>
     <row r="393" spans="3:7">
       <c r="C393" s="6">
-        <v>11323</v>
+        <v>11723</v>
       </c>
       <c r="D393" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E393" s="5">
         <v>7</v>
@@ -7982,10 +7976,10 @@
     </row>
     <row r="394" spans="3:7">
       <c r="C394" s="6">
-        <v>11324</v>
+        <v>11724</v>
       </c>
       <c r="D394" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E394" s="5">
         <v>8</v>
@@ -7999,10 +7993,10 @@
     </row>
     <row r="395" spans="3:7">
       <c r="C395" s="6">
-        <v>11325</v>
+        <v>11725</v>
       </c>
       <c r="D395" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E395" s="5">
         <v>9</v>
@@ -8019,10 +8013,10 @@
         <v>57</v>
       </c>
       <c r="C397" s="6">
-        <v>11701</v>
+        <v>12101</v>
       </c>
       <c r="D397" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E397" s="5">
         <v>1</v>
@@ -8034,17 +8028,17 @@
         <v>15</v>
       </c>
       <c r="H397" s="3">
-        <v>20575</v>
+        <v>20465</v>
       </c>
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="6">
-        <v>11702</v>
+        <v>12102</v>
       </c>
       <c r="D398" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E398" s="5">
         <v>1</v>
@@ -8056,15 +8050,15 @@
         <v>16</v>
       </c>
       <c r="H398" s="3">
-        <v>20576</v>
+        <v>20466</v>
       </c>
     </row>
     <row r="399" spans="3:8">
       <c r="C399" s="6">
-        <v>11703</v>
+        <v>12103</v>
       </c>
       <c r="D399" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E399" s="5">
         <v>1</v>
@@ -8076,15 +8070,15 @@
         <v>18</v>
       </c>
       <c r="H399" s="3">
-        <v>20577</v>
+        <v>20467</v>
       </c>
     </row>
     <row r="400" spans="3:8">
       <c r="C400" s="6">
-        <v>11704</v>
+        <v>12104</v>
       </c>
       <c r="D400" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E400" s="3">
         <v>1</v>
@@ -8096,15 +8090,15 @@
         <v>19</v>
       </c>
       <c r="H400" s="3">
-        <v>20578</v>
+        <v>20468</v>
       </c>
     </row>
     <row r="401" spans="3:7">
       <c r="C401" s="6">
-        <v>11705</v>
+        <v>12105</v>
       </c>
       <c r="D401" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E401" s="5">
         <v>3</v>
@@ -8118,10 +8112,10 @@
     </row>
     <row r="402" spans="3:7">
       <c r="C402" s="6">
-        <v>11706</v>
+        <v>12106</v>
       </c>
       <c r="D402" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E402" s="5">
         <v>10</v>
@@ -8135,10 +8129,10 @@
     </row>
     <row r="403" spans="3:7">
       <c r="C403" s="6">
-        <v>11707</v>
+        <v>12107</v>
       </c>
       <c r="D403" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E403" s="5">
         <v>10</v>
@@ -8152,10 +8146,10 @@
     </row>
     <row r="404" spans="3:7">
       <c r="C404" s="6">
-        <v>11708</v>
+        <v>12108</v>
       </c>
       <c r="D404" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E404" s="5">
         <v>10</v>
@@ -8169,10 +8163,10 @@
     </row>
     <row r="405" spans="3:7">
       <c r="C405" s="6">
-        <v>11709</v>
+        <v>12109</v>
       </c>
       <c r="D405" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E405" s="5">
         <v>10</v>
@@ -8186,10 +8180,10 @@
     </row>
     <row r="406" spans="3:7">
       <c r="C406" s="6">
-        <v>11710</v>
+        <v>12110</v>
       </c>
       <c r="D406" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E406" s="5">
         <v>10</v>
@@ -8203,10 +8197,10 @@
     </row>
     <row r="407" spans="3:7">
       <c r="C407" s="6">
-        <v>11711</v>
+        <v>12111</v>
       </c>
       <c r="D407" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E407" s="5">
         <v>9</v>
@@ -8220,10 +8214,10 @@
     </row>
     <row r="408" spans="3:7">
       <c r="C408" s="6">
-        <v>11712</v>
+        <v>12112</v>
       </c>
       <c r="D408" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E408" s="5">
         <v>10</v>
@@ -8237,10 +8231,10 @@
     </row>
     <row r="409" spans="3:7">
       <c r="C409" s="6">
-        <v>11713</v>
+        <v>12113</v>
       </c>
       <c r="D409" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E409" s="5">
         <v>9</v>
@@ -8254,10 +8248,10 @@
     </row>
     <row r="410" spans="3:7">
       <c r="C410" s="6">
-        <v>11714</v>
+        <v>12114</v>
       </c>
       <c r="D410" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E410" s="5">
         <v>9</v>
@@ -8271,10 +8265,10 @@
     </row>
     <row r="411" spans="3:7">
       <c r="C411" s="6">
-        <v>11715</v>
+        <v>12115</v>
       </c>
       <c r="D411" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E411" s="5">
         <v>9</v>
@@ -8288,10 +8282,10 @@
     </row>
     <row r="412" spans="3:7">
       <c r="C412" s="6">
-        <v>11716</v>
+        <v>12116</v>
       </c>
       <c r="D412" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E412" s="5">
         <v>2</v>
@@ -8305,10 +8299,10 @@
     </row>
     <row r="413" spans="3:7">
       <c r="C413" s="6">
-        <v>11717</v>
+        <v>12117</v>
       </c>
       <c r="D413" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E413" s="3">
         <v>9</v>
@@ -8322,10 +8316,10 @@
     </row>
     <row r="414" spans="3:7">
       <c r="C414" s="6">
-        <v>11718</v>
+        <v>12118</v>
       </c>
       <c r="D414" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E414" s="5">
         <v>9</v>
@@ -8339,10 +8333,10 @@
     </row>
     <row r="415" spans="3:7">
       <c r="C415" s="6">
-        <v>11719</v>
+        <v>12119</v>
       </c>
       <c r="D415" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E415" s="5">
         <v>10</v>
@@ -8356,10 +8350,10 @@
     </row>
     <row r="416" spans="3:7">
       <c r="C416" s="6">
-        <v>11720</v>
+        <v>12120</v>
       </c>
       <c r="D416" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E416" s="5">
         <v>9</v>
@@ -8373,10 +8367,10 @@
     </row>
     <row r="417" spans="3:7">
       <c r="C417" s="6">
-        <v>11721</v>
+        <v>12121</v>
       </c>
       <c r="D417" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E417" s="5">
         <v>5</v>
@@ -8390,10 +8384,10 @@
     </row>
     <row r="418" spans="3:7">
       <c r="C418" s="6">
-        <v>11722</v>
+        <v>12122</v>
       </c>
       <c r="D418" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E418" s="5">
         <v>6</v>
@@ -8407,10 +8401,10 @@
     </row>
     <row r="419" spans="3:7">
       <c r="C419" s="6">
-        <v>11723</v>
+        <v>12123</v>
       </c>
       <c r="D419" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E419" s="5">
         <v>7</v>
@@ -8424,10 +8418,10 @@
     </row>
     <row r="420" spans="3:7">
       <c r="C420" s="6">
-        <v>11724</v>
+        <v>12124</v>
       </c>
       <c r="D420" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E420" s="5">
         <v>8</v>
@@ -8441,10 +8435,10 @@
     </row>
     <row r="421" spans="3:7">
       <c r="C421" s="6">
-        <v>11725</v>
+        <v>12125</v>
       </c>
       <c r="D421" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E421" s="5">
         <v>9</v>
@@ -8461,10 +8455,10 @@
         <v>58</v>
       </c>
       <c r="C423" s="6">
-        <v>12101</v>
+        <v>12301</v>
       </c>
       <c r="D423" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E423" s="5">
         <v>1</v>
@@ -8476,17 +8470,17 @@
         <v>15</v>
       </c>
       <c r="H423" s="3">
-        <v>20465</v>
+        <v>20525</v>
       </c>
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="6">
-        <v>12102</v>
+        <v>12302</v>
       </c>
       <c r="D424" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E424" s="5">
         <v>1</v>
@@ -8498,15 +8492,15 @@
         <v>16</v>
       </c>
       <c r="H424" s="3">
-        <v>20466</v>
+        <v>20526</v>
       </c>
     </row>
     <row r="425" spans="3:8">
       <c r="C425" s="6">
-        <v>12103</v>
+        <v>12303</v>
       </c>
       <c r="D425" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E425" s="5">
         <v>1</v>
@@ -8518,15 +8512,15 @@
         <v>18</v>
       </c>
       <c r="H425" s="3">
-        <v>20467</v>
+        <v>20527</v>
       </c>
     </row>
     <row r="426" spans="3:8">
       <c r="C426" s="6">
-        <v>12104</v>
+        <v>12304</v>
       </c>
       <c r="D426" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E426" s="3">
         <v>1</v>
@@ -8538,15 +8532,15 @@
         <v>19</v>
       </c>
       <c r="H426" s="3">
-        <v>20468</v>
+        <v>20528</v>
       </c>
     </row>
     <row r="427" spans="3:7">
       <c r="C427" s="6">
-        <v>12105</v>
+        <v>12305</v>
       </c>
       <c r="D427" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E427" s="5">
         <v>3</v>
@@ -8560,10 +8554,10 @@
     </row>
     <row r="428" spans="3:7">
       <c r="C428" s="6">
-        <v>12106</v>
+        <v>12306</v>
       </c>
       <c r="D428" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E428" s="5">
         <v>10</v>
@@ -8577,10 +8571,10 @@
     </row>
     <row r="429" spans="3:7">
       <c r="C429" s="6">
-        <v>12107</v>
+        <v>12307</v>
       </c>
       <c r="D429" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E429" s="5">
         <v>10</v>
@@ -8594,10 +8588,10 @@
     </row>
     <row r="430" spans="3:7">
       <c r="C430" s="6">
-        <v>12108</v>
+        <v>12308</v>
       </c>
       <c r="D430" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E430" s="5">
         <v>10</v>
@@ -8611,10 +8605,10 @@
     </row>
     <row r="431" spans="3:7">
       <c r="C431" s="6">
-        <v>12109</v>
+        <v>12309</v>
       </c>
       <c r="D431" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E431" s="5">
         <v>10</v>
@@ -8628,10 +8622,10 @@
     </row>
     <row r="432" spans="3:7">
       <c r="C432" s="6">
-        <v>12110</v>
+        <v>12310</v>
       </c>
       <c r="D432" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E432" s="5">
         <v>10</v>
@@ -8645,10 +8639,10 @@
     </row>
     <row r="433" spans="3:7">
       <c r="C433" s="6">
-        <v>12111</v>
+        <v>12311</v>
       </c>
       <c r="D433" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E433" s="5">
         <v>9</v>
@@ -8662,10 +8656,10 @@
     </row>
     <row r="434" spans="3:7">
       <c r="C434" s="6">
-        <v>12112</v>
+        <v>12312</v>
       </c>
       <c r="D434" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E434" s="5">
         <v>10</v>
@@ -8679,10 +8673,10 @@
     </row>
     <row r="435" spans="3:7">
       <c r="C435" s="6">
-        <v>12113</v>
+        <v>12313</v>
       </c>
       <c r="D435" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E435" s="5">
         <v>9</v>
@@ -8696,10 +8690,10 @@
     </row>
     <row r="436" spans="3:7">
       <c r="C436" s="6">
-        <v>12114</v>
+        <v>12314</v>
       </c>
       <c r="D436" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E436" s="5">
         <v>9</v>
@@ -8713,10 +8707,10 @@
     </row>
     <row r="437" spans="3:7">
       <c r="C437" s="6">
-        <v>12115</v>
+        <v>12315</v>
       </c>
       <c r="D437" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E437" s="5">
         <v>9</v>
@@ -8730,10 +8724,10 @@
     </row>
     <row r="438" spans="3:7">
       <c r="C438" s="6">
-        <v>12116</v>
+        <v>12316</v>
       </c>
       <c r="D438" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E438" s="5">
         <v>2</v>
@@ -8747,10 +8741,10 @@
     </row>
     <row r="439" spans="3:7">
       <c r="C439" s="6">
-        <v>12117</v>
+        <v>12317</v>
       </c>
       <c r="D439" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E439" s="3">
         <v>9</v>
@@ -8764,10 +8758,10 @@
     </row>
     <row r="440" spans="3:7">
       <c r="C440" s="6">
-        <v>12118</v>
+        <v>12318</v>
       </c>
       <c r="D440" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E440" s="5">
         <v>9</v>
@@ -8781,10 +8775,10 @@
     </row>
     <row r="441" spans="3:7">
       <c r="C441" s="6">
-        <v>12119</v>
+        <v>12319</v>
       </c>
       <c r="D441" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E441" s="5">
         <v>10</v>
@@ -8798,10 +8792,10 @@
     </row>
     <row r="442" spans="3:7">
       <c r="C442" s="6">
-        <v>12120</v>
+        <v>12320</v>
       </c>
       <c r="D442" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E442" s="5">
         <v>9</v>
@@ -8815,10 +8809,10 @@
     </row>
     <row r="443" spans="3:7">
       <c r="C443" s="6">
-        <v>12121</v>
+        <v>12321</v>
       </c>
       <c r="D443" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E443" s="5">
         <v>5</v>
@@ -8832,10 +8826,10 @@
     </row>
     <row r="444" spans="3:7">
       <c r="C444" s="6">
-        <v>12122</v>
+        <v>12322</v>
       </c>
       <c r="D444" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E444" s="5">
         <v>6</v>
@@ -8849,10 +8843,10 @@
     </row>
     <row r="445" spans="3:7">
       <c r="C445" s="6">
-        <v>12123</v>
+        <v>12323</v>
       </c>
       <c r="D445" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E445" s="5">
         <v>7</v>
@@ -8866,10 +8860,10 @@
     </row>
     <row r="446" spans="3:7">
       <c r="C446" s="6">
-        <v>12124</v>
+        <v>12324</v>
       </c>
       <c r="D446" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E446" s="5">
         <v>8</v>
@@ -8883,10 +8877,10 @@
     </row>
     <row r="447" spans="3:7">
       <c r="C447" s="6">
-        <v>12125</v>
+        <v>12325</v>
       </c>
       <c r="D447" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E447" s="5">
         <v>9</v>
@@ -8903,10 +8897,10 @@
         <v>59</v>
       </c>
       <c r="C449" s="6">
-        <v>12301</v>
+        <v>12501</v>
       </c>
       <c r="D449" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E449" s="5">
         <v>1</v>
@@ -8918,17 +8912,17 @@
         <v>15</v>
       </c>
       <c r="H449" s="3">
-        <v>20525</v>
+        <v>20605</v>
       </c>
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="6">
-        <v>12302</v>
+        <v>12502</v>
       </c>
       <c r="D450" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E450" s="5">
         <v>1</v>
@@ -8940,15 +8934,15 @@
         <v>16</v>
       </c>
       <c r="H450" s="3">
-        <v>20526</v>
+        <v>20606</v>
       </c>
     </row>
     <row r="451" spans="3:8">
       <c r="C451" s="6">
-        <v>12303</v>
+        <v>12503</v>
       </c>
       <c r="D451" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E451" s="5">
         <v>1</v>
@@ -8960,15 +8954,15 @@
         <v>18</v>
       </c>
       <c r="H451" s="3">
-        <v>20527</v>
+        <v>20607</v>
       </c>
     </row>
     <row r="452" spans="3:8">
       <c r="C452" s="6">
-        <v>12304</v>
+        <v>12504</v>
       </c>
       <c r="D452" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E452" s="3">
         <v>1</v>
@@ -8980,15 +8974,15 @@
         <v>19</v>
       </c>
       <c r="H452" s="3">
-        <v>20528</v>
+        <v>20608</v>
       </c>
     </row>
     <row r="453" spans="3:7">
       <c r="C453" s="6">
-        <v>12305</v>
+        <v>12505</v>
       </c>
       <c r="D453" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E453" s="5">
         <v>3</v>
@@ -9002,10 +8996,10 @@
     </row>
     <row r="454" spans="3:7">
       <c r="C454" s="6">
-        <v>12306</v>
+        <v>12506</v>
       </c>
       <c r="D454" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E454" s="5">
         <v>10</v>
@@ -9019,10 +9013,10 @@
     </row>
     <row r="455" spans="3:7">
       <c r="C455" s="6">
-        <v>12307</v>
+        <v>12507</v>
       </c>
       <c r="D455" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E455" s="5">
         <v>10</v>
@@ -9036,10 +9030,10 @@
     </row>
     <row r="456" spans="3:7">
       <c r="C456" s="6">
-        <v>12308</v>
+        <v>12508</v>
       </c>
       <c r="D456" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E456" s="5">
         <v>10</v>
@@ -9053,10 +9047,10 @@
     </row>
     <row r="457" spans="3:7">
       <c r="C457" s="6">
-        <v>12309</v>
+        <v>12509</v>
       </c>
       <c r="D457" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E457" s="5">
         <v>10</v>
@@ -9070,10 +9064,10 @@
     </row>
     <row r="458" spans="3:7">
       <c r="C458" s="6">
-        <v>12310</v>
+        <v>12510</v>
       </c>
       <c r="D458" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E458" s="5">
         <v>10</v>
@@ -9087,10 +9081,10 @@
     </row>
     <row r="459" spans="3:7">
       <c r="C459" s="6">
-        <v>12311</v>
+        <v>12511</v>
       </c>
       <c r="D459" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E459" s="5">
         <v>9</v>
@@ -9104,10 +9098,10 @@
     </row>
     <row r="460" spans="3:7">
       <c r="C460" s="6">
-        <v>12312</v>
+        <v>12512</v>
       </c>
       <c r="D460" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E460" s="5">
         <v>10</v>
@@ -9121,10 +9115,10 @@
     </row>
     <row r="461" spans="3:7">
       <c r="C461" s="6">
-        <v>12313</v>
+        <v>12513</v>
       </c>
       <c r="D461" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E461" s="5">
         <v>9</v>
@@ -9138,10 +9132,10 @@
     </row>
     <row r="462" spans="3:7">
       <c r="C462" s="6">
-        <v>12314</v>
+        <v>12514</v>
       </c>
       <c r="D462" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E462" s="5">
         <v>9</v>
@@ -9155,10 +9149,10 @@
     </row>
     <row r="463" spans="3:7">
       <c r="C463" s="6">
-        <v>12315</v>
+        <v>12515</v>
       </c>
       <c r="D463" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E463" s="5">
         <v>9</v>
@@ -9172,10 +9166,10 @@
     </row>
     <row r="464" spans="3:7">
       <c r="C464" s="6">
-        <v>12316</v>
+        <v>12516</v>
       </c>
       <c r="D464" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E464" s="5">
         <v>2</v>
@@ -9189,10 +9183,10 @@
     </row>
     <row r="465" spans="3:7">
       <c r="C465" s="6">
-        <v>12317</v>
+        <v>12517</v>
       </c>
       <c r="D465" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E465" s="3">
         <v>9</v>
@@ -9206,10 +9200,10 @@
     </row>
     <row r="466" spans="3:7">
       <c r="C466" s="6">
-        <v>12318</v>
+        <v>12518</v>
       </c>
       <c r="D466" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E466" s="5">
         <v>9</v>
@@ -9223,10 +9217,10 @@
     </row>
     <row r="467" spans="3:7">
       <c r="C467" s="6">
-        <v>12319</v>
+        <v>12519</v>
       </c>
       <c r="D467" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E467" s="5">
         <v>10</v>
@@ -9240,10 +9234,10 @@
     </row>
     <row r="468" spans="3:7">
       <c r="C468" s="6">
-        <v>12320</v>
+        <v>12520</v>
       </c>
       <c r="D468" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E468" s="5">
         <v>9</v>
@@ -9257,10 +9251,10 @@
     </row>
     <row r="469" spans="3:7">
       <c r="C469" s="6">
-        <v>12321</v>
+        <v>12521</v>
       </c>
       <c r="D469" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E469" s="5">
         <v>5</v>
@@ -9274,10 +9268,10 @@
     </row>
     <row r="470" spans="3:7">
       <c r="C470" s="6">
-        <v>12322</v>
+        <v>12522</v>
       </c>
       <c r="D470" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E470" s="5">
         <v>6</v>
@@ -9291,10 +9285,10 @@
     </row>
     <row r="471" spans="3:7">
       <c r="C471" s="6">
-        <v>12323</v>
+        <v>12523</v>
       </c>
       <c r="D471" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E471" s="5">
         <v>7</v>
@@ -9308,10 +9302,10 @@
     </row>
     <row r="472" spans="3:7">
       <c r="C472" s="6">
-        <v>12324</v>
+        <v>12524</v>
       </c>
       <c r="D472" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E472" s="5">
         <v>8</v>
@@ -9325,10 +9319,10 @@
     </row>
     <row r="473" spans="3:7">
       <c r="C473" s="6">
-        <v>12325</v>
+        <v>12525</v>
       </c>
       <c r="D473" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E473" s="5">
         <v>9</v>
@@ -9345,10 +9339,10 @@
         <v>60</v>
       </c>
       <c r="C475" s="6">
-        <v>12501</v>
+        <v>12701</v>
       </c>
       <c r="D475" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E475" s="5">
         <v>1</v>
@@ -9360,17 +9354,17 @@
         <v>15</v>
       </c>
       <c r="H475" s="3">
-        <v>20605</v>
+        <v>20375</v>
       </c>
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="6">
-        <v>12502</v>
+        <v>12702</v>
       </c>
       <c r="D476" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E476" s="5">
         <v>1</v>
@@ -9382,15 +9376,15 @@
         <v>16</v>
       </c>
       <c r="H476" s="3">
-        <v>20606</v>
+        <v>20376</v>
       </c>
     </row>
     <row r="477" spans="3:8">
       <c r="C477" s="6">
-        <v>12503</v>
+        <v>12703</v>
       </c>
       <c r="D477" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E477" s="5">
         <v>1</v>
@@ -9402,15 +9396,15 @@
         <v>18</v>
       </c>
       <c r="H477" s="3">
-        <v>20607</v>
+        <v>20377</v>
       </c>
     </row>
     <row r="478" spans="3:8">
       <c r="C478" s="6">
-        <v>12504</v>
+        <v>12704</v>
       </c>
       <c r="D478" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E478" s="3">
         <v>1</v>
@@ -9422,15 +9416,15 @@
         <v>19</v>
       </c>
       <c r="H478" s="3">
-        <v>20608</v>
+        <v>20378</v>
       </c>
     </row>
     <row r="479" spans="3:7">
       <c r="C479" s="6">
-        <v>12505</v>
+        <v>12705</v>
       </c>
       <c r="D479" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E479" s="5">
         <v>3</v>
@@ -9444,10 +9438,10 @@
     </row>
     <row r="480" spans="3:7">
       <c r="C480" s="6">
-        <v>12506</v>
+        <v>12706</v>
       </c>
       <c r="D480" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E480" s="5">
         <v>10</v>
@@ -9461,10 +9455,10 @@
     </row>
     <row r="481" spans="3:7">
       <c r="C481" s="6">
-        <v>12507</v>
+        <v>12707</v>
       </c>
       <c r="D481" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E481" s="5">
         <v>10</v>
@@ -9478,10 +9472,10 @@
     </row>
     <row r="482" spans="3:7">
       <c r="C482" s="6">
-        <v>12508</v>
+        <v>12708</v>
       </c>
       <c r="D482" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E482" s="5">
         <v>10</v>
@@ -9495,10 +9489,10 @@
     </row>
     <row r="483" spans="3:7">
       <c r="C483" s="6">
-        <v>12509</v>
+        <v>12709</v>
       </c>
       <c r="D483" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E483" s="5">
         <v>10</v>
@@ -9512,10 +9506,10 @@
     </row>
     <row r="484" spans="3:7">
       <c r="C484" s="6">
-        <v>12510</v>
+        <v>12710</v>
       </c>
       <c r="D484" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E484" s="5">
         <v>10</v>
@@ -9529,10 +9523,10 @@
     </row>
     <row r="485" spans="3:7">
       <c r="C485" s="6">
-        <v>12511</v>
+        <v>12711</v>
       </c>
       <c r="D485" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E485" s="5">
         <v>9</v>
@@ -9546,10 +9540,10 @@
     </row>
     <row r="486" spans="3:7">
       <c r="C486" s="6">
-        <v>12512</v>
+        <v>12712</v>
       </c>
       <c r="D486" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E486" s="5">
         <v>10</v>
@@ -9563,10 +9557,10 @@
     </row>
     <row r="487" spans="3:7">
       <c r="C487" s="6">
-        <v>12513</v>
+        <v>12713</v>
       </c>
       <c r="D487" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E487" s="5">
         <v>9</v>
@@ -9580,10 +9574,10 @@
     </row>
     <row r="488" spans="3:7">
       <c r="C488" s="6">
-        <v>12514</v>
+        <v>12714</v>
       </c>
       <c r="D488" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E488" s="5">
         <v>9</v>
@@ -9597,10 +9591,10 @@
     </row>
     <row r="489" spans="3:7">
       <c r="C489" s="6">
-        <v>12515</v>
+        <v>12715</v>
       </c>
       <c r="D489" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E489" s="5">
         <v>9</v>
@@ -9614,10 +9608,10 @@
     </row>
     <row r="490" spans="3:7">
       <c r="C490" s="6">
-        <v>12516</v>
+        <v>12716</v>
       </c>
       <c r="D490" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E490" s="5">
         <v>2</v>
@@ -9631,10 +9625,10 @@
     </row>
     <row r="491" spans="3:7">
       <c r="C491" s="6">
-        <v>12517</v>
+        <v>12717</v>
       </c>
       <c r="D491" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E491" s="3">
         <v>9</v>
@@ -9648,10 +9642,10 @@
     </row>
     <row r="492" spans="3:7">
       <c r="C492" s="6">
-        <v>12518</v>
+        <v>12718</v>
       </c>
       <c r="D492" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E492" s="5">
         <v>9</v>
@@ -9665,10 +9659,10 @@
     </row>
     <row r="493" spans="3:7">
       <c r="C493" s="6">
-        <v>12519</v>
+        <v>12719</v>
       </c>
       <c r="D493" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E493" s="5">
         <v>10</v>
@@ -9682,10 +9676,10 @@
     </row>
     <row r="494" spans="3:7">
       <c r="C494" s="6">
-        <v>12520</v>
+        <v>12720</v>
       </c>
       <c r="D494" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E494" s="5">
         <v>9</v>
@@ -9699,10 +9693,10 @@
     </row>
     <row r="495" spans="3:7">
       <c r="C495" s="6">
-        <v>12521</v>
+        <v>12721</v>
       </c>
       <c r="D495" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E495" s="5">
         <v>5</v>
@@ -9716,10 +9710,10 @@
     </row>
     <row r="496" spans="3:7">
       <c r="C496" s="6">
-        <v>12522</v>
+        <v>12722</v>
       </c>
       <c r="D496" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E496" s="5">
         <v>6</v>
@@ -9733,10 +9727,10 @@
     </row>
     <row r="497" spans="3:7">
       <c r="C497" s="6">
-        <v>12523</v>
+        <v>12723</v>
       </c>
       <c r="D497" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E497" s="5">
         <v>7</v>
@@ -9750,10 +9744,10 @@
     </row>
     <row r="498" spans="3:7">
       <c r="C498" s="6">
-        <v>12524</v>
+        <v>12724</v>
       </c>
       <c r="D498" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E498" s="5">
         <v>8</v>
@@ -9767,10 +9761,10 @@
     </row>
     <row r="499" spans="3:7">
       <c r="C499" s="6">
-        <v>12525</v>
+        <v>12725</v>
       </c>
       <c r="D499" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E499" s="5">
         <v>9</v>
@@ -9787,10 +9781,10 @@
         <v>61</v>
       </c>
       <c r="C501" s="6">
-        <v>12701</v>
+        <v>12801</v>
       </c>
       <c r="D501" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E501" s="5">
         <v>1</v>
@@ -9802,17 +9796,17 @@
         <v>15</v>
       </c>
       <c r="H501" s="3">
-        <v>20375</v>
+        <v>20425</v>
       </c>
     </row>
     <row r="502" spans="1:8">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="6">
-        <v>12702</v>
+        <v>12802</v>
       </c>
       <c r="D502" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E502" s="5">
         <v>1</v>
@@ -9824,15 +9818,15 @@
         <v>16</v>
       </c>
       <c r="H502" s="3">
-        <v>20376</v>
+        <v>20426</v>
       </c>
     </row>
     <row r="503" spans="3:8">
       <c r="C503" s="6">
-        <v>12703</v>
+        <v>12803</v>
       </c>
       <c r="D503" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E503" s="5">
         <v>1</v>
@@ -9844,15 +9838,15 @@
         <v>18</v>
       </c>
       <c r="H503" s="3">
-        <v>20377</v>
+        <v>20427</v>
       </c>
     </row>
     <row r="504" spans="3:8">
       <c r="C504" s="6">
-        <v>12704</v>
+        <v>12804</v>
       </c>
       <c r="D504" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E504" s="3">
         <v>1</v>
@@ -9864,15 +9858,15 @@
         <v>19</v>
       </c>
       <c r="H504" s="3">
-        <v>20378</v>
+        <v>20428</v>
       </c>
     </row>
     <row r="505" spans="3:7">
       <c r="C505" s="6">
-        <v>12705</v>
+        <v>12805</v>
       </c>
       <c r="D505" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E505" s="5">
         <v>3</v>
@@ -9886,10 +9880,10 @@
     </row>
     <row r="506" spans="3:7">
       <c r="C506" s="6">
-        <v>12706</v>
+        <v>12806</v>
       </c>
       <c r="D506" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E506" s="5">
         <v>10</v>
@@ -9903,10 +9897,10 @@
     </row>
     <row r="507" spans="3:7">
       <c r="C507" s="6">
-        <v>12707</v>
+        <v>12807</v>
       </c>
       <c r="D507" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E507" s="5">
         <v>10</v>
@@ -9920,10 +9914,10 @@
     </row>
     <row r="508" spans="3:7">
       <c r="C508" s="6">
-        <v>12708</v>
+        <v>12808</v>
       </c>
       <c r="D508" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E508" s="5">
         <v>10</v>
@@ -9937,10 +9931,10 @@
     </row>
     <row r="509" spans="3:7">
       <c r="C509" s="6">
-        <v>12709</v>
+        <v>12809</v>
       </c>
       <c r="D509" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E509" s="5">
         <v>10</v>
@@ -9954,10 +9948,10 @@
     </row>
     <row r="510" spans="3:7">
       <c r="C510" s="6">
-        <v>12710</v>
+        <v>12810</v>
       </c>
       <c r="D510" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E510" s="5">
         <v>10</v>
@@ -9971,10 +9965,10 @@
     </row>
     <row r="511" spans="3:7">
       <c r="C511" s="6">
-        <v>12711</v>
+        <v>12811</v>
       </c>
       <c r="D511" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E511" s="5">
         <v>9</v>
@@ -9988,10 +9982,10 @@
     </row>
     <row r="512" spans="3:7">
       <c r="C512" s="6">
-        <v>12712</v>
+        <v>12812</v>
       </c>
       <c r="D512" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E512" s="5">
         <v>10</v>
@@ -10005,10 +9999,10 @@
     </row>
     <row r="513" spans="3:7">
       <c r="C513" s="6">
-        <v>12713</v>
+        <v>12813</v>
       </c>
       <c r="D513" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E513" s="5">
         <v>9</v>
@@ -10022,10 +10016,10 @@
     </row>
     <row r="514" spans="3:7">
       <c r="C514" s="6">
-        <v>12714</v>
+        <v>12814</v>
       </c>
       <c r="D514" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E514" s="5">
         <v>9</v>
@@ -10039,10 +10033,10 @@
     </row>
     <row r="515" spans="3:7">
       <c r="C515" s="6">
-        <v>12715</v>
+        <v>12815</v>
       </c>
       <c r="D515" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E515" s="5">
         <v>9</v>
@@ -10056,10 +10050,10 @@
     </row>
     <row r="516" spans="3:7">
       <c r="C516" s="6">
-        <v>12716</v>
+        <v>12816</v>
       </c>
       <c r="D516" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E516" s="5">
         <v>2</v>
@@ -10073,10 +10067,10 @@
     </row>
     <row r="517" spans="3:7">
       <c r="C517" s="6">
-        <v>12717</v>
+        <v>12817</v>
       </c>
       <c r="D517" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E517" s="3">
         <v>9</v>
@@ -10090,10 +10084,10 @@
     </row>
     <row r="518" spans="3:7">
       <c r="C518" s="6">
-        <v>12718</v>
+        <v>12818</v>
       </c>
       <c r="D518" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E518" s="5">
         <v>9</v>
@@ -10107,10 +10101,10 @@
     </row>
     <row r="519" spans="3:7">
       <c r="C519" s="6">
-        <v>12719</v>
+        <v>12819</v>
       </c>
       <c r="D519" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E519" s="5">
         <v>10</v>
@@ -10124,10 +10118,10 @@
     </row>
     <row r="520" spans="3:7">
       <c r="C520" s="6">
-        <v>12720</v>
+        <v>12820</v>
       </c>
       <c r="D520" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E520" s="5">
         <v>9</v>
@@ -10141,10 +10135,10 @@
     </row>
     <row r="521" spans="3:7">
       <c r="C521" s="6">
-        <v>12721</v>
+        <v>12821</v>
       </c>
       <c r="D521" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E521" s="5">
         <v>5</v>
@@ -10158,10 +10152,10 @@
     </row>
     <row r="522" spans="3:7">
       <c r="C522" s="6">
-        <v>12722</v>
+        <v>12822</v>
       </c>
       <c r="D522" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E522" s="5">
         <v>6</v>
@@ -10175,10 +10169,10 @@
     </row>
     <row r="523" spans="3:7">
       <c r="C523" s="6">
-        <v>12723</v>
+        <v>12823</v>
       </c>
       <c r="D523" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E523" s="5">
         <v>7</v>
@@ -10192,10 +10186,10 @@
     </row>
     <row r="524" spans="3:7">
       <c r="C524" s="6">
-        <v>12724</v>
+        <v>12824</v>
       </c>
       <c r="D524" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E524" s="5">
         <v>8</v>
@@ -10209,10 +10203,10 @@
     </row>
     <row r="525" spans="3:7">
       <c r="C525" s="6">
-        <v>12725</v>
+        <v>12825</v>
       </c>
       <c r="D525" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E525" s="5">
         <v>9</v>
@@ -10229,10 +10223,10 @@
         <v>62</v>
       </c>
       <c r="C527" s="6">
-        <v>12801</v>
+        <v>13101</v>
       </c>
       <c r="D527" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E527" s="5">
         <v>1</v>
@@ -10244,17 +10238,17 @@
         <v>15</v>
       </c>
       <c r="H527" s="3">
-        <v>20425</v>
+        <v>20515</v>
       </c>
     </row>
     <row r="528" spans="1:8">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="6">
-        <v>12802</v>
+        <v>13102</v>
       </c>
       <c r="D528" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E528" s="5">
         <v>1</v>
@@ -10266,15 +10260,15 @@
         <v>16</v>
       </c>
       <c r="H528" s="3">
-        <v>20426</v>
+        <v>20516</v>
       </c>
     </row>
     <row r="529" spans="3:8">
       <c r="C529" s="6">
-        <v>12803</v>
+        <v>13103</v>
       </c>
       <c r="D529" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E529" s="5">
         <v>1</v>
@@ -10286,15 +10280,15 @@
         <v>18</v>
       </c>
       <c r="H529" s="3">
-        <v>20427</v>
+        <v>20517</v>
       </c>
     </row>
     <row r="530" spans="3:8">
       <c r="C530" s="6">
-        <v>12804</v>
+        <v>13104</v>
       </c>
       <c r="D530" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E530" s="3">
         <v>1</v>
@@ -10306,15 +10300,15 @@
         <v>19</v>
       </c>
       <c r="H530" s="3">
-        <v>20428</v>
+        <v>20518</v>
       </c>
     </row>
     <row r="531" spans="3:7">
       <c r="C531" s="6">
-        <v>12805</v>
+        <v>13105</v>
       </c>
       <c r="D531" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E531" s="5">
         <v>3</v>
@@ -10328,10 +10322,10 @@
     </row>
     <row r="532" spans="3:7">
       <c r="C532" s="6">
-        <v>12806</v>
+        <v>13106</v>
       </c>
       <c r="D532" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E532" s="5">
         <v>10</v>
@@ -10345,10 +10339,10 @@
     </row>
     <row r="533" spans="3:7">
       <c r="C533" s="6">
-        <v>12807</v>
+        <v>13107</v>
       </c>
       <c r="D533" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E533" s="5">
         <v>10</v>
@@ -10362,10 +10356,10 @@
     </row>
     <row r="534" spans="3:7">
       <c r="C534" s="6">
-        <v>12808</v>
+        <v>13108</v>
       </c>
       <c r="D534" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E534" s="5">
         <v>10</v>
@@ -10379,10 +10373,10 @@
     </row>
     <row r="535" spans="3:7">
       <c r="C535" s="6">
-        <v>12809</v>
+        <v>13109</v>
       </c>
       <c r="D535" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E535" s="5">
         <v>10</v>
@@ -10396,10 +10390,10 @@
     </row>
     <row r="536" spans="3:7">
       <c r="C536" s="6">
-        <v>12810</v>
+        <v>13110</v>
       </c>
       <c r="D536" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E536" s="5">
         <v>10</v>
@@ -10413,10 +10407,10 @@
     </row>
     <row r="537" spans="3:7">
       <c r="C537" s="6">
-        <v>12811</v>
+        <v>13111</v>
       </c>
       <c r="D537" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E537" s="5">
         <v>9</v>
@@ -10430,10 +10424,10 @@
     </row>
     <row r="538" spans="3:7">
       <c r="C538" s="6">
-        <v>12812</v>
+        <v>13112</v>
       </c>
       <c r="D538" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E538" s="5">
         <v>10</v>
@@ -10447,10 +10441,10 @@
     </row>
     <row r="539" spans="3:7">
       <c r="C539" s="6">
-        <v>12813</v>
+        <v>13113</v>
       </c>
       <c r="D539" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E539" s="5">
         <v>9</v>
@@ -10464,10 +10458,10 @@
     </row>
     <row r="540" spans="3:7">
       <c r="C540" s="6">
-        <v>12814</v>
+        <v>13114</v>
       </c>
       <c r="D540" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E540" s="5">
         <v>9</v>
@@ -10481,10 +10475,10 @@
     </row>
     <row r="541" spans="3:7">
       <c r="C541" s="6">
-        <v>12815</v>
+        <v>13115</v>
       </c>
       <c r="D541" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E541" s="5">
         <v>9</v>
@@ -10498,10 +10492,10 @@
     </row>
     <row r="542" spans="3:7">
       <c r="C542" s="6">
-        <v>12816</v>
+        <v>13116</v>
       </c>
       <c r="D542" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E542" s="5">
         <v>2</v>
@@ -10515,10 +10509,10 @@
     </row>
     <row r="543" spans="3:7">
       <c r="C543" s="6">
-        <v>12817</v>
+        <v>13117</v>
       </c>
       <c r="D543" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E543" s="3">
         <v>9</v>
@@ -10532,10 +10526,10 @@
     </row>
     <row r="544" spans="3:7">
       <c r="C544" s="6">
-        <v>12818</v>
+        <v>13118</v>
       </c>
       <c r="D544" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E544" s="5">
         <v>9</v>
@@ -10549,10 +10543,10 @@
     </row>
     <row r="545" spans="3:7">
       <c r="C545" s="6">
-        <v>12819</v>
+        <v>13119</v>
       </c>
       <c r="D545" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E545" s="5">
         <v>10</v>
@@ -10566,10 +10560,10 @@
     </row>
     <row r="546" spans="3:7">
       <c r="C546" s="6">
-        <v>12820</v>
+        <v>13120</v>
       </c>
       <c r="D546" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E546" s="5">
         <v>9</v>
@@ -10583,10 +10577,10 @@
     </row>
     <row r="547" spans="3:7">
       <c r="C547" s="6">
-        <v>12821</v>
+        <v>13121</v>
       </c>
       <c r="D547" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E547" s="5">
         <v>5</v>
@@ -10600,10 +10594,10 @@
     </row>
     <row r="548" spans="3:7">
       <c r="C548" s="6">
-        <v>12822</v>
+        <v>13122</v>
       </c>
       <c r="D548" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E548" s="5">
         <v>6</v>
@@ -10617,10 +10611,10 @@
     </row>
     <row r="549" spans="3:7">
       <c r="C549" s="6">
-        <v>12823</v>
+        <v>13123</v>
       </c>
       <c r="D549" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E549" s="5">
         <v>7</v>
@@ -10634,10 +10628,10 @@
     </row>
     <row r="550" spans="3:7">
       <c r="C550" s="6">
-        <v>12824</v>
+        <v>13124</v>
       </c>
       <c r="D550" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E550" s="5">
         <v>8</v>
@@ -10651,10 +10645,10 @@
     </row>
     <row r="551" spans="3:7">
       <c r="C551" s="6">
-        <v>12825</v>
+        <v>13125</v>
       </c>
       <c r="D551" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E551" s="5">
         <v>9</v>
@@ -10671,10 +10665,10 @@
         <v>63</v>
       </c>
       <c r="C553" s="6">
-        <v>13001</v>
+        <v>13301</v>
       </c>
       <c r="D553" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E553" s="5">
         <v>1</v>
@@ -10686,17 +10680,17 @@
         <v>15</v>
       </c>
       <c r="H553" s="3">
-        <v>20505</v>
+        <v>20495</v>
       </c>
     </row>
     <row r="554" spans="1:8">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="6">
-        <v>13002</v>
+        <v>13302</v>
       </c>
       <c r="D554" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E554" s="5">
         <v>1</v>
@@ -10708,15 +10702,15 @@
         <v>16</v>
       </c>
       <c r="H554" s="3">
-        <v>20506</v>
+        <v>20496</v>
       </c>
     </row>
     <row r="555" spans="3:8">
       <c r="C555" s="6">
-        <v>13003</v>
+        <v>13303</v>
       </c>
       <c r="D555" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E555" s="5">
         <v>1</v>
@@ -10728,15 +10722,15 @@
         <v>18</v>
       </c>
       <c r="H555" s="3">
-        <v>20507</v>
+        <v>20497</v>
       </c>
     </row>
     <row r="556" spans="3:8">
       <c r="C556" s="6">
-        <v>13004</v>
+        <v>13304</v>
       </c>
       <c r="D556" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E556" s="3">
         <v>1</v>
@@ -10748,15 +10742,15 @@
         <v>19</v>
       </c>
       <c r="H556" s="3">
-        <v>20508</v>
+        <v>20498</v>
       </c>
     </row>
     <row r="557" spans="3:7">
       <c r="C557" s="6">
-        <v>13005</v>
+        <v>13305</v>
       </c>
       <c r="D557" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E557" s="5">
         <v>3</v>
@@ -10770,10 +10764,10 @@
     </row>
     <row r="558" spans="3:7">
       <c r="C558" s="6">
-        <v>13006</v>
+        <v>13306</v>
       </c>
       <c r="D558" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E558" s="5">
         <v>10</v>
@@ -10787,10 +10781,10 @@
     </row>
     <row r="559" spans="3:7">
       <c r="C559" s="6">
-        <v>13007</v>
+        <v>13307</v>
       </c>
       <c r="D559" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E559" s="5">
         <v>10</v>
@@ -10804,10 +10798,10 @@
     </row>
     <row r="560" spans="3:7">
       <c r="C560" s="6">
-        <v>13008</v>
+        <v>13308</v>
       </c>
       <c r="D560" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E560" s="5">
         <v>10</v>
@@ -10821,10 +10815,10 @@
     </row>
     <row r="561" spans="3:7">
       <c r="C561" s="6">
-        <v>13009</v>
+        <v>13309</v>
       </c>
       <c r="D561" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E561" s="5">
         <v>10</v>
@@ -10838,10 +10832,10 @@
     </row>
     <row r="562" spans="3:7">
       <c r="C562" s="6">
-        <v>13010</v>
+        <v>13310</v>
       </c>
       <c r="D562" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E562" s="5">
         <v>10</v>
@@ -10855,10 +10849,10 @@
     </row>
     <row r="563" spans="3:7">
       <c r="C563" s="6">
-        <v>13011</v>
+        <v>13311</v>
       </c>
       <c r="D563" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E563" s="5">
         <v>9</v>
@@ -10872,10 +10866,10 @@
     </row>
     <row r="564" spans="3:7">
       <c r="C564" s="6">
-        <v>13012</v>
+        <v>13312</v>
       </c>
       <c r="D564" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E564" s="5">
         <v>10</v>
@@ -10889,10 +10883,10 @@
     </row>
     <row r="565" spans="3:7">
       <c r="C565" s="6">
-        <v>13013</v>
+        <v>13313</v>
       </c>
       <c r="D565" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E565" s="5">
         <v>9</v>
@@ -10906,10 +10900,10 @@
     </row>
     <row r="566" spans="3:7">
       <c r="C566" s="6">
-        <v>13014</v>
+        <v>13314</v>
       </c>
       <c r="D566" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E566" s="5">
         <v>9</v>
@@ -10923,10 +10917,10 @@
     </row>
     <row r="567" spans="3:7">
       <c r="C567" s="6">
-        <v>13015</v>
+        <v>13315</v>
       </c>
       <c r="D567" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E567" s="5">
         <v>9</v>
@@ -10940,10 +10934,10 @@
     </row>
     <row r="568" spans="3:7">
       <c r="C568" s="6">
-        <v>13016</v>
+        <v>13316</v>
       </c>
       <c r="D568" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E568" s="5">
         <v>2</v>
@@ -10957,10 +10951,10 @@
     </row>
     <row r="569" spans="3:7">
       <c r="C569" s="6">
-        <v>13017</v>
+        <v>13317</v>
       </c>
       <c r="D569" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E569" s="3">
         <v>9</v>
@@ -10974,10 +10968,10 @@
     </row>
     <row r="570" spans="3:7">
       <c r="C570" s="6">
-        <v>13018</v>
+        <v>13318</v>
       </c>
       <c r="D570" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E570" s="5">
         <v>9</v>
@@ -10991,10 +10985,10 @@
     </row>
     <row r="571" spans="3:7">
       <c r="C571" s="6">
-        <v>13019</v>
+        <v>13319</v>
       </c>
       <c r="D571" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E571" s="5">
         <v>10</v>
@@ -11008,10 +11002,10 @@
     </row>
     <row r="572" spans="3:7">
       <c r="C572" s="6">
-        <v>13020</v>
+        <v>13320</v>
       </c>
       <c r="D572" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E572" s="5">
         <v>9</v>
@@ -11025,10 +11019,10 @@
     </row>
     <row r="573" spans="3:7">
       <c r="C573" s="6">
-        <v>13021</v>
+        <v>13321</v>
       </c>
       <c r="D573" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E573" s="5">
         <v>5</v>
@@ -11042,10 +11036,10 @@
     </row>
     <row r="574" spans="3:7">
       <c r="C574" s="6">
-        <v>13022</v>
+        <v>13322</v>
       </c>
       <c r="D574" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E574" s="5">
         <v>6</v>
@@ -11059,10 +11053,10 @@
     </row>
     <row r="575" spans="3:7">
       <c r="C575" s="6">
-        <v>13023</v>
+        <v>13323</v>
       </c>
       <c r="D575" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E575" s="5">
         <v>7</v>
@@ -11076,10 +11070,10 @@
     </row>
     <row r="576" spans="3:7">
       <c r="C576" s="6">
-        <v>13024</v>
+        <v>13324</v>
       </c>
       <c r="D576" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E576" s="5">
         <v>8</v>
@@ -11093,10 +11087,10 @@
     </row>
     <row r="577" spans="3:7">
       <c r="C577" s="6">
-        <v>13025</v>
+        <v>13325</v>
       </c>
       <c r="D577" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E577" s="5">
         <v>9</v>
@@ -11113,10 +11107,10 @@
         <v>64</v>
       </c>
       <c r="C579" s="6">
-        <v>13101</v>
+        <v>13401</v>
       </c>
       <c r="D579" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E579" s="5">
         <v>1</v>
@@ -11128,17 +11122,17 @@
         <v>15</v>
       </c>
       <c r="H579" s="3">
-        <v>20515</v>
+        <v>20565</v>
       </c>
     </row>
     <row r="580" spans="1:8">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="6">
-        <v>13102</v>
+        <v>13402</v>
       </c>
       <c r="D580" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E580" s="5">
         <v>1</v>
@@ -11150,15 +11144,15 @@
         <v>16</v>
       </c>
       <c r="H580" s="3">
-        <v>20516</v>
+        <v>20566</v>
       </c>
     </row>
     <row r="581" spans="3:8">
       <c r="C581" s="6">
-        <v>13103</v>
+        <v>13403</v>
       </c>
       <c r="D581" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E581" s="5">
         <v>1</v>
@@ -11170,15 +11164,15 @@
         <v>18</v>
       </c>
       <c r="H581" s="3">
-        <v>20517</v>
+        <v>20567</v>
       </c>
     </row>
     <row r="582" spans="3:8">
       <c r="C582" s="6">
-        <v>13104</v>
+        <v>13404</v>
       </c>
       <c r="D582" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E582" s="3">
         <v>1</v>
@@ -11190,15 +11184,15 @@
         <v>19</v>
       </c>
       <c r="H582" s="3">
-        <v>20518</v>
+        <v>20568</v>
       </c>
     </row>
     <row r="583" spans="3:7">
       <c r="C583" s="6">
-        <v>13105</v>
+        <v>13405</v>
       </c>
       <c r="D583" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E583" s="5">
         <v>3</v>
@@ -11212,10 +11206,10 @@
     </row>
     <row r="584" spans="3:7">
       <c r="C584" s="6">
-        <v>13106</v>
+        <v>13406</v>
       </c>
       <c r="D584" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E584" s="5">
         <v>10</v>
@@ -11229,10 +11223,10 @@
     </row>
     <row r="585" spans="3:7">
       <c r="C585" s="6">
-        <v>13107</v>
+        <v>13407</v>
       </c>
       <c r="D585" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E585" s="5">
         <v>10</v>
@@ -11246,10 +11240,10 @@
     </row>
     <row r="586" spans="3:7">
       <c r="C586" s="6">
-        <v>13108</v>
+        <v>13408</v>
       </c>
       <c r="D586" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E586" s="5">
         <v>10</v>
@@ -11263,10 +11257,10 @@
     </row>
     <row r="587" spans="3:7">
       <c r="C587" s="6">
-        <v>13109</v>
+        <v>13409</v>
       </c>
       <c r="D587" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E587" s="5">
         <v>10</v>
@@ -11280,10 +11274,10 @@
     </row>
     <row r="588" spans="3:7">
       <c r="C588" s="6">
-        <v>13110</v>
+        <v>13410</v>
       </c>
       <c r="D588" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E588" s="5">
         <v>10</v>
@@ -11297,10 +11291,10 @@
     </row>
     <row r="589" spans="3:7">
       <c r="C589" s="6">
-        <v>13111</v>
+        <v>13411</v>
       </c>
       <c r="D589" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E589" s="5">
         <v>9</v>
@@ -11314,10 +11308,10 @@
     </row>
     <row r="590" spans="3:7">
       <c r="C590" s="6">
-        <v>13112</v>
+        <v>13412</v>
       </c>
       <c r="D590" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E590" s="5">
         <v>10</v>
@@ -11331,10 +11325,10 @@
     </row>
     <row r="591" spans="3:7">
       <c r="C591" s="6">
-        <v>13113</v>
+        <v>13413</v>
       </c>
       <c r="D591" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E591" s="5">
         <v>9</v>
@@ -11348,10 +11342,10 @@
     </row>
     <row r="592" spans="3:7">
       <c r="C592" s="6">
-        <v>13114</v>
+        <v>13414</v>
       </c>
       <c r="D592" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E592" s="5">
         <v>9</v>
@@ -11365,10 +11359,10 @@
     </row>
     <row r="593" spans="3:7">
       <c r="C593" s="6">
-        <v>13115</v>
+        <v>13415</v>
       </c>
       <c r="D593" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E593" s="5">
         <v>9</v>
@@ -11382,10 +11376,10 @@
     </row>
     <row r="594" spans="3:7">
       <c r="C594" s="6">
-        <v>13116</v>
+        <v>13416</v>
       </c>
       <c r="D594" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E594" s="5">
         <v>2</v>
@@ -11399,10 +11393,10 @@
     </row>
     <row r="595" spans="3:7">
       <c r="C595" s="6">
-        <v>13117</v>
+        <v>13417</v>
       </c>
       <c r="D595" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E595" s="3">
         <v>9</v>
@@ -11416,10 +11410,10 @@
     </row>
     <row r="596" spans="3:7">
       <c r="C596" s="6">
-        <v>13118</v>
+        <v>13418</v>
       </c>
       <c r="D596" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E596" s="5">
         <v>9</v>
@@ -11433,10 +11427,10 @@
     </row>
     <row r="597" spans="3:7">
       <c r="C597" s="6">
-        <v>13119</v>
+        <v>13419</v>
       </c>
       <c r="D597" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E597" s="5">
         <v>10</v>
@@ -11450,10 +11444,10 @@
     </row>
     <row r="598" spans="3:7">
       <c r="C598" s="6">
-        <v>13120</v>
+        <v>13420</v>
       </c>
       <c r="D598" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E598" s="5">
         <v>9</v>
@@ -11467,10 +11461,10 @@
     </row>
     <row r="599" spans="3:7">
       <c r="C599" s="6">
-        <v>13121</v>
+        <v>13421</v>
       </c>
       <c r="D599" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E599" s="5">
         <v>5</v>
@@ -11484,10 +11478,10 @@
     </row>
     <row r="600" spans="3:7">
       <c r="C600" s="6">
-        <v>13122</v>
+        <v>13422</v>
       </c>
       <c r="D600" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E600" s="5">
         <v>6</v>
@@ -11501,10 +11495,10 @@
     </row>
     <row r="601" spans="3:7">
       <c r="C601" s="6">
-        <v>13123</v>
+        <v>13423</v>
       </c>
       <c r="D601" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E601" s="5">
         <v>7</v>
@@ -11518,10 +11512,10 @@
     </row>
     <row r="602" spans="3:7">
       <c r="C602" s="6">
-        <v>13124</v>
+        <v>13424</v>
       </c>
       <c r="D602" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E602" s="5">
         <v>8</v>
@@ -11535,10 +11529,10 @@
     </row>
     <row r="603" spans="3:7">
       <c r="C603" s="6">
-        <v>13125</v>
+        <v>13425</v>
       </c>
       <c r="D603" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E603" s="5">
         <v>9</v>
@@ -11555,10 +11549,10 @@
         <v>65</v>
       </c>
       <c r="C605" s="6">
-        <v>13201</v>
+        <v>13501</v>
       </c>
       <c r="D605" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E605" s="5">
         <v>1</v>
@@ -11570,17 +11564,17 @@
         <v>15</v>
       </c>
       <c r="H605" s="3">
-        <v>20445</v>
+        <v>20405</v>
       </c>
     </row>
     <row r="606" spans="1:8">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="6">
-        <v>13202</v>
+        <v>13502</v>
       </c>
       <c r="D606" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E606" s="5">
         <v>1</v>
@@ -11592,15 +11586,15 @@
         <v>16</v>
       </c>
       <c r="H606" s="3">
-        <v>20446</v>
+        <v>20406</v>
       </c>
     </row>
     <row r="607" spans="3:8">
       <c r="C607" s="6">
-        <v>13203</v>
+        <v>13503</v>
       </c>
       <c r="D607" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E607" s="5">
         <v>1</v>
@@ -11612,15 +11606,15 @@
         <v>18</v>
       </c>
       <c r="H607" s="3">
-        <v>20447</v>
+        <v>20407</v>
       </c>
     </row>
     <row r="608" spans="3:8">
       <c r="C608" s="6">
-        <v>13204</v>
+        <v>13504</v>
       </c>
       <c r="D608" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E608" s="3">
         <v>1</v>
@@ -11632,15 +11626,15 @@
         <v>19</v>
       </c>
       <c r="H608" s="3">
-        <v>20448</v>
+        <v>20408</v>
       </c>
     </row>
     <row r="609" spans="3:7">
       <c r="C609" s="6">
-        <v>13205</v>
+        <v>13505</v>
       </c>
       <c r="D609" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E609" s="5">
         <v>3</v>
@@ -11654,10 +11648,10 @@
     </row>
     <row r="610" spans="3:7">
       <c r="C610" s="6">
-        <v>13206</v>
+        <v>13506</v>
       </c>
       <c r="D610" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E610" s="5">
         <v>10</v>
@@ -11671,10 +11665,10 @@
     </row>
     <row r="611" spans="3:7">
       <c r="C611" s="6">
-        <v>13207</v>
+        <v>13507</v>
       </c>
       <c r="D611" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E611" s="5">
         <v>10</v>
@@ -11688,10 +11682,10 @@
     </row>
     <row r="612" spans="3:7">
       <c r="C612" s="6">
-        <v>13208</v>
+        <v>13508</v>
       </c>
       <c r="D612" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E612" s="5">
         <v>10</v>
@@ -11705,10 +11699,10 @@
     </row>
     <row r="613" spans="3:7">
       <c r="C613" s="6">
-        <v>13209</v>
+        <v>13509</v>
       </c>
       <c r="D613" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E613" s="5">
         <v>10</v>
@@ -11722,10 +11716,10 @@
     </row>
     <row r="614" spans="3:7">
       <c r="C614" s="6">
-        <v>13210</v>
+        <v>13510</v>
       </c>
       <c r="D614" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E614" s="5">
         <v>10</v>
@@ -11739,10 +11733,10 @@
     </row>
     <row r="615" spans="3:7">
       <c r="C615" s="6">
-        <v>13211</v>
+        <v>13511</v>
       </c>
       <c r="D615" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E615" s="5">
         <v>9</v>
@@ -11756,10 +11750,10 @@
     </row>
     <row r="616" spans="3:7">
       <c r="C616" s="6">
-        <v>13212</v>
+        <v>13512</v>
       </c>
       <c r="D616" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E616" s="5">
         <v>10</v>
@@ -11773,10 +11767,10 @@
     </row>
     <row r="617" spans="3:7">
       <c r="C617" s="6">
-        <v>13213</v>
+        <v>13513</v>
       </c>
       <c r="D617" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E617" s="5">
         <v>9</v>
@@ -11790,10 +11784,10 @@
     </row>
     <row r="618" spans="3:7">
       <c r="C618" s="6">
-        <v>13214</v>
+        <v>13514</v>
       </c>
       <c r="D618" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E618" s="5">
         <v>9</v>
@@ -11807,10 +11801,10 @@
     </row>
     <row r="619" spans="3:7">
       <c r="C619" s="6">
-        <v>13215</v>
+        <v>13515</v>
       </c>
       <c r="D619" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E619" s="5">
         <v>9</v>
@@ -11824,10 +11818,10 @@
     </row>
     <row r="620" spans="3:7">
       <c r="C620" s="6">
-        <v>13216</v>
+        <v>13516</v>
       </c>
       <c r="D620" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E620" s="5">
         <v>2</v>
@@ -11841,10 +11835,10 @@
     </row>
     <row r="621" spans="3:7">
       <c r="C621" s="6">
-        <v>13217</v>
+        <v>13517</v>
       </c>
       <c r="D621" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E621" s="3">
         <v>9</v>
@@ -11858,10 +11852,10 @@
     </row>
     <row r="622" spans="3:7">
       <c r="C622" s="6">
-        <v>13218</v>
+        <v>13518</v>
       </c>
       <c r="D622" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E622" s="5">
         <v>9</v>
@@ -11875,10 +11869,10 @@
     </row>
     <row r="623" spans="3:7">
       <c r="C623" s="6">
-        <v>13219</v>
+        <v>13519</v>
       </c>
       <c r="D623" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E623" s="5">
         <v>10</v>
@@ -11892,10 +11886,10 @@
     </row>
     <row r="624" spans="3:7">
       <c r="C624" s="6">
-        <v>13220</v>
+        <v>13520</v>
       </c>
       <c r="D624" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E624" s="5">
         <v>9</v>
@@ -11909,10 +11903,10 @@
     </row>
     <row r="625" spans="3:7">
       <c r="C625" s="6">
-        <v>13221</v>
+        <v>13521</v>
       </c>
       <c r="D625" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E625" s="5">
         <v>5</v>
@@ -11926,10 +11920,10 @@
     </row>
     <row r="626" spans="3:7">
       <c r="C626" s="6">
-        <v>13222</v>
+        <v>13522</v>
       </c>
       <c r="D626" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E626" s="5">
         <v>6</v>
@@ -11943,10 +11937,10 @@
     </row>
     <row r="627" spans="3:7">
       <c r="C627" s="6">
-        <v>13223</v>
+        <v>13523</v>
       </c>
       <c r="D627" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E627" s="5">
         <v>7</v>
@@ -11960,10 +11954,10 @@
     </row>
     <row r="628" spans="3:7">
       <c r="C628" s="6">
-        <v>13224</v>
+        <v>13524</v>
       </c>
       <c r="D628" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E628" s="5">
         <v>8</v>
@@ -11977,10 +11971,10 @@
     </row>
     <row r="629" spans="3:7">
       <c r="C629" s="6">
-        <v>13225</v>
+        <v>13525</v>
       </c>
       <c r="D629" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E629" s="5">
         <v>9</v>
@@ -11997,10 +11991,10 @@
         <v>66</v>
       </c>
       <c r="C631" s="6">
-        <v>13301</v>
+        <v>13601</v>
       </c>
       <c r="D631" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E631" s="5">
         <v>1</v>
@@ -12012,17 +12006,17 @@
         <v>15</v>
       </c>
       <c r="H631" s="3">
-        <v>20495</v>
+        <v>20415</v>
       </c>
     </row>
     <row r="632" spans="1:8">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="6">
-        <v>13302</v>
+        <v>13602</v>
       </c>
       <c r="D632" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E632" s="5">
         <v>1</v>
@@ -12034,15 +12028,15 @@
         <v>16</v>
       </c>
       <c r="H632" s="3">
-        <v>20496</v>
+        <v>20416</v>
       </c>
     </row>
     <row r="633" spans="3:8">
       <c r="C633" s="6">
-        <v>13303</v>
+        <v>13603</v>
       </c>
       <c r="D633" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E633" s="5">
         <v>1</v>
@@ -12054,15 +12048,15 @@
         <v>18</v>
       </c>
       <c r="H633" s="3">
-        <v>20497</v>
+        <v>20417</v>
       </c>
     </row>
     <row r="634" spans="3:8">
       <c r="C634" s="6">
-        <v>13304</v>
+        <v>13604</v>
       </c>
       <c r="D634" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E634" s="3">
         <v>1</v>
@@ -12074,15 +12068,15 @@
         <v>19</v>
       </c>
       <c r="H634" s="3">
-        <v>20498</v>
+        <v>20418</v>
       </c>
     </row>
     <row r="635" spans="3:7">
       <c r="C635" s="6">
-        <v>13305</v>
+        <v>13605</v>
       </c>
       <c r="D635" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E635" s="5">
         <v>3</v>
@@ -12096,10 +12090,10 @@
     </row>
     <row r="636" spans="3:7">
       <c r="C636" s="6">
-        <v>13306</v>
+        <v>13606</v>
       </c>
       <c r="D636" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E636" s="5">
         <v>10</v>
@@ -12113,10 +12107,10 @@
     </row>
     <row r="637" spans="3:7">
       <c r="C637" s="6">
-        <v>13307</v>
+        <v>13607</v>
       </c>
       <c r="D637" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E637" s="5">
         <v>10</v>
@@ -12130,10 +12124,10 @@
     </row>
     <row r="638" spans="3:7">
       <c r="C638" s="6">
-        <v>13308</v>
+        <v>13608</v>
       </c>
       <c r="D638" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E638" s="5">
         <v>10</v>
@@ -12147,10 +12141,10 @@
     </row>
     <row r="639" spans="3:7">
       <c r="C639" s="6">
-        <v>13309</v>
+        <v>13609</v>
       </c>
       <c r="D639" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E639" s="5">
         <v>10</v>
@@ -12164,10 +12158,10 @@
     </row>
     <row r="640" spans="3:7">
       <c r="C640" s="6">
-        <v>13310</v>
+        <v>13610</v>
       </c>
       <c r="D640" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E640" s="5">
         <v>10</v>
@@ -12181,10 +12175,10 @@
     </row>
     <row r="641" spans="3:7">
       <c r="C641" s="6">
-        <v>13311</v>
+        <v>13611</v>
       </c>
       <c r="D641" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E641" s="5">
         <v>9</v>
@@ -12198,10 +12192,10 @@
     </row>
     <row r="642" spans="3:7">
       <c r="C642" s="6">
-        <v>13312</v>
+        <v>13612</v>
       </c>
       <c r="D642" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E642" s="5">
         <v>10</v>
@@ -12215,10 +12209,10 @@
     </row>
     <row r="643" spans="3:7">
       <c r="C643" s="6">
-        <v>13313</v>
+        <v>13613</v>
       </c>
       <c r="D643" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E643" s="5">
         <v>9</v>
@@ -12232,10 +12226,10 @@
     </row>
     <row r="644" spans="3:7">
       <c r="C644" s="6">
-        <v>13314</v>
+        <v>13614</v>
       </c>
       <c r="D644" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E644" s="5">
         <v>9</v>
@@ -12249,10 +12243,10 @@
     </row>
     <row r="645" spans="3:7">
       <c r="C645" s="6">
-        <v>13315</v>
+        <v>13615</v>
       </c>
       <c r="D645" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E645" s="5">
         <v>9</v>
@@ -12266,10 +12260,10 @@
     </row>
     <row r="646" spans="3:7">
       <c r="C646" s="6">
-        <v>13316</v>
+        <v>13616</v>
       </c>
       <c r="D646" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E646" s="5">
         <v>2</v>
@@ -12283,10 +12277,10 @@
     </row>
     <row r="647" spans="3:7">
       <c r="C647" s="6">
-        <v>13317</v>
+        <v>13617</v>
       </c>
       <c r="D647" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E647" s="3">
         <v>9</v>
@@ -12300,10 +12294,10 @@
     </row>
     <row r="648" spans="3:7">
       <c r="C648" s="6">
-        <v>13318</v>
+        <v>13618</v>
       </c>
       <c r="D648" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E648" s="5">
         <v>9</v>
@@ -12317,10 +12311,10 @@
     </row>
     <row r="649" spans="3:7">
       <c r="C649" s="6">
-        <v>13319</v>
+        <v>13619</v>
       </c>
       <c r="D649" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E649" s="5">
         <v>10</v>
@@ -12334,10 +12328,10 @@
     </row>
     <row r="650" spans="3:7">
       <c r="C650" s="6">
-        <v>13320</v>
+        <v>13620</v>
       </c>
       <c r="D650" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E650" s="5">
         <v>9</v>
@@ -12351,10 +12345,10 @@
     </row>
     <row r="651" spans="3:7">
       <c r="C651" s="6">
-        <v>13321</v>
+        <v>13621</v>
       </c>
       <c r="D651" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E651" s="5">
         <v>5</v>
@@ -12368,10 +12362,10 @@
     </row>
     <row r="652" spans="3:7">
       <c r="C652" s="6">
-        <v>13322</v>
+        <v>13622</v>
       </c>
       <c r="D652" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E652" s="5">
         <v>6</v>
@@ -12385,10 +12379,10 @@
     </row>
     <row r="653" spans="3:7">
       <c r="C653" s="6">
-        <v>13323</v>
+        <v>13623</v>
       </c>
       <c r="D653" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E653" s="5">
         <v>7</v>
@@ -12402,10 +12396,10 @@
     </row>
     <row r="654" spans="3:7">
       <c r="C654" s="6">
-        <v>13324</v>
+        <v>13624</v>
       </c>
       <c r="D654" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E654" s="5">
         <v>8</v>
@@ -12419,10 +12413,10 @@
     </row>
     <row r="655" spans="3:7">
       <c r="C655" s="6">
-        <v>13325</v>
+        <v>13625</v>
       </c>
       <c r="D655" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E655" s="5">
         <v>9</v>
@@ -12431,890 +12425,6 @@
         <v>42</v>
       </c>
       <c r="G655" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="657" spans="1:8">
-      <c r="A657" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C657" s="6">
-        <v>13401</v>
-      </c>
-      <c r="D657" s="3">
-        <v>134</v>
-      </c>
-      <c r="E657" s="5">
-        <v>1</v>
-      </c>
-      <c r="F657" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G657" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H657" s="3">
-        <v>20565</v>
-      </c>
-    </row>
-    <row r="658" spans="1:8">
-      <c r="A658" s="1"/>
-      <c r="B658" s="1"/>
-      <c r="C658" s="6">
-        <v>13402</v>
-      </c>
-      <c r="D658" s="3">
-        <v>134</v>
-      </c>
-      <c r="E658" s="5">
-        <v>1</v>
-      </c>
-      <c r="F658" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G658" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H658" s="3">
-        <v>20566</v>
-      </c>
-    </row>
-    <row r="659" spans="3:8">
-      <c r="C659" s="6">
-        <v>13403</v>
-      </c>
-      <c r="D659" s="3">
-        <v>134</v>
-      </c>
-      <c r="E659" s="5">
-        <v>1</v>
-      </c>
-      <c r="F659" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G659" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H659" s="3">
-        <v>20567</v>
-      </c>
-    </row>
-    <row r="660" spans="3:8">
-      <c r="C660" s="6">
-        <v>13404</v>
-      </c>
-      <c r="D660" s="3">
-        <v>134</v>
-      </c>
-      <c r="E660" s="3">
-        <v>1</v>
-      </c>
-      <c r="F660" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G660" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H660" s="3">
-        <v>20568</v>
-      </c>
-    </row>
-    <row r="661" spans="3:7">
-      <c r="C661" s="6">
-        <v>13405</v>
-      </c>
-      <c r="D661" s="3">
-        <v>134</v>
-      </c>
-      <c r="E661" s="5">
-        <v>3</v>
-      </c>
-      <c r="F661" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G661" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="662" spans="3:7">
-      <c r="C662" s="6">
-        <v>13406</v>
-      </c>
-      <c r="D662" s="3">
-        <v>134</v>
-      </c>
-      <c r="E662" s="5">
-        <v>10</v>
-      </c>
-      <c r="F662" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G662" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="663" spans="3:7">
-      <c r="C663" s="6">
-        <v>13407</v>
-      </c>
-      <c r="D663" s="3">
-        <v>134</v>
-      </c>
-      <c r="E663" s="5">
-        <v>10</v>
-      </c>
-      <c r="F663" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G663" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="664" spans="3:7">
-      <c r="C664" s="6">
-        <v>13408</v>
-      </c>
-      <c r="D664" s="3">
-        <v>134</v>
-      </c>
-      <c r="E664" s="5">
-        <v>10</v>
-      </c>
-      <c r="F664" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G664" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="665" spans="3:7">
-      <c r="C665" s="6">
-        <v>13409</v>
-      </c>
-      <c r="D665" s="3">
-        <v>134</v>
-      </c>
-      <c r="E665" s="5">
-        <v>10</v>
-      </c>
-      <c r="F665" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G665" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="666" spans="3:7">
-      <c r="C666" s="6">
-        <v>13410</v>
-      </c>
-      <c r="D666" s="3">
-        <v>134</v>
-      </c>
-      <c r="E666" s="5">
-        <v>10</v>
-      </c>
-      <c r="F666" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G666" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="667" spans="3:7">
-      <c r="C667" s="6">
-        <v>13411</v>
-      </c>
-      <c r="D667" s="3">
-        <v>134</v>
-      </c>
-      <c r="E667" s="5">
-        <v>9</v>
-      </c>
-      <c r="F667" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G667" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="668" spans="3:7">
-      <c r="C668" s="6">
-        <v>13412</v>
-      </c>
-      <c r="D668" s="3">
-        <v>134</v>
-      </c>
-      <c r="E668" s="5">
-        <v>10</v>
-      </c>
-      <c r="F668" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G668" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="669" spans="3:7">
-      <c r="C669" s="6">
-        <v>13413</v>
-      </c>
-      <c r="D669" s="3">
-        <v>134</v>
-      </c>
-      <c r="E669" s="5">
-        <v>9</v>
-      </c>
-      <c r="F669" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G669" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="670" spans="3:7">
-      <c r="C670" s="6">
-        <v>13414</v>
-      </c>
-      <c r="D670" s="3">
-        <v>134</v>
-      </c>
-      <c r="E670" s="5">
-        <v>9</v>
-      </c>
-      <c r="F670" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G670" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="671" spans="3:7">
-      <c r="C671" s="6">
-        <v>13415</v>
-      </c>
-      <c r="D671" s="3">
-        <v>134</v>
-      </c>
-      <c r="E671" s="5">
-        <v>9</v>
-      </c>
-      <c r="F671" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G671" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="672" spans="3:7">
-      <c r="C672" s="6">
-        <v>13416</v>
-      </c>
-      <c r="D672" s="3">
-        <v>134</v>
-      </c>
-      <c r="E672" s="5">
-        <v>2</v>
-      </c>
-      <c r="F672" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G672" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="673" spans="3:7">
-      <c r="C673" s="6">
-        <v>13417</v>
-      </c>
-      <c r="D673" s="3">
-        <v>134</v>
-      </c>
-      <c r="E673" s="3">
-        <v>9</v>
-      </c>
-      <c r="F673" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G673" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="674" spans="3:7">
-      <c r="C674" s="6">
-        <v>13418</v>
-      </c>
-      <c r="D674" s="3">
-        <v>134</v>
-      </c>
-      <c r="E674" s="5">
-        <v>9</v>
-      </c>
-      <c r="F674" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G674" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="675" spans="3:7">
-      <c r="C675" s="6">
-        <v>13419</v>
-      </c>
-      <c r="D675" s="3">
-        <v>134</v>
-      </c>
-      <c r="E675" s="5">
-        <v>10</v>
-      </c>
-      <c r="F675" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G675" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="676" spans="3:7">
-      <c r="C676" s="6">
-        <v>13420</v>
-      </c>
-      <c r="D676" s="3">
-        <v>134</v>
-      </c>
-      <c r="E676" s="5">
-        <v>9</v>
-      </c>
-      <c r="F676" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G676" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="677" spans="3:7">
-      <c r="C677" s="6">
-        <v>13421</v>
-      </c>
-      <c r="D677" s="3">
-        <v>134</v>
-      </c>
-      <c r="E677" s="5">
-        <v>5</v>
-      </c>
-      <c r="F677" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G677" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="678" spans="3:7">
-      <c r="C678" s="6">
-        <v>13422</v>
-      </c>
-      <c r="D678" s="3">
-        <v>134</v>
-      </c>
-      <c r="E678" s="5">
-        <v>6</v>
-      </c>
-      <c r="F678" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G678" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="679" spans="3:7">
-      <c r="C679" s="6">
-        <v>13423</v>
-      </c>
-      <c r="D679" s="3">
-        <v>134</v>
-      </c>
-      <c r="E679" s="5">
-        <v>7</v>
-      </c>
-      <c r="F679" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G679" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="680" spans="3:7">
-      <c r="C680" s="6">
-        <v>13424</v>
-      </c>
-      <c r="D680" s="3">
-        <v>134</v>
-      </c>
-      <c r="E680" s="5">
-        <v>8</v>
-      </c>
-      <c r="F680" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G680" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="681" spans="3:7">
-      <c r="C681" s="6">
-        <v>13425</v>
-      </c>
-      <c r="D681" s="3">
-        <v>134</v>
-      </c>
-      <c r="E681" s="5">
-        <v>9</v>
-      </c>
-      <c r="F681" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G681" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="683" spans="1:8">
-      <c r="A683" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C683" s="6">
-        <v>13501</v>
-      </c>
-      <c r="D683" s="3">
-        <v>135</v>
-      </c>
-      <c r="E683" s="5">
-        <v>1</v>
-      </c>
-      <c r="F683" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G683" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H683" s="3">
-        <v>20405</v>
-      </c>
-    </row>
-    <row r="684" spans="1:8">
-      <c r="A684" s="1"/>
-      <c r="B684" s="1"/>
-      <c r="C684" s="6">
-        <v>13502</v>
-      </c>
-      <c r="D684" s="3">
-        <v>135</v>
-      </c>
-      <c r="E684" s="5">
-        <v>1</v>
-      </c>
-      <c r="F684" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G684" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H684" s="3">
-        <v>20406</v>
-      </c>
-    </row>
-    <row r="685" spans="3:8">
-      <c r="C685" s="6">
-        <v>13503</v>
-      </c>
-      <c r="D685" s="3">
-        <v>135</v>
-      </c>
-      <c r="E685" s="5">
-        <v>1</v>
-      </c>
-      <c r="F685" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G685" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H685" s="3">
-        <v>20407</v>
-      </c>
-    </row>
-    <row r="686" spans="3:8">
-      <c r="C686" s="6">
-        <v>13504</v>
-      </c>
-      <c r="D686" s="3">
-        <v>135</v>
-      </c>
-      <c r="E686" s="3">
-        <v>1</v>
-      </c>
-      <c r="F686" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G686" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H686" s="3">
-        <v>20408</v>
-      </c>
-    </row>
-    <row r="687" spans="3:7">
-      <c r="C687" s="6">
-        <v>13505</v>
-      </c>
-      <c r="D687" s="3">
-        <v>135</v>
-      </c>
-      <c r="E687" s="5">
-        <v>3</v>
-      </c>
-      <c r="F687" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G687" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="688" spans="3:7">
-      <c r="C688" s="6">
-        <v>13506</v>
-      </c>
-      <c r="D688" s="3">
-        <v>135</v>
-      </c>
-      <c r="E688" s="5">
-        <v>10</v>
-      </c>
-      <c r="F688" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G688" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="689" spans="3:7">
-      <c r="C689" s="6">
-        <v>13507</v>
-      </c>
-      <c r="D689" s="3">
-        <v>135</v>
-      </c>
-      <c r="E689" s="5">
-        <v>10</v>
-      </c>
-      <c r="F689" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G689" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="690" spans="3:7">
-      <c r="C690" s="6">
-        <v>13508</v>
-      </c>
-      <c r="D690" s="3">
-        <v>135</v>
-      </c>
-      <c r="E690" s="5">
-        <v>10</v>
-      </c>
-      <c r="F690" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G690" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="691" spans="3:7">
-      <c r="C691" s="6">
-        <v>13509</v>
-      </c>
-      <c r="D691" s="3">
-        <v>135</v>
-      </c>
-      <c r="E691" s="5">
-        <v>10</v>
-      </c>
-      <c r="F691" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G691" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="692" spans="3:7">
-      <c r="C692" s="6">
-        <v>13510</v>
-      </c>
-      <c r="D692" s="3">
-        <v>135</v>
-      </c>
-      <c r="E692" s="5">
-        <v>10</v>
-      </c>
-      <c r="F692" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G692" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="693" spans="3:7">
-      <c r="C693" s="6">
-        <v>13511</v>
-      </c>
-      <c r="D693" s="3">
-        <v>135</v>
-      </c>
-      <c r="E693" s="5">
-        <v>9</v>
-      </c>
-      <c r="F693" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G693" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="694" spans="3:7">
-      <c r="C694" s="6">
-        <v>13512</v>
-      </c>
-      <c r="D694" s="3">
-        <v>135</v>
-      </c>
-      <c r="E694" s="5">
-        <v>10</v>
-      </c>
-      <c r="F694" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G694" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="695" spans="3:7">
-      <c r="C695" s="6">
-        <v>13513</v>
-      </c>
-      <c r="D695" s="3">
-        <v>135</v>
-      </c>
-      <c r="E695" s="5">
-        <v>9</v>
-      </c>
-      <c r="F695" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G695" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="696" spans="3:7">
-      <c r="C696" s="6">
-        <v>13514</v>
-      </c>
-      <c r="D696" s="3">
-        <v>135</v>
-      </c>
-      <c r="E696" s="5">
-        <v>9</v>
-      </c>
-      <c r="F696" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G696" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="697" spans="3:7">
-      <c r="C697" s="6">
-        <v>13515</v>
-      </c>
-      <c r="D697" s="3">
-        <v>135</v>
-      </c>
-      <c r="E697" s="5">
-        <v>9</v>
-      </c>
-      <c r="F697" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G697" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="698" spans="3:7">
-      <c r="C698" s="6">
-        <v>13516</v>
-      </c>
-      <c r="D698" s="3">
-        <v>135</v>
-      </c>
-      <c r="E698" s="5">
-        <v>2</v>
-      </c>
-      <c r="F698" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G698" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="699" spans="3:7">
-      <c r="C699" s="6">
-        <v>13517</v>
-      </c>
-      <c r="D699" s="3">
-        <v>135</v>
-      </c>
-      <c r="E699" s="3">
-        <v>9</v>
-      </c>
-      <c r="F699" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G699" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="700" spans="3:7">
-      <c r="C700" s="6">
-        <v>13518</v>
-      </c>
-      <c r="D700" s="3">
-        <v>135</v>
-      </c>
-      <c r="E700" s="5">
-        <v>9</v>
-      </c>
-      <c r="F700" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G700" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="701" spans="3:7">
-      <c r="C701" s="6">
-        <v>13519</v>
-      </c>
-      <c r="D701" s="3">
-        <v>135</v>
-      </c>
-      <c r="E701" s="5">
-        <v>10</v>
-      </c>
-      <c r="F701" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G701" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="702" spans="3:7">
-      <c r="C702" s="6">
-        <v>13520</v>
-      </c>
-      <c r="D702" s="3">
-        <v>135</v>
-      </c>
-      <c r="E702" s="5">
-        <v>9</v>
-      </c>
-      <c r="F702" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G702" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="703" spans="3:7">
-      <c r="C703" s="6">
-        <v>13521</v>
-      </c>
-      <c r="D703" s="3">
-        <v>135</v>
-      </c>
-      <c r="E703" s="5">
-        <v>5</v>
-      </c>
-      <c r="F703" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G703" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="704" spans="3:7">
-      <c r="C704" s="6">
-        <v>13522</v>
-      </c>
-      <c r="D704" s="3">
-        <v>135</v>
-      </c>
-      <c r="E704" s="5">
-        <v>6</v>
-      </c>
-      <c r="F704" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G704" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="705" spans="3:7">
-      <c r="C705" s="6">
-        <v>13523</v>
-      </c>
-      <c r="D705" s="3">
-        <v>135</v>
-      </c>
-      <c r="E705" s="5">
-        <v>7</v>
-      </c>
-      <c r="F705" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G705" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="706" spans="3:7">
-      <c r="C706" s="6">
-        <v>13524</v>
-      </c>
-      <c r="D706" s="3">
-        <v>135</v>
-      </c>
-      <c r="E706" s="5">
-        <v>8</v>
-      </c>
-      <c r="F706" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G706" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="707" spans="3:7">
-      <c r="C707" s="6">
-        <v>13525</v>
-      </c>
-      <c r="D707" s="3">
-        <v>135</v>
-      </c>
-      <c r="E707" s="5">
-        <v>9</v>
-      </c>
-      <c r="F707" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G707" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13440,10 +12550,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -13458,10 +12568,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -13476,10 +12586,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -13494,10 +12604,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H9" s="5">
         <v>20304</v>
@@ -13514,10 +12624,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -13617,10 +12727,10 @@
         <v>203</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="75">
   <si>
     <t>Id</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>#先锋136烽火狼烟</t>
+  </si>
+  <si>
+    <t>#先锋137千山万水</t>
   </si>
   <si>
     <t>Center</t>
@@ -1257,10 +1260,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O655"/>
+  <dimension ref="A3:O681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
-      <selection activeCell="J558" sqref="J558"/>
+    <sheetView tabSelected="1" topLeftCell="A648" workbookViewId="0">
+      <selection activeCell="H665" sqref="H665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12425,6 +12428,448 @@
         <v>42</v>
       </c>
       <c r="G655" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8">
+      <c r="A657" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C657" s="6">
+        <v>13701</v>
+      </c>
+      <c r="D657" s="3">
+        <v>137</v>
+      </c>
+      <c r="E657" s="5">
+        <v>1</v>
+      </c>
+      <c r="F657" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G657" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H657" s="3">
+        <v>20445</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8">
+      <c r="A658" s="1"/>
+      <c r="B658" s="1"/>
+      <c r="C658" s="6">
+        <v>13702</v>
+      </c>
+      <c r="D658" s="3">
+        <v>137</v>
+      </c>
+      <c r="E658" s="5">
+        <v>1</v>
+      </c>
+      <c r="F658" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G658" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H658" s="3">
+        <v>20446</v>
+      </c>
+    </row>
+    <row r="659" spans="3:8">
+      <c r="C659" s="6">
+        <v>13703</v>
+      </c>
+      <c r="D659" s="3">
+        <v>137</v>
+      </c>
+      <c r="E659" s="5">
+        <v>1</v>
+      </c>
+      <c r="F659" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G659" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H659" s="3">
+        <v>20447</v>
+      </c>
+    </row>
+    <row r="660" spans="3:8">
+      <c r="C660" s="6">
+        <v>13704</v>
+      </c>
+      <c r="D660" s="3">
+        <v>137</v>
+      </c>
+      <c r="E660" s="3">
+        <v>1</v>
+      </c>
+      <c r="F660" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G660" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H660" s="3">
+        <v>20448</v>
+      </c>
+    </row>
+    <row r="661" spans="3:7">
+      <c r="C661" s="6">
+        <v>13705</v>
+      </c>
+      <c r="D661" s="3">
+        <v>137</v>
+      </c>
+      <c r="E661" s="5">
+        <v>3</v>
+      </c>
+      <c r="F661" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G661" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="662" spans="3:7">
+      <c r="C662" s="6">
+        <v>13706</v>
+      </c>
+      <c r="D662" s="3">
+        <v>137</v>
+      </c>
+      <c r="E662" s="5">
+        <v>10</v>
+      </c>
+      <c r="F662" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G662" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="663" spans="3:7">
+      <c r="C663" s="6">
+        <v>13707</v>
+      </c>
+      <c r="D663" s="3">
+        <v>137</v>
+      </c>
+      <c r="E663" s="5">
+        <v>10</v>
+      </c>
+      <c r="F663" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G663" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="664" spans="3:7">
+      <c r="C664" s="6">
+        <v>13708</v>
+      </c>
+      <c r="D664" s="3">
+        <v>137</v>
+      </c>
+      <c r="E664" s="5">
+        <v>10</v>
+      </c>
+      <c r="F664" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G664" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="665" spans="3:7">
+      <c r="C665" s="6">
+        <v>13709</v>
+      </c>
+      <c r="D665" s="3">
+        <v>137</v>
+      </c>
+      <c r="E665" s="5">
+        <v>10</v>
+      </c>
+      <c r="F665" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G665" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="666" spans="3:7">
+      <c r="C666" s="6">
+        <v>13710</v>
+      </c>
+      <c r="D666" s="3">
+        <v>137</v>
+      </c>
+      <c r="E666" s="5">
+        <v>10</v>
+      </c>
+      <c r="F666" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G666" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="667" spans="3:7">
+      <c r="C667" s="6">
+        <v>13711</v>
+      </c>
+      <c r="D667" s="3">
+        <v>137</v>
+      </c>
+      <c r="E667" s="5">
+        <v>9</v>
+      </c>
+      <c r="F667" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G667" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="668" spans="3:7">
+      <c r="C668" s="6">
+        <v>13712</v>
+      </c>
+      <c r="D668" s="3">
+        <v>137</v>
+      </c>
+      <c r="E668" s="5">
+        <v>10</v>
+      </c>
+      <c r="F668" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G668" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="669" spans="3:7">
+      <c r="C669" s="6">
+        <v>13713</v>
+      </c>
+      <c r="D669" s="3">
+        <v>137</v>
+      </c>
+      <c r="E669" s="5">
+        <v>9</v>
+      </c>
+      <c r="F669" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G669" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="670" spans="3:7">
+      <c r="C670" s="6">
+        <v>13714</v>
+      </c>
+      <c r="D670" s="3">
+        <v>137</v>
+      </c>
+      <c r="E670" s="5">
+        <v>9</v>
+      </c>
+      <c r="F670" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G670" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="671" spans="3:7">
+      <c r="C671" s="6">
+        <v>13715</v>
+      </c>
+      <c r="D671" s="3">
+        <v>137</v>
+      </c>
+      <c r="E671" s="5">
+        <v>9</v>
+      </c>
+      <c r="F671" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G671" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="672" spans="3:7">
+      <c r="C672" s="6">
+        <v>13716</v>
+      </c>
+      <c r="D672" s="3">
+        <v>137</v>
+      </c>
+      <c r="E672" s="5">
+        <v>2</v>
+      </c>
+      <c r="F672" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G672" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="673" spans="3:7">
+      <c r="C673" s="6">
+        <v>13717</v>
+      </c>
+      <c r="D673" s="3">
+        <v>137</v>
+      </c>
+      <c r="E673" s="3">
+        <v>9</v>
+      </c>
+      <c r="F673" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G673" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="674" spans="3:7">
+      <c r="C674" s="6">
+        <v>13718</v>
+      </c>
+      <c r="D674" s="3">
+        <v>137</v>
+      </c>
+      <c r="E674" s="5">
+        <v>9</v>
+      </c>
+      <c r="F674" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G674" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="675" spans="3:7">
+      <c r="C675" s="6">
+        <v>13719</v>
+      </c>
+      <c r="D675" s="3">
+        <v>137</v>
+      </c>
+      <c r="E675" s="5">
+        <v>10</v>
+      </c>
+      <c r="F675" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G675" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="676" spans="3:7">
+      <c r="C676" s="6">
+        <v>13720</v>
+      </c>
+      <c r="D676" s="3">
+        <v>137</v>
+      </c>
+      <c r="E676" s="5">
+        <v>9</v>
+      </c>
+      <c r="F676" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G676" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="677" spans="3:7">
+      <c r="C677" s="6">
+        <v>13721</v>
+      </c>
+      <c r="D677" s="3">
+        <v>137</v>
+      </c>
+      <c r="E677" s="5">
+        <v>5</v>
+      </c>
+      <c r="F677" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G677" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="678" spans="3:7">
+      <c r="C678" s="6">
+        <v>13722</v>
+      </c>
+      <c r="D678" s="3">
+        <v>137</v>
+      </c>
+      <c r="E678" s="5">
+        <v>6</v>
+      </c>
+      <c r="F678" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G678" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="679" spans="3:7">
+      <c r="C679" s="6">
+        <v>13723</v>
+      </c>
+      <c r="D679" s="3">
+        <v>137</v>
+      </c>
+      <c r="E679" s="5">
+        <v>7</v>
+      </c>
+      <c r="F679" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G679" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="680" spans="3:7">
+      <c r="C680" s="6">
+        <v>13724</v>
+      </c>
+      <c r="D680" s="3">
+        <v>137</v>
+      </c>
+      <c r="E680" s="5">
+        <v>8</v>
+      </c>
+      <c r="F680" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G680" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="681" spans="3:7">
+      <c r="C681" s="6">
+        <v>13725</v>
+      </c>
+      <c r="D681" s="3">
+        <v>137</v>
+      </c>
+      <c r="E681" s="5">
+        <v>9</v>
+      </c>
+      <c r="F681" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G681" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -12550,10 +12995,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -12568,10 +13013,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -12586,10 +13031,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -12604,10 +13049,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" s="5">
         <v>20304</v>
@@ -12624,10 +13069,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -12727,10 +13172,10 @@
         <v>203</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="73">
   <si>
     <t>Id</t>
   </si>
@@ -199,13 +199,7 @@
     <t>#先锋113区纵横驰骋</t>
   </si>
   <si>
-    <t>#先锋117区朝花夕拾</t>
-  </si>
-  <si>
     <t>#先锋121区太平盛世</t>
-  </si>
-  <si>
-    <t>#先锋123区春花秋月</t>
   </si>
   <si>
     <t>#先锋125断桥残雪</t>
@@ -223,9 +217,6 @@
     <t>#先锋133奇迹之光</t>
   </si>
   <si>
-    <t>#先锋134风暴之怒</t>
-  </si>
-  <si>
     <t>#先锋135永恒之境</t>
   </si>
   <si>
@@ -233,6 +224,9 @@
   </si>
   <si>
     <t>#先锋137千山万水</t>
+  </si>
+  <si>
+    <t>#先锋138区凤凰于飞</t>
   </si>
   <si>
     <t>Center</t>
@@ -1260,10 +1254,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O681"/>
+  <dimension ref="A3:O629"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A648" workbookViewId="0">
-      <selection activeCell="H665" sqref="H665"/>
+    <sheetView tabSelected="1" topLeftCell="A596" workbookViewId="0">
+      <selection activeCell="H609" sqref="H609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7574,10 +7568,10 @@
         <v>56</v>
       </c>
       <c r="C371" s="6">
-        <v>11701</v>
+        <v>12101</v>
       </c>
       <c r="D371" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E371" s="5">
         <v>1</v>
@@ -7589,17 +7583,17 @@
         <v>15</v>
       </c>
       <c r="H371" s="3">
-        <v>20575</v>
+        <v>20465</v>
       </c>
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="6">
-        <v>11702</v>
+        <v>12102</v>
       </c>
       <c r="D372" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E372" s="5">
         <v>1</v>
@@ -7611,15 +7605,15 @@
         <v>16</v>
       </c>
       <c r="H372" s="3">
-        <v>20576</v>
+        <v>20466</v>
       </c>
     </row>
     <row r="373" spans="3:8">
       <c r="C373" s="6">
-        <v>11703</v>
+        <v>12103</v>
       </c>
       <c r="D373" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E373" s="5">
         <v>1</v>
@@ -7631,15 +7625,15 @@
         <v>18</v>
       </c>
       <c r="H373" s="3">
-        <v>20577</v>
+        <v>20467</v>
       </c>
     </row>
     <row r="374" spans="3:8">
       <c r="C374" s="6">
-        <v>11704</v>
+        <v>12104</v>
       </c>
       <c r="D374" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E374" s="3">
         <v>1</v>
@@ -7651,15 +7645,15 @@
         <v>19</v>
       </c>
       <c r="H374" s="3">
-        <v>20578</v>
+        <v>20468</v>
       </c>
     </row>
     <row r="375" spans="3:7">
       <c r="C375" s="6">
-        <v>11705</v>
+        <v>12105</v>
       </c>
       <c r="D375" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E375" s="5">
         <v>3</v>
@@ -7673,10 +7667,10 @@
     </row>
     <row r="376" spans="3:7">
       <c r="C376" s="6">
-        <v>11706</v>
+        <v>12106</v>
       </c>
       <c r="D376" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E376" s="5">
         <v>10</v>
@@ -7690,10 +7684,10 @@
     </row>
     <row r="377" spans="3:7">
       <c r="C377" s="6">
-        <v>11707</v>
+        <v>12107</v>
       </c>
       <c r="D377" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E377" s="5">
         <v>10</v>
@@ -7707,10 +7701,10 @@
     </row>
     <row r="378" spans="3:7">
       <c r="C378" s="6">
-        <v>11708</v>
+        <v>12108</v>
       </c>
       <c r="D378" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E378" s="5">
         <v>10</v>
@@ -7724,10 +7718,10 @@
     </row>
     <row r="379" spans="3:7">
       <c r="C379" s="6">
-        <v>11709</v>
+        <v>12109</v>
       </c>
       <c r="D379" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E379" s="5">
         <v>10</v>
@@ -7741,10 +7735,10 @@
     </row>
     <row r="380" spans="3:7">
       <c r="C380" s="6">
-        <v>11710</v>
+        <v>12110</v>
       </c>
       <c r="D380" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E380" s="5">
         <v>10</v>
@@ -7758,10 +7752,10 @@
     </row>
     <row r="381" spans="3:7">
       <c r="C381" s="6">
-        <v>11711</v>
+        <v>12111</v>
       </c>
       <c r="D381" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E381" s="5">
         <v>9</v>
@@ -7775,10 +7769,10 @@
     </row>
     <row r="382" spans="3:7">
       <c r="C382" s="6">
-        <v>11712</v>
+        <v>12112</v>
       </c>
       <c r="D382" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E382" s="5">
         <v>10</v>
@@ -7792,10 +7786,10 @@
     </row>
     <row r="383" spans="3:7">
       <c r="C383" s="6">
-        <v>11713</v>
+        <v>12113</v>
       </c>
       <c r="D383" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E383" s="5">
         <v>9</v>
@@ -7809,10 +7803,10 @@
     </row>
     <row r="384" spans="3:7">
       <c r="C384" s="6">
-        <v>11714</v>
+        <v>12114</v>
       </c>
       <c r="D384" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E384" s="5">
         <v>9</v>
@@ -7826,10 +7820,10 @@
     </row>
     <row r="385" spans="3:7">
       <c r="C385" s="6">
-        <v>11715</v>
+        <v>12115</v>
       </c>
       <c r="D385" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E385" s="5">
         <v>9</v>
@@ -7843,10 +7837,10 @@
     </row>
     <row r="386" spans="3:7">
       <c r="C386" s="6">
-        <v>11716</v>
+        <v>12116</v>
       </c>
       <c r="D386" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E386" s="5">
         <v>2</v>
@@ -7860,10 +7854,10 @@
     </row>
     <row r="387" spans="3:7">
       <c r="C387" s="6">
-        <v>11717</v>
+        <v>12117</v>
       </c>
       <c r="D387" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E387" s="3">
         <v>9</v>
@@ -7877,10 +7871,10 @@
     </row>
     <row r="388" spans="3:7">
       <c r="C388" s="6">
-        <v>11718</v>
+        <v>12118</v>
       </c>
       <c r="D388" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E388" s="5">
         <v>9</v>
@@ -7894,10 +7888,10 @@
     </row>
     <row r="389" spans="3:7">
       <c r="C389" s="6">
-        <v>11719</v>
+        <v>12119</v>
       </c>
       <c r="D389" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E389" s="5">
         <v>10</v>
@@ -7911,10 +7905,10 @@
     </row>
     <row r="390" spans="3:7">
       <c r="C390" s="6">
-        <v>11720</v>
+        <v>12120</v>
       </c>
       <c r="D390" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E390" s="5">
         <v>9</v>
@@ -7928,10 +7922,10 @@
     </row>
     <row r="391" spans="3:7">
       <c r="C391" s="6">
-        <v>11721</v>
+        <v>12121</v>
       </c>
       <c r="D391" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E391" s="5">
         <v>5</v>
@@ -7945,10 +7939,10 @@
     </row>
     <row r="392" spans="3:7">
       <c r="C392" s="6">
-        <v>11722</v>
+        <v>12122</v>
       </c>
       <c r="D392" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E392" s="5">
         <v>6</v>
@@ -7962,10 +7956,10 @@
     </row>
     <row r="393" spans="3:7">
       <c r="C393" s="6">
-        <v>11723</v>
+        <v>12123</v>
       </c>
       <c r="D393" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E393" s="5">
         <v>7</v>
@@ -7979,10 +7973,10 @@
     </row>
     <row r="394" spans="3:7">
       <c r="C394" s="6">
-        <v>11724</v>
+        <v>12124</v>
       </c>
       <c r="D394" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E394" s="5">
         <v>8</v>
@@ -7996,10 +7990,10 @@
     </row>
     <row r="395" spans="3:7">
       <c r="C395" s="6">
-        <v>11725</v>
+        <v>12125</v>
       </c>
       <c r="D395" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E395" s="5">
         <v>9</v>
@@ -8016,10 +8010,10 @@
         <v>57</v>
       </c>
       <c r="C397" s="6">
-        <v>12101</v>
+        <v>12501</v>
       </c>
       <c r="D397" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E397" s="5">
         <v>1</v>
@@ -8031,17 +8025,17 @@
         <v>15</v>
       </c>
       <c r="H397" s="3">
-        <v>20465</v>
+        <v>20605</v>
       </c>
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="6">
-        <v>12102</v>
+        <v>12502</v>
       </c>
       <c r="D398" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E398" s="5">
         <v>1</v>
@@ -8053,15 +8047,15 @@
         <v>16</v>
       </c>
       <c r="H398" s="3">
-        <v>20466</v>
+        <v>20606</v>
       </c>
     </row>
     <row r="399" spans="3:8">
       <c r="C399" s="6">
-        <v>12103</v>
+        <v>12503</v>
       </c>
       <c r="D399" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E399" s="5">
         <v>1</v>
@@ -8073,15 +8067,15 @@
         <v>18</v>
       </c>
       <c r="H399" s="3">
-        <v>20467</v>
+        <v>20607</v>
       </c>
     </row>
     <row r="400" spans="3:8">
       <c r="C400" s="6">
-        <v>12104</v>
+        <v>12504</v>
       </c>
       <c r="D400" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E400" s="3">
         <v>1</v>
@@ -8093,15 +8087,15 @@
         <v>19</v>
       </c>
       <c r="H400" s="3">
-        <v>20468</v>
+        <v>20608</v>
       </c>
     </row>
     <row r="401" spans="3:7">
       <c r="C401" s="6">
-        <v>12105</v>
+        <v>12505</v>
       </c>
       <c r="D401" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E401" s="5">
         <v>3</v>
@@ -8115,10 +8109,10 @@
     </row>
     <row r="402" spans="3:7">
       <c r="C402" s="6">
-        <v>12106</v>
+        <v>12506</v>
       </c>
       <c r="D402" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E402" s="5">
         <v>10</v>
@@ -8132,10 +8126,10 @@
     </row>
     <row r="403" spans="3:7">
       <c r="C403" s="6">
-        <v>12107</v>
+        <v>12507</v>
       </c>
       <c r="D403" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E403" s="5">
         <v>10</v>
@@ -8149,10 +8143,10 @@
     </row>
     <row r="404" spans="3:7">
       <c r="C404" s="6">
-        <v>12108</v>
+        <v>12508</v>
       </c>
       <c r="D404" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E404" s="5">
         <v>10</v>
@@ -8166,10 +8160,10 @@
     </row>
     <row r="405" spans="3:7">
       <c r="C405" s="6">
-        <v>12109</v>
+        <v>12509</v>
       </c>
       <c r="D405" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E405" s="5">
         <v>10</v>
@@ -8183,10 +8177,10 @@
     </row>
     <row r="406" spans="3:7">
       <c r="C406" s="6">
-        <v>12110</v>
+        <v>12510</v>
       </c>
       <c r="D406" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E406" s="5">
         <v>10</v>
@@ -8200,10 +8194,10 @@
     </row>
     <row r="407" spans="3:7">
       <c r="C407" s="6">
-        <v>12111</v>
+        <v>12511</v>
       </c>
       <c r="D407" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E407" s="5">
         <v>9</v>
@@ -8217,10 +8211,10 @@
     </row>
     <row r="408" spans="3:7">
       <c r="C408" s="6">
-        <v>12112</v>
+        <v>12512</v>
       </c>
       <c r="D408" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E408" s="5">
         <v>10</v>
@@ -8234,10 +8228,10 @@
     </row>
     <row r="409" spans="3:7">
       <c r="C409" s="6">
-        <v>12113</v>
+        <v>12513</v>
       </c>
       <c r="D409" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E409" s="5">
         <v>9</v>
@@ -8251,10 +8245,10 @@
     </row>
     <row r="410" spans="3:7">
       <c r="C410" s="6">
-        <v>12114</v>
+        <v>12514</v>
       </c>
       <c r="D410" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E410" s="5">
         <v>9</v>
@@ -8268,10 +8262,10 @@
     </row>
     <row r="411" spans="3:7">
       <c r="C411" s="6">
-        <v>12115</v>
+        <v>12515</v>
       </c>
       <c r="D411" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E411" s="5">
         <v>9</v>
@@ -8285,10 +8279,10 @@
     </row>
     <row r="412" spans="3:7">
       <c r="C412" s="6">
-        <v>12116</v>
+        <v>12516</v>
       </c>
       <c r="D412" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E412" s="5">
         <v>2</v>
@@ -8302,10 +8296,10 @@
     </row>
     <row r="413" spans="3:7">
       <c r="C413" s="6">
-        <v>12117</v>
+        <v>12517</v>
       </c>
       <c r="D413" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E413" s="3">
         <v>9</v>
@@ -8319,10 +8313,10 @@
     </row>
     <row r="414" spans="3:7">
       <c r="C414" s="6">
-        <v>12118</v>
+        <v>12518</v>
       </c>
       <c r="D414" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E414" s="5">
         <v>9</v>
@@ -8336,10 +8330,10 @@
     </row>
     <row r="415" spans="3:7">
       <c r="C415" s="6">
-        <v>12119</v>
+        <v>12519</v>
       </c>
       <c r="D415" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E415" s="5">
         <v>10</v>
@@ -8353,10 +8347,10 @@
     </row>
     <row r="416" spans="3:7">
       <c r="C416" s="6">
-        <v>12120</v>
+        <v>12520</v>
       </c>
       <c r="D416" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E416" s="5">
         <v>9</v>
@@ -8370,10 +8364,10 @@
     </row>
     <row r="417" spans="3:7">
       <c r="C417" s="6">
-        <v>12121</v>
+        <v>12521</v>
       </c>
       <c r="D417" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E417" s="5">
         <v>5</v>
@@ -8387,10 +8381,10 @@
     </row>
     <row r="418" spans="3:7">
       <c r="C418" s="6">
-        <v>12122</v>
+        <v>12522</v>
       </c>
       <c r="D418" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E418" s="5">
         <v>6</v>
@@ -8404,10 +8398,10 @@
     </row>
     <row r="419" spans="3:7">
       <c r="C419" s="6">
-        <v>12123</v>
+        <v>12523</v>
       </c>
       <c r="D419" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E419" s="5">
         <v>7</v>
@@ -8421,10 +8415,10 @@
     </row>
     <row r="420" spans="3:7">
       <c r="C420" s="6">
-        <v>12124</v>
+        <v>12524</v>
       </c>
       <c r="D420" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E420" s="5">
         <v>8</v>
@@ -8438,10 +8432,10 @@
     </row>
     <row r="421" spans="3:7">
       <c r="C421" s="6">
-        <v>12125</v>
+        <v>12525</v>
       </c>
       <c r="D421" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E421" s="5">
         <v>9</v>
@@ -8458,10 +8452,10 @@
         <v>58</v>
       </c>
       <c r="C423" s="6">
-        <v>12301</v>
+        <v>12701</v>
       </c>
       <c r="D423" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E423" s="5">
         <v>1</v>
@@ -8473,17 +8467,17 @@
         <v>15</v>
       </c>
       <c r="H423" s="3">
-        <v>20525</v>
+        <v>20375</v>
       </c>
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="6">
-        <v>12302</v>
+        <v>12702</v>
       </c>
       <c r="D424" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E424" s="5">
         <v>1</v>
@@ -8495,15 +8489,15 @@
         <v>16</v>
       </c>
       <c r="H424" s="3">
-        <v>20526</v>
+        <v>20376</v>
       </c>
     </row>
     <row r="425" spans="3:8">
       <c r="C425" s="6">
-        <v>12303</v>
+        <v>12703</v>
       </c>
       <c r="D425" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E425" s="5">
         <v>1</v>
@@ -8515,15 +8509,15 @@
         <v>18</v>
       </c>
       <c r="H425" s="3">
-        <v>20527</v>
+        <v>20377</v>
       </c>
     </row>
     <row r="426" spans="3:8">
       <c r="C426" s="6">
-        <v>12304</v>
+        <v>12704</v>
       </c>
       <c r="D426" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E426" s="3">
         <v>1</v>
@@ -8535,15 +8529,15 @@
         <v>19</v>
       </c>
       <c r="H426" s="3">
-        <v>20528</v>
+        <v>20378</v>
       </c>
     </row>
     <row r="427" spans="3:7">
       <c r="C427" s="6">
-        <v>12305</v>
+        <v>12705</v>
       </c>
       <c r="D427" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E427" s="5">
         <v>3</v>
@@ -8557,10 +8551,10 @@
     </row>
     <row r="428" spans="3:7">
       <c r="C428" s="6">
-        <v>12306</v>
+        <v>12706</v>
       </c>
       <c r="D428" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E428" s="5">
         <v>10</v>
@@ -8574,10 +8568,10 @@
     </row>
     <row r="429" spans="3:7">
       <c r="C429" s="6">
-        <v>12307</v>
+        <v>12707</v>
       </c>
       <c r="D429" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E429" s="5">
         <v>10</v>
@@ -8591,10 +8585,10 @@
     </row>
     <row r="430" spans="3:7">
       <c r="C430" s="6">
-        <v>12308</v>
+        <v>12708</v>
       </c>
       <c r="D430" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E430" s="5">
         <v>10</v>
@@ -8608,10 +8602,10 @@
     </row>
     <row r="431" spans="3:7">
       <c r="C431" s="6">
-        <v>12309</v>
+        <v>12709</v>
       </c>
       <c r="D431" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E431" s="5">
         <v>10</v>
@@ -8625,10 +8619,10 @@
     </row>
     <row r="432" spans="3:7">
       <c r="C432" s="6">
-        <v>12310</v>
+        <v>12710</v>
       </c>
       <c r="D432" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E432" s="5">
         <v>10</v>
@@ -8642,10 +8636,10 @@
     </row>
     <row r="433" spans="3:7">
       <c r="C433" s="6">
-        <v>12311</v>
+        <v>12711</v>
       </c>
       <c r="D433" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E433" s="5">
         <v>9</v>
@@ -8659,10 +8653,10 @@
     </row>
     <row r="434" spans="3:7">
       <c r="C434" s="6">
-        <v>12312</v>
+        <v>12712</v>
       </c>
       <c r="D434" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E434" s="5">
         <v>10</v>
@@ -8676,10 +8670,10 @@
     </row>
     <row r="435" spans="3:7">
       <c r="C435" s="6">
-        <v>12313</v>
+        <v>12713</v>
       </c>
       <c r="D435" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E435" s="5">
         <v>9</v>
@@ -8693,10 +8687,10 @@
     </row>
     <row r="436" spans="3:7">
       <c r="C436" s="6">
-        <v>12314</v>
+        <v>12714</v>
       </c>
       <c r="D436" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E436" s="5">
         <v>9</v>
@@ -8710,10 +8704,10 @@
     </row>
     <row r="437" spans="3:7">
       <c r="C437" s="6">
-        <v>12315</v>
+        <v>12715</v>
       </c>
       <c r="D437" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E437" s="5">
         <v>9</v>
@@ -8727,10 +8721,10 @@
     </row>
     <row r="438" spans="3:7">
       <c r="C438" s="6">
-        <v>12316</v>
+        <v>12716</v>
       </c>
       <c r="D438" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E438" s="5">
         <v>2</v>
@@ -8744,10 +8738,10 @@
     </row>
     <row r="439" spans="3:7">
       <c r="C439" s="6">
-        <v>12317</v>
+        <v>12717</v>
       </c>
       <c r="D439" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E439" s="3">
         <v>9</v>
@@ -8761,10 +8755,10 @@
     </row>
     <row r="440" spans="3:7">
       <c r="C440" s="6">
-        <v>12318</v>
+        <v>12718</v>
       </c>
       <c r="D440" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E440" s="5">
         <v>9</v>
@@ -8778,10 +8772,10 @@
     </row>
     <row r="441" spans="3:7">
       <c r="C441" s="6">
-        <v>12319</v>
+        <v>12719</v>
       </c>
       <c r="D441" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E441" s="5">
         <v>10</v>
@@ -8795,10 +8789,10 @@
     </row>
     <row r="442" spans="3:7">
       <c r="C442" s="6">
-        <v>12320</v>
+        <v>12720</v>
       </c>
       <c r="D442" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E442" s="5">
         <v>9</v>
@@ -8812,10 +8806,10 @@
     </row>
     <row r="443" spans="3:7">
       <c r="C443" s="6">
-        <v>12321</v>
+        <v>12721</v>
       </c>
       <c r="D443" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E443" s="5">
         <v>5</v>
@@ -8829,10 +8823,10 @@
     </row>
     <row r="444" spans="3:7">
       <c r="C444" s="6">
-        <v>12322</v>
+        <v>12722</v>
       </c>
       <c r="D444" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E444" s="5">
         <v>6</v>
@@ -8846,10 +8840,10 @@
     </row>
     <row r="445" spans="3:7">
       <c r="C445" s="6">
-        <v>12323</v>
+        <v>12723</v>
       </c>
       <c r="D445" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E445" s="5">
         <v>7</v>
@@ -8863,10 +8857,10 @@
     </row>
     <row r="446" spans="3:7">
       <c r="C446" s="6">
-        <v>12324</v>
+        <v>12724</v>
       </c>
       <c r="D446" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E446" s="5">
         <v>8</v>
@@ -8880,10 +8874,10 @@
     </row>
     <row r="447" spans="3:7">
       <c r="C447" s="6">
-        <v>12325</v>
+        <v>12725</v>
       </c>
       <c r="D447" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E447" s="5">
         <v>9</v>
@@ -8900,10 +8894,10 @@
         <v>59</v>
       </c>
       <c r="C449" s="6">
-        <v>12501</v>
+        <v>12801</v>
       </c>
       <c r="D449" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E449" s="5">
         <v>1</v>
@@ -8915,17 +8909,17 @@
         <v>15</v>
       </c>
       <c r="H449" s="3">
-        <v>20605</v>
+        <v>20425</v>
       </c>
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="6">
-        <v>12502</v>
+        <v>12802</v>
       </c>
       <c r="D450" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E450" s="5">
         <v>1</v>
@@ -8937,15 +8931,15 @@
         <v>16</v>
       </c>
       <c r="H450" s="3">
-        <v>20606</v>
+        <v>20426</v>
       </c>
     </row>
     <row r="451" spans="3:8">
       <c r="C451" s="6">
-        <v>12503</v>
+        <v>12803</v>
       </c>
       <c r="D451" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E451" s="5">
         <v>1</v>
@@ -8957,15 +8951,15 @@
         <v>18</v>
       </c>
       <c r="H451" s="3">
-        <v>20607</v>
+        <v>20427</v>
       </c>
     </row>
     <row r="452" spans="3:8">
       <c r="C452" s="6">
-        <v>12504</v>
+        <v>12804</v>
       </c>
       <c r="D452" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E452" s="3">
         <v>1</v>
@@ -8977,15 +8971,15 @@
         <v>19</v>
       </c>
       <c r="H452" s="3">
-        <v>20608</v>
+        <v>20428</v>
       </c>
     </row>
     <row r="453" spans="3:7">
       <c r="C453" s="6">
-        <v>12505</v>
+        <v>12805</v>
       </c>
       <c r="D453" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E453" s="5">
         <v>3</v>
@@ -8999,10 +8993,10 @@
     </row>
     <row r="454" spans="3:7">
       <c r="C454" s="6">
-        <v>12506</v>
+        <v>12806</v>
       </c>
       <c r="D454" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E454" s="5">
         <v>10</v>
@@ -9016,10 +9010,10 @@
     </row>
     <row r="455" spans="3:7">
       <c r="C455" s="6">
-        <v>12507</v>
+        <v>12807</v>
       </c>
       <c r="D455" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E455" s="5">
         <v>10</v>
@@ -9033,10 +9027,10 @@
     </row>
     <row r="456" spans="3:7">
       <c r="C456" s="6">
-        <v>12508</v>
+        <v>12808</v>
       </c>
       <c r="D456" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E456" s="5">
         <v>10</v>
@@ -9050,10 +9044,10 @@
     </row>
     <row r="457" spans="3:7">
       <c r="C457" s="6">
-        <v>12509</v>
+        <v>12809</v>
       </c>
       <c r="D457" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E457" s="5">
         <v>10</v>
@@ -9067,10 +9061,10 @@
     </row>
     <row r="458" spans="3:7">
       <c r="C458" s="6">
-        <v>12510</v>
+        <v>12810</v>
       </c>
       <c r="D458" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E458" s="5">
         <v>10</v>
@@ -9084,10 +9078,10 @@
     </row>
     <row r="459" spans="3:7">
       <c r="C459" s="6">
-        <v>12511</v>
+        <v>12811</v>
       </c>
       <c r="D459" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E459" s="5">
         <v>9</v>
@@ -9101,10 +9095,10 @@
     </row>
     <row r="460" spans="3:7">
       <c r="C460" s="6">
-        <v>12512</v>
+        <v>12812</v>
       </c>
       <c r="D460" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E460" s="5">
         <v>10</v>
@@ -9118,10 +9112,10 @@
     </row>
     <row r="461" spans="3:7">
       <c r="C461" s="6">
-        <v>12513</v>
+        <v>12813</v>
       </c>
       <c r="D461" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E461" s="5">
         <v>9</v>
@@ -9135,10 +9129,10 @@
     </row>
     <row r="462" spans="3:7">
       <c r="C462" s="6">
-        <v>12514</v>
+        <v>12814</v>
       </c>
       <c r="D462" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E462" s="5">
         <v>9</v>
@@ -9152,10 +9146,10 @@
     </row>
     <row r="463" spans="3:7">
       <c r="C463" s="6">
-        <v>12515</v>
+        <v>12815</v>
       </c>
       <c r="D463" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E463" s="5">
         <v>9</v>
@@ -9169,10 +9163,10 @@
     </row>
     <row r="464" spans="3:7">
       <c r="C464" s="6">
-        <v>12516</v>
+        <v>12816</v>
       </c>
       <c r="D464" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E464" s="5">
         <v>2</v>
@@ -9186,10 +9180,10 @@
     </row>
     <row r="465" spans="3:7">
       <c r="C465" s="6">
-        <v>12517</v>
+        <v>12817</v>
       </c>
       <c r="D465" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E465" s="3">
         <v>9</v>
@@ -9203,10 +9197,10 @@
     </row>
     <row r="466" spans="3:7">
       <c r="C466" s="6">
-        <v>12518</v>
+        <v>12818</v>
       </c>
       <c r="D466" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E466" s="5">
         <v>9</v>
@@ -9220,10 +9214,10 @@
     </row>
     <row r="467" spans="3:7">
       <c r="C467" s="6">
-        <v>12519</v>
+        <v>12819</v>
       </c>
       <c r="D467" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E467" s="5">
         <v>10</v>
@@ -9237,10 +9231,10 @@
     </row>
     <row r="468" spans="3:7">
       <c r="C468" s="6">
-        <v>12520</v>
+        <v>12820</v>
       </c>
       <c r="D468" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E468" s="5">
         <v>9</v>
@@ -9254,10 +9248,10 @@
     </row>
     <row r="469" spans="3:7">
       <c r="C469" s="6">
-        <v>12521</v>
+        <v>12821</v>
       </c>
       <c r="D469" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E469" s="5">
         <v>5</v>
@@ -9271,10 +9265,10 @@
     </row>
     <row r="470" spans="3:7">
       <c r="C470" s="6">
-        <v>12522</v>
+        <v>12822</v>
       </c>
       <c r="D470" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E470" s="5">
         <v>6</v>
@@ -9288,10 +9282,10 @@
     </row>
     <row r="471" spans="3:7">
       <c r="C471" s="6">
-        <v>12523</v>
+        <v>12823</v>
       </c>
       <c r="D471" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E471" s="5">
         <v>7</v>
@@ -9305,10 +9299,10 @@
     </row>
     <row r="472" spans="3:7">
       <c r="C472" s="6">
-        <v>12524</v>
+        <v>12824</v>
       </c>
       <c r="D472" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E472" s="5">
         <v>8</v>
@@ -9322,10 +9316,10 @@
     </row>
     <row r="473" spans="3:7">
       <c r="C473" s="6">
-        <v>12525</v>
+        <v>12825</v>
       </c>
       <c r="D473" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E473" s="5">
         <v>9</v>
@@ -9342,10 +9336,10 @@
         <v>60</v>
       </c>
       <c r="C475" s="6">
-        <v>12701</v>
+        <v>13101</v>
       </c>
       <c r="D475" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E475" s="5">
         <v>1</v>
@@ -9357,17 +9351,17 @@
         <v>15</v>
       </c>
       <c r="H475" s="3">
-        <v>20375</v>
+        <v>20515</v>
       </c>
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="6">
-        <v>12702</v>
+        <v>13102</v>
       </c>
       <c r="D476" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E476" s="5">
         <v>1</v>
@@ -9379,15 +9373,15 @@
         <v>16</v>
       </c>
       <c r="H476" s="3">
-        <v>20376</v>
+        <v>20516</v>
       </c>
     </row>
     <row r="477" spans="3:8">
       <c r="C477" s="6">
-        <v>12703</v>
+        <v>13103</v>
       </c>
       <c r="D477" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E477" s="5">
         <v>1</v>
@@ -9399,15 +9393,15 @@
         <v>18</v>
       </c>
       <c r="H477" s="3">
-        <v>20377</v>
+        <v>20517</v>
       </c>
     </row>
     <row r="478" spans="3:8">
       <c r="C478" s="6">
-        <v>12704</v>
+        <v>13104</v>
       </c>
       <c r="D478" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E478" s="3">
         <v>1</v>
@@ -9419,15 +9413,15 @@
         <v>19</v>
       </c>
       <c r="H478" s="3">
-        <v>20378</v>
+        <v>20518</v>
       </c>
     </row>
     <row r="479" spans="3:7">
       <c r="C479" s="6">
-        <v>12705</v>
+        <v>13105</v>
       </c>
       <c r="D479" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E479" s="5">
         <v>3</v>
@@ -9441,10 +9435,10 @@
     </row>
     <row r="480" spans="3:7">
       <c r="C480" s="6">
-        <v>12706</v>
+        <v>13106</v>
       </c>
       <c r="D480" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E480" s="5">
         <v>10</v>
@@ -9458,10 +9452,10 @@
     </row>
     <row r="481" spans="3:7">
       <c r="C481" s="6">
-        <v>12707</v>
+        <v>13107</v>
       </c>
       <c r="D481" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E481" s="5">
         <v>10</v>
@@ -9475,10 +9469,10 @@
     </row>
     <row r="482" spans="3:7">
       <c r="C482" s="6">
-        <v>12708</v>
+        <v>13108</v>
       </c>
       <c r="D482" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E482" s="5">
         <v>10</v>
@@ -9492,10 +9486,10 @@
     </row>
     <row r="483" spans="3:7">
       <c r="C483" s="6">
-        <v>12709</v>
+        <v>13109</v>
       </c>
       <c r="D483" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E483" s="5">
         <v>10</v>
@@ -9509,10 +9503,10 @@
     </row>
     <row r="484" spans="3:7">
       <c r="C484" s="6">
-        <v>12710</v>
+        <v>13110</v>
       </c>
       <c r="D484" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E484" s="5">
         <v>10</v>
@@ -9526,10 +9520,10 @@
     </row>
     <row r="485" spans="3:7">
       <c r="C485" s="6">
-        <v>12711</v>
+        <v>13111</v>
       </c>
       <c r="D485" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E485" s="5">
         <v>9</v>
@@ -9543,10 +9537,10 @@
     </row>
     <row r="486" spans="3:7">
       <c r="C486" s="6">
-        <v>12712</v>
+        <v>13112</v>
       </c>
       <c r="D486" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E486" s="5">
         <v>10</v>
@@ -9560,10 +9554,10 @@
     </row>
     <row r="487" spans="3:7">
       <c r="C487" s="6">
-        <v>12713</v>
+        <v>13113</v>
       </c>
       <c r="D487" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E487" s="5">
         <v>9</v>
@@ -9577,10 +9571,10 @@
     </row>
     <row r="488" spans="3:7">
       <c r="C488" s="6">
-        <v>12714</v>
+        <v>13114</v>
       </c>
       <c r="D488" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E488" s="5">
         <v>9</v>
@@ -9594,10 +9588,10 @@
     </row>
     <row r="489" spans="3:7">
       <c r="C489" s="6">
-        <v>12715</v>
+        <v>13115</v>
       </c>
       <c r="D489" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E489" s="5">
         <v>9</v>
@@ -9611,10 +9605,10 @@
     </row>
     <row r="490" spans="3:7">
       <c r="C490" s="6">
-        <v>12716</v>
+        <v>13116</v>
       </c>
       <c r="D490" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E490" s="5">
         <v>2</v>
@@ -9628,10 +9622,10 @@
     </row>
     <row r="491" spans="3:7">
       <c r="C491" s="6">
-        <v>12717</v>
+        <v>13117</v>
       </c>
       <c r="D491" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E491" s="3">
         <v>9</v>
@@ -9645,10 +9639,10 @@
     </row>
     <row r="492" spans="3:7">
       <c r="C492" s="6">
-        <v>12718</v>
+        <v>13118</v>
       </c>
       <c r="D492" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E492" s="5">
         <v>9</v>
@@ -9662,10 +9656,10 @@
     </row>
     <row r="493" spans="3:7">
       <c r="C493" s="6">
-        <v>12719</v>
+        <v>13119</v>
       </c>
       <c r="D493" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E493" s="5">
         <v>10</v>
@@ -9679,10 +9673,10 @@
     </row>
     <row r="494" spans="3:7">
       <c r="C494" s="6">
-        <v>12720</v>
+        <v>13120</v>
       </c>
       <c r="D494" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E494" s="5">
         <v>9</v>
@@ -9696,10 +9690,10 @@
     </row>
     <row r="495" spans="3:7">
       <c r="C495" s="6">
-        <v>12721</v>
+        <v>13121</v>
       </c>
       <c r="D495" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E495" s="5">
         <v>5</v>
@@ -9713,10 +9707,10 @@
     </row>
     <row r="496" spans="3:7">
       <c r="C496" s="6">
-        <v>12722</v>
+        <v>13122</v>
       </c>
       <c r="D496" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E496" s="5">
         <v>6</v>
@@ -9730,10 +9724,10 @@
     </row>
     <row r="497" spans="3:7">
       <c r="C497" s="6">
-        <v>12723</v>
+        <v>13123</v>
       </c>
       <c r="D497" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E497" s="5">
         <v>7</v>
@@ -9747,10 +9741,10 @@
     </row>
     <row r="498" spans="3:7">
       <c r="C498" s="6">
-        <v>12724</v>
+        <v>13124</v>
       </c>
       <c r="D498" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E498" s="5">
         <v>8</v>
@@ -9764,10 +9758,10 @@
     </row>
     <row r="499" spans="3:7">
       <c r="C499" s="6">
-        <v>12725</v>
+        <v>13125</v>
       </c>
       <c r="D499" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E499" s="5">
         <v>9</v>
@@ -9784,10 +9778,10 @@
         <v>61</v>
       </c>
       <c r="C501" s="6">
-        <v>12801</v>
+        <v>13301</v>
       </c>
       <c r="D501" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E501" s="5">
         <v>1</v>
@@ -9799,17 +9793,17 @@
         <v>15</v>
       </c>
       <c r="H501" s="3">
-        <v>20425</v>
+        <v>20495</v>
       </c>
     </row>
     <row r="502" spans="1:8">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="6">
-        <v>12802</v>
+        <v>13302</v>
       </c>
       <c r="D502" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E502" s="5">
         <v>1</v>
@@ -9821,15 +9815,15 @@
         <v>16</v>
       </c>
       <c r="H502" s="3">
-        <v>20426</v>
+        <v>20496</v>
       </c>
     </row>
     <row r="503" spans="3:8">
       <c r="C503" s="6">
-        <v>12803</v>
+        <v>13303</v>
       </c>
       <c r="D503" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E503" s="5">
         <v>1</v>
@@ -9841,15 +9835,15 @@
         <v>18</v>
       </c>
       <c r="H503" s="3">
-        <v>20427</v>
+        <v>20497</v>
       </c>
     </row>
     <row r="504" spans="3:8">
       <c r="C504" s="6">
-        <v>12804</v>
+        <v>13304</v>
       </c>
       <c r="D504" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E504" s="3">
         <v>1</v>
@@ -9861,15 +9855,15 @@
         <v>19</v>
       </c>
       <c r="H504" s="3">
-        <v>20428</v>
+        <v>20498</v>
       </c>
     </row>
     <row r="505" spans="3:7">
       <c r="C505" s="6">
-        <v>12805</v>
+        <v>13305</v>
       </c>
       <c r="D505" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E505" s="5">
         <v>3</v>
@@ -9883,10 +9877,10 @@
     </row>
     <row r="506" spans="3:7">
       <c r="C506" s="6">
-        <v>12806</v>
+        <v>13306</v>
       </c>
       <c r="D506" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E506" s="5">
         <v>10</v>
@@ -9900,10 +9894,10 @@
     </row>
     <row r="507" spans="3:7">
       <c r="C507" s="6">
-        <v>12807</v>
+        <v>13307</v>
       </c>
       <c r="D507" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E507" s="5">
         <v>10</v>
@@ -9917,10 +9911,10 @@
     </row>
     <row r="508" spans="3:7">
       <c r="C508" s="6">
-        <v>12808</v>
+        <v>13308</v>
       </c>
       <c r="D508" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E508" s="5">
         <v>10</v>
@@ -9934,10 +9928,10 @@
     </row>
     <row r="509" spans="3:7">
       <c r="C509" s="6">
-        <v>12809</v>
+        <v>13309</v>
       </c>
       <c r="D509" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E509" s="5">
         <v>10</v>
@@ -9951,10 +9945,10 @@
     </row>
     <row r="510" spans="3:7">
       <c r="C510" s="6">
-        <v>12810</v>
+        <v>13310</v>
       </c>
       <c r="D510" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E510" s="5">
         <v>10</v>
@@ -9968,10 +9962,10 @@
     </row>
     <row r="511" spans="3:7">
       <c r="C511" s="6">
-        <v>12811</v>
+        <v>13311</v>
       </c>
       <c r="D511" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E511" s="5">
         <v>9</v>
@@ -9985,10 +9979,10 @@
     </row>
     <row r="512" spans="3:7">
       <c r="C512" s="6">
-        <v>12812</v>
+        <v>13312</v>
       </c>
       <c r="D512" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E512" s="5">
         <v>10</v>
@@ -10002,10 +9996,10 @@
     </row>
     <row r="513" spans="3:7">
       <c r="C513" s="6">
-        <v>12813</v>
+        <v>13313</v>
       </c>
       <c r="D513" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E513" s="5">
         <v>9</v>
@@ -10019,10 +10013,10 @@
     </row>
     <row r="514" spans="3:7">
       <c r="C514" s="6">
-        <v>12814</v>
+        <v>13314</v>
       </c>
       <c r="D514" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E514" s="5">
         <v>9</v>
@@ -10036,10 +10030,10 @@
     </row>
     <row r="515" spans="3:7">
       <c r="C515" s="6">
-        <v>12815</v>
+        <v>13315</v>
       </c>
       <c r="D515" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E515" s="5">
         <v>9</v>
@@ -10053,10 +10047,10 @@
     </row>
     <row r="516" spans="3:7">
       <c r="C516" s="6">
-        <v>12816</v>
+        <v>13316</v>
       </c>
       <c r="D516" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E516" s="5">
         <v>2</v>
@@ -10070,10 +10064,10 @@
     </row>
     <row r="517" spans="3:7">
       <c r="C517" s="6">
-        <v>12817</v>
+        <v>13317</v>
       </c>
       <c r="D517" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E517" s="3">
         <v>9</v>
@@ -10087,10 +10081,10 @@
     </row>
     <row r="518" spans="3:7">
       <c r="C518" s="6">
-        <v>12818</v>
+        <v>13318</v>
       </c>
       <c r="D518" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E518" s="5">
         <v>9</v>
@@ -10104,10 +10098,10 @@
     </row>
     <row r="519" spans="3:7">
       <c r="C519" s="6">
-        <v>12819</v>
+        <v>13319</v>
       </c>
       <c r="D519" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E519" s="5">
         <v>10</v>
@@ -10121,10 +10115,10 @@
     </row>
     <row r="520" spans="3:7">
       <c r="C520" s="6">
-        <v>12820</v>
+        <v>13320</v>
       </c>
       <c r="D520" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E520" s="5">
         <v>9</v>
@@ -10138,10 +10132,10 @@
     </row>
     <row r="521" spans="3:7">
       <c r="C521" s="6">
-        <v>12821</v>
+        <v>13321</v>
       </c>
       <c r="D521" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E521" s="5">
         <v>5</v>
@@ -10155,10 +10149,10 @@
     </row>
     <row r="522" spans="3:7">
       <c r="C522" s="6">
-        <v>12822</v>
+        <v>13322</v>
       </c>
       <c r="D522" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E522" s="5">
         <v>6</v>
@@ -10172,10 +10166,10 @@
     </row>
     <row r="523" spans="3:7">
       <c r="C523" s="6">
-        <v>12823</v>
+        <v>13323</v>
       </c>
       <c r="D523" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E523" s="5">
         <v>7</v>
@@ -10189,10 +10183,10 @@
     </row>
     <row r="524" spans="3:7">
       <c r="C524" s="6">
-        <v>12824</v>
+        <v>13324</v>
       </c>
       <c r="D524" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E524" s="5">
         <v>8</v>
@@ -10206,10 +10200,10 @@
     </row>
     <row r="525" spans="3:7">
       <c r="C525" s="6">
-        <v>12825</v>
+        <v>13325</v>
       </c>
       <c r="D525" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E525" s="5">
         <v>9</v>
@@ -10226,10 +10220,10 @@
         <v>62</v>
       </c>
       <c r="C527" s="6">
-        <v>13101</v>
+        <v>13501</v>
       </c>
       <c r="D527" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E527" s="5">
         <v>1</v>
@@ -10241,17 +10235,17 @@
         <v>15</v>
       </c>
       <c r="H527" s="3">
-        <v>20515</v>
+        <v>20405</v>
       </c>
     </row>
     <row r="528" spans="1:8">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="6">
-        <v>13102</v>
+        <v>13502</v>
       </c>
       <c r="D528" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E528" s="5">
         <v>1</v>
@@ -10263,15 +10257,15 @@
         <v>16</v>
       </c>
       <c r="H528" s="3">
-        <v>20516</v>
+        <v>20406</v>
       </c>
     </row>
     <row r="529" spans="3:8">
       <c r="C529" s="6">
-        <v>13103</v>
+        <v>13503</v>
       </c>
       <c r="D529" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E529" s="5">
         <v>1</v>
@@ -10283,15 +10277,15 @@
         <v>18</v>
       </c>
       <c r="H529" s="3">
-        <v>20517</v>
+        <v>20407</v>
       </c>
     </row>
     <row r="530" spans="3:8">
       <c r="C530" s="6">
-        <v>13104</v>
+        <v>13504</v>
       </c>
       <c r="D530" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E530" s="3">
         <v>1</v>
@@ -10303,15 +10297,15 @@
         <v>19</v>
       </c>
       <c r="H530" s="3">
-        <v>20518</v>
+        <v>20408</v>
       </c>
     </row>
     <row r="531" spans="3:7">
       <c r="C531" s="6">
-        <v>13105</v>
+        <v>13505</v>
       </c>
       <c r="D531" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E531" s="5">
         <v>3</v>
@@ -10325,10 +10319,10 @@
     </row>
     <row r="532" spans="3:7">
       <c r="C532" s="6">
-        <v>13106</v>
+        <v>13506</v>
       </c>
       <c r="D532" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E532" s="5">
         <v>10</v>
@@ -10342,10 +10336,10 @@
     </row>
     <row r="533" spans="3:7">
       <c r="C533" s="6">
-        <v>13107</v>
+        <v>13507</v>
       </c>
       <c r="D533" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E533" s="5">
         <v>10</v>
@@ -10359,10 +10353,10 @@
     </row>
     <row r="534" spans="3:7">
       <c r="C534" s="6">
-        <v>13108</v>
+        <v>13508</v>
       </c>
       <c r="D534" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E534" s="5">
         <v>10</v>
@@ -10376,10 +10370,10 @@
     </row>
     <row r="535" spans="3:7">
       <c r="C535" s="6">
-        <v>13109</v>
+        <v>13509</v>
       </c>
       <c r="D535" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E535" s="5">
         <v>10</v>
@@ -10393,10 +10387,10 @@
     </row>
     <row r="536" spans="3:7">
       <c r="C536" s="6">
-        <v>13110</v>
+        <v>13510</v>
       </c>
       <c r="D536" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E536" s="5">
         <v>10</v>
@@ -10410,10 +10404,10 @@
     </row>
     <row r="537" spans="3:7">
       <c r="C537" s="6">
-        <v>13111</v>
+        <v>13511</v>
       </c>
       <c r="D537" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E537" s="5">
         <v>9</v>
@@ -10427,10 +10421,10 @@
     </row>
     <row r="538" spans="3:7">
       <c r="C538" s="6">
-        <v>13112</v>
+        <v>13512</v>
       </c>
       <c r="D538" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E538" s="5">
         <v>10</v>
@@ -10444,10 +10438,10 @@
     </row>
     <row r="539" spans="3:7">
       <c r="C539" s="6">
-        <v>13113</v>
+        <v>13513</v>
       </c>
       <c r="D539" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E539" s="5">
         <v>9</v>
@@ -10461,10 +10455,10 @@
     </row>
     <row r="540" spans="3:7">
       <c r="C540" s="6">
-        <v>13114</v>
+        <v>13514</v>
       </c>
       <c r="D540" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E540" s="5">
         <v>9</v>
@@ -10478,10 +10472,10 @@
     </row>
     <row r="541" spans="3:7">
       <c r="C541" s="6">
-        <v>13115</v>
+        <v>13515</v>
       </c>
       <c r="D541" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E541" s="5">
         <v>9</v>
@@ -10495,10 +10489,10 @@
     </row>
     <row r="542" spans="3:7">
       <c r="C542" s="6">
-        <v>13116</v>
+        <v>13516</v>
       </c>
       <c r="D542" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E542" s="5">
         <v>2</v>
@@ -10512,10 +10506,10 @@
     </row>
     <row r="543" spans="3:7">
       <c r="C543" s="6">
-        <v>13117</v>
+        <v>13517</v>
       </c>
       <c r="D543" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E543" s="3">
         <v>9</v>
@@ -10529,10 +10523,10 @@
     </row>
     <row r="544" spans="3:7">
       <c r="C544" s="6">
-        <v>13118</v>
+        <v>13518</v>
       </c>
       <c r="D544" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E544" s="5">
         <v>9</v>
@@ -10546,10 +10540,10 @@
     </row>
     <row r="545" spans="3:7">
       <c r="C545" s="6">
-        <v>13119</v>
+        <v>13519</v>
       </c>
       <c r="D545" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E545" s="5">
         <v>10</v>
@@ -10563,10 +10557,10 @@
     </row>
     <row r="546" spans="3:7">
       <c r="C546" s="6">
-        <v>13120</v>
+        <v>13520</v>
       </c>
       <c r="D546" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E546" s="5">
         <v>9</v>
@@ -10580,10 +10574,10 @@
     </row>
     <row r="547" spans="3:7">
       <c r="C547" s="6">
-        <v>13121</v>
+        <v>13521</v>
       </c>
       <c r="D547" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E547" s="5">
         <v>5</v>
@@ -10597,10 +10591,10 @@
     </row>
     <row r="548" spans="3:7">
       <c r="C548" s="6">
-        <v>13122</v>
+        <v>13522</v>
       </c>
       <c r="D548" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E548" s="5">
         <v>6</v>
@@ -10614,10 +10608,10 @@
     </row>
     <row r="549" spans="3:7">
       <c r="C549" s="6">
-        <v>13123</v>
+        <v>13523</v>
       </c>
       <c r="D549" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E549" s="5">
         <v>7</v>
@@ -10631,10 +10625,10 @@
     </row>
     <row r="550" spans="3:7">
       <c r="C550" s="6">
-        <v>13124</v>
+        <v>13524</v>
       </c>
       <c r="D550" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E550" s="5">
         <v>8</v>
@@ -10648,10 +10642,10 @@
     </row>
     <row r="551" spans="3:7">
       <c r="C551" s="6">
-        <v>13125</v>
+        <v>13525</v>
       </c>
       <c r="D551" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E551" s="5">
         <v>9</v>
@@ -10668,10 +10662,10 @@
         <v>63</v>
       </c>
       <c r="C553" s="6">
-        <v>13301</v>
+        <v>13601</v>
       </c>
       <c r="D553" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E553" s="5">
         <v>1</v>
@@ -10683,17 +10677,17 @@
         <v>15</v>
       </c>
       <c r="H553" s="3">
-        <v>20495</v>
+        <v>20415</v>
       </c>
     </row>
     <row r="554" spans="1:8">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="6">
-        <v>13302</v>
+        <v>13602</v>
       </c>
       <c r="D554" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E554" s="5">
         <v>1</v>
@@ -10705,15 +10699,15 @@
         <v>16</v>
       </c>
       <c r="H554" s="3">
-        <v>20496</v>
+        <v>20416</v>
       </c>
     </row>
     <row r="555" spans="3:8">
       <c r="C555" s="6">
-        <v>13303</v>
+        <v>13603</v>
       </c>
       <c r="D555" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E555" s="5">
         <v>1</v>
@@ -10725,15 +10719,15 @@
         <v>18</v>
       </c>
       <c r="H555" s="3">
-        <v>20497</v>
+        <v>20417</v>
       </c>
     </row>
     <row r="556" spans="3:8">
       <c r="C556" s="6">
-        <v>13304</v>
+        <v>13604</v>
       </c>
       <c r="D556" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E556" s="3">
         <v>1</v>
@@ -10745,15 +10739,15 @@
         <v>19</v>
       </c>
       <c r="H556" s="3">
-        <v>20498</v>
+        <v>20418</v>
       </c>
     </row>
     <row r="557" spans="3:7">
       <c r="C557" s="6">
-        <v>13305</v>
+        <v>13605</v>
       </c>
       <c r="D557" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E557" s="5">
         <v>3</v>
@@ -10767,10 +10761,10 @@
     </row>
     <row r="558" spans="3:7">
       <c r="C558" s="6">
-        <v>13306</v>
+        <v>13606</v>
       </c>
       <c r="D558" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E558" s="5">
         <v>10</v>
@@ -10784,10 +10778,10 @@
     </row>
     <row r="559" spans="3:7">
       <c r="C559" s="6">
-        <v>13307</v>
+        <v>13607</v>
       </c>
       <c r="D559" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E559" s="5">
         <v>10</v>
@@ -10801,10 +10795,10 @@
     </row>
     <row r="560" spans="3:7">
       <c r="C560" s="6">
-        <v>13308</v>
+        <v>13608</v>
       </c>
       <c r="D560" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E560" s="5">
         <v>10</v>
@@ -10818,10 +10812,10 @@
     </row>
     <row r="561" spans="3:7">
       <c r="C561" s="6">
-        <v>13309</v>
+        <v>13609</v>
       </c>
       <c r="D561" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E561" s="5">
         <v>10</v>
@@ -10835,10 +10829,10 @@
     </row>
     <row r="562" spans="3:7">
       <c r="C562" s="6">
-        <v>13310</v>
+        <v>13610</v>
       </c>
       <c r="D562" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E562" s="5">
         <v>10</v>
@@ -10852,10 +10846,10 @@
     </row>
     <row r="563" spans="3:7">
       <c r="C563" s="6">
-        <v>13311</v>
+        <v>13611</v>
       </c>
       <c r="D563" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E563" s="5">
         <v>9</v>
@@ -10869,10 +10863,10 @@
     </row>
     <row r="564" spans="3:7">
       <c r="C564" s="6">
-        <v>13312</v>
+        <v>13612</v>
       </c>
       <c r="D564" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E564" s="5">
         <v>10</v>
@@ -10886,10 +10880,10 @@
     </row>
     <row r="565" spans="3:7">
       <c r="C565" s="6">
-        <v>13313</v>
+        <v>13613</v>
       </c>
       <c r="D565" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E565" s="5">
         <v>9</v>
@@ -10903,10 +10897,10 @@
     </row>
     <row r="566" spans="3:7">
       <c r="C566" s="6">
-        <v>13314</v>
+        <v>13614</v>
       </c>
       <c r="D566" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E566" s="5">
         <v>9</v>
@@ -10920,10 +10914,10 @@
     </row>
     <row r="567" spans="3:7">
       <c r="C567" s="6">
-        <v>13315</v>
+        <v>13615</v>
       </c>
       <c r="D567" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E567" s="5">
         <v>9</v>
@@ -10937,10 +10931,10 @@
     </row>
     <row r="568" spans="3:7">
       <c r="C568" s="6">
-        <v>13316</v>
+        <v>13616</v>
       </c>
       <c r="D568" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E568" s="5">
         <v>2</v>
@@ -10954,10 +10948,10 @@
     </row>
     <row r="569" spans="3:7">
       <c r="C569" s="6">
-        <v>13317</v>
+        <v>13617</v>
       </c>
       <c r="D569" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E569" s="3">
         <v>9</v>
@@ -10971,10 +10965,10 @@
     </row>
     <row r="570" spans="3:7">
       <c r="C570" s="6">
-        <v>13318</v>
+        <v>13618</v>
       </c>
       <c r="D570" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E570" s="5">
         <v>9</v>
@@ -10988,10 +10982,10 @@
     </row>
     <row r="571" spans="3:7">
       <c r="C571" s="6">
-        <v>13319</v>
+        <v>13619</v>
       </c>
       <c r="D571" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E571" s="5">
         <v>10</v>
@@ -11005,10 +10999,10 @@
     </row>
     <row r="572" spans="3:7">
       <c r="C572" s="6">
-        <v>13320</v>
+        <v>13620</v>
       </c>
       <c r="D572" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E572" s="5">
         <v>9</v>
@@ -11022,10 +11016,10 @@
     </row>
     <row r="573" spans="3:7">
       <c r="C573" s="6">
-        <v>13321</v>
+        <v>13621</v>
       </c>
       <c r="D573" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E573" s="5">
         <v>5</v>
@@ -11039,10 +11033,10 @@
     </row>
     <row r="574" spans="3:7">
       <c r="C574" s="6">
-        <v>13322</v>
+        <v>13622</v>
       </c>
       <c r="D574" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E574" s="5">
         <v>6</v>
@@ -11056,10 +11050,10 @@
     </row>
     <row r="575" spans="3:7">
       <c r="C575" s="6">
-        <v>13323</v>
+        <v>13623</v>
       </c>
       <c r="D575" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E575" s="5">
         <v>7</v>
@@ -11073,10 +11067,10 @@
     </row>
     <row r="576" spans="3:7">
       <c r="C576" s="6">
-        <v>13324</v>
+        <v>13624</v>
       </c>
       <c r="D576" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E576" s="5">
         <v>8</v>
@@ -11090,10 +11084,10 @@
     </row>
     <row r="577" spans="3:7">
       <c r="C577" s="6">
-        <v>13325</v>
+        <v>13625</v>
       </c>
       <c r="D577" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E577" s="5">
         <v>9</v>
@@ -11110,10 +11104,10 @@
         <v>64</v>
       </c>
       <c r="C579" s="6">
-        <v>13401</v>
+        <v>13701</v>
       </c>
       <c r="D579" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E579" s="5">
         <v>1</v>
@@ -11125,17 +11119,17 @@
         <v>15</v>
       </c>
       <c r="H579" s="3">
-        <v>20565</v>
+        <v>20445</v>
       </c>
     </row>
     <row r="580" spans="1:8">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="6">
-        <v>13402</v>
+        <v>13702</v>
       </c>
       <c r="D580" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E580" s="5">
         <v>1</v>
@@ -11147,15 +11141,15 @@
         <v>16</v>
       </c>
       <c r="H580" s="3">
-        <v>20566</v>
+        <v>20446</v>
       </c>
     </row>
     <row r="581" spans="3:8">
       <c r="C581" s="6">
-        <v>13403</v>
+        <v>13703</v>
       </c>
       <c r="D581" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E581" s="5">
         <v>1</v>
@@ -11167,15 +11161,15 @@
         <v>18</v>
       </c>
       <c r="H581" s="3">
-        <v>20567</v>
+        <v>20447</v>
       </c>
     </row>
     <row r="582" spans="3:8">
       <c r="C582" s="6">
-        <v>13404</v>
+        <v>13704</v>
       </c>
       <c r="D582" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E582" s="3">
         <v>1</v>
@@ -11187,15 +11181,15 @@
         <v>19</v>
       </c>
       <c r="H582" s="3">
-        <v>20568</v>
+        <v>20448</v>
       </c>
     </row>
     <row r="583" spans="3:7">
       <c r="C583" s="6">
-        <v>13405</v>
+        <v>13705</v>
       </c>
       <c r="D583" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E583" s="5">
         <v>3</v>
@@ -11209,10 +11203,10 @@
     </row>
     <row r="584" spans="3:7">
       <c r="C584" s="6">
-        <v>13406</v>
+        <v>13706</v>
       </c>
       <c r="D584" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E584" s="5">
         <v>10</v>
@@ -11226,10 +11220,10 @@
     </row>
     <row r="585" spans="3:7">
       <c r="C585" s="6">
-        <v>13407</v>
+        <v>13707</v>
       </c>
       <c r="D585" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E585" s="5">
         <v>10</v>
@@ -11243,10 +11237,10 @@
     </row>
     <row r="586" spans="3:7">
       <c r="C586" s="6">
-        <v>13408</v>
+        <v>13708</v>
       </c>
       <c r="D586" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E586" s="5">
         <v>10</v>
@@ -11260,10 +11254,10 @@
     </row>
     <row r="587" spans="3:7">
       <c r="C587" s="6">
-        <v>13409</v>
+        <v>13709</v>
       </c>
       <c r="D587" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E587" s="5">
         <v>10</v>
@@ -11277,10 +11271,10 @@
     </row>
     <row r="588" spans="3:7">
       <c r="C588" s="6">
-        <v>13410</v>
+        <v>13710</v>
       </c>
       <c r="D588" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E588" s="5">
         <v>10</v>
@@ -11294,10 +11288,10 @@
     </row>
     <row r="589" spans="3:7">
       <c r="C589" s="6">
-        <v>13411</v>
+        <v>13711</v>
       </c>
       <c r="D589" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E589" s="5">
         <v>9</v>
@@ -11311,10 +11305,10 @@
     </row>
     <row r="590" spans="3:7">
       <c r="C590" s="6">
-        <v>13412</v>
+        <v>13712</v>
       </c>
       <c r="D590" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E590" s="5">
         <v>10</v>
@@ -11328,10 +11322,10 @@
     </row>
     <row r="591" spans="3:7">
       <c r="C591" s="6">
-        <v>13413</v>
+        <v>13713</v>
       </c>
       <c r="D591" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E591" s="5">
         <v>9</v>
@@ -11345,10 +11339,10 @@
     </row>
     <row r="592" spans="3:7">
       <c r="C592" s="6">
-        <v>13414</v>
+        <v>13714</v>
       </c>
       <c r="D592" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E592" s="5">
         <v>9</v>
@@ -11362,10 +11356,10 @@
     </row>
     <row r="593" spans="3:7">
       <c r="C593" s="6">
-        <v>13415</v>
+        <v>13715</v>
       </c>
       <c r="D593" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E593" s="5">
         <v>9</v>
@@ -11379,10 +11373,10 @@
     </row>
     <row r="594" spans="3:7">
       <c r="C594" s="6">
-        <v>13416</v>
+        <v>13716</v>
       </c>
       <c r="D594" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E594" s="5">
         <v>2</v>
@@ -11396,10 +11390,10 @@
     </row>
     <row r="595" spans="3:7">
       <c r="C595" s="6">
-        <v>13417</v>
+        <v>13717</v>
       </c>
       <c r="D595" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E595" s="3">
         <v>9</v>
@@ -11413,10 +11407,10 @@
     </row>
     <row r="596" spans="3:7">
       <c r="C596" s="6">
-        <v>13418</v>
+        <v>13718</v>
       </c>
       <c r="D596" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E596" s="5">
         <v>9</v>
@@ -11430,10 +11424,10 @@
     </row>
     <row r="597" spans="3:7">
       <c r="C597" s="6">
-        <v>13419</v>
+        <v>13719</v>
       </c>
       <c r="D597" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E597" s="5">
         <v>10</v>
@@ -11447,10 +11441,10 @@
     </row>
     <row r="598" spans="3:7">
       <c r="C598" s="6">
-        <v>13420</v>
+        <v>13720</v>
       </c>
       <c r="D598" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E598" s="5">
         <v>9</v>
@@ -11464,10 +11458,10 @@
     </row>
     <row r="599" spans="3:7">
       <c r="C599" s="6">
-        <v>13421</v>
+        <v>13721</v>
       </c>
       <c r="D599" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E599" s="5">
         <v>5</v>
@@ -11481,10 +11475,10 @@
     </row>
     <row r="600" spans="3:7">
       <c r="C600" s="6">
-        <v>13422</v>
+        <v>13722</v>
       </c>
       <c r="D600" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E600" s="5">
         <v>6</v>
@@ -11498,10 +11492,10 @@
     </row>
     <row r="601" spans="3:7">
       <c r="C601" s="6">
-        <v>13423</v>
+        <v>13723</v>
       </c>
       <c r="D601" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E601" s="5">
         <v>7</v>
@@ -11515,10 +11509,10 @@
     </row>
     <row r="602" spans="3:7">
       <c r="C602" s="6">
-        <v>13424</v>
+        <v>13724</v>
       </c>
       <c r="D602" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E602" s="5">
         <v>8</v>
@@ -11532,10 +11526,10 @@
     </row>
     <row r="603" spans="3:7">
       <c r="C603" s="6">
-        <v>13425</v>
+        <v>13725</v>
       </c>
       <c r="D603" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E603" s="5">
         <v>9</v>
@@ -11552,10 +11546,10 @@
         <v>65</v>
       </c>
       <c r="C605" s="6">
-        <v>13501</v>
+        <v>13801</v>
       </c>
       <c r="D605" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E605" s="5">
         <v>1</v>
@@ -11567,17 +11561,17 @@
         <v>15</v>
       </c>
       <c r="H605" s="3">
-        <v>20405</v>
+        <v>20455</v>
       </c>
     </row>
     <row r="606" spans="1:8">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="6">
-        <v>13502</v>
+        <v>13802</v>
       </c>
       <c r="D606" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E606" s="5">
         <v>1</v>
@@ -11589,15 +11583,15 @@
         <v>16</v>
       </c>
       <c r="H606" s="3">
-        <v>20406</v>
+        <v>20456</v>
       </c>
     </row>
     <row r="607" spans="3:8">
       <c r="C607" s="6">
-        <v>13503</v>
+        <v>13803</v>
       </c>
       <c r="D607" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E607" s="5">
         <v>1</v>
@@ -11609,15 +11603,15 @@
         <v>18</v>
       </c>
       <c r="H607" s="3">
-        <v>20407</v>
+        <v>20457</v>
       </c>
     </row>
     <row r="608" spans="3:8">
       <c r="C608" s="6">
-        <v>13504</v>
+        <v>13804</v>
       </c>
       <c r="D608" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E608" s="3">
         <v>1</v>
@@ -11629,15 +11623,15 @@
         <v>19</v>
       </c>
       <c r="H608" s="3">
-        <v>20408</v>
+        <v>20458</v>
       </c>
     </row>
     <row r="609" spans="3:7">
       <c r="C609" s="6">
-        <v>13505</v>
+        <v>13805</v>
       </c>
       <c r="D609" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E609" s="5">
         <v>3</v>
@@ -11651,10 +11645,10 @@
     </row>
     <row r="610" spans="3:7">
       <c r="C610" s="6">
-        <v>13506</v>
+        <v>13806</v>
       </c>
       <c r="D610" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E610" s="5">
         <v>10</v>
@@ -11668,10 +11662,10 @@
     </row>
     <row r="611" spans="3:7">
       <c r="C611" s="6">
-        <v>13507</v>
+        <v>13807</v>
       </c>
       <c r="D611" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E611" s="5">
         <v>10</v>
@@ -11685,10 +11679,10 @@
     </row>
     <row r="612" spans="3:7">
       <c r="C612" s="6">
-        <v>13508</v>
+        <v>13808</v>
       </c>
       <c r="D612" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E612" s="5">
         <v>10</v>
@@ -11702,10 +11696,10 @@
     </row>
     <row r="613" spans="3:7">
       <c r="C613" s="6">
-        <v>13509</v>
+        <v>13809</v>
       </c>
       <c r="D613" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E613" s="5">
         <v>10</v>
@@ -11719,10 +11713,10 @@
     </row>
     <row r="614" spans="3:7">
       <c r="C614" s="6">
-        <v>13510</v>
+        <v>13810</v>
       </c>
       <c r="D614" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E614" s="5">
         <v>10</v>
@@ -11736,10 +11730,10 @@
     </row>
     <row r="615" spans="3:7">
       <c r="C615" s="6">
-        <v>13511</v>
+        <v>13811</v>
       </c>
       <c r="D615" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E615" s="5">
         <v>9</v>
@@ -11753,10 +11747,10 @@
     </row>
     <row r="616" spans="3:7">
       <c r="C616" s="6">
-        <v>13512</v>
+        <v>13812</v>
       </c>
       <c r="D616" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E616" s="5">
         <v>10</v>
@@ -11770,10 +11764,10 @@
     </row>
     <row r="617" spans="3:7">
       <c r="C617" s="6">
-        <v>13513</v>
+        <v>13813</v>
       </c>
       <c r="D617" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E617" s="5">
         <v>9</v>
@@ -11787,10 +11781,10 @@
     </row>
     <row r="618" spans="3:7">
       <c r="C618" s="6">
-        <v>13514</v>
+        <v>13814</v>
       </c>
       <c r="D618" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E618" s="5">
         <v>9</v>
@@ -11804,10 +11798,10 @@
     </row>
     <row r="619" spans="3:7">
       <c r="C619" s="6">
-        <v>13515</v>
+        <v>13815</v>
       </c>
       <c r="D619" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E619" s="5">
         <v>9</v>
@@ -11821,10 +11815,10 @@
     </row>
     <row r="620" spans="3:7">
       <c r="C620" s="6">
-        <v>13516</v>
+        <v>13816</v>
       </c>
       <c r="D620" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E620" s="5">
         <v>2</v>
@@ -11838,10 +11832,10 @@
     </row>
     <row r="621" spans="3:7">
       <c r="C621" s="6">
-        <v>13517</v>
+        <v>13817</v>
       </c>
       <c r="D621" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E621" s="3">
         <v>9</v>
@@ -11855,10 +11849,10 @@
     </row>
     <row r="622" spans="3:7">
       <c r="C622" s="6">
-        <v>13518</v>
+        <v>13818</v>
       </c>
       <c r="D622" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E622" s="5">
         <v>9</v>
@@ -11872,10 +11866,10 @@
     </row>
     <row r="623" spans="3:7">
       <c r="C623" s="6">
-        <v>13519</v>
+        <v>13819</v>
       </c>
       <c r="D623" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E623" s="5">
         <v>10</v>
@@ -11889,10 +11883,10 @@
     </row>
     <row r="624" spans="3:7">
       <c r="C624" s="6">
-        <v>13520</v>
+        <v>13820</v>
       </c>
       <c r="D624" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E624" s="5">
         <v>9</v>
@@ -11906,10 +11900,10 @@
     </row>
     <row r="625" spans="3:7">
       <c r="C625" s="6">
-        <v>13521</v>
+        <v>13821</v>
       </c>
       <c r="D625" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E625" s="5">
         <v>5</v>
@@ -11923,10 +11917,10 @@
     </row>
     <row r="626" spans="3:7">
       <c r="C626" s="6">
-        <v>13522</v>
+        <v>13822</v>
       </c>
       <c r="D626" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E626" s="5">
         <v>6</v>
@@ -11940,10 +11934,10 @@
     </row>
     <row r="627" spans="3:7">
       <c r="C627" s="6">
-        <v>13523</v>
+        <v>13823</v>
       </c>
       <c r="D627" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E627" s="5">
         <v>7</v>
@@ -11957,10 +11951,10 @@
     </row>
     <row r="628" spans="3:7">
       <c r="C628" s="6">
-        <v>13524</v>
+        <v>13824</v>
       </c>
       <c r="D628" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E628" s="5">
         <v>8</v>
@@ -11974,10 +11968,10 @@
     </row>
     <row r="629" spans="3:7">
       <c r="C629" s="6">
-        <v>13525</v>
+        <v>13825</v>
       </c>
       <c r="D629" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E629" s="5">
         <v>9</v>
@@ -11986,890 +11980,6 @@
         <v>42</v>
       </c>
       <c r="G629" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="631" spans="1:8">
-      <c r="A631" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C631" s="6">
-        <v>13601</v>
-      </c>
-      <c r="D631" s="3">
-        <v>136</v>
-      </c>
-      <c r="E631" s="5">
-        <v>1</v>
-      </c>
-      <c r="F631" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G631" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H631" s="3">
-        <v>20415</v>
-      </c>
-    </row>
-    <row r="632" spans="1:8">
-      <c r="A632" s="1"/>
-      <c r="B632" s="1"/>
-      <c r="C632" s="6">
-        <v>13602</v>
-      </c>
-      <c r="D632" s="3">
-        <v>136</v>
-      </c>
-      <c r="E632" s="5">
-        <v>1</v>
-      </c>
-      <c r="F632" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G632" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H632" s="3">
-        <v>20416</v>
-      </c>
-    </row>
-    <row r="633" spans="3:8">
-      <c r="C633" s="6">
-        <v>13603</v>
-      </c>
-      <c r="D633" s="3">
-        <v>136</v>
-      </c>
-      <c r="E633" s="5">
-        <v>1</v>
-      </c>
-      <c r="F633" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G633" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H633" s="3">
-        <v>20417</v>
-      </c>
-    </row>
-    <row r="634" spans="3:8">
-      <c r="C634" s="6">
-        <v>13604</v>
-      </c>
-      <c r="D634" s="3">
-        <v>136</v>
-      </c>
-      <c r="E634" s="3">
-        <v>1</v>
-      </c>
-      <c r="F634" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G634" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H634" s="3">
-        <v>20418</v>
-      </c>
-    </row>
-    <row r="635" spans="3:7">
-      <c r="C635" s="6">
-        <v>13605</v>
-      </c>
-      <c r="D635" s="3">
-        <v>136</v>
-      </c>
-      <c r="E635" s="5">
-        <v>3</v>
-      </c>
-      <c r="F635" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G635" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="636" spans="3:7">
-      <c r="C636" s="6">
-        <v>13606</v>
-      </c>
-      <c r="D636" s="3">
-        <v>136</v>
-      </c>
-      <c r="E636" s="5">
-        <v>10</v>
-      </c>
-      <c r="F636" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G636" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="637" spans="3:7">
-      <c r="C637" s="6">
-        <v>13607</v>
-      </c>
-      <c r="D637" s="3">
-        <v>136</v>
-      </c>
-      <c r="E637" s="5">
-        <v>10</v>
-      </c>
-      <c r="F637" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G637" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="638" spans="3:7">
-      <c r="C638" s="6">
-        <v>13608</v>
-      </c>
-      <c r="D638" s="3">
-        <v>136</v>
-      </c>
-      <c r="E638" s="5">
-        <v>10</v>
-      </c>
-      <c r="F638" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G638" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="639" spans="3:7">
-      <c r="C639" s="6">
-        <v>13609</v>
-      </c>
-      <c r="D639" s="3">
-        <v>136</v>
-      </c>
-      <c r="E639" s="5">
-        <v>10</v>
-      </c>
-      <c r="F639" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G639" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="640" spans="3:7">
-      <c r="C640" s="6">
-        <v>13610</v>
-      </c>
-      <c r="D640" s="3">
-        <v>136</v>
-      </c>
-      <c r="E640" s="5">
-        <v>10</v>
-      </c>
-      <c r="F640" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G640" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="641" spans="3:7">
-      <c r="C641" s="6">
-        <v>13611</v>
-      </c>
-      <c r="D641" s="3">
-        <v>136</v>
-      </c>
-      <c r="E641" s="5">
-        <v>9</v>
-      </c>
-      <c r="F641" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G641" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="642" spans="3:7">
-      <c r="C642" s="6">
-        <v>13612</v>
-      </c>
-      <c r="D642" s="3">
-        <v>136</v>
-      </c>
-      <c r="E642" s="5">
-        <v>10</v>
-      </c>
-      <c r="F642" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G642" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="643" spans="3:7">
-      <c r="C643" s="6">
-        <v>13613</v>
-      </c>
-      <c r="D643" s="3">
-        <v>136</v>
-      </c>
-      <c r="E643" s="5">
-        <v>9</v>
-      </c>
-      <c r="F643" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G643" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="644" spans="3:7">
-      <c r="C644" s="6">
-        <v>13614</v>
-      </c>
-      <c r="D644" s="3">
-        <v>136</v>
-      </c>
-      <c r="E644" s="5">
-        <v>9</v>
-      </c>
-      <c r="F644" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G644" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="645" spans="3:7">
-      <c r="C645" s="6">
-        <v>13615</v>
-      </c>
-      <c r="D645" s="3">
-        <v>136</v>
-      </c>
-      <c r="E645" s="5">
-        <v>9</v>
-      </c>
-      <c r="F645" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G645" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="646" spans="3:7">
-      <c r="C646" s="6">
-        <v>13616</v>
-      </c>
-      <c r="D646" s="3">
-        <v>136</v>
-      </c>
-      <c r="E646" s="5">
-        <v>2</v>
-      </c>
-      <c r="F646" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G646" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="647" spans="3:7">
-      <c r="C647" s="6">
-        <v>13617</v>
-      </c>
-      <c r="D647" s="3">
-        <v>136</v>
-      </c>
-      <c r="E647" s="3">
-        <v>9</v>
-      </c>
-      <c r="F647" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G647" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="648" spans="3:7">
-      <c r="C648" s="6">
-        <v>13618</v>
-      </c>
-      <c r="D648" s="3">
-        <v>136</v>
-      </c>
-      <c r="E648" s="5">
-        <v>9</v>
-      </c>
-      <c r="F648" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G648" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="649" spans="3:7">
-      <c r="C649" s="6">
-        <v>13619</v>
-      </c>
-      <c r="D649" s="3">
-        <v>136</v>
-      </c>
-      <c r="E649" s="5">
-        <v>10</v>
-      </c>
-      <c r="F649" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G649" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="650" spans="3:7">
-      <c r="C650" s="6">
-        <v>13620</v>
-      </c>
-      <c r="D650" s="3">
-        <v>136</v>
-      </c>
-      <c r="E650" s="5">
-        <v>9</v>
-      </c>
-      <c r="F650" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G650" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="651" spans="3:7">
-      <c r="C651" s="6">
-        <v>13621</v>
-      </c>
-      <c r="D651" s="3">
-        <v>136</v>
-      </c>
-      <c r="E651" s="5">
-        <v>5</v>
-      </c>
-      <c r="F651" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G651" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="652" spans="3:7">
-      <c r="C652" s="6">
-        <v>13622</v>
-      </c>
-      <c r="D652" s="3">
-        <v>136</v>
-      </c>
-      <c r="E652" s="5">
-        <v>6</v>
-      </c>
-      <c r="F652" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G652" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="653" spans="3:7">
-      <c r="C653" s="6">
-        <v>13623</v>
-      </c>
-      <c r="D653" s="3">
-        <v>136</v>
-      </c>
-      <c r="E653" s="5">
-        <v>7</v>
-      </c>
-      <c r="F653" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G653" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="654" spans="3:7">
-      <c r="C654" s="6">
-        <v>13624</v>
-      </c>
-      <c r="D654" s="3">
-        <v>136</v>
-      </c>
-      <c r="E654" s="5">
-        <v>8</v>
-      </c>
-      <c r="F654" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G654" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="655" spans="3:7">
-      <c r="C655" s="6">
-        <v>13625</v>
-      </c>
-      <c r="D655" s="3">
-        <v>136</v>
-      </c>
-      <c r="E655" s="5">
-        <v>9</v>
-      </c>
-      <c r="F655" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G655" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="657" spans="1:8">
-      <c r="A657" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C657" s="6">
-        <v>13701</v>
-      </c>
-      <c r="D657" s="3">
-        <v>137</v>
-      </c>
-      <c r="E657" s="5">
-        <v>1</v>
-      </c>
-      <c r="F657" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G657" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H657" s="3">
-        <v>20445</v>
-      </c>
-    </row>
-    <row r="658" spans="1:8">
-      <c r="A658" s="1"/>
-      <c r="B658" s="1"/>
-      <c r="C658" s="6">
-        <v>13702</v>
-      </c>
-      <c r="D658" s="3">
-        <v>137</v>
-      </c>
-      <c r="E658" s="5">
-        <v>1</v>
-      </c>
-      <c r="F658" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G658" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H658" s="3">
-        <v>20446</v>
-      </c>
-    </row>
-    <row r="659" spans="3:8">
-      <c r="C659" s="6">
-        <v>13703</v>
-      </c>
-      <c r="D659" s="3">
-        <v>137</v>
-      </c>
-      <c r="E659" s="5">
-        <v>1</v>
-      </c>
-      <c r="F659" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G659" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H659" s="3">
-        <v>20447</v>
-      </c>
-    </row>
-    <row r="660" spans="3:8">
-      <c r="C660" s="6">
-        <v>13704</v>
-      </c>
-      <c r="D660" s="3">
-        <v>137</v>
-      </c>
-      <c r="E660" s="3">
-        <v>1</v>
-      </c>
-      <c r="F660" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G660" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H660" s="3">
-        <v>20448</v>
-      </c>
-    </row>
-    <row r="661" spans="3:7">
-      <c r="C661" s="6">
-        <v>13705</v>
-      </c>
-      <c r="D661" s="3">
-        <v>137</v>
-      </c>
-      <c r="E661" s="5">
-        <v>3</v>
-      </c>
-      <c r="F661" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G661" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="662" spans="3:7">
-      <c r="C662" s="6">
-        <v>13706</v>
-      </c>
-      <c r="D662" s="3">
-        <v>137</v>
-      </c>
-      <c r="E662" s="5">
-        <v>10</v>
-      </c>
-      <c r="F662" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G662" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="663" spans="3:7">
-      <c r="C663" s="6">
-        <v>13707</v>
-      </c>
-      <c r="D663" s="3">
-        <v>137</v>
-      </c>
-      <c r="E663" s="5">
-        <v>10</v>
-      </c>
-      <c r="F663" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G663" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="664" spans="3:7">
-      <c r="C664" s="6">
-        <v>13708</v>
-      </c>
-      <c r="D664" s="3">
-        <v>137</v>
-      </c>
-      <c r="E664" s="5">
-        <v>10</v>
-      </c>
-      <c r="F664" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G664" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="665" spans="3:7">
-      <c r="C665" s="6">
-        <v>13709</v>
-      </c>
-      <c r="D665" s="3">
-        <v>137</v>
-      </c>
-      <c r="E665" s="5">
-        <v>10</v>
-      </c>
-      <c r="F665" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G665" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="666" spans="3:7">
-      <c r="C666" s="6">
-        <v>13710</v>
-      </c>
-      <c r="D666" s="3">
-        <v>137</v>
-      </c>
-      <c r="E666" s="5">
-        <v>10</v>
-      </c>
-      <c r="F666" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G666" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="667" spans="3:7">
-      <c r="C667" s="6">
-        <v>13711</v>
-      </c>
-      <c r="D667" s="3">
-        <v>137</v>
-      </c>
-      <c r="E667" s="5">
-        <v>9</v>
-      </c>
-      <c r="F667" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G667" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="668" spans="3:7">
-      <c r="C668" s="6">
-        <v>13712</v>
-      </c>
-      <c r="D668" s="3">
-        <v>137</v>
-      </c>
-      <c r="E668" s="5">
-        <v>10</v>
-      </c>
-      <c r="F668" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G668" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="669" spans="3:7">
-      <c r="C669" s="6">
-        <v>13713</v>
-      </c>
-      <c r="D669" s="3">
-        <v>137</v>
-      </c>
-      <c r="E669" s="5">
-        <v>9</v>
-      </c>
-      <c r="F669" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G669" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="670" spans="3:7">
-      <c r="C670" s="6">
-        <v>13714</v>
-      </c>
-      <c r="D670" s="3">
-        <v>137</v>
-      </c>
-      <c r="E670" s="5">
-        <v>9</v>
-      </c>
-      <c r="F670" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G670" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="671" spans="3:7">
-      <c r="C671" s="6">
-        <v>13715</v>
-      </c>
-      <c r="D671" s="3">
-        <v>137</v>
-      </c>
-      <c r="E671" s="5">
-        <v>9</v>
-      </c>
-      <c r="F671" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G671" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="672" spans="3:7">
-      <c r="C672" s="6">
-        <v>13716</v>
-      </c>
-      <c r="D672" s="3">
-        <v>137</v>
-      </c>
-      <c r="E672" s="5">
-        <v>2</v>
-      </c>
-      <c r="F672" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G672" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="673" spans="3:7">
-      <c r="C673" s="6">
-        <v>13717</v>
-      </c>
-      <c r="D673" s="3">
-        <v>137</v>
-      </c>
-      <c r="E673" s="3">
-        <v>9</v>
-      </c>
-      <c r="F673" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G673" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="674" spans="3:7">
-      <c r="C674" s="6">
-        <v>13718</v>
-      </c>
-      <c r="D674" s="3">
-        <v>137</v>
-      </c>
-      <c r="E674" s="5">
-        <v>9</v>
-      </c>
-      <c r="F674" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G674" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="675" spans="3:7">
-      <c r="C675" s="6">
-        <v>13719</v>
-      </c>
-      <c r="D675" s="3">
-        <v>137</v>
-      </c>
-      <c r="E675" s="5">
-        <v>10</v>
-      </c>
-      <c r="F675" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G675" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="676" spans="3:7">
-      <c r="C676" s="6">
-        <v>13720</v>
-      </c>
-      <c r="D676" s="3">
-        <v>137</v>
-      </c>
-      <c r="E676" s="5">
-        <v>9</v>
-      </c>
-      <c r="F676" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G676" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="677" spans="3:7">
-      <c r="C677" s="6">
-        <v>13721</v>
-      </c>
-      <c r="D677" s="3">
-        <v>137</v>
-      </c>
-      <c r="E677" s="5">
-        <v>5</v>
-      </c>
-      <c r="F677" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G677" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="678" spans="3:7">
-      <c r="C678" s="6">
-        <v>13722</v>
-      </c>
-      <c r="D678" s="3">
-        <v>137</v>
-      </c>
-      <c r="E678" s="5">
-        <v>6</v>
-      </c>
-      <c r="F678" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G678" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="679" spans="3:7">
-      <c r="C679" s="6">
-        <v>13723</v>
-      </c>
-      <c r="D679" s="3">
-        <v>137</v>
-      </c>
-      <c r="E679" s="5">
-        <v>7</v>
-      </c>
-      <c r="F679" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G679" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="680" spans="3:7">
-      <c r="C680" s="6">
-        <v>13724</v>
-      </c>
-      <c r="D680" s="3">
-        <v>137</v>
-      </c>
-      <c r="E680" s="5">
-        <v>8</v>
-      </c>
-      <c r="F680" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G680" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="681" spans="3:7">
-      <c r="C681" s="6">
-        <v>13725</v>
-      </c>
-      <c r="D681" s="3">
-        <v>137</v>
-      </c>
-      <c r="E681" s="5">
-        <v>9</v>
-      </c>
-      <c r="F681" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G681" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -12995,10 +12105,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -13013,10 +12123,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -13031,10 +12141,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -13049,10 +12159,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H9" s="5">
         <v>20304</v>
@@ -13069,10 +12179,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -13172,10 +12282,10 @@
         <v>203</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="76">
   <si>
     <t>Id</t>
   </si>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t>#先锋138区凤凰于飞</t>
+  </si>
+  <si>
+    <t>#先锋139</t>
+  </si>
+  <si>
+    <t>#先锋140</t>
+  </si>
+  <si>
+    <t>#先锋141</t>
   </si>
   <si>
     <t>Center</t>
@@ -1254,10 +1263,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O629"/>
+  <dimension ref="A3:O707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A596" workbookViewId="0">
-      <selection activeCell="H609" sqref="H609"/>
+    <sheetView tabSelected="1" topLeftCell="A691" workbookViewId="0">
+      <selection activeCell="M691" sqref="M691"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11980,6 +11989,1332 @@
         <v>42</v>
       </c>
       <c r="G629" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8">
+      <c r="A631" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C631" s="6">
+        <v>13901</v>
+      </c>
+      <c r="D631" s="3">
+        <v>139</v>
+      </c>
+      <c r="E631" s="5">
+        <v>1</v>
+      </c>
+      <c r="F631" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G631" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H631" s="3">
+        <v>20475</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8">
+      <c r="A632" s="1"/>
+      <c r="B632" s="1"/>
+      <c r="C632" s="6">
+        <v>13902</v>
+      </c>
+      <c r="D632" s="3">
+        <v>139</v>
+      </c>
+      <c r="E632" s="5">
+        <v>1</v>
+      </c>
+      <c r="F632" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G632" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H632" s="3">
+        <v>20476</v>
+      </c>
+    </row>
+    <row r="633" spans="3:8">
+      <c r="C633" s="6">
+        <v>13903</v>
+      </c>
+      <c r="D633" s="3">
+        <v>139</v>
+      </c>
+      <c r="E633" s="5">
+        <v>1</v>
+      </c>
+      <c r="F633" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G633" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H633" s="3">
+        <v>20477</v>
+      </c>
+    </row>
+    <row r="634" spans="3:8">
+      <c r="C634" s="6">
+        <v>13904</v>
+      </c>
+      <c r="D634" s="3">
+        <v>139</v>
+      </c>
+      <c r="E634" s="3">
+        <v>1</v>
+      </c>
+      <c r="F634" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G634" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H634" s="3">
+        <v>20478</v>
+      </c>
+    </row>
+    <row r="635" spans="3:7">
+      <c r="C635" s="6">
+        <v>13905</v>
+      </c>
+      <c r="D635" s="3">
+        <v>139</v>
+      </c>
+      <c r="E635" s="5">
+        <v>3</v>
+      </c>
+      <c r="F635" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G635" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="636" spans="3:7">
+      <c r="C636" s="6">
+        <v>13906</v>
+      </c>
+      <c r="D636" s="3">
+        <v>139</v>
+      </c>
+      <c r="E636" s="5">
+        <v>10</v>
+      </c>
+      <c r="F636" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G636" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="637" spans="3:7">
+      <c r="C637" s="6">
+        <v>13907</v>
+      </c>
+      <c r="D637" s="3">
+        <v>139</v>
+      </c>
+      <c r="E637" s="5">
+        <v>10</v>
+      </c>
+      <c r="F637" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G637" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="638" spans="3:7">
+      <c r="C638" s="6">
+        <v>13908</v>
+      </c>
+      <c r="D638" s="3">
+        <v>139</v>
+      </c>
+      <c r="E638" s="5">
+        <v>10</v>
+      </c>
+      <c r="F638" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G638" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="639" spans="3:7">
+      <c r="C639" s="6">
+        <v>13909</v>
+      </c>
+      <c r="D639" s="3">
+        <v>139</v>
+      </c>
+      <c r="E639" s="5">
+        <v>10</v>
+      </c>
+      <c r="F639" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G639" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="640" spans="3:7">
+      <c r="C640" s="6">
+        <v>13910</v>
+      </c>
+      <c r="D640" s="3">
+        <v>139</v>
+      </c>
+      <c r="E640" s="5">
+        <v>10</v>
+      </c>
+      <c r="F640" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G640" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="641" spans="3:7">
+      <c r="C641" s="6">
+        <v>13911</v>
+      </c>
+      <c r="D641" s="3">
+        <v>139</v>
+      </c>
+      <c r="E641" s="5">
+        <v>9</v>
+      </c>
+      <c r="F641" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G641" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="642" spans="3:7">
+      <c r="C642" s="6">
+        <v>13912</v>
+      </c>
+      <c r="D642" s="3">
+        <v>139</v>
+      </c>
+      <c r="E642" s="5">
+        <v>10</v>
+      </c>
+      <c r="F642" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G642" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="643" spans="3:7">
+      <c r="C643" s="6">
+        <v>13913</v>
+      </c>
+      <c r="D643" s="3">
+        <v>139</v>
+      </c>
+      <c r="E643" s="5">
+        <v>9</v>
+      </c>
+      <c r="F643" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G643" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="644" spans="3:7">
+      <c r="C644" s="6">
+        <v>13914</v>
+      </c>
+      <c r="D644" s="3">
+        <v>139</v>
+      </c>
+      <c r="E644" s="5">
+        <v>9</v>
+      </c>
+      <c r="F644" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G644" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="645" spans="3:7">
+      <c r="C645" s="6">
+        <v>13915</v>
+      </c>
+      <c r="D645" s="3">
+        <v>139</v>
+      </c>
+      <c r="E645" s="5">
+        <v>9</v>
+      </c>
+      <c r="F645" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G645" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="646" spans="3:7">
+      <c r="C646" s="6">
+        <v>13916</v>
+      </c>
+      <c r="D646" s="3">
+        <v>139</v>
+      </c>
+      <c r="E646" s="5">
+        <v>2</v>
+      </c>
+      <c r="F646" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G646" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="647" spans="3:7">
+      <c r="C647" s="6">
+        <v>13917</v>
+      </c>
+      <c r="D647" s="3">
+        <v>139</v>
+      </c>
+      <c r="E647" s="3">
+        <v>9</v>
+      </c>
+      <c r="F647" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G647" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="648" spans="3:7">
+      <c r="C648" s="6">
+        <v>13918</v>
+      </c>
+      <c r="D648" s="3">
+        <v>139</v>
+      </c>
+      <c r="E648" s="5">
+        <v>9</v>
+      </c>
+      <c r="F648" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G648" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="649" spans="3:7">
+      <c r="C649" s="6">
+        <v>13919</v>
+      </c>
+      <c r="D649" s="3">
+        <v>139</v>
+      </c>
+      <c r="E649" s="5">
+        <v>10</v>
+      </c>
+      <c r="F649" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G649" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="650" spans="3:7">
+      <c r="C650" s="6">
+        <v>13920</v>
+      </c>
+      <c r="D650" s="3">
+        <v>139</v>
+      </c>
+      <c r="E650" s="5">
+        <v>9</v>
+      </c>
+      <c r="F650" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G650" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="651" spans="3:7">
+      <c r="C651" s="6">
+        <v>13921</v>
+      </c>
+      <c r="D651" s="3">
+        <v>139</v>
+      </c>
+      <c r="E651" s="5">
+        <v>5</v>
+      </c>
+      <c r="F651" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G651" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="652" spans="3:7">
+      <c r="C652" s="6">
+        <v>13922</v>
+      </c>
+      <c r="D652" s="3">
+        <v>139</v>
+      </c>
+      <c r="E652" s="5">
+        <v>6</v>
+      </c>
+      <c r="F652" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G652" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="653" spans="3:7">
+      <c r="C653" s="6">
+        <v>13923</v>
+      </c>
+      <c r="D653" s="3">
+        <v>139</v>
+      </c>
+      <c r="E653" s="5">
+        <v>7</v>
+      </c>
+      <c r="F653" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G653" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="654" spans="3:7">
+      <c r="C654" s="6">
+        <v>13924</v>
+      </c>
+      <c r="D654" s="3">
+        <v>139</v>
+      </c>
+      <c r="E654" s="5">
+        <v>8</v>
+      </c>
+      <c r="F654" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G654" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="655" spans="3:7">
+      <c r="C655" s="6">
+        <v>13925</v>
+      </c>
+      <c r="D655" s="3">
+        <v>139</v>
+      </c>
+      <c r="E655" s="5">
+        <v>9</v>
+      </c>
+      <c r="F655" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G655" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8">
+      <c r="A657" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C657" s="6">
+        <v>14001</v>
+      </c>
+      <c r="D657" s="3">
+        <v>140</v>
+      </c>
+      <c r="E657" s="5">
+        <v>1</v>
+      </c>
+      <c r="F657" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G657" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H657" s="3">
+        <v>20505</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8">
+      <c r="A658" s="1"/>
+      <c r="B658" s="1"/>
+      <c r="C658" s="6">
+        <v>14002</v>
+      </c>
+      <c r="D658" s="3">
+        <v>140</v>
+      </c>
+      <c r="E658" s="5">
+        <v>1</v>
+      </c>
+      <c r="F658" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G658" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H658" s="3">
+        <v>20506</v>
+      </c>
+    </row>
+    <row r="659" spans="3:8">
+      <c r="C659" s="6">
+        <v>14003</v>
+      </c>
+      <c r="D659" s="3">
+        <v>140</v>
+      </c>
+      <c r="E659" s="5">
+        <v>1</v>
+      </c>
+      <c r="F659" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G659" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H659" s="3">
+        <v>20507</v>
+      </c>
+    </row>
+    <row r="660" spans="3:8">
+      <c r="C660" s="6">
+        <v>14004</v>
+      </c>
+      <c r="D660" s="3">
+        <v>140</v>
+      </c>
+      <c r="E660" s="3">
+        <v>1</v>
+      </c>
+      <c r="F660" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G660" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H660" s="3">
+        <v>20508</v>
+      </c>
+    </row>
+    <row r="661" spans="3:7">
+      <c r="C661" s="6">
+        <v>14005</v>
+      </c>
+      <c r="D661" s="3">
+        <v>140</v>
+      </c>
+      <c r="E661" s="5">
+        <v>3</v>
+      </c>
+      <c r="F661" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G661" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="662" spans="3:7">
+      <c r="C662" s="6">
+        <v>14006</v>
+      </c>
+      <c r="D662" s="3">
+        <v>140</v>
+      </c>
+      <c r="E662" s="5">
+        <v>10</v>
+      </c>
+      <c r="F662" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G662" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="663" spans="3:7">
+      <c r="C663" s="6">
+        <v>14007</v>
+      </c>
+      <c r="D663" s="3">
+        <v>140</v>
+      </c>
+      <c r="E663" s="5">
+        <v>10</v>
+      </c>
+      <c r="F663" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G663" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="664" spans="3:7">
+      <c r="C664" s="6">
+        <v>14008</v>
+      </c>
+      <c r="D664" s="3">
+        <v>140</v>
+      </c>
+      <c r="E664" s="5">
+        <v>10</v>
+      </c>
+      <c r="F664" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G664" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="665" spans="3:7">
+      <c r="C665" s="6">
+        <v>14009</v>
+      </c>
+      <c r="D665" s="3">
+        <v>140</v>
+      </c>
+      <c r="E665" s="5">
+        <v>10</v>
+      </c>
+      <c r="F665" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G665" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="666" spans="3:7">
+      <c r="C666" s="6">
+        <v>14010</v>
+      </c>
+      <c r="D666" s="3">
+        <v>140</v>
+      </c>
+      <c r="E666" s="5">
+        <v>10</v>
+      </c>
+      <c r="F666" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G666" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="667" spans="3:7">
+      <c r="C667" s="6">
+        <v>14011</v>
+      </c>
+      <c r="D667" s="3">
+        <v>140</v>
+      </c>
+      <c r="E667" s="5">
+        <v>9</v>
+      </c>
+      <c r="F667" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G667" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="668" spans="3:7">
+      <c r="C668" s="6">
+        <v>14012</v>
+      </c>
+      <c r="D668" s="3">
+        <v>140</v>
+      </c>
+      <c r="E668" s="5">
+        <v>10</v>
+      </c>
+      <c r="F668" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G668" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="669" spans="3:7">
+      <c r="C669" s="6">
+        <v>14013</v>
+      </c>
+      <c r="D669" s="3">
+        <v>140</v>
+      </c>
+      <c r="E669" s="5">
+        <v>9</v>
+      </c>
+      <c r="F669" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G669" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="670" spans="3:7">
+      <c r="C670" s="6">
+        <v>14014</v>
+      </c>
+      <c r="D670" s="3">
+        <v>140</v>
+      </c>
+      <c r="E670" s="5">
+        <v>9</v>
+      </c>
+      <c r="F670" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G670" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="671" spans="3:7">
+      <c r="C671" s="6">
+        <v>14015</v>
+      </c>
+      <c r="D671" s="3">
+        <v>140</v>
+      </c>
+      <c r="E671" s="5">
+        <v>9</v>
+      </c>
+      <c r="F671" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G671" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="672" spans="3:7">
+      <c r="C672" s="6">
+        <v>14016</v>
+      </c>
+      <c r="D672" s="3">
+        <v>140</v>
+      </c>
+      <c r="E672" s="5">
+        <v>2</v>
+      </c>
+      <c r="F672" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G672" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="673" spans="3:7">
+      <c r="C673" s="6">
+        <v>14017</v>
+      </c>
+      <c r="D673" s="3">
+        <v>140</v>
+      </c>
+      <c r="E673" s="3">
+        <v>9</v>
+      </c>
+      <c r="F673" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G673" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="674" spans="3:7">
+      <c r="C674" s="6">
+        <v>14018</v>
+      </c>
+      <c r="D674" s="3">
+        <v>140</v>
+      </c>
+      <c r="E674" s="5">
+        <v>9</v>
+      </c>
+      <c r="F674" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G674" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="675" spans="3:7">
+      <c r="C675" s="6">
+        <v>14019</v>
+      </c>
+      <c r="D675" s="3">
+        <v>140</v>
+      </c>
+      <c r="E675" s="5">
+        <v>10</v>
+      </c>
+      <c r="F675" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G675" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="676" spans="3:7">
+      <c r="C676" s="6">
+        <v>14020</v>
+      </c>
+      <c r="D676" s="3">
+        <v>140</v>
+      </c>
+      <c r="E676" s="5">
+        <v>9</v>
+      </c>
+      <c r="F676" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G676" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="677" spans="3:7">
+      <c r="C677" s="6">
+        <v>14021</v>
+      </c>
+      <c r="D677" s="3">
+        <v>140</v>
+      </c>
+      <c r="E677" s="5">
+        <v>5</v>
+      </c>
+      <c r="F677" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G677" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="678" spans="3:7">
+      <c r="C678" s="6">
+        <v>14022</v>
+      </c>
+      <c r="D678" s="3">
+        <v>140</v>
+      </c>
+      <c r="E678" s="5">
+        <v>6</v>
+      </c>
+      <c r="F678" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G678" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="679" spans="3:7">
+      <c r="C679" s="6">
+        <v>14023</v>
+      </c>
+      <c r="D679" s="3">
+        <v>140</v>
+      </c>
+      <c r="E679" s="5">
+        <v>7</v>
+      </c>
+      <c r="F679" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G679" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="680" spans="3:7">
+      <c r="C680" s="6">
+        <v>14024</v>
+      </c>
+      <c r="D680" s="3">
+        <v>140</v>
+      </c>
+      <c r="E680" s="5">
+        <v>8</v>
+      </c>
+      <c r="F680" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G680" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="681" spans="3:7">
+      <c r="C681" s="6">
+        <v>14025</v>
+      </c>
+      <c r="D681" s="3">
+        <v>140</v>
+      </c>
+      <c r="E681" s="5">
+        <v>9</v>
+      </c>
+      <c r="F681" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G681" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8">
+      <c r="A683" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C683" s="6">
+        <v>14101</v>
+      </c>
+      <c r="D683" s="3">
+        <v>141</v>
+      </c>
+      <c r="E683" s="5">
+        <v>1</v>
+      </c>
+      <c r="F683" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G683" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H683" s="3">
+        <v>20525</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8">
+      <c r="A684" s="1"/>
+      <c r="B684" s="1"/>
+      <c r="C684" s="6">
+        <v>14102</v>
+      </c>
+      <c r="D684" s="3">
+        <v>141</v>
+      </c>
+      <c r="E684" s="5">
+        <v>1</v>
+      </c>
+      <c r="F684" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G684" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H684" s="3">
+        <v>20526</v>
+      </c>
+    </row>
+    <row r="685" spans="3:8">
+      <c r="C685" s="6">
+        <v>14103</v>
+      </c>
+      <c r="D685" s="3">
+        <v>141</v>
+      </c>
+      <c r="E685" s="5">
+        <v>1</v>
+      </c>
+      <c r="F685" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G685" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H685" s="3">
+        <v>20527</v>
+      </c>
+    </row>
+    <row r="686" spans="3:8">
+      <c r="C686" s="6">
+        <v>14104</v>
+      </c>
+      <c r="D686" s="3">
+        <v>141</v>
+      </c>
+      <c r="E686" s="3">
+        <v>1</v>
+      </c>
+      <c r="F686" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G686" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H686" s="3">
+        <v>20528</v>
+      </c>
+    </row>
+    <row r="687" spans="3:7">
+      <c r="C687" s="6">
+        <v>14105</v>
+      </c>
+      <c r="D687" s="3">
+        <v>141</v>
+      </c>
+      <c r="E687" s="5">
+        <v>3</v>
+      </c>
+      <c r="F687" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G687" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="688" spans="3:7">
+      <c r="C688" s="6">
+        <v>14106</v>
+      </c>
+      <c r="D688" s="3">
+        <v>141</v>
+      </c>
+      <c r="E688" s="5">
+        <v>10</v>
+      </c>
+      <c r="F688" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G688" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="689" spans="3:7">
+      <c r="C689" s="6">
+        <v>14107</v>
+      </c>
+      <c r="D689" s="3">
+        <v>141</v>
+      </c>
+      <c r="E689" s="5">
+        <v>10</v>
+      </c>
+      <c r="F689" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G689" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="690" spans="3:7">
+      <c r="C690" s="6">
+        <v>14108</v>
+      </c>
+      <c r="D690" s="3">
+        <v>141</v>
+      </c>
+      <c r="E690" s="5">
+        <v>10</v>
+      </c>
+      <c r="F690" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G690" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="691" spans="3:7">
+      <c r="C691" s="6">
+        <v>14109</v>
+      </c>
+      <c r="D691" s="3">
+        <v>141</v>
+      </c>
+      <c r="E691" s="5">
+        <v>10</v>
+      </c>
+      <c r="F691" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G691" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="692" spans="3:7">
+      <c r="C692" s="6">
+        <v>14110</v>
+      </c>
+      <c r="D692" s="3">
+        <v>141</v>
+      </c>
+      <c r="E692" s="5">
+        <v>10</v>
+      </c>
+      <c r="F692" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G692" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="693" spans="3:7">
+      <c r="C693" s="6">
+        <v>14111</v>
+      </c>
+      <c r="D693" s="3">
+        <v>141</v>
+      </c>
+      <c r="E693" s="5">
+        <v>9</v>
+      </c>
+      <c r="F693" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G693" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="694" spans="3:7">
+      <c r="C694" s="6">
+        <v>14112</v>
+      </c>
+      <c r="D694" s="3">
+        <v>141</v>
+      </c>
+      <c r="E694" s="5">
+        <v>10</v>
+      </c>
+      <c r="F694" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G694" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="695" spans="3:7">
+      <c r="C695" s="6">
+        <v>14113</v>
+      </c>
+      <c r="D695" s="3">
+        <v>141</v>
+      </c>
+      <c r="E695" s="5">
+        <v>9</v>
+      </c>
+      <c r="F695" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G695" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="696" spans="3:7">
+      <c r="C696" s="6">
+        <v>14114</v>
+      </c>
+      <c r="D696" s="3">
+        <v>141</v>
+      </c>
+      <c r="E696" s="5">
+        <v>9</v>
+      </c>
+      <c r="F696" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G696" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="697" spans="3:7">
+      <c r="C697" s="6">
+        <v>14115</v>
+      </c>
+      <c r="D697" s="3">
+        <v>141</v>
+      </c>
+      <c r="E697" s="5">
+        <v>9</v>
+      </c>
+      <c r="F697" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G697" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="698" spans="3:7">
+      <c r="C698" s="6">
+        <v>14116</v>
+      </c>
+      <c r="D698" s="3">
+        <v>141</v>
+      </c>
+      <c r="E698" s="5">
+        <v>2</v>
+      </c>
+      <c r="F698" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G698" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="699" spans="3:7">
+      <c r="C699" s="6">
+        <v>14117</v>
+      </c>
+      <c r="D699" s="3">
+        <v>141</v>
+      </c>
+      <c r="E699" s="3">
+        <v>9</v>
+      </c>
+      <c r="F699" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G699" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="700" spans="3:7">
+      <c r="C700" s="6">
+        <v>14118</v>
+      </c>
+      <c r="D700" s="3">
+        <v>141</v>
+      </c>
+      <c r="E700" s="5">
+        <v>9</v>
+      </c>
+      <c r="F700" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G700" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="701" spans="3:7">
+      <c r="C701" s="6">
+        <v>14119</v>
+      </c>
+      <c r="D701" s="3">
+        <v>141</v>
+      </c>
+      <c r="E701" s="5">
+        <v>10</v>
+      </c>
+      <c r="F701" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G701" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="702" spans="3:7">
+      <c r="C702" s="6">
+        <v>14120</v>
+      </c>
+      <c r="D702" s="3">
+        <v>141</v>
+      </c>
+      <c r="E702" s="5">
+        <v>9</v>
+      </c>
+      <c r="F702" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G702" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="703" spans="3:7">
+      <c r="C703" s="6">
+        <v>14121</v>
+      </c>
+      <c r="D703" s="3">
+        <v>141</v>
+      </c>
+      <c r="E703" s="5">
+        <v>5</v>
+      </c>
+      <c r="F703" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G703" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="704" spans="3:7">
+      <c r="C704" s="6">
+        <v>14122</v>
+      </c>
+      <c r="D704" s="3">
+        <v>141</v>
+      </c>
+      <c r="E704" s="5">
+        <v>6</v>
+      </c>
+      <c r="F704" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G704" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="705" spans="3:7">
+      <c r="C705" s="6">
+        <v>14123</v>
+      </c>
+      <c r="D705" s="3">
+        <v>141</v>
+      </c>
+      <c r="E705" s="5">
+        <v>7</v>
+      </c>
+      <c r="F705" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G705" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="706" spans="3:7">
+      <c r="C706" s="6">
+        <v>14124</v>
+      </c>
+      <c r="D706" s="3">
+        <v>141</v>
+      </c>
+      <c r="E706" s="5">
+        <v>8</v>
+      </c>
+      <c r="F706" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G706" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="707" spans="3:7">
+      <c r="C707" s="6">
+        <v>14125</v>
+      </c>
+      <c r="D707" s="3">
+        <v>141</v>
+      </c>
+      <c r="E707" s="5">
+        <v>9</v>
+      </c>
+      <c r="F707" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G707" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -12105,10 +13440,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -12123,10 +13458,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -12141,10 +13476,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -12159,10 +13494,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H9" s="5">
         <v>20304</v>
@@ -12179,10 +13514,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -12282,10 +13617,10 @@
         <v>203</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -229,7 +229,7 @@
     <t>#先锋138区凤凰于飞</t>
   </si>
   <si>
-    <t>#先锋139</t>
+    <t>#先锋139吉祥如意</t>
   </si>
   <si>
     <t>#先锋140</t>
@@ -1265,8 +1265,8 @@
   <sheetPr/>
   <dimension ref="A3:O707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A691" workbookViewId="0">
-      <selection activeCell="M691" sqref="M691"/>
+    <sheetView tabSelected="1" topLeftCell="A624" workbookViewId="0">
+      <selection activeCell="A638" sqref="A638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="77">
   <si>
     <t>Id</t>
   </si>
@@ -232,10 +232,13 @@
     <t>#先锋139吉祥如意</t>
   </si>
   <si>
-    <t>#先锋140</t>
+    <t>#先锋140新年快乐</t>
   </si>
   <si>
-    <t>#先锋141</t>
+    <t>#先锋141恭喜发财</t>
+  </si>
+  <si>
+    <t>#先锋142</t>
   </si>
   <si>
     <t>Center</t>
@@ -1263,10 +1266,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O707"/>
+  <dimension ref="A3:O733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A624" workbookViewId="0">
-      <selection activeCell="A638" sqref="A638"/>
+    <sheetView tabSelected="1" topLeftCell="A696" workbookViewId="0">
+      <selection activeCell="A719" sqref="A719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13315,6 +13318,448 @@
         <v>42</v>
       </c>
       <c r="G707" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8">
+      <c r="A709" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C709" s="6">
+        <v>14201</v>
+      </c>
+      <c r="D709" s="3">
+        <v>142</v>
+      </c>
+      <c r="E709" s="5">
+        <v>1</v>
+      </c>
+      <c r="F709" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G709" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H709" s="3">
+        <v>20565</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8">
+      <c r="A710" s="1"/>
+      <c r="B710" s="1"/>
+      <c r="C710" s="6">
+        <v>14202</v>
+      </c>
+      <c r="D710" s="3">
+        <v>142</v>
+      </c>
+      <c r="E710" s="5">
+        <v>1</v>
+      </c>
+      <c r="F710" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G710" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H710" s="3">
+        <v>20566</v>
+      </c>
+    </row>
+    <row r="711" spans="3:8">
+      <c r="C711" s="6">
+        <v>14203</v>
+      </c>
+      <c r="D711" s="3">
+        <v>142</v>
+      </c>
+      <c r="E711" s="5">
+        <v>1</v>
+      </c>
+      <c r="F711" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G711" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H711" s="3">
+        <v>20567</v>
+      </c>
+    </row>
+    <row r="712" spans="3:8">
+      <c r="C712" s="6">
+        <v>14204</v>
+      </c>
+      <c r="D712" s="3">
+        <v>142</v>
+      </c>
+      <c r="E712" s="3">
+        <v>1</v>
+      </c>
+      <c r="F712" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G712" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H712" s="3">
+        <v>20568</v>
+      </c>
+    </row>
+    <row r="713" spans="3:7">
+      <c r="C713" s="6">
+        <v>14205</v>
+      </c>
+      <c r="D713" s="3">
+        <v>142</v>
+      </c>
+      <c r="E713" s="5">
+        <v>3</v>
+      </c>
+      <c r="F713" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G713" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="714" spans="3:7">
+      <c r="C714" s="6">
+        <v>14206</v>
+      </c>
+      <c r="D714" s="3">
+        <v>142</v>
+      </c>
+      <c r="E714" s="5">
+        <v>10</v>
+      </c>
+      <c r="F714" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G714" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="715" spans="3:7">
+      <c r="C715" s="6">
+        <v>14207</v>
+      </c>
+      <c r="D715" s="3">
+        <v>142</v>
+      </c>
+      <c r="E715" s="5">
+        <v>10</v>
+      </c>
+      <c r="F715" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G715" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="716" spans="3:7">
+      <c r="C716" s="6">
+        <v>14208</v>
+      </c>
+      <c r="D716" s="3">
+        <v>142</v>
+      </c>
+      <c r="E716" s="5">
+        <v>10</v>
+      </c>
+      <c r="F716" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G716" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="717" spans="3:7">
+      <c r="C717" s="6">
+        <v>14209</v>
+      </c>
+      <c r="D717" s="3">
+        <v>142</v>
+      </c>
+      <c r="E717" s="5">
+        <v>10</v>
+      </c>
+      <c r="F717" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G717" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="718" spans="3:7">
+      <c r="C718" s="6">
+        <v>14210</v>
+      </c>
+      <c r="D718" s="3">
+        <v>142</v>
+      </c>
+      <c r="E718" s="5">
+        <v>10</v>
+      </c>
+      <c r="F718" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G718" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="719" spans="3:7">
+      <c r="C719" s="6">
+        <v>14211</v>
+      </c>
+      <c r="D719" s="3">
+        <v>142</v>
+      </c>
+      <c r="E719" s="5">
+        <v>9</v>
+      </c>
+      <c r="F719" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G719" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="720" spans="3:7">
+      <c r="C720" s="6">
+        <v>14212</v>
+      </c>
+      <c r="D720" s="3">
+        <v>142</v>
+      </c>
+      <c r="E720" s="5">
+        <v>10</v>
+      </c>
+      <c r="F720" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G720" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="721" spans="3:7">
+      <c r="C721" s="6">
+        <v>14213</v>
+      </c>
+      <c r="D721" s="3">
+        <v>142</v>
+      </c>
+      <c r="E721" s="5">
+        <v>9</v>
+      </c>
+      <c r="F721" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G721" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="722" spans="3:7">
+      <c r="C722" s="6">
+        <v>14214</v>
+      </c>
+      <c r="D722" s="3">
+        <v>142</v>
+      </c>
+      <c r="E722" s="5">
+        <v>9</v>
+      </c>
+      <c r="F722" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G722" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="723" spans="3:7">
+      <c r="C723" s="6">
+        <v>14215</v>
+      </c>
+      <c r="D723" s="3">
+        <v>142</v>
+      </c>
+      <c r="E723" s="5">
+        <v>9</v>
+      </c>
+      <c r="F723" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G723" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="724" spans="3:7">
+      <c r="C724" s="6">
+        <v>14216</v>
+      </c>
+      <c r="D724" s="3">
+        <v>142</v>
+      </c>
+      <c r="E724" s="5">
+        <v>2</v>
+      </c>
+      <c r="F724" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G724" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="725" spans="3:7">
+      <c r="C725" s="6">
+        <v>14217</v>
+      </c>
+      <c r="D725" s="3">
+        <v>142</v>
+      </c>
+      <c r="E725" s="3">
+        <v>9</v>
+      </c>
+      <c r="F725" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G725" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="726" spans="3:7">
+      <c r="C726" s="6">
+        <v>14218</v>
+      </c>
+      <c r="D726" s="3">
+        <v>142</v>
+      </c>
+      <c r="E726" s="5">
+        <v>9</v>
+      </c>
+      <c r="F726" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G726" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="727" spans="3:7">
+      <c r="C727" s="6">
+        <v>14219</v>
+      </c>
+      <c r="D727" s="3">
+        <v>142</v>
+      </c>
+      <c r="E727" s="5">
+        <v>10</v>
+      </c>
+      <c r="F727" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G727" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="728" spans="3:7">
+      <c r="C728" s="6">
+        <v>14220</v>
+      </c>
+      <c r="D728" s="3">
+        <v>142</v>
+      </c>
+      <c r="E728" s="5">
+        <v>9</v>
+      </c>
+      <c r="F728" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G728" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="729" spans="3:7">
+      <c r="C729" s="6">
+        <v>14221</v>
+      </c>
+      <c r="D729" s="3">
+        <v>142</v>
+      </c>
+      <c r="E729" s="5">
+        <v>5</v>
+      </c>
+      <c r="F729" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G729" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="730" spans="3:7">
+      <c r="C730" s="6">
+        <v>14222</v>
+      </c>
+      <c r="D730" s="3">
+        <v>142</v>
+      </c>
+      <c r="E730" s="5">
+        <v>6</v>
+      </c>
+      <c r="F730" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G730" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="731" spans="3:7">
+      <c r="C731" s="6">
+        <v>14223</v>
+      </c>
+      <c r="D731" s="3">
+        <v>142</v>
+      </c>
+      <c r="E731" s="5">
+        <v>7</v>
+      </c>
+      <c r="F731" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G731" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="732" spans="3:7">
+      <c r="C732" s="6">
+        <v>14224</v>
+      </c>
+      <c r="D732" s="3">
+        <v>142</v>
+      </c>
+      <c r="E732" s="5">
+        <v>8</v>
+      </c>
+      <c r="F732" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G732" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="733" spans="3:7">
+      <c r="C733" s="6">
+        <v>14225</v>
+      </c>
+      <c r="D733" s="3">
+        <v>142</v>
+      </c>
+      <c r="E733" s="5">
+        <v>9</v>
+      </c>
+      <c r="F733" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G733" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13440,10 +13885,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -13458,10 +13903,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -13476,10 +13921,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -13494,10 +13939,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" s="5">
         <v>20304</v>
@@ -13514,10 +13959,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -13617,10 +14062,10 @@
         <v>203</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -238,7 +238,7 @@
     <t>#先锋141恭喜发财</t>
   </si>
   <si>
-    <t>#先锋142</t>
+    <t>#先锋142元宵佳节</t>
   </si>
   <si>
     <t>Center</t>
@@ -1269,7 +1269,7 @@
   <dimension ref="A3:O733"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A696" workbookViewId="0">
-      <selection activeCell="A719" sqref="A719"/>
+      <selection activeCell="A718" sqref="A718"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartSceneConfig@s.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="74">
   <si>
     <t>Id</t>
   </si>
@@ -205,28 +205,16 @@
     <t>#先锋125断桥残雪</t>
   </si>
   <si>
-    <t>#先锋127璀璨梦境</t>
-  </si>
-  <si>
     <t>#先锋128主播专服</t>
   </si>
   <si>
     <t>#先锋131花满楼</t>
   </si>
   <si>
-    <t>#先锋133奇迹之光</t>
-  </si>
-  <si>
     <t>#先锋135永恒之境</t>
   </si>
   <si>
-    <t>#先锋136烽火狼烟</t>
-  </si>
-  <si>
     <t>#先锋137千山万水</t>
-  </si>
-  <si>
-    <t>#先锋138区凤凰于飞</t>
   </si>
   <si>
     <t>#先锋139吉祥如意</t>
@@ -239,6 +227,9 @@
   </si>
   <si>
     <t>#先锋142元宵佳节</t>
+  </si>
+  <si>
+    <t>#先锋143湖光月色</t>
   </si>
   <si>
     <t>Center</t>
@@ -1266,10 +1257,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O733"/>
+  <dimension ref="A3:O655"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A696" workbookViewId="0">
-      <selection activeCell="A718" sqref="A718"/>
+    <sheetView tabSelected="1" topLeftCell="A622" workbookViewId="0">
+      <selection activeCell="K484" sqref="K484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8464,10 +8455,10 @@
         <v>58</v>
       </c>
       <c r="C423" s="6">
-        <v>12701</v>
+        <v>12801</v>
       </c>
       <c r="D423" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E423" s="5">
         <v>1</v>
@@ -8479,17 +8470,17 @@
         <v>15</v>
       </c>
       <c r="H423" s="3">
-        <v>20375</v>
+        <v>20425</v>
       </c>
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="6">
-        <v>12702</v>
+        <v>12802</v>
       </c>
       <c r="D424" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E424" s="5">
         <v>1</v>
@@ -8501,15 +8492,15 @@
         <v>16</v>
       </c>
       <c r="H424" s="3">
-        <v>20376</v>
+        <v>20426</v>
       </c>
     </row>
     <row r="425" spans="3:8">
       <c r="C425" s="6">
-        <v>12703</v>
+        <v>12803</v>
       </c>
       <c r="D425" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E425" s="5">
         <v>1</v>
@@ -8521,15 +8512,15 @@
         <v>18</v>
       </c>
       <c r="H425" s="3">
-        <v>20377</v>
+        <v>20427</v>
       </c>
     </row>
     <row r="426" spans="3:8">
       <c r="C426" s="6">
-        <v>12704</v>
+        <v>12804</v>
       </c>
       <c r="D426" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E426" s="3">
         <v>1</v>
@@ -8541,15 +8532,15 @@
         <v>19</v>
       </c>
       <c r="H426" s="3">
-        <v>20378</v>
+        <v>20428</v>
       </c>
     </row>
     <row r="427" spans="3:7">
       <c r="C427" s="6">
-        <v>12705</v>
+        <v>12805</v>
       </c>
       <c r="D427" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E427" s="5">
         <v>3</v>
@@ -8563,10 +8554,10 @@
     </row>
     <row r="428" spans="3:7">
       <c r="C428" s="6">
-        <v>12706</v>
+        <v>12806</v>
       </c>
       <c r="D428" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E428" s="5">
         <v>10</v>
@@ -8580,10 +8571,10 @@
     </row>
     <row r="429" spans="3:7">
       <c r="C429" s="6">
-        <v>12707</v>
+        <v>12807</v>
       </c>
       <c r="D429" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E429" s="5">
         <v>10</v>
@@ -8597,10 +8588,10 @@
     </row>
     <row r="430" spans="3:7">
       <c r="C430" s="6">
-        <v>12708</v>
+        <v>12808</v>
       </c>
       <c r="D430" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E430" s="5">
         <v>10</v>
@@ -8614,10 +8605,10 @@
     </row>
     <row r="431" spans="3:7">
       <c r="C431" s="6">
-        <v>12709</v>
+        <v>12809</v>
       </c>
       <c r="D431" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E431" s="5">
         <v>10</v>
@@ -8631,10 +8622,10 @@
     </row>
     <row r="432" spans="3:7">
       <c r="C432" s="6">
-        <v>12710</v>
+        <v>12810</v>
       </c>
       <c r="D432" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E432" s="5">
         <v>10</v>
@@ -8648,10 +8639,10 @@
     </row>
     <row r="433" spans="3:7">
       <c r="C433" s="6">
-        <v>12711</v>
+        <v>12811</v>
       </c>
       <c r="D433" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E433" s="5">
         <v>9</v>
@@ -8665,10 +8656,10 @@
     </row>
     <row r="434" spans="3:7">
       <c r="C434" s="6">
-        <v>12712</v>
+        <v>12812</v>
       </c>
       <c r="D434" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E434" s="5">
         <v>10</v>
@@ -8682,10 +8673,10 @@
     </row>
     <row r="435" spans="3:7">
       <c r="C435" s="6">
-        <v>12713</v>
+        <v>12813</v>
       </c>
       <c r="D435" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E435" s="5">
         <v>9</v>
@@ -8699,10 +8690,10 @@
     </row>
     <row r="436" spans="3:7">
       <c r="C436" s="6">
-        <v>12714</v>
+        <v>12814</v>
       </c>
       <c r="D436" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E436" s="5">
         <v>9</v>
@@ -8716,10 +8707,10 @@
     </row>
     <row r="437" spans="3:7">
       <c r="C437" s="6">
-        <v>12715</v>
+        <v>12815</v>
       </c>
       <c r="D437" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E437" s="5">
         <v>9</v>
@@ -8733,10 +8724,10 @@
     </row>
     <row r="438" spans="3:7">
       <c r="C438" s="6">
-        <v>12716</v>
+        <v>12816</v>
       </c>
       <c r="D438" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E438" s="5">
         <v>2</v>
@@ -8750,10 +8741,10 @@
     </row>
     <row r="439" spans="3:7">
       <c r="C439" s="6">
-        <v>12717</v>
+        <v>12817</v>
       </c>
       <c r="D439" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E439" s="3">
         <v>9</v>
@@ -8767,10 +8758,10 @@
     </row>
     <row r="440" spans="3:7">
       <c r="C440" s="6">
-        <v>12718</v>
+        <v>12818</v>
       </c>
       <c r="D440" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E440" s="5">
         <v>9</v>
@@ -8784,10 +8775,10 @@
     </row>
     <row r="441" spans="3:7">
       <c r="C441" s="6">
-        <v>12719</v>
+        <v>12819</v>
       </c>
       <c r="D441" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E441" s="5">
         <v>10</v>
@@ -8801,10 +8792,10 @@
     </row>
     <row r="442" spans="3:7">
       <c r="C442" s="6">
-        <v>12720</v>
+        <v>12820</v>
       </c>
       <c r="D442" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E442" s="5">
         <v>9</v>
@@ -8818,10 +8809,10 @@
     </row>
     <row r="443" spans="3:7">
       <c r="C443" s="6">
-        <v>12721</v>
+        <v>12821</v>
       </c>
       <c r="D443" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E443" s="5">
         <v>5</v>
@@ -8835,10 +8826,10 @@
     </row>
     <row r="444" spans="3:7">
       <c r="C444" s="6">
-        <v>12722</v>
+        <v>12822</v>
       </c>
       <c r="D444" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E444" s="5">
         <v>6</v>
@@ -8852,10 +8843,10 @@
     </row>
     <row r="445" spans="3:7">
       <c r="C445" s="6">
-        <v>12723</v>
+        <v>12823</v>
       </c>
       <c r="D445" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E445" s="5">
         <v>7</v>
@@ -8869,10 +8860,10 @@
     </row>
     <row r="446" spans="3:7">
       <c r="C446" s="6">
-        <v>12724</v>
+        <v>12824</v>
       </c>
       <c r="D446" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E446" s="5">
         <v>8</v>
@@ -8886,10 +8877,10 @@
     </row>
     <row r="447" spans="3:7">
       <c r="C447" s="6">
-        <v>12725</v>
+        <v>12825</v>
       </c>
       <c r="D447" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E447" s="5">
         <v>9</v>
@@ -8906,10 +8897,10 @@
         <v>59</v>
       </c>
       <c r="C449" s="6">
-        <v>12801</v>
+        <v>13101</v>
       </c>
       <c r="D449" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E449" s="5">
         <v>1</v>
@@ -8921,17 +8912,17 @@
         <v>15</v>
       </c>
       <c r="H449" s="3">
-        <v>20425</v>
+        <v>20515</v>
       </c>
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="6">
-        <v>12802</v>
+        <v>13102</v>
       </c>
       <c r="D450" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E450" s="5">
         <v>1</v>
@@ -8943,15 +8934,15 @@
         <v>16</v>
       </c>
       <c r="H450" s="3">
-        <v>20426</v>
+        <v>20516</v>
       </c>
     </row>
     <row r="451" spans="3:8">
       <c r="C451" s="6">
-        <v>12803</v>
+        <v>13103</v>
       </c>
       <c r="D451" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E451" s="5">
         <v>1</v>
@@ -8963,15 +8954,15 @@
         <v>18</v>
       </c>
       <c r="H451" s="3">
-        <v>20427</v>
+        <v>20517</v>
       </c>
     </row>
     <row r="452" spans="3:8">
       <c r="C452" s="6">
-        <v>12804</v>
+        <v>13104</v>
       </c>
       <c r="D452" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E452" s="3">
         <v>1</v>
@@ -8983,15 +8974,15 @@
         <v>19</v>
       </c>
       <c r="H452" s="3">
-        <v>20428</v>
+        <v>20518</v>
       </c>
     </row>
     <row r="453" spans="3:7">
       <c r="C453" s="6">
-        <v>12805</v>
+        <v>13105</v>
       </c>
       <c r="D453" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E453" s="5">
         <v>3</v>
@@ -9005,10 +8996,10 @@
     </row>
     <row r="454" spans="3:7">
       <c r="C454" s="6">
-        <v>12806</v>
+        <v>13106</v>
       </c>
       <c r="D454" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E454" s="5">
         <v>10</v>
@@ -9022,10 +9013,10 @@
     </row>
     <row r="455" spans="3:7">
       <c r="C455" s="6">
-        <v>12807</v>
+        <v>13107</v>
       </c>
       <c r="D455" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E455" s="5">
         <v>10</v>
@@ -9039,10 +9030,10 @@
     </row>
     <row r="456" spans="3:7">
       <c r="C456" s="6">
-        <v>12808</v>
+        <v>13108</v>
       </c>
       <c r="D456" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E456" s="5">
         <v>10</v>
@@ -9056,10 +9047,10 @@
     </row>
     <row r="457" spans="3:7">
       <c r="C457" s="6">
-        <v>12809</v>
+        <v>13109</v>
       </c>
       <c r="D457" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E457" s="5">
         <v>10</v>
@@ -9073,10 +9064,10 @@
     </row>
     <row r="458" spans="3:7">
       <c r="C458" s="6">
-        <v>12810</v>
+        <v>13110</v>
       </c>
       <c r="D458" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E458" s="5">
         <v>10</v>
@@ -9090,10 +9081,10 @@
     </row>
     <row r="459" spans="3:7">
       <c r="C459" s="6">
-        <v>12811</v>
+        <v>13111</v>
       </c>
       <c r="D459" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E459" s="5">
         <v>9</v>
@@ -9107,10 +9098,10 @@
     </row>
     <row r="460" spans="3:7">
       <c r="C460" s="6">
-        <v>12812</v>
+        <v>13112</v>
       </c>
       <c r="D460" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E460" s="5">
         <v>10</v>
@@ -9124,10 +9115,10 @@
     </row>
     <row r="461" spans="3:7">
       <c r="C461" s="6">
-        <v>12813</v>
+        <v>13113</v>
       </c>
       <c r="D461" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E461" s="5">
         <v>9</v>
@@ -9141,10 +9132,10 @@
     </row>
     <row r="462" spans="3:7">
       <c r="C462" s="6">
-        <v>12814</v>
+        <v>13114</v>
       </c>
       <c r="D462" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E462" s="5">
         <v>9</v>
@@ -9158,10 +9149,10 @@
     </row>
     <row r="463" spans="3:7">
       <c r="C463" s="6">
-        <v>12815</v>
+        <v>13115</v>
       </c>
       <c r="D463" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E463" s="5">
         <v>9</v>
@@ -9175,10 +9166,10 @@
     </row>
     <row r="464" spans="3:7">
       <c r="C464" s="6">
-        <v>12816</v>
+        <v>13116</v>
       </c>
       <c r="D464" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E464" s="5">
         <v>2</v>
@@ -9192,10 +9183,10 @@
     </row>
     <row r="465" spans="3:7">
       <c r="C465" s="6">
-        <v>12817</v>
+        <v>13117</v>
       </c>
       <c r="D465" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E465" s="3">
         <v>9</v>
@@ -9209,10 +9200,10 @@
     </row>
     <row r="466" spans="3:7">
       <c r="C466" s="6">
-        <v>12818</v>
+        <v>13118</v>
       </c>
       <c r="D466" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E466" s="5">
         <v>9</v>
@@ -9226,10 +9217,10 @@
     </row>
     <row r="467" spans="3:7">
       <c r="C467" s="6">
-        <v>12819</v>
+        <v>13119</v>
       </c>
       <c r="D467" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E467" s="5">
         <v>10</v>
@@ -9243,10 +9234,10 @@
     </row>
     <row r="468" spans="3:7">
       <c r="C468" s="6">
-        <v>12820</v>
+        <v>13120</v>
       </c>
       <c r="D468" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E468" s="5">
         <v>9</v>
@@ -9260,10 +9251,10 @@
     </row>
     <row r="469" spans="3:7">
       <c r="C469" s="6">
-        <v>12821</v>
+        <v>13121</v>
       </c>
       <c r="D469" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E469" s="5">
         <v>5</v>
@@ -9277,10 +9268,10 @@
     </row>
     <row r="470" spans="3:7">
       <c r="C470" s="6">
-        <v>12822</v>
+        <v>13122</v>
       </c>
       <c r="D470" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E470" s="5">
         <v>6</v>
@@ -9294,10 +9285,10 @@
     </row>
     <row r="471" spans="3:7">
       <c r="C471" s="6">
-        <v>12823</v>
+        <v>13123</v>
       </c>
       <c r="D471" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E471" s="5">
         <v>7</v>
@@ -9311,10 +9302,10 @@
     </row>
     <row r="472" spans="3:7">
       <c r="C472" s="6">
-        <v>12824</v>
+        <v>13124</v>
       </c>
       <c r="D472" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E472" s="5">
         <v>8</v>
@@ -9328,10 +9319,10 @@
     </row>
     <row r="473" spans="3:7">
       <c r="C473" s="6">
-        <v>12825</v>
+        <v>13125</v>
       </c>
       <c r="D473" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E473" s="5">
         <v>9</v>
@@ -9348,10 +9339,10 @@
         <v>60</v>
       </c>
       <c r="C475" s="6">
-        <v>13101</v>
+        <v>13501</v>
       </c>
       <c r="D475" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E475" s="5">
         <v>1</v>
@@ -9363,17 +9354,17 @@
         <v>15</v>
       </c>
       <c r="H475" s="3">
-        <v>20515</v>
+        <v>20405</v>
       </c>
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="6">
-        <v>13102</v>
+        <v>13502</v>
       </c>
       <c r="D476" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E476" s="5">
         <v>1</v>
@@ -9385,15 +9376,15 @@
         <v>16</v>
       </c>
       <c r="H476" s="3">
-        <v>20516</v>
+        <v>20406</v>
       </c>
     </row>
     <row r="477" spans="3:8">
       <c r="C477" s="6">
-        <v>13103</v>
+        <v>13503</v>
       </c>
       <c r="D477" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E477" s="5">
         <v>1</v>
@@ -9405,15 +9396,15 @@
         <v>18</v>
       </c>
       <c r="H477" s="3">
-        <v>20517</v>
+        <v>20407</v>
       </c>
     </row>
     <row r="478" spans="3:8">
       <c r="C478" s="6">
-        <v>13104</v>
+        <v>13504</v>
       </c>
       <c r="D478" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E478" s="3">
         <v>1</v>
@@ -9425,15 +9416,15 @@
         <v>19</v>
       </c>
       <c r="H478" s="3">
-        <v>20518</v>
+        <v>20408</v>
       </c>
     </row>
     <row r="479" spans="3:7">
       <c r="C479" s="6">
-        <v>13105</v>
+        <v>13505</v>
       </c>
       <c r="D479" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E479" s="5">
         <v>3</v>
@@ -9447,10 +9438,10 @@
     </row>
     <row r="480" spans="3:7">
       <c r="C480" s="6">
-        <v>13106</v>
+        <v>13506</v>
       </c>
       <c r="D480" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E480" s="5">
         <v>10</v>
@@ -9464,10 +9455,10 @@
     </row>
     <row r="481" spans="3:7">
       <c r="C481" s="6">
-        <v>13107</v>
+        <v>13507</v>
       </c>
       <c r="D481" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E481" s="5">
         <v>10</v>
@@ -9481,10 +9472,10 @@
     </row>
     <row r="482" spans="3:7">
       <c r="C482" s="6">
-        <v>13108</v>
+        <v>13508</v>
       </c>
       <c r="D482" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E482" s="5">
         <v>10</v>
@@ -9498,10 +9489,10 @@
     </row>
     <row r="483" spans="3:7">
       <c r="C483" s="6">
-        <v>13109</v>
+        <v>13509</v>
       </c>
       <c r="D483" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E483" s="5">
         <v>10</v>
@@ -9515,10 +9506,10 @@
     </row>
     <row r="484" spans="3:7">
       <c r="C484" s="6">
-        <v>13110</v>
+        <v>13510</v>
       </c>
       <c r="D484" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E484" s="5">
         <v>10</v>
@@ -9532,10 +9523,10 @@
     </row>
     <row r="485" spans="3:7">
       <c r="C485" s="6">
-        <v>13111</v>
+        <v>13511</v>
       </c>
       <c r="D485" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E485" s="5">
         <v>9</v>
@@ -9549,10 +9540,10 @@
     </row>
     <row r="486" spans="3:7">
       <c r="C486" s="6">
-        <v>13112</v>
+        <v>13512</v>
       </c>
       <c r="D486" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E486" s="5">
         <v>10</v>
@@ -9566,10 +9557,10 @@
     </row>
     <row r="487" spans="3:7">
       <c r="C487" s="6">
-        <v>13113</v>
+        <v>13513</v>
       </c>
       <c r="D487" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E487" s="5">
         <v>9</v>
@@ -9583,10 +9574,10 @@
     </row>
     <row r="488" spans="3:7">
       <c r="C488" s="6">
-        <v>13114</v>
+        <v>13514</v>
       </c>
       <c r="D488" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E488" s="5">
         <v>9</v>
@@ -9600,10 +9591,10 @@
     </row>
     <row r="489" spans="3:7">
       <c r="C489" s="6">
-        <v>13115</v>
+        <v>13515</v>
       </c>
       <c r="D489" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E489" s="5">
         <v>9</v>
@@ -9617,10 +9608,10 @@
     </row>
     <row r="490" spans="3:7">
       <c r="C490" s="6">
-        <v>13116</v>
+        <v>13516</v>
       </c>
       <c r="D490" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E490" s="5">
         <v>2</v>
@@ -9634,10 +9625,10 @@
     </row>
     <row r="491" spans="3:7">
       <c r="C491" s="6">
-        <v>13117</v>
+        <v>13517</v>
       </c>
       <c r="D491" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E491" s="3">
         <v>9</v>
@@ -9651,10 +9642,10 @@
     </row>
     <row r="492" spans="3:7">
       <c r="C492" s="6">
-        <v>13118</v>
+        <v>13518</v>
       </c>
       <c r="D492" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E492" s="5">
         <v>9</v>
@@ -9668,10 +9659,10 @@
     </row>
     <row r="493" spans="3:7">
       <c r="C493" s="6">
-        <v>13119</v>
+        <v>13519</v>
       </c>
       <c r="D493" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E493" s="5">
         <v>10</v>
@@ -9685,10 +9676,10 @@
     </row>
     <row r="494" spans="3:7">
       <c r="C494" s="6">
-        <v>13120</v>
+        <v>13520</v>
       </c>
       <c r="D494" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E494" s="5">
         <v>9</v>
@@ -9702,10 +9693,10 @@
     </row>
     <row r="495" spans="3:7">
       <c r="C495" s="6">
-        <v>13121</v>
+        <v>13521</v>
       </c>
       <c r="D495" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E495" s="5">
         <v>5</v>
@@ -9719,10 +9710,10 @@
     </row>
     <row r="496" spans="3:7">
       <c r="C496" s="6">
-        <v>13122</v>
+        <v>13522</v>
       </c>
       <c r="D496" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E496" s="5">
         <v>6</v>
@@ -9736,10 +9727,10 @@
     </row>
     <row r="497" spans="3:7">
       <c r="C497" s="6">
-        <v>13123</v>
+        <v>13523</v>
       </c>
       <c r="D497" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E497" s="5">
         <v>7</v>
@@ -9753,10 +9744,10 @@
     </row>
     <row r="498" spans="3:7">
       <c r="C498" s="6">
-        <v>13124</v>
+        <v>13524</v>
       </c>
       <c r="D498" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E498" s="5">
         <v>8</v>
@@ -9770,10 +9761,10 @@
     </row>
     <row r="499" spans="3:7">
       <c r="C499" s="6">
-        <v>13125</v>
+        <v>13525</v>
       </c>
       <c r="D499" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E499" s="5">
         <v>9</v>
@@ -9790,10 +9781,10 @@
         <v>61</v>
       </c>
       <c r="C501" s="6">
-        <v>13301</v>
+        <v>13701</v>
       </c>
       <c r="D501" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E501" s="5">
         <v>1</v>
@@ -9805,17 +9796,17 @@
         <v>15</v>
       </c>
       <c r="H501" s="3">
-        <v>20495</v>
+        <v>20445</v>
       </c>
     </row>
     <row r="502" spans="1:8">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="6">
-        <v>13302</v>
+        <v>13702</v>
       </c>
       <c r="D502" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E502" s="5">
         <v>1</v>
@@ -9827,15 +9818,15 @@
         <v>16</v>
       </c>
       <c r="H502" s="3">
-        <v>20496</v>
+        <v>20446</v>
       </c>
     </row>
     <row r="503" spans="3:8">
       <c r="C503" s="6">
-        <v>13303</v>
+        <v>13703</v>
       </c>
       <c r="D503" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E503" s="5">
         <v>1</v>
@@ -9847,15 +9838,15 @@
         <v>18</v>
       </c>
       <c r="H503" s="3">
-        <v>20497</v>
+        <v>20447</v>
       </c>
     </row>
     <row r="504" spans="3:8">
       <c r="C504" s="6">
-        <v>13304</v>
+        <v>13704</v>
       </c>
       <c r="D504" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E504" s="3">
         <v>1</v>
@@ -9867,15 +9858,15 @@
         <v>19</v>
       </c>
       <c r="H504" s="3">
-        <v>20498</v>
+        <v>20448</v>
       </c>
     </row>
     <row r="505" spans="3:7">
       <c r="C505" s="6">
-        <v>13305</v>
+        <v>13705</v>
       </c>
       <c r="D505" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E505" s="5">
         <v>3</v>
@@ -9889,10 +9880,10 @@
     </row>
     <row r="506" spans="3:7">
       <c r="C506" s="6">
-        <v>13306</v>
+        <v>13706</v>
       </c>
       <c r="D506" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E506" s="5">
         <v>10</v>
@@ -9906,10 +9897,10 @@
     </row>
     <row r="507" spans="3:7">
       <c r="C507" s="6">
-        <v>13307</v>
+        <v>13707</v>
       </c>
       <c r="D507" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E507" s="5">
         <v>10</v>
@@ -9923,10 +9914,10 @@
     </row>
     <row r="508" spans="3:7">
       <c r="C508" s="6">
-        <v>13308</v>
+        <v>13708</v>
       </c>
       <c r="D508" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E508" s="5">
         <v>10</v>
@@ -9940,10 +9931,10 @@
     </row>
     <row r="509" spans="3:7">
       <c r="C509" s="6">
-        <v>13309</v>
+        <v>13709</v>
       </c>
       <c r="D509" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E509" s="5">
         <v>10</v>
@@ -9957,10 +9948,10 @@
     </row>
     <row r="510" spans="3:7">
       <c r="C510" s="6">
-        <v>13310</v>
+        <v>13710</v>
       </c>
       <c r="D510" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E510" s="5">
         <v>10</v>
@@ -9974,10 +9965,10 @@
     </row>
     <row r="511" spans="3:7">
       <c r="C511" s="6">
-        <v>13311</v>
+        <v>13711</v>
       </c>
       <c r="D511" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E511" s="5">
         <v>9</v>
@@ -9991,10 +9982,10 @@
     </row>
     <row r="512" spans="3:7">
       <c r="C512" s="6">
-        <v>13312</v>
+        <v>13712</v>
       </c>
       <c r="D512" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E512" s="5">
         <v>10</v>
@@ -10008,10 +9999,10 @@
     </row>
     <row r="513" spans="3:7">
       <c r="C513" s="6">
-        <v>13313</v>
+        <v>13713</v>
       </c>
       <c r="D513" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E513" s="5">
         <v>9</v>
@@ -10025,10 +10016,10 @@
     </row>
     <row r="514" spans="3:7">
       <c r="C514" s="6">
-        <v>13314</v>
+        <v>13714</v>
       </c>
       <c r="D514" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E514" s="5">
         <v>9</v>
@@ -10042,10 +10033,10 @@
     </row>
     <row r="515" spans="3:7">
       <c r="C515" s="6">
-        <v>13315</v>
+        <v>13715</v>
       </c>
       <c r="D515" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E515" s="5">
         <v>9</v>
@@ -10059,10 +10050,10 @@
     </row>
     <row r="516" spans="3:7">
       <c r="C516" s="6">
-        <v>13316</v>
+        <v>13716</v>
       </c>
       <c r="D516" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E516" s="5">
         <v>2</v>
@@ -10076,10 +10067,10 @@
     </row>
     <row r="517" spans="3:7">
       <c r="C517" s="6">
-        <v>13317</v>
+        <v>13717</v>
       </c>
       <c r="D517" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E517" s="3">
         <v>9</v>
@@ -10093,10 +10084,10 @@
     </row>
     <row r="518" spans="3:7">
       <c r="C518" s="6">
-        <v>13318</v>
+        <v>13718</v>
       </c>
       <c r="D518" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E518" s="5">
         <v>9</v>
@@ -10110,10 +10101,10 @@
     </row>
     <row r="519" spans="3:7">
       <c r="C519" s="6">
-        <v>13319</v>
+        <v>13719</v>
       </c>
       <c r="D519" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E519" s="5">
         <v>10</v>
@@ -10127,10 +10118,10 @@
     </row>
     <row r="520" spans="3:7">
       <c r="C520" s="6">
-        <v>13320</v>
+        <v>13720</v>
       </c>
       <c r="D520" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E520" s="5">
         <v>9</v>
@@ -10144,10 +10135,10 @@
     </row>
     <row r="521" spans="3:7">
       <c r="C521" s="6">
-        <v>13321</v>
+        <v>13721</v>
       </c>
       <c r="D521" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E521" s="5">
         <v>5</v>
@@ -10161,10 +10152,10 @@
     </row>
     <row r="522" spans="3:7">
       <c r="C522" s="6">
-        <v>13322</v>
+        <v>13722</v>
       </c>
       <c r="D522" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E522" s="5">
         <v>6</v>
@@ -10178,10 +10169,10 @@
     </row>
     <row r="523" spans="3:7">
       <c r="C523" s="6">
-        <v>13323</v>
+        <v>13723</v>
       </c>
       <c r="D523" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E523" s="5">
         <v>7</v>
@@ -10195,10 +10186,10 @@
     </row>
     <row r="524" spans="3:7">
       <c r="C524" s="6">
-        <v>13324</v>
+        <v>13724</v>
       </c>
       <c r="D524" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E524" s="5">
         <v>8</v>
@@ -10212,10 +10203,10 @@
     </row>
     <row r="525" spans="3:7">
       <c r="C525" s="6">
-        <v>13325</v>
+        <v>13725</v>
       </c>
       <c r="D525" s="3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E525" s="5">
         <v>9</v>
@@ -10232,10 +10223,10 @@
         <v>62</v>
       </c>
       <c r="C527" s="6">
-        <v>13501</v>
+        <v>13901</v>
       </c>
       <c r="D527" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E527" s="5">
         <v>1</v>
@@ -10247,17 +10238,17 @@
         <v>15</v>
       </c>
       <c r="H527" s="3">
-        <v>20405</v>
+        <v>20475</v>
       </c>
     </row>
     <row r="528" spans="1:8">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="6">
-        <v>13502</v>
+        <v>13902</v>
       </c>
       <c r="D528" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E528" s="5">
         <v>1</v>
@@ -10269,15 +10260,15 @@
         <v>16</v>
       </c>
       <c r="H528" s="3">
-        <v>20406</v>
+        <v>20476</v>
       </c>
     </row>
     <row r="529" spans="3:8">
       <c r="C529" s="6">
-        <v>13503</v>
+        <v>13903</v>
       </c>
       <c r="D529" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E529" s="5">
         <v>1</v>
@@ -10289,15 +10280,15 @@
         <v>18</v>
       </c>
       <c r="H529" s="3">
-        <v>20407</v>
+        <v>20477</v>
       </c>
     </row>
     <row r="530" spans="3:8">
       <c r="C530" s="6">
-        <v>13504</v>
+        <v>13904</v>
       </c>
       <c r="D530" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E530" s="3">
         <v>1</v>
@@ -10309,15 +10300,15 @@
         <v>19</v>
       </c>
       <c r="H530" s="3">
-        <v>20408</v>
+        <v>20478</v>
       </c>
     </row>
     <row r="531" spans="3:7">
       <c r="C531" s="6">
-        <v>13505</v>
+        <v>13905</v>
       </c>
       <c r="D531" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E531" s="5">
         <v>3</v>
@@ -10331,10 +10322,10 @@
     </row>
     <row r="532" spans="3:7">
       <c r="C532" s="6">
-        <v>13506</v>
+        <v>13906</v>
       </c>
       <c r="D532" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E532" s="5">
         <v>10</v>
@@ -10348,10 +10339,10 @@
     </row>
     <row r="533" spans="3:7">
       <c r="C533" s="6">
-        <v>13507</v>
+        <v>13907</v>
       </c>
       <c r="D533" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E533" s="5">
         <v>10</v>
@@ -10365,10 +10356,10 @@
     </row>
     <row r="534" spans="3:7">
       <c r="C534" s="6">
-        <v>13508</v>
+        <v>13908</v>
       </c>
       <c r="D534" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E534" s="5">
         <v>10</v>
@@ -10382,10 +10373,10 @@
     </row>
     <row r="535" spans="3:7">
       <c r="C535" s="6">
-        <v>13509</v>
+        <v>13909</v>
       </c>
       <c r="D535" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E535" s="5">
         <v>10</v>
@@ -10399,10 +10390,10 @@
     </row>
     <row r="536" spans="3:7">
       <c r="C536" s="6">
-        <v>13510</v>
+        <v>13910</v>
       </c>
       <c r="D536" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E536" s="5">
         <v>10</v>
@@ -10416,10 +10407,10 @@
     </row>
     <row r="537" spans="3:7">
       <c r="C537" s="6">
-        <v>13511</v>
+        <v>13911</v>
       </c>
       <c r="D537" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E537" s="5">
         <v>9</v>
@@ -10433,10 +10424,10 @@
     </row>
     <row r="538" spans="3:7">
       <c r="C538" s="6">
-        <v>13512</v>
+        <v>13912</v>
       </c>
       <c r="D538" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E538" s="5">
         <v>10</v>
@@ -10450,10 +10441,10 @@
     </row>
     <row r="539" spans="3:7">
       <c r="C539" s="6">
-        <v>13513</v>
+        <v>13913</v>
       </c>
       <c r="D539" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E539" s="5">
         <v>9</v>
@@ -10467,10 +10458,10 @@
     </row>
     <row r="540" spans="3:7">
       <c r="C540" s="6">
-        <v>13514</v>
+        <v>13914</v>
       </c>
       <c r="D540" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E540" s="5">
         <v>9</v>
@@ -10484,10 +10475,10 @@
     </row>
     <row r="541" spans="3:7">
       <c r="C541" s="6">
-        <v>13515</v>
+        <v>13915</v>
       </c>
       <c r="D541" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E541" s="5">
         <v>9</v>
@@ -10501,10 +10492,10 @@
     </row>
     <row r="542" spans="3:7">
       <c r="C542" s="6">
-        <v>13516</v>
+        <v>13916</v>
       </c>
       <c r="D542" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E542" s="5">
         <v>2</v>
@@ -10518,10 +10509,10 @@
     </row>
     <row r="543" spans="3:7">
       <c r="C543" s="6">
-        <v>13517</v>
+        <v>13917</v>
       </c>
       <c r="D543" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E543" s="3">
         <v>9</v>
@@ -10535,10 +10526,10 @@
     </row>
     <row r="544" spans="3:7">
       <c r="C544" s="6">
-        <v>13518</v>
+        <v>13918</v>
       </c>
       <c r="D544" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E544" s="5">
         <v>9</v>
@@ -10552,10 +10543,10 @@
     </row>
     <row r="545" spans="3:7">
       <c r="C545" s="6">
-        <v>13519</v>
+        <v>13919</v>
       </c>
       <c r="D545" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E545" s="5">
         <v>10</v>
@@ -10569,10 +10560,10 @@
     </row>
     <row r="546" spans="3:7">
       <c r="C546" s="6">
-        <v>13520</v>
+        <v>13920</v>
       </c>
       <c r="D546" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E546" s="5">
         <v>9</v>
@@ -10586,10 +10577,10 @@
     </row>
     <row r="547" spans="3:7">
       <c r="C547" s="6">
-        <v>13521</v>
+        <v>13921</v>
       </c>
       <c r="D547" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E547" s="5">
         <v>5</v>
@@ -10603,10 +10594,10 @@
     </row>
     <row r="548" spans="3:7">
       <c r="C548" s="6">
-        <v>13522</v>
+        <v>13922</v>
       </c>
       <c r="D548" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E548" s="5">
         <v>6</v>
@@ -10620,10 +10611,10 @@
     </row>
     <row r="549" spans="3:7">
       <c r="C549" s="6">
-        <v>13523</v>
+        <v>13923</v>
       </c>
       <c r="D549" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E549" s="5">
         <v>7</v>
@@ -10637,10 +10628,10 @@
     </row>
     <row r="550" spans="3:7">
       <c r="C550" s="6">
-        <v>13524</v>
+        <v>13924</v>
       </c>
       <c r="D550" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E550" s="5">
         <v>8</v>
@@ -10654,10 +10645,10 @@
     </row>
     <row r="551" spans="3:7">
       <c r="C551" s="6">
-        <v>13525</v>
+        <v>13925</v>
       </c>
       <c r="D551" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E551" s="5">
         <v>9</v>
@@ -10674,10 +10665,10 @@
         <v>63</v>
       </c>
       <c r="C553" s="6">
-        <v>13601</v>
+        <v>14001</v>
       </c>
       <c r="D553" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E553" s="5">
         <v>1</v>
@@ -10689,17 +10680,17 @@
         <v>15</v>
       </c>
       <c r="H553" s="3">
-        <v>20415</v>
+        <v>20505</v>
       </c>
     </row>
     <row r="554" spans="1:8">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="6">
-        <v>13602</v>
+        <v>14002</v>
       </c>
       <c r="D554" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E554" s="5">
         <v>1</v>
@@ -10711,15 +10702,15 @@
         <v>16</v>
       </c>
       <c r="H554" s="3">
-        <v>20416</v>
+        <v>20506</v>
       </c>
     </row>
     <row r="555" spans="3:8">
       <c r="C555" s="6">
-        <v>13603</v>
+        <v>14003</v>
       </c>
       <c r="D555" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E555" s="5">
         <v>1</v>
@@ -10731,15 +10722,15 @@
         <v>18</v>
       </c>
       <c r="H555" s="3">
-        <v>20417</v>
+        <v>20507</v>
       </c>
     </row>
     <row r="556" spans="3:8">
       <c r="C556" s="6">
-        <v>13604</v>
+        <v>14004</v>
       </c>
       <c r="D556" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E556" s="3">
         <v>1</v>
@@ -10751,15 +10742,15 @@
         <v>19</v>
       </c>
       <c r="H556" s="3">
-        <v>20418</v>
+        <v>20508</v>
       </c>
     </row>
     <row r="557" spans="3:7">
       <c r="C557" s="6">
-        <v>13605</v>
+        <v>14005</v>
       </c>
       <c r="D557" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E557" s="5">
         <v>3</v>
@@ -10773,10 +10764,10 @@
     </row>
     <row r="558" spans="3:7">
       <c r="C558" s="6">
-        <v>13606</v>
+        <v>14006</v>
       </c>
       <c r="D558" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E558" s="5">
         <v>10</v>
@@ -10790,10 +10781,10 @@
     </row>
     <row r="559" spans="3:7">
       <c r="C559" s="6">
-        <v>13607</v>
+        <v>14007</v>
       </c>
       <c r="D559" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E559" s="5">
         <v>10</v>
@@ -10807,10 +10798,10 @@
     </row>
     <row r="560" spans="3:7">
       <c r="C560" s="6">
-        <v>13608</v>
+        <v>14008</v>
       </c>
       <c r="D560" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E560" s="5">
         <v>10</v>
@@ -10824,10 +10815,10 @@
     </row>
     <row r="561" spans="3:7">
       <c r="C561" s="6">
-        <v>13609</v>
+        <v>14009</v>
       </c>
       <c r="D561" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E561" s="5">
         <v>10</v>
@@ -10841,10 +10832,10 @@
     </row>
     <row r="562" spans="3:7">
       <c r="C562" s="6">
-        <v>13610</v>
+        <v>14010</v>
       </c>
       <c r="D562" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E562" s="5">
         <v>10</v>
@@ -10858,10 +10849,10 @@
     </row>
     <row r="563" spans="3:7">
       <c r="C563" s="6">
-        <v>13611</v>
+        <v>14011</v>
       </c>
       <c r="D563" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E563" s="5">
         <v>9</v>
@@ -10875,10 +10866,10 @@
     </row>
     <row r="564" spans="3:7">
       <c r="C564" s="6">
-        <v>13612</v>
+        <v>14012</v>
       </c>
       <c r="D564" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E564" s="5">
         <v>10</v>
@@ -10892,10 +10883,10 @@
     </row>
     <row r="565" spans="3:7">
       <c r="C565" s="6">
-        <v>13613</v>
+        <v>14013</v>
       </c>
       <c r="D565" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E565" s="5">
         <v>9</v>
@@ -10909,10 +10900,10 @@
     </row>
     <row r="566" spans="3:7">
       <c r="C566" s="6">
-        <v>13614</v>
+        <v>14014</v>
       </c>
       <c r="D566" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E566" s="5">
         <v>9</v>
@@ -10926,10 +10917,10 @@
     </row>
     <row r="567" spans="3:7">
       <c r="C567" s="6">
-        <v>13615</v>
+        <v>14015</v>
       </c>
       <c r="D567" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E567" s="5">
         <v>9</v>
@@ -10943,10 +10934,10 @@
     </row>
     <row r="568" spans="3:7">
       <c r="C568" s="6">
-        <v>13616</v>
+        <v>14016</v>
       </c>
       <c r="D568" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E568" s="5">
         <v>2</v>
@@ -10960,10 +10951,10 @@
     </row>
     <row r="569" spans="3:7">
       <c r="C569" s="6">
-        <v>13617</v>
+        <v>14017</v>
       </c>
       <c r="D569" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E569" s="3">
         <v>9</v>
@@ -10977,10 +10968,10 @@
     </row>
     <row r="570" spans="3:7">
       <c r="C570" s="6">
-        <v>13618</v>
+        <v>14018</v>
       </c>
       <c r="D570" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E570" s="5">
         <v>9</v>
@@ -10994,10 +10985,10 @@
     </row>
     <row r="571" spans="3:7">
       <c r="C571" s="6">
-        <v>13619</v>
+        <v>14019</v>
       </c>
       <c r="D571" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E571" s="5">
         <v>10</v>
@@ -11011,10 +11002,10 @@
     </row>
     <row r="572" spans="3:7">
       <c r="C572" s="6">
-        <v>13620</v>
+        <v>14020</v>
       </c>
       <c r="D572" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E572" s="5">
         <v>9</v>
@@ -11028,10 +11019,10 @@
     </row>
     <row r="573" spans="3:7">
       <c r="C573" s="6">
-        <v>13621</v>
+        <v>14021</v>
       </c>
       <c r="D573" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E573" s="5">
         <v>5</v>
@@ -11045,10 +11036,10 @@
     </row>
     <row r="574" spans="3:7">
       <c r="C574" s="6">
-        <v>13622</v>
+        <v>14022</v>
       </c>
       <c r="D574" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E574" s="5">
         <v>6</v>
@@ -11062,10 +11053,10 @@
     </row>
     <row r="575" spans="3:7">
       <c r="C575" s="6">
-        <v>13623</v>
+        <v>14023</v>
       </c>
       <c r="D575" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E575" s="5">
         <v>7</v>
@@ -11079,10 +11070,10 @@
     </row>
     <row r="576" spans="3:7">
       <c r="C576" s="6">
-        <v>13624</v>
+        <v>14024</v>
       </c>
       <c r="D576" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E576" s="5">
         <v>8</v>
@@ -11096,10 +11087,10 @@
     </row>
     <row r="577" spans="3:7">
       <c r="C577" s="6">
-        <v>13625</v>
+        <v>14025</v>
       </c>
       <c r="D577" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E577" s="5">
         <v>9</v>
@@ -11116,10 +11107,10 @@
         <v>64</v>
       </c>
       <c r="C579" s="6">
-        <v>13701</v>
+        <v>14101</v>
       </c>
       <c r="D579" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E579" s="5">
         <v>1</v>
@@ -11131,17 +11122,17 @@
         <v>15</v>
       </c>
       <c r="H579" s="3">
-        <v>20445</v>
+        <v>20525</v>
       </c>
     </row>
     <row r="580" spans="1:8">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="6">
-        <v>13702</v>
+        <v>14102</v>
       </c>
       <c r="D580" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E580" s="5">
         <v>1</v>
@@ -11153,15 +11144,15 @@
         <v>16</v>
       </c>
       <c r="H580" s="3">
-        <v>20446</v>
+        <v>20526</v>
       </c>
     </row>
     <row r="581" spans="3:8">
       <c r="C581" s="6">
-        <v>13703</v>
+        <v>14103</v>
       </c>
       <c r="D581" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E581" s="5">
         <v>1</v>
@@ -11173,15 +11164,15 @@
         <v>18</v>
       </c>
       <c r="H581" s="3">
-        <v>20447</v>
+        <v>20527</v>
       </c>
     </row>
     <row r="582" spans="3:8">
       <c r="C582" s="6">
-        <v>13704</v>
+        <v>14104</v>
       </c>
       <c r="D582" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E582" s="3">
         <v>1</v>
@@ -11193,15 +11184,15 @@
         <v>19</v>
       </c>
       <c r="H582" s="3">
-        <v>20448</v>
+        <v>20528</v>
       </c>
     </row>
     <row r="583" spans="3:7">
       <c r="C583" s="6">
-        <v>13705</v>
+        <v>14105</v>
       </c>
       <c r="D583" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E583" s="5">
         <v>3</v>
@@ -11215,10 +11206,10 @@
     </row>
     <row r="584" spans="3:7">
       <c r="C584" s="6">
-        <v>13706</v>
+        <v>14106</v>
       </c>
       <c r="D584" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E584" s="5">
         <v>10</v>
@@ -11232,10 +11223,10 @@
     </row>
     <row r="585" spans="3:7">
       <c r="C585" s="6">
-        <v>13707</v>
+        <v>14107</v>
       </c>
       <c r="D585" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E585" s="5">
         <v>10</v>
@@ -11249,10 +11240,10 @@
     </row>
     <row r="586" spans="3:7">
       <c r="C586" s="6">
-        <v>13708</v>
+        <v>14108</v>
       </c>
       <c r="D586" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E586" s="5">
         <v>10</v>
@@ -11266,10 +11257,10 @@
     </row>
     <row r="587" spans="3:7">
       <c r="C587" s="6">
-        <v>13709</v>
+        <v>14109</v>
       </c>
       <c r="D587" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E587" s="5">
         <v>10</v>
@@ -11283,10 +11274,10 @@
     </row>
     <row r="588" spans="3:7">
       <c r="C588" s="6">
-        <v>13710</v>
+        <v>14110</v>
       </c>
       <c r="D588" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E588" s="5">
         <v>10</v>
@@ -11300,10 +11291,10 @@
     </row>
     <row r="589" spans="3:7">
       <c r="C589" s="6">
-        <v>13711</v>
+        <v>14111</v>
       </c>
       <c r="D589" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E589" s="5">
         <v>9</v>
@@ -11317,10 +11308,10 @@
     </row>
     <row r="590" spans="3:7">
       <c r="C590" s="6">
-        <v>13712</v>
+        <v>14112</v>
       </c>
       <c r="D590" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E590" s="5">
         <v>10</v>
@@ -11334,10 +11325,10 @@
     </row>
     <row r="591" spans="3:7">
       <c r="C591" s="6">
-        <v>13713</v>
+        <v>14113</v>
       </c>
       <c r="D591" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E591" s="5">
         <v>9</v>
@@ -11351,10 +11342,10 @@
     </row>
     <row r="592" spans="3:7">
       <c r="C592" s="6">
-        <v>13714</v>
+        <v>14114</v>
       </c>
       <c r="D592" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E592" s="5">
         <v>9</v>
@@ -11368,10 +11359,10 @@
     </row>
     <row r="593" spans="3:7">
       <c r="C593" s="6">
-        <v>13715</v>
+        <v>14115</v>
       </c>
       <c r="D593" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E593" s="5">
         <v>9</v>
@@ -11385,10 +11376,10 @@
     </row>
     <row r="594" spans="3:7">
       <c r="C594" s="6">
-        <v>13716</v>
+        <v>14116</v>
       </c>
       <c r="D594" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E594" s="5">
         <v>2</v>
@@ -11402,10 +11393,10 @@
     </row>
     <row r="595" spans="3:7">
       <c r="C595" s="6">
-        <v>13717</v>
+        <v>14117</v>
       </c>
       <c r="D595" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E595" s="3">
         <v>9</v>
@@ -11419,10 +11410,10 @@
     </row>
     <row r="596" spans="3:7">
       <c r="C596" s="6">
-        <v>13718</v>
+        <v>14118</v>
       </c>
       <c r="D596" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E596" s="5">
         <v>9</v>
@@ -11436,10 +11427,10 @@
     </row>
     <row r="597" spans="3:7">
       <c r="C597" s="6">
-        <v>13719</v>
+        <v>14119</v>
       </c>
       <c r="D597" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E597" s="5">
         <v>10</v>
@@ -11453,10 +11444,10 @@
     </row>
     <row r="598" spans="3:7">
       <c r="C598" s="6">
-        <v>13720</v>
+        <v>14120</v>
       </c>
       <c r="D598" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E598" s="5">
         <v>9</v>
@@ -11470,10 +11461,10 @@
     </row>
     <row r="599" spans="3:7">
       <c r="C599" s="6">
-        <v>13721</v>
+        <v>14121</v>
       </c>
       <c r="D599" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E599" s="5">
         <v>5</v>
@@ -11487,10 +11478,10 @@
     </row>
     <row r="600" spans="3:7">
       <c r="C600" s="6">
-        <v>13722</v>
+        <v>14122</v>
       </c>
       <c r="D600" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E600" s="5">
         <v>6</v>
@@ -11504,10 +11495,10 @@
     </row>
     <row r="601" spans="3:7">
       <c r="C601" s="6">
-        <v>13723</v>
+        <v>14123</v>
       </c>
       <c r="D601" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E601" s="5">
         <v>7</v>
@@ -11521,10 +11512,10 @@
     </row>
     <row r="602" spans="3:7">
       <c r="C602" s="6">
-        <v>13724</v>
+        <v>14124</v>
       </c>
       <c r="D602" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E602" s="5">
         <v>8</v>
@@ -11538,10 +11529,10 @@
     </row>
     <row r="603" spans="3:7">
       <c r="C603" s="6">
-        <v>13725</v>
+        <v>14125</v>
       </c>
       <c r="D603" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E603" s="5">
         <v>9</v>
@@ -11558,10 +11549,10 @@
         <v>65</v>
       </c>
       <c r="C605" s="6">
-        <v>13801</v>
+        <v>14201</v>
       </c>
       <c r="D605" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E605" s="5">
         <v>1</v>
@@ -11573,17 +11564,17 @@
         <v>15</v>
       </c>
       <c r="H605" s="3">
-        <v>20455</v>
+        <v>20565</v>
       </c>
     </row>
     <row r="606" spans="1:8">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="6">
-        <v>13802</v>
+        <v>14202</v>
       </c>
       <c r="D606" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E606" s="5">
         <v>1</v>
@@ -11595,15 +11586,15 @@
         <v>16</v>
       </c>
       <c r="H606" s="3">
-        <v>20456</v>
+        <v>20566</v>
       </c>
     </row>
     <row r="607" spans="3:8">
       <c r="C607" s="6">
-        <v>13803</v>
+        <v>14203</v>
       </c>
       <c r="D607" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E607" s="5">
         <v>1</v>
@@ -11615,15 +11606,15 @@
         <v>18</v>
       </c>
       <c r="H607" s="3">
-        <v>20457</v>
+        <v>20567</v>
       </c>
     </row>
     <row r="608" spans="3:8">
       <c r="C608" s="6">
-        <v>13804</v>
+        <v>14204</v>
       </c>
       <c r="D608" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E608" s="3">
         <v>1</v>
@@ -11635,15 +11626,15 @@
         <v>19</v>
       </c>
       <c r="H608" s="3">
-        <v>20458</v>
+        <v>20568</v>
       </c>
     </row>
     <row r="609" spans="3:7">
       <c r="C609" s="6">
-        <v>13805</v>
+        <v>14205</v>
       </c>
       <c r="D609" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E609" s="5">
         <v>3</v>
@@ -11657,10 +11648,10 @@
     </row>
     <row r="610" spans="3:7">
       <c r="C610" s="6">
-        <v>13806</v>
+        <v>14206</v>
       </c>
       <c r="D610" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E610" s="5">
         <v>10</v>
@@ -11674,10 +11665,10 @@
     </row>
     <row r="611" spans="3:7">
       <c r="C611" s="6">
-        <v>13807</v>
+        <v>14207</v>
       </c>
       <c r="D611" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E611" s="5">
         <v>10</v>
@@ -11691,10 +11682,10 @@
     </row>
     <row r="612" spans="3:7">
       <c r="C612" s="6">
-        <v>13808</v>
+        <v>14208</v>
       </c>
       <c r="D612" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E612" s="5">
         <v>10</v>
@@ -11708,10 +11699,10 @@
     </row>
     <row r="613" spans="3:7">
       <c r="C613" s="6">
-        <v>13809</v>
+        <v>14209</v>
       </c>
       <c r="D613" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E613" s="5">
         <v>10</v>
@@ -11725,10 +11716,10 @@
     </row>
     <row r="614" spans="3:7">
       <c r="C614" s="6">
-        <v>13810</v>
+        <v>14210</v>
       </c>
       <c r="D614" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E614" s="5">
         <v>10</v>
@@ -11742,10 +11733,10 @@
     </row>
     <row r="615" spans="3:7">
       <c r="C615" s="6">
-        <v>13811</v>
+        <v>14211</v>
       </c>
       <c r="D615" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E615" s="5">
         <v>9</v>
@@ -11759,10 +11750,10 @@
     </row>
     <row r="616" spans="3:7">
       <c r="C616" s="6">
-        <v>13812</v>
+        <v>14212</v>
       </c>
       <c r="D616" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E616" s="5">
         <v>10</v>
@@ -11776,10 +11767,10 @@
     </row>
     <row r="617" spans="3:7">
       <c r="C617" s="6">
-        <v>13813</v>
+        <v>14213</v>
       </c>
       <c r="D617" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E617" s="5">
         <v>9</v>
@@ -11793,10 +11784,10 @@
     </row>
     <row r="618" spans="3:7">
       <c r="C618" s="6">
-        <v>13814</v>
+        <v>14214</v>
       </c>
       <c r="D618" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E618" s="5">
         <v>9</v>
@@ -11810,10 +11801,10 @@
     </row>
     <row r="619" spans="3:7">
       <c r="C619" s="6">
-        <v>13815</v>
+        <v>14215</v>
       </c>
       <c r="D619" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E619" s="5">
         <v>9</v>
@@ -11827,10 +11818,10 @@
     </row>
     <row r="620" spans="3:7">
       <c r="C620" s="6">
-        <v>13816</v>
+        <v>14216</v>
       </c>
       <c r="D620" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E620" s="5">
         <v>2</v>
@@ -11844,10 +11835,10 @@
     </row>
     <row r="621" spans="3:7">
       <c r="C621" s="6">
-        <v>13817</v>
+        <v>14217</v>
       </c>
       <c r="D621" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E621" s="3">
         <v>9</v>
@@ -11861,10 +11852,10 @@
     </row>
     <row r="622" spans="3:7">
       <c r="C622" s="6">
-        <v>13818</v>
+        <v>14218</v>
       </c>
       <c r="D622" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E622" s="5">
         <v>9</v>
@@ -11878,10 +11869,10 @@
     </row>
     <row r="623" spans="3:7">
       <c r="C623" s="6">
-        <v>13819</v>
+        <v>14219</v>
       </c>
       <c r="D623" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E623" s="5">
         <v>10</v>
@@ -11895,10 +11886,10 @@
     </row>
     <row r="624" spans="3:7">
       <c r="C624" s="6">
-        <v>13820</v>
+        <v>14220</v>
       </c>
       <c r="D624" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E624" s="5">
         <v>9</v>
@@ -11912,10 +11903,10 @@
     </row>
     <row r="625" spans="3:7">
       <c r="C625" s="6">
-        <v>13821</v>
+        <v>14221</v>
       </c>
       <c r="D625" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E625" s="5">
         <v>5</v>
@@ -11929,10 +11920,10 @@
     </row>
     <row r="626" spans="3:7">
       <c r="C626" s="6">
-        <v>13822</v>
+        <v>14222</v>
       </c>
       <c r="D626" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E626" s="5">
         <v>6</v>
@@ -11946,10 +11937,10 @@
     </row>
     <row r="627" spans="3:7">
       <c r="C627" s="6">
-        <v>13823</v>
+        <v>14223</v>
       </c>
       <c r="D627" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E627" s="5">
         <v>7</v>
@@ -11963,10 +11954,10 @@
     </row>
     <row r="628" spans="3:7">
       <c r="C628" s="6">
-        <v>13824</v>
+        <v>14224</v>
       </c>
       <c r="D628" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E628" s="5">
         <v>8</v>
@@ -11980,10 +11971,10 @@
     </row>
     <row r="629" spans="3:7">
       <c r="C629" s="6">
-        <v>13825</v>
+        <v>14225</v>
       </c>
       <c r="D629" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E629" s="5">
         <v>9</v>
@@ -12000,10 +11991,10 @@
         <v>66</v>
       </c>
       <c r="C631" s="6">
-        <v>13901</v>
+        <v>14301</v>
       </c>
       <c r="D631" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E631" s="5">
         <v>1</v>
@@ -12015,17 +12006,17 @@
         <v>15</v>
       </c>
       <c r="H631" s="3">
-        <v>20475</v>
+        <v>20575</v>
       </c>
     </row>
     <row r="632" spans="1:8">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="6">
-        <v>13902</v>
+        <v>14302</v>
       </c>
       <c r="D632" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E632" s="5">
         <v>1</v>
@@ -12037,15 +12028,15 @@
         <v>16</v>
       </c>
       <c r="H632" s="3">
-        <v>20476</v>
+        <v>20576</v>
       </c>
     </row>
     <row r="633" spans="3:8">
       <c r="C633" s="6">
-        <v>13903</v>
+        <v>14303</v>
       </c>
       <c r="D633" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E633" s="5">
         <v>1</v>
@@ -12057,15 +12048,15 @@
         <v>18</v>
       </c>
       <c r="H633" s="3">
-        <v>20477</v>
+        <v>20577</v>
       </c>
     </row>
     <row r="634" spans="3:8">
       <c r="C634" s="6">
-        <v>13904</v>
+        <v>14304</v>
       </c>
       <c r="D634" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E634" s="3">
         <v>1</v>
@@ -12077,15 +12068,15 @@
         <v>19</v>
       </c>
       <c r="H634" s="3">
-        <v>20478</v>
+        <v>20578</v>
       </c>
     </row>
     <row r="635" spans="3:7">
       <c r="C635" s="6">
-        <v>13905</v>
+        <v>14305</v>
       </c>
       <c r="D635" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E635" s="5">
         <v>3</v>
@@ -12099,10 +12090,10 @@
     </row>
     <row r="636" spans="3:7">
       <c r="C636" s="6">
-        <v>13906</v>
+        <v>14306</v>
       </c>
       <c r="D636" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E636" s="5">
         <v>10</v>
@@ -12116,10 +12107,10 @@
     </row>
     <row r="637" spans="3:7">
       <c r="C637" s="6">
-        <v>13907</v>
+        <v>14307</v>
       </c>
       <c r="D637" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E637" s="5">
         <v>10</v>
@@ -12133,10 +12124,10 @@
     </row>
     <row r="638" spans="3:7">
       <c r="C638" s="6">
-        <v>13908</v>
+        <v>14308</v>
       </c>
       <c r="D638" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E638" s="5">
         <v>10</v>
@@ -12150,10 +12141,10 @@
     </row>
     <row r="639" spans="3:7">
       <c r="C639" s="6">
-        <v>13909</v>
+        <v>14309</v>
       </c>
       <c r="D639" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E639" s="5">
         <v>10</v>
@@ -12167,10 +12158,10 @@
     </row>
     <row r="640" spans="3:7">
       <c r="C640" s="6">
-        <v>13910</v>
+        <v>14310</v>
       </c>
       <c r="D640" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E640" s="5">
         <v>10</v>
@@ -12184,10 +12175,10 @@
     </row>
     <row r="641" spans="3:7">
       <c r="C641" s="6">
-        <v>13911</v>
+        <v>14311</v>
       </c>
       <c r="D641" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E641" s="5">
         <v>9</v>
@@ -12201,10 +12192,10 @@
     </row>
     <row r="642" spans="3:7">
       <c r="C642" s="6">
-        <v>13912</v>
+        <v>14312</v>
       </c>
       <c r="D642" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E642" s="5">
         <v>10</v>
@@ -12218,10 +12209,10 @@
     </row>
     <row r="643" spans="3:7">
       <c r="C643" s="6">
-        <v>13913</v>
+        <v>14313</v>
       </c>
       <c r="D643" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E643" s="5">
         <v>9</v>
@@ -12235,10 +12226,10 @@
     </row>
     <row r="644" spans="3:7">
       <c r="C644" s="6">
-        <v>13914</v>
+        <v>14314</v>
       </c>
       <c r="D644" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E644" s="5">
         <v>9</v>
@@ -12252,10 +12243,10 @@
     </row>
     <row r="645" spans="3:7">
       <c r="C645" s="6">
-        <v>13915</v>
+        <v>14315</v>
       </c>
       <c r="D645" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E645" s="5">
         <v>9</v>
@@ -12269,10 +12260,10 @@
     </row>
     <row r="646" spans="3:7">
       <c r="C646" s="6">
-        <v>13916</v>
+        <v>14316</v>
       </c>
       <c r="D646" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E646" s="5">
         <v>2</v>
@@ -12286,10 +12277,10 @@
     </row>
     <row r="647" spans="3:7">
       <c r="C647" s="6">
-        <v>13917</v>
+        <v>14317</v>
       </c>
       <c r="D647" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E647" s="3">
         <v>9</v>
@@ -12303,10 +12294,10 @@
     </row>
     <row r="648" spans="3:7">
       <c r="C648" s="6">
-        <v>13918</v>
+        <v>14318</v>
       </c>
       <c r="D648" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E648" s="5">
         <v>9</v>
@@ -12320,10 +12311,10 @@
     </row>
     <row r="649" spans="3:7">
       <c r="C649" s="6">
-        <v>13919</v>
+        <v>14319</v>
       </c>
       <c r="D649" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E649" s="5">
         <v>10</v>
@@ -12337,10 +12328,10 @@
     </row>
     <row r="650" spans="3:7">
       <c r="C650" s="6">
-        <v>13920</v>
+        <v>14320</v>
       </c>
       <c r="D650" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E650" s="5">
         <v>9</v>
@@ -12354,10 +12345,10 @@
     </row>
     <row r="651" spans="3:7">
       <c r="C651" s="6">
-        <v>13921</v>
+        <v>14321</v>
       </c>
       <c r="D651" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E651" s="5">
         <v>5</v>
@@ -12371,10 +12362,10 @@
     </row>
     <row r="652" spans="3:7">
       <c r="C652" s="6">
-        <v>13922</v>
+        <v>14322</v>
       </c>
       <c r="D652" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E652" s="5">
         <v>6</v>
@@ -12388,10 +12379,10 @@
     </row>
     <row r="653" spans="3:7">
       <c r="C653" s="6">
-        <v>13923</v>
+        <v>14323</v>
       </c>
       <c r="D653" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E653" s="5">
         <v>7</v>
@@ -12405,10 +12396,10 @@
     </row>
     <row r="654" spans="3:7">
       <c r="C654" s="6">
-        <v>13924</v>
+        <v>14324</v>
       </c>
       <c r="D654" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E654" s="5">
         <v>8</v>
@@ -12422,10 +12413,10 @@
     </row>
     <row r="655" spans="3:7">
       <c r="C655" s="6">
-        <v>13925</v>
+        <v>14325</v>
       </c>
       <c r="D655" s="3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E655" s="5">
         <v>9</v>
@@ -12434,1332 +12425,6 @@
         <v>42</v>
       </c>
       <c r="G655" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="657" spans="1:8">
-      <c r="A657" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C657" s="6">
-        <v>14001</v>
-      </c>
-      <c r="D657" s="3">
-        <v>140</v>
-      </c>
-      <c r="E657" s="5">
-        <v>1</v>
-      </c>
-      <c r="F657" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G657" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H657" s="3">
-        <v>20505</v>
-      </c>
-    </row>
-    <row r="658" spans="1:8">
-      <c r="A658" s="1"/>
-      <c r="B658" s="1"/>
-      <c r="C658" s="6">
-        <v>14002</v>
-      </c>
-      <c r="D658" s="3">
-        <v>140</v>
-      </c>
-      <c r="E658" s="5">
-        <v>1</v>
-      </c>
-      <c r="F658" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G658" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H658" s="3">
-        <v>20506</v>
-      </c>
-    </row>
-    <row r="659" spans="3:8">
-      <c r="C659" s="6">
-        <v>14003</v>
-      </c>
-      <c r="D659" s="3">
-        <v>140</v>
-      </c>
-      <c r="E659" s="5">
-        <v>1</v>
-      </c>
-      <c r="F659" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G659" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H659" s="3">
-        <v>20507</v>
-      </c>
-    </row>
-    <row r="660" spans="3:8">
-      <c r="C660" s="6">
-        <v>14004</v>
-      </c>
-      <c r="D660" s="3">
-        <v>140</v>
-      </c>
-      <c r="E660" s="3">
-        <v>1</v>
-      </c>
-      <c r="F660" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G660" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H660" s="3">
-        <v>20508</v>
-      </c>
-    </row>
-    <row r="661" spans="3:7">
-      <c r="C661" s="6">
-        <v>14005</v>
-      </c>
-      <c r="D661" s="3">
-        <v>140</v>
-      </c>
-      <c r="E661" s="5">
-        <v>3</v>
-      </c>
-      <c r="F661" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G661" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="662" spans="3:7">
-      <c r="C662" s="6">
-        <v>14006</v>
-      </c>
-      <c r="D662" s="3">
-        <v>140</v>
-      </c>
-      <c r="E662" s="5">
-        <v>10</v>
-      </c>
-      <c r="F662" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G662" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="663" spans="3:7">
-      <c r="C663" s="6">
-        <v>14007</v>
-      </c>
-      <c r="D663" s="3">
-        <v>140</v>
-      </c>
-      <c r="E663" s="5">
-        <v>10</v>
-      </c>
-      <c r="F663" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G663" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="664" spans="3:7">
-      <c r="C664" s="6">
-        <v>14008</v>
-      </c>
-      <c r="D664" s="3">
-        <v>140</v>
-      </c>
-      <c r="E664" s="5">
-        <v>10</v>
-      </c>
-      <c r="F664" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G664" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="665" spans="3:7">
-      <c r="C665" s="6">
-        <v>14009</v>
-      </c>
-      <c r="D665" s="3">
-        <v>140</v>
-      </c>
-      <c r="E665" s="5">
-        <v>10</v>
-      </c>
-      <c r="F665" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G665" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="666" spans="3:7">
-      <c r="C666" s="6">
-        <v>14010</v>
-      </c>
-      <c r="D666" s="3">
-        <v>140</v>
-      </c>
-      <c r="E666" s="5">
-        <v>10</v>
-      </c>
-      <c r="F666" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G666" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="667" spans="3:7">
-      <c r="C667" s="6">
-        <v>14011</v>
-      </c>
-      <c r="D667" s="3">
-        <v>140</v>
-      </c>
-      <c r="E667" s="5">
-        <v>9</v>
-      </c>
-      <c r="F667" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G667" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="668" spans="3:7">
-      <c r="C668" s="6">
-        <v>14012</v>
-      </c>
-      <c r="D668" s="3">
-        <v>140</v>
-      </c>
-      <c r="E668" s="5">
-        <v>10</v>
-      </c>
-      <c r="F668" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G668" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="669" spans="3:7">
-      <c r="C669" s="6">
-        <v>14013</v>
-      </c>
-      <c r="D669" s="3">
-        <v>140</v>
-      </c>
-      <c r="E669" s="5">
-        <v>9</v>
-      </c>
-      <c r="F669" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G669" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="670" spans="3:7">
-      <c r="C670" s="6">
-        <v>14014</v>
-      </c>
-      <c r="D670" s="3">
-        <v>140</v>
-      </c>
-      <c r="E670" s="5">
-        <v>9</v>
-      </c>
-      <c r="F670" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G670" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="671" spans="3:7">
-      <c r="C671" s="6">
-        <v>14015</v>
-      </c>
-      <c r="D671" s="3">
-        <v>140</v>
-      </c>
-      <c r="E671" s="5">
-        <v>9</v>
-      </c>
-      <c r="F671" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G671" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="672" spans="3:7">
-      <c r="C672" s="6">
-        <v>14016</v>
-      </c>
-      <c r="D672" s="3">
-        <v>140</v>
-      </c>
-      <c r="E672" s="5">
-        <v>2</v>
-      </c>
-      <c r="F672" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G672" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="673" spans="3:7">
-      <c r="C673" s="6">
-        <v>14017</v>
-      </c>
-      <c r="D673" s="3">
-        <v>140</v>
-      </c>
-      <c r="E673" s="3">
-        <v>9</v>
-      </c>
-      <c r="F673" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G673" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="674" spans="3:7">
-      <c r="C674" s="6">
-        <v>14018</v>
-      </c>
-      <c r="D674" s="3">
-        <v>140</v>
-      </c>
-      <c r="E674" s="5">
-        <v>9</v>
-      </c>
-      <c r="F674" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G674" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="675" spans="3:7">
-      <c r="C675" s="6">
-        <v>14019</v>
-      </c>
-      <c r="D675" s="3">
-        <v>140</v>
-      </c>
-      <c r="E675" s="5">
-        <v>10</v>
-      </c>
-      <c r="F675" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G675" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="676" spans="3:7">
-      <c r="C676" s="6">
-        <v>14020</v>
-      </c>
-      <c r="D676" s="3">
-        <v>140</v>
-      </c>
-      <c r="E676" s="5">
-        <v>9</v>
-      </c>
-      <c r="F676" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G676" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="677" spans="3:7">
-      <c r="C677" s="6">
-        <v>14021</v>
-      </c>
-      <c r="D677" s="3">
-        <v>140</v>
-      </c>
-      <c r="E677" s="5">
-        <v>5</v>
-      </c>
-      <c r="F677" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G677" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="678" spans="3:7">
-      <c r="C678" s="6">
-        <v>14022</v>
-      </c>
-      <c r="D678" s="3">
-        <v>140</v>
-      </c>
-      <c r="E678" s="5">
-        <v>6</v>
-      </c>
-      <c r="F678" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G678" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="679" spans="3:7">
-      <c r="C679" s="6">
-        <v>14023</v>
-      </c>
-      <c r="D679" s="3">
-        <v>140</v>
-      </c>
-      <c r="E679" s="5">
-        <v>7</v>
-      </c>
-      <c r="F679" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G679" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="680" spans="3:7">
-      <c r="C680" s="6">
-        <v>14024</v>
-      </c>
-      <c r="D680" s="3">
-        <v>140</v>
-      </c>
-      <c r="E680" s="5">
-        <v>8</v>
-      </c>
-      <c r="F680" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G680" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="681" spans="3:7">
-      <c r="C681" s="6">
-        <v>14025</v>
-      </c>
-      <c r="D681" s="3">
-        <v>140</v>
-      </c>
-      <c r="E681" s="5">
-        <v>9</v>
-      </c>
-      <c r="F681" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G681" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="683" spans="1:8">
-      <c r="A683" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C683" s="6">
-        <v>14101</v>
-      </c>
-      <c r="D683" s="3">
-        <v>141</v>
-      </c>
-      <c r="E683" s="5">
-        <v>1</v>
-      </c>
-      <c r="F683" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G683" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H683" s="3">
-        <v>20525</v>
-      </c>
-    </row>
-    <row r="684" spans="1:8">
-      <c r="A684" s="1"/>
-      <c r="B684" s="1"/>
-      <c r="C684" s="6">
-        <v>14102</v>
-      </c>
-      <c r="D684" s="3">
-        <v>141</v>
-      </c>
-      <c r="E684" s="5">
-        <v>1</v>
-      </c>
-      <c r="F684" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G684" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H684" s="3">
-        <v>20526</v>
-      </c>
-    </row>
-    <row r="685" spans="3:8">
-      <c r="C685" s="6">
-        <v>14103</v>
-      </c>
-      <c r="D685" s="3">
-        <v>141</v>
-      </c>
-      <c r="E685" s="5">
-        <v>1</v>
-      </c>
-      <c r="F685" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G685" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H685" s="3">
-        <v>20527</v>
-      </c>
-    </row>
-    <row r="686" spans="3:8">
-      <c r="C686" s="6">
-        <v>14104</v>
-      </c>
-      <c r="D686" s="3">
-        <v>141</v>
-      </c>
-      <c r="E686" s="3">
-        <v>1</v>
-      </c>
-      <c r="F686" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G686" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H686" s="3">
-        <v>20528</v>
-      </c>
-    </row>
-    <row r="687" spans="3:7">
-      <c r="C687" s="6">
-        <v>14105</v>
-      </c>
-      <c r="D687" s="3">
-        <v>141</v>
-      </c>
-      <c r="E687" s="5">
-        <v>3</v>
-      </c>
-      <c r="F687" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G687" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="688" spans="3:7">
-      <c r="C688" s="6">
-        <v>14106</v>
-      </c>
-      <c r="D688" s="3">
-        <v>141</v>
-      </c>
-      <c r="E688" s="5">
-        <v>10</v>
-      </c>
-      <c r="F688" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G688" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="689" spans="3:7">
-      <c r="C689" s="6">
-        <v>14107</v>
-      </c>
-      <c r="D689" s="3">
-        <v>141</v>
-      </c>
-      <c r="E689" s="5">
-        <v>10</v>
-      </c>
-      <c r="F689" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G689" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="690" spans="3:7">
-      <c r="C690" s="6">
-        <v>14108</v>
-      </c>
-      <c r="D690" s="3">
-        <v>141</v>
-      </c>
-      <c r="E690" s="5">
-        <v>10</v>
-      </c>
-      <c r="F690" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G690" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="691" spans="3:7">
-      <c r="C691" s="6">
-        <v>14109</v>
-      </c>
-      <c r="D691" s="3">
-        <v>141</v>
-      </c>
-      <c r="E691" s="5">
-        <v>10</v>
-      </c>
-      <c r="F691" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G691" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="692" spans="3:7">
-      <c r="C692" s="6">
-        <v>14110</v>
-      </c>
-      <c r="D692" s="3">
-        <v>141</v>
-      </c>
-      <c r="E692" s="5">
-        <v>10</v>
-      </c>
-      <c r="F692" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G692" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="693" spans="3:7">
-      <c r="C693" s="6">
-        <v>14111</v>
-      </c>
-      <c r="D693" s="3">
-        <v>141</v>
-      </c>
-      <c r="E693" s="5">
-        <v>9</v>
-      </c>
-      <c r="F693" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G693" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="694" spans="3:7">
-      <c r="C694" s="6">
-        <v>14112</v>
-      </c>
-      <c r="D694" s="3">
-        <v>141</v>
-      </c>
-      <c r="E694" s="5">
-        <v>10</v>
-      </c>
-      <c r="F694" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G694" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="695" spans="3:7">
-      <c r="C695" s="6">
-        <v>14113</v>
-      </c>
-      <c r="D695" s="3">
-        <v>141</v>
-      </c>
-      <c r="E695" s="5">
-        <v>9</v>
-      </c>
-      <c r="F695" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G695" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="696" spans="3:7">
-      <c r="C696" s="6">
-        <v>14114</v>
-      </c>
-      <c r="D696" s="3">
-        <v>141</v>
-      </c>
-      <c r="E696" s="5">
-        <v>9</v>
-      </c>
-      <c r="F696" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G696" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="697" spans="3:7">
-      <c r="C697" s="6">
-        <v>14115</v>
-      </c>
-      <c r="D697" s="3">
-        <v>141</v>
-      </c>
-      <c r="E697" s="5">
-        <v>9</v>
-      </c>
-      <c r="F697" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G697" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="698" spans="3:7">
-      <c r="C698" s="6">
-        <v>14116</v>
-      </c>
-      <c r="D698" s="3">
-        <v>141</v>
-      </c>
-      <c r="E698" s="5">
-        <v>2</v>
-      </c>
-      <c r="F698" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G698" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="699" spans="3:7">
-      <c r="C699" s="6">
-        <v>14117</v>
-      </c>
-      <c r="D699" s="3">
-        <v>141</v>
-      </c>
-      <c r="E699" s="3">
-        <v>9</v>
-      </c>
-      <c r="F699" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G699" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="700" spans="3:7">
-      <c r="C700" s="6">
-        <v>14118</v>
-      </c>
-      <c r="D700" s="3">
-        <v>141</v>
-      </c>
-      <c r="E700" s="5">
-        <v>9</v>
-      </c>
-      <c r="F700" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G700" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="701" spans="3:7">
-      <c r="C701" s="6">
-        <v>14119</v>
-      </c>
-      <c r="D701" s="3">
-        <v>141</v>
-      </c>
-      <c r="E701" s="5">
-        <v>10</v>
-      </c>
-      <c r="F701" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G701" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="702" spans="3:7">
-      <c r="C702" s="6">
-        <v>14120</v>
-      </c>
-      <c r="D702" s="3">
-        <v>141</v>
-      </c>
-      <c r="E702" s="5">
-        <v>9</v>
-      </c>
-      <c r="F702" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G702" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="703" spans="3:7">
-      <c r="C703" s="6">
-        <v>14121</v>
-      </c>
-      <c r="D703" s="3">
-        <v>141</v>
-      </c>
-      <c r="E703" s="5">
-        <v>5</v>
-      </c>
-      <c r="F703" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G703" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="704" spans="3:7">
-      <c r="C704" s="6">
-        <v>14122</v>
-      </c>
-      <c r="D704" s="3">
-        <v>141</v>
-      </c>
-      <c r="E704" s="5">
-        <v>6</v>
-      </c>
-      <c r="F704" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G704" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="705" spans="3:7">
-      <c r="C705" s="6">
-        <v>14123</v>
-      </c>
-      <c r="D705" s="3">
-        <v>141</v>
-      </c>
-      <c r="E705" s="5">
-        <v>7</v>
-      </c>
-      <c r="F705" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G705" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="706" spans="3:7">
-      <c r="C706" s="6">
-        <v>14124</v>
-      </c>
-      <c r="D706" s="3">
-        <v>141</v>
-      </c>
-      <c r="E706" s="5">
-        <v>8</v>
-      </c>
-      <c r="F706" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G706" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="707" spans="3:7">
-      <c r="C707" s="6">
-        <v>14125</v>
-      </c>
-      <c r="D707" s="3">
-        <v>141</v>
-      </c>
-      <c r="E707" s="5">
-        <v>9</v>
-      </c>
-      <c r="F707" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G707" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="709" spans="1:8">
-      <c r="A709" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C709" s="6">
-        <v>14201</v>
-      </c>
-      <c r="D709" s="3">
-        <v>142</v>
-      </c>
-      <c r="E709" s="5">
-        <v>1</v>
-      </c>
-      <c r="F709" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G709" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H709" s="3">
-        <v>20565</v>
-      </c>
-    </row>
-    <row r="710" spans="1:8">
-      <c r="A710" s="1"/>
-      <c r="B710" s="1"/>
-      <c r="C710" s="6">
-        <v>14202</v>
-      </c>
-      <c r="D710" s="3">
-        <v>142</v>
-      </c>
-      <c r="E710" s="5">
-        <v>1</v>
-      </c>
-      <c r="F710" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G710" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H710" s="3">
-        <v>20566</v>
-      </c>
-    </row>
-    <row r="711" spans="3:8">
-      <c r="C711" s="6">
-        <v>14203</v>
-      </c>
-      <c r="D711" s="3">
-        <v>142</v>
-      </c>
-      <c r="E711" s="5">
-        <v>1</v>
-      </c>
-      <c r="F711" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G711" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H711" s="3">
-        <v>20567</v>
-      </c>
-    </row>
-    <row r="712" spans="3:8">
-      <c r="C712" s="6">
-        <v>14204</v>
-      </c>
-      <c r="D712" s="3">
-        <v>142</v>
-      </c>
-      <c r="E712" s="3">
-        <v>1</v>
-      </c>
-      <c r="F712" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G712" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H712" s="3">
-        <v>20568</v>
-      </c>
-    </row>
-    <row r="713" spans="3:7">
-      <c r="C713" s="6">
-        <v>14205</v>
-      </c>
-      <c r="D713" s="3">
-        <v>142</v>
-      </c>
-      <c r="E713" s="5">
-        <v>3</v>
-      </c>
-      <c r="F713" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G713" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="714" spans="3:7">
-      <c r="C714" s="6">
-        <v>14206</v>
-      </c>
-      <c r="D714" s="3">
-        <v>142</v>
-      </c>
-      <c r="E714" s="5">
-        <v>10</v>
-      </c>
-      <c r="F714" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G714" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="715" spans="3:7">
-      <c r="C715" s="6">
-        <v>14207</v>
-      </c>
-      <c r="D715" s="3">
-        <v>142</v>
-      </c>
-      <c r="E715" s="5">
-        <v>10</v>
-      </c>
-      <c r="F715" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G715" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="716" spans="3:7">
-      <c r="C716" s="6">
-        <v>14208</v>
-      </c>
-      <c r="D716" s="3">
-        <v>142</v>
-      </c>
-      <c r="E716" s="5">
-        <v>10</v>
-      </c>
-      <c r="F716" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G716" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="717" spans="3:7">
-      <c r="C717" s="6">
-        <v>14209</v>
-      </c>
-      <c r="D717" s="3">
-        <v>142</v>
-      </c>
-      <c r="E717" s="5">
-        <v>10</v>
-      </c>
-      <c r="F717" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G717" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="718" spans="3:7">
-      <c r="C718" s="6">
-        <v>14210</v>
-      </c>
-      <c r="D718" s="3">
-        <v>142</v>
-      </c>
-      <c r="E718" s="5">
-        <v>10</v>
-      </c>
-      <c r="F718" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G718" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="719" spans="3:7">
-      <c r="C719" s="6">
-        <v>14211</v>
-      </c>
-      <c r="D719" s="3">
-        <v>142</v>
-      </c>
-      <c r="E719" s="5">
-        <v>9</v>
-      </c>
-      <c r="F719" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G719" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="720" spans="3:7">
-      <c r="C720" s="6">
-        <v>14212</v>
-      </c>
-      <c r="D720" s="3">
-        <v>142</v>
-      </c>
-      <c r="E720" s="5">
-        <v>10</v>
-      </c>
-      <c r="F720" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G720" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="721" spans="3:7">
-      <c r="C721" s="6">
-        <v>14213</v>
-      </c>
-      <c r="D721" s="3">
-        <v>142</v>
-      </c>
-      <c r="E721" s="5">
-        <v>9</v>
-      </c>
-      <c r="F721" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G721" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="722" spans="3:7">
-      <c r="C722" s="6">
-        <v>14214</v>
-      </c>
-      <c r="D722" s="3">
-        <v>142</v>
-      </c>
-      <c r="E722" s="5">
-        <v>9</v>
-      </c>
-      <c r="F722" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G722" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="723" spans="3:7">
-      <c r="C723" s="6">
-        <v>14215</v>
-      </c>
-      <c r="D723" s="3">
-        <v>142</v>
-      </c>
-      <c r="E723" s="5">
-        <v>9</v>
-      </c>
-      <c r="F723" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G723" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="724" spans="3:7">
-      <c r="C724" s="6">
-        <v>14216</v>
-      </c>
-      <c r="D724" s="3">
-        <v>142</v>
-      </c>
-      <c r="E724" s="5">
-        <v>2</v>
-      </c>
-      <c r="F724" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G724" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="725" spans="3:7">
-      <c r="C725" s="6">
-        <v>14217</v>
-      </c>
-      <c r="D725" s="3">
-        <v>142</v>
-      </c>
-      <c r="E725" s="3">
-        <v>9</v>
-      </c>
-      <c r="F725" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G725" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="726" spans="3:7">
-      <c r="C726" s="6">
-        <v>14218</v>
-      </c>
-      <c r="D726" s="3">
-        <v>142</v>
-      </c>
-      <c r="E726" s="5">
-        <v>9</v>
-      </c>
-      <c r="F726" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G726" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="727" spans="3:7">
-      <c r="C727" s="6">
-        <v>14219</v>
-      </c>
-      <c r="D727" s="3">
-        <v>142</v>
-      </c>
-      <c r="E727" s="5">
-        <v>10</v>
-      </c>
-      <c r="F727" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G727" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="728" spans="3:7">
-      <c r="C728" s="6">
-        <v>14220</v>
-      </c>
-      <c r="D728" s="3">
-        <v>142</v>
-      </c>
-      <c r="E728" s="5">
-        <v>9</v>
-      </c>
-      <c r="F728" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G728" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="729" spans="3:7">
-      <c r="C729" s="6">
-        <v>14221</v>
-      </c>
-      <c r="D729" s="3">
-        <v>142</v>
-      </c>
-      <c r="E729" s="5">
-        <v>5</v>
-      </c>
-      <c r="F729" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G729" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="730" spans="3:7">
-      <c r="C730" s="6">
-        <v>14222</v>
-      </c>
-      <c r="D730" s="3">
-        <v>142</v>
-      </c>
-      <c r="E730" s="5">
-        <v>6</v>
-      </c>
-      <c r="F730" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G730" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="731" spans="3:7">
-      <c r="C731" s="6">
-        <v>14223</v>
-      </c>
-      <c r="D731" s="3">
-        <v>142</v>
-      </c>
-      <c r="E731" s="5">
-        <v>7</v>
-      </c>
-      <c r="F731" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G731" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="732" spans="3:7">
-      <c r="C732" s="6">
-        <v>14224</v>
-      </c>
-      <c r="D732" s="3">
-        <v>142</v>
-      </c>
-      <c r="E732" s="5">
-        <v>8</v>
-      </c>
-      <c r="F732" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G732" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="733" spans="3:7">
-      <c r="C733" s="6">
-        <v>14225</v>
-      </c>
-      <c r="D733" s="3">
-        <v>142</v>
-      </c>
-      <c r="E733" s="5">
-        <v>9</v>
-      </c>
-      <c r="F733" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G733" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13885,10 +12550,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -13903,10 +12568,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -13921,10 +12586,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -13939,10 +12604,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H9" s="5">
         <v>20304</v>
@@ -13959,10 +12624,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -14062,10 +12727,10 @@
         <v>203</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H6" s="5"/>
     </row>
